--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t>Surname</t>
   </si>
@@ -1151,6 +1151,12 @@
   </si>
   <si>
     <t>H210284Q</t>
+  </si>
+  <si>
+    <t>Nyamutenha</t>
+  </si>
+  <si>
+    <t>H210632F</t>
   </si>
   <si>
     <t>Nyamutowa</t>
@@ -5646,7 +5652,7 @@
         <v>381</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5662,7 +5668,7 @@
         <v>383</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5678,7 +5684,7 @@
         <v>385</v>
       </c>
       <c r="C190" t="s" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5694,7 +5700,7 @@
         <v>387</v>
       </c>
       <c r="C191" t="s" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5710,7 +5716,7 @@
         <v>389</v>
       </c>
       <c r="C192" t="s" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5742,7 +5748,7 @@
         <v>393</v>
       </c>
       <c r="C194" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -5758,7 +5764,7 @@
         <v>395</v>
       </c>
       <c r="C195" t="s" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5774,7 +5780,7 @@
         <v>397</v>
       </c>
       <c r="C196" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -5822,7 +5828,7 @@
         <v>403</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5838,7 +5844,7 @@
         <v>405</v>
       </c>
       <c r="C200" t="s" s="6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5854,7 +5860,7 @@
         <v>407</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5870,7 +5876,7 @@
         <v>409</v>
       </c>
       <c r="C202" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5886,7 +5892,7 @@
         <v>411</v>
       </c>
       <c r="C203" t="s" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5902,7 +5908,7 @@
         <v>413</v>
       </c>
       <c r="C204" t="s" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5918,7 +5924,7 @@
         <v>415</v>
       </c>
       <c r="C205" t="s" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5934,7 +5940,7 @@
         <v>417</v>
       </c>
       <c r="C206" t="s" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5950,7 +5956,7 @@
         <v>419</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5960,10 +5966,10 @@
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" t="s" s="6">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B208" t="s" s="6">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C208" t="s" s="6">
         <v>10</v>
@@ -5976,13 +5982,13 @@
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" t="s" s="6">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B209" t="s" s="6">
         <v>422</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5998,7 +6004,7 @@
         <v>424</v>
       </c>
       <c r="C210" t="s" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -6014,7 +6020,7 @@
         <v>426</v>
       </c>
       <c r="C211" t="s" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -6030,7 +6036,7 @@
         <v>428</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -6046,7 +6052,7 @@
         <v>430</v>
       </c>
       <c r="C213" t="s" s="6">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6062,7 +6068,7 @@
         <v>432</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -6078,7 +6084,7 @@
         <v>434</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -6094,7 +6100,7 @@
         <v>436</v>
       </c>
       <c r="C216" t="s" s="6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -6142,7 +6148,7 @@
         <v>442</v>
       </c>
       <c r="C219" t="s" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -6158,7 +6164,7 @@
         <v>444</v>
       </c>
       <c r="C220" t="s" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -6174,7 +6180,7 @@
         <v>446</v>
       </c>
       <c r="C221" t="s" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -6192,7 +6198,7 @@
       <c r="C222" t="s" s="6">
         <v>59</v>
       </c>
-      <c r="D222" s="8"/>
+      <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="8"/>
@@ -6206,9 +6212,9 @@
         <v>450</v>
       </c>
       <c r="C223" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D223" s="8"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="8"/>
@@ -6222,7 +6228,7 @@
         <v>452</v>
       </c>
       <c r="C224" t="s" s="6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -6238,7 +6244,7 @@
         <v>454</v>
       </c>
       <c r="C225" t="s" s="6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -6254,7 +6260,7 @@
         <v>456</v>
       </c>
       <c r="C226" t="s" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -6270,7 +6276,7 @@
         <v>458</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -6286,7 +6292,7 @@
         <v>460</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -6302,7 +6308,7 @@
         <v>462</v>
       </c>
       <c r="C229" t="s" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -6318,7 +6324,7 @@
         <v>464</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -6334,7 +6340,7 @@
         <v>466</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -6359,9 +6365,15 @@
       <c r="H232" s="8"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="A233" t="s" s="6">
+        <v>469</v>
+      </c>
+      <c r="B233" t="s" s="6">
+        <v>470</v>
+      </c>
+      <c r="C233" t="s" s="6">
+        <v>18</v>
+      </c>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
   <si>
     <t>Surname</t>
   </si>
@@ -595,6 +595,12 @@
     <t>H210398M</t>
   </si>
   <si>
+    <t>Kahonde</t>
+  </si>
+  <si>
+    <t>H200968H</t>
+  </si>
+  <si>
     <t>Kananji</t>
   </si>
   <si>
@@ -841,6 +847,12 @@
     <t>H210529J</t>
   </si>
   <si>
+    <t>Manhandanya</t>
+  </si>
+  <si>
+    <t>H200630P</t>
+  </si>
+  <si>
     <t>Manhanga</t>
   </si>
   <si>
@@ -1070,6 +1082,9 @@
   </si>
   <si>
     <t>H210449A</t>
+  </si>
+  <si>
+    <t>H210701T</t>
   </si>
   <si>
     <t>MHLOPE</t>
@@ -3401,7 +3416,9 @@
       <c r="C17" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -3833,7 +3850,9 @@
       <c r="C44" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -4489,7 +4508,9 @@
       <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
@@ -4623,11 +4644,11 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.35" customHeight="1">
-      <c r="A94" t="s" s="13">
+    <row r="94" ht="20.05" customHeight="1">
+      <c r="A94" t="s" s="12">
         <v>192</v>
       </c>
-      <c r="B94" t="s" s="13">
+      <c r="B94" t="s" s="12">
         <v>193</v>
       </c>
       <c r="C94" t="s" s="12">
@@ -4639,31 +4660,31 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.7" customHeight="1">
-      <c r="A95" t="s" s="4">
+    <row r="95" ht="20.35" customHeight="1">
+      <c r="A95" t="s" s="13">
         <v>194</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="13">
         <v>195</v>
       </c>
-      <c r="C95" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.35" customHeight="1">
-      <c r="A96" t="s" s="11">
+    <row r="96" ht="20.7" customHeight="1">
+      <c r="A96" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="B96" t="s" s="11">
+      <c r="B96" t="s" s="4">
         <v>197</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>39</v>
+      <c r="C96" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4671,15 +4692,15 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="12">
+    <row r="97" ht="20.35" customHeight="1">
+      <c r="A97" t="s" s="11">
         <v>198</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="11">
         <v>199</v>
       </c>
       <c r="C97" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4695,7 +4716,7 @@
         <v>201</v>
       </c>
       <c r="C98" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4711,7 +4732,7 @@
         <v>203</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4719,15 +4740,15 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.35" customHeight="1">
-      <c r="A100" t="s" s="13">
+    <row r="100" ht="20.05" customHeight="1">
+      <c r="A100" t="s" s="12">
         <v>204</v>
       </c>
-      <c r="B100" t="s" s="13">
+      <c r="B100" t="s" s="12">
         <v>205</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4735,15 +4756,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.7" customHeight="1">
-      <c r="A101" t="s" s="4">
+    <row r="101" ht="20.35" customHeight="1">
+      <c r="A101" t="s" s="13">
         <v>206</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="13">
         <v>207</v>
       </c>
-      <c r="C101" t="s" s="8">
-        <v>25</v>
+      <c r="C101" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4759,7 +4780,7 @@
         <v>209</v>
       </c>
       <c r="C102" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4769,13 +4790,13 @@
     </row>
     <row r="103" ht="20.7" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4784,14 +4805,14 @@
       <c r="H103" s="10"/>
     </row>
     <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="14">
+      <c r="A104" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="B104" t="s" s="14">
+      <c r="B104" t="s" s="4">
         <v>211</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>15</v>
+      <c r="C104" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4800,14 +4821,14 @@
       <c r="H104" s="10"/>
     </row>
     <row r="105" ht="20.7" customHeight="1">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="14">
         <v>212</v>
       </c>
-      <c r="B105" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="C105" t="s" s="8">
-        <v>10</v>
+      <c r="B105" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="C105" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4817,13 +4838,13 @@
     </row>
     <row r="106" ht="20.7" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -4831,15 +4852,15 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.35" customHeight="1">
-      <c r="A107" t="s" s="11">
+    <row r="107" ht="20.7" customHeight="1">
+      <c r="A107" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="B107" t="s" s="11">
-        <v>214</v>
-      </c>
-      <c r="C107" t="s" s="12">
-        <v>42</v>
+      <c r="C107" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4847,17 +4868,19 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="12">
+    <row r="108" ht="20.35" customHeight="1">
+      <c r="A108" t="s" s="11">
         <v>215</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="11">
         <v>216</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D108" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
@@ -4871,7 +4894,7 @@
         <v>218</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -4879,11 +4902,11 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.35" customHeight="1">
-      <c r="A110" t="s" s="13">
+    <row r="110" ht="20.05" customHeight="1">
+      <c r="A110" t="s" s="12">
         <v>219</v>
       </c>
-      <c r="B110" t="s" s="13">
+      <c r="B110" t="s" s="12">
         <v>220</v>
       </c>
       <c r="C110" t="s" s="12">
@@ -4895,15 +4918,15 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.7" customHeight="1">
-      <c r="A111" t="s" s="4">
+    <row r="111" ht="20.35" customHeight="1">
+      <c r="A111" t="s" s="13">
         <v>221</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="13">
         <v>222</v>
       </c>
-      <c r="C111" t="s" s="8">
-        <v>25</v>
+      <c r="C111" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4911,15 +4934,15 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.35" customHeight="1">
-      <c r="A112" t="s" s="11">
+    <row r="112" ht="20.7" customHeight="1">
+      <c r="A112" t="s" s="4">
         <v>223</v>
       </c>
-      <c r="B112" t="s" s="11">
+      <c r="B112" t="s" s="4">
         <v>224</v>
       </c>
-      <c r="C112" t="s" s="12">
-        <v>42</v>
+      <c r="C112" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4927,15 +4950,15 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="12">
+    <row r="113" ht="20.35" customHeight="1">
+      <c r="A113" t="s" s="11">
         <v>225</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="11">
         <v>226</v>
       </c>
       <c r="C113" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4951,7 +4974,7 @@
         <v>228</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4959,15 +4982,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.35" customHeight="1">
-      <c r="A115" t="s" s="13">
+    <row r="115" ht="20.05" customHeight="1">
+      <c r="A115" t="s" s="12">
         <v>229</v>
       </c>
-      <c r="B115" t="s" s="13">
+      <c r="B115" t="s" s="12">
         <v>230</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -4975,15 +4998,15 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.7" customHeight="1">
-      <c r="A116" t="s" s="4">
+    <row r="116" ht="20.35" customHeight="1">
+      <c r="A116" t="s" s="13">
         <v>231</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="13">
         <v>232</v>
       </c>
-      <c r="C116" t="s" s="8">
-        <v>10</v>
+      <c r="C116" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -4993,13 +5016,13 @@
     </row>
     <row r="117" ht="20.7" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5008,14 +5031,14 @@
       <c r="H117" s="10"/>
     </row>
     <row r="118" ht="20.7" customHeight="1">
-      <c r="A118" t="s" s="14">
+      <c r="A118" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="B118" t="s" s="14">
+      <c r="B118" t="s" s="4">
         <v>234</v>
       </c>
-      <c r="C118" t="s" s="12">
-        <v>71</v>
+      <c r="C118" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5024,14 +5047,14 @@
       <c r="H118" s="10"/>
     </row>
     <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="14">
         <v>236</v>
       </c>
-      <c r="C119" t="s" s="8">
-        <v>25</v>
+      <c r="C119" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5039,15 +5062,15 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.35" customHeight="1">
-      <c r="A120" t="s" s="11">
+    <row r="120" ht="20.7" customHeight="1">
+      <c r="A120" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="B120" t="s" s="11">
+      <c r="B120" t="s" s="4">
         <v>238</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>39</v>
+      <c r="C120" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5056,14 +5079,14 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="13">
+      <c r="A121" t="s" s="11">
         <v>239</v>
       </c>
-      <c r="B121" t="s" s="13">
+      <c r="B121" t="s" s="11">
         <v>240</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5071,15 +5094,15 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.7" customHeight="1">
-      <c r="A122" t="s" s="4">
+    <row r="122" ht="20.35" customHeight="1">
+      <c r="A122" t="s" s="13">
         <v>241</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="13">
         <v>242</v>
       </c>
-      <c r="C122" t="s" s="8">
-        <v>10</v>
+      <c r="C122" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5089,13 +5112,13 @@
     </row>
     <row r="123" ht="20.7" customHeight="1">
       <c r="A123" t="s" s="4">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5103,15 +5126,15 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.35" customHeight="1">
-      <c r="A124" t="s" s="11">
+    <row r="124" ht="20.7" customHeight="1">
+      <c r="A124" t="s" s="4">
         <v>243</v>
       </c>
-      <c r="B124" t="s" s="11">
+      <c r="B124" t="s" s="4">
         <v>244</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>42</v>
+      <c r="C124" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5120,78 +5143,78 @@
       <c r="H124" s="10"/>
     </row>
     <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="13">
+      <c r="A125" t="s" s="11">
         <v>245</v>
       </c>
-      <c r="B125" t="s" s="13">
+      <c r="B125" t="s" s="11">
         <v>246</v>
       </c>
       <c r="C125" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D125" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="4">
+    <row r="126" ht="20.35" customHeight="1">
+      <c r="A126" t="s" s="13">
         <v>247</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="13">
         <v>248</v>
       </c>
-      <c r="C126" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D126" s="9"/>
+      <c r="C126" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D126" s="10"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="14">
+      <c r="A127" t="s" s="4">
         <v>249</v>
       </c>
-      <c r="B127" t="s" s="14">
+      <c r="B127" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D127" s="10"/>
+      <c r="C127" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="14">
         <v>251</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="C128" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D128" s="9"/>
+      <c r="C128" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D128" s="10"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="11">
+    <row r="129" ht="20.7" customHeight="1">
+      <c r="A129" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="B129" t="s" s="11">
+      <c r="B129" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>18</v>
+      <c r="C129" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -5200,10 +5223,10 @@
       <c r="H129" s="10"/>
     </row>
     <row r="130" ht="20.35" customHeight="1">
-      <c r="A130" t="s" s="13">
+      <c r="A130" t="s" s="11">
         <v>255</v>
       </c>
-      <c r="B130" t="s" s="13">
+      <c r="B130" t="s" s="11">
         <v>256</v>
       </c>
       <c r="C130" t="s" s="12">
@@ -5215,15 +5238,15 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.7" customHeight="1">
-      <c r="A131" t="s" s="4">
+    <row r="131" ht="20.35" customHeight="1">
+      <c r="A131" t="s" s="13">
         <v>257</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="13">
         <v>258</v>
       </c>
-      <c r="C131" t="s" s="8">
-        <v>10</v>
+      <c r="C131" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5233,13 +5256,13 @@
     </row>
     <row r="132" ht="20.7" customHeight="1">
       <c r="A132" t="s" s="4">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5247,15 +5270,15 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.35" customHeight="1">
-      <c r="A133" t="s" s="11">
+    <row r="133" ht="20.7" customHeight="1">
+      <c r="A133" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="B133" t="s" s="11">
+      <c r="B133" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>42</v>
+      <c r="C133" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5263,17 +5286,17 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" t="s" s="12">
+    <row r="134" ht="20.35" customHeight="1">
+      <c r="A134" t="s" s="11">
         <v>261</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="11">
         <v>262</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
@@ -5287,9 +5310,9 @@
         <v>264</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D135" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
@@ -5303,7 +5326,7 @@
         <v>266</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5319,7 +5342,7 @@
         <v>268</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5335,7 +5358,7 @@
         <v>270</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5345,13 +5368,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s" s="12">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5361,13 +5384,13 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s" s="12">
         <v>273</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5383,7 +5406,7 @@
         <v>275</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -5391,11 +5414,11 @@
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.35" customHeight="1">
-      <c r="A142" t="s" s="13">
+    <row r="142" ht="20.05" customHeight="1">
+      <c r="A142" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="B142" t="s" s="13">
+      <c r="B142" t="s" s="12">
         <v>277</v>
       </c>
       <c r="C142" t="s" s="12">
@@ -5407,47 +5430,49 @@
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.7" customHeight="1">
-      <c r="A143" t="s" s="4">
+    <row r="143" ht="20.05" customHeight="1">
+      <c r="A143" t="s" s="12">
         <v>278</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>279</v>
       </c>
-      <c r="C143" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D143" s="9"/>
+      <c r="C143" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D143" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
     <row r="144" ht="20.35" customHeight="1">
-      <c r="A144" t="s" s="11">
+      <c r="A144" t="s" s="13">
         <v>280</v>
       </c>
-      <c r="B144" t="s" s="11">
+      <c r="B144" t="s" s="13">
         <v>281</v>
       </c>
       <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" s="10"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="12">
+    <row r="145" ht="20.7" customHeight="1">
+      <c r="A145" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="4">
         <v>283</v>
       </c>
-      <c r="C145" t="s" s="12">
-        <v>42</v>
+      <c r="C145" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -5455,17 +5480,17 @@
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="12">
+    <row r="146" ht="20.35" customHeight="1">
+      <c r="A146" t="s" s="11">
         <v>284</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="11">
         <v>285</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D146" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D146" s="10"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
@@ -5479,7 +5504,7 @@
         <v>287</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5495,7 +5520,7 @@
         <v>289</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -5505,29 +5530,29 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="12">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B149" t="s" s="12">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D149" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.35" customHeight="1">
-      <c r="A150" t="s" s="13">
-        <v>288</v>
-      </c>
-      <c r="B150" t="s" s="13">
-        <v>291</v>
+    <row r="150" ht="20.05" customHeight="1">
+      <c r="A150" t="s" s="12">
+        <v>292</v>
+      </c>
+      <c r="B150" t="s" s="12">
+        <v>293</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -5535,31 +5560,31 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.7" customHeight="1">
-      <c r="A151" t="s" s="4">
-        <v>288</v>
-      </c>
-      <c r="B151" t="s" s="4">
+    <row r="151" ht="20.05" customHeight="1">
+      <c r="A151" t="s" s="12">
         <v>292</v>
       </c>
-      <c r="C151" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D151" s="9"/>
+      <c r="B151" t="s" s="12">
+        <v>294</v>
+      </c>
+      <c r="C151" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D151" s="10"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
     <row r="152" ht="20.35" customHeight="1">
-      <c r="A152" t="s" s="11">
-        <v>293</v>
-      </c>
-      <c r="B152" t="s" s="11">
-        <v>294</v>
+      <c r="A152" t="s" s="13">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s" s="13">
+        <v>295</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -5567,15 +5592,15 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="12">
-        <v>295</v>
-      </c>
-      <c r="B153" t="s" s="12">
+    <row r="153" ht="20.7" customHeight="1">
+      <c r="A153" t="s" s="4">
+        <v>292</v>
+      </c>
+      <c r="B153" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>42</v>
+      <c r="C153" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -5583,15 +5608,15 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="12">
+    <row r="154" ht="20.35" customHeight="1">
+      <c r="A154" t="s" s="11">
         <v>297</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="11">
         <v>298</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -5623,9 +5648,9 @@
         <v>302</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D156" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
@@ -5655,9 +5680,9 @@
         <v>306</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D158" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D158" s="10"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
@@ -5671,7 +5696,7 @@
         <v>308</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -5687,7 +5712,7 @@
         <v>310</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5703,7 +5728,7 @@
         <v>312</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5711,15 +5736,15 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" ht="20.35" customHeight="1">
-      <c r="A162" t="s" s="13">
+    <row r="162" ht="20.05" customHeight="1">
+      <c r="A162" t="s" s="12">
         <v>313</v>
       </c>
-      <c r="B162" t="s" s="13">
+      <c r="B162" t="s" s="12">
         <v>314</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5727,15 +5752,15 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.7" customHeight="1">
-      <c r="A163" t="s" s="4">
+    <row r="163" ht="20.05" customHeight="1">
+      <c r="A163" t="s" s="12">
         <v>315</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>316</v>
       </c>
-      <c r="C163" t="s" s="8">
-        <v>10</v>
+      <c r="C163" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5743,15 +5768,15 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.7" customHeight="1">
-      <c r="A164" t="s" s="4">
-        <v>315</v>
-      </c>
-      <c r="B164" t="s" s="4">
-        <v>316</v>
-      </c>
-      <c r="C164" t="s" s="8">
-        <v>25</v>
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" t="s" s="13">
+        <v>317</v>
+      </c>
+      <c r="B164" t="s" s="13">
+        <v>318</v>
+      </c>
+      <c r="C164" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -5759,15 +5784,15 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.35" customHeight="1">
-      <c r="A165" t="s" s="11">
-        <v>317</v>
-      </c>
-      <c r="B165" t="s" s="11">
-        <v>318</v>
-      </c>
-      <c r="C165" t="s" s="12">
-        <v>42</v>
+    <row r="165" ht="20.7" customHeight="1">
+      <c r="A165" t="s" s="4">
+        <v>319</v>
+      </c>
+      <c r="B165" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="C165" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5775,31 +5800,31 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.05" customHeight="1">
-      <c r="A166" t="s" s="12">
+    <row r="166" ht="20.7" customHeight="1">
+      <c r="A166" t="s" s="4">
         <v>319</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="4">
         <v>320</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D166" s="10"/>
+      <c r="C166" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" ht="20.05" customHeight="1">
-      <c r="A167" t="s" s="12">
+    <row r="167" ht="20.35" customHeight="1">
+      <c r="A167" t="s" s="11">
         <v>321</v>
       </c>
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="11">
         <v>322</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -5815,9 +5840,9 @@
         <v>324</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D168" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D168" s="10"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -5833,7 +5858,7 @@
       <c r="C169" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D169" s="10"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
@@ -5847,9 +5872,9 @@
         <v>328</v>
       </c>
       <c r="C170" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D170" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
@@ -5863,9 +5888,9 @@
         <v>330</v>
       </c>
       <c r="C171" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D171" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D171" s="10"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -5879,23 +5904,23 @@
         <v>332</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D172" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D172" s="10"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" ht="20.35" customHeight="1">
-      <c r="A173" t="s" s="13">
+    <row r="173" ht="20.05" customHeight="1">
+      <c r="A173" t="s" s="12">
         <v>333</v>
       </c>
-      <c r="B173" t="s" s="13">
+      <c r="B173" t="s" s="12">
         <v>334</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -5903,15 +5928,15 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.7" customHeight="1">
-      <c r="A174" t="s" s="4">
+    <row r="174" ht="20.05" customHeight="1">
+      <c r="A174" t="s" s="12">
         <v>335</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>336</v>
       </c>
-      <c r="C174" t="s" s="8">
-        <v>25</v>
+      <c r="C174" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -5920,14 +5945,14 @@
       <c r="H174" s="10"/>
     </row>
     <row r="175" ht="20.35" customHeight="1">
-      <c r="A175" t="s" s="11">
+      <c r="A175" t="s" s="13">
         <v>337</v>
       </c>
-      <c r="B175" t="s" s="11">
+      <c r="B175" t="s" s="13">
         <v>338</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -5935,15 +5960,15 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.05" customHeight="1">
-      <c r="A176" t="s" s="12">
+    <row r="176" ht="20.7" customHeight="1">
+      <c r="A176" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="4">
         <v>340</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>18</v>
+      <c r="C176" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -5951,15 +5976,15 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="12">
+    <row r="177" ht="20.35" customHeight="1">
+      <c r="A177" t="s" s="11">
         <v>341</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="11">
         <v>342</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -5975,7 +6000,7 @@
         <v>344</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -5991,7 +6016,7 @@
         <v>346</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6007,7 +6032,7 @@
         <v>348</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -6023,7 +6048,7 @@
         <v>350</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -6031,15 +6056,15 @@
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" ht="20.35" customHeight="1">
-      <c r="A182" t="s" s="13">
+    <row r="182" ht="20.05" customHeight="1">
+      <c r="A182" t="s" s="12">
         <v>351</v>
       </c>
-      <c r="B182" t="s" s="13">
+      <c r="B182" t="s" s="12">
         <v>352</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6047,15 +6072,15 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.7" customHeight="1">
-      <c r="A183" t="s" s="15">
+    <row r="183" ht="20.05" customHeight="1">
+      <c r="A183" t="s" s="12">
         <v>353</v>
       </c>
-      <c r="B183" t="s" s="15">
+      <c r="B183" t="s" s="12">
         <v>354</v>
       </c>
-      <c r="C183" t="s" s="8">
-        <v>10</v>
+      <c r="C183" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6063,15 +6088,15 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="4">
-        <v>353</v>
-      </c>
-      <c r="B184" t="s" s="4">
-        <v>354</v>
-      </c>
-      <c r="C184" t="s" s="8">
-        <v>25</v>
+    <row r="184" ht="20.05" customHeight="1">
+      <c r="A184" t="s" s="12">
+        <v>355</v>
+      </c>
+      <c r="B184" t="s" s="12">
+        <v>356</v>
+      </c>
+      <c r="C184" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -6079,28 +6104,30 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="14">
+    <row r="185" ht="20.35" customHeight="1">
+      <c r="A185" t="s" s="13">
         <v>355</v>
       </c>
-      <c r="B185" t="s" s="14">
-        <v>356</v>
+      <c r="B185" t="s" s="13">
+        <v>357</v>
       </c>
       <c r="C185" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D185" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D185" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
     <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="4">
-        <v>357</v>
-      </c>
-      <c r="B186" t="s" s="4">
+      <c r="A186" t="s" s="15">
         <v>358</v>
+      </c>
+      <c r="B186" t="s" s="15">
+        <v>359</v>
       </c>
       <c r="C186" t="s" s="8">
         <v>10</v>
@@ -6113,10 +6140,10 @@
     </row>
     <row r="187" ht="20.7" customHeight="1">
       <c r="A187" t="s" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B187" t="s" s="4">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C187" t="s" s="8">
         <v>25</v>
@@ -6127,15 +6154,15 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.35" customHeight="1">
-      <c r="A188" t="s" s="11">
-        <v>359</v>
-      </c>
-      <c r="B188" t="s" s="11">
+    <row r="188" ht="20.7" customHeight="1">
+      <c r="A188" t="s" s="14">
         <v>360</v>
       </c>
+      <c r="B188" t="s" s="14">
+        <v>361</v>
+      </c>
       <c r="C188" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -6143,15 +6170,15 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" ht="20.35" customHeight="1">
-      <c r="A189" t="s" s="13">
-        <v>361</v>
-      </c>
-      <c r="B189" t="s" s="13">
+    <row r="189" ht="20.7" customHeight="1">
+      <c r="A189" t="s" s="4">
         <v>362</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>18</v>
+      <c r="B189" t="s" s="4">
+        <v>363</v>
+      </c>
+      <c r="C189" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -6161,13 +6188,13 @@
     </row>
     <row r="190" ht="20.7" customHeight="1">
       <c r="A190" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="B190" t="s" s="4">
         <v>363</v>
       </c>
-      <c r="B190" t="s" s="4">
-        <v>364</v>
-      </c>
       <c r="C190" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6177,13 +6204,13 @@
     </row>
     <row r="191" ht="20.35" customHeight="1">
       <c r="A191" t="s" s="11">
+        <v>364</v>
+      </c>
+      <c r="B191" t="s" s="11">
         <v>365</v>
       </c>
-      <c r="B191" t="s" s="11">
-        <v>366</v>
-      </c>
       <c r="C191" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6191,11 +6218,11 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.05" customHeight="1">
-      <c r="A192" t="s" s="12">
-        <v>365</v>
-      </c>
-      <c r="B192" t="s" s="12">
+    <row r="192" ht="20.35" customHeight="1">
+      <c r="A192" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="B192" t="s" s="13">
         <v>367</v>
       </c>
       <c r="C192" t="s" s="12">
@@ -6207,15 +6234,15 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.35" customHeight="1">
-      <c r="A193" t="s" s="13">
+    <row r="193" ht="20.7" customHeight="1">
+      <c r="A193" t="s" s="4">
         <v>368</v>
       </c>
-      <c r="B193" t="s" s="13">
+      <c r="B193" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>71</v>
+      <c r="C193" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -6223,31 +6250,33 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.7" customHeight="1">
-      <c r="A194" t="s" s="4">
+    <row r="194" ht="20.35" customHeight="1">
+      <c r="A194" t="s" s="11">
         <v>370</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="11">
         <v>371</v>
       </c>
-      <c r="C194" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D194" s="9"/>
+      <c r="C194" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D194" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="14">
+    <row r="195" ht="20.05" customHeight="1">
+      <c r="A195" t="s" s="12">
+        <v>370</v>
+      </c>
+      <c r="B195" t="s" s="12">
         <v>372</v>
       </c>
-      <c r="B195" t="s" s="14">
-        <v>373</v>
-      </c>
       <c r="C195" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6255,15 +6284,15 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="4">
+    <row r="196" ht="20.35" customHeight="1">
+      <c r="A196" t="s" s="13">
+        <v>373</v>
+      </c>
+      <c r="B196" t="s" s="13">
         <v>374</v>
       </c>
-      <c r="B196" t="s" s="4">
-        <v>375</v>
-      </c>
-      <c r="C196" t="s" s="8">
-        <v>25</v>
+      <c r="C196" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -6272,14 +6301,14 @@
       <c r="H196" s="10"/>
     </row>
     <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="14">
+      <c r="A197" t="s" s="4">
+        <v>375</v>
+      </c>
+      <c r="B197" t="s" s="4">
         <v>376</v>
       </c>
-      <c r="B197" t="s" s="14">
-        <v>377</v>
-      </c>
-      <c r="C197" t="s" s="12">
-        <v>71</v>
+      <c r="C197" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6288,14 +6317,14 @@
       <c r="H197" s="10"/>
     </row>
     <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="14">
+        <v>377</v>
+      </c>
+      <c r="B198" t="s" s="14">
         <v>378</v>
       </c>
-      <c r="B198" t="s" s="4">
-        <v>379</v>
-      </c>
-      <c r="C198" t="s" s="8">
-        <v>10</v>
+      <c r="C198" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6305,10 +6334,10 @@
     </row>
     <row r="199" ht="20.7" customHeight="1">
       <c r="A199" t="s" s="4">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B199" t="s" s="4">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C199" t="s" s="8">
         <v>25</v>
@@ -6320,14 +6349,14 @@
       <c r="H199" s="10"/>
     </row>
     <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="B200" t="s" s="4">
+      <c r="A200" t="s" s="14">
         <v>381</v>
       </c>
-      <c r="C200" t="s" s="8">
-        <v>10</v>
+      <c r="B200" t="s" s="14">
+        <v>382</v>
+      </c>
+      <c r="C200" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6335,15 +6364,15 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.35" customHeight="1">
-      <c r="A201" t="s" s="11">
-        <v>382</v>
-      </c>
-      <c r="B201" t="s" s="11">
+    <row r="201" ht="20.7" customHeight="1">
+      <c r="A201" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>15</v>
+      <c r="B201" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="C201" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6351,15 +6380,15 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="12">
+    <row r="202" ht="20.7" customHeight="1">
+      <c r="A202" t="s" s="4">
+        <v>383</v>
+      </c>
+      <c r="B202" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="B202" t="s" s="12">
-        <v>385</v>
-      </c>
-      <c r="C202" t="s" s="12">
-        <v>39</v>
+      <c r="C202" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6367,15 +6396,15 @@
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.05" customHeight="1">
-      <c r="A203" t="s" s="12">
+    <row r="203" ht="20.7" customHeight="1">
+      <c r="A203" t="s" s="4">
+        <v>385</v>
+      </c>
+      <c r="B203" t="s" s="4">
         <v>386</v>
       </c>
-      <c r="B203" t="s" s="12">
-        <v>387</v>
-      </c>
-      <c r="C203" t="s" s="12">
-        <v>42</v>
+      <c r="C203" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -6383,15 +6412,15 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="12">
+    <row r="204" ht="20.35" customHeight="1">
+      <c r="A204" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="B204" t="s" s="11">
         <v>388</v>
       </c>
-      <c r="B204" t="s" s="12">
-        <v>389</v>
-      </c>
       <c r="C204" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6399,12 +6428,12 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.35" customHeight="1">
-      <c r="A205" t="s" s="13">
+    <row r="205" ht="20.05" customHeight="1">
+      <c r="A205" t="s" s="12">
+        <v>389</v>
+      </c>
+      <c r="B205" t="s" s="12">
         <v>390</v>
-      </c>
-      <c r="B205" t="s" s="13">
-        <v>391</v>
       </c>
       <c r="C205" t="s" s="12">
         <v>39</v>
@@ -6415,15 +6444,15 @@
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="4">
+    <row r="206" ht="20.05" customHeight="1">
+      <c r="A206" t="s" s="12">
+        <v>391</v>
+      </c>
+      <c r="B206" t="s" s="12">
         <v>392</v>
       </c>
-      <c r="B206" t="s" s="4">
-        <v>393</v>
-      </c>
-      <c r="C206" t="s" s="8">
-        <v>25</v>
+      <c r="C206" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6431,15 +6460,15 @@
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.35" customHeight="1">
-      <c r="A207" t="s" s="11">
+    <row r="207" ht="20.05" customHeight="1">
+      <c r="A207" t="s" s="12">
+        <v>393</v>
+      </c>
+      <c r="B207" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="B207" t="s" s="11">
-        <v>395</v>
-      </c>
       <c r="C207" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -6449,13 +6478,13 @@
     </row>
     <row r="208" ht="20.35" customHeight="1">
       <c r="A208" t="s" s="13">
+        <v>395</v>
+      </c>
+      <c r="B208" t="s" s="13">
         <v>396</v>
       </c>
-      <c r="B208" t="s" s="13">
-        <v>397</v>
-      </c>
       <c r="C208" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -6465,13 +6494,13 @@
     </row>
     <row r="209" ht="20.7" customHeight="1">
       <c r="A209" t="s" s="4">
+        <v>397</v>
+      </c>
+      <c r="B209" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="B209" t="s" s="4">
-        <v>399</v>
-      </c>
       <c r="C209" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6479,15 +6508,15 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.7" customHeight="1">
-      <c r="A210" t="s" s="4">
+    <row r="210" ht="20.35" customHeight="1">
+      <c r="A210" t="s" s="11">
+        <v>399</v>
+      </c>
+      <c r="B210" t="s" s="11">
         <v>400</v>
       </c>
-      <c r="B210" t="s" s="4">
-        <v>401</v>
-      </c>
-      <c r="C210" t="s" s="8">
-        <v>10</v>
+      <c r="C210" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6495,15 +6524,15 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.7" customHeight="1">
-      <c r="A211" t="s" s="15">
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="13">
+        <v>401</v>
+      </c>
+      <c r="B211" t="s" s="13">
         <v>402</v>
       </c>
-      <c r="B211" t="s" s="15">
-        <v>403</v>
-      </c>
-      <c r="C211" t="s" s="8">
-        <v>25</v>
+      <c r="C211" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -6513,13 +6542,13 @@
     </row>
     <row r="212" ht="20.7" customHeight="1">
       <c r="A212" t="s" s="4">
+        <v>403</v>
+      </c>
+      <c r="B212" t="s" s="4">
         <v>404</v>
       </c>
-      <c r="B212" t="s" s="4">
-        <v>405</v>
-      </c>
       <c r="C212" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6529,13 +6558,13 @@
     </row>
     <row r="213" ht="20.7" customHeight="1">
       <c r="A213" t="s" s="4">
+        <v>405</v>
+      </c>
+      <c r="B213" t="s" s="4">
         <v>406</v>
       </c>
-      <c r="B213" t="s" s="4">
-        <v>407</v>
-      </c>
       <c r="C213" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -6544,14 +6573,14 @@
       <c r="H213" s="10"/>
     </row>
     <row r="214" ht="20.7" customHeight="1">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="15">
+        <v>407</v>
+      </c>
+      <c r="B214" t="s" s="15">
         <v>408</v>
       </c>
-      <c r="B214" t="s" s="4">
-        <v>409</v>
-      </c>
       <c r="C214" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -6559,15 +6588,15 @@
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.35" customHeight="1">
-      <c r="A215" t="s" s="11">
+    <row r="215" ht="20.7" customHeight="1">
+      <c r="A215" t="s" s="4">
+        <v>409</v>
+      </c>
+      <c r="B215" t="s" s="4">
         <v>410</v>
       </c>
-      <c r="B215" t="s" s="11">
-        <v>411</v>
-      </c>
-      <c r="C215" t="s" s="12">
-        <v>18</v>
+      <c r="C215" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6575,15 +6604,15 @@
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" t="s" s="12">
+    <row r="216" ht="20.7" customHeight="1">
+      <c r="A216" t="s" s="4">
+        <v>411</v>
+      </c>
+      <c r="B216" t="s" s="4">
         <v>412</v>
       </c>
-      <c r="B216" t="s" s="12">
-        <v>413</v>
-      </c>
-      <c r="C216" t="s" s="12">
-        <v>18</v>
+      <c r="C216" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -6591,15 +6620,15 @@
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.05" customHeight="1">
-      <c r="A217" t="s" s="12">
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
+        <v>413</v>
+      </c>
+      <c r="B217" t="s" s="4">
         <v>414</v>
       </c>
-      <c r="B217" t="s" s="12">
-        <v>415</v>
-      </c>
-      <c r="C217" t="s" s="12">
-        <v>15</v>
+      <c r="C217" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -6607,17 +6636,17 @@
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.05" customHeight="1">
-      <c r="A218" t="s" s="12">
+    <row r="218" ht="20.35" customHeight="1">
+      <c r="A218" t="s" s="11">
+        <v>415</v>
+      </c>
+      <c r="B218" t="s" s="11">
         <v>416</v>
       </c>
-      <c r="B218" t="s" s="12">
-        <v>417</v>
-      </c>
       <c r="C218" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D218" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
@@ -6625,13 +6654,13 @@
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="12">
+        <v>417</v>
+      </c>
+      <c r="B219" t="s" s="12">
         <v>418</v>
       </c>
-      <c r="B219" t="s" s="12">
-        <v>419</v>
-      </c>
       <c r="C219" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6639,15 +6668,15 @@
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.35" customHeight="1">
-      <c r="A220" t="s" s="13">
+    <row r="220" ht="20.05" customHeight="1">
+      <c r="A220" t="s" s="12">
+        <v>419</v>
+      </c>
+      <c r="B220" t="s" s="12">
         <v>420</v>
       </c>
-      <c r="B220" t="s" s="13">
-        <v>421</v>
-      </c>
       <c r="C220" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -6655,31 +6684,31 @@
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="4">
+    <row r="221" ht="20.05" customHeight="1">
+      <c r="A221" t="s" s="12">
+        <v>421</v>
+      </c>
+      <c r="B221" t="s" s="12">
         <v>422</v>
       </c>
-      <c r="B221" t="s" s="4">
-        <v>423</v>
-      </c>
-      <c r="C221" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D221" s="9"/>
+      <c r="C221" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D221" s="10"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="14">
+    <row r="222" ht="20.05" customHeight="1">
+      <c r="A222" t="s" s="12">
+        <v>423</v>
+      </c>
+      <c r="B222" t="s" s="12">
         <v>424</v>
       </c>
-      <c r="B222" t="s" s="14">
-        <v>425</v>
-      </c>
       <c r="C222" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -6687,15 +6716,15 @@
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="4">
+    <row r="223" ht="20.35" customHeight="1">
+      <c r="A223" t="s" s="13">
+        <v>425</v>
+      </c>
+      <c r="B223" t="s" s="13">
         <v>426</v>
       </c>
-      <c r="B223" t="s" s="4">
-        <v>427</v>
-      </c>
-      <c r="C223" t="s" s="8">
-        <v>10</v>
+      <c r="C223" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -6703,15 +6732,15 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.35" customHeight="1">
-      <c r="A224" t="s" s="11">
+    <row r="224" ht="20.7" customHeight="1">
+      <c r="A224" t="s" s="4">
+        <v>427</v>
+      </c>
+      <c r="B224" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="B224" t="s" s="11">
-        <v>429</v>
-      </c>
-      <c r="C224" t="s" s="12">
-        <v>15</v>
+      <c r="C224" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -6719,15 +6748,15 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.05" customHeight="1">
-      <c r="A225" t="s" s="12">
+    <row r="225" ht="20.7" customHeight="1">
+      <c r="A225" t="s" s="14">
+        <v>429</v>
+      </c>
+      <c r="B225" t="s" s="14">
         <v>430</v>
       </c>
-      <c r="B225" t="s" s="12">
-        <v>431</v>
-      </c>
       <c r="C225" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6735,15 +6764,15 @@
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.35" customHeight="1">
-      <c r="A226" t="s" s="13">
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="4">
+        <v>431</v>
+      </c>
+      <c r="B226" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="B226" t="s" s="13">
-        <v>433</v>
-      </c>
-      <c r="C226" t="s" s="12">
-        <v>18</v>
+      <c r="C226" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -6751,15 +6780,15 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.7" customHeight="1">
-      <c r="A227" t="s" s="4">
+    <row r="227" ht="20.35" customHeight="1">
+      <c r="A227" t="s" s="11">
+        <v>433</v>
+      </c>
+      <c r="B227" t="s" s="11">
         <v>434</v>
       </c>
-      <c r="B227" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="C227" t="s" s="8">
-        <v>10</v>
+      <c r="C227" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6767,15 +6796,15 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.7" customHeight="1">
-      <c r="A228" t="s" s="4">
-        <v>434</v>
-      </c>
-      <c r="B228" t="s" s="4">
+    <row r="228" ht="20.05" customHeight="1">
+      <c r="A228" t="s" s="12">
         <v>435</v>
       </c>
-      <c r="C228" t="s" s="8">
-        <v>25</v>
+      <c r="B228" t="s" s="12">
+        <v>436</v>
+      </c>
+      <c r="C228" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6783,15 +6812,15 @@
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.7" customHeight="1">
-      <c r="A229" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="B229" t="s" s="4">
+    <row r="229" ht="20.35" customHeight="1">
+      <c r="A229" t="s" s="13">
         <v>437</v>
       </c>
-      <c r="C229" t="s" s="8">
-        <v>25</v>
+      <c r="B229" t="s" s="13">
+        <v>438</v>
+      </c>
+      <c r="C229" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -6799,15 +6828,15 @@
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.35" customHeight="1">
-      <c r="A230" t="s" s="11">
-        <v>438</v>
-      </c>
-      <c r="B230" t="s" s="11">
+    <row r="230" ht="20.7" customHeight="1">
+      <c r="A230" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="C230" t="s" s="12">
-        <v>39</v>
+      <c r="B230" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="C230" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -6815,15 +6844,15 @@
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.05" customHeight="1">
-      <c r="A231" t="s" s="12">
+    <row r="231" ht="20.7" customHeight="1">
+      <c r="A231" t="s" s="4">
+        <v>439</v>
+      </c>
+      <c r="B231" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="B231" t="s" s="12">
-        <v>441</v>
-      </c>
-      <c r="C231" t="s" s="12">
-        <v>15</v>
+      <c r="C231" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6831,15 +6860,15 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.05" customHeight="1">
-      <c r="A232" t="s" s="12">
+    <row r="232" ht="20.7" customHeight="1">
+      <c r="A232" t="s" s="4">
+        <v>441</v>
+      </c>
+      <c r="B232" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="B232" t="s" s="12">
-        <v>443</v>
-      </c>
-      <c r="C232" t="s" s="12">
-        <v>18</v>
+      <c r="C232" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -6847,15 +6876,15 @@
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="12">
+    <row r="233" ht="20.35" customHeight="1">
+      <c r="A233" t="s" s="11">
+        <v>443</v>
+      </c>
+      <c r="B233" t="s" s="11">
         <v>444</v>
       </c>
-      <c r="B233" t="s" s="12">
-        <v>445</v>
-      </c>
       <c r="C233" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -6865,13 +6894,13 @@
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" t="s" s="12">
+        <v>445</v>
+      </c>
+      <c r="B234" t="s" s="12">
         <v>446</v>
       </c>
-      <c r="B234" t="s" s="12">
-        <v>447</v>
-      </c>
       <c r="C234" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -6881,13 +6910,13 @@
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="12">
+        <v>447</v>
+      </c>
+      <c r="B235" t="s" s="12">
         <v>448</v>
       </c>
-      <c r="B235" t="s" s="12">
-        <v>449</v>
-      </c>
       <c r="C235" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -6897,15 +6926,17 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="12">
+        <v>449</v>
+      </c>
+      <c r="B236" t="s" s="12">
         <v>450</v>
       </c>
-      <c r="B236" t="s" s="12">
-        <v>451</v>
-      </c>
       <c r="C236" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D236" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D236" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
@@ -6913,13 +6944,13 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="12">
+        <v>451</v>
+      </c>
+      <c r="B237" t="s" s="12">
         <v>452</v>
       </c>
-      <c r="B237" t="s" s="12">
-        <v>453</v>
-      </c>
       <c r="C237" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -6929,15 +6960,15 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="12">
+        <v>453</v>
+      </c>
+      <c r="B238" t="s" s="12">
         <v>454</v>
       </c>
-      <c r="B238" t="s" s="12">
-        <v>455</v>
-      </c>
       <c r="C238" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D238" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -6945,13 +6976,13 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="12">
+        <v>455</v>
+      </c>
+      <c r="B239" t="s" s="12">
         <v>456</v>
       </c>
-      <c r="B239" t="s" s="12">
-        <v>457</v>
-      </c>
       <c r="C239" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -6959,12 +6990,12 @@
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.35" customHeight="1">
-      <c r="A240" t="s" s="13">
+    <row r="240" ht="20.05" customHeight="1">
+      <c r="A240" t="s" s="12">
+        <v>457</v>
+      </c>
+      <c r="B240" t="s" s="12">
         <v>458</v>
-      </c>
-      <c r="B240" t="s" s="13">
-        <v>459</v>
       </c>
       <c r="C240" t="s" s="12">
         <v>42</v>
@@ -6975,31 +7006,31 @@
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.7" customHeight="1">
-      <c r="A241" t="s" s="4">
+    <row r="241" ht="20.05" customHeight="1">
+      <c r="A241" t="s" s="12">
+        <v>459</v>
+      </c>
+      <c r="B241" t="s" s="12">
         <v>460</v>
       </c>
-      <c r="B241" t="s" s="4">
-        <v>461</v>
-      </c>
-      <c r="C241" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D241" s="9"/>
+      <c r="C241" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D241" s="10"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.7" customHeight="1">
-      <c r="A242" t="s" s="4">
+    <row r="242" ht="20.05" customHeight="1">
+      <c r="A242" t="s" s="12">
+        <v>461</v>
+      </c>
+      <c r="B242" t="s" s="12">
         <v>462</v>
       </c>
-      <c r="B242" t="s" s="4">
-        <v>463</v>
-      </c>
-      <c r="C242" t="s" s="8">
-        <v>10</v>
+      <c r="C242" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -7008,62 +7039,64 @@
       <c r="H242" s="10"/>
     </row>
     <row r="243" ht="20.35" customHeight="1">
-      <c r="A243" t="s" s="11">
+      <c r="A243" t="s" s="13">
+        <v>463</v>
+      </c>
+      <c r="B243" t="s" s="13">
         <v>464</v>
       </c>
-      <c r="B243" t="s" s="11">
-        <v>465</v>
-      </c>
       <c r="C243" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D243" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D243" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.05" customHeight="1">
-      <c r="A244" t="s" s="12">
+    <row r="244" ht="20.7" customHeight="1">
+      <c r="A244" t="s" s="4">
+        <v>465</v>
+      </c>
+      <c r="B244" t="s" s="4">
         <v>466</v>
       </c>
-      <c r="B244" t="s" s="12">
-        <v>467</v>
-      </c>
-      <c r="C244" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D244" s="10"/>
+      <c r="C244" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.05" customHeight="1">
-      <c r="A245" t="s" s="12">
+    <row r="245" ht="20.7" customHeight="1">
+      <c r="A245" t="s" s="4">
+        <v>467</v>
+      </c>
+      <c r="B245" t="s" s="4">
         <v>468</v>
       </c>
-      <c r="B245" t="s" s="12">
-        <v>469</v>
-      </c>
-      <c r="C245" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D245" s="10"/>
+      <c r="C245" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.05" customHeight="1">
-      <c r="A246" t="s" s="12">
+    <row r="246" ht="20.35" customHeight="1">
+      <c r="A246" t="s" s="11">
+        <v>469</v>
+      </c>
+      <c r="B246" t="s" s="11">
         <v>470</v>
       </c>
-      <c r="B246" t="s" s="12">
-        <v>471</v>
-      </c>
       <c r="C246" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7073,15 +7106,15 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
+        <v>471</v>
+      </c>
+      <c r="B247" t="s" s="12">
         <v>472</v>
-      </c>
-      <c r="B247" t="s" s="12">
-        <v>473</v>
       </c>
       <c r="C247" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D247" s="9"/>
+      <c r="D247" s="10"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
@@ -7089,15 +7122,15 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="12">
+        <v>473</v>
+      </c>
+      <c r="B248" t="s" s="12">
         <v>474</v>
       </c>
-      <c r="B248" t="s" s="12">
-        <v>475</v>
-      </c>
       <c r="C248" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D248" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D248" s="10"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
@@ -7105,10 +7138,10 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="12">
+        <v>475</v>
+      </c>
+      <c r="B249" t="s" s="12">
         <v>476</v>
-      </c>
-      <c r="B249" t="s" s="12">
-        <v>477</v>
       </c>
       <c r="C249" t="s" s="12">
         <v>42</v>
@@ -7121,13 +7154,13 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="12">
+        <v>477</v>
+      </c>
+      <c r="B250" t="s" s="12">
         <v>478</v>
       </c>
-      <c r="B250" t="s" s="12">
-        <v>479</v>
-      </c>
       <c r="C250" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -7137,13 +7170,13 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="12">
+        <v>479</v>
+      </c>
+      <c r="B251" t="s" s="12">
         <v>480</v>
       </c>
-      <c r="B251" t="s" s="12">
-        <v>481</v>
-      </c>
       <c r="C251" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -7153,15 +7186,17 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="12">
+        <v>481</v>
+      </c>
+      <c r="B252" t="s" s="12">
         <v>482</v>
-      </c>
-      <c r="B252" t="s" s="12">
-        <v>483</v>
       </c>
       <c r="C252" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D252" s="9"/>
+      <c r="D252" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
@@ -7169,13 +7204,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
+        <v>483</v>
+      </c>
+      <c r="B253" t="s" s="12">
         <v>484</v>
       </c>
-      <c r="B253" t="s" s="12">
-        <v>485</v>
-      </c>
       <c r="C253" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -7185,13 +7220,13 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
+        <v>485</v>
+      </c>
+      <c r="B254" t="s" s="12">
         <v>486</v>
       </c>
-      <c r="B254" t="s" s="12">
-        <v>487</v>
-      </c>
       <c r="C254" t="s" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -7199,15 +7234,15 @@
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.35" customHeight="1">
-      <c r="A255" t="s" s="13">
+    <row r="255" ht="20.05" customHeight="1">
+      <c r="A255" t="s" s="12">
+        <v>487</v>
+      </c>
+      <c r="B255" t="s" s="12">
         <v>488</v>
       </c>
-      <c r="B255" t="s" s="13">
-        <v>489</v>
-      </c>
       <c r="C255" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -7215,15 +7250,15 @@
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" t="s" s="4">
+    <row r="256" ht="20.05" customHeight="1">
+      <c r="A256" t="s" s="12">
+        <v>489</v>
+      </c>
+      <c r="B256" t="s" s="12">
         <v>490</v>
       </c>
-      <c r="B256" t="s" s="4">
-        <v>491</v>
-      </c>
-      <c r="C256" t="s" s="8">
-        <v>10</v>
+      <c r="C256" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7231,15 +7266,15 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.7" customHeight="1">
-      <c r="A257" t="s" s="4">
-        <v>490</v>
-      </c>
-      <c r="B257" t="s" s="4">
+    <row r="257" ht="20.05" customHeight="1">
+      <c r="A257" t="s" s="12">
         <v>491</v>
       </c>
-      <c r="C257" t="s" s="8">
-        <v>25</v>
+      <c r="B257" t="s" s="12">
+        <v>492</v>
+      </c>
+      <c r="C257" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7248,14 +7283,14 @@
       <c r="H257" s="10"/>
     </row>
     <row r="258" ht="20.35" customHeight="1">
-      <c r="A258" t="s" s="11">
-        <v>492</v>
-      </c>
-      <c r="B258" t="s" s="11">
+      <c r="A258" t="s" s="13">
         <v>493</v>
       </c>
+      <c r="B258" t="s" s="13">
+        <v>494</v>
+      </c>
       <c r="C258" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7263,15 +7298,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.05" customHeight="1">
-      <c r="A259" t="s" s="12">
-        <v>494</v>
-      </c>
-      <c r="B259" t="s" s="12">
+    <row r="259" ht="20.7" customHeight="1">
+      <c r="A259" t="s" s="4">
         <v>495</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>15</v>
+      <c r="B259" t="s" s="4">
+        <v>496</v>
+      </c>
+      <c r="C259" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7279,15 +7314,15 @@
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.05" customHeight="1">
-      <c r="A260" t="s" s="12">
+    <row r="260" ht="20.7" customHeight="1">
+      <c r="A260" t="s" s="4">
+        <v>495</v>
+      </c>
+      <c r="B260" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="B260" t="s" s="12">
-        <v>497</v>
-      </c>
-      <c r="C260" t="s" s="12">
-        <v>71</v>
+      <c r="C260" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -7295,17 +7330,19 @@
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.05" customHeight="1">
-      <c r="A261" t="s" s="12">
+    <row r="261" ht="20.35" customHeight="1">
+      <c r="A261" t="s" s="11">
+        <v>497</v>
+      </c>
+      <c r="B261" t="s" s="11">
         <v>498</v>
-      </c>
-      <c r="B261" t="s" s="12">
-        <v>499</v>
       </c>
       <c r="C261" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D261" s="9"/>
+      <c r="D261" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
       <c r="G261" s="10"/>
@@ -7313,13 +7350,13 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="12">
+        <v>499</v>
+      </c>
+      <c r="B262" t="s" s="12">
         <v>500</v>
       </c>
-      <c r="B262" t="s" s="12">
-        <v>501</v>
-      </c>
       <c r="C262" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7327,15 +7364,15 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.35" customHeight="1">
-      <c r="A263" t="s" s="13">
+    <row r="263" ht="20.05" customHeight="1">
+      <c r="A263" t="s" s="12">
+        <v>501</v>
+      </c>
+      <c r="B263" t="s" s="12">
         <v>502</v>
       </c>
-      <c r="B263" t="s" s="13">
-        <v>503</v>
-      </c>
       <c r="C263" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -7343,15 +7380,15 @@
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
     </row>
-    <row r="264" ht="20.7" customHeight="1">
-      <c r="A264" t="s" s="4">
+    <row r="264" ht="20.05" customHeight="1">
+      <c r="A264" t="s" s="12">
+        <v>503</v>
+      </c>
+      <c r="B264" t="s" s="12">
         <v>504</v>
       </c>
-      <c r="B264" t="s" s="4">
-        <v>505</v>
-      </c>
-      <c r="C264" t="s" s="8">
-        <v>25</v>
+      <c r="C264" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7359,15 +7396,15 @@
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.35" customHeight="1">
-      <c r="A265" t="s" s="11">
+    <row r="265" ht="20.05" customHeight="1">
+      <c r="A265" t="s" s="12">
+        <v>505</v>
+      </c>
+      <c r="B265" t="s" s="12">
         <v>506</v>
       </c>
-      <c r="B265" t="s" s="11">
-        <v>507</v>
-      </c>
       <c r="C265" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7375,15 +7412,15 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.05" customHeight="1">
-      <c r="A266" t="s" s="12">
+    <row r="266" ht="20.35" customHeight="1">
+      <c r="A266" t="s" s="13">
+        <v>507</v>
+      </c>
+      <c r="B266" t="s" s="13">
         <v>508</v>
       </c>
-      <c r="B266" t="s" s="12">
-        <v>509</v>
-      </c>
       <c r="C266" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7391,15 +7428,15 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.05" customHeight="1">
-      <c r="A267" t="s" s="12">
+    <row r="267" ht="20.7" customHeight="1">
+      <c r="A267" t="s" s="4">
+        <v>509</v>
+      </c>
+      <c r="B267" t="s" s="4">
         <v>510</v>
       </c>
-      <c r="B267" t="s" s="12">
-        <v>511</v>
-      </c>
-      <c r="C267" t="s" s="12">
-        <v>71</v>
+      <c r="C267" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7407,15 +7444,15 @@
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.05" customHeight="1">
-      <c r="A268" t="s" s="12">
+    <row r="268" ht="20.35" customHeight="1">
+      <c r="A268" t="s" s="11">
+        <v>511</v>
+      </c>
+      <c r="B268" t="s" s="11">
         <v>512</v>
       </c>
-      <c r="B268" t="s" s="12">
-        <v>513</v>
-      </c>
       <c r="C268" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7425,13 +7462,13 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="12">
+        <v>513</v>
+      </c>
+      <c r="B269" t="s" s="12">
         <v>514</v>
       </c>
-      <c r="B269" t="s" s="12">
-        <v>515</v>
-      </c>
       <c r="C269" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7441,13 +7478,13 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="12">
+        <v>515</v>
+      </c>
+      <c r="B270" t="s" s="12">
         <v>516</v>
       </c>
-      <c r="B270" t="s" s="12">
-        <v>517</v>
-      </c>
       <c r="C270" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -7457,13 +7494,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
+        <v>517</v>
+      </c>
+      <c r="B271" t="s" s="12">
         <v>518</v>
       </c>
-      <c r="B271" t="s" s="12">
-        <v>519</v>
-      </c>
       <c r="C271" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7473,13 +7510,13 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="12">
+        <v>519</v>
+      </c>
+      <c r="B272" t="s" s="12">
         <v>520</v>
       </c>
-      <c r="B272" t="s" s="12">
-        <v>521</v>
-      </c>
       <c r="C272" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -7489,13 +7526,13 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="12">
+        <v>521</v>
+      </c>
+      <c r="B273" t="s" s="12">
         <v>522</v>
       </c>
-      <c r="B273" t="s" s="12">
-        <v>523</v>
-      </c>
       <c r="C273" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7505,13 +7542,13 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="12">
+        <v>523</v>
+      </c>
+      <c r="B274" t="s" s="12">
         <v>524</v>
       </c>
-      <c r="B274" t="s" s="12">
-        <v>525</v>
-      </c>
       <c r="C274" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7521,13 +7558,13 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="12">
+        <v>525</v>
+      </c>
+      <c r="B275" t="s" s="12">
         <v>526</v>
       </c>
-      <c r="B275" t="s" s="12">
-        <v>527</v>
-      </c>
       <c r="C275" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7537,13 +7574,13 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="12">
+        <v>527</v>
+      </c>
+      <c r="B276" t="s" s="12">
         <v>528</v>
       </c>
-      <c r="B276" t="s" s="12">
-        <v>529</v>
-      </c>
       <c r="C276" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7553,13 +7590,13 @@
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="12">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B277" t="s" s="12">
         <v>530</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7575,7 +7612,7 @@
         <v>532</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7583,15 +7620,15 @@
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.35" customHeight="1">
-      <c r="A279" t="s" s="13">
+    <row r="279" ht="20.05" customHeight="1">
+      <c r="A279" t="s" s="12">
         <v>533</v>
       </c>
-      <c r="B279" t="s" s="13">
+      <c r="B279" t="s" s="12">
         <v>534</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7599,15 +7636,15 @@
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.7" customHeight="1">
-      <c r="A280" t="s" s="4">
+    <row r="280" ht="20.05" customHeight="1">
+      <c r="A280" t="s" s="12">
+        <v>533</v>
+      </c>
+      <c r="B280" t="s" s="12">
         <v>535</v>
       </c>
-      <c r="B280" t="s" s="4">
-        <v>536</v>
-      </c>
-      <c r="C280" t="s" s="8">
-        <v>25</v>
+      <c r="C280" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7615,15 +7652,15 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.7" customHeight="1">
-      <c r="A281" t="s" s="4">
+    <row r="281" ht="20.05" customHeight="1">
+      <c r="A281" t="s" s="12">
+        <v>536</v>
+      </c>
+      <c r="B281" t="s" s="12">
         <v>537</v>
       </c>
-      <c r="B281" t="s" s="4">
-        <v>538</v>
-      </c>
-      <c r="C281" t="s" s="8">
-        <v>10</v>
+      <c r="C281" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7631,15 +7668,15 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.7" customHeight="1">
-      <c r="A282" t="s" s="4">
-        <v>537</v>
-      </c>
-      <c r="B282" t="s" s="4">
+    <row r="282" ht="20.35" customHeight="1">
+      <c r="A282" t="s" s="13">
         <v>538</v>
       </c>
-      <c r="C282" t="s" s="8">
-        <v>25</v>
+      <c r="B282" t="s" s="13">
+        <v>539</v>
+      </c>
+      <c r="C282" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7649,13 +7686,13 @@
     </row>
     <row r="283" ht="20.7" customHeight="1">
       <c r="A283" t="s" s="4">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B283" t="s" s="4">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C283" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -7663,15 +7700,15 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.35" customHeight="1">
-      <c r="A284" t="s" s="11">
-        <v>541</v>
-      </c>
-      <c r="B284" t="s" s="11">
+    <row r="284" ht="20.7" customHeight="1">
+      <c r="A284" t="s" s="4">
         <v>542</v>
       </c>
-      <c r="C284" t="s" s="12">
-        <v>42</v>
+      <c r="B284" t="s" s="4">
+        <v>543</v>
+      </c>
+      <c r="C284" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -7679,15 +7716,15 @@
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.05" customHeight="1">
-      <c r="A285" t="s" s="12">
+    <row r="285" ht="20.7" customHeight="1">
+      <c r="A285" t="s" s="4">
+        <v>542</v>
+      </c>
+      <c r="B285" t="s" s="4">
         <v>543</v>
       </c>
-      <c r="B285" t="s" s="12">
-        <v>544</v>
-      </c>
-      <c r="C285" t="s" s="12">
-        <v>28</v>
+      <c r="C285" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -7695,15 +7732,15 @@
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.05" customHeight="1">
-      <c r="A286" t="s" s="12">
+    <row r="286" ht="20.7" customHeight="1">
+      <c r="A286" t="s" s="4">
+        <v>544</v>
+      </c>
+      <c r="B286" t="s" s="4">
         <v>545</v>
       </c>
-      <c r="B286" t="s" s="12">
-        <v>546</v>
-      </c>
-      <c r="C286" t="s" s="12">
-        <v>39</v>
+      <c r="C286" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -7711,15 +7748,15 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.05" customHeight="1">
-      <c r="A287" t="s" s="12">
+    <row r="287" ht="20.35" customHeight="1">
+      <c r="A287" t="s" s="11">
+        <v>546</v>
+      </c>
+      <c r="B287" t="s" s="11">
         <v>547</v>
       </c>
-      <c r="B287" t="s" s="12">
-        <v>548</v>
-      </c>
       <c r="C287" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -7729,29 +7766,31 @@
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="12">
+        <v>548</v>
+      </c>
+      <c r="B288" t="s" s="12">
         <v>549</v>
       </c>
-      <c r="B288" t="s" s="12">
-        <v>550</v>
-      </c>
       <c r="C288" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D288" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D288" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.35" customHeight="1">
-      <c r="A289" t="s" s="13">
+    <row r="289" ht="20.05" customHeight="1">
+      <c r="A289" t="s" s="12">
+        <v>550</v>
+      </c>
+      <c r="B289" t="s" s="12">
         <v>551</v>
       </c>
-      <c r="B289" t="s" s="13">
-        <v>552</v>
-      </c>
       <c r="C289" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -7759,15 +7798,15 @@
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" ht="20.7" customHeight="1">
-      <c r="A290" t="s" s="4">
+    <row r="290" ht="20.05" customHeight="1">
+      <c r="A290" t="s" s="12">
+        <v>552</v>
+      </c>
+      <c r="B290" t="s" s="12">
         <v>553</v>
       </c>
-      <c r="B290" t="s" s="4">
-        <v>554</v>
-      </c>
-      <c r="C290" t="s" s="8">
-        <v>10</v>
+      <c r="C290" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
@@ -7775,15 +7814,15 @@
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.7" customHeight="1">
-      <c r="A291" t="s" s="4">
-        <v>553</v>
-      </c>
-      <c r="B291" t="s" s="4">
+    <row r="291" ht="20.05" customHeight="1">
+      <c r="A291" t="s" s="12">
         <v>554</v>
       </c>
-      <c r="C291" t="s" s="8">
-        <v>25</v>
+      <c r="B291" t="s" s="12">
+        <v>555</v>
+      </c>
+      <c r="C291" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -7791,15 +7830,15 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.7" customHeight="1">
-      <c r="A292" t="s" s="4">
-        <v>555</v>
-      </c>
-      <c r="B292" t="s" s="4">
+    <row r="292" ht="20.35" customHeight="1">
+      <c r="A292" t="s" s="13">
         <v>556</v>
       </c>
-      <c r="C292" t="s" s="8">
-        <v>10</v>
+      <c r="B292" t="s" s="13">
+        <v>557</v>
+      </c>
+      <c r="C292" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7809,13 +7848,13 @@
     </row>
     <row r="293" ht="20.7" customHeight="1">
       <c r="A293" t="s" s="4">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B293" t="s" s="4">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C293" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7823,15 +7862,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.35" customHeight="1">
-      <c r="A294" t="s" s="11">
-        <v>557</v>
-      </c>
-      <c r="B294" t="s" s="11">
+    <row r="294" ht="20.7" customHeight="1">
+      <c r="A294" t="s" s="4">
         <v>558</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>15</v>
+      <c r="B294" t="s" s="4">
+        <v>559</v>
+      </c>
+      <c r="C294" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7839,15 +7878,15 @@
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.05" customHeight="1">
-      <c r="A295" t="s" s="12">
-        <v>559</v>
-      </c>
-      <c r="B295" t="s" s="12">
+    <row r="295" ht="20.7" customHeight="1">
+      <c r="A295" t="s" s="4">
         <v>560</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>15</v>
+      <c r="B295" t="s" s="4">
+        <v>561</v>
+      </c>
+      <c r="C295" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -7855,15 +7894,15 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.05" customHeight="1">
-      <c r="A296" t="s" s="12">
+    <row r="296" ht="20.7" customHeight="1">
+      <c r="A296" t="s" s="4">
+        <v>560</v>
+      </c>
+      <c r="B296" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="B296" t="s" s="12">
-        <v>562</v>
-      </c>
-      <c r="C296" t="s" s="12">
-        <v>42</v>
+      <c r="C296" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -7871,17 +7910,19 @@
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.05" customHeight="1">
-      <c r="A297" t="s" s="12">
+    <row r="297" ht="20.35" customHeight="1">
+      <c r="A297" t="s" s="11">
+        <v>562</v>
+      </c>
+      <c r="B297" t="s" s="11">
         <v>563</v>
-      </c>
-      <c r="B297" t="s" s="12">
-        <v>564</v>
       </c>
       <c r="C297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D297" s="9"/>
+      <c r="D297" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
@@ -7889,13 +7930,13 @@
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="12">
+        <v>564</v>
+      </c>
+      <c r="B298" t="s" s="12">
         <v>565</v>
       </c>
-      <c r="B298" t="s" s="12">
-        <v>566</v>
-      </c>
       <c r="C298" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -7905,26 +7946,26 @@
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="12">
+        <v>566</v>
+      </c>
+      <c r="B299" t="s" s="12">
         <v>567</v>
       </c>
-      <c r="B299" t="s" s="12">
-        <v>568</v>
-      </c>
       <c r="C299" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D299" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.35" customHeight="1">
-      <c r="A300" t="s" s="13">
+    <row r="300" ht="20.05" customHeight="1">
+      <c r="A300" t="s" s="12">
+        <v>568</v>
+      </c>
+      <c r="B300" t="s" s="12">
         <v>569</v>
-      </c>
-      <c r="B300" t="s" s="13">
-        <v>570</v>
       </c>
       <c r="C300" t="s" s="12">
         <v>15</v>
@@ -7935,15 +7976,15 @@
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
     </row>
-    <row r="301" ht="20.7" customHeight="1">
-      <c r="A301" t="s" s="4">
+    <row r="301" ht="20.05" customHeight="1">
+      <c r="A301" t="s" s="12">
+        <v>570</v>
+      </c>
+      <c r="B301" t="s" s="12">
         <v>571</v>
       </c>
-      <c r="B301" t="s" s="4">
-        <v>572</v>
-      </c>
-      <c r="C301" t="s" s="8">
-        <v>10</v>
+      <c r="C301" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
@@ -7951,28 +7992,28 @@
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.35" customHeight="1">
-      <c r="A302" t="s" s="11">
+    <row r="302" ht="20.05" customHeight="1">
+      <c r="A302" t="s" s="12">
+        <v>572</v>
+      </c>
+      <c r="B302" t="s" s="12">
         <v>573</v>
       </c>
-      <c r="B302" t="s" s="11">
-        <v>574</v>
-      </c>
       <c r="C302" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D302" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D302" s="10"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
+    <row r="303" ht="20.35" customHeight="1">
+      <c r="A303" t="s" s="13">
+        <v>574</v>
+      </c>
+      <c r="B303" t="s" s="13">
         <v>575</v>
-      </c>
-      <c r="B303" t="s" s="12">
-        <v>576</v>
       </c>
       <c r="C303" t="s" s="12">
         <v>15</v>
@@ -7983,15 +8024,15 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" t="s" s="12">
+    <row r="304" ht="20.7" customHeight="1">
+      <c r="A304" t="s" s="4">
+        <v>576</v>
+      </c>
+      <c r="B304" t="s" s="4">
         <v>577</v>
       </c>
-      <c r="B304" t="s" s="12">
-        <v>578</v>
-      </c>
-      <c r="C304" t="s" s="12">
-        <v>71</v>
+      <c r="C304" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
@@ -7999,15 +8040,15 @@
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.05" customHeight="1">
-      <c r="A305" t="s" s="12">
+    <row r="305" ht="20.35" customHeight="1">
+      <c r="A305" t="s" s="11">
+        <v>578</v>
+      </c>
+      <c r="B305" t="s" s="11">
         <v>579</v>
       </c>
-      <c r="B305" t="s" s="12">
-        <v>580</v>
-      </c>
       <c r="C305" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -8017,13 +8058,13 @@
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="12">
+        <v>580</v>
+      </c>
+      <c r="B306" t="s" s="12">
         <v>581</v>
       </c>
-      <c r="B306" t="s" s="12">
-        <v>582</v>
-      </c>
       <c r="C306" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
@@ -8033,13 +8074,13 @@
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="12">
+        <v>582</v>
+      </c>
+      <c r="B307" t="s" s="12">
         <v>583</v>
       </c>
-      <c r="B307" t="s" s="12">
-        <v>584</v>
-      </c>
       <c r="C307" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
@@ -8049,13 +8090,13 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="12">
+        <v>584</v>
+      </c>
+      <c r="B308" t="s" s="12">
         <v>585</v>
       </c>
-      <c r="B308" t="s" s="12">
-        <v>586</v>
-      </c>
       <c r="C308" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
@@ -8065,13 +8106,13 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="12">
+        <v>586</v>
+      </c>
+      <c r="B309" t="s" s="12">
         <v>587</v>
       </c>
-      <c r="B309" t="s" s="12">
-        <v>588</v>
-      </c>
       <c r="C309" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
@@ -8081,13 +8122,13 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="12">
+        <v>588</v>
+      </c>
+      <c r="B310" t="s" s="12">
         <v>589</v>
       </c>
-      <c r="B310" t="s" s="12">
-        <v>590</v>
-      </c>
       <c r="C310" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
@@ -8096,9 +8137,15 @@
       <c r="H310" s="10"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
-      <c r="A311" s="10"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
+      <c r="A311" t="s" s="12">
+        <v>590</v>
+      </c>
+      <c r="B311" t="s" s="12">
+        <v>591</v>
+      </c>
+      <c r="C311" t="s" s="12">
+        <v>39</v>
+      </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8106,9 +8153,15 @@
       <c r="H311" s="10"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
-      <c r="A312" s="10"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
+      <c r="A312" t="s" s="12">
+        <v>592</v>
+      </c>
+      <c r="B312" t="s" s="12">
+        <v>593</v>
+      </c>
+      <c r="C312" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -8116,9 +8169,15 @@
       <c r="H312" s="10"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" s="10"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
+      <c r="A313" t="s" s="12">
+        <v>594</v>
+      </c>
+      <c r="B313" t="s" s="12">
+        <v>595</v>
+      </c>
+      <c r="C313" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
   <si>
     <t>Surname</t>
   </si>
@@ -520,6 +520,12 @@
     <t>H210060Z</t>
   </si>
   <si>
+    <t>Hokonya</t>
+  </si>
+  <si>
+    <t>H190100M</t>
+  </si>
+  <si>
     <t>Hove</t>
   </si>
   <si>
@@ -1004,6 +1010,12 @@
   </si>
   <si>
     <t>H210207F</t>
+  </si>
+  <si>
+    <t>Matoreba</t>
+  </si>
+  <si>
+    <t>H180070J</t>
   </si>
   <si>
     <t>Matubu</t>
@@ -4458,23 +4470,25 @@
         <v>170</v>
       </c>
       <c r="C82" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D82" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.35" customHeight="1">
-      <c r="A83" t="s" s="13">
-        <v>169</v>
-      </c>
-      <c r="B83" t="s" s="13">
+    <row r="83" ht="20.05" customHeight="1">
+      <c r="A83" t="s" s="12">
         <v>171</v>
       </c>
+      <c r="B83" t="s" s="12">
+        <v>172</v>
+      </c>
       <c r="C83" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -4482,51 +4496,53 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s" s="4">
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="13">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s" s="13">
         <v>173</v>
       </c>
-      <c r="C84" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D84" s="9"/>
+      <c r="C84" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.35" customHeight="1">
-      <c r="A85" t="s" s="11">
+    <row r="85" ht="20.7" customHeight="1">
+      <c r="A85" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="B85" t="s" s="11">
+      <c r="B85" t="s" s="4">
         <v>175</v>
       </c>
-      <c r="C85" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D85" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C85" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="12">
+    <row r="86" ht="20.35" customHeight="1">
+      <c r="A86" t="s" s="11">
         <v>176</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="11">
         <v>177</v>
       </c>
       <c r="C86" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D86" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
@@ -4540,39 +4556,39 @@
         <v>179</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D87" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.35" customHeight="1">
-      <c r="A88" t="s" s="13">
+    <row r="88" ht="20.05" customHeight="1">
+      <c r="A88" t="s" s="12">
         <v>180</v>
       </c>
-      <c r="B88" t="s" s="13">
+      <c r="B88" t="s" s="12">
         <v>181</v>
       </c>
       <c r="C88" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D88" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D88" s="10"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="4">
+    <row r="89" ht="20.35" customHeight="1">
+      <c r="A89" t="s" s="13">
         <v>182</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="13">
         <v>183</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>25</v>
+      <c r="C89" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4581,14 +4597,14 @@
       <c r="H89" s="10"/>
     </row>
     <row r="90" ht="20.7" customHeight="1">
-      <c r="A90" t="s" s="14">
+      <c r="A90" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="B90" t="s" s="14">
+      <c r="B90" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>15</v>
+      <c r="C90" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -4597,14 +4613,14 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" ht="20.7" customHeight="1">
-      <c r="A91" t="s" s="4">
+      <c r="A91" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="14">
         <v>187</v>
       </c>
-      <c r="C91" t="s" s="8">
-        <v>25</v>
+      <c r="C91" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4628,15 +4644,15 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.35" customHeight="1">
-      <c r="A93" t="s" s="11">
+    <row r="93" ht="20.7" customHeight="1">
+      <c r="A93" t="s" s="4">
         <v>190</v>
       </c>
-      <c r="B93" t="s" s="11">
+      <c r="B93" t="s" s="4">
         <v>191</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>15</v>
+      <c r="C93" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4644,15 +4660,15 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="12">
+    <row r="94" ht="20.35" customHeight="1">
+      <c r="A94" t="s" s="11">
         <v>192</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="11">
         <v>193</v>
       </c>
       <c r="C94" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4660,47 +4676,47 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.35" customHeight="1">
-      <c r="A95" t="s" s="13">
+    <row r="95" ht="20.05" customHeight="1">
+      <c r="A95" t="s" s="12">
         <v>194</v>
       </c>
-      <c r="B95" t="s" s="13">
+      <c r="B95" t="s" s="12">
         <v>195</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="9">
-        <v>0.897435897435897</v>
-      </c>
+      <c r="C95" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.7" customHeight="1">
-      <c r="A96" t="s" s="4">
+    <row r="96" ht="20.35" customHeight="1">
+      <c r="A96" t="s" s="13">
         <v>196</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="13">
         <v>197</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.35" customHeight="1">
-      <c r="A97" t="s" s="11">
+    <row r="97" ht="20.7" customHeight="1">
+      <c r="A97" t="s" s="4">
         <v>198</v>
       </c>
-      <c r="B97" t="s" s="11">
+      <c r="B97" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>39</v>
+      <c r="C97" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4708,15 +4724,15 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="12">
+    <row r="98" ht="20.35" customHeight="1">
+      <c r="A98" t="s" s="11">
         <v>200</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="11">
         <v>201</v>
       </c>
       <c r="C98" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4732,7 +4748,7 @@
         <v>203</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4748,7 +4764,7 @@
         <v>205</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4756,15 +4772,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.35" customHeight="1">
-      <c r="A101" t="s" s="13">
+    <row r="101" ht="20.05" customHeight="1">
+      <c r="A101" t="s" s="12">
         <v>206</v>
       </c>
-      <c r="B101" t="s" s="13">
+      <c r="B101" t="s" s="12">
         <v>207</v>
       </c>
       <c r="C101" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4772,15 +4788,15 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.7" customHeight="1">
-      <c r="A102" t="s" s="4">
+    <row r="102" ht="20.35" customHeight="1">
+      <c r="A102" t="s" s="13">
         <v>208</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="13">
         <v>209</v>
       </c>
-      <c r="C102" t="s" s="8">
-        <v>25</v>
+      <c r="C102" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4796,7 +4812,7 @@
         <v>211</v>
       </c>
       <c r="C103" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4806,13 +4822,13 @@
     </row>
     <row r="104" ht="20.7" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4821,14 +4837,14 @@
       <c r="H104" s="10"/>
     </row>
     <row r="105" ht="20.7" customHeight="1">
-      <c r="A105" t="s" s="14">
+      <c r="A105" t="s" s="4">
         <v>212</v>
       </c>
-      <c r="B105" t="s" s="14">
+      <c r="B105" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>15</v>
+      <c r="C105" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4837,14 +4853,14 @@
       <c r="H105" s="10"/>
     </row>
     <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="14">
         <v>214</v>
       </c>
-      <c r="B106" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="C106" t="s" s="8">
-        <v>10</v>
+      <c r="B106" t="s" s="14">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -4854,13 +4870,13 @@
     </row>
     <row r="107" ht="20.7" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4868,35 +4884,35 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.35" customHeight="1">
-      <c r="A108" t="s" s="11">
+    <row r="108" ht="20.7" customHeight="1">
+      <c r="A108" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s" s="4">
         <v>215</v>
       </c>
-      <c r="B108" t="s" s="11">
-        <v>216</v>
-      </c>
-      <c r="C108" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C108" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="12">
+    <row r="109" ht="20.35" customHeight="1">
+      <c r="A109" t="s" s="11">
         <v>217</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="11">
         <v>218</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D109" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
@@ -4910,7 +4926,7 @@
         <v>220</v>
       </c>
       <c r="C110" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4918,11 +4934,11 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="13">
+    <row r="111" ht="20.05" customHeight="1">
+      <c r="A111" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="B111" t="s" s="13">
+      <c r="B111" t="s" s="12">
         <v>222</v>
       </c>
       <c r="C111" t="s" s="12">
@@ -4934,15 +4950,15 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.7" customHeight="1">
-      <c r="A112" t="s" s="4">
+    <row r="112" ht="20.35" customHeight="1">
+      <c r="A112" t="s" s="13">
         <v>223</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="13">
         <v>224</v>
       </c>
-      <c r="C112" t="s" s="8">
-        <v>25</v>
+      <c r="C112" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4950,15 +4966,15 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" t="s" s="11">
+    <row r="113" ht="20.7" customHeight="1">
+      <c r="A113" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="B113" t="s" s="11">
+      <c r="B113" t="s" s="4">
         <v>226</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>42</v>
+      <c r="C113" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4966,15 +4982,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="12">
+    <row r="114" ht="20.35" customHeight="1">
+      <c r="A114" t="s" s="11">
         <v>227</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="11">
         <v>228</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4990,7 +5006,7 @@
         <v>230</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -4998,15 +5014,15 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.35" customHeight="1">
-      <c r="A116" t="s" s="13">
+    <row r="116" ht="20.05" customHeight="1">
+      <c r="A116" t="s" s="12">
         <v>231</v>
       </c>
-      <c r="B116" t="s" s="13">
+      <c r="B116" t="s" s="12">
         <v>232</v>
       </c>
       <c r="C116" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5014,15 +5030,15 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="4">
+    <row r="117" ht="20.35" customHeight="1">
+      <c r="A117" t="s" s="13">
         <v>233</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="13">
         <v>234</v>
       </c>
-      <c r="C117" t="s" s="8">
-        <v>10</v>
+      <c r="C117" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5032,13 +5048,13 @@
     </row>
     <row r="118" ht="20.7" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5047,14 +5063,14 @@
       <c r="H118" s="10"/>
     </row>
     <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="14">
+      <c r="A119" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="B119" t="s" s="14">
+      <c r="B119" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>71</v>
+      <c r="C119" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5063,14 +5079,14 @@
       <c r="H119" s="10"/>
     </row>
     <row r="120" ht="20.7" customHeight="1">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="14">
         <v>237</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="14">
         <v>238</v>
       </c>
-      <c r="C120" t="s" s="8">
-        <v>25</v>
+      <c r="C120" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5078,15 +5094,15 @@
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="11">
+    <row r="121" ht="20.7" customHeight="1">
+      <c r="A121" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="B121" t="s" s="11">
+      <c r="B121" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>39</v>
+      <c r="C121" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5095,14 +5111,14 @@
       <c r="H121" s="10"/>
     </row>
     <row r="122" ht="20.35" customHeight="1">
-      <c r="A122" t="s" s="13">
+      <c r="A122" t="s" s="11">
         <v>241</v>
       </c>
-      <c r="B122" t="s" s="13">
+      <c r="B122" t="s" s="11">
         <v>242</v>
       </c>
       <c r="C122" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5110,15 +5126,15 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="4">
+    <row r="123" ht="20.35" customHeight="1">
+      <c r="A123" t="s" s="13">
         <v>243</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="C123" t="s" s="8">
-        <v>10</v>
+      <c r="C123" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5128,13 +5144,13 @@
     </row>
     <row r="124" ht="20.7" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5142,15 +5158,15 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="11">
+    <row r="125" ht="20.7" customHeight="1">
+      <c r="A125" t="s" s="4">
         <v>245</v>
       </c>
-      <c r="B125" t="s" s="11">
+      <c r="B125" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>42</v>
+      <c r="C125" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5159,78 +5175,78 @@
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="13">
+      <c r="A126" t="s" s="11">
         <v>247</v>
       </c>
-      <c r="B126" t="s" s="13">
+      <c r="B126" t="s" s="11">
         <v>248</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D126" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="4">
+    <row r="127" ht="20.35" customHeight="1">
+      <c r="A127" t="s" s="13">
         <v>249</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="13">
         <v>250</v>
       </c>
-      <c r="C127" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D127" s="9"/>
+      <c r="C127" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D127" s="10"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="14">
+      <c r="A128" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="B128" t="s" s="14">
+      <c r="B128" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D128" s="10"/>
+      <c r="C128" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="14">
         <v>253</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="14">
         <v>254</v>
       </c>
-      <c r="C129" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D129" s="9"/>
+      <c r="C129" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D129" s="10"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.35" customHeight="1">
-      <c r="A130" t="s" s="11">
+    <row r="130" ht="20.7" customHeight="1">
+      <c r="A130" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="B130" t="s" s="11">
+      <c r="B130" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>18</v>
+      <c r="C130" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -5239,10 +5255,10 @@
       <c r="H130" s="10"/>
     </row>
     <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="13">
+      <c r="A131" t="s" s="11">
         <v>257</v>
       </c>
-      <c r="B131" t="s" s="13">
+      <c r="B131" t="s" s="11">
         <v>258</v>
       </c>
       <c r="C131" t="s" s="12">
@@ -5254,15 +5270,15 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.7" customHeight="1">
-      <c r="A132" t="s" s="4">
+    <row r="132" ht="20.35" customHeight="1">
+      <c r="A132" t="s" s="13">
         <v>259</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="13">
         <v>260</v>
       </c>
-      <c r="C132" t="s" s="8">
-        <v>10</v>
+      <c r="C132" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5272,13 +5288,13 @@
     </row>
     <row r="133" ht="20.7" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5286,15 +5302,15 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.35" customHeight="1">
-      <c r="A134" t="s" s="11">
+    <row r="134" ht="20.7" customHeight="1">
+      <c r="A134" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="B134" t="s" s="11">
+      <c r="B134" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>42</v>
+      <c r="C134" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5302,17 +5318,17 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="12">
+    <row r="135" ht="20.35" customHeight="1">
+      <c r="A135" t="s" s="11">
         <v>263</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="11">
         <v>264</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D135" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
@@ -5326,9 +5342,9 @@
         <v>266</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D136" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D136" s="10"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
@@ -5342,7 +5358,7 @@
         <v>268</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5358,7 +5374,7 @@
         <v>270</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5374,7 +5390,7 @@
         <v>272</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5384,13 +5400,13 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s" s="12">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5400,13 +5416,13 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="12">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s" s="12">
         <v>275</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -5422,7 +5438,7 @@
         <v>277</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -5438,41 +5454,41 @@
         <v>279</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D143" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.35" customHeight="1">
-      <c r="A144" t="s" s="13">
+    <row r="144" ht="20.05" customHeight="1">
+      <c r="A144" t="s" s="12">
         <v>280</v>
       </c>
-      <c r="B144" t="s" s="13">
+      <c r="B144" t="s" s="12">
         <v>281</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D144" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.7" customHeight="1">
-      <c r="A145" t="s" s="4">
+    <row r="145" ht="20.35" customHeight="1">
+      <c r="A145" t="s" s="13">
         <v>282</v>
       </c>
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="13">
         <v>283</v>
       </c>
-      <c r="C145" t="s" s="8">
-        <v>25</v>
+      <c r="C145" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -5480,33 +5496,33 @@
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.35" customHeight="1">
-      <c r="A146" t="s" s="11">
+    <row r="146" ht="20.7" customHeight="1">
+      <c r="A146" t="s" s="4">
         <v>284</v>
       </c>
-      <c r="B146" t="s" s="11">
+      <c r="B146" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D146" s="10"/>
+      <c r="C146" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="12">
+    <row r="147" ht="20.35" customHeight="1">
+      <c r="A147" t="s" s="11">
         <v>286</v>
       </c>
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="11">
         <v>287</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D147" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D147" s="10"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
@@ -5536,7 +5552,7 @@
         <v>291</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -5552,7 +5568,7 @@
         <v>293</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -5562,45 +5578,45 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="12">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D151" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.35" customHeight="1">
-      <c r="A152" t="s" s="13">
-        <v>292</v>
-      </c>
-      <c r="B152" t="s" s="13">
-        <v>295</v>
+    <row r="152" ht="20.05" customHeight="1">
+      <c r="A152" t="s" s="12">
+        <v>294</v>
+      </c>
+      <c r="B152" t="s" s="12">
+        <v>296</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D152" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D152" s="10"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.7" customHeight="1">
-      <c r="A153" t="s" s="4">
-        <v>292</v>
-      </c>
-      <c r="B153" t="s" s="4">
-        <v>296</v>
-      </c>
-      <c r="C153" t="s" s="8">
-        <v>25</v>
+    <row r="153" ht="20.35" customHeight="1">
+      <c r="A153" t="s" s="13">
+        <v>294</v>
+      </c>
+      <c r="B153" t="s" s="13">
+        <v>297</v>
+      </c>
+      <c r="C153" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -5608,15 +5624,15 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.35" customHeight="1">
-      <c r="A154" t="s" s="11">
-        <v>297</v>
-      </c>
-      <c r="B154" t="s" s="11">
+    <row r="154" ht="20.7" customHeight="1">
+      <c r="A154" t="s" s="4">
+        <v>294</v>
+      </c>
+      <c r="B154" t="s" s="4">
         <v>298</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>42</v>
+      <c r="C154" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -5624,11 +5640,11 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" ht="20.05" customHeight="1">
-      <c r="A155" t="s" s="12">
+    <row r="155" ht="20.35" customHeight="1">
+      <c r="A155" t="s" s="11">
         <v>299</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="11">
         <v>300</v>
       </c>
       <c r="C155" t="s" s="12">
@@ -5648,7 +5664,7 @@
         <v>302</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -5664,7 +5680,7 @@
         <v>304</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -5682,7 +5698,7 @@
       <c r="C158" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D158" s="10"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
@@ -5698,7 +5714,7 @@
       <c r="C159" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D159" s="9"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
@@ -5712,7 +5728,7 @@
         <v>310</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5744,7 +5760,7 @@
         <v>314</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5760,7 +5776,7 @@
         <v>316</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5768,15 +5784,15 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.35" customHeight="1">
-      <c r="A164" t="s" s="13">
+    <row r="164" ht="20.05" customHeight="1">
+      <c r="A164" t="s" s="12">
         <v>317</v>
       </c>
-      <c r="B164" t="s" s="13">
+      <c r="B164" t="s" s="12">
         <v>318</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -5784,15 +5800,15 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.7" customHeight="1">
-      <c r="A165" t="s" s="4">
+    <row r="165" ht="20.35" customHeight="1">
+      <c r="A165" t="s" s="13">
         <v>319</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="13">
         <v>320</v>
       </c>
-      <c r="C165" t="s" s="8">
-        <v>10</v>
+      <c r="C165" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5802,13 +5818,13 @@
     </row>
     <row r="166" ht="20.7" customHeight="1">
       <c r="A166" t="s" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C166" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -5816,15 +5832,15 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" ht="20.35" customHeight="1">
-      <c r="A167" t="s" s="11">
+    <row r="167" ht="20.7" customHeight="1">
+      <c r="A167" t="s" s="4">
         <v>321</v>
       </c>
-      <c r="B167" t="s" s="11">
+      <c r="B167" t="s" s="4">
         <v>322</v>
       </c>
-      <c r="C167" t="s" s="12">
-        <v>42</v>
+      <c r="C167" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -5832,17 +5848,17 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" ht="20.05" customHeight="1">
-      <c r="A168" t="s" s="12">
+    <row r="168" ht="20.35" customHeight="1">
+      <c r="A168" t="s" s="11">
         <v>323</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="11">
         <v>324</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D168" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -5856,9 +5872,9 @@
         <v>326</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D169" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D169" s="10"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
@@ -5890,7 +5906,7 @@
       <c r="C171" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D171" s="10"/>
+      <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -5904,7 +5920,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="9"/>
@@ -5919,10 +5935,10 @@
       <c r="B173" t="s" s="12">
         <v>334</v>
       </c>
-      <c r="C173" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D173" s="9"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="10"/>
@@ -5936,23 +5952,23 @@
         <v>336</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D174" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D174" s="10"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.35" customHeight="1">
-      <c r="A175" t="s" s="13">
+    <row r="175" ht="20.05" customHeight="1">
+      <c r="A175" t="s" s="12">
         <v>337</v>
       </c>
-      <c r="B175" t="s" s="13">
+      <c r="B175" t="s" s="12">
         <v>338</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -5960,15 +5976,15 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.7" customHeight="1">
-      <c r="A176" t="s" s="4">
+    <row r="176" ht="20.05" customHeight="1">
+      <c r="A176" t="s" s="12">
         <v>339</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>340</v>
       </c>
-      <c r="C176" t="s" s="8">
-        <v>25</v>
+      <c r="C176" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -5977,14 +5993,14 @@
       <c r="H176" s="10"/>
     </row>
     <row r="177" ht="20.35" customHeight="1">
-      <c r="A177" t="s" s="11">
+      <c r="A177" t="s" s="13">
         <v>341</v>
       </c>
-      <c r="B177" t="s" s="11">
+      <c r="B177" t="s" s="13">
         <v>342</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -5992,15 +6008,15 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" ht="20.05" customHeight="1">
-      <c r="A178" t="s" s="12">
+    <row r="178" ht="20.7" customHeight="1">
+      <c r="A178" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>18</v>
+      <c r="C178" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6008,15 +6024,15 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.05" customHeight="1">
-      <c r="A179" t="s" s="12">
+    <row r="179" ht="20.35" customHeight="1">
+      <c r="A179" t="s" s="11">
         <v>345</v>
       </c>
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="11">
         <v>346</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6032,7 +6048,7 @@
         <v>348</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -6048,7 +6064,7 @@
         <v>350</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -6064,7 +6080,7 @@
         <v>352</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6080,7 +6096,7 @@
         <v>354</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6096,7 +6112,7 @@
         <v>356</v>
       </c>
       <c r="C184" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -6104,33 +6120,31 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" t="s" s="13">
-        <v>355</v>
-      </c>
-      <c r="B185" t="s" s="13">
+    <row r="185" ht="20.05" customHeight="1">
+      <c r="A185" t="s" s="12">
         <v>357</v>
       </c>
+      <c r="B185" t="s" s="12">
+        <v>358</v>
+      </c>
       <c r="C185" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D185" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="15">
-        <v>358</v>
-      </c>
-      <c r="B186" t="s" s="15">
+    <row r="186" ht="20.05" customHeight="1">
+      <c r="A186" t="s" s="12">
         <v>359</v>
       </c>
-      <c r="C186" t="s" s="8">
-        <v>10</v>
+      <c r="B186" t="s" s="12">
+        <v>360</v>
+      </c>
+      <c r="C186" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -6138,31 +6152,33 @@
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.7" customHeight="1">
-      <c r="A187" t="s" s="4">
-        <v>358</v>
-      </c>
-      <c r="B187" t="s" s="4">
+    <row r="187" ht="20.35" customHeight="1">
+      <c r="A187" t="s" s="13">
         <v>359</v>
       </c>
-      <c r="C187" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D187" s="9"/>
+      <c r="B187" t="s" s="13">
+        <v>361</v>
+      </c>
+      <c r="C187" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D187" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
     <row r="188" ht="20.7" customHeight="1">
-      <c r="A188" t="s" s="14">
-        <v>360</v>
-      </c>
-      <c r="B188" t="s" s="14">
-        <v>361</v>
-      </c>
-      <c r="C188" t="s" s="12">
-        <v>42</v>
+      <c r="A188" t="s" s="15">
+        <v>362</v>
+      </c>
+      <c r="B188" t="s" s="15">
+        <v>363</v>
+      </c>
+      <c r="C188" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -6178,7 +6194,7 @@
         <v>363</v>
       </c>
       <c r="C189" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -6187,14 +6203,14 @@
       <c r="H189" s="10"/>
     </row>
     <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="4">
-        <v>362</v>
-      </c>
-      <c r="B190" t="s" s="4">
-        <v>363</v>
-      </c>
-      <c r="C190" t="s" s="8">
-        <v>25</v>
+      <c r="A190" t="s" s="14">
+        <v>364</v>
+      </c>
+      <c r="B190" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="C190" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6202,15 +6218,15 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.35" customHeight="1">
-      <c r="A191" t="s" s="11">
-        <v>364</v>
-      </c>
-      <c r="B191" t="s" s="11">
-        <v>365</v>
-      </c>
-      <c r="C191" t="s" s="12">
-        <v>71</v>
+    <row r="191" ht="20.7" customHeight="1">
+      <c r="A191" t="s" s="4">
+        <v>366</v>
+      </c>
+      <c r="B191" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="C191" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6218,15 +6234,15 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.35" customHeight="1">
-      <c r="A192" t="s" s="13">
+    <row r="192" ht="20.7" customHeight="1">
+      <c r="A192" t="s" s="4">
         <v>366</v>
       </c>
-      <c r="B192" t="s" s="13">
+      <c r="B192" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>18</v>
+      <c r="C192" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6234,15 +6250,15 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.7" customHeight="1">
-      <c r="A193" t="s" s="4">
+    <row r="193" ht="20.35" customHeight="1">
+      <c r="A193" t="s" s="11">
         <v>368</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="11">
         <v>369</v>
       </c>
-      <c r="C193" t="s" s="8">
-        <v>10</v>
+      <c r="C193" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -6251,32 +6267,30 @@
       <c r="H193" s="10"/>
     </row>
     <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="11">
+      <c r="A194" t="s" s="13">
         <v>370</v>
       </c>
-      <c r="B194" t="s" s="11">
+      <c r="B194" t="s" s="13">
         <v>371</v>
       </c>
       <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.05" customHeight="1">
-      <c r="A195" t="s" s="12">
-        <v>370</v>
-      </c>
-      <c r="B195" t="s" s="12">
+    <row r="195" ht="20.7" customHeight="1">
+      <c r="A195" t="s" s="4">
         <v>372</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>18</v>
+      <c r="B195" t="s" s="4">
+        <v>373</v>
+      </c>
+      <c r="C195" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6285,46 +6299,50 @@
       <c r="H195" s="10"/>
     </row>
     <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="13">
-        <v>373</v>
-      </c>
-      <c r="B196" t="s" s="13">
+      <c r="A196" t="s" s="11">
         <v>374</v>
       </c>
+      <c r="B196" t="s" s="11">
+        <v>375</v>
+      </c>
       <c r="C196" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D196" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D196" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="4">
-        <v>375</v>
-      </c>
-      <c r="B197" t="s" s="4">
+    <row r="197" ht="20.05" customHeight="1">
+      <c r="A197" t="s" s="12">
+        <v>374</v>
+      </c>
+      <c r="B197" t="s" s="12">
         <v>376</v>
       </c>
-      <c r="C197" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D197" s="9"/>
+      <c r="C197" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D197" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="14">
+    <row r="198" ht="20.35" customHeight="1">
+      <c r="A198" t="s" s="13">
         <v>377</v>
       </c>
-      <c r="B198" t="s" s="14">
+      <c r="B198" t="s" s="13">
         <v>378</v>
       </c>
       <c r="C198" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6340,7 +6358,7 @@
         <v>380</v>
       </c>
       <c r="C199" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6356,7 +6374,7 @@
         <v>382</v>
       </c>
       <c r="C200" t="s" s="12">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6372,7 +6390,7 @@
         <v>384</v>
       </c>
       <c r="C201" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6381,14 +6399,14 @@
       <c r="H201" s="10"/>
     </row>
     <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="4">
-        <v>383</v>
-      </c>
-      <c r="B202" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="C202" t="s" s="8">
-        <v>25</v>
+      <c r="A202" t="s" s="14">
+        <v>385</v>
+      </c>
+      <c r="B202" t="s" s="14">
+        <v>386</v>
+      </c>
+      <c r="C202" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6398,10 +6416,10 @@
     </row>
     <row r="203" ht="20.7" customHeight="1">
       <c r="A203" t="s" s="4">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B203" t="s" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s" s="8">
         <v>10</v>
@@ -6412,15 +6430,15 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.35" customHeight="1">
-      <c r="A204" t="s" s="11">
+    <row r="204" ht="20.7" customHeight="1">
+      <c r="A204" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="B204" t="s" s="11">
+      <c r="B204" t="s" s="4">
         <v>388</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>15</v>
+      <c r="C204" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6428,15 +6446,15 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.05" customHeight="1">
-      <c r="A205" t="s" s="12">
+    <row r="205" ht="20.7" customHeight="1">
+      <c r="A205" t="s" s="4">
         <v>389</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>39</v>
+      <c r="C205" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6444,15 +6462,15 @@
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.05" customHeight="1">
-      <c r="A206" t="s" s="12">
+    <row r="206" ht="20.35" customHeight="1">
+      <c r="A206" t="s" s="11">
         <v>391</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="11">
         <v>392</v>
       </c>
       <c r="C206" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6468,7 +6486,7 @@
         <v>394</v>
       </c>
       <c r="C207" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -6476,15 +6494,15 @@
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.35" customHeight="1">
-      <c r="A208" t="s" s="13">
+    <row r="208" ht="20.05" customHeight="1">
+      <c r="A208" t="s" s="12">
         <v>395</v>
       </c>
-      <c r="B208" t="s" s="13">
+      <c r="B208" t="s" s="12">
         <v>396</v>
       </c>
       <c r="C208" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -6492,15 +6510,15 @@
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.7" customHeight="1">
-      <c r="A209" t="s" s="4">
+    <row r="209" ht="20.05" customHeight="1">
+      <c r="A209" t="s" s="12">
         <v>397</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C209" t="s" s="8">
-        <v>25</v>
+      <c r="C209" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6509,14 +6527,14 @@
       <c r="H209" s="10"/>
     </row>
     <row r="210" ht="20.35" customHeight="1">
-      <c r="A210" t="s" s="11">
+      <c r="A210" t="s" s="13">
         <v>399</v>
       </c>
-      <c r="B210" t="s" s="11">
+      <c r="B210" t="s" s="13">
         <v>400</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6524,15 +6542,15 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" t="s" s="13">
+    <row r="211" ht="20.7" customHeight="1">
+      <c r="A211" t="s" s="4">
         <v>401</v>
       </c>
-      <c r="B211" t="s" s="13">
+      <c r="B211" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>42</v>
+      <c r="C211" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -6540,15 +6558,15 @@
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.7" customHeight="1">
-      <c r="A212" t="s" s="4">
+    <row r="212" ht="20.35" customHeight="1">
+      <c r="A212" t="s" s="11">
         <v>403</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="11">
         <v>404</v>
       </c>
-      <c r="C212" t="s" s="8">
-        <v>10</v>
+      <c r="C212" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6556,15 +6574,15 @@
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.7" customHeight="1">
-      <c r="A213" t="s" s="4">
+    <row r="213" ht="20.35" customHeight="1">
+      <c r="A213" t="s" s="13">
         <v>405</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="13">
         <v>406</v>
       </c>
-      <c r="C213" t="s" s="8">
-        <v>10</v>
+      <c r="C213" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -6573,14 +6591,14 @@
       <c r="H213" s="10"/>
     </row>
     <row r="214" ht="20.7" customHeight="1">
-      <c r="A214" t="s" s="15">
+      <c r="A214" t="s" s="4">
         <v>407</v>
       </c>
-      <c r="B214" t="s" s="15">
+      <c r="B214" t="s" s="4">
         <v>408</v>
       </c>
       <c r="C214" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -6596,7 +6614,7 @@
         <v>410</v>
       </c>
       <c r="C215" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6605,10 +6623,10 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="15">
         <v>411</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="15">
         <v>412</v>
       </c>
       <c r="C216" t="s" s="8">
@@ -6628,7 +6646,7 @@
         <v>414</v>
       </c>
       <c r="C217" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -6636,15 +6654,15 @@
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.35" customHeight="1">
-      <c r="A218" t="s" s="11">
+    <row r="218" ht="20.7" customHeight="1">
+      <c r="A218" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="B218" t="s" s="11">
+      <c r="B218" t="s" s="4">
         <v>416</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>18</v>
+      <c r="C218" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -6652,15 +6670,15 @@
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.05" customHeight="1">
-      <c r="A219" t="s" s="12">
+    <row r="219" ht="20.7" customHeight="1">
+      <c r="A219" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>18</v>
+      <c r="C219" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6668,15 +6686,15 @@
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.05" customHeight="1">
-      <c r="A220" t="s" s="12">
+    <row r="220" ht="20.35" customHeight="1">
+      <c r="A220" t="s" s="11">
         <v>419</v>
       </c>
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="11">
         <v>420</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -6692,9 +6710,9 @@
         <v>422</v>
       </c>
       <c r="C221" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D221" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
@@ -6708,7 +6726,7 @@
         <v>424</v>
       </c>
       <c r="C222" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -6716,31 +6734,31 @@
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.35" customHeight="1">
-      <c r="A223" t="s" s="13">
+    <row r="223" ht="20.05" customHeight="1">
+      <c r="A223" t="s" s="12">
         <v>425</v>
       </c>
-      <c r="B223" t="s" s="13">
+      <c r="B223" t="s" s="12">
         <v>426</v>
       </c>
       <c r="C223" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D223" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D223" s="10"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="4">
+    <row r="224" ht="20.05" customHeight="1">
+      <c r="A224" t="s" s="12">
         <v>427</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>428</v>
       </c>
-      <c r="C224" t="s" s="8">
-        <v>25</v>
+      <c r="C224" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -6748,15 +6766,15 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="14">
+    <row r="225" ht="20.35" customHeight="1">
+      <c r="A225" t="s" s="13">
         <v>429</v>
       </c>
-      <c r="B225" t="s" s="14">
+      <c r="B225" t="s" s="13">
         <v>430</v>
       </c>
       <c r="C225" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6772,7 +6790,7 @@
         <v>432</v>
       </c>
       <c r="C226" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -6780,15 +6798,15 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.35" customHeight="1">
-      <c r="A227" t="s" s="11">
+    <row r="227" ht="20.7" customHeight="1">
+      <c r="A227" t="s" s="14">
         <v>433</v>
       </c>
-      <c r="B227" t="s" s="11">
+      <c r="B227" t="s" s="14">
         <v>434</v>
       </c>
       <c r="C227" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6796,15 +6814,15 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.05" customHeight="1">
-      <c r="A228" t="s" s="12">
+    <row r="228" ht="20.7" customHeight="1">
+      <c r="A228" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>39</v>
+      <c r="C228" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6813,14 +6831,14 @@
       <c r="H228" s="10"/>
     </row>
     <row r="229" ht="20.35" customHeight="1">
-      <c r="A229" t="s" s="13">
+      <c r="A229" t="s" s="11">
         <v>437</v>
       </c>
-      <c r="B229" t="s" s="13">
+      <c r="B229" t="s" s="11">
         <v>438</v>
       </c>
       <c r="C229" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -6828,15 +6846,15 @@
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.7" customHeight="1">
-      <c r="A230" t="s" s="4">
+    <row r="230" ht="20.05" customHeight="1">
+      <c r="A230" t="s" s="12">
         <v>439</v>
       </c>
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>440</v>
       </c>
-      <c r="C230" t="s" s="8">
-        <v>10</v>
+      <c r="C230" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -6844,15 +6862,15 @@
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.7" customHeight="1">
-      <c r="A231" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="B231" t="s" s="4">
-        <v>440</v>
-      </c>
-      <c r="C231" t="s" s="8">
-        <v>25</v>
+    <row r="231" ht="20.35" customHeight="1">
+      <c r="A231" t="s" s="13">
+        <v>441</v>
+      </c>
+      <c r="B231" t="s" s="13">
+        <v>442</v>
+      </c>
+      <c r="C231" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6862,13 +6880,13 @@
     </row>
     <row r="232" ht="20.7" customHeight="1">
       <c r="A232" t="s" s="4">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B232" t="s" s="4">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C232" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -6876,15 +6894,15 @@
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.35" customHeight="1">
-      <c r="A233" t="s" s="11">
+    <row r="233" ht="20.7" customHeight="1">
+      <c r="A233" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="B233" t="s" s="11">
+      <c r="B233" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>39</v>
+      <c r="C233" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -6892,15 +6910,15 @@
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="12">
+    <row r="234" ht="20.7" customHeight="1">
+      <c r="A234" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>15</v>
+      <c r="C234" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -6908,15 +6926,15 @@
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.05" customHeight="1">
-      <c r="A235" t="s" s="12">
+    <row r="235" ht="20.35" customHeight="1">
+      <c r="A235" t="s" s="11">
         <v>447</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="11">
         <v>448</v>
       </c>
       <c r="C235" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -6932,11 +6950,9 @@
         <v>450</v>
       </c>
       <c r="C236" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D236" s="9">
-        <v>0.435897435897436</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
@@ -6950,7 +6966,7 @@
         <v>452</v>
       </c>
       <c r="C237" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -6966,9 +6982,11 @@
         <v>454</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D238" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D238" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -6982,7 +7000,7 @@
         <v>456</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -7014,9 +7032,9 @@
         <v>460</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D241" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
@@ -7030,7 +7048,7 @@
         <v>462</v>
       </c>
       <c r="C242" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -7038,33 +7056,31 @@
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243" ht="20.35" customHeight="1">
-      <c r="A243" t="s" s="13">
+    <row r="243" ht="20.05" customHeight="1">
+      <c r="A243" t="s" s="12">
         <v>463</v>
       </c>
-      <c r="B243" t="s" s="13">
+      <c r="B243" t="s" s="12">
         <v>464</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D243" s="9">
-        <v>0.179487179487179</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D243" s="10"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.7" customHeight="1">
-      <c r="A244" t="s" s="4">
+    <row r="244" ht="20.05" customHeight="1">
+      <c r="A244" t="s" s="12">
         <v>465</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="C244" t="s" s="8">
-        <v>10</v>
+      <c r="C244" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -7072,31 +7088,33 @@
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.7" customHeight="1">
-      <c r="A245" t="s" s="4">
+    <row r="245" ht="20.35" customHeight="1">
+      <c r="A245" t="s" s="13">
         <v>467</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="13">
         <v>468</v>
       </c>
-      <c r="C245" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D245" s="9"/>
+      <c r="C245" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D245" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.35" customHeight="1">
-      <c r="A246" t="s" s="11">
+    <row r="246" ht="20.7" customHeight="1">
+      <c r="A246" t="s" s="4">
         <v>469</v>
       </c>
-      <c r="B246" t="s" s="11">
+      <c r="B246" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>71</v>
+      <c r="C246" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7104,33 +7122,33 @@
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.05" customHeight="1">
-      <c r="A247" t="s" s="12">
+    <row r="247" ht="20.7" customHeight="1">
+      <c r="A247" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="4">
         <v>472</v>
       </c>
-      <c r="C247" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D247" s="10"/>
+      <c r="C247" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" ht="20.05" customHeight="1">
-      <c r="A248" t="s" s="12">
+    <row r="248" ht="20.35" customHeight="1">
+      <c r="A248" t="s" s="11">
         <v>473</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="11">
         <v>474</v>
       </c>
       <c r="C248" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D248" s="10"/>
+      <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
@@ -7144,9 +7162,9 @@
         <v>476</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D249" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D249" s="10"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
@@ -7160,9 +7178,9 @@
         <v>478</v>
       </c>
       <c r="C250" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D250" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D250" s="10"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
@@ -7192,11 +7210,9 @@
         <v>482</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D252" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
@@ -7226,9 +7242,11 @@
         <v>486</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D254" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D254" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7258,7 +7276,7 @@
         <v>490</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7274,7 +7292,7 @@
         <v>492</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7282,15 +7300,15 @@
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.35" customHeight="1">
-      <c r="A258" t="s" s="13">
+    <row r="258" ht="20.05" customHeight="1">
+      <c r="A258" t="s" s="12">
         <v>493</v>
       </c>
-      <c r="B258" t="s" s="13">
+      <c r="B258" t="s" s="12">
         <v>494</v>
       </c>
       <c r="C258" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7298,15 +7316,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.7" customHeight="1">
-      <c r="A259" t="s" s="4">
+    <row r="259" ht="20.05" customHeight="1">
+      <c r="A259" t="s" s="12">
         <v>495</v>
       </c>
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>496</v>
       </c>
-      <c r="C259" t="s" s="8">
-        <v>10</v>
+      <c r="C259" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7314,15 +7332,15 @@
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.7" customHeight="1">
-      <c r="A260" t="s" s="4">
-        <v>495</v>
-      </c>
-      <c r="B260" t="s" s="4">
-        <v>496</v>
-      </c>
-      <c r="C260" t="s" s="8">
-        <v>25</v>
+    <row r="260" ht="20.35" customHeight="1">
+      <c r="A260" t="s" s="13">
+        <v>497</v>
+      </c>
+      <c r="B260" t="s" s="13">
+        <v>498</v>
+      </c>
+      <c r="C260" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -7330,33 +7348,31 @@
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.35" customHeight="1">
-      <c r="A261" t="s" s="11">
-        <v>497</v>
-      </c>
-      <c r="B261" t="s" s="11">
-        <v>498</v>
-      </c>
-      <c r="C261" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D261" s="9">
-        <v>0.871794871794872</v>
-      </c>
+    <row r="261" ht="20.7" customHeight="1">
+      <c r="A261" t="s" s="4">
+        <v>499</v>
+      </c>
+      <c r="B261" t="s" s="4">
+        <v>500</v>
+      </c>
+      <c r="C261" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.05" customHeight="1">
-      <c r="A262" t="s" s="12">
+    <row r="262" ht="20.7" customHeight="1">
+      <c r="A262" t="s" s="4">
         <v>499</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="4">
         <v>500</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>15</v>
+      <c r="C262" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7364,17 +7380,19 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.05" customHeight="1">
-      <c r="A263" t="s" s="12">
+    <row r="263" ht="20.35" customHeight="1">
+      <c r="A263" t="s" s="11">
         <v>501</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="11">
         <v>502</v>
       </c>
       <c r="C263" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D263" s="9"/>
+      <c r="D263" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
@@ -7388,7 +7406,7 @@
         <v>504</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7404,7 +7422,7 @@
         <v>506</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7412,15 +7430,15 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.35" customHeight="1">
-      <c r="A266" t="s" s="13">
+    <row r="266" ht="20.05" customHeight="1">
+      <c r="A266" t="s" s="12">
         <v>507</v>
       </c>
-      <c r="B266" t="s" s="13">
+      <c r="B266" t="s" s="12">
         <v>508</v>
       </c>
       <c r="C266" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7428,15 +7446,15 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.7" customHeight="1">
-      <c r="A267" t="s" s="4">
+    <row r="267" ht="20.05" customHeight="1">
+      <c r="A267" t="s" s="12">
         <v>509</v>
       </c>
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>510</v>
       </c>
-      <c r="C267" t="s" s="8">
-        <v>25</v>
+      <c r="C267" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7445,14 +7463,14 @@
       <c r="H267" s="10"/>
     </row>
     <row r="268" ht="20.35" customHeight="1">
-      <c r="A268" t="s" s="11">
+      <c r="A268" t="s" s="13">
         <v>511</v>
       </c>
-      <c r="B268" t="s" s="11">
+      <c r="B268" t="s" s="13">
         <v>512</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7460,15 +7478,15 @@
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.05" customHeight="1">
-      <c r="A269" t="s" s="12">
+    <row r="269" ht="20.7" customHeight="1">
+      <c r="A269" t="s" s="4">
         <v>513</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="4">
         <v>514</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>71</v>
+      <c r="C269" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7476,11 +7494,11 @@
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.05" customHeight="1">
-      <c r="A270" t="s" s="12">
+    <row r="270" ht="20.35" customHeight="1">
+      <c r="A270" t="s" s="11">
         <v>515</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="11">
         <v>516</v>
       </c>
       <c r="C270" t="s" s="12">
@@ -7500,7 +7518,7 @@
         <v>518</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7516,7 +7534,7 @@
         <v>520</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -7532,7 +7550,7 @@
         <v>522</v>
       </c>
       <c r="C273" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7548,7 +7566,7 @@
         <v>524</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7564,7 +7582,7 @@
         <v>526</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7580,7 +7598,7 @@
         <v>528</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7612,7 +7630,7 @@
         <v>532</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7628,7 +7646,7 @@
         <v>534</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7638,13 +7656,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B280" t="s" s="12">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7654,13 +7672,13 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="12">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B281" t="s" s="12">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7668,15 +7686,15 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.35" customHeight="1">
-      <c r="A282" t="s" s="13">
-        <v>538</v>
-      </c>
-      <c r="B282" t="s" s="13">
+    <row r="282" ht="20.05" customHeight="1">
+      <c r="A282" t="s" s="12">
+        <v>537</v>
+      </c>
+      <c r="B282" t="s" s="12">
         <v>539</v>
       </c>
       <c r="C282" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7684,15 +7702,15 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.7" customHeight="1">
-      <c r="A283" t="s" s="4">
+    <row r="283" ht="20.05" customHeight="1">
+      <c r="A283" t="s" s="12">
         <v>540</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>541</v>
       </c>
-      <c r="C283" t="s" s="8">
-        <v>25</v>
+      <c r="C283" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -7700,17 +7718,19 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.7" customHeight="1">
-      <c r="A284" t="s" s="4">
+    <row r="284" ht="20.35" customHeight="1">
+      <c r="A284" t="s" s="13">
         <v>542</v>
       </c>
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="13">
         <v>543</v>
       </c>
-      <c r="C284" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D284" s="9"/>
+      <c r="C284" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D284" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -7718,10 +7738,10 @@
     </row>
     <row r="285" ht="20.7" customHeight="1">
       <c r="A285" t="s" s="4">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B285" t="s" s="4">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C285" t="s" s="8">
         <v>25</v>
@@ -7734,10 +7754,10 @@
     </row>
     <row r="286" ht="20.7" customHeight="1">
       <c r="A286" t="s" s="4">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B286" t="s" s="4">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C286" t="s" s="8">
         <v>10</v>
@@ -7748,15 +7768,15 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.35" customHeight="1">
-      <c r="A287" t="s" s="11">
+    <row r="287" ht="20.7" customHeight="1">
+      <c r="A287" t="s" s="4">
         <v>546</v>
       </c>
-      <c r="B287" t="s" s="11">
+      <c r="B287" t="s" s="4">
         <v>547</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>42</v>
+      <c r="C287" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -7764,33 +7784,31 @@
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.05" customHeight="1">
-      <c r="A288" t="s" s="12">
+    <row r="288" ht="20.7" customHeight="1">
+      <c r="A288" t="s" s="4">
         <v>548</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="4">
         <v>549</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D288" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C288" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.05" customHeight="1">
-      <c r="A289" t="s" s="12">
+    <row r="289" ht="20.35" customHeight="1">
+      <c r="A289" t="s" s="11">
         <v>550</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="11">
         <v>551</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -7808,7 +7826,9 @@
       <c r="C290" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D290" s="9"/>
+      <c r="D290" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
@@ -7830,15 +7850,15 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.35" customHeight="1">
-      <c r="A292" t="s" s="13">
+    <row r="292" ht="20.05" customHeight="1">
+      <c r="A292" t="s" s="12">
         <v>556</v>
       </c>
-      <c r="B292" t="s" s="13">
+      <c r="B292" t="s" s="12">
         <v>557</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7846,15 +7866,15 @@
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.7" customHeight="1">
-      <c r="A293" t="s" s="4">
+    <row r="293" ht="20.05" customHeight="1">
+      <c r="A293" t="s" s="12">
         <v>558</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>559</v>
       </c>
-      <c r="C293" t="s" s="8">
-        <v>10</v>
+      <c r="C293" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7862,15 +7882,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.7" customHeight="1">
-      <c r="A294" t="s" s="4">
-        <v>558</v>
-      </c>
-      <c r="B294" t="s" s="4">
-        <v>559</v>
-      </c>
-      <c r="C294" t="s" s="8">
-        <v>25</v>
+    <row r="294" ht="20.35" customHeight="1">
+      <c r="A294" t="s" s="13">
+        <v>560</v>
+      </c>
+      <c r="B294" t="s" s="13">
+        <v>561</v>
+      </c>
+      <c r="C294" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7880,10 +7900,10 @@
     </row>
     <row r="295" ht="20.7" customHeight="1">
       <c r="A295" t="s" s="4">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B295" t="s" s="4">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C295" t="s" s="8">
         <v>10</v>
@@ -7896,10 +7916,10 @@
     </row>
     <row r="296" ht="20.7" customHeight="1">
       <c r="A296" t="s" s="4">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B296" t="s" s="4">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C296" t="s" s="8">
         <v>25</v>
@@ -7910,33 +7930,31 @@
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.35" customHeight="1">
-      <c r="A297" t="s" s="11">
-        <v>562</v>
-      </c>
-      <c r="B297" t="s" s="11">
-        <v>563</v>
-      </c>
-      <c r="C297" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D297" s="9">
-        <v>0.58974358974359</v>
-      </c>
+    <row r="297" ht="20.7" customHeight="1">
+      <c r="A297" t="s" s="4">
+        <v>564</v>
+      </c>
+      <c r="B297" t="s" s="4">
+        <v>565</v>
+      </c>
+      <c r="C297" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.05" customHeight="1">
-      <c r="A298" t="s" s="12">
+    <row r="298" ht="20.7" customHeight="1">
+      <c r="A298" t="s" s="4">
         <v>564</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="4">
         <v>565</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>15</v>
+      <c r="C298" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -7944,17 +7962,19 @@
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.05" customHeight="1">
-      <c r="A299" t="s" s="12">
+    <row r="299" ht="20.35" customHeight="1">
+      <c r="A299" t="s" s="11">
         <v>566</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="11">
         <v>567</v>
       </c>
       <c r="C299" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D299" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D299" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
@@ -7984,7 +8004,7 @@
         <v>571</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
@@ -8000,23 +8020,23 @@
         <v>573</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D302" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.35" customHeight="1">
-      <c r="A303" t="s" s="13">
+    <row r="303" ht="20.05" customHeight="1">
+      <c r="A303" t="s" s="12">
         <v>574</v>
       </c>
-      <c r="B303" t="s" s="13">
+      <c r="B303" t="s" s="12">
         <v>575</v>
       </c>
       <c r="C303" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
@@ -8024,31 +8044,31 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.7" customHeight="1">
-      <c r="A304" t="s" s="4">
+    <row r="304" ht="20.05" customHeight="1">
+      <c r="A304" t="s" s="12">
         <v>576</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>577</v>
       </c>
-      <c r="C304" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D304" s="9"/>
+      <c r="C304" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D304" s="10"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" t="s" s="11">
+      <c r="A305" t="s" s="13">
         <v>578</v>
       </c>
-      <c r="B305" t="s" s="11">
+      <c r="B305" t="s" s="13">
         <v>579</v>
       </c>
       <c r="C305" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -8056,15 +8076,15 @@
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.05" customHeight="1">
-      <c r="A306" t="s" s="12">
+    <row r="306" ht="20.7" customHeight="1">
+      <c r="A306" t="s" s="4">
         <v>580</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="4">
         <v>581</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>15</v>
+      <c r="C306" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
@@ -8072,15 +8092,15 @@
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.05" customHeight="1">
-      <c r="A307" t="s" s="12">
+    <row r="307" ht="20.35" customHeight="1">
+      <c r="A307" t="s" s="11">
         <v>582</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="11">
         <v>583</v>
       </c>
       <c r="C307" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
@@ -8096,7 +8116,7 @@
         <v>585</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
@@ -8112,7 +8132,7 @@
         <v>587</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
@@ -8144,7 +8164,7 @@
         <v>591</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
@@ -8160,7 +8180,7 @@
         <v>593</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -8176,7 +8196,7 @@
         <v>595</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
@@ -8185,9 +8205,15 @@
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
+      <c r="A314" t="s" s="12">
+        <v>596</v>
+      </c>
+      <c r="B314" t="s" s="12">
+        <v>597</v>
+      </c>
+      <c r="C314" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -8195,9 +8221,15 @@
       <c r="H314" s="10"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
+      <c r="A315" t="s" s="12">
+        <v>598</v>
+      </c>
+      <c r="B315" t="s" s="12">
+        <v>599</v>
+      </c>
+      <c r="C315" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t>Surname</t>
   </si>
@@ -46,7 +46,7 @@
     <t>BT</t>
   </si>
   <si>
-    <t>BANDA</t>
+    <t>Banda</t>
   </si>
   <si>
     <t>H210543N</t>
@@ -76,7 +76,7 @@
     <t>H210084B</t>
   </si>
   <si>
-    <t>BINDU</t>
+    <t>Bindu</t>
   </si>
   <si>
     <t>H210604Z</t>
@@ -337,7 +337,7 @@
     <t>H210384J</t>
   </si>
   <si>
-    <t>DIMINGO</t>
+    <t>Dimingo</t>
   </si>
   <si>
     <t>H210439Z</t>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>H210236C</t>
-  </si>
-  <si>
-    <t>GOMWE</t>
   </si>
   <si>
     <t>H210362C</t>
@@ -3140,7 +3137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H410"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3668,7 +3665,7 @@
         <v>77</v>
       </c>
       <c r="C32" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3678,10 +3675,10 @@
     </row>
     <row r="33" ht="20.7" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>25</v>
@@ -3692,15 +3689,15 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="8">
-        <v>25</v>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3708,15 +3705,15 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s" s="11">
-        <v>81</v>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>83</v>
       </c>
       <c r="C35" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3726,13 +3723,13 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="12">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="12">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3742,15 +3739,17 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D37" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
@@ -3758,13 +3757,13 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -3774,10 +3773,10 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s" s="12">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="12">
         <v>71</v>
@@ -3790,13 +3789,13 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s" s="12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s" s="12">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3806,13 +3805,13 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="12">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3822,13 +3821,13 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3838,15 +3837,17 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s" s="12">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D43" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -3854,17 +3855,15 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s" s="12">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.846153846153846</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -3872,13 +3871,13 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="12">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -3888,29 +3887,31 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="12">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s" s="12">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D46" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s" s="12">
-        <v>105</v>
+    <row r="47" ht="20.35" customHeight="1">
+      <c r="A47" t="s" s="13">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s" s="13">
+        <v>107</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -3918,15 +3919,15 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s" s="12">
-        <v>28</v>
+    <row r="48" ht="20.7" customHeight="1">
+      <c r="A48" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -3934,15 +3935,15 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s" s="8">
-        <v>10</v>
+    <row r="49" ht="20.35" customHeight="1">
+      <c r="A49" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3950,12 +3951,12 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" ht="20.35" customHeight="1">
-      <c r="A50" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="B50" t="s" s="11">
-        <v>111</v>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s" s="12">
+        <v>113</v>
       </c>
       <c r="C50" t="s" s="12">
         <v>42</v>
@@ -3968,13 +3969,13 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3987,10 +3988,10 @@
         <v>114</v>
       </c>
       <c r="B52" t="s" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -4000,13 +4001,13 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s" s="12">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4016,13 +4017,13 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s" s="12">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4032,10 +4033,10 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s" s="12">
         <v>18</v>
@@ -4048,13 +4049,13 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4064,13 +4065,13 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s" s="12">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4080,13 +4081,13 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4096,10 +4097,10 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s" s="12">
         <v>39</v>
@@ -4112,13 +4113,13 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s" s="12">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s" s="12">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -4126,12 +4127,12 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="B61" t="s" s="12">
-        <v>132</v>
+    <row r="61" ht="20.35" customHeight="1">
+      <c r="A61" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s" s="13">
+        <v>134</v>
       </c>
       <c r="C61" t="s" s="12">
         <v>71</v>
@@ -4142,15 +4143,15 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" ht="20.35" customHeight="1">
-      <c r="A62" t="s" s="13">
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" t="s" s="4">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="13">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s" s="12">
-        <v>71</v>
+      <c r="B62" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -4158,15 +4159,15 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" ht="20.7" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s" s="4">
+    <row r="63" ht="20.35" customHeight="1">
+      <c r="A63" t="s" s="11">
         <v>136</v>
       </c>
-      <c r="C63" t="s" s="8">
-        <v>10</v>
+      <c r="B63" t="s" s="11">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4174,15 +4175,15 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="20.35" customHeight="1">
-      <c r="A64" t="s" s="11">
-        <v>137</v>
-      </c>
-      <c r="B64" t="s" s="11">
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" t="s" s="12">
         <v>138</v>
       </c>
+      <c r="B64" t="s" s="12">
+        <v>139</v>
+      </c>
       <c r="C64" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -4192,15 +4193,17 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="12">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D65" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
@@ -4208,13 +4211,13 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -4222,15 +4225,15 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s" s="12">
+    <row r="67" ht="20.35" customHeight="1">
+      <c r="A67" t="s" s="13">
         <v>144</v>
       </c>
+      <c r="B67" t="s" s="13">
+        <v>145</v>
+      </c>
       <c r="C67" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -4238,15 +4241,15 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" t="s" s="13">
-        <v>145</v>
-      </c>
-      <c r="B68" t="s" s="13">
+    <row r="68" ht="20.7" customHeight="1">
+      <c r="A68" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>42</v>
+      <c r="B68" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -4254,15 +4257,15 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="B69" t="s" s="4">
+    <row r="69" ht="20.35" customHeight="1">
+      <c r="A69" t="s" s="11">
         <v>148</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>10</v>
+      <c r="B69" t="s" s="11">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4270,15 +4273,15 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.7" customHeight="1">
-      <c r="A70" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="C70" t="s" s="8">
-        <v>25</v>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -4286,15 +4289,15 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="20.35" customHeight="1">
-      <c r="A71" t="s" s="11">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s" s="11">
-        <v>150</v>
+    <row r="71" ht="20.05" customHeight="1">
+      <c r="A71" t="s" s="12">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s" s="12">
+        <v>153</v>
       </c>
       <c r="C71" t="s" s="12">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4302,15 +4305,15 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="12">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s" s="12">
-        <v>152</v>
+    <row r="72" ht="20.35" customHeight="1">
+      <c r="A72" t="s" s="13">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s" s="13">
+        <v>155</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -4318,15 +4321,15 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="12">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s" s="12">
-        <v>154</v>
-      </c>
-      <c r="C73" t="s" s="12">
-        <v>71</v>
+    <row r="73" ht="20.7" customHeight="1">
+      <c r="A73" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4334,15 +4337,15 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.35" customHeight="1">
-      <c r="A74" t="s" s="13">
-        <v>155</v>
-      </c>
-      <c r="B74" t="s" s="13">
-        <v>156</v>
-      </c>
-      <c r="C74" t="s" s="12">
-        <v>71</v>
+    <row r="74" ht="20.7" customHeight="1">
+      <c r="A74" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -4351,14 +4354,14 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" ht="20.7" customHeight="1">
-      <c r="A75" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>158</v>
-      </c>
-      <c r="C75" t="s" s="8">
-        <v>25</v>
+      <c r="A75" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s" s="14">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4368,10 +4371,10 @@
     </row>
     <row r="76" ht="20.7" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s" s="8">
         <v>10</v>
@@ -4382,15 +4385,15 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.7" customHeight="1">
-      <c r="A77" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="B77" t="s" s="14">
-        <v>162</v>
+    <row r="77" ht="20.35" customHeight="1">
+      <c r="A77" t="s" s="11">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s" s="11">
+        <v>165</v>
       </c>
       <c r="C77" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -4398,15 +4401,15 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.7" customHeight="1">
-      <c r="A78" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="C78" t="s" s="8">
-        <v>10</v>
+    <row r="78" ht="20.05" customHeight="1">
+      <c r="A78" t="s" s="12">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s" s="12">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4414,149 +4417,151 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.7" customHeight="1">
-      <c r="A79" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D79" s="9"/>
+    <row r="79" ht="20.05" customHeight="1">
+      <c r="A79" t="s" s="12">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.35" customHeight="1">
-      <c r="A80" t="s" s="11">
-        <v>165</v>
-      </c>
-      <c r="B80" t="s" s="11">
-        <v>166</v>
+    <row r="80" ht="20.05" customHeight="1">
+      <c r="A80" t="s" s="12">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s" s="12">
+        <v>171</v>
       </c>
       <c r="C80" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D80" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="12">
-        <v>167</v>
-      </c>
-      <c r="B81" t="s" s="12">
-        <v>168</v>
+    <row r="81" ht="20.35" customHeight="1">
+      <c r="A81" t="s" s="13">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s" s="13">
+        <v>172</v>
       </c>
       <c r="C81" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D81" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="12">
-        <v>169</v>
-      </c>
-      <c r="B82" t="s" s="12">
-        <v>170</v>
-      </c>
-      <c r="C82" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D82" s="9">
-        <v>0.461538461538462</v>
-      </c>
+    <row r="82" ht="20.7" customHeight="1">
+      <c r="A82" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="12">
-        <v>171</v>
-      </c>
-      <c r="B83" t="s" s="12">
-        <v>172</v>
+    <row r="83" ht="20.35" customHeight="1">
+      <c r="A83" t="s" s="11">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s" s="11">
+        <v>176</v>
       </c>
       <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.35" customHeight="1">
-      <c r="A84" t="s" s="13">
-        <v>171</v>
-      </c>
-      <c r="B84" t="s" s="13">
-        <v>173</v>
+    <row r="84" ht="20.05" customHeight="1">
+      <c r="A84" t="s" s="12">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s" s="12">
+        <v>178</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.7" customHeight="1">
-      <c r="A85" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="C85" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D85" s="9"/>
+    <row r="85" ht="20.05" customHeight="1">
+      <c r="A85" t="s" s="12">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s" s="12">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D85" s="10"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" ht="20.35" customHeight="1">
-      <c r="A86" t="s" s="11">
-        <v>176</v>
-      </c>
-      <c r="B86" t="s" s="11">
-        <v>177</v>
+      <c r="A86" t="s" s="13">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s" s="13">
+        <v>182</v>
       </c>
       <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="12">
-        <v>178</v>
-      </c>
-      <c r="B87" t="s" s="12">
-        <v>179</v>
-      </c>
-      <c r="C87" t="s" s="12">
-        <v>71</v>
+    <row r="87" ht="20.7" customHeight="1">
+      <c r="A87" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -4564,31 +4569,31 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="12">
-        <v>180</v>
-      </c>
-      <c r="B88" t="s" s="12">
-        <v>181</v>
+    <row r="88" ht="20.7" customHeight="1">
+      <c r="A88" t="s" s="14">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s" s="14">
+        <v>186</v>
       </c>
       <c r="C88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.35" customHeight="1">
-      <c r="A89" t="s" s="13">
-        <v>182</v>
-      </c>
-      <c r="B89" t="s" s="13">
-        <v>183</v>
-      </c>
-      <c r="C89" t="s" s="12">
-        <v>18</v>
+    <row r="89" ht="20.7" customHeight="1">
+      <c r="A89" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4598,10 +4603,10 @@
     </row>
     <row r="90" ht="20.7" customHeight="1">
       <c r="A90" t="s" s="4">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s" s="8">
         <v>25</v>
@@ -4612,12 +4617,12 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.7" customHeight="1">
-      <c r="A91" t="s" s="14">
-        <v>186</v>
-      </c>
-      <c r="B91" t="s" s="14">
-        <v>187</v>
+    <row r="91" ht="20.35" customHeight="1">
+      <c r="A91" t="s" s="11">
+        <v>191</v>
+      </c>
+      <c r="B91" t="s" s="11">
+        <v>192</v>
       </c>
       <c r="C91" t="s" s="12">
         <v>15</v>
@@ -4628,15 +4633,15 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.7" customHeight="1">
-      <c r="A92" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>189</v>
-      </c>
-      <c r="C92" t="s" s="8">
-        <v>25</v>
+    <row r="92" ht="20.05" customHeight="1">
+      <c r="A92" t="s" s="12">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s" s="12">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4644,31 +4649,31 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.7" customHeight="1">
-      <c r="A93" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="B93" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D93" s="9"/>
+    <row r="93" ht="20.35" customHeight="1">
+      <c r="A93" t="s" s="13">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s" s="13">
+        <v>196</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.35" customHeight="1">
-      <c r="A94" t="s" s="11">
-        <v>192</v>
-      </c>
-      <c r="B94" t="s" s="11">
-        <v>193</v>
-      </c>
-      <c r="C94" t="s" s="12">
-        <v>15</v>
+    <row r="94" ht="20.7" customHeight="1">
+      <c r="A94" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4676,15 +4681,15 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="12">
-        <v>194</v>
-      </c>
-      <c r="B95" t="s" s="12">
-        <v>195</v>
+    <row r="95" ht="20.35" customHeight="1">
+      <c r="A95" t="s" s="11">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s" s="11">
+        <v>200</v>
       </c>
       <c r="C95" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4692,31 +4697,31 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.35" customHeight="1">
-      <c r="A96" t="s" s="13">
-        <v>196</v>
-      </c>
-      <c r="B96" t="s" s="13">
-        <v>197</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="9">
-        <v>0.897435897435897</v>
-      </c>
+    <row r="96" ht="20.05" customHeight="1">
+      <c r="A96" t="s" s="12">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s" s="12">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.7" customHeight="1">
-      <c r="A97" t="s" s="4">
-        <v>198</v>
-      </c>
-      <c r="B97" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="C97" t="s" s="8">
-        <v>25</v>
+    <row r="97" ht="20.05" customHeight="1">
+      <c r="A97" t="s" s="12">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4724,12 +4729,12 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.35" customHeight="1">
-      <c r="A98" t="s" s="11">
-        <v>200</v>
-      </c>
-      <c r="B98" t="s" s="11">
-        <v>201</v>
+    <row r="98" ht="20.05" customHeight="1">
+      <c r="A98" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s" s="12">
+        <v>206</v>
       </c>
       <c r="C98" t="s" s="12">
         <v>39</v>
@@ -4740,15 +4745,15 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="12">
-        <v>202</v>
-      </c>
-      <c r="B99" t="s" s="12">
-        <v>203</v>
+    <row r="99" ht="20.35" customHeight="1">
+      <c r="A99" t="s" s="13">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s" s="13">
+        <v>208</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4756,15 +4761,15 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="12">
-        <v>204</v>
-      </c>
-      <c r="B100" t="s" s="12">
-        <v>205</v>
-      </c>
-      <c r="C100" t="s" s="12">
-        <v>42</v>
+    <row r="100" ht="20.7" customHeight="1">
+      <c r="A100" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="B100" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4772,15 +4777,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="12">
-        <v>206</v>
-      </c>
-      <c r="B101" t="s" s="12">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s" s="12">
-        <v>39</v>
+    <row r="101" ht="20.7" customHeight="1">
+      <c r="A101" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4788,15 +4793,15 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.35" customHeight="1">
-      <c r="A102" t="s" s="13">
-        <v>208</v>
-      </c>
-      <c r="B102" t="s" s="13">
-        <v>209</v>
-      </c>
-      <c r="C102" t="s" s="12">
-        <v>42</v>
+    <row r="102" ht="20.7" customHeight="1">
+      <c r="A102" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4805,14 +4810,14 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="C103" t="s" s="8">
-        <v>25</v>
+      <c r="A103" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4822,10 +4827,10 @@
     </row>
     <row r="104" ht="20.7" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s" s="8">
         <v>10</v>
@@ -4838,10 +4843,10 @@
     </row>
     <row r="105" ht="20.7" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s" s="8">
         <v>25</v>
@@ -4852,31 +4857,33 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="14">
-        <v>214</v>
-      </c>
-      <c r="B106" t="s" s="14">
-        <v>215</v>
+    <row r="106" ht="20.35" customHeight="1">
+      <c r="A106" t="s" s="11">
+        <v>216</v>
+      </c>
+      <c r="B106" t="s" s="11">
+        <v>217</v>
       </c>
       <c r="C106" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D106" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.7" customHeight="1">
-      <c r="A107" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="C107" t="s" s="8">
-        <v>10</v>
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" t="s" s="12">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s" s="12">
+        <v>219</v>
+      </c>
+      <c r="C107" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4884,15 +4891,15 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.7" customHeight="1">
-      <c r="A108" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="B108" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="C108" t="s" s="8">
-        <v>25</v>
+    <row r="108" ht="20.05" customHeight="1">
+      <c r="A108" t="s" s="12">
+        <v>220</v>
+      </c>
+      <c r="B108" t="s" s="12">
+        <v>221</v>
+      </c>
+      <c r="C108" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -4901,32 +4908,30 @@
       <c r="H108" s="10"/>
     </row>
     <row r="109" ht="20.35" customHeight="1">
-      <c r="A109" t="s" s="11">
-        <v>217</v>
-      </c>
-      <c r="B109" t="s" s="11">
-        <v>218</v>
+      <c r="A109" t="s" s="13">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s" s="13">
+        <v>223</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D109" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="12">
-        <v>219</v>
-      </c>
-      <c r="B110" t="s" s="12">
-        <v>220</v>
-      </c>
-      <c r="C110" t="s" s="12">
-        <v>15</v>
+    <row r="110" ht="20.7" customHeight="1">
+      <c r="A110" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="C110" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4934,15 +4939,15 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="12">
-        <v>221</v>
-      </c>
-      <c r="B111" t="s" s="12">
-        <v>222</v>
+    <row r="111" ht="20.35" customHeight="1">
+      <c r="A111" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="B111" t="s" s="11">
+        <v>227</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4950,12 +4955,12 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.35" customHeight="1">
-      <c r="A112" t="s" s="13">
-        <v>223</v>
-      </c>
-      <c r="B112" t="s" s="13">
-        <v>224</v>
+    <row r="112" ht="20.05" customHeight="1">
+      <c r="A112" t="s" s="12">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s" s="12">
+        <v>229</v>
       </c>
       <c r="C112" t="s" s="12">
         <v>18</v>
@@ -4966,15 +4971,15 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.7" customHeight="1">
-      <c r="A113" t="s" s="4">
-        <v>225</v>
-      </c>
-      <c r="B113" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="C113" t="s" s="8">
-        <v>25</v>
+    <row r="113" ht="20.05" customHeight="1">
+      <c r="A113" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="B113" t="s" s="12">
+        <v>231</v>
+      </c>
+      <c r="C113" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4983,14 +4988,14 @@
       <c r="H113" s="10"/>
     </row>
     <row r="114" ht="20.35" customHeight="1">
-      <c r="A114" t="s" s="11">
-        <v>227</v>
-      </c>
-      <c r="B114" t="s" s="11">
-        <v>228</v>
+      <c r="A114" t="s" s="13">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s" s="13">
+        <v>233</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -4998,15 +5003,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="12">
-        <v>229</v>
-      </c>
-      <c r="B115" t="s" s="12">
-        <v>230</v>
-      </c>
-      <c r="C115" t="s" s="12">
-        <v>18</v>
+    <row r="115" ht="20.7" customHeight="1">
+      <c r="A115" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5014,15 +5019,15 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="12">
-        <v>231</v>
-      </c>
-      <c r="B116" t="s" s="12">
-        <v>232</v>
-      </c>
-      <c r="C116" t="s" s="12">
-        <v>42</v>
+    <row r="116" ht="20.7" customHeight="1">
+      <c r="A116" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5030,15 +5035,15 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.35" customHeight="1">
-      <c r="A117" t="s" s="13">
-        <v>233</v>
-      </c>
-      <c r="B117" t="s" s="13">
-        <v>234</v>
+    <row r="117" ht="20.7" customHeight="1">
+      <c r="A117" t="s" s="14">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s" s="14">
+        <v>237</v>
       </c>
       <c r="C117" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5048,13 +5053,13 @@
     </row>
     <row r="118" ht="20.7" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5062,15 +5067,15 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="C119" t="s" s="8">
-        <v>25</v>
+    <row r="119" ht="20.35" customHeight="1">
+      <c r="A119" t="s" s="11">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s" s="11">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5078,12 +5083,12 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.7" customHeight="1">
-      <c r="A120" t="s" s="14">
-        <v>237</v>
-      </c>
-      <c r="B120" t="s" s="14">
-        <v>238</v>
+    <row r="120" ht="20.35" customHeight="1">
+      <c r="A120" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="B120" t="s" s="13">
+        <v>243</v>
       </c>
       <c r="C120" t="s" s="12">
         <v>71</v>
@@ -5096,13 +5101,13 @@
     </row>
     <row r="121" ht="20.7" customHeight="1">
       <c r="A121" t="s" s="4">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C121" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5110,15 +5115,15 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.35" customHeight="1">
-      <c r="A122" t="s" s="11">
-        <v>241</v>
-      </c>
-      <c r="B122" t="s" s="11">
-        <v>242</v>
-      </c>
-      <c r="C122" t="s" s="12">
-        <v>39</v>
+    <row r="122" ht="20.7" customHeight="1">
+      <c r="A122" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5127,14 +5132,14 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="13">
-        <v>243</v>
-      </c>
-      <c r="B123" t="s" s="13">
-        <v>244</v>
+      <c r="A123" t="s" s="11">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s" s="11">
+        <v>247</v>
       </c>
       <c r="C123" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5142,17 +5147,17 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="4">
-        <v>245</v>
-      </c>
-      <c r="B124" t="s" s="4">
-        <v>246</v>
-      </c>
-      <c r="C124" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D124" s="9"/>
+    <row r="124" ht="20.35" customHeight="1">
+      <c r="A124" t="s" s="13">
+        <v>248</v>
+      </c>
+      <c r="B124" t="s" s="13">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D124" s="10"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
@@ -5160,13 +5165,13 @@
     </row>
     <row r="125" ht="20.7" customHeight="1">
       <c r="A125" t="s" s="4">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5174,47 +5179,47 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="11">
-        <v>247</v>
-      </c>
-      <c r="B126" t="s" s="11">
-        <v>248</v>
+    <row r="126" ht="20.7" customHeight="1">
+      <c r="A126" t="s" s="14">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s" s="14">
+        <v>253</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D126" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D126" s="10"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.35" customHeight="1">
-      <c r="A127" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="B127" t="s" s="13">
-        <v>250</v>
-      </c>
-      <c r="C127" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D127" s="10"/>
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s" s="4">
+        <v>255</v>
+      </c>
+      <c r="C127" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="C128" t="s" s="8">
-        <v>10</v>
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="11">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s" s="11">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5222,17 +5227,17 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" t="s" s="14">
-        <v>253</v>
-      </c>
-      <c r="B129" t="s" s="14">
-        <v>254</v>
+    <row r="129" ht="20.35" customHeight="1">
+      <c r="A129" t="s" s="13">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s" s="13">
+        <v>259</v>
       </c>
       <c r="C129" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D129" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
@@ -5240,10 +5245,10 @@
     </row>
     <row r="130" ht="20.7" customHeight="1">
       <c r="A130" t="s" s="4">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s" s="8">
         <v>10</v>
@@ -5254,15 +5259,15 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="11">
-        <v>257</v>
-      </c>
-      <c r="B131" t="s" s="11">
-        <v>258</v>
-      </c>
-      <c r="C131" t="s" s="12">
-        <v>18</v>
+    <row r="131" ht="20.7" customHeight="1">
+      <c r="A131" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s" s="4">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5271,14 +5276,14 @@
       <c r="H131" s="10"/>
     </row>
     <row r="132" ht="20.35" customHeight="1">
-      <c r="A132" t="s" s="13">
-        <v>259</v>
-      </c>
-      <c r="B132" t="s" s="13">
-        <v>260</v>
+      <c r="A132" t="s" s="11">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s" s="11">
+        <v>263</v>
       </c>
       <c r="C132" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5286,31 +5291,31 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.7" customHeight="1">
-      <c r="A133" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="B133" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="C133" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D133" s="9"/>
+    <row r="133" ht="20.05" customHeight="1">
+      <c r="A133" t="s" s="12">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s" s="12">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D133" s="10"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.7" customHeight="1">
-      <c r="A134" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="B134" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="C134" t="s" s="8">
-        <v>25</v>
+    <row r="134" ht="20.05" customHeight="1">
+      <c r="A134" t="s" s="12">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s" s="12">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5318,15 +5323,15 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="20.35" customHeight="1">
-      <c r="A135" t="s" s="11">
-        <v>263</v>
-      </c>
-      <c r="B135" t="s" s="11">
-        <v>264</v>
+    <row r="135" ht="20.05" customHeight="1">
+      <c r="A135" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s" s="12">
+        <v>269</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5336,15 +5341,15 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="12">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s" s="12">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D136" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
@@ -5352,13 +5357,13 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="12">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s" s="12">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5368,13 +5373,13 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="12">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s" s="12">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5384,13 +5389,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s" s="12">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5400,13 +5405,13 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s" s="12">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5416,29 +5421,31 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="12">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s" s="12">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C141" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D141" s="9"/>
+      <c r="D141" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="B142" t="s" s="12">
-        <v>277</v>
+    <row r="142" ht="20.35" customHeight="1">
+      <c r="A142" t="s" s="13">
+        <v>281</v>
+      </c>
+      <c r="B142" t="s" s="13">
+        <v>282</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -5446,15 +5453,15 @@
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" t="s" s="12">
-        <v>278</v>
-      </c>
-      <c r="B143" t="s" s="12">
-        <v>279</v>
-      </c>
-      <c r="C143" t="s" s="12">
-        <v>18</v>
+    <row r="143" ht="20.7" customHeight="1">
+      <c r="A143" t="s" s="4">
+        <v>283</v>
+      </c>
+      <c r="B143" t="s" s="4">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -5462,33 +5469,31 @@
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.05" customHeight="1">
-      <c r="A144" t="s" s="12">
-        <v>280</v>
-      </c>
-      <c r="B144" t="s" s="12">
-        <v>281</v>
+    <row r="144" ht="20.35" customHeight="1">
+      <c r="A144" t="s" s="11">
+        <v>285</v>
+      </c>
+      <c r="B144" t="s" s="11">
+        <v>286</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D144" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D144" s="10"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.35" customHeight="1">
-      <c r="A145" t="s" s="13">
-        <v>282</v>
-      </c>
-      <c r="B145" t="s" s="13">
-        <v>283</v>
+    <row r="145" ht="20.05" customHeight="1">
+      <c r="A145" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="B145" t="s" s="12">
+        <v>288</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -5496,15 +5501,15 @@
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.7" customHeight="1">
-      <c r="A146" t="s" s="4">
-        <v>284</v>
-      </c>
-      <c r="B146" t="s" s="4">
-        <v>285</v>
-      </c>
-      <c r="C146" t="s" s="8">
-        <v>25</v>
+    <row r="146" ht="20.05" customHeight="1">
+      <c r="A146" t="s" s="12">
+        <v>289</v>
+      </c>
+      <c r="B146" t="s" s="12">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -5512,17 +5517,17 @@
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.35" customHeight="1">
-      <c r="A147" t="s" s="11">
-        <v>286</v>
-      </c>
-      <c r="B147" t="s" s="11">
-        <v>287</v>
+    <row r="147" ht="20.05" customHeight="1">
+      <c r="A147" t="s" s="12">
+        <v>291</v>
+      </c>
+      <c r="B147" t="s" s="12">
+        <v>292</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D147" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
@@ -5530,13 +5535,13 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="12">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s" s="12">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -5546,26 +5551,26 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="12">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s" s="12">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D149" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D149" s="10"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="12">
-        <v>292</v>
-      </c>
-      <c r="B150" t="s" s="12">
+    <row r="150" ht="20.35" customHeight="1">
+      <c r="A150" t="s" s="13">
         <v>293</v>
+      </c>
+      <c r="B150" t="s" s="13">
+        <v>296</v>
       </c>
       <c r="C150" t="s" s="12">
         <v>71</v>
@@ -5576,15 +5581,15 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.05" customHeight="1">
-      <c r="A151" t="s" s="12">
-        <v>294</v>
-      </c>
-      <c r="B151" t="s" s="12">
-        <v>295</v>
-      </c>
-      <c r="C151" t="s" s="12">
-        <v>15</v>
+    <row r="151" ht="20.7" customHeight="1">
+      <c r="A151" t="s" s="4">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s" s="4">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -5592,31 +5597,31 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="12">
-        <v>294</v>
-      </c>
-      <c r="B152" t="s" s="12">
-        <v>296</v>
+    <row r="152" ht="20.35" customHeight="1">
+      <c r="A152" t="s" s="11">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s" s="11">
+        <v>299</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D152" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.35" customHeight="1">
-      <c r="A153" t="s" s="13">
-        <v>294</v>
-      </c>
-      <c r="B153" t="s" s="13">
-        <v>297</v>
+    <row r="153" ht="20.05" customHeight="1">
+      <c r="A153" t="s" s="12">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s" s="12">
+        <v>301</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -5624,15 +5629,15 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.7" customHeight="1">
-      <c r="A154" t="s" s="4">
-        <v>294</v>
-      </c>
-      <c r="B154" t="s" s="4">
-        <v>298</v>
-      </c>
-      <c r="C154" t="s" s="8">
-        <v>25</v>
+    <row r="154" ht="20.05" customHeight="1">
+      <c r="A154" t="s" s="12">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s" s="12">
+        <v>303</v>
+      </c>
+      <c r="C154" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -5640,12 +5645,12 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" ht="20.35" customHeight="1">
-      <c r="A155" t="s" s="11">
-        <v>299</v>
-      </c>
-      <c r="B155" t="s" s="11">
-        <v>300</v>
+    <row r="155" ht="20.05" customHeight="1">
+      <c r="A155" t="s" s="12">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s" s="12">
+        <v>305</v>
       </c>
       <c r="C155" t="s" s="12">
         <v>42</v>
@@ -5658,15 +5663,15 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="12">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s" s="12">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
@@ -5674,13 +5679,13 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="12">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s" s="12">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -5690,13 +5695,13 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="12">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s" s="12">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -5706,15 +5711,15 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="12">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s" s="12">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D159" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
@@ -5722,13 +5727,13 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="12">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s" s="12">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5738,13 +5743,13 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="12">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s" s="12">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5752,15 +5757,15 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" ht="20.05" customHeight="1">
-      <c r="A162" t="s" s="12">
-        <v>313</v>
-      </c>
-      <c r="B162" t="s" s="12">
-        <v>314</v>
+    <row r="162" ht="20.35" customHeight="1">
+      <c r="A162" t="s" s="13">
+        <v>318</v>
+      </c>
+      <c r="B162" t="s" s="13">
+        <v>319</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5768,15 +5773,15 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.05" customHeight="1">
-      <c r="A163" t="s" s="12">
-        <v>315</v>
-      </c>
-      <c r="B163" t="s" s="12">
-        <v>316</v>
-      </c>
-      <c r="C163" t="s" s="12">
-        <v>18</v>
+    <row r="163" ht="20.7" customHeight="1">
+      <c r="A163" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="C163" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5784,15 +5789,15 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.05" customHeight="1">
-      <c r="A164" t="s" s="12">
-        <v>317</v>
-      </c>
-      <c r="B164" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="C164" t="s" s="12">
-        <v>42</v>
+    <row r="164" ht="20.7" customHeight="1">
+      <c r="A164" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="B164" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="C164" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -5801,14 +5806,14 @@
       <c r="H164" s="10"/>
     </row>
     <row r="165" ht="20.35" customHeight="1">
-      <c r="A165" t="s" s="13">
-        <v>319</v>
-      </c>
-      <c r="B165" t="s" s="13">
-        <v>320</v>
+      <c r="A165" t="s" s="11">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s" s="11">
+        <v>323</v>
       </c>
       <c r="C165" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5816,31 +5821,31 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.7" customHeight="1">
-      <c r="A166" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="B166" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="C166" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D166" s="9"/>
+    <row r="166" ht="20.05" customHeight="1">
+      <c r="A166" t="s" s="12">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s" s="12">
+        <v>325</v>
+      </c>
+      <c r="C166" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D166" s="10"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" ht="20.7" customHeight="1">
-      <c r="A167" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="B167" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="C167" t="s" s="8">
-        <v>25</v>
+    <row r="167" ht="20.05" customHeight="1">
+      <c r="A167" t="s" s="12">
+        <v>326</v>
+      </c>
+      <c r="B167" t="s" s="12">
+        <v>327</v>
+      </c>
+      <c r="C167" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -5848,15 +5853,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" ht="20.35" customHeight="1">
-      <c r="A168" t="s" s="11">
-        <v>323</v>
-      </c>
-      <c r="B168" t="s" s="11">
-        <v>324</v>
+    <row r="168" ht="20.05" customHeight="1">
+      <c r="A168" t="s" s="12">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s" s="12">
+        <v>329</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -5866,13 +5871,13 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="12">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B169" t="s" s="12">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="9"/>
@@ -5882,15 +5887,15 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="12">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B170" t="s" s="12">
-        <v>328</v>
-      </c>
-      <c r="C170" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D170" s="9"/>
+        <v>333</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
@@ -5898,15 +5903,17 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="12">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B171" t="s" s="12">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D171" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D171" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -5914,15 +5921,15 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="12">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B172" t="s" s="12">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D172" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
@@ -5930,45 +5937,45 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="12">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B173" t="s" s="12">
-        <v>334</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C173" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.05" customHeight="1">
-      <c r="A174" t="s" s="12">
-        <v>335</v>
-      </c>
-      <c r="B174" t="s" s="12">
-        <v>336</v>
+    <row r="174" ht="20.35" customHeight="1">
+      <c r="A174" t="s" s="13">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s" s="13">
+        <v>341</v>
       </c>
       <c r="C174" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D174" s="10"/>
+      <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.05" customHeight="1">
-      <c r="A175" t="s" s="12">
-        <v>337</v>
-      </c>
-      <c r="B175" t="s" s="12">
-        <v>338</v>
-      </c>
-      <c r="C175" t="s" s="12">
-        <v>18</v>
+    <row r="175" ht="20.7" customHeight="1">
+      <c r="A175" t="s" s="4">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="C175" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -5976,15 +5983,15 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.05" customHeight="1">
-      <c r="A176" t="s" s="12">
-        <v>339</v>
-      </c>
-      <c r="B176" t="s" s="12">
-        <v>340</v>
+    <row r="176" ht="20.35" customHeight="1">
+      <c r="A176" t="s" s="11">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s" s="11">
+        <v>345</v>
       </c>
       <c r="C176" t="s" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -5992,15 +5999,15 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.35" customHeight="1">
-      <c r="A177" t="s" s="13">
-        <v>341</v>
-      </c>
-      <c r="B177" t="s" s="13">
-        <v>342</v>
+    <row r="177" ht="20.05" customHeight="1">
+      <c r="A177" t="s" s="12">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s" s="12">
+        <v>347</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -6008,15 +6015,15 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" ht="20.7" customHeight="1">
-      <c r="A178" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="B178" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="C178" t="s" s="8">
-        <v>25</v>
+    <row r="178" ht="20.05" customHeight="1">
+      <c r="A178" t="s" s="12">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s" s="12">
+        <v>349</v>
+      </c>
+      <c r="C178" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6024,15 +6031,15 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.35" customHeight="1">
-      <c r="A179" t="s" s="11">
-        <v>345</v>
-      </c>
-      <c r="B179" t="s" s="11">
-        <v>346</v>
+    <row r="179" ht="20.05" customHeight="1">
+      <c r="A179" t="s" s="12">
+        <v>350</v>
+      </c>
+      <c r="B179" t="s" s="12">
+        <v>351</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6042,10 +6049,10 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="12">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B180" t="s" s="12">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C180" t="s" s="12">
         <v>18</v>
@@ -6058,15 +6065,17 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="12">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B181" t="s" s="12">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D181" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D181" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
@@ -6074,13 +6083,13 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="12">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B182" t="s" s="12">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6090,13 +6099,13 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="12">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B183" t="s" s="12">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6104,31 +6113,33 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.05" customHeight="1">
-      <c r="A184" t="s" s="12">
-        <v>355</v>
-      </c>
-      <c r="B184" t="s" s="12">
-        <v>356</v>
+    <row r="184" ht="20.35" customHeight="1">
+      <c r="A184" t="s" s="13">
+        <v>358</v>
+      </c>
+      <c r="B184" t="s" s="13">
+        <v>360</v>
       </c>
       <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" s="9"/>
+      <c r="D184" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.05" customHeight="1">
-      <c r="A185" t="s" s="12">
-        <v>357</v>
-      </c>
-      <c r="B185" t="s" s="12">
-        <v>358</v>
-      </c>
-      <c r="C185" t="s" s="12">
-        <v>42</v>
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="15">
+        <v>361</v>
+      </c>
+      <c r="B185" t="s" s="15">
+        <v>362</v>
+      </c>
+      <c r="C185" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -6136,15 +6147,15 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.05" customHeight="1">
-      <c r="A186" t="s" s="12">
-        <v>359</v>
-      </c>
-      <c r="B186" t="s" s="12">
-        <v>360</v>
-      </c>
-      <c r="C186" t="s" s="12">
-        <v>71</v>
+    <row r="186" ht="20.7" customHeight="1">
+      <c r="A186" t="s" s="4">
+        <v>361</v>
+      </c>
+      <c r="B186" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="C186" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -6152,30 +6163,28 @@
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.35" customHeight="1">
-      <c r="A187" t="s" s="13">
-        <v>359</v>
-      </c>
-      <c r="B187" t="s" s="13">
-        <v>361</v>
+    <row r="187" ht="20.7" customHeight="1">
+      <c r="A187" t="s" s="14">
+        <v>363</v>
+      </c>
+      <c r="B187" t="s" s="14">
+        <v>364</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D187" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
     <row r="188" ht="20.7" customHeight="1">
-      <c r="A188" t="s" s="15">
-        <v>362</v>
-      </c>
-      <c r="B188" t="s" s="15">
-        <v>363</v>
+      <c r="A188" t="s" s="4">
+        <v>365</v>
+      </c>
+      <c r="B188" t="s" s="4">
+        <v>366</v>
       </c>
       <c r="C188" t="s" s="8">
         <v>10</v>
@@ -6188,10 +6197,10 @@
     </row>
     <row r="189" ht="20.7" customHeight="1">
       <c r="A189" t="s" s="4">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B189" t="s" s="4">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C189" t="s" s="8">
         <v>25</v>
@@ -6202,15 +6211,15 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="14">
-        <v>364</v>
-      </c>
-      <c r="B190" t="s" s="14">
-        <v>365</v>
+    <row r="190" ht="20.35" customHeight="1">
+      <c r="A190" t="s" s="11">
+        <v>367</v>
+      </c>
+      <c r="B190" t="s" s="11">
+        <v>368</v>
       </c>
       <c r="C190" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6218,15 +6227,15 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" t="s" s="4">
-        <v>366</v>
-      </c>
-      <c r="B191" t="s" s="4">
-        <v>367</v>
-      </c>
-      <c r="C191" t="s" s="8">
-        <v>10</v>
+    <row r="191" ht="20.35" customHeight="1">
+      <c r="A191" t="s" s="13">
+        <v>369</v>
+      </c>
+      <c r="B191" t="s" s="13">
+        <v>370</v>
+      </c>
+      <c r="C191" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6236,13 +6245,13 @@
     </row>
     <row r="192" ht="20.7" customHeight="1">
       <c r="A192" t="s" s="4">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B192" t="s" s="4">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C192" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6252,45 +6261,49 @@
     </row>
     <row r="193" ht="20.35" customHeight="1">
       <c r="A193" t="s" s="11">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B193" t="s" s="11">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C193" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D193" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D193" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="13">
-        <v>370</v>
-      </c>
-      <c r="B194" t="s" s="13">
-        <v>371</v>
+    <row r="194" ht="20.05" customHeight="1">
+      <c r="A194" t="s" s="12">
+        <v>373</v>
+      </c>
+      <c r="B194" t="s" s="12">
+        <v>375</v>
       </c>
       <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" s="9"/>
+      <c r="D194" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="4">
-        <v>372</v>
-      </c>
-      <c r="B195" t="s" s="4">
-        <v>373</v>
-      </c>
-      <c r="C195" t="s" s="8">
-        <v>10</v>
+    <row r="195" ht="20.35" customHeight="1">
+      <c r="A195" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="B195" t="s" s="13">
+        <v>377</v>
+      </c>
+      <c r="C195" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6298,51 +6311,47 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="11">
-        <v>374</v>
-      </c>
-      <c r="B196" t="s" s="11">
-        <v>375</v>
-      </c>
-      <c r="C196" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D196" s="9">
-        <v>0.58974358974359</v>
-      </c>
+    <row r="196" ht="20.7" customHeight="1">
+      <c r="A196" t="s" s="4">
+        <v>378</v>
+      </c>
+      <c r="B196" t="s" s="4">
+        <v>379</v>
+      </c>
+      <c r="C196" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="12">
-        <v>374</v>
-      </c>
-      <c r="B197" t="s" s="12">
-        <v>376</v>
+    <row r="197" ht="20.7" customHeight="1">
+      <c r="A197" t="s" s="14">
+        <v>380</v>
+      </c>
+      <c r="B197" t="s" s="14">
+        <v>381</v>
       </c>
       <c r="C197" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D197" s="9">
-        <v>0.41025641025641</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.35" customHeight="1">
-      <c r="A198" t="s" s="13">
-        <v>377</v>
-      </c>
-      <c r="B198" t="s" s="13">
-        <v>378</v>
-      </c>
-      <c r="C198" t="s" s="12">
-        <v>71</v>
+    <row r="198" ht="20.7" customHeight="1">
+      <c r="A198" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="B198" t="s" s="4">
+        <v>383</v>
+      </c>
+      <c r="C198" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6351,14 +6360,14 @@
       <c r="H198" s="10"/>
     </row>
     <row r="199" ht="20.7" customHeight="1">
-      <c r="A199" t="s" s="4">
-        <v>379</v>
-      </c>
-      <c r="B199" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="C199" t="s" s="8">
-        <v>10</v>
+      <c r="A199" t="s" s="14">
+        <v>384</v>
+      </c>
+      <c r="B199" t="s" s="14">
+        <v>385</v>
+      </c>
+      <c r="C199" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6367,14 +6376,14 @@
       <c r="H199" s="10"/>
     </row>
     <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="14">
-        <v>381</v>
-      </c>
-      <c r="B200" t="s" s="14">
-        <v>382</v>
-      </c>
-      <c r="C200" t="s" s="12">
-        <v>28</v>
+      <c r="A200" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="B200" t="s" s="4">
+        <v>387</v>
+      </c>
+      <c r="C200" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6384,10 +6393,10 @@
     </row>
     <row r="201" ht="20.7" customHeight="1">
       <c r="A201" t="s" s="4">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B201" t="s" s="4">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s" s="8">
         <v>25</v>
@@ -6399,14 +6408,14 @@
       <c r="H201" s="10"/>
     </row>
     <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="14">
-        <v>385</v>
-      </c>
-      <c r="B202" t="s" s="14">
-        <v>386</v>
-      </c>
-      <c r="C202" t="s" s="12">
-        <v>71</v>
+      <c r="A202" t="s" s="4">
+        <v>388</v>
+      </c>
+      <c r="B202" t="s" s="4">
+        <v>389</v>
+      </c>
+      <c r="C202" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6414,15 +6423,15 @@
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.7" customHeight="1">
-      <c r="A203" t="s" s="4">
-        <v>387</v>
-      </c>
-      <c r="B203" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="C203" t="s" s="8">
-        <v>10</v>
+    <row r="203" ht="20.35" customHeight="1">
+      <c r="A203" t="s" s="11">
+        <v>390</v>
+      </c>
+      <c r="B203" t="s" s="11">
+        <v>391</v>
+      </c>
+      <c r="C203" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -6430,15 +6439,15 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="4">
-        <v>387</v>
-      </c>
-      <c r="B204" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="C204" t="s" s="8">
-        <v>25</v>
+    <row r="204" ht="20.05" customHeight="1">
+      <c r="A204" t="s" s="12">
+        <v>392</v>
+      </c>
+      <c r="B204" t="s" s="12">
+        <v>393</v>
+      </c>
+      <c r="C204" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6446,15 +6455,15 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="4">
-        <v>389</v>
-      </c>
-      <c r="B205" t="s" s="4">
-        <v>390</v>
-      </c>
-      <c r="C205" t="s" s="8">
-        <v>10</v>
+    <row r="205" ht="20.05" customHeight="1">
+      <c r="A205" t="s" s="12">
+        <v>394</v>
+      </c>
+      <c r="B205" t="s" s="12">
+        <v>395</v>
+      </c>
+      <c r="C205" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6462,15 +6471,15 @@
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.35" customHeight="1">
-      <c r="A206" t="s" s="11">
-        <v>391</v>
-      </c>
-      <c r="B206" t="s" s="11">
-        <v>392</v>
+    <row r="206" ht="20.05" customHeight="1">
+      <c r="A206" t="s" s="12">
+        <v>396</v>
+      </c>
+      <c r="B206" t="s" s="12">
+        <v>397</v>
       </c>
       <c r="C206" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6478,12 +6487,12 @@
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.05" customHeight="1">
-      <c r="A207" t="s" s="12">
-        <v>393</v>
-      </c>
-      <c r="B207" t="s" s="12">
-        <v>394</v>
+    <row r="207" ht="20.35" customHeight="1">
+      <c r="A207" t="s" s="13">
+        <v>398</v>
+      </c>
+      <c r="B207" t="s" s="13">
+        <v>399</v>
       </c>
       <c r="C207" t="s" s="12">
         <v>39</v>
@@ -6494,15 +6503,15 @@
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.05" customHeight="1">
-      <c r="A208" t="s" s="12">
-        <v>395</v>
-      </c>
-      <c r="B208" t="s" s="12">
-        <v>396</v>
-      </c>
-      <c r="C208" t="s" s="12">
-        <v>42</v>
+    <row r="208" ht="20.7" customHeight="1">
+      <c r="A208" t="s" s="4">
+        <v>400</v>
+      </c>
+      <c r="B208" t="s" s="4">
+        <v>401</v>
+      </c>
+      <c r="C208" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -6510,15 +6519,15 @@
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.05" customHeight="1">
-      <c r="A209" t="s" s="12">
-        <v>397</v>
-      </c>
-      <c r="B209" t="s" s="12">
-        <v>398</v>
+    <row r="209" ht="20.35" customHeight="1">
+      <c r="A209" t="s" s="11">
+        <v>402</v>
+      </c>
+      <c r="B209" t="s" s="11">
+        <v>403</v>
       </c>
       <c r="C209" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6528,13 +6537,13 @@
     </row>
     <row r="210" ht="20.35" customHeight="1">
       <c r="A210" t="s" s="13">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B210" t="s" s="13">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6544,13 +6553,13 @@
     </row>
     <row r="211" ht="20.7" customHeight="1">
       <c r="A211" t="s" s="4">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B211" t="s" s="4">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C211" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -6558,15 +6567,15 @@
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.35" customHeight="1">
-      <c r="A212" t="s" s="11">
-        <v>403</v>
-      </c>
-      <c r="B212" t="s" s="11">
-        <v>404</v>
-      </c>
-      <c r="C212" t="s" s="12">
-        <v>42</v>
+    <row r="212" ht="20.7" customHeight="1">
+      <c r="A212" t="s" s="4">
+        <v>408</v>
+      </c>
+      <c r="B212" t="s" s="4">
+        <v>409</v>
+      </c>
+      <c r="C212" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6574,15 +6583,15 @@
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.35" customHeight="1">
-      <c r="A213" t="s" s="13">
-        <v>405</v>
-      </c>
-      <c r="B213" t="s" s="13">
-        <v>406</v>
-      </c>
-      <c r="C213" t="s" s="12">
-        <v>42</v>
+    <row r="213" ht="20.7" customHeight="1">
+      <c r="A213" t="s" s="15">
+        <v>410</v>
+      </c>
+      <c r="B213" t="s" s="15">
+        <v>411</v>
+      </c>
+      <c r="C213" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -6592,13 +6601,13 @@
     </row>
     <row r="214" ht="20.7" customHeight="1">
       <c r="A214" t="s" s="4">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B214" t="s" s="4">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C214" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -6608,13 +6617,13 @@
     </row>
     <row r="215" ht="20.7" customHeight="1">
       <c r="A215" t="s" s="4">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B215" t="s" s="4">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C215" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6623,14 +6632,14 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="15">
-        <v>411</v>
-      </c>
-      <c r="B216" t="s" s="15">
-        <v>412</v>
+      <c r="A216" t="s" s="4">
+        <v>416</v>
+      </c>
+      <c r="B216" t="s" s="4">
+        <v>417</v>
       </c>
       <c r="C216" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -6638,15 +6647,15 @@
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
-        <v>413</v>
-      </c>
-      <c r="B217" t="s" s="4">
-        <v>414</v>
-      </c>
-      <c r="C217" t="s" s="8">
-        <v>25</v>
+    <row r="217" ht="20.35" customHeight="1">
+      <c r="A217" t="s" s="11">
+        <v>418</v>
+      </c>
+      <c r="B217" t="s" s="11">
+        <v>419</v>
+      </c>
+      <c r="C217" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -6654,15 +6663,15 @@
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.7" customHeight="1">
-      <c r="A218" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="B218" t="s" s="4">
-        <v>416</v>
-      </c>
-      <c r="C218" t="s" s="8">
-        <v>25</v>
+    <row r="218" ht="20.05" customHeight="1">
+      <c r="A218" t="s" s="12">
+        <v>420</v>
+      </c>
+      <c r="B218" t="s" s="12">
+        <v>421</v>
+      </c>
+      <c r="C218" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -6670,15 +6679,15 @@
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.7" customHeight="1">
-      <c r="A219" t="s" s="4">
-        <v>417</v>
-      </c>
-      <c r="B219" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="C219" t="s" s="8">
-        <v>10</v>
+    <row r="219" ht="20.05" customHeight="1">
+      <c r="A219" t="s" s="12">
+        <v>422</v>
+      </c>
+      <c r="B219" t="s" s="12">
+        <v>423</v>
+      </c>
+      <c r="C219" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6686,17 +6695,17 @@
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.35" customHeight="1">
-      <c r="A220" t="s" s="11">
-        <v>419</v>
-      </c>
-      <c r="B220" t="s" s="11">
-        <v>420</v>
+    <row r="220" ht="20.05" customHeight="1">
+      <c r="A220" t="s" s="12">
+        <v>424</v>
+      </c>
+      <c r="B220" t="s" s="12">
+        <v>425</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D220" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D220" s="10"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
@@ -6704,13 +6713,13 @@
     </row>
     <row r="221" ht="20.05" customHeight="1">
       <c r="A221" t="s" s="12">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B221" t="s" s="12">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C221" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6718,15 +6727,15 @@
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.05" customHeight="1">
-      <c r="A222" t="s" s="12">
-        <v>423</v>
-      </c>
-      <c r="B222" t="s" s="12">
-        <v>424</v>
+    <row r="222" ht="20.35" customHeight="1">
+      <c r="A222" t="s" s="13">
+        <v>428</v>
+      </c>
+      <c r="B222" t="s" s="13">
+        <v>429</v>
       </c>
       <c r="C222" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -6734,31 +6743,31 @@
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.05" customHeight="1">
-      <c r="A223" t="s" s="12">
-        <v>425</v>
-      </c>
-      <c r="B223" t="s" s="12">
-        <v>426</v>
-      </c>
-      <c r="C223" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D223" s="10"/>
+    <row r="223" ht="20.7" customHeight="1">
+      <c r="A223" t="s" s="4">
+        <v>430</v>
+      </c>
+      <c r="B223" t="s" s="4">
+        <v>431</v>
+      </c>
+      <c r="C223" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.05" customHeight="1">
-      <c r="A224" t="s" s="12">
-        <v>427</v>
-      </c>
-      <c r="B224" t="s" s="12">
-        <v>428</v>
+    <row r="224" ht="20.7" customHeight="1">
+      <c r="A224" t="s" s="14">
+        <v>432</v>
+      </c>
+      <c r="B224" t="s" s="14">
+        <v>433</v>
       </c>
       <c r="C224" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -6766,15 +6775,15 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.35" customHeight="1">
-      <c r="A225" t="s" s="13">
-        <v>429</v>
-      </c>
-      <c r="B225" t="s" s="13">
-        <v>430</v>
-      </c>
-      <c r="C225" t="s" s="12">
-        <v>18</v>
+    <row r="225" ht="20.7" customHeight="1">
+      <c r="A225" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="B225" t="s" s="4">
+        <v>435</v>
+      </c>
+      <c r="C225" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6782,15 +6791,15 @@
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="4">
-        <v>431</v>
-      </c>
-      <c r="B226" t="s" s="4">
-        <v>432</v>
-      </c>
-      <c r="C226" t="s" s="8">
-        <v>25</v>
+    <row r="226" ht="20.35" customHeight="1">
+      <c r="A226" t="s" s="11">
+        <v>436</v>
+      </c>
+      <c r="B226" t="s" s="11">
+        <v>437</v>
+      </c>
+      <c r="C226" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -6798,15 +6807,15 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.7" customHeight="1">
-      <c r="A227" t="s" s="14">
-        <v>433</v>
-      </c>
-      <c r="B227" t="s" s="14">
-        <v>434</v>
+    <row r="227" ht="20.05" customHeight="1">
+      <c r="A227" t="s" s="12">
+        <v>438</v>
+      </c>
+      <c r="B227" t="s" s="12">
+        <v>439</v>
       </c>
       <c r="C227" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6814,15 +6823,15 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.7" customHeight="1">
-      <c r="A228" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="B228" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="C228" t="s" s="8">
-        <v>10</v>
+    <row r="228" ht="20.35" customHeight="1">
+      <c r="A228" t="s" s="13">
+        <v>440</v>
+      </c>
+      <c r="B228" t="s" s="13">
+        <v>441</v>
+      </c>
+      <c r="C228" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6830,15 +6839,15 @@
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.35" customHeight="1">
-      <c r="A229" t="s" s="11">
-        <v>437</v>
-      </c>
-      <c r="B229" t="s" s="11">
-        <v>438</v>
-      </c>
-      <c r="C229" t="s" s="12">
-        <v>15</v>
+    <row r="229" ht="20.7" customHeight="1">
+      <c r="A229" t="s" s="4">
+        <v>442</v>
+      </c>
+      <c r="B229" t="s" s="4">
+        <v>443</v>
+      </c>
+      <c r="C229" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -6846,15 +6855,15 @@
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.05" customHeight="1">
-      <c r="A230" t="s" s="12">
-        <v>439</v>
-      </c>
-      <c r="B230" t="s" s="12">
-        <v>440</v>
-      </c>
-      <c r="C230" t="s" s="12">
-        <v>39</v>
+    <row r="230" ht="20.7" customHeight="1">
+      <c r="A230" t="s" s="4">
+        <v>442</v>
+      </c>
+      <c r="B230" t="s" s="4">
+        <v>443</v>
+      </c>
+      <c r="C230" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -6862,15 +6871,15 @@
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.35" customHeight="1">
-      <c r="A231" t="s" s="13">
-        <v>441</v>
-      </c>
-      <c r="B231" t="s" s="13">
-        <v>442</v>
-      </c>
-      <c r="C231" t="s" s="12">
-        <v>18</v>
+    <row r="231" ht="20.7" customHeight="1">
+      <c r="A231" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="B231" t="s" s="4">
+        <v>445</v>
+      </c>
+      <c r="C231" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6878,15 +6887,15 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.7" customHeight="1">
-      <c r="A232" t="s" s="4">
-        <v>443</v>
-      </c>
-      <c r="B232" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="C232" t="s" s="8">
-        <v>10</v>
+    <row r="232" ht="20.35" customHeight="1">
+      <c r="A232" t="s" s="11">
+        <v>446</v>
+      </c>
+      <c r="B232" t="s" s="11">
+        <v>447</v>
+      </c>
+      <c r="C232" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -6894,15 +6903,15 @@
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.7" customHeight="1">
-      <c r="A233" t="s" s="4">
-        <v>443</v>
-      </c>
-      <c r="B233" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="C233" t="s" s="8">
-        <v>25</v>
+    <row r="233" ht="20.05" customHeight="1">
+      <c r="A233" t="s" s="12">
+        <v>448</v>
+      </c>
+      <c r="B233" t="s" s="12">
+        <v>449</v>
+      </c>
+      <c r="C233" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -6910,15 +6919,15 @@
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.7" customHeight="1">
-      <c r="A234" t="s" s="4">
-        <v>445</v>
-      </c>
-      <c r="B234" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="C234" t="s" s="8">
-        <v>25</v>
+    <row r="234" ht="20.05" customHeight="1">
+      <c r="A234" t="s" s="12">
+        <v>450</v>
+      </c>
+      <c r="B234" t="s" s="12">
+        <v>451</v>
+      </c>
+      <c r="C234" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -6926,17 +6935,19 @@
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.35" customHeight="1">
-      <c r="A235" t="s" s="11">
-        <v>447</v>
-      </c>
-      <c r="B235" t="s" s="11">
-        <v>448</v>
+    <row r="235" ht="20.05" customHeight="1">
+      <c r="A235" t="s" s="12">
+        <v>452</v>
+      </c>
+      <c r="B235" t="s" s="12">
+        <v>453</v>
       </c>
       <c r="C235" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D235" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D235" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
@@ -6944,13 +6955,13 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="12">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B236" t="s" s="12">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C236" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -6960,13 +6971,13 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="12">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B237" t="s" s="12">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C237" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -6976,17 +6987,15 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="12">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B238" t="s" s="12">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D238" s="9">
-        <v>0.435897435897436</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -6994,13 +7003,13 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="12">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B239" t="s" s="12">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -7010,15 +7019,15 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="12">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B240" t="s" s="12">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C240" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D240" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D240" s="10"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
@@ -7026,13 +7035,13 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="12">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B241" t="s" s="12">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -7040,47 +7049,49 @@
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.05" customHeight="1">
-      <c r="A242" t="s" s="12">
-        <v>461</v>
-      </c>
-      <c r="B242" t="s" s="12">
-        <v>462</v>
+    <row r="242" ht="20.35" customHeight="1">
+      <c r="A242" t="s" s="13">
+        <v>466</v>
+      </c>
+      <c r="B242" t="s" s="13">
+        <v>467</v>
       </c>
       <c r="C242" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D242" s="9"/>
+      <c r="D242" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243" ht="20.05" customHeight="1">
-      <c r="A243" t="s" s="12">
-        <v>463</v>
-      </c>
-      <c r="B243" t="s" s="12">
-        <v>464</v>
-      </c>
-      <c r="C243" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D243" s="10"/>
+    <row r="243" ht="20.7" customHeight="1">
+      <c r="A243" t="s" s="4">
+        <v>468</v>
+      </c>
+      <c r="B243" t="s" s="4">
+        <v>469</v>
+      </c>
+      <c r="C243" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.05" customHeight="1">
-      <c r="A244" t="s" s="12">
-        <v>465</v>
-      </c>
-      <c r="B244" t="s" s="12">
-        <v>466</v>
-      </c>
-      <c r="C244" t="s" s="12">
-        <v>71</v>
+    <row r="244" ht="20.7" customHeight="1">
+      <c r="A244" t="s" s="4">
+        <v>470</v>
+      </c>
+      <c r="B244" t="s" s="4">
+        <v>471</v>
+      </c>
+      <c r="C244" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -7089,64 +7100,62 @@
       <c r="H244" s="10"/>
     </row>
     <row r="245" ht="20.35" customHeight="1">
-      <c r="A245" t="s" s="13">
-        <v>467</v>
-      </c>
-      <c r="B245" t="s" s="13">
-        <v>468</v>
+      <c r="A245" t="s" s="11">
+        <v>472</v>
+      </c>
+      <c r="B245" t="s" s="11">
+        <v>473</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D245" s="9">
-        <v>0.179487179487179</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.7" customHeight="1">
-      <c r="A246" t="s" s="4">
-        <v>469</v>
-      </c>
-      <c r="B246" t="s" s="4">
-        <v>470</v>
-      </c>
-      <c r="C246" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D246" s="9"/>
+    <row r="246" ht="20.05" customHeight="1">
+      <c r="A246" t="s" s="12">
+        <v>474</v>
+      </c>
+      <c r="B246" t="s" s="12">
+        <v>475</v>
+      </c>
+      <c r="C246" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D246" s="10"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.7" customHeight="1">
-      <c r="A247" t="s" s="4">
-        <v>471</v>
-      </c>
-      <c r="B247" t="s" s="4">
-        <v>472</v>
-      </c>
-      <c r="C247" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D247" s="9"/>
+    <row r="247" ht="20.05" customHeight="1">
+      <c r="A247" t="s" s="12">
+        <v>476</v>
+      </c>
+      <c r="B247" t="s" s="12">
+        <v>477</v>
+      </c>
+      <c r="C247" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D247" s="10"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" ht="20.35" customHeight="1">
-      <c r="A248" t="s" s="11">
-        <v>473</v>
-      </c>
-      <c r="B248" t="s" s="11">
-        <v>474</v>
+    <row r="248" ht="20.05" customHeight="1">
+      <c r="A248" t="s" s="12">
+        <v>478</v>
+      </c>
+      <c r="B248" t="s" s="12">
+        <v>479</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -7156,15 +7165,15 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="12">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B249" t="s" s="12">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C249" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D249" s="10"/>
+      <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
@@ -7172,15 +7181,15 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="12">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B250" t="s" s="12">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C250" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D250" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
@@ -7188,15 +7197,17 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="12">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B251" t="s" s="12">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C251" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D251" s="9"/>
+      <c r="D251" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
@@ -7204,13 +7215,13 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="12">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B252" t="s" s="12">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -7220,13 +7231,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B253" t="s" s="12">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -7236,17 +7247,15 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B254" t="s" s="12">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C254" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D254" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7254,13 +7263,13 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="12">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B255" t="s" s="12">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -7270,13 +7279,13 @@
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="12">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B256" t="s" s="12">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7284,15 +7293,15 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.05" customHeight="1">
-      <c r="A257" t="s" s="12">
-        <v>491</v>
-      </c>
-      <c r="B257" t="s" s="12">
-        <v>492</v>
+    <row r="257" ht="20.35" customHeight="1">
+      <c r="A257" t="s" s="13">
+        <v>496</v>
+      </c>
+      <c r="B257" t="s" s="13">
+        <v>497</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7300,15 +7309,15 @@
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.05" customHeight="1">
-      <c r="A258" t="s" s="12">
-        <v>493</v>
-      </c>
-      <c r="B258" t="s" s="12">
-        <v>494</v>
-      </c>
-      <c r="C258" t="s" s="12">
-        <v>39</v>
+    <row r="258" ht="20.7" customHeight="1">
+      <c r="A258" t="s" s="4">
+        <v>498</v>
+      </c>
+      <c r="B258" t="s" s="4">
+        <v>499</v>
+      </c>
+      <c r="C258" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7316,15 +7325,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.05" customHeight="1">
-      <c r="A259" t="s" s="12">
-        <v>495</v>
-      </c>
-      <c r="B259" t="s" s="12">
-        <v>496</v>
-      </c>
-      <c r="C259" t="s" s="12">
-        <v>28</v>
+    <row r="259" ht="20.7" customHeight="1">
+      <c r="A259" t="s" s="4">
+        <v>498</v>
+      </c>
+      <c r="B259" t="s" s="4">
+        <v>499</v>
+      </c>
+      <c r="C259" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7333,30 +7342,32 @@
       <c r="H259" s="10"/>
     </row>
     <row r="260" ht="20.35" customHeight="1">
-      <c r="A260" t="s" s="13">
-        <v>497</v>
-      </c>
-      <c r="B260" t="s" s="13">
-        <v>498</v>
+      <c r="A260" t="s" s="11">
+        <v>500</v>
+      </c>
+      <c r="B260" t="s" s="11">
+        <v>501</v>
       </c>
       <c r="C260" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D260" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D260" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.7" customHeight="1">
-      <c r="A261" t="s" s="4">
-        <v>499</v>
-      </c>
-      <c r="B261" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="C261" t="s" s="8">
-        <v>10</v>
+    <row r="261" ht="20.05" customHeight="1">
+      <c r="A261" t="s" s="12">
+        <v>502</v>
+      </c>
+      <c r="B261" t="s" s="12">
+        <v>503</v>
+      </c>
+      <c r="C261" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7364,15 +7375,15 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.7" customHeight="1">
-      <c r="A262" t="s" s="4">
-        <v>499</v>
-      </c>
-      <c r="B262" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="C262" t="s" s="8">
-        <v>25</v>
+    <row r="262" ht="20.05" customHeight="1">
+      <c r="A262" t="s" s="12">
+        <v>504</v>
+      </c>
+      <c r="B262" t="s" s="12">
+        <v>505</v>
+      </c>
+      <c r="C262" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7380,19 +7391,17 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.35" customHeight="1">
-      <c r="A263" t="s" s="11">
-        <v>501</v>
-      </c>
-      <c r="B263" t="s" s="11">
-        <v>502</v>
+    <row r="263" ht="20.05" customHeight="1">
+      <c r="A263" t="s" s="12">
+        <v>506</v>
+      </c>
+      <c r="B263" t="s" s="12">
+        <v>507</v>
       </c>
       <c r="C263" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D263" s="9">
-        <v>0.871794871794872</v>
-      </c>
+      <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
@@ -7400,13 +7409,13 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B264" t="s" s="12">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7414,15 +7423,15 @@
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.05" customHeight="1">
-      <c r="A265" t="s" s="12">
-        <v>505</v>
-      </c>
-      <c r="B265" t="s" s="12">
-        <v>506</v>
+    <row r="265" ht="20.35" customHeight="1">
+      <c r="A265" t="s" s="13">
+        <v>510</v>
+      </c>
+      <c r="B265" t="s" s="13">
+        <v>511</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7430,15 +7439,15 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.05" customHeight="1">
-      <c r="A266" t="s" s="12">
-        <v>507</v>
-      </c>
-      <c r="B266" t="s" s="12">
-        <v>508</v>
-      </c>
-      <c r="C266" t="s" s="12">
-        <v>71</v>
+    <row r="266" ht="20.7" customHeight="1">
+      <c r="A266" t="s" s="4">
+        <v>512</v>
+      </c>
+      <c r="B266" t="s" s="4">
+        <v>513</v>
+      </c>
+      <c r="C266" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7446,15 +7455,15 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.05" customHeight="1">
-      <c r="A267" t="s" s="12">
-        <v>509</v>
-      </c>
-      <c r="B267" t="s" s="12">
-        <v>510</v>
+    <row r="267" ht="20.35" customHeight="1">
+      <c r="A267" t="s" s="11">
+        <v>514</v>
+      </c>
+      <c r="B267" t="s" s="11">
+        <v>515</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7462,15 +7471,15 @@
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.35" customHeight="1">
-      <c r="A268" t="s" s="13">
-        <v>511</v>
-      </c>
-      <c r="B268" t="s" s="13">
-        <v>512</v>
+    <row r="268" ht="20.05" customHeight="1">
+      <c r="A268" t="s" s="12">
+        <v>516</v>
+      </c>
+      <c r="B268" t="s" s="12">
+        <v>517</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7478,15 +7487,15 @@
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.7" customHeight="1">
-      <c r="A269" t="s" s="4">
-        <v>513</v>
-      </c>
-      <c r="B269" t="s" s="4">
-        <v>514</v>
-      </c>
-      <c r="C269" t="s" s="8">
-        <v>25</v>
+    <row r="269" ht="20.05" customHeight="1">
+      <c r="A269" t="s" s="12">
+        <v>518</v>
+      </c>
+      <c r="B269" t="s" s="12">
+        <v>519</v>
+      </c>
+      <c r="C269" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7494,15 +7503,15 @@
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.35" customHeight="1">
-      <c r="A270" t="s" s="11">
-        <v>515</v>
-      </c>
-      <c r="B270" t="s" s="11">
-        <v>516</v>
+    <row r="270" ht="20.05" customHeight="1">
+      <c r="A270" t="s" s="12">
+        <v>520</v>
+      </c>
+      <c r="B270" t="s" s="12">
+        <v>521</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -7512,13 +7521,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B271" t="s" s="12">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7528,13 +7537,13 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="12">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B272" t="s" s="12">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -7544,13 +7553,13 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="12">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B273" t="s" s="12">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C273" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7560,13 +7569,13 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="12">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B274" t="s" s="12">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7576,13 +7585,13 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="12">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B275" t="s" s="12">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7592,13 +7601,13 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="12">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B276" t="s" s="12">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7608,13 +7617,13 @@
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="12">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B277" t="s" s="12">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7624,13 +7633,13 @@
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="12">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B278" t="s" s="12">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7640,13 +7649,13 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="12">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B279" t="s" s="12">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7656,13 +7665,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B280" t="s" s="12">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7670,31 +7679,33 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.05" customHeight="1">
-      <c r="A281" t="s" s="12">
-        <v>537</v>
-      </c>
-      <c r="B281" t="s" s="12">
-        <v>538</v>
+    <row r="281" ht="20.35" customHeight="1">
+      <c r="A281" t="s" s="13">
+        <v>541</v>
+      </c>
+      <c r="B281" t="s" s="13">
+        <v>542</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D281" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D281" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.05" customHeight="1">
-      <c r="A282" t="s" s="12">
-        <v>537</v>
-      </c>
-      <c r="B282" t="s" s="12">
-        <v>539</v>
-      </c>
-      <c r="C282" t="s" s="12">
-        <v>15</v>
+    <row r="282" ht="20.7" customHeight="1">
+      <c r="A282" t="s" s="4">
+        <v>543</v>
+      </c>
+      <c r="B282" t="s" s="4">
+        <v>544</v>
+      </c>
+      <c r="C282" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7702,15 +7713,15 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.05" customHeight="1">
-      <c r="A283" t="s" s="12">
-        <v>540</v>
-      </c>
-      <c r="B283" t="s" s="12">
-        <v>541</v>
-      </c>
-      <c r="C283" t="s" s="12">
-        <v>42</v>
+    <row r="283" ht="20.7" customHeight="1">
+      <c r="A283" t="s" s="4">
+        <v>545</v>
+      </c>
+      <c r="B283" t="s" s="4">
+        <v>546</v>
+      </c>
+      <c r="C283" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -7718,19 +7729,17 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.35" customHeight="1">
-      <c r="A284" t="s" s="13">
-        <v>542</v>
-      </c>
-      <c r="B284" t="s" s="13">
-        <v>543</v>
-      </c>
-      <c r="C284" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D284" s="9">
-        <v>0.384615384615385</v>
-      </c>
+    <row r="284" ht="20.7" customHeight="1">
+      <c r="A284" t="s" s="4">
+        <v>545</v>
+      </c>
+      <c r="B284" t="s" s="4">
+        <v>546</v>
+      </c>
+      <c r="C284" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -7738,13 +7747,13 @@
     </row>
     <row r="285" ht="20.7" customHeight="1">
       <c r="A285" t="s" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B285" t="s" s="4">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -7752,15 +7761,15 @@
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.7" customHeight="1">
-      <c r="A286" t="s" s="4">
-        <v>546</v>
-      </c>
-      <c r="B286" t="s" s="4">
-        <v>547</v>
-      </c>
-      <c r="C286" t="s" s="8">
-        <v>10</v>
+    <row r="286" ht="20.35" customHeight="1">
+      <c r="A286" t="s" s="11">
+        <v>549</v>
+      </c>
+      <c r="B286" t="s" s="11">
+        <v>550</v>
+      </c>
+      <c r="C286" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -7768,31 +7777,33 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.7" customHeight="1">
-      <c r="A287" t="s" s="4">
-        <v>546</v>
-      </c>
-      <c r="B287" t="s" s="4">
-        <v>547</v>
-      </c>
-      <c r="C287" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D287" s="9"/>
+    <row r="287" ht="20.05" customHeight="1">
+      <c r="A287" t="s" s="12">
+        <v>551</v>
+      </c>
+      <c r="B287" t="s" s="12">
+        <v>552</v>
+      </c>
+      <c r="C287" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="D287" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.7" customHeight="1">
-      <c r="A288" t="s" s="4">
-        <v>548</v>
-      </c>
-      <c r="B288" t="s" s="4">
-        <v>549</v>
-      </c>
-      <c r="C288" t="s" s="8">
-        <v>10</v>
+    <row r="288" ht="20.05" customHeight="1">
+      <c r="A288" t="s" s="12">
+        <v>553</v>
+      </c>
+      <c r="B288" t="s" s="12">
+        <v>554</v>
+      </c>
+      <c r="C288" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -7800,15 +7811,15 @@
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.35" customHeight="1">
-      <c r="A289" t="s" s="11">
-        <v>550</v>
-      </c>
-      <c r="B289" t="s" s="11">
-        <v>551</v>
+    <row r="289" ht="20.05" customHeight="1">
+      <c r="A289" t="s" s="12">
+        <v>555</v>
+      </c>
+      <c r="B289" t="s" s="12">
+        <v>556</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -7818,31 +7829,29 @@
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="12">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B290" t="s" s="12">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D290" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.05" customHeight="1">
-      <c r="A291" t="s" s="12">
-        <v>554</v>
-      </c>
-      <c r="B291" t="s" s="12">
-        <v>555</v>
+    <row r="291" ht="20.35" customHeight="1">
+      <c r="A291" t="s" s="13">
+        <v>559</v>
+      </c>
+      <c r="B291" t="s" s="13">
+        <v>560</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -7850,15 +7859,15 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.05" customHeight="1">
-      <c r="A292" t="s" s="12">
-        <v>556</v>
-      </c>
-      <c r="B292" t="s" s="12">
-        <v>557</v>
-      </c>
-      <c r="C292" t="s" s="12">
-        <v>28</v>
+    <row r="292" ht="20.7" customHeight="1">
+      <c r="A292" t="s" s="4">
+        <v>561</v>
+      </c>
+      <c r="B292" t="s" s="4">
+        <v>562</v>
+      </c>
+      <c r="C292" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7866,15 +7875,15 @@
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.05" customHeight="1">
-      <c r="A293" t="s" s="12">
-        <v>558</v>
-      </c>
-      <c r="B293" t="s" s="12">
-        <v>559</v>
-      </c>
-      <c r="C293" t="s" s="12">
-        <v>39</v>
+    <row r="293" ht="20.7" customHeight="1">
+      <c r="A293" t="s" s="4">
+        <v>561</v>
+      </c>
+      <c r="B293" t="s" s="4">
+        <v>562</v>
+      </c>
+      <c r="C293" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7882,15 +7891,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.35" customHeight="1">
-      <c r="A294" t="s" s="13">
-        <v>560</v>
-      </c>
-      <c r="B294" t="s" s="13">
-        <v>561</v>
-      </c>
-      <c r="C294" t="s" s="12">
-        <v>15</v>
+    <row r="294" ht="20.7" customHeight="1">
+      <c r="A294" t="s" s="4">
+        <v>563</v>
+      </c>
+      <c r="B294" t="s" s="4">
+        <v>564</v>
+      </c>
+      <c r="C294" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7900,13 +7909,13 @@
     </row>
     <row r="295" ht="20.7" customHeight="1">
       <c r="A295" t="s" s="4">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B295" t="s" s="4">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C295" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -7914,31 +7923,33 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.7" customHeight="1">
-      <c r="A296" t="s" s="4">
-        <v>562</v>
-      </c>
-      <c r="B296" t="s" s="4">
-        <v>563</v>
-      </c>
-      <c r="C296" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D296" s="9"/>
+    <row r="296" ht="20.35" customHeight="1">
+      <c r="A296" t="s" s="11">
+        <v>565</v>
+      </c>
+      <c r="B296" t="s" s="11">
+        <v>566</v>
+      </c>
+      <c r="C296" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D296" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.7" customHeight="1">
-      <c r="A297" t="s" s="4">
-        <v>564</v>
-      </c>
-      <c r="B297" t="s" s="4">
-        <v>565</v>
-      </c>
-      <c r="C297" t="s" s="8">
-        <v>10</v>
+    <row r="297" ht="20.05" customHeight="1">
+      <c r="A297" t="s" s="12">
+        <v>567</v>
+      </c>
+      <c r="B297" t="s" s="12">
+        <v>568</v>
+      </c>
+      <c r="C297" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -7946,15 +7957,15 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.7" customHeight="1">
-      <c r="A298" t="s" s="4">
-        <v>564</v>
-      </c>
-      <c r="B298" t="s" s="4">
-        <v>565</v>
-      </c>
-      <c r="C298" t="s" s="8">
-        <v>25</v>
+    <row r="298" ht="20.05" customHeight="1">
+      <c r="A298" t="s" s="12">
+        <v>569</v>
+      </c>
+      <c r="B298" t="s" s="12">
+        <v>570</v>
+      </c>
+      <c r="C298" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -7962,19 +7973,17 @@
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.35" customHeight="1">
-      <c r="A299" t="s" s="11">
-        <v>566</v>
-      </c>
-      <c r="B299" t="s" s="11">
-        <v>567</v>
+    <row r="299" ht="20.05" customHeight="1">
+      <c r="A299" t="s" s="12">
+        <v>571</v>
+      </c>
+      <c r="B299" t="s" s="12">
+        <v>572</v>
       </c>
       <c r="C299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D299" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
@@ -7982,13 +7991,13 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="12">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B300" t="s" s="12">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -7998,26 +8007,26 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B301" t="s" s="12">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D301" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D301" s="10"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.05" customHeight="1">
-      <c r="A302" t="s" s="12">
-        <v>572</v>
-      </c>
-      <c r="B302" t="s" s="12">
-        <v>573</v>
+    <row r="302" ht="20.35" customHeight="1">
+      <c r="A302" t="s" s="13">
+        <v>577</v>
+      </c>
+      <c r="B302" t="s" s="13">
+        <v>578</v>
       </c>
       <c r="C302" t="s" s="12">
         <v>15</v>
@@ -8028,15 +8037,15 @@
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
-        <v>574</v>
-      </c>
-      <c r="B303" t="s" s="12">
-        <v>575</v>
-      </c>
-      <c r="C303" t="s" s="12">
-        <v>71</v>
+    <row r="303" ht="20.7" customHeight="1">
+      <c r="A303" t="s" s="4">
+        <v>579</v>
+      </c>
+      <c r="B303" t="s" s="4">
+        <v>580</v>
+      </c>
+      <c r="C303" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
@@ -8044,28 +8053,28 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" t="s" s="12">
-        <v>576</v>
-      </c>
-      <c r="B304" t="s" s="12">
-        <v>577</v>
+    <row r="304" ht="20.35" customHeight="1">
+      <c r="A304" t="s" s="11">
+        <v>581</v>
+      </c>
+      <c r="B304" t="s" s="11">
+        <v>582</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D304" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" t="s" s="13">
-        <v>578</v>
-      </c>
-      <c r="B305" t="s" s="13">
-        <v>579</v>
+    <row r="305" ht="20.05" customHeight="1">
+      <c r="A305" t="s" s="12">
+        <v>583</v>
+      </c>
+      <c r="B305" t="s" s="12">
+        <v>584</v>
       </c>
       <c r="C305" t="s" s="12">
         <v>15</v>
@@ -8076,15 +8085,15 @@
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.7" customHeight="1">
-      <c r="A306" t="s" s="4">
-        <v>580</v>
-      </c>
-      <c r="B306" t="s" s="4">
-        <v>581</v>
-      </c>
-      <c r="C306" t="s" s="8">
-        <v>10</v>
+    <row r="306" ht="20.05" customHeight="1">
+      <c r="A306" t="s" s="12">
+        <v>585</v>
+      </c>
+      <c r="B306" t="s" s="12">
+        <v>586</v>
+      </c>
+      <c r="C306" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
@@ -8092,15 +8101,15 @@
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.35" customHeight="1">
-      <c r="A307" t="s" s="11">
-        <v>582</v>
-      </c>
-      <c r="B307" t="s" s="11">
-        <v>583</v>
+    <row r="307" ht="20.05" customHeight="1">
+      <c r="A307" t="s" s="12">
+        <v>587</v>
+      </c>
+      <c r="B307" t="s" s="12">
+        <v>588</v>
       </c>
       <c r="C307" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
@@ -8110,13 +8119,13 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="12">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B308" t="s" s="12">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
@@ -8126,13 +8135,13 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="12">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B309" t="s" s="12">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
@@ -8142,13 +8151,13 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="12">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B310" t="s" s="12">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
@@ -8158,13 +8167,13 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="12">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B311" t="s" s="12">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
@@ -8174,13 +8183,13 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="12">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B312" t="s" s="12">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -8189,15 +8198,9 @@
       <c r="H312" s="10"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" t="s" s="12">
-        <v>594</v>
-      </c>
-      <c r="B313" t="s" s="12">
-        <v>595</v>
-      </c>
-      <c r="C313" t="s" s="12">
-        <v>39</v>
-      </c>
+      <c r="A313" s="10"/>
+      <c r="B313" s="10"/>
+      <c r="C313" s="10"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -8205,15 +8208,9 @@
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" t="s" s="12">
-        <v>596</v>
-      </c>
-      <c r="B314" t="s" s="12">
-        <v>597</v>
-      </c>
-      <c r="C314" t="s" s="12">
-        <v>28</v>
-      </c>
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
+      <c r="C314" s="10"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -8221,15 +8218,9 @@
       <c r="H314" s="10"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
-      <c r="A315" t="s" s="12">
-        <v>598</v>
-      </c>
-      <c r="B315" t="s" s="12">
-        <v>599</v>
-      </c>
-      <c r="C315" t="s" s="12">
-        <v>28</v>
-      </c>
+      <c r="A315" s="10"/>
+      <c r="B315" s="10"/>
+      <c r="C315" s="10"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
@@ -9156,36 +9147,6 @@
       <c r="G407" s="10"/>
       <c r="H407" s="10"/>
     </row>
-    <row r="408" ht="20.05" customHeight="1">
-      <c r="A408" s="10"/>
-      <c r="B408" s="10"/>
-      <c r="C408" s="10"/>
-      <c r="D408" s="9"/>
-      <c r="E408" s="9"/>
-      <c r="F408" s="9"/>
-      <c r="G408" s="10"/>
-      <c r="H408" s="10"/>
-    </row>
-    <row r="409" ht="20.05" customHeight="1">
-      <c r="A409" s="10"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="10"/>
-      <c r="D409" s="9"/>
-      <c r="E409" s="9"/>
-      <c r="F409" s="9"/>
-      <c r="G409" s="10"/>
-      <c r="H409" s="10"/>
-    </row>
-    <row r="410" ht="20.05" customHeight="1">
-      <c r="A410" s="10"/>
-      <c r="B410" s="10"/>
-      <c r="C410" s="10"/>
-      <c r="D410" s="9"/>
-      <c r="E410" s="9"/>
-      <c r="F410" s="9"/>
-      <c r="G410" s="10"/>
-      <c r="H410" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
   <si>
     <t>Surname</t>
   </si>
@@ -1808,6 +1808,12 @@
   </si>
   <si>
     <t>H210080W</t>
+  </si>
+  <si>
+    <t>Chitekuteku</t>
+  </si>
+  <si>
+    <t>H180198F</t>
   </si>
 </sst>
 </file>
@@ -3977,7 +3983,9 @@
       <c r="C51" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -4643,7 +4651,9 @@
       <c r="C92" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D92" s="9"/>
+      <c r="D92" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
@@ -5237,7 +5247,9 @@
       <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
@@ -5847,7 +5859,9 @@
       <c r="C167" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D167" s="9"/>
+      <c r="D167" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -6769,7 +6783,9 @@
       <c r="C224" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D224" s="9"/>
+      <c r="D224" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
@@ -7043,7 +7059,9 @@
       <c r="C241" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D241" s="9"/>
+      <c r="D241" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
@@ -8198,10 +8216,18 @@
       <c r="H312" s="10"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" s="10"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="9"/>
+      <c r="A313" t="s" s="12">
+        <v>599</v>
+      </c>
+      <c r="B313" t="s" s="12">
+        <v>600</v>
+      </c>
+      <c r="C313" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D313" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
   <si>
     <t>Surname</t>
   </si>
@@ -301,6 +301,12 @@
     <t>H210538B</t>
   </si>
   <si>
+    <t>Chitekuteku</t>
+  </si>
+  <si>
+    <t>H180198F</t>
+  </si>
+  <si>
     <t>Chitsara</t>
   </si>
   <si>
@@ -1255,6 +1261,12 @@
     <t>H210204V</t>
   </si>
   <si>
+    <t>Munyika</t>
+  </si>
+  <si>
+    <t>H180652Q</t>
+  </si>
+  <si>
     <t>MUPAMHANGA</t>
   </si>
   <si>
@@ -1808,12 +1820,6 @@
   </si>
   <si>
     <t>H210080W</t>
-  </si>
-  <si>
-    <t>Chitekuteku</t>
-  </si>
-  <si>
-    <t>H180198F</t>
   </si>
 </sst>
 </file>
@@ -3833,9 +3839,11 @@
         <v>97</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D42" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
@@ -3849,11 +3857,9 @@
         <v>99</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.846153846153846</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -3867,9 +3873,11 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -3883,7 +3891,7 @@
         <v>103</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -3899,41 +3907,41 @@
         <v>105</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" ht="20.35" customHeight="1">
-      <c r="A47" t="s" s="13">
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="13">
+      <c r="B47" t="s" s="12">
         <v>107</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D47" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" ht="20.7" customHeight="1">
-      <c r="A48" t="s" s="4">
+    <row r="48" ht="20.35" customHeight="1">
+      <c r="A48" t="s" s="13">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="13">
         <v>109</v>
       </c>
-      <c r="C48" t="s" s="8">
-        <v>10</v>
+      <c r="C48" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -3941,15 +3949,15 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" t="s" s="11">
+    <row r="49" ht="20.7" customHeight="1">
+      <c r="A49" t="s" s="4">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="11">
+      <c r="B49" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>42</v>
+      <c r="C49" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3957,11 +3965,11 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="12">
+    <row r="50" ht="20.35" customHeight="1">
+      <c r="A50" t="s" s="11">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="11">
         <v>113</v>
       </c>
       <c r="C50" t="s" s="12">
@@ -3981,11 +3989,9 @@
         <v>115</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D51" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -3993,15 +3999,17 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D52" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
@@ -4009,13 +4017,13 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s" s="12">
         <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4031,7 +4039,7 @@
         <v>120</v>
       </c>
       <c r="C54" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4063,7 +4071,7 @@
         <v>124</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4079,7 +4087,7 @@
         <v>126</v>
       </c>
       <c r="C57" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4095,7 +4103,7 @@
         <v>128</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4127,7 +4135,7 @@
         <v>132</v>
       </c>
       <c r="C60" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -4135,11 +4143,11 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" ht="20.35" customHeight="1">
-      <c r="A61" t="s" s="13">
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="A61" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="B61" t="s" s="13">
+      <c r="B61" t="s" s="12">
         <v>134</v>
       </c>
       <c r="C61" t="s" s="12">
@@ -4151,15 +4159,15 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" ht="20.7" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s" s="4">
+    <row r="62" ht="20.35" customHeight="1">
+      <c r="A62" t="s" s="13">
         <v>135</v>
       </c>
-      <c r="C62" t="s" s="8">
-        <v>10</v>
+      <c r="B62" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -4167,15 +4175,15 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" ht="20.35" customHeight="1">
-      <c r="A63" t="s" s="11">
-        <v>136</v>
-      </c>
-      <c r="B63" t="s" s="11">
+    <row r="63" ht="20.7" customHeight="1">
+      <c r="A63" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="C63" t="s" s="12">
-        <v>15</v>
+      <c r="C63" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4183,15 +4191,15 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="12">
+    <row r="64" ht="20.35" customHeight="1">
+      <c r="A64" t="s" s="11">
         <v>138</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="11">
         <v>139</v>
       </c>
       <c r="C64" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -4207,11 +4215,9 @@
         <v>141</v>
       </c>
       <c r="C65" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D65" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
@@ -4225,23 +4231,25 @@
         <v>143</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D66" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.35" customHeight="1">
-      <c r="A67" t="s" s="13">
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="B67" t="s" s="13">
+      <c r="B67" t="s" s="12">
         <v>145</v>
       </c>
       <c r="C67" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -4249,15 +4257,15 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.7" customHeight="1">
-      <c r="A68" t="s" s="4">
+    <row r="68" ht="20.35" customHeight="1">
+      <c r="A68" t="s" s="13">
         <v>146</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="13">
         <v>147</v>
       </c>
-      <c r="C68" t="s" s="8">
-        <v>10</v>
+      <c r="C68" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -4265,15 +4273,15 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.35" customHeight="1">
-      <c r="A69" t="s" s="11">
+    <row r="69" ht="20.7" customHeight="1">
+      <c r="A69" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="B69" t="s" s="11">
+      <c r="B69" t="s" s="4">
         <v>149</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>39</v>
+      <c r="C69" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4281,15 +4289,15 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="12">
+    <row r="70" ht="20.35" customHeight="1">
+      <c r="A70" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="11">
         <v>151</v>
       </c>
       <c r="C70" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -4305,7 +4313,7 @@
         <v>153</v>
       </c>
       <c r="C71" t="s" s="12">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4313,11 +4321,11 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" ht="20.35" customHeight="1">
-      <c r="A72" t="s" s="13">
+    <row r="72" ht="20.05" customHeight="1">
+      <c r="A72" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="B72" t="s" s="13">
+      <c r="B72" t="s" s="12">
         <v>155</v>
       </c>
       <c r="C72" t="s" s="12">
@@ -4329,15 +4337,15 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.7" customHeight="1">
-      <c r="A73" t="s" s="4">
+    <row r="73" ht="20.35" customHeight="1">
+      <c r="A73" t="s" s="13">
         <v>156</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="13">
         <v>157</v>
       </c>
-      <c r="C73" t="s" s="8">
-        <v>25</v>
+      <c r="C73" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4353,7 +4361,7 @@
         <v>159</v>
       </c>
       <c r="C74" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -4362,14 +4370,14 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" ht="20.7" customHeight="1">
-      <c r="A75" t="s" s="14">
+      <c r="A75" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="B75" t="s" s="14">
+      <c r="B75" t="s" s="4">
         <v>161</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>18</v>
+      <c r="C75" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4378,14 +4386,14 @@
       <c r="H75" s="10"/>
     </row>
     <row r="76" ht="20.7" customHeight="1">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="14">
         <v>162</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="14">
         <v>163</v>
       </c>
-      <c r="C76" t="s" s="8">
-        <v>10</v>
+      <c r="C76" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -4393,15 +4401,15 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.35" customHeight="1">
-      <c r="A77" t="s" s="11">
+    <row r="77" ht="20.7" customHeight="1">
+      <c r="A77" t="s" s="4">
         <v>164</v>
       </c>
-      <c r="B77" t="s" s="11">
+      <c r="B77" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>28</v>
+      <c r="C77" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -4409,15 +4417,15 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="12">
+    <row r="78" ht="20.35" customHeight="1">
+      <c r="A78" t="s" s="11">
         <v>166</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="11">
         <v>167</v>
       </c>
       <c r="C78" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4435,9 +4443,7 @@
       <c r="C79" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D79" s="9">
-        <v>0.461538461538462</v>
-      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
@@ -4451,79 +4457,81 @@
         <v>171</v>
       </c>
       <c r="C80" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D80" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" ht="20.35" customHeight="1">
-      <c r="A81" t="s" s="13">
-        <v>170</v>
-      </c>
-      <c r="B81" t="s" s="13">
+    <row r="81" ht="20.05" customHeight="1">
+      <c r="A81" t="s" s="12">
         <v>172</v>
       </c>
+      <c r="B81" t="s" s="12">
+        <v>173</v>
+      </c>
       <c r="C81" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D81" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="B82" t="s" s="4">
+    <row r="82" ht="20.35" customHeight="1">
+      <c r="A82" t="s" s="13">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s" s="13">
         <v>174</v>
       </c>
-      <c r="C82" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D82" s="9"/>
+      <c r="C82" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.35" customHeight="1">
-      <c r="A83" t="s" s="11">
+    <row r="83" ht="20.7" customHeight="1">
+      <c r="A83" t="s" s="4">
         <v>175</v>
       </c>
-      <c r="B83" t="s" s="11">
+      <c r="B83" t="s" s="4">
         <v>176</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C83" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="12">
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="11">
         <v>178</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D84" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
@@ -4537,39 +4545,39 @@
         <v>180</v>
       </c>
       <c r="C85" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D85" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.35" customHeight="1">
-      <c r="A86" t="s" s="13">
+    <row r="86" ht="20.05" customHeight="1">
+      <c r="A86" t="s" s="12">
         <v>181</v>
       </c>
-      <c r="B86" t="s" s="13">
+      <c r="B86" t="s" s="12">
         <v>182</v>
       </c>
       <c r="C86" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D86" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D86" s="10"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.7" customHeight="1">
-      <c r="A87" t="s" s="4">
+    <row r="87" ht="20.35" customHeight="1">
+      <c r="A87" t="s" s="13">
         <v>183</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="13">
         <v>184</v>
       </c>
-      <c r="C87" t="s" s="8">
-        <v>25</v>
+      <c r="C87" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -4578,14 +4586,14 @@
       <c r="H87" s="10"/>
     </row>
     <row r="88" ht="20.7" customHeight="1">
-      <c r="A88" t="s" s="14">
+      <c r="A88" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="B88" t="s" s="14">
+      <c r="B88" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>15</v>
+      <c r="C88" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -4594,14 +4602,14 @@
       <c r="H88" s="10"/>
     </row>
     <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="14">
         <v>187</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="14">
         <v>188</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>25</v>
+      <c r="C89" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4625,15 +4633,15 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.35" customHeight="1">
-      <c r="A91" t="s" s="11">
+    <row r="91" ht="20.7" customHeight="1">
+      <c r="A91" t="s" s="4">
         <v>191</v>
       </c>
-      <c r="B91" t="s" s="11">
+      <c r="B91" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="C91" t="s" s="12">
-        <v>15</v>
+      <c r="C91" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4641,65 +4649,65 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="12">
+    <row r="92" ht="20.35" customHeight="1">
+      <c r="A92" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="11">
         <v>194</v>
       </c>
       <c r="C92" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D92" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.35" customHeight="1">
-      <c r="A93" t="s" s="13">
+    <row r="93" ht="20.05" customHeight="1">
+      <c r="A93" t="s" s="12">
         <v>195</v>
       </c>
-      <c r="B93" t="s" s="13">
+      <c r="B93" t="s" s="12">
         <v>196</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" t="s" s="12">
+        <v>42</v>
+      </c>
       <c r="D93" s="9">
-        <v>0.897435897435897</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.7" customHeight="1">
-      <c r="A94" t="s" s="4">
+    <row r="94" ht="20.35" customHeight="1">
+      <c r="A94" t="s" s="13">
         <v>197</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="13">
         <v>198</v>
       </c>
-      <c r="C94" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.35" customHeight="1">
-      <c r="A95" t="s" s="11">
+    <row r="95" ht="20.7" customHeight="1">
+      <c r="A95" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="B95" t="s" s="11">
+      <c r="B95" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>39</v>
+      <c r="C95" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4707,15 +4715,15 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="12">
+    <row r="96" ht="20.35" customHeight="1">
+      <c r="A96" t="s" s="11">
         <v>201</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="11">
         <v>202</v>
       </c>
       <c r="C96" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4731,7 +4739,7 @@
         <v>204</v>
       </c>
       <c r="C97" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4747,7 +4755,7 @@
         <v>206</v>
       </c>
       <c r="C98" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4755,15 +4763,15 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.35" customHeight="1">
-      <c r="A99" t="s" s="13">
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="B99" t="s" s="13">
+      <c r="B99" t="s" s="12">
         <v>208</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4771,15 +4779,15 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.7" customHeight="1">
-      <c r="A100" t="s" s="4">
+    <row r="100" ht="20.35" customHeight="1">
+      <c r="A100" t="s" s="13">
         <v>209</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="13">
         <v>210</v>
       </c>
-      <c r="C100" t="s" s="8">
-        <v>25</v>
+      <c r="C100" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4795,7 +4803,7 @@
         <v>212</v>
       </c>
       <c r="C101" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4805,13 +4813,13 @@
     </row>
     <row r="102" ht="20.7" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4820,14 +4828,14 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="14">
+      <c r="A103" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="B103" t="s" s="14">
+      <c r="B103" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>15</v>
+      <c r="C103" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4836,14 +4844,14 @@
       <c r="H103" s="10"/>
     </row>
     <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="14">
         <v>215</v>
       </c>
-      <c r="B104" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="C104" t="s" s="8">
-        <v>10</v>
+      <c r="B104" t="s" s="14">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4853,13 +4861,13 @@
     </row>
     <row r="105" ht="20.7" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4867,35 +4875,35 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.35" customHeight="1">
-      <c r="A106" t="s" s="11">
+    <row r="106" ht="20.7" customHeight="1">
+      <c r="A106" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="B106" t="s" s="11">
-        <v>217</v>
-      </c>
-      <c r="C106" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D106" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C106" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="12">
+    <row r="107" ht="20.35" customHeight="1">
+      <c r="A107" t="s" s="11">
         <v>218</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="11">
         <v>219</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D107" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
@@ -4909,7 +4917,7 @@
         <v>221</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -4917,11 +4925,11 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.35" customHeight="1">
-      <c r="A109" t="s" s="13">
+    <row r="109" ht="20.05" customHeight="1">
+      <c r="A109" t="s" s="12">
         <v>222</v>
       </c>
-      <c r="B109" t="s" s="13">
+      <c r="B109" t="s" s="12">
         <v>223</v>
       </c>
       <c r="C109" t="s" s="12">
@@ -4933,15 +4941,15 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.7" customHeight="1">
-      <c r="A110" t="s" s="4">
+    <row r="110" ht="20.35" customHeight="1">
+      <c r="A110" t="s" s="13">
         <v>224</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="13">
         <v>225</v>
       </c>
-      <c r="C110" t="s" s="8">
-        <v>25</v>
+      <c r="C110" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4949,15 +4957,15 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="11">
+    <row r="111" ht="20.7" customHeight="1">
+      <c r="A111" t="s" s="4">
         <v>226</v>
       </c>
-      <c r="B111" t="s" s="11">
+      <c r="B111" t="s" s="4">
         <v>227</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>42</v>
+      <c r="C111" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4965,15 +4973,15 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="12">
+    <row r="112" ht="20.35" customHeight="1">
+      <c r="A112" t="s" s="11">
         <v>228</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="11">
         <v>229</v>
       </c>
       <c r="C112" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4989,7 +4997,7 @@
         <v>231</v>
       </c>
       <c r="C113" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4997,15 +5005,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.35" customHeight="1">
-      <c r="A114" t="s" s="13">
+    <row r="114" ht="20.05" customHeight="1">
+      <c r="A114" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="B114" t="s" s="13">
+      <c r="B114" t="s" s="12">
         <v>233</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5013,15 +5021,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.7" customHeight="1">
-      <c r="A115" t="s" s="4">
+    <row r="115" ht="20.35" customHeight="1">
+      <c r="A115" t="s" s="13">
         <v>234</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="13">
         <v>235</v>
       </c>
-      <c r="C115" t="s" s="8">
-        <v>10</v>
+      <c r="C115" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5031,13 +5039,13 @@
     </row>
     <row r="116" ht="20.7" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C116" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5046,14 +5054,14 @@
       <c r="H116" s="10"/>
     </row>
     <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="14">
+      <c r="A117" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="B117" t="s" s="14">
+      <c r="B117" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>71</v>
+      <c r="C117" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5062,14 +5070,14 @@
       <c r="H117" s="10"/>
     </row>
     <row r="118" ht="20.7" customHeight="1">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="14">
         <v>238</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="14">
         <v>239</v>
       </c>
-      <c r="C118" t="s" s="8">
-        <v>25</v>
+      <c r="C118" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5077,15 +5085,15 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.35" customHeight="1">
-      <c r="A119" t="s" s="11">
+    <row r="119" ht="20.7" customHeight="1">
+      <c r="A119" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="B119" t="s" s="11">
+      <c r="B119" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>39</v>
+      <c r="C119" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5094,14 +5102,14 @@
       <c r="H119" s="10"/>
     </row>
     <row r="120" ht="20.35" customHeight="1">
-      <c r="A120" t="s" s="13">
+      <c r="A120" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="B120" t="s" s="13">
+      <c r="B120" t="s" s="11">
         <v>243</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5109,15 +5117,15 @@
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.7" customHeight="1">
-      <c r="A121" t="s" s="4">
+    <row r="121" ht="20.35" customHeight="1">
+      <c r="A121" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="13">
         <v>245</v>
       </c>
-      <c r="C121" t="s" s="8">
-        <v>10</v>
+      <c r="C121" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5127,13 +5135,13 @@
     </row>
     <row r="122" ht="20.7" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C122" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5141,15 +5149,15 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="11">
+    <row r="123" ht="20.7" customHeight="1">
+      <c r="A123" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="B123" t="s" s="11">
+      <c r="B123" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>42</v>
+      <c r="C123" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5158,78 +5166,78 @@
       <c r="H123" s="10"/>
     </row>
     <row r="124" ht="20.35" customHeight="1">
-      <c r="A124" t="s" s="13">
+      <c r="A124" t="s" s="11">
         <v>248</v>
       </c>
-      <c r="B124" t="s" s="13">
+      <c r="B124" t="s" s="11">
         <v>249</v>
       </c>
       <c r="C124" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D124" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.7" customHeight="1">
-      <c r="A125" t="s" s="4">
+    <row r="125" ht="20.35" customHeight="1">
+      <c r="A125" t="s" s="13">
         <v>250</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="13">
         <v>251</v>
       </c>
-      <c r="C125" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D125" s="9"/>
+      <c r="C125" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D125" s="10"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="14">
+      <c r="A126" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="B126" t="s" s="14">
+      <c r="B126" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D126" s="10"/>
+      <c r="C126" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="14">
         <v>254</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="14">
         <v>255</v>
       </c>
-      <c r="C127" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D127" s="9"/>
+      <c r="C127" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D127" s="10"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.35" customHeight="1">
-      <c r="A128" t="s" s="11">
+    <row r="128" ht="20.7" customHeight="1">
+      <c r="A128" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="B128" t="s" s="11">
+      <c r="B128" t="s" s="4">
         <v>257</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>18</v>
+      <c r="C128" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5238,34 +5246,36 @@
       <c r="H128" s="10"/>
     </row>
     <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="13">
+      <c r="A129" t="s" s="11">
         <v>258</v>
       </c>
-      <c r="B129" t="s" s="13">
+      <c r="B129" t="s" s="11">
         <v>259</v>
       </c>
       <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D129" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.7" customHeight="1">
-      <c r="A130" t="s" s="4">
+    <row r="130" ht="20.35" customHeight="1">
+      <c r="A130" t="s" s="13">
         <v>260</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="13">
         <v>261</v>
       </c>
-      <c r="C130" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D130" s="9"/>
+      <c r="C130" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D130" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
@@ -5273,13 +5283,13 @@
     </row>
     <row r="131" ht="20.7" customHeight="1">
       <c r="A131" t="s" s="4">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5287,15 +5297,15 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.35" customHeight="1">
-      <c r="A132" t="s" s="11">
+    <row r="132" ht="20.7" customHeight="1">
+      <c r="A132" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="B132" t="s" s="11">
+      <c r="B132" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>42</v>
+      <c r="C132" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5303,17 +5313,17 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="12">
+    <row r="133" ht="20.35" customHeight="1">
+      <c r="A133" t="s" s="11">
         <v>264</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="11">
         <v>265</v>
       </c>
       <c r="C133" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D133" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
@@ -5327,9 +5337,9 @@
         <v>267</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D134" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D134" s="10"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
@@ -5343,7 +5353,7 @@
         <v>269</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5359,7 +5369,7 @@
         <v>271</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5375,7 +5385,7 @@
         <v>273</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5385,13 +5395,13 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="12">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s" s="12">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5401,13 +5411,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s" s="12">
         <v>276</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5423,7 +5433,7 @@
         <v>278</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5439,41 +5449,41 @@
         <v>280</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D141" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.35" customHeight="1">
-      <c r="A142" t="s" s="13">
+    <row r="142" ht="20.05" customHeight="1">
+      <c r="A142" t="s" s="12">
         <v>281</v>
       </c>
-      <c r="B142" t="s" s="13">
+      <c r="B142" t="s" s="12">
         <v>282</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D142" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.7" customHeight="1">
-      <c r="A143" t="s" s="4">
+    <row r="143" ht="20.35" customHeight="1">
+      <c r="A143" t="s" s="13">
         <v>283</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="13">
         <v>284</v>
       </c>
-      <c r="C143" t="s" s="8">
-        <v>25</v>
+      <c r="C143" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -5481,33 +5491,33 @@
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.35" customHeight="1">
-      <c r="A144" t="s" s="11">
+    <row r="144" ht="20.7" customHeight="1">
+      <c r="A144" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="B144" t="s" s="11">
+      <c r="B144" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D144" s="10"/>
+      <c r="C144" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="12">
+    <row r="145" ht="20.35" customHeight="1">
+      <c r="A145" t="s" s="11">
         <v>287</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="11">
         <v>288</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D145" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D145" s="10"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
@@ -5523,7 +5533,9 @@
       <c r="C146" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D146" s="9"/>
+      <c r="D146" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
@@ -5537,7 +5549,7 @@
         <v>292</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5553,7 +5565,7 @@
         <v>294</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -5563,45 +5575,45 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="12">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D149" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.35" customHeight="1">
-      <c r="A150" t="s" s="13">
-        <v>293</v>
-      </c>
-      <c r="B150" t="s" s="13">
-        <v>296</v>
+    <row r="150" ht="20.05" customHeight="1">
+      <c r="A150" t="s" s="12">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s" s="12">
+        <v>297</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D150" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D150" s="10"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.7" customHeight="1">
-      <c r="A151" t="s" s="4">
-        <v>293</v>
-      </c>
-      <c r="B151" t="s" s="4">
-        <v>297</v>
-      </c>
-      <c r="C151" t="s" s="8">
-        <v>25</v>
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" t="s" s="13">
+        <v>295</v>
+      </c>
+      <c r="B151" t="s" s="13">
+        <v>298</v>
+      </c>
+      <c r="C151" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -5609,15 +5621,15 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.35" customHeight="1">
-      <c r="A152" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="B152" t="s" s="11">
+    <row r="152" ht="20.7" customHeight="1">
+      <c r="A152" t="s" s="4">
+        <v>295</v>
+      </c>
+      <c r="B152" t="s" s="4">
         <v>299</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>42</v>
+      <c r="C152" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -5625,11 +5637,11 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="12">
+    <row r="153" ht="20.35" customHeight="1">
+      <c r="A153" t="s" s="11">
         <v>300</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="11">
         <v>301</v>
       </c>
       <c r="C153" t="s" s="12">
@@ -5649,7 +5661,7 @@
         <v>303</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -5665,7 +5677,7 @@
         <v>305</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -5683,7 +5695,7 @@
       <c r="C156" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D156" s="10"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
@@ -5699,7 +5711,7 @@
       <c r="C157" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D157" s="9"/>
+      <c r="D157" s="10"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
@@ -5713,7 +5725,7 @@
         <v>311</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -5745,7 +5757,7 @@
         <v>315</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5761,7 +5773,7 @@
         <v>317</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5769,15 +5781,15 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" ht="20.35" customHeight="1">
-      <c r="A162" t="s" s="13">
+    <row r="162" ht="20.05" customHeight="1">
+      <c r="A162" t="s" s="12">
         <v>318</v>
       </c>
-      <c r="B162" t="s" s="13">
+      <c r="B162" t="s" s="12">
         <v>319</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5785,15 +5797,15 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.7" customHeight="1">
-      <c r="A163" t="s" s="4">
+    <row r="163" ht="20.35" customHeight="1">
+      <c r="A163" t="s" s="13">
         <v>320</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="13">
         <v>321</v>
       </c>
-      <c r="C163" t="s" s="8">
-        <v>10</v>
+      <c r="C163" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5803,13 +5815,13 @@
     </row>
     <row r="164" ht="20.7" customHeight="1">
       <c r="A164" t="s" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s" s="4">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -5817,15 +5829,15 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.35" customHeight="1">
-      <c r="A165" t="s" s="11">
+    <row r="165" ht="20.7" customHeight="1">
+      <c r="A165" t="s" s="4">
         <v>322</v>
       </c>
-      <c r="B165" t="s" s="11">
+      <c r="B165" t="s" s="4">
         <v>323</v>
       </c>
-      <c r="C165" t="s" s="12">
-        <v>42</v>
+      <c r="C165" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5833,17 +5845,17 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.05" customHeight="1">
-      <c r="A166" t="s" s="12">
+    <row r="166" ht="20.35" customHeight="1">
+      <c r="A166" t="s" s="11">
         <v>324</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="11">
         <v>325</v>
       </c>
       <c r="C166" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D166" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -5857,11 +5869,9 @@
         <v>327</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D167" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D167" s="10"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -5877,7 +5887,9 @@
       <c r="C168" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D168" s="9"/>
+      <c r="D168" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -5893,7 +5905,7 @@
       <c r="C169" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D169" s="10"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
@@ -5906,10 +5918,10 @@
       <c r="B170" t="s" s="12">
         <v>333</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C170" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D170" s="10"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
@@ -5922,11 +5934,9 @@
       <c r="B171" t="s" s="12">
         <v>335</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>39</v>
-      </c>
+      <c r="C171" s="10"/>
       <c r="D171" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -5941,9 +5951,11 @@
         <v>337</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D172" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D172" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
@@ -5957,7 +5969,7 @@
         <v>339</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -5965,15 +5977,15 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.35" customHeight="1">
-      <c r="A174" t="s" s="13">
+    <row r="174" ht="20.05" customHeight="1">
+      <c r="A174" t="s" s="12">
         <v>340</v>
       </c>
-      <c r="B174" t="s" s="13">
+      <c r="B174" t="s" s="12">
         <v>341</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -5981,15 +5993,15 @@
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.7" customHeight="1">
-      <c r="A175" t="s" s="4">
+    <row r="175" ht="20.35" customHeight="1">
+      <c r="A175" t="s" s="13">
         <v>342</v>
       </c>
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="13">
         <v>343</v>
       </c>
-      <c r="C175" t="s" s="8">
-        <v>25</v>
+      <c r="C175" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -5997,15 +6009,15 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.35" customHeight="1">
-      <c r="A176" t="s" s="11">
+    <row r="176" ht="20.7" customHeight="1">
+      <c r="A176" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="B176" t="s" s="11">
+      <c r="B176" t="s" s="4">
         <v>345</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>15</v>
+      <c r="C176" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -6013,15 +6025,15 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="12">
+    <row r="177" ht="20.35" customHeight="1">
+      <c r="A177" t="s" s="11">
         <v>346</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="11">
         <v>347</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -6037,7 +6049,7 @@
         <v>349</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6053,7 +6065,7 @@
         <v>351</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6069,7 +6081,7 @@
         <v>353</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -6087,9 +6099,7 @@
       <c r="C181" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D181" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
@@ -6103,9 +6113,11 @@
         <v>357</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D182" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D182" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
@@ -6119,7 +6131,7 @@
         <v>359</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6127,49 +6139,49 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="13">
-        <v>358</v>
-      </c>
-      <c r="B184" t="s" s="13">
+    <row r="184" ht="20.05" customHeight="1">
+      <c r="A184" t="s" s="12">
         <v>360</v>
       </c>
+      <c r="B184" t="s" s="12">
+        <v>361</v>
+      </c>
       <c r="C184" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D184" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="15">
-        <v>361</v>
-      </c>
-      <c r="B185" t="s" s="15">
+    <row r="185" ht="20.35" customHeight="1">
+      <c r="A185" t="s" s="13">
+        <v>360</v>
+      </c>
+      <c r="B185" t="s" s="13">
         <v>362</v>
       </c>
-      <c r="C185" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D185" s="9"/>
+      <c r="C185" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D185" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
     <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="4">
-        <v>361</v>
-      </c>
-      <c r="B186" t="s" s="4">
-        <v>362</v>
+      <c r="A186" t="s" s="15">
+        <v>363</v>
+      </c>
+      <c r="B186" t="s" s="15">
+        <v>364</v>
       </c>
       <c r="C186" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -6178,14 +6190,14 @@
       <c r="H186" s="10"/>
     </row>
     <row r="187" ht="20.7" customHeight="1">
-      <c r="A187" t="s" s="14">
+      <c r="A187" t="s" s="4">
         <v>363</v>
       </c>
-      <c r="B187" t="s" s="14">
+      <c r="B187" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="C187" t="s" s="12">
-        <v>42</v>
+      <c r="C187" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -6194,14 +6206,14 @@
       <c r="H187" s="10"/>
     </row>
     <row r="188" ht="20.7" customHeight="1">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="14">
         <v>365</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="14">
         <v>366</v>
       </c>
-      <c r="C188" t="s" s="8">
-        <v>10</v>
+      <c r="C188" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -6211,13 +6223,13 @@
     </row>
     <row r="189" ht="20.7" customHeight="1">
       <c r="A189" t="s" s="4">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B189" t="s" s="4">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C189" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -6225,15 +6237,15 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.35" customHeight="1">
-      <c r="A190" t="s" s="11">
+    <row r="190" ht="20.7" customHeight="1">
+      <c r="A190" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="B190" t="s" s="11">
+      <c r="B190" t="s" s="4">
         <v>368</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>71</v>
+      <c r="C190" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6242,14 +6254,14 @@
       <c r="H190" s="10"/>
     </row>
     <row r="191" ht="20.35" customHeight="1">
-      <c r="A191" t="s" s="13">
+      <c r="A191" t="s" s="11">
         <v>369</v>
       </c>
-      <c r="B191" t="s" s="13">
+      <c r="B191" t="s" s="11">
         <v>370</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6257,15 +6269,15 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.7" customHeight="1">
-      <c r="A192" t="s" s="4">
+    <row r="192" ht="20.35" customHeight="1">
+      <c r="A192" t="s" s="13">
         <v>371</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="13">
         <v>372</v>
       </c>
-      <c r="C192" t="s" s="8">
-        <v>10</v>
+      <c r="C192" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6273,67 +6285,67 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.35" customHeight="1">
-      <c r="A193" t="s" s="11">
+    <row r="193" ht="20.7" customHeight="1">
+      <c r="A193" t="s" s="4">
         <v>373</v>
       </c>
-      <c r="B193" t="s" s="11">
+      <c r="B193" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D193" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C193" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.05" customHeight="1">
-      <c r="A194" t="s" s="12">
-        <v>373</v>
-      </c>
-      <c r="B194" t="s" s="12">
+    <row r="194" ht="20.35" customHeight="1">
+      <c r="A194" t="s" s="11">
         <v>375</v>
+      </c>
+      <c r="B194" t="s" s="11">
+        <v>376</v>
       </c>
       <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D194" s="9">
-        <v>0.41025641025641</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.35" customHeight="1">
-      <c r="A195" t="s" s="13">
-        <v>376</v>
-      </c>
-      <c r="B195" t="s" s="13">
+    <row r="195" ht="20.05" customHeight="1">
+      <c r="A195" t="s" s="12">
+        <v>375</v>
+      </c>
+      <c r="B195" t="s" s="12">
         <v>377</v>
       </c>
       <c r="C195" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D195" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D195" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="4">
+    <row r="196" ht="20.35" customHeight="1">
+      <c r="A196" t="s" s="13">
         <v>378</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="13">
         <v>379</v>
       </c>
-      <c r="C196" t="s" s="8">
-        <v>10</v>
+      <c r="C196" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -6342,14 +6354,14 @@
       <c r="H196" s="10"/>
     </row>
     <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="14">
+      <c r="A197" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="B197" t="s" s="14">
+      <c r="B197" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>28</v>
+      <c r="C197" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6358,14 +6370,14 @@
       <c r="H197" s="10"/>
     </row>
     <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="14">
         <v>382</v>
       </c>
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="14">
         <v>383</v>
       </c>
-      <c r="C198" t="s" s="8">
-        <v>25</v>
+      <c r="C198" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6374,14 +6386,14 @@
       <c r="H198" s="10"/>
     </row>
     <row r="199" ht="20.7" customHeight="1">
-      <c r="A199" t="s" s="14">
+      <c r="A199" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="B199" t="s" s="14">
+      <c r="B199" t="s" s="4">
         <v>385</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>71</v>
+      <c r="C199" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6390,14 +6402,14 @@
       <c r="H199" s="10"/>
     </row>
     <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="14">
         <v>386</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="14">
         <v>387</v>
       </c>
-      <c r="C200" t="s" s="8">
-        <v>10</v>
+      <c r="C200" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6407,13 +6419,13 @@
     </row>
     <row r="201" ht="20.7" customHeight="1">
       <c r="A201" t="s" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B201" t="s" s="4">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C201" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6429,7 +6441,7 @@
         <v>389</v>
       </c>
       <c r="C202" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6437,15 +6449,15 @@
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="11">
+    <row r="203" ht="20.7" customHeight="1">
+      <c r="A203" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="B203" t="s" s="11">
+      <c r="B203" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>15</v>
+      <c r="C203" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -6453,15 +6465,15 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="12">
+    <row r="204" ht="20.35" customHeight="1">
+      <c r="A204" t="s" s="11">
         <v>392</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="11">
         <v>393</v>
       </c>
       <c r="C204" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6477,7 +6489,7 @@
         <v>395</v>
       </c>
       <c r="C205" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6493,7 +6505,7 @@
         <v>397</v>
       </c>
       <c r="C206" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6501,15 +6513,15 @@
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.35" customHeight="1">
-      <c r="A207" t="s" s="13">
+    <row r="207" ht="20.05" customHeight="1">
+      <c r="A207" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="B207" t="s" s="13">
+      <c r="B207" t="s" s="12">
         <v>399</v>
       </c>
       <c r="C207" t="s" s="12">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -6517,15 +6529,15 @@
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="4">
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" t="s" s="13">
         <v>400</v>
       </c>
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="13">
         <v>401</v>
       </c>
-      <c r="C208" t="s" s="8">
-        <v>25</v>
+      <c r="C208" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -6533,15 +6545,15 @@
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.35" customHeight="1">
-      <c r="A209" t="s" s="11">
+    <row r="209" ht="20.7" customHeight="1">
+      <c r="A209" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="B209" t="s" s="11">
+      <c r="B209" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>42</v>
+      <c r="C209" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6550,10 +6562,10 @@
       <c r="H209" s="10"/>
     </row>
     <row r="210" ht="20.35" customHeight="1">
-      <c r="A210" t="s" s="13">
+      <c r="A210" t="s" s="11">
         <v>404</v>
       </c>
-      <c r="B210" t="s" s="13">
+      <c r="B210" t="s" s="11">
         <v>405</v>
       </c>
       <c r="C210" t="s" s="12">
@@ -6565,17 +6577,19 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.7" customHeight="1">
-      <c r="A211" t="s" s="4">
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="13">
         <v>406</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="13">
         <v>407</v>
       </c>
-      <c r="C211" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D211" s="9"/>
+      <c r="C211" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D211" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
@@ -6598,14 +6612,14 @@
       <c r="H212" s="10"/>
     </row>
     <row r="213" ht="20.7" customHeight="1">
-      <c r="A213" t="s" s="15">
+      <c r="A213" t="s" s="4">
         <v>410</v>
       </c>
-      <c r="B213" t="s" s="15">
+      <c r="B213" t="s" s="4">
         <v>411</v>
       </c>
       <c r="C213" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -6614,10 +6628,10 @@
       <c r="H213" s="10"/>
     </row>
     <row r="214" ht="20.7" customHeight="1">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="15">
         <v>412</v>
       </c>
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="15">
         <v>413</v>
       </c>
       <c r="C214" t="s" s="8">
@@ -6646,30 +6660,30 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="14">
         <v>416</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="14">
         <v>417</v>
       </c>
-      <c r="C216" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D216" s="9"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.35" customHeight="1">
-      <c r="A217" t="s" s="11">
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="B217" t="s" s="11">
+      <c r="B217" t="s" s="4">
         <v>419</v>
       </c>
-      <c r="C217" t="s" s="12">
-        <v>18</v>
+      <c r="C217" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -6677,15 +6691,15 @@
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.05" customHeight="1">
-      <c r="A218" t="s" s="12">
+    <row r="218" ht="20.7" customHeight="1">
+      <c r="A218" t="s" s="4">
         <v>420</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="4">
         <v>421</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>18</v>
+      <c r="C218" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -6693,15 +6707,15 @@
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.05" customHeight="1">
-      <c r="A219" t="s" s="12">
+    <row r="219" ht="20.35" customHeight="1">
+      <c r="A219" t="s" s="11">
         <v>422</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="11">
         <v>423</v>
       </c>
       <c r="C219" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6717,9 +6731,9 @@
         <v>425</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D220" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
@@ -6733,7 +6747,7 @@
         <v>427</v>
       </c>
       <c r="C221" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6741,31 +6755,31 @@
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.35" customHeight="1">
-      <c r="A222" t="s" s="13">
+    <row r="222" ht="20.05" customHeight="1">
+      <c r="A222" t="s" s="12">
         <v>428</v>
       </c>
-      <c r="B222" t="s" s="13">
+      <c r="B222" t="s" s="12">
         <v>429</v>
       </c>
       <c r="C222" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D222" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D222" s="10"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="4">
+    <row r="223" ht="20.05" customHeight="1">
+      <c r="A223" t="s" s="12">
         <v>430</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>431</v>
       </c>
-      <c r="C223" t="s" s="8">
-        <v>25</v>
+      <c r="C223" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -6773,19 +6787,17 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="14">
+    <row r="224" ht="20.35" customHeight="1">
+      <c r="A224" t="s" s="13">
         <v>432</v>
       </c>
-      <c r="B224" t="s" s="14">
+      <c r="B224" t="s" s="13">
         <v>433</v>
       </c>
       <c r="C224" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D224" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
@@ -6799,7 +6811,7 @@
         <v>435</v>
       </c>
       <c r="C225" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6807,31 +6819,33 @@
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.35" customHeight="1">
-      <c r="A226" t="s" s="11">
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="14">
         <v>436</v>
       </c>
-      <c r="B226" t="s" s="11">
+      <c r="B226" t="s" s="14">
         <v>437</v>
       </c>
       <c r="C226" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D226" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D226" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.05" customHeight="1">
-      <c r="A227" t="s" s="12">
+    <row r="227" ht="20.7" customHeight="1">
+      <c r="A227" t="s" s="4">
         <v>438</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>39</v>
+      <c r="C227" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6840,14 +6854,14 @@
       <c r="H227" s="10"/>
     </row>
     <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="13">
+      <c r="A228" t="s" s="11">
         <v>440</v>
       </c>
-      <c r="B228" t="s" s="13">
+      <c r="B228" t="s" s="11">
         <v>441</v>
       </c>
       <c r="C228" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6855,31 +6869,33 @@
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.7" customHeight="1">
-      <c r="A229" t="s" s="4">
+    <row r="229" ht="20.05" customHeight="1">
+      <c r="A229" t="s" s="12">
         <v>442</v>
       </c>
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>443</v>
       </c>
-      <c r="C229" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D229" s="9"/>
+      <c r="C229" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D229" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.7" customHeight="1">
-      <c r="A230" t="s" s="4">
-        <v>442</v>
-      </c>
-      <c r="B230" t="s" s="4">
-        <v>443</v>
-      </c>
-      <c r="C230" t="s" s="8">
-        <v>25</v>
+    <row r="230" ht="20.35" customHeight="1">
+      <c r="A230" t="s" s="13">
+        <v>444</v>
+      </c>
+      <c r="B230" t="s" s="13">
+        <v>445</v>
+      </c>
+      <c r="C230" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -6889,13 +6905,13 @@
     </row>
     <row r="231" ht="20.7" customHeight="1">
       <c r="A231" t="s" s="4">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B231" t="s" s="4">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C231" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6903,15 +6919,15 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.35" customHeight="1">
-      <c r="A232" t="s" s="11">
+    <row r="232" ht="20.7" customHeight="1">
+      <c r="A232" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="B232" t="s" s="11">
+      <c r="B232" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>39</v>
+      <c r="C232" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -6919,15 +6935,15 @@
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="12">
+    <row r="233" ht="20.7" customHeight="1">
+      <c r="A233" t="s" s="4">
         <v>448</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="4">
         <v>449</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>15</v>
+      <c r="C233" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -6935,15 +6951,15 @@
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="12">
+    <row r="234" ht="20.35" customHeight="1">
+      <c r="A234" t="s" s="11">
         <v>450</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="11">
         <v>451</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -6959,11 +6975,9 @@
         <v>453</v>
       </c>
       <c r="C235" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D235" s="9">
-        <v>0.435897435897436</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
@@ -6977,7 +6991,7 @@
         <v>455</v>
       </c>
       <c r="C236" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -6993,9 +7007,11 @@
         <v>457</v>
       </c>
       <c r="C237" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D237" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D237" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
@@ -7009,7 +7025,7 @@
         <v>459</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -7041,9 +7057,9 @@
         <v>463</v>
       </c>
       <c r="C240" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D240" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
@@ -7057,75 +7073,75 @@
         <v>465</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D241" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.35" customHeight="1">
-      <c r="A242" t="s" s="13">
+    <row r="242" ht="20.05" customHeight="1">
+      <c r="A242" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="B242" t="s" s="13">
+      <c r="B242" t="s" s="12">
         <v>467</v>
       </c>
       <c r="C242" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D242" s="9">
-        <v>0.179487179487179</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D242" s="10"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243" ht="20.7" customHeight="1">
-      <c r="A243" t="s" s="4">
+    <row r="243" ht="20.05" customHeight="1">
+      <c r="A243" t="s" s="12">
         <v>468</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>469</v>
       </c>
-      <c r="C243" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D243" s="9"/>
+      <c r="C243" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D243" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.7" customHeight="1">
-      <c r="A244" t="s" s="4">
+    <row r="244" ht="20.35" customHeight="1">
+      <c r="A244" t="s" s="13">
         <v>470</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="13">
         <v>471</v>
       </c>
-      <c r="C244" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D244" s="9"/>
+      <c r="C244" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D244" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.35" customHeight="1">
-      <c r="A245" t="s" s="11">
+    <row r="245" ht="20.7" customHeight="1">
+      <c r="A245" t="s" s="4">
         <v>472</v>
       </c>
-      <c r="B245" t="s" s="11">
+      <c r="B245" t="s" s="4">
         <v>473</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>71</v>
+      <c r="C245" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -7133,33 +7149,33 @@
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.05" customHeight="1">
-      <c r="A246" t="s" s="12">
+    <row r="246" ht="20.7" customHeight="1">
+      <c r="A246" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D246" s="10"/>
+      <c r="C246" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.05" customHeight="1">
-      <c r="A247" t="s" s="12">
+    <row r="247" ht="20.35" customHeight="1">
+      <c r="A247" t="s" s="11">
         <v>476</v>
       </c>
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="11">
         <v>477</v>
       </c>
       <c r="C247" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D247" s="10"/>
+      <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
@@ -7173,9 +7189,9 @@
         <v>479</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D248" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D248" s="10"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
@@ -7189,9 +7205,9 @@
         <v>481</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D249" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D249" s="10"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
@@ -7221,11 +7237,9 @@
         <v>485</v>
       </c>
       <c r="C251" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D251" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
@@ -7255,9 +7269,11 @@
         <v>489</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D253" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D253" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
@@ -7287,7 +7303,7 @@
         <v>493</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -7303,7 +7319,7 @@
         <v>495</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7311,15 +7327,15 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.35" customHeight="1">
-      <c r="A257" t="s" s="13">
+    <row r="257" ht="20.05" customHeight="1">
+      <c r="A257" t="s" s="12">
         <v>496</v>
       </c>
-      <c r="B257" t="s" s="13">
+      <c r="B257" t="s" s="12">
         <v>497</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7327,15 +7343,15 @@
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.7" customHeight="1">
-      <c r="A258" t="s" s="4">
+    <row r="258" ht="20.05" customHeight="1">
+      <c r="A258" t="s" s="12">
         <v>498</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>499</v>
       </c>
-      <c r="C258" t="s" s="8">
-        <v>10</v>
+      <c r="C258" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7343,15 +7359,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.7" customHeight="1">
-      <c r="A259" t="s" s="4">
-        <v>498</v>
-      </c>
-      <c r="B259" t="s" s="4">
-        <v>499</v>
-      </c>
-      <c r="C259" t="s" s="8">
-        <v>25</v>
+    <row r="259" ht="20.35" customHeight="1">
+      <c r="A259" t="s" s="13">
+        <v>500</v>
+      </c>
+      <c r="B259" t="s" s="13">
+        <v>501</v>
+      </c>
+      <c r="C259" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7359,33 +7375,31 @@
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.35" customHeight="1">
-      <c r="A260" t="s" s="11">
-        <v>500</v>
-      </c>
-      <c r="B260" t="s" s="11">
-        <v>501</v>
-      </c>
-      <c r="C260" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D260" s="9">
-        <v>0.871794871794872</v>
-      </c>
+    <row r="260" ht="20.7" customHeight="1">
+      <c r="A260" t="s" s="4">
+        <v>502</v>
+      </c>
+      <c r="B260" t="s" s="4">
+        <v>503</v>
+      </c>
+      <c r="C260" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.05" customHeight="1">
-      <c r="A261" t="s" s="12">
+    <row r="261" ht="20.7" customHeight="1">
+      <c r="A261" t="s" s="4">
         <v>502</v>
       </c>
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="4">
         <v>503</v>
       </c>
-      <c r="C261" t="s" s="12">
-        <v>15</v>
+      <c r="C261" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7393,17 +7407,19 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.05" customHeight="1">
-      <c r="A262" t="s" s="12">
+    <row r="262" ht="20.35" customHeight="1">
+      <c r="A262" t="s" s="11">
         <v>504</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="11">
         <v>505</v>
       </c>
       <c r="C262" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D262" s="9"/>
+      <c r="D262" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
@@ -7417,7 +7433,7 @@
         <v>507</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -7433,7 +7449,7 @@
         <v>509</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7441,15 +7457,15 @@
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.35" customHeight="1">
-      <c r="A265" t="s" s="13">
+    <row r="265" ht="20.05" customHeight="1">
+      <c r="A265" t="s" s="12">
         <v>510</v>
       </c>
-      <c r="B265" t="s" s="13">
+      <c r="B265" t="s" s="12">
         <v>511</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7457,15 +7473,15 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.7" customHeight="1">
-      <c r="A266" t="s" s="4">
+    <row r="266" ht="20.05" customHeight="1">
+      <c r="A266" t="s" s="12">
         <v>512</v>
       </c>
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>513</v>
       </c>
-      <c r="C266" t="s" s="8">
-        <v>25</v>
+      <c r="C266" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7474,14 +7490,14 @@
       <c r="H266" s="10"/>
     </row>
     <row r="267" ht="20.35" customHeight="1">
-      <c r="A267" t="s" s="11">
+      <c r="A267" t="s" s="13">
         <v>514</v>
       </c>
-      <c r="B267" t="s" s="11">
+      <c r="B267" t="s" s="13">
         <v>515</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7489,15 +7505,15 @@
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.05" customHeight="1">
-      <c r="A268" t="s" s="12">
+    <row r="268" ht="20.7" customHeight="1">
+      <c r="A268" t="s" s="4">
         <v>516</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="4">
         <v>517</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>71</v>
+      <c r="C268" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7505,11 +7521,11 @@
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.05" customHeight="1">
-      <c r="A269" t="s" s="12">
+    <row r="269" ht="20.35" customHeight="1">
+      <c r="A269" t="s" s="11">
         <v>518</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="11">
         <v>519</v>
       </c>
       <c r="C269" t="s" s="12">
@@ -7529,7 +7545,7 @@
         <v>521</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -7545,7 +7561,7 @@
         <v>523</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7561,7 +7577,7 @@
         <v>525</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -7577,7 +7593,7 @@
         <v>527</v>
       </c>
       <c r="C273" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7593,7 +7609,7 @@
         <v>529</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7609,7 +7625,7 @@
         <v>531</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7641,7 +7657,7 @@
         <v>535</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7657,7 +7673,7 @@
         <v>537</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7667,13 +7683,13 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="12">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B279" t="s" s="12">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7683,13 +7699,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B280" t="s" s="12">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7697,33 +7713,31 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.35" customHeight="1">
-      <c r="A281" t="s" s="13">
-        <v>541</v>
-      </c>
-      <c r="B281" t="s" s="13">
+    <row r="281" ht="20.05" customHeight="1">
+      <c r="A281" t="s" s="12">
+        <v>540</v>
+      </c>
+      <c r="B281" t="s" s="12">
         <v>542</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D281" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.7" customHeight="1">
-      <c r="A282" t="s" s="4">
+    <row r="282" ht="20.05" customHeight="1">
+      <c r="A282" t="s" s="12">
         <v>543</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>544</v>
       </c>
-      <c r="C282" t="s" s="8">
-        <v>25</v>
+      <c r="C282" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7731,17 +7745,19 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.7" customHeight="1">
-      <c r="A283" t="s" s="4">
+    <row r="283" ht="20.35" customHeight="1">
+      <c r="A283" t="s" s="13">
         <v>545</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="13">
         <v>546</v>
       </c>
-      <c r="C283" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D283" s="9"/>
+      <c r="C283" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D283" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
@@ -7749,10 +7765,10 @@
     </row>
     <row r="284" ht="20.7" customHeight="1">
       <c r="A284" t="s" s="4">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B284" t="s" s="4">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C284" t="s" s="8">
         <v>25</v>
@@ -7765,10 +7781,10 @@
     </row>
     <row r="285" ht="20.7" customHeight="1">
       <c r="A285" t="s" s="4">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B285" t="s" s="4">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s" s="8">
         <v>10</v>
@@ -7779,15 +7795,15 @@
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.35" customHeight="1">
-      <c r="A286" t="s" s="11">
+    <row r="286" ht="20.7" customHeight="1">
+      <c r="A286" t="s" s="4">
         <v>549</v>
       </c>
-      <c r="B286" t="s" s="11">
+      <c r="B286" t="s" s="4">
         <v>550</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>42</v>
+      <c r="C286" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -7795,33 +7811,31 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.05" customHeight="1">
-      <c r="A287" t="s" s="12">
+    <row r="287" ht="20.7" customHeight="1">
+      <c r="A287" t="s" s="4">
         <v>551</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="4">
         <v>552</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D287" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C287" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.05" customHeight="1">
-      <c r="A288" t="s" s="12">
+    <row r="288" ht="20.35" customHeight="1">
+      <c r="A288" t="s" s="11">
         <v>553</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="11">
         <v>554</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -7839,7 +7853,9 @@
       <c r="C289" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D289" s="9"/>
+      <c r="D289" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
@@ -7861,15 +7877,15 @@
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.35" customHeight="1">
-      <c r="A291" t="s" s="13">
+    <row r="291" ht="20.05" customHeight="1">
+      <c r="A291" t="s" s="12">
         <v>559</v>
       </c>
-      <c r="B291" t="s" s="13">
+      <c r="B291" t="s" s="12">
         <v>560</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -7877,15 +7893,15 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.7" customHeight="1">
-      <c r="A292" t="s" s="4">
+    <row r="292" ht="20.05" customHeight="1">
+      <c r="A292" t="s" s="12">
         <v>561</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>562</v>
       </c>
-      <c r="C292" t="s" s="8">
-        <v>10</v>
+      <c r="C292" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7893,15 +7909,15 @@
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.7" customHeight="1">
-      <c r="A293" t="s" s="4">
-        <v>561</v>
-      </c>
-      <c r="B293" t="s" s="4">
-        <v>562</v>
-      </c>
-      <c r="C293" t="s" s="8">
-        <v>25</v>
+    <row r="293" ht="20.35" customHeight="1">
+      <c r="A293" t="s" s="13">
+        <v>563</v>
+      </c>
+      <c r="B293" t="s" s="13">
+        <v>564</v>
+      </c>
+      <c r="C293" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7911,10 +7927,10 @@
     </row>
     <row r="294" ht="20.7" customHeight="1">
       <c r="A294" t="s" s="4">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B294" t="s" s="4">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C294" t="s" s="8">
         <v>10</v>
@@ -7927,10 +7943,10 @@
     </row>
     <row r="295" ht="20.7" customHeight="1">
       <c r="A295" t="s" s="4">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B295" t="s" s="4">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C295" t="s" s="8">
         <v>25</v>
@@ -7941,33 +7957,31 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.35" customHeight="1">
-      <c r="A296" t="s" s="11">
-        <v>565</v>
-      </c>
-      <c r="B296" t="s" s="11">
-        <v>566</v>
-      </c>
-      <c r="C296" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D296" s="9">
-        <v>0.58974358974359</v>
-      </c>
+    <row r="296" ht="20.7" customHeight="1">
+      <c r="A296" t="s" s="4">
+        <v>567</v>
+      </c>
+      <c r="B296" t="s" s="4">
+        <v>568</v>
+      </c>
+      <c r="C296" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.05" customHeight="1">
-      <c r="A297" t="s" s="12">
+    <row r="297" ht="20.7" customHeight="1">
+      <c r="A297" t="s" s="4">
         <v>567</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="4">
         <v>568</v>
       </c>
-      <c r="C297" t="s" s="12">
-        <v>15</v>
+      <c r="C297" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -7975,17 +7989,19 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.05" customHeight="1">
-      <c r="A298" t="s" s="12">
+    <row r="298" ht="20.35" customHeight="1">
+      <c r="A298" t="s" s="11">
         <v>569</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="11">
         <v>570</v>
       </c>
       <c r="C298" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D298" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D298" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
@@ -8015,7 +8031,7 @@
         <v>574</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -8031,23 +8047,23 @@
         <v>576</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D301" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.35" customHeight="1">
-      <c r="A302" t="s" s="13">
+    <row r="302" ht="20.05" customHeight="1">
+      <c r="A302" t="s" s="12">
         <v>577</v>
       </c>
-      <c r="B302" t="s" s="13">
+      <c r="B302" t="s" s="12">
         <v>578</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
@@ -8055,31 +8071,31 @@
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.7" customHeight="1">
-      <c r="A303" t="s" s="4">
+    <row r="303" ht="20.05" customHeight="1">
+      <c r="A303" t="s" s="12">
         <v>579</v>
       </c>
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>580</v>
       </c>
-      <c r="C303" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D303" s="9"/>
+      <c r="C303" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D303" s="10"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
     <row r="304" ht="20.35" customHeight="1">
-      <c r="A304" t="s" s="11">
+      <c r="A304" t="s" s="13">
         <v>581</v>
       </c>
-      <c r="B304" t="s" s="11">
+      <c r="B304" t="s" s="13">
         <v>582</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
@@ -8087,15 +8103,15 @@
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.05" customHeight="1">
-      <c r="A305" t="s" s="12">
+    <row r="305" ht="20.7" customHeight="1">
+      <c r="A305" t="s" s="4">
         <v>583</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="4">
         <v>584</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>15</v>
+      <c r="C305" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -8103,15 +8119,15 @@
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.05" customHeight="1">
-      <c r="A306" t="s" s="12">
+    <row r="306" ht="20.35" customHeight="1">
+      <c r="A306" t="s" s="11">
         <v>585</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="11">
         <v>586</v>
       </c>
       <c r="C306" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
@@ -8127,7 +8143,7 @@
         <v>588</v>
       </c>
       <c r="C307" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
@@ -8143,7 +8159,7 @@
         <v>590</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
@@ -8175,7 +8191,7 @@
         <v>594</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
@@ -8191,7 +8207,7 @@
         <v>596</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
@@ -8207,7 +8223,7 @@
         <v>598</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -8223,10 +8239,10 @@
         <v>600</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D313" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -8234,9 +8250,15 @@
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
+      <c r="A314" t="s" s="12">
+        <v>601</v>
+      </c>
+      <c r="B314" t="s" s="12">
+        <v>602</v>
+      </c>
+      <c r="C314" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>Surname</t>
   </si>
@@ -493,7 +493,7 @@
     <t>H210292Q</t>
   </si>
   <si>
-    <t>HAISA</t>
+    <t>Haisa</t>
   </si>
   <si>
     <t>H210612W</t>
@@ -781,7 +781,7 @@
     <t>H210434H</t>
   </si>
   <si>
-    <t>MAJAZI</t>
+    <t>Majazi</t>
   </si>
   <si>
     <t>H210483R</t>
@@ -1132,7 +1132,7 @@
     <t>H210303E</t>
   </si>
   <si>
-    <t>MOYANA</t>
+    <t>Moyana</t>
   </si>
   <si>
     <t>H210165Z</t>
@@ -1153,9 +1153,6 @@
     <t>H210592H</t>
   </si>
   <si>
-    <t>MPOFU</t>
-  </si>
-  <si>
     <t>H210097E</t>
   </si>
   <si>
@@ -1183,7 +1180,7 @@
     <t>H210056H</t>
   </si>
   <si>
-    <t>MUDZINGANYAMA</t>
+    <t>Mudzinganyama</t>
   </si>
   <si>
     <t>H210585T</t>
@@ -1237,7 +1234,7 @@
     <t>H210553E</t>
   </si>
   <si>
-    <t>MUMBEMBI</t>
+    <t>Mumbembi</t>
   </si>
   <si>
     <t>H210170T</t>
@@ -1273,7 +1270,7 @@
     <t>H210389F</t>
   </si>
   <si>
-    <t>MUPARUTSA</t>
+    <t>Muparutsa</t>
   </si>
   <si>
     <t>H210425V</t>
@@ -1327,7 +1324,7 @@
     <t>H210523G</t>
   </si>
   <si>
-    <t>MUTARA</t>
+    <t>Mutara</t>
   </si>
   <si>
     <t>H210221N</t>
@@ -1429,13 +1426,13 @@
     <t>H210552H</t>
   </si>
   <si>
-    <t>NGWENYA</t>
+    <t>Ngwenya</t>
   </si>
   <si>
     <t>H210373F</t>
   </si>
   <si>
-    <t>NHAPI</t>
+    <t>Nhapi</t>
   </si>
   <si>
     <t>H210560R</t>
@@ -1666,7 +1663,7 @@
     <t>H210094C</t>
   </si>
   <si>
-    <t>TAKAINDISA</t>
+    <t>Takaindisa</t>
   </si>
   <si>
     <t>H210220J</t>
@@ -1762,7 +1759,7 @@
     <t>H210539A</t>
   </si>
   <si>
-    <t>VUNGANAYI</t>
+    <t>Vunganayi</t>
   </si>
   <si>
     <t>H210276J</t>
@@ -3149,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H394"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3341,7 +3338,9 @@
       <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -4443,7 +4442,9 @@
       <c r="C79" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
@@ -4819,7 +4820,7 @@
         <v>214</v>
       </c>
       <c r="C102" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4828,14 +4829,14 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="C103" t="s" s="8">
-        <v>25</v>
+      <c r="A103" t="s" s="14">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s" s="14">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4844,14 +4845,14 @@
       <c r="H103" s="10"/>
     </row>
     <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="14">
-        <v>215</v>
-      </c>
-      <c r="B104" t="s" s="14">
+      <c r="A104" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>15</v>
+      <c r="C104" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4859,31 +4860,33 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.7" customHeight="1">
-      <c r="A105" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="C105" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D105" s="9"/>
+    <row r="105" ht="20.35" customHeight="1">
+      <c r="A105" t="s" s="11">
+        <v>218</v>
+      </c>
+      <c r="B105" t="s" s="11">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D105" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="B106" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="C106" t="s" s="8">
-        <v>25</v>
+    <row r="106" ht="20.05" customHeight="1">
+      <c r="A106" t="s" s="12">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s" s="12">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -4891,33 +4894,31 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.35" customHeight="1">
-      <c r="A107" t="s" s="11">
-        <v>218</v>
-      </c>
-      <c r="B107" t="s" s="11">
-        <v>219</v>
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" t="s" s="12">
+        <v>222</v>
+      </c>
+      <c r="B107" t="s" s="12">
+        <v>223</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D107" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="12">
-        <v>220</v>
-      </c>
-      <c r="B108" t="s" s="12">
-        <v>221</v>
+    <row r="108" ht="20.35" customHeight="1">
+      <c r="A108" t="s" s="13">
+        <v>224</v>
+      </c>
+      <c r="B108" t="s" s="13">
+        <v>225</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -4925,15 +4926,15 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="12">
-        <v>222</v>
-      </c>
-      <c r="B109" t="s" s="12">
-        <v>223</v>
-      </c>
-      <c r="C109" t="s" s="12">
-        <v>18</v>
+    <row r="109" ht="20.7" customHeight="1">
+      <c r="A109" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="B109" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -4942,14 +4943,14 @@
       <c r="H109" s="10"/>
     </row>
     <row r="110" ht="20.35" customHeight="1">
-      <c r="A110" t="s" s="13">
-        <v>224</v>
-      </c>
-      <c r="B110" t="s" s="13">
-        <v>225</v>
+      <c r="A110" t="s" s="11">
+        <v>228</v>
+      </c>
+      <c r="B110" t="s" s="11">
+        <v>229</v>
       </c>
       <c r="C110" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4957,15 +4958,15 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.7" customHeight="1">
-      <c r="A111" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="B111" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="C111" t="s" s="8">
-        <v>25</v>
+    <row r="111" ht="20.05" customHeight="1">
+      <c r="A111" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="B111" t="s" s="12">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4973,12 +4974,12 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.35" customHeight="1">
-      <c r="A112" t="s" s="11">
-        <v>228</v>
-      </c>
-      <c r="B112" t="s" s="11">
-        <v>229</v>
+    <row r="112" ht="20.05" customHeight="1">
+      <c r="A112" t="s" s="12">
+        <v>232</v>
+      </c>
+      <c r="B112" t="s" s="12">
+        <v>233</v>
       </c>
       <c r="C112" t="s" s="12">
         <v>42</v>
@@ -4989,15 +4990,15 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="12">
-        <v>230</v>
-      </c>
-      <c r="B113" t="s" s="12">
-        <v>231</v>
+    <row r="113" ht="20.35" customHeight="1">
+      <c r="A113" t="s" s="13">
+        <v>234</v>
+      </c>
+      <c r="B113" t="s" s="13">
+        <v>235</v>
       </c>
       <c r="C113" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5005,15 +5006,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="12">
-        <v>232</v>
-      </c>
-      <c r="B114" t="s" s="12">
-        <v>233</v>
-      </c>
-      <c r="C114" t="s" s="12">
-        <v>42</v>
+    <row r="114" ht="20.7" customHeight="1">
+      <c r="A114" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="B114" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5021,15 +5022,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.35" customHeight="1">
-      <c r="A115" t="s" s="13">
-        <v>234</v>
-      </c>
-      <c r="B115" t="s" s="13">
-        <v>235</v>
+    <row r="115" ht="20.7" customHeight="1">
+      <c r="A115" t="s" s="14">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s" s="14">
+        <v>239</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5039,13 +5040,13 @@
     </row>
     <row r="116" ht="20.7" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5053,15 +5054,15 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="B117" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="C117" t="s" s="8">
-        <v>25</v>
+    <row r="117" ht="20.35" customHeight="1">
+      <c r="A117" t="s" s="11">
+        <v>242</v>
+      </c>
+      <c r="B117" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5069,12 +5070,12 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.7" customHeight="1">
-      <c r="A118" t="s" s="14">
-        <v>238</v>
-      </c>
-      <c r="B118" t="s" s="14">
-        <v>239</v>
+    <row r="118" ht="20.35" customHeight="1">
+      <c r="A118" t="s" s="13">
+        <v>244</v>
+      </c>
+      <c r="B118" t="s" s="13">
+        <v>245</v>
       </c>
       <c r="C118" t="s" s="12">
         <v>71</v>
@@ -5087,10 +5088,10 @@
     </row>
     <row r="119" ht="20.7" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s" s="8">
         <v>25</v>
@@ -5103,13 +5104,13 @@
     </row>
     <row r="120" ht="20.35" customHeight="1">
       <c r="A120" t="s" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B120" t="s" s="11">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5119,15 +5120,15 @@
     </row>
     <row r="121" ht="20.35" customHeight="1">
       <c r="A121" t="s" s="13">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s" s="13">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D121" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D121" s="10"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
@@ -5135,10 +5136,10 @@
     </row>
     <row r="122" ht="20.7" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C122" t="s" s="8">
         <v>10</v>
@@ -5150,30 +5151,30 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="4">
-        <v>246</v>
-      </c>
-      <c r="B123" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="C123" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D123" s="9"/>
+      <c r="A123" t="s" s="14">
+        <v>254</v>
+      </c>
+      <c r="B123" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="C123" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="D123" s="10"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.35" customHeight="1">
-      <c r="A124" t="s" s="11">
-        <v>248</v>
-      </c>
-      <c r="B124" t="s" s="11">
-        <v>249</v>
-      </c>
-      <c r="C124" t="s" s="12">
-        <v>42</v>
+    <row r="124" ht="20.7" customHeight="1">
+      <c r="A124" t="s" s="4">
+        <v>256</v>
+      </c>
+      <c r="B124" t="s" s="4">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5182,62 +5183,66 @@
       <c r="H124" s="10"/>
     </row>
     <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="13">
-        <v>250</v>
-      </c>
-      <c r="B125" t="s" s="13">
-        <v>251</v>
+      <c r="A125" t="s" s="11">
+        <v>258</v>
+      </c>
+      <c r="B125" t="s" s="11">
+        <v>259</v>
       </c>
       <c r="C125" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D125" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D125" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="B126" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="C126" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D126" s="9"/>
+    <row r="126" ht="20.35" customHeight="1">
+      <c r="A126" t="s" s="13">
+        <v>260</v>
+      </c>
+      <c r="B126" t="s" s="13">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D126" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="14">
-        <v>254</v>
-      </c>
-      <c r="B127" t="s" s="14">
-        <v>255</v>
-      </c>
-      <c r="C127" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D127" s="10"/>
+      <c r="A127" t="s" s="4">
+        <v>262</v>
+      </c>
+      <c r="B127" t="s" s="4">
+        <v>263</v>
+      </c>
+      <c r="C127" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
-        <v>256</v>
-      </c>
-      <c r="B128" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="C128" t="s" s="8">
-        <v>10</v>
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="11">
+        <v>264</v>
+      </c>
+      <c r="B128" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C128" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5245,51 +5250,47 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="11">
-        <v>258</v>
-      </c>
-      <c r="B129" t="s" s="11">
-        <v>259</v>
+    <row r="129" ht="20.05" customHeight="1">
+      <c r="A129" t="s" s="12">
+        <v>266</v>
+      </c>
+      <c r="B129" t="s" s="12">
+        <v>267</v>
       </c>
       <c r="C129" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D129" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D129" s="10"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.35" customHeight="1">
-      <c r="A130" t="s" s="13">
-        <v>260</v>
-      </c>
-      <c r="B130" t="s" s="13">
-        <v>261</v>
+    <row r="130" ht="20.05" customHeight="1">
+      <c r="A130" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="B130" t="s" s="12">
+        <v>269</v>
       </c>
       <c r="C130" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D130" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.7" customHeight="1">
-      <c r="A131" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="B131" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C131" t="s" s="8">
-        <v>10</v>
+    <row r="131" ht="20.05" customHeight="1">
+      <c r="A131" t="s" s="12">
+        <v>270</v>
+      </c>
+      <c r="B131" t="s" s="12">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5297,15 +5298,15 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.7" customHeight="1">
-      <c r="A132" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="B132" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C132" t="s" s="8">
-        <v>25</v>
+    <row r="132" ht="20.05" customHeight="1">
+      <c r="A132" t="s" s="12">
+        <v>272</v>
+      </c>
+      <c r="B132" t="s" s="12">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5313,15 +5314,15 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.35" customHeight="1">
-      <c r="A133" t="s" s="11">
-        <v>264</v>
-      </c>
-      <c r="B133" t="s" s="11">
-        <v>265</v>
+    <row r="133" ht="20.05" customHeight="1">
+      <c r="A133" t="s" s="12">
+        <v>274</v>
+      </c>
+      <c r="B133" t="s" s="12">
+        <v>275</v>
       </c>
       <c r="C133" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5331,15 +5332,15 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="12">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s" s="12">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
@@ -5347,13 +5348,13 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="12">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B135" t="s" s="12">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5363,13 +5364,13 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="12">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s" s="12">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5379,29 +5380,31 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="12">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B137" t="s" s="12">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D137" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D137" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="12">
-        <v>274</v>
-      </c>
-      <c r="B138" t="s" s="12">
-        <v>275</v>
+    <row r="138" ht="20.35" customHeight="1">
+      <c r="A138" t="s" s="13">
+        <v>283</v>
+      </c>
+      <c r="B138" t="s" s="13">
+        <v>284</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5409,15 +5412,15 @@
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="12">
-        <v>274</v>
-      </c>
-      <c r="B139" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="C139" t="s" s="12">
-        <v>42</v>
+    <row r="139" ht="20.7" customHeight="1">
+      <c r="A139" t="s" s="4">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s" s="4">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5425,17 +5428,17 @@
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" t="s" s="12">
-        <v>277</v>
-      </c>
-      <c r="B140" t="s" s="12">
-        <v>278</v>
+    <row r="140" ht="20.35" customHeight="1">
+      <c r="A140" t="s" s="11">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s" s="11">
+        <v>288</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D140" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D140" s="10"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
@@ -5443,15 +5446,17 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="12">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s" s="12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D141" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D141" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
@@ -5459,31 +5464,29 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="12">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s" s="12">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D142" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.35" customHeight="1">
-      <c r="A143" t="s" s="13">
-        <v>283</v>
-      </c>
-      <c r="B143" t="s" s="13">
-        <v>284</v>
+    <row r="143" ht="20.05" customHeight="1">
+      <c r="A143" t="s" s="12">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s" s="12">
+        <v>294</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -5491,15 +5494,15 @@
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.7" customHeight="1">
-      <c r="A144" t="s" s="4">
-        <v>285</v>
-      </c>
-      <c r="B144" t="s" s="4">
-        <v>286</v>
-      </c>
-      <c r="C144" t="s" s="8">
-        <v>25</v>
+    <row r="144" ht="20.05" customHeight="1">
+      <c r="A144" t="s" s="12">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s" s="12">
+        <v>296</v>
+      </c>
+      <c r="C144" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -5507,15 +5510,15 @@
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.35" customHeight="1">
-      <c r="A145" t="s" s="11">
-        <v>287</v>
-      </c>
-      <c r="B145" t="s" s="11">
-        <v>288</v>
+    <row r="145" ht="20.05" customHeight="1">
+      <c r="A145" t="s" s="12">
+        <v>295</v>
+      </c>
+      <c r="B145" t="s" s="12">
+        <v>297</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="9"/>
@@ -5523,33 +5526,31 @@
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="12">
-        <v>289</v>
-      </c>
-      <c r="B146" t="s" s="12">
-        <v>290</v>
+    <row r="146" ht="20.35" customHeight="1">
+      <c r="A146" t="s" s="13">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s" s="13">
+        <v>298</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D146" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="12">
-        <v>291</v>
-      </c>
-      <c r="B147" t="s" s="12">
-        <v>292</v>
-      </c>
-      <c r="C147" t="s" s="12">
-        <v>42</v>
+    <row r="147" ht="20.7" customHeight="1">
+      <c r="A147" t="s" s="4">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s" s="4">
+        <v>299</v>
+      </c>
+      <c r="C147" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5557,15 +5558,15 @@
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.05" customHeight="1">
-      <c r="A148" t="s" s="12">
-        <v>293</v>
-      </c>
-      <c r="B148" t="s" s="12">
-        <v>294</v>
+    <row r="148" ht="20.35" customHeight="1">
+      <c r="A148" t="s" s="11">
+        <v>300</v>
+      </c>
+      <c r="B148" t="s" s="11">
+        <v>301</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -5575,13 +5576,13 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="12">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s" s="12">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -5591,29 +5592,29 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="12">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s" s="12">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D150" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.35" customHeight="1">
-      <c r="A151" t="s" s="13">
-        <v>295</v>
-      </c>
-      <c r="B151" t="s" s="13">
-        <v>298</v>
+    <row r="151" ht="20.05" customHeight="1">
+      <c r="A151" t="s" s="12">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s" s="12">
+        <v>307</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -5621,28 +5622,28 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="B152" t="s" s="4">
-        <v>299</v>
-      </c>
-      <c r="C152" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D152" s="9"/>
+    <row r="152" ht="20.05" customHeight="1">
+      <c r="A152" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="B152" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="C152" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D152" s="10"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.35" customHeight="1">
-      <c r="A153" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="B153" t="s" s="11">
-        <v>301</v>
+    <row r="153" ht="20.05" customHeight="1">
+      <c r="A153" t="s" s="12">
+        <v>310</v>
+      </c>
+      <c r="B153" t="s" s="12">
+        <v>311</v>
       </c>
       <c r="C153" t="s" s="12">
         <v>42</v>
@@ -5655,13 +5656,13 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="12">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B154" t="s" s="12">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -5671,13 +5672,13 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="12">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s" s="12">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -5687,13 +5688,13 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="12">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s" s="12">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -5703,29 +5704,29 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="12">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s" s="12">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D157" s="10"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" ht="20.05" customHeight="1">
-      <c r="A158" t="s" s="12">
-        <v>310</v>
-      </c>
-      <c r="B158" t="s" s="12">
-        <v>311</v>
+    <row r="158" ht="20.35" customHeight="1">
+      <c r="A158" t="s" s="13">
+        <v>320</v>
+      </c>
+      <c r="B158" t="s" s="13">
+        <v>321</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -5733,15 +5734,15 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" ht="20.05" customHeight="1">
-      <c r="A159" t="s" s="12">
-        <v>312</v>
-      </c>
-      <c r="B159" t="s" s="12">
-        <v>313</v>
-      </c>
-      <c r="C159" t="s" s="12">
-        <v>39</v>
+    <row r="159" ht="20.7" customHeight="1">
+      <c r="A159" t="s" s="4">
+        <v>322</v>
+      </c>
+      <c r="B159" t="s" s="4">
+        <v>323</v>
+      </c>
+      <c r="C159" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -5749,15 +5750,15 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" ht="20.05" customHeight="1">
-      <c r="A160" t="s" s="12">
-        <v>314</v>
-      </c>
-      <c r="B160" t="s" s="12">
-        <v>315</v>
+    <row r="160" ht="20.35" customHeight="1">
+      <c r="A160" t="s" s="11">
+        <v>324</v>
+      </c>
+      <c r="B160" t="s" s="11">
+        <v>325</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5767,15 +5768,15 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="12">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B161" t="s" s="12">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" s="9"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
@@ -5783,29 +5784,31 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="12">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B162" t="s" s="12">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D162" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D162" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.35" customHeight="1">
-      <c r="A163" t="s" s="13">
-        <v>320</v>
-      </c>
-      <c r="B163" t="s" s="13">
-        <v>321</v>
+    <row r="163" ht="20.05" customHeight="1">
+      <c r="A163" t="s" s="12">
+        <v>330</v>
+      </c>
+      <c r="B163" t="s" s="12">
+        <v>331</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5813,49 +5816,51 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.7" customHeight="1">
-      <c r="A164" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="B164" t="s" s="4">
-        <v>323</v>
-      </c>
-      <c r="C164" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D164" s="9"/>
+    <row r="164" ht="20.05" customHeight="1">
+      <c r="A164" t="s" s="12">
+        <v>332</v>
+      </c>
+      <c r="B164" t="s" s="12">
+        <v>333</v>
+      </c>
+      <c r="C164" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D164" s="10"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.7" customHeight="1">
-      <c r="A165" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="B165" t="s" s="4">
-        <v>323</v>
-      </c>
-      <c r="C165" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D165" s="9"/>
+    <row r="165" ht="20.05" customHeight="1">
+      <c r="A165" t="s" s="12">
+        <v>334</v>
+      </c>
+      <c r="B165" t="s" s="12">
+        <v>335</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.35" customHeight="1">
-      <c r="A166" t="s" s="11">
-        <v>324</v>
-      </c>
-      <c r="B166" t="s" s="11">
-        <v>325</v>
+    <row r="166" ht="20.05" customHeight="1">
+      <c r="A166" t="s" s="12">
+        <v>336</v>
+      </c>
+      <c r="B166" t="s" s="12">
+        <v>337</v>
       </c>
       <c r="C166" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D166" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D166" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -5863,15 +5868,15 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="12">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B167" t="s" s="12">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" s="10"/>
+      <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -5879,31 +5884,29 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="12">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B168" t="s" s="12">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D168" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" ht="20.05" customHeight="1">
-      <c r="A169" t="s" s="12">
-        <v>330</v>
-      </c>
-      <c r="B169" t="s" s="12">
-        <v>331</v>
+    <row r="169" ht="20.35" customHeight="1">
+      <c r="A169" t="s" s="13">
+        <v>342</v>
+      </c>
+      <c r="B169" t="s" s="13">
+        <v>343</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -5911,33 +5914,33 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.05" customHeight="1">
-      <c r="A170" t="s" s="12">
-        <v>332</v>
-      </c>
-      <c r="B170" t="s" s="12">
-        <v>333</v>
-      </c>
-      <c r="C170" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D170" s="10"/>
+    <row r="170" ht="20.7" customHeight="1">
+      <c r="A170" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="B170" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="C170" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.05" customHeight="1">
-      <c r="A171" t="s" s="12">
-        <v>334</v>
-      </c>
-      <c r="B171" t="s" s="12">
-        <v>335</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="9">
-        <v>0.512820512820513</v>
-      </c>
+    <row r="171" ht="20.35" customHeight="1">
+      <c r="A171" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s" s="11">
+        <v>347</v>
+      </c>
+      <c r="C171" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -5945,17 +5948,15 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="12">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B172" t="s" s="12">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D172" s="9">
-        <v>0.282051282051282</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
@@ -5963,13 +5964,13 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="12">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s" s="12">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -5979,13 +5980,13 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="12">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B174" t="s" s="12">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -5993,15 +5994,15 @@
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.35" customHeight="1">
-      <c r="A175" t="s" s="13">
-        <v>342</v>
-      </c>
-      <c r="B175" t="s" s="13">
-        <v>343</v>
+    <row r="175" ht="20.05" customHeight="1">
+      <c r="A175" t="s" s="12">
+        <v>354</v>
+      </c>
+      <c r="B175" t="s" s="12">
+        <v>355</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -6009,31 +6010,33 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.7" customHeight="1">
-      <c r="A176" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="B176" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="C176" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D176" s="9"/>
+    <row r="176" ht="20.05" customHeight="1">
+      <c r="A176" t="s" s="12">
+        <v>356</v>
+      </c>
+      <c r="B176" t="s" s="12">
+        <v>357</v>
+      </c>
+      <c r="C176" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D176" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.35" customHeight="1">
-      <c r="A177" t="s" s="11">
-        <v>346</v>
-      </c>
-      <c r="B177" t="s" s="11">
-        <v>347</v>
+    <row r="177" ht="20.05" customHeight="1">
+      <c r="A177" t="s" s="12">
+        <v>358</v>
+      </c>
+      <c r="B177" t="s" s="12">
+        <v>359</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -6043,13 +6046,13 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="12">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B178" t="s" s="12">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6057,31 +6060,33 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.05" customHeight="1">
-      <c r="A179" t="s" s="12">
-        <v>350</v>
-      </c>
-      <c r="B179" t="s" s="12">
-        <v>351</v>
+    <row r="179" ht="20.35" customHeight="1">
+      <c r="A179" t="s" s="13">
+        <v>360</v>
+      </c>
+      <c r="B179" t="s" s="13">
+        <v>362</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D179" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D179" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" ht="20.05" customHeight="1">
-      <c r="A180" t="s" s="12">
-        <v>352</v>
-      </c>
-      <c r="B180" t="s" s="12">
-        <v>353</v>
-      </c>
-      <c r="C180" t="s" s="12">
-        <v>39</v>
+    <row r="180" ht="20.7" customHeight="1">
+      <c r="A180" t="s" s="4">
+        <v>363</v>
+      </c>
+      <c r="B180" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="C180" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -6089,15 +6094,15 @@
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" ht="20.05" customHeight="1">
-      <c r="A181" t="s" s="12">
-        <v>354</v>
-      </c>
-      <c r="B181" t="s" s="12">
-        <v>355</v>
+    <row r="181" ht="20.7" customHeight="1">
+      <c r="A181" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="B181" t="s" s="14">
+        <v>366</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -6105,33 +6110,31 @@
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" ht="20.05" customHeight="1">
-      <c r="A182" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="B182" t="s" s="12">
-        <v>357</v>
-      </c>
-      <c r="C182" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D182" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+    <row r="182" ht="20.7" customHeight="1">
+      <c r="A182" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="B182" t="s" s="4">
+        <v>368</v>
+      </c>
+      <c r="C182" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.05" customHeight="1">
-      <c r="A183" t="s" s="12">
-        <v>358</v>
-      </c>
-      <c r="B183" t="s" s="12">
-        <v>359</v>
+    <row r="183" ht="20.35" customHeight="1">
+      <c r="A183" t="s" s="11">
+        <v>369</v>
+      </c>
+      <c r="B183" t="s" s="11">
+        <v>370</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6139,15 +6142,15 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.05" customHeight="1">
-      <c r="A184" t="s" s="12">
-        <v>360</v>
-      </c>
-      <c r="B184" t="s" s="12">
-        <v>361</v>
+    <row r="184" ht="20.35" customHeight="1">
+      <c r="A184" t="s" s="13">
+        <v>371</v>
+      </c>
+      <c r="B184" t="s" s="13">
+        <v>372</v>
       </c>
       <c r="C184" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -6155,65 +6158,67 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" t="s" s="13">
-        <v>360</v>
-      </c>
-      <c r="B185" t="s" s="13">
-        <v>362</v>
-      </c>
-      <c r="C185" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D185" s="9">
-        <v>0.717948717948718</v>
-      </c>
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="4">
+        <v>373</v>
+      </c>
+      <c r="B185" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="15">
-        <v>363</v>
-      </c>
-      <c r="B186" t="s" s="15">
-        <v>364</v>
-      </c>
-      <c r="C186" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D186" s="9"/>
+    <row r="186" ht="20.35" customHeight="1">
+      <c r="A186" t="s" s="11">
+        <v>375</v>
+      </c>
+      <c r="B186" t="s" s="11">
+        <v>376</v>
+      </c>
+      <c r="C186" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D186" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.7" customHeight="1">
-      <c r="A187" t="s" s="4">
-        <v>363</v>
-      </c>
-      <c r="B187" t="s" s="4">
-        <v>364</v>
-      </c>
-      <c r="C187" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D187" s="9"/>
+    <row r="187" ht="20.05" customHeight="1">
+      <c r="A187" t="s" s="12">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s" s="12">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D187" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.7" customHeight="1">
-      <c r="A188" t="s" s="14">
-        <v>365</v>
-      </c>
-      <c r="B188" t="s" s="14">
-        <v>366</v>
+    <row r="188" ht="20.35" customHeight="1">
+      <c r="A188" t="s" s="13">
+        <v>378</v>
+      </c>
+      <c r="B188" t="s" s="13">
+        <v>379</v>
       </c>
       <c r="C188" t="s" s="12">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -6223,10 +6228,10 @@
     </row>
     <row r="189" ht="20.7" customHeight="1">
       <c r="A189" t="s" s="4">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s" s="4">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s" s="8">
         <v>10</v>
@@ -6238,14 +6243,14 @@
       <c r="H189" s="10"/>
     </row>
     <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="4">
-        <v>367</v>
-      </c>
-      <c r="B190" t="s" s="4">
-        <v>368</v>
-      </c>
-      <c r="C190" t="s" s="8">
-        <v>25</v>
+      <c r="A190" t="s" s="14">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s" s="14">
+        <v>382</v>
+      </c>
+      <c r="C190" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6253,15 +6258,15 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.35" customHeight="1">
-      <c r="A191" t="s" s="11">
-        <v>369</v>
-      </c>
-      <c r="B191" t="s" s="11">
-        <v>370</v>
-      </c>
-      <c r="C191" t="s" s="12">
-        <v>71</v>
+    <row r="191" ht="20.7" customHeight="1">
+      <c r="A191" t="s" s="4">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="C191" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6269,15 +6274,15 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.35" customHeight="1">
-      <c r="A192" t="s" s="13">
-        <v>371</v>
-      </c>
-      <c r="B192" t="s" s="13">
-        <v>372</v>
+    <row r="192" ht="20.7" customHeight="1">
+      <c r="A192" t="s" s="14">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s" s="14">
+        <v>386</v>
       </c>
       <c r="C192" t="s" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6287,13 +6292,13 @@
     </row>
     <row r="193" ht="20.7" customHeight="1">
       <c r="A193" t="s" s="4">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B193" t="s" s="4">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C193" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -6301,51 +6306,47 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="11">
-        <v>375</v>
-      </c>
-      <c r="B194" t="s" s="11">
-        <v>376</v>
-      </c>
-      <c r="C194" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D194" s="9">
-        <v>0.58974358974359</v>
-      </c>
+    <row r="194" ht="20.7" customHeight="1">
+      <c r="A194" t="s" s="4">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s" s="4">
+        <v>390</v>
+      </c>
+      <c r="C194" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.05" customHeight="1">
-      <c r="A195" t="s" s="12">
-        <v>375</v>
-      </c>
-      <c r="B195" t="s" s="12">
-        <v>377</v>
+    <row r="195" ht="20.35" customHeight="1">
+      <c r="A195" t="s" s="11">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s" s="11">
+        <v>392</v>
       </c>
       <c r="C195" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D195" s="9">
-        <v>0.41025641025641</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="13">
-        <v>378</v>
-      </c>
-      <c r="B196" t="s" s="13">
-        <v>379</v>
+    <row r="196" ht="20.05" customHeight="1">
+      <c r="A196" t="s" s="12">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s" s="12">
+        <v>394</v>
       </c>
       <c r="C196" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -6353,15 +6354,15 @@
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="B197" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="C197" t="s" s="8">
-        <v>10</v>
+    <row r="197" ht="20.05" customHeight="1">
+      <c r="A197" t="s" s="12">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s" s="12">
+        <v>396</v>
+      </c>
+      <c r="C197" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6369,15 +6370,15 @@
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="14">
-        <v>382</v>
-      </c>
-      <c r="B198" t="s" s="14">
-        <v>383</v>
+    <row r="198" ht="20.05" customHeight="1">
+      <c r="A198" t="s" s="12">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s" s="12">
+        <v>398</v>
       </c>
       <c r="C198" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6385,15 +6386,15 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.7" customHeight="1">
-      <c r="A199" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="B199" t="s" s="4">
-        <v>385</v>
-      </c>
-      <c r="C199" t="s" s="8">
-        <v>25</v>
+    <row r="199" ht="20.35" customHeight="1">
+      <c r="A199" t="s" s="13">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s" s="13">
+        <v>400</v>
+      </c>
+      <c r="C199" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6402,14 +6403,14 @@
       <c r="H199" s="10"/>
     </row>
     <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="14">
-        <v>386</v>
-      </c>
-      <c r="B200" t="s" s="14">
-        <v>387</v>
-      </c>
-      <c r="C200" t="s" s="12">
-        <v>71</v>
+      <c r="A200" t="s" s="4">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="C200" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6417,15 +6418,15 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.7" customHeight="1">
-      <c r="A201" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="B201" t="s" s="4">
-        <v>389</v>
-      </c>
-      <c r="C201" t="s" s="8">
-        <v>10</v>
+    <row r="201" ht="20.35" customHeight="1">
+      <c r="A201" t="s" s="11">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s" s="11">
+        <v>404</v>
+      </c>
+      <c r="C201" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6433,17 +6434,19 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="B202" t="s" s="4">
-        <v>389</v>
-      </c>
-      <c r="C202" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D202" s="9"/>
+    <row r="202" ht="20.35" customHeight="1">
+      <c r="A202" t="s" s="13">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s" s="13">
+        <v>406</v>
+      </c>
+      <c r="C202" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D202" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
@@ -6451,10 +6454,10 @@
     </row>
     <row r="203" ht="20.7" customHeight="1">
       <c r="A203" t="s" s="4">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B203" t="s" s="4">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C203" t="s" s="8">
         <v>10</v>
@@ -6465,15 +6468,15 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.35" customHeight="1">
-      <c r="A204" t="s" s="11">
-        <v>392</v>
-      </c>
-      <c r="B204" t="s" s="11">
-        <v>393</v>
-      </c>
-      <c r="C204" t="s" s="12">
-        <v>15</v>
+    <row r="204" ht="20.7" customHeight="1">
+      <c r="A204" t="s" s="4">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s" s="4">
+        <v>410</v>
+      </c>
+      <c r="C204" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6481,15 +6484,15 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.05" customHeight="1">
-      <c r="A205" t="s" s="12">
-        <v>394</v>
-      </c>
-      <c r="B205" t="s" s="12">
-        <v>395</v>
-      </c>
-      <c r="C205" t="s" s="12">
-        <v>39</v>
+    <row r="205" ht="20.7" customHeight="1">
+      <c r="A205" t="s" s="15">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s" s="15">
+        <v>412</v>
+      </c>
+      <c r="C205" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6497,15 +6500,15 @@
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.05" customHeight="1">
-      <c r="A206" t="s" s="12">
-        <v>396</v>
-      </c>
-      <c r="B206" t="s" s="12">
-        <v>397</v>
-      </c>
-      <c r="C206" t="s" s="12">
-        <v>42</v>
+    <row r="206" ht="20.7" customHeight="1">
+      <c r="A206" t="s" s="4">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="C206" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6513,31 +6516,31 @@
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.05" customHeight="1">
-      <c r="A207" t="s" s="12">
-        <v>398</v>
-      </c>
-      <c r="B207" t="s" s="12">
-        <v>399</v>
-      </c>
-      <c r="C207" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D207" s="9"/>
+    <row r="207" ht="20.7" customHeight="1">
+      <c r="A207" t="s" s="14">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s" s="14">
+        <v>416</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.35" customHeight="1">
-      <c r="A208" t="s" s="13">
-        <v>400</v>
-      </c>
-      <c r="B208" t="s" s="13">
-        <v>401</v>
-      </c>
-      <c r="C208" t="s" s="12">
-        <v>39</v>
+    <row r="208" ht="20.7" customHeight="1">
+      <c r="A208" t="s" s="4">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s" s="4">
+        <v>418</v>
+      </c>
+      <c r="C208" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -6547,13 +6550,13 @@
     </row>
     <row r="209" ht="20.7" customHeight="1">
       <c r="A209" t="s" s="4">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B209" t="s" s="4">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C209" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6563,13 +6566,13 @@
     </row>
     <row r="210" ht="20.35" customHeight="1">
       <c r="A210" t="s" s="11">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B210" t="s" s="11">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6577,33 +6580,31 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" t="s" s="13">
-        <v>406</v>
-      </c>
-      <c r="B211" t="s" s="13">
-        <v>407</v>
+    <row r="211" ht="20.05" customHeight="1">
+      <c r="A211" t="s" s="12">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s" s="12">
+        <v>424</v>
       </c>
       <c r="C211" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D211" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.7" customHeight="1">
-      <c r="A212" t="s" s="4">
-        <v>408</v>
-      </c>
-      <c r="B212" t="s" s="4">
-        <v>409</v>
-      </c>
-      <c r="C212" t="s" s="8">
-        <v>10</v>
+    <row r="212" ht="20.05" customHeight="1">
+      <c r="A212" t="s" s="12">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s" s="12">
+        <v>426</v>
+      </c>
+      <c r="C212" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6611,31 +6612,31 @@
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.7" customHeight="1">
-      <c r="A213" t="s" s="4">
-        <v>410</v>
-      </c>
-      <c r="B213" t="s" s="4">
-        <v>411</v>
-      </c>
-      <c r="C213" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D213" s="9"/>
+    <row r="213" ht="20.05" customHeight="1">
+      <c r="A213" t="s" s="12">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s" s="12">
+        <v>428</v>
+      </c>
+      <c r="C213" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.7" customHeight="1">
-      <c r="A214" t="s" s="15">
-        <v>412</v>
-      </c>
-      <c r="B214" t="s" s="15">
-        <v>413</v>
-      </c>
-      <c r="C214" t="s" s="8">
-        <v>25</v>
+    <row r="214" ht="20.05" customHeight="1">
+      <c r="A214" t="s" s="12">
+        <v>429</v>
+      </c>
+      <c r="B214" t="s" s="12">
+        <v>430</v>
+      </c>
+      <c r="C214" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -6643,15 +6644,15 @@
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.7" customHeight="1">
-      <c r="A215" t="s" s="4">
-        <v>414</v>
-      </c>
-      <c r="B215" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="C215" t="s" s="8">
-        <v>25</v>
+    <row r="215" ht="20.35" customHeight="1">
+      <c r="A215" t="s" s="13">
+        <v>431</v>
+      </c>
+      <c r="B215" t="s" s="13">
+        <v>432</v>
+      </c>
+      <c r="C215" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6660,32 +6661,34 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="14">
-        <v>416</v>
-      </c>
-      <c r="B216" t="s" s="14">
-        <v>417</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="A216" t="s" s="4">
+        <v>433</v>
+      </c>
+      <c r="B216" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="C216" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
     <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="B217" t="s" s="4">
-        <v>419</v>
-      </c>
-      <c r="C217" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D217" s="9"/>
+      <c r="A217" t="s" s="14">
+        <v>435</v>
+      </c>
+      <c r="B217" t="s" s="14">
+        <v>436</v>
+      </c>
+      <c r="C217" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D217" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
@@ -6693,10 +6696,10 @@
     </row>
     <row r="218" ht="20.7" customHeight="1">
       <c r="A218" t="s" s="4">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B218" t="s" s="4">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C218" t="s" s="8">
         <v>10</v>
@@ -6709,13 +6712,13 @@
     </row>
     <row r="219" ht="20.35" customHeight="1">
       <c r="A219" t="s" s="11">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B219" t="s" s="11">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C219" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6725,29 +6728,31 @@
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="12">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B220" t="s" s="12">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D220" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D220" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.05" customHeight="1">
-      <c r="A221" t="s" s="12">
-        <v>426</v>
-      </c>
-      <c r="B221" t="s" s="12">
-        <v>427</v>
+    <row r="221" ht="20.35" customHeight="1">
+      <c r="A221" t="s" s="13">
+        <v>443</v>
+      </c>
+      <c r="B221" t="s" s="13">
+        <v>444</v>
       </c>
       <c r="C221" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6755,31 +6760,31 @@
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.05" customHeight="1">
-      <c r="A222" t="s" s="12">
-        <v>428</v>
-      </c>
-      <c r="B222" t="s" s="12">
-        <v>429</v>
-      </c>
-      <c r="C222" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D222" s="10"/>
+    <row r="222" ht="20.7" customHeight="1">
+      <c r="A222" t="s" s="4">
+        <v>445</v>
+      </c>
+      <c r="B222" t="s" s="4">
+        <v>446</v>
+      </c>
+      <c r="C222" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.05" customHeight="1">
-      <c r="A223" t="s" s="12">
-        <v>430</v>
-      </c>
-      <c r="B223" t="s" s="12">
-        <v>431</v>
-      </c>
-      <c r="C223" t="s" s="12">
-        <v>71</v>
+    <row r="223" ht="20.7" customHeight="1">
+      <c r="A223" t="s" s="4">
+        <v>447</v>
+      </c>
+      <c r="B223" t="s" s="4">
+        <v>448</v>
+      </c>
+      <c r="C223" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -6788,14 +6793,14 @@
       <c r="H223" s="10"/>
     </row>
     <row r="224" ht="20.35" customHeight="1">
-      <c r="A224" t="s" s="13">
-        <v>432</v>
-      </c>
-      <c r="B224" t="s" s="13">
-        <v>433</v>
+      <c r="A224" t="s" s="11">
+        <v>449</v>
+      </c>
+      <c r="B224" t="s" s="11">
+        <v>450</v>
       </c>
       <c r="C224" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -6803,15 +6808,15 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="4">
-        <v>434</v>
-      </c>
-      <c r="B225" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="C225" t="s" s="8">
-        <v>25</v>
+    <row r="225" ht="20.05" customHeight="1">
+      <c r="A225" t="s" s="12">
+        <v>451</v>
+      </c>
+      <c r="B225" t="s" s="12">
+        <v>452</v>
+      </c>
+      <c r="C225" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6819,49 +6824,49 @@
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="14">
-        <v>436</v>
-      </c>
-      <c r="B226" t="s" s="14">
-        <v>437</v>
+    <row r="226" ht="20.05" customHeight="1">
+      <c r="A226" t="s" s="12">
+        <v>453</v>
+      </c>
+      <c r="B226" t="s" s="12">
+        <v>454</v>
       </c>
       <c r="C226" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D226" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.7" customHeight="1">
-      <c r="A227" t="s" s="4">
-        <v>438</v>
-      </c>
-      <c r="B227" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="C227" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D227" s="9"/>
+    <row r="227" ht="20.05" customHeight="1">
+      <c r="A227" t="s" s="12">
+        <v>455</v>
+      </c>
+      <c r="B227" t="s" s="12">
+        <v>456</v>
+      </c>
+      <c r="C227" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D227" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="11">
-        <v>440</v>
-      </c>
-      <c r="B228" t="s" s="11">
-        <v>441</v>
+    <row r="228" ht="20.05" customHeight="1">
+      <c r="A228" t="s" s="12">
+        <v>457</v>
+      </c>
+      <c r="B228" t="s" s="12">
+        <v>458</v>
       </c>
       <c r="C228" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6871,31 +6876,31 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="12">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B229" t="s" s="12">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C229" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D229" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.35" customHeight="1">
-      <c r="A230" t="s" s="13">
-        <v>444</v>
-      </c>
-      <c r="B230" t="s" s="13">
-        <v>445</v>
+    <row r="230" ht="20.05" customHeight="1">
+      <c r="A230" t="s" s="12">
+        <v>461</v>
+      </c>
+      <c r="B230" t="s" s="12">
+        <v>462</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -6903,15 +6908,15 @@
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.7" customHeight="1">
-      <c r="A231" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="B231" t="s" s="4">
-        <v>447</v>
-      </c>
-      <c r="C231" t="s" s="8">
-        <v>10</v>
+    <row r="231" ht="20.05" customHeight="1">
+      <c r="A231" t="s" s="12">
+        <v>463</v>
+      </c>
+      <c r="B231" t="s" s="12">
+        <v>464</v>
+      </c>
+      <c r="C231" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6919,63 +6924,67 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.7" customHeight="1">
-      <c r="A232" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="B232" t="s" s="4">
-        <v>447</v>
-      </c>
-      <c r="C232" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D232" s="9"/>
+    <row r="232" ht="20.05" customHeight="1">
+      <c r="A232" t="s" s="12">
+        <v>465</v>
+      </c>
+      <c r="B232" t="s" s="12">
+        <v>466</v>
+      </c>
+      <c r="C232" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D232" s="10"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.7" customHeight="1">
-      <c r="A233" t="s" s="4">
-        <v>448</v>
-      </c>
-      <c r="B233" t="s" s="4">
-        <v>449</v>
-      </c>
-      <c r="C233" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D233" s="9"/>
+    <row r="233" ht="20.05" customHeight="1">
+      <c r="A233" t="s" s="12">
+        <v>467</v>
+      </c>
+      <c r="B233" t="s" s="12">
+        <v>468</v>
+      </c>
+      <c r="C233" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D233" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
     <row r="234" ht="20.35" customHeight="1">
-      <c r="A234" t="s" s="11">
-        <v>450</v>
-      </c>
-      <c r="B234" t="s" s="11">
-        <v>451</v>
+      <c r="A234" t="s" s="13">
+        <v>469</v>
+      </c>
+      <c r="B234" t="s" s="13">
+        <v>470</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D234" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D234" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.05" customHeight="1">
-      <c r="A235" t="s" s="12">
-        <v>452</v>
-      </c>
-      <c r="B235" t="s" s="12">
-        <v>453</v>
-      </c>
-      <c r="C235" t="s" s="12">
-        <v>15</v>
+    <row r="235" ht="20.7" customHeight="1">
+      <c r="A235" t="s" s="4">
+        <v>471</v>
+      </c>
+      <c r="B235" t="s" s="4">
+        <v>472</v>
+      </c>
+      <c r="C235" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -6983,15 +6992,15 @@
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.05" customHeight="1">
-      <c r="A236" t="s" s="12">
-        <v>454</v>
-      </c>
-      <c r="B236" t="s" s="12">
-        <v>455</v>
-      </c>
-      <c r="C236" t="s" s="12">
-        <v>18</v>
+    <row r="236" ht="20.7" customHeight="1">
+      <c r="A236" t="s" s="4">
+        <v>473</v>
+      </c>
+      <c r="B236" t="s" s="4">
+        <v>474</v>
+      </c>
+      <c r="C236" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -6999,19 +7008,17 @@
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.05" customHeight="1">
-      <c r="A237" t="s" s="12">
-        <v>456</v>
-      </c>
-      <c r="B237" t="s" s="12">
-        <v>457</v>
+    <row r="237" ht="20.35" customHeight="1">
+      <c r="A237" t="s" s="11">
+        <v>475</v>
+      </c>
+      <c r="B237" t="s" s="11">
+        <v>476</v>
       </c>
       <c r="C237" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D237" s="9">
-        <v>0.435897435897436</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
@@ -7019,15 +7026,15 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="12">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B238" t="s" s="12">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C238" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D238" s="9"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -7035,15 +7042,15 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="12">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="B239" t="s" s="12">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D239" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D239" s="10"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
@@ -7051,10 +7058,10 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="12">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="B240" t="s" s="12">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C240" t="s" s="12">
         <v>42</v>
@@ -7067,13 +7074,13 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="12">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="B241" t="s" s="12">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -7083,15 +7090,15 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="12">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="B242" t="s" s="12">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C242" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D242" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
@@ -7099,49 +7106,47 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="12">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B243" t="s" s="12">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D243" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.35" customHeight="1">
-      <c r="A244" t="s" s="13">
-        <v>470</v>
-      </c>
-      <c r="B244" t="s" s="13">
-        <v>471</v>
+    <row r="244" ht="20.05" customHeight="1">
+      <c r="A244" t="s" s="12">
+        <v>489</v>
+      </c>
+      <c r="B244" t="s" s="12">
+        <v>490</v>
       </c>
       <c r="C244" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D244" s="9">
-        <v>0.179487179487179</v>
-      </c>
+      <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.7" customHeight="1">
-      <c r="A245" t="s" s="4">
-        <v>472</v>
-      </c>
-      <c r="B245" t="s" s="4">
-        <v>473</v>
-      </c>
-      <c r="C245" t="s" s="8">
-        <v>10</v>
+    <row r="245" ht="20.05" customHeight="1">
+      <c r="A245" t="s" s="12">
+        <v>491</v>
+      </c>
+      <c r="B245" t="s" s="12">
+        <v>492</v>
+      </c>
+      <c r="C245" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -7149,15 +7154,15 @@
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.7" customHeight="1">
-      <c r="A246" t="s" s="4">
-        <v>474</v>
-      </c>
-      <c r="B246" t="s" s="4">
-        <v>475</v>
-      </c>
-      <c r="C246" t="s" s="8">
-        <v>10</v>
+    <row r="246" ht="20.05" customHeight="1">
+      <c r="A246" t="s" s="12">
+        <v>493</v>
+      </c>
+      <c r="B246" t="s" s="12">
+        <v>494</v>
+      </c>
+      <c r="C246" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7165,15 +7170,15 @@
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.35" customHeight="1">
-      <c r="A247" t="s" s="11">
-        <v>476</v>
-      </c>
-      <c r="B247" t="s" s="11">
-        <v>477</v>
+    <row r="247" ht="20.05" customHeight="1">
+      <c r="A247" t="s" s="12">
+        <v>495</v>
+      </c>
+      <c r="B247" t="s" s="12">
+        <v>496</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -7183,45 +7188,45 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="12">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="B248" t="s" s="12">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D248" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" ht="20.05" customHeight="1">
-      <c r="A249" t="s" s="12">
-        <v>480</v>
-      </c>
-      <c r="B249" t="s" s="12">
-        <v>481</v>
+    <row r="249" ht="20.35" customHeight="1">
+      <c r="A249" t="s" s="13">
+        <v>499</v>
+      </c>
+      <c r="B249" t="s" s="13">
+        <v>500</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D249" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.05" customHeight="1">
-      <c r="A250" t="s" s="12">
-        <v>482</v>
-      </c>
-      <c r="B250" t="s" s="12">
-        <v>483</v>
-      </c>
-      <c r="C250" t="s" s="12">
-        <v>42</v>
+    <row r="250" ht="20.7" customHeight="1">
+      <c r="A250" t="s" s="4">
+        <v>501</v>
+      </c>
+      <c r="B250" t="s" s="4">
+        <v>502</v>
+      </c>
+      <c r="C250" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -7229,17 +7234,19 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.05" customHeight="1">
-      <c r="A251" t="s" s="12">
-        <v>484</v>
-      </c>
-      <c r="B251" t="s" s="12">
-        <v>485</v>
+    <row r="251" ht="20.35" customHeight="1">
+      <c r="A251" t="s" s="11">
+        <v>503</v>
+      </c>
+      <c r="B251" t="s" s="11">
+        <v>504</v>
       </c>
       <c r="C251" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D251" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D251" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
@@ -7247,13 +7254,13 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="12">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B252" t="s" s="12">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -7263,17 +7270,15 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="B253" t="s" s="12">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D253" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
@@ -7281,15 +7286,17 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B254" t="s" s="12">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D254" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D254" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7297,13 +7304,13 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="12">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="B255" t="s" s="12">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -7311,12 +7318,12 @@
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.05" customHeight="1">
-      <c r="A256" t="s" s="12">
-        <v>494</v>
-      </c>
-      <c r="B256" t="s" s="12">
-        <v>495</v>
+    <row r="256" ht="20.35" customHeight="1">
+      <c r="A256" t="s" s="13">
+        <v>513</v>
+      </c>
+      <c r="B256" t="s" s="13">
+        <v>514</v>
       </c>
       <c r="C256" t="s" s="12">
         <v>42</v>
@@ -7327,15 +7334,15 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.05" customHeight="1">
-      <c r="A257" t="s" s="12">
-        <v>496</v>
-      </c>
-      <c r="B257" t="s" s="12">
-        <v>497</v>
-      </c>
-      <c r="C257" t="s" s="12">
-        <v>39</v>
+    <row r="257" ht="20.7" customHeight="1">
+      <c r="A257" t="s" s="4">
+        <v>515</v>
+      </c>
+      <c r="B257" t="s" s="4">
+        <v>516</v>
+      </c>
+      <c r="C257" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7343,15 +7350,15 @@
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.05" customHeight="1">
-      <c r="A258" t="s" s="12">
-        <v>498</v>
-      </c>
-      <c r="B258" t="s" s="12">
-        <v>499</v>
+    <row r="258" ht="20.35" customHeight="1">
+      <c r="A258" t="s" s="11">
+        <v>517</v>
+      </c>
+      <c r="B258" t="s" s="11">
+        <v>518</v>
       </c>
       <c r="C258" t="s" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7359,15 +7366,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.35" customHeight="1">
-      <c r="A259" t="s" s="13">
-        <v>500</v>
-      </c>
-      <c r="B259" t="s" s="13">
-        <v>501</v>
+    <row r="259" ht="20.05" customHeight="1">
+      <c r="A259" t="s" s="12">
+        <v>519</v>
+      </c>
+      <c r="B259" t="s" s="12">
+        <v>520</v>
       </c>
       <c r="C259" t="s" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7375,15 +7382,15 @@
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.7" customHeight="1">
-      <c r="A260" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="B260" t="s" s="4">
-        <v>503</v>
-      </c>
-      <c r="C260" t="s" s="8">
-        <v>10</v>
+    <row r="260" ht="20.05" customHeight="1">
+      <c r="A260" t="s" s="12">
+        <v>521</v>
+      </c>
+      <c r="B260" t="s" s="12">
+        <v>522</v>
+      </c>
+      <c r="C260" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -7391,15 +7398,15 @@
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.7" customHeight="1">
-      <c r="A261" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="B261" t="s" s="4">
-        <v>503</v>
-      </c>
-      <c r="C261" t="s" s="8">
-        <v>25</v>
+    <row r="261" ht="20.05" customHeight="1">
+      <c r="A261" t="s" s="12">
+        <v>523</v>
+      </c>
+      <c r="B261" t="s" s="12">
+        <v>524</v>
+      </c>
+      <c r="C261" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7407,19 +7414,17 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.35" customHeight="1">
-      <c r="A262" t="s" s="11">
-        <v>504</v>
-      </c>
-      <c r="B262" t="s" s="11">
-        <v>505</v>
+    <row r="262" ht="20.05" customHeight="1">
+      <c r="A262" t="s" s="12">
+        <v>525</v>
+      </c>
+      <c r="B262" t="s" s="12">
+        <v>526</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D262" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
@@ -7427,10 +7432,10 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="12">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B263" t="s" s="12">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C263" t="s" s="12">
         <v>15</v>
@@ -7443,13 +7448,13 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B264" t="s" s="12">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7459,13 +7464,13 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="12">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B265" t="s" s="12">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7475,13 +7480,13 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="12">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="B266" t="s" s="12">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C266" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7489,12 +7494,12 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.35" customHeight="1">
-      <c r="A267" t="s" s="13">
-        <v>514</v>
-      </c>
-      <c r="B267" t="s" s="13">
-        <v>515</v>
+    <row r="267" ht="20.05" customHeight="1">
+      <c r="A267" t="s" s="12">
+        <v>535</v>
+      </c>
+      <c r="B267" t="s" s="12">
+        <v>536</v>
       </c>
       <c r="C267" t="s" s="12">
         <v>42</v>
@@ -7505,15 +7510,15 @@
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.7" customHeight="1">
-      <c r="A268" t="s" s="4">
-        <v>516</v>
-      </c>
-      <c r="B268" t="s" s="4">
-        <v>517</v>
-      </c>
-      <c r="C268" t="s" s="8">
-        <v>25</v>
+    <row r="268" ht="20.05" customHeight="1">
+      <c r="A268" t="s" s="12">
+        <v>537</v>
+      </c>
+      <c r="B268" t="s" s="12">
+        <v>538</v>
+      </c>
+      <c r="C268" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7521,15 +7526,15 @@
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.35" customHeight="1">
-      <c r="A269" t="s" s="11">
-        <v>518</v>
-      </c>
-      <c r="B269" t="s" s="11">
-        <v>519</v>
+    <row r="269" ht="20.05" customHeight="1">
+      <c r="A269" t="s" s="12">
+        <v>539</v>
+      </c>
+      <c r="B269" t="s" s="12">
+        <v>540</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7539,13 +7544,13 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="12">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B270" t="s" s="12">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -7555,13 +7560,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="B271" t="s" s="12">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7569,31 +7574,33 @@
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.05" customHeight="1">
-      <c r="A272" t="s" s="12">
-        <v>524</v>
-      </c>
-      <c r="B272" t="s" s="12">
-        <v>525</v>
+    <row r="272" ht="20.35" customHeight="1">
+      <c r="A272" t="s" s="13">
+        <v>544</v>
+      </c>
+      <c r="B272" t="s" s="13">
+        <v>545</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D272" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D272" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.05" customHeight="1">
-      <c r="A273" t="s" s="12">
-        <v>526</v>
-      </c>
-      <c r="B273" t="s" s="12">
-        <v>527</v>
-      </c>
-      <c r="C273" t="s" s="12">
-        <v>28</v>
+    <row r="273" ht="20.7" customHeight="1">
+      <c r="A273" t="s" s="4">
+        <v>546</v>
+      </c>
+      <c r="B273" t="s" s="4">
+        <v>547</v>
+      </c>
+      <c r="C273" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7601,15 +7608,15 @@
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.05" customHeight="1">
-      <c r="A274" t="s" s="12">
-        <v>528</v>
-      </c>
-      <c r="B274" t="s" s="12">
-        <v>529</v>
-      </c>
-      <c r="C274" t="s" s="12">
-        <v>15</v>
+    <row r="274" ht="20.7" customHeight="1">
+      <c r="A274" t="s" s="4">
+        <v>548</v>
+      </c>
+      <c r="B274" t="s" s="4">
+        <v>549</v>
+      </c>
+      <c r="C274" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7617,15 +7624,15 @@
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" ht="20.05" customHeight="1">
-      <c r="A275" t="s" s="12">
-        <v>530</v>
-      </c>
-      <c r="B275" t="s" s="12">
-        <v>531</v>
-      </c>
-      <c r="C275" t="s" s="12">
-        <v>18</v>
+    <row r="275" ht="20.7" customHeight="1">
+      <c r="A275" t="s" s="4">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s" s="4">
+        <v>549</v>
+      </c>
+      <c r="C275" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7633,15 +7640,15 @@
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" ht="20.05" customHeight="1">
-      <c r="A276" t="s" s="12">
-        <v>532</v>
-      </c>
-      <c r="B276" t="s" s="12">
-        <v>533</v>
-      </c>
-      <c r="C276" t="s" s="12">
-        <v>42</v>
+    <row r="276" ht="20.7" customHeight="1">
+      <c r="A276" t="s" s="4">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s" s="4">
+        <v>551</v>
+      </c>
+      <c r="C276" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7649,15 +7656,15 @@
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" ht="20.05" customHeight="1">
-      <c r="A277" t="s" s="12">
-        <v>534</v>
-      </c>
-      <c r="B277" t="s" s="12">
-        <v>535</v>
+    <row r="277" ht="20.35" customHeight="1">
+      <c r="A277" t="s" s="11">
+        <v>552</v>
+      </c>
+      <c r="B277" t="s" s="11">
+        <v>553</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7667,15 +7674,17 @@
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="12">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B278" t="s" s="12">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D278" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D278" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
@@ -7683,13 +7692,13 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="12">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B279" t="s" s="12">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7699,13 +7708,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B280" t="s" s="12">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7715,13 +7724,13 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="12">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B281" t="s" s="12">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7729,15 +7738,15 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.05" customHeight="1">
-      <c r="A282" t="s" s="12">
-        <v>543</v>
-      </c>
-      <c r="B282" t="s" s="12">
-        <v>544</v>
+    <row r="282" ht="20.35" customHeight="1">
+      <c r="A282" t="s" s="13">
+        <v>562</v>
+      </c>
+      <c r="B282" t="s" s="13">
+        <v>563</v>
       </c>
       <c r="C282" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7745,19 +7754,17 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.35" customHeight="1">
-      <c r="A283" t="s" s="13">
-        <v>545</v>
-      </c>
-      <c r="B283" t="s" s="13">
-        <v>546</v>
-      </c>
-      <c r="C283" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D283" s="9">
-        <v>0.384615384615385</v>
-      </c>
+    <row r="283" ht="20.7" customHeight="1">
+      <c r="A283" t="s" s="4">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s" s="4">
+        <v>565</v>
+      </c>
+      <c r="C283" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D283" s="9"/>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
@@ -7765,10 +7772,10 @@
     </row>
     <row r="284" ht="20.7" customHeight="1">
       <c r="A284" t="s" s="4">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="B284" t="s" s="4">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="C284" t="s" s="8">
         <v>25</v>
@@ -7779,31 +7786,33 @@
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.7" customHeight="1">
-      <c r="A285" t="s" s="4">
-        <v>549</v>
-      </c>
-      <c r="B285" t="s" s="4">
-        <v>550</v>
-      </c>
-      <c r="C285" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D285" s="9"/>
+    <row r="285" ht="20.35" customHeight="1">
+      <c r="A285" t="s" s="11">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s" s="11">
+        <v>569</v>
+      </c>
+      <c r="C285" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D285" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.7" customHeight="1">
-      <c r="A286" t="s" s="4">
-        <v>549</v>
-      </c>
-      <c r="B286" t="s" s="4">
-        <v>550</v>
-      </c>
-      <c r="C286" t="s" s="8">
-        <v>25</v>
+    <row r="286" ht="20.05" customHeight="1">
+      <c r="A286" t="s" s="12">
+        <v>570</v>
+      </c>
+      <c r="B286" t="s" s="12">
+        <v>571</v>
+      </c>
+      <c r="C286" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -7811,15 +7820,15 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.7" customHeight="1">
-      <c r="A287" t="s" s="4">
-        <v>551</v>
-      </c>
-      <c r="B287" t="s" s="4">
-        <v>552</v>
-      </c>
-      <c r="C287" t="s" s="8">
-        <v>10</v>
+    <row r="287" ht="20.05" customHeight="1">
+      <c r="A287" t="s" s="12">
+        <v>572</v>
+      </c>
+      <c r="B287" t="s" s="12">
+        <v>573</v>
+      </c>
+      <c r="C287" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -7827,15 +7836,15 @@
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.35" customHeight="1">
-      <c r="A288" t="s" s="11">
-        <v>553</v>
-      </c>
-      <c r="B288" t="s" s="11">
-        <v>554</v>
+    <row r="288" ht="20.05" customHeight="1">
+      <c r="A288" t="s" s="12">
+        <v>574</v>
+      </c>
+      <c r="B288" t="s" s="12">
+        <v>575</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -7845,17 +7854,15 @@
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="12">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="B289" t="s" s="12">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D289" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
@@ -7863,29 +7870,29 @@
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="12">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="B290" t="s" s="12">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D290" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D290" s="10"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.05" customHeight="1">
-      <c r="A291" t="s" s="12">
-        <v>559</v>
-      </c>
-      <c r="B291" t="s" s="12">
-        <v>560</v>
+    <row r="291" ht="20.35" customHeight="1">
+      <c r="A291" t="s" s="13">
+        <v>580</v>
+      </c>
+      <c r="B291" t="s" s="13">
+        <v>581</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -7893,15 +7900,15 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.05" customHeight="1">
-      <c r="A292" t="s" s="12">
-        <v>561</v>
-      </c>
-      <c r="B292" t="s" s="12">
-        <v>562</v>
-      </c>
-      <c r="C292" t="s" s="12">
-        <v>39</v>
+    <row r="292" ht="20.7" customHeight="1">
+      <c r="A292" t="s" s="4">
+        <v>582</v>
+      </c>
+      <c r="B292" t="s" s="4">
+        <v>583</v>
+      </c>
+      <c r="C292" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7910,14 +7917,14 @@
       <c r="H292" s="10"/>
     </row>
     <row r="293" ht="20.35" customHeight="1">
-      <c r="A293" t="s" s="13">
-        <v>563</v>
-      </c>
-      <c r="B293" t="s" s="13">
-        <v>564</v>
+      <c r="A293" t="s" s="11">
+        <v>584</v>
+      </c>
+      <c r="B293" t="s" s="11">
+        <v>585</v>
       </c>
       <c r="C293" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7925,15 +7932,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.7" customHeight="1">
-      <c r="A294" t="s" s="4">
-        <v>565</v>
-      </c>
-      <c r="B294" t="s" s="4">
-        <v>566</v>
-      </c>
-      <c r="C294" t="s" s="8">
-        <v>10</v>
+    <row r="294" ht="20.05" customHeight="1">
+      <c r="A294" t="s" s="12">
+        <v>586</v>
+      </c>
+      <c r="B294" t="s" s="12">
+        <v>587</v>
+      </c>
+      <c r="C294" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7941,15 +7948,15 @@
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" t="s" s="4">
-        <v>565</v>
-      </c>
-      <c r="B295" t="s" s="4">
-        <v>566</v>
-      </c>
-      <c r="C295" t="s" s="8">
-        <v>25</v>
+    <row r="295" ht="20.05" customHeight="1">
+      <c r="A295" t="s" s="12">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s" s="12">
+        <v>589</v>
+      </c>
+      <c r="C295" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -7957,15 +7964,15 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.7" customHeight="1">
-      <c r="A296" t="s" s="4">
-        <v>567</v>
-      </c>
-      <c r="B296" t="s" s="4">
-        <v>568</v>
-      </c>
-      <c r="C296" t="s" s="8">
-        <v>10</v>
+    <row r="296" ht="20.05" customHeight="1">
+      <c r="A296" t="s" s="12">
+        <v>590</v>
+      </c>
+      <c r="B296" t="s" s="12">
+        <v>591</v>
+      </c>
+      <c r="C296" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -7973,15 +7980,15 @@
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.7" customHeight="1">
-      <c r="A297" t="s" s="4">
-        <v>567</v>
-      </c>
-      <c r="B297" t="s" s="4">
-        <v>568</v>
-      </c>
-      <c r="C297" t="s" s="8">
-        <v>25</v>
+    <row r="297" ht="20.05" customHeight="1">
+      <c r="A297" t="s" s="12">
+        <v>592</v>
+      </c>
+      <c r="B297" t="s" s="12">
+        <v>593</v>
+      </c>
+      <c r="C297" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -7989,19 +7996,17 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.35" customHeight="1">
-      <c r="A298" t="s" s="11">
-        <v>569</v>
-      </c>
-      <c r="B298" t="s" s="11">
-        <v>570</v>
+    <row r="298" ht="20.05" customHeight="1">
+      <c r="A298" t="s" s="12">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s" s="12">
+        <v>595</v>
       </c>
       <c r="C298" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D298" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
@@ -8009,13 +8014,13 @@
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="12">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="B299" t="s" s="12">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="C299" t="s" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -8025,15 +8030,17 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="12">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="B300" t="s" s="12">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D300" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D300" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
@@ -8041,13 +8048,13 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="B301" t="s" s="12">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
@@ -8056,15 +8063,9 @@
       <c r="H301" s="10"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
-      <c r="A302" t="s" s="12">
-        <v>577</v>
-      </c>
-      <c r="B302" t="s" s="12">
-        <v>578</v>
-      </c>
-      <c r="C302" t="s" s="12">
-        <v>71</v>
-      </c>
+      <c r="A302" s="10"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -8072,63 +8073,39 @@
       <c r="H302" s="10"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
-        <v>579</v>
-      </c>
-      <c r="B303" t="s" s="12">
-        <v>580</v>
-      </c>
-      <c r="C303" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D303" s="10"/>
+      <c r="A303" s="10"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="10"/>
+      <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.35" customHeight="1">
-      <c r="A304" t="s" s="13">
-        <v>581</v>
-      </c>
-      <c r="B304" t="s" s="13">
-        <v>582</v>
-      </c>
-      <c r="C304" t="s" s="12">
-        <v>15</v>
-      </c>
+    <row r="304" ht="20.05" customHeight="1">
+      <c r="A304" s="10"/>
+      <c r="B304" s="10"/>
+      <c r="C304" s="10"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.7" customHeight="1">
-      <c r="A305" t="s" s="4">
-        <v>583</v>
-      </c>
-      <c r="B305" t="s" s="4">
-        <v>584</v>
-      </c>
-      <c r="C305" t="s" s="8">
-        <v>10</v>
-      </c>
+    <row r="305" ht="20.05" customHeight="1">
+      <c r="A305" s="10"/>
+      <c r="B305" s="10"/>
+      <c r="C305" s="10"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" t="s" s="11">
-        <v>585</v>
-      </c>
-      <c r="B306" t="s" s="11">
-        <v>586</v>
-      </c>
-      <c r="C306" t="s" s="12">
-        <v>39</v>
-      </c>
+    <row r="306" ht="20.05" customHeight="1">
+      <c r="A306" s="10"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="10"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
@@ -8136,15 +8113,9 @@
       <c r="H306" s="10"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
-      <c r="A307" t="s" s="12">
-        <v>587</v>
-      </c>
-      <c r="B307" t="s" s="12">
-        <v>588</v>
-      </c>
-      <c r="C307" t="s" s="12">
-        <v>15</v>
-      </c>
+      <c r="A307" s="10"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -8152,15 +8123,9 @@
       <c r="H307" s="10"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
-      <c r="A308" t="s" s="12">
-        <v>589</v>
-      </c>
-      <c r="B308" t="s" s="12">
-        <v>590</v>
-      </c>
-      <c r="C308" t="s" s="12">
-        <v>71</v>
-      </c>
+      <c r="A308" s="10"/>
+      <c r="B308" s="10"/>
+      <c r="C308" s="10"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
@@ -8168,15 +8133,9 @@
       <c r="H308" s="10"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
-      <c r="A309" t="s" s="12">
-        <v>591</v>
-      </c>
-      <c r="B309" t="s" s="12">
-        <v>592</v>
-      </c>
-      <c r="C309" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="A309" s="10"/>
+      <c r="B309" s="10"/>
+      <c r="C309" s="10"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -8184,15 +8143,9 @@
       <c r="H309" s="10"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
-      <c r="A310" t="s" s="12">
-        <v>593</v>
-      </c>
-      <c r="B310" t="s" s="12">
-        <v>594</v>
-      </c>
-      <c r="C310" t="s" s="12">
-        <v>42</v>
-      </c>
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -8200,15 +8153,9 @@
       <c r="H310" s="10"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
-      <c r="A311" t="s" s="12">
-        <v>595</v>
-      </c>
-      <c r="B311" t="s" s="12">
-        <v>596</v>
-      </c>
-      <c r="C311" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="A311" s="10"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="10"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8216,15 +8163,9 @@
       <c r="H311" s="10"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
-      <c r="A312" t="s" s="12">
-        <v>597</v>
-      </c>
-      <c r="B312" t="s" s="12">
-        <v>598</v>
-      </c>
-      <c r="C312" t="s" s="12">
-        <v>39</v>
-      </c>
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -8232,33 +8173,19 @@
       <c r="H312" s="10"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" t="s" s="12">
-        <v>599</v>
-      </c>
-      <c r="B313" t="s" s="12">
-        <v>600</v>
-      </c>
-      <c r="C313" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D313" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="A313" s="10"/>
+      <c r="B313" s="10"/>
+      <c r="C313" s="10"/>
+      <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" t="s" s="12">
-        <v>601</v>
-      </c>
-      <c r="B314" t="s" s="12">
-        <v>602</v>
-      </c>
-      <c r="C314" t="s" s="12">
-        <v>28</v>
-      </c>
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
+      <c r="C314" s="10"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -9065,136 +8992,6 @@
       <c r="G394" s="10"/>
       <c r="H394" s="10"/>
     </row>
-    <row r="395" ht="20.05" customHeight="1">
-      <c r="A395" s="10"/>
-      <c r="B395" s="10"/>
-      <c r="C395" s="10"/>
-      <c r="D395" s="9"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="9"/>
-      <c r="G395" s="10"/>
-      <c r="H395" s="10"/>
-    </row>
-    <row r="396" ht="20.05" customHeight="1">
-      <c r="A396" s="10"/>
-      <c r="B396" s="10"/>
-      <c r="C396" s="10"/>
-      <c r="D396" s="9"/>
-      <c r="E396" s="9"/>
-      <c r="F396" s="9"/>
-      <c r="G396" s="10"/>
-      <c r="H396" s="10"/>
-    </row>
-    <row r="397" ht="20.05" customHeight="1">
-      <c r="A397" s="10"/>
-      <c r="B397" s="10"/>
-      <c r="C397" s="10"/>
-      <c r="D397" s="9"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
-      <c r="G397" s="10"/>
-      <c r="H397" s="10"/>
-    </row>
-    <row r="398" ht="20.05" customHeight="1">
-      <c r="A398" s="10"/>
-      <c r="B398" s="10"/>
-      <c r="C398" s="10"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
-      <c r="G398" s="10"/>
-      <c r="H398" s="10"/>
-    </row>
-    <row r="399" ht="20.05" customHeight="1">
-      <c r="A399" s="10"/>
-      <c r="B399" s="10"/>
-      <c r="C399" s="10"/>
-      <c r="D399" s="9"/>
-      <c r="E399" s="9"/>
-      <c r="F399" s="9"/>
-      <c r="G399" s="10"/>
-      <c r="H399" s="10"/>
-    </row>
-    <row r="400" ht="20.05" customHeight="1">
-      <c r="A400" s="10"/>
-      <c r="B400" s="10"/>
-      <c r="C400" s="10"/>
-      <c r="D400" s="9"/>
-      <c r="E400" s="9"/>
-      <c r="F400" s="9"/>
-      <c r="G400" s="10"/>
-      <c r="H400" s="10"/>
-    </row>
-    <row r="401" ht="20.05" customHeight="1">
-      <c r="A401" s="10"/>
-      <c r="B401" s="10"/>
-      <c r="C401" s="10"/>
-      <c r="D401" s="9"/>
-      <c r="E401" s="9"/>
-      <c r="F401" s="9"/>
-      <c r="G401" s="10"/>
-      <c r="H401" s="10"/>
-    </row>
-    <row r="402" ht="20.05" customHeight="1">
-      <c r="A402" s="10"/>
-      <c r="B402" s="10"/>
-      <c r="C402" s="10"/>
-      <c r="D402" s="9"/>
-      <c r="E402" s="9"/>
-      <c r="F402" s="9"/>
-      <c r="G402" s="10"/>
-      <c r="H402" s="10"/>
-    </row>
-    <row r="403" ht="20.05" customHeight="1">
-      <c r="A403" s="10"/>
-      <c r="B403" s="10"/>
-      <c r="C403" s="10"/>
-      <c r="D403" s="9"/>
-      <c r="E403" s="9"/>
-      <c r="F403" s="9"/>
-      <c r="G403" s="10"/>
-      <c r="H403" s="10"/>
-    </row>
-    <row r="404" ht="20.05" customHeight="1">
-      <c r="A404" s="10"/>
-      <c r="B404" s="10"/>
-      <c r="C404" s="10"/>
-      <c r="D404" s="9"/>
-      <c r="E404" s="9"/>
-      <c r="F404" s="9"/>
-      <c r="G404" s="10"/>
-      <c r="H404" s="10"/>
-    </row>
-    <row r="405" ht="20.05" customHeight="1">
-      <c r="A405" s="10"/>
-      <c r="B405" s="10"/>
-      <c r="C405" s="10"/>
-      <c r="D405" s="9"/>
-      <c r="E405" s="9"/>
-      <c r="F405" s="9"/>
-      <c r="G405" s="10"/>
-      <c r="H405" s="10"/>
-    </row>
-    <row r="406" ht="20.05" customHeight="1">
-      <c r="A406" s="10"/>
-      <c r="B406" s="10"/>
-      <c r="C406" s="10"/>
-      <c r="D406" s="9"/>
-      <c r="E406" s="9"/>
-      <c r="F406" s="9"/>
-      <c r="G406" s="10"/>
-      <c r="H406" s="10"/>
-    </row>
-    <row r="407" ht="20.05" customHeight="1">
-      <c r="A407" s="10"/>
-      <c r="B407" s="10"/>
-      <c r="C407" s="10"/>
-      <c r="D407" s="9"/>
-      <c r="E407" s="9"/>
-      <c r="F407" s="9"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -5244,7 +5244,9 @@
       <c r="C128" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D128" s="9"/>
+      <c r="D128" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
@@ -5600,7 +5602,9 @@
       <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" s="9"/>
+      <c r="D150" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
@@ -5664,7 +5668,9 @@
       <c r="C154" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
@@ -6654,7 +6660,9 @@
       <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" s="9"/>
+      <c r="D215" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
@@ -7732,7 +7740,9 @@
       <c r="C281" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D281" s="9"/>
+      <c r="D281" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
   <si>
     <t>Surname</t>
   </si>
@@ -82,7 +82,7 @@
     <t>H210604Z</t>
   </si>
   <si>
-    <t>BORERWE</t>
+    <t>Borerwe</t>
   </si>
   <si>
     <t>H210226X</t>
@@ -91,6 +91,12 @@
     <t>FPT</t>
   </si>
   <si>
+    <t>H200983H</t>
+  </si>
+  <si>
+    <t>HEBE</t>
+  </si>
+  <si>
     <t>Bunhu</t>
   </si>
   <si>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t>H210444R</t>
-  </si>
-  <si>
-    <t>HEBE</t>
   </si>
   <si>
     <t>Chari</t>
@@ -3298,13 +3301,13 @@
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="C9" t="s" s="12">
         <v>27</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>28</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -3314,13 +3317,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="C10" t="s" s="12">
         <v>30</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>18</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3338,9 +3341,7 @@
       <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -3354,9 +3355,11 @@
         <v>34</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -3370,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3386,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3396,13 +3399,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="12">
-        <v>41</v>
-      </c>
       <c r="C15" t="s" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3412,13 +3415,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="12">
         <v>43</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>15</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3428,17 +3431,15 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="12">
-        <v>46</v>
-      </c>
       <c r="C17" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -3446,26 +3447,28 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="12">
         <v>47</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>48</v>
       </c>
       <c r="C18" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="13">
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="12">
         <v>49</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>50</v>
       </c>
       <c r="C19" t="s" s="12">
         <v>18</v>
@@ -3476,15 +3479,15 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" ht="20.7" customHeight="1">
-      <c r="A20" t="s" s="4">
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>25</v>
+      <c r="C20" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -3492,15 +3495,15 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="11">
+    <row r="21" ht="20.7" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="B21" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>18</v>
+      <c r="C21" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -3508,15 +3511,15 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="12">
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="12">
-        <v>56</v>
-      </c>
       <c r="C22" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -3526,15 +3529,15 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="B23" t="s" s="12">
-        <v>58</v>
-      </c>
       <c r="C23" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
@@ -3542,15 +3545,15 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="B24" t="s" s="12">
-        <v>60</v>
-      </c>
       <c r="C24" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -3558,13 +3561,13 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="B25" t="s" s="12">
-        <v>62</v>
-      </c>
       <c r="C25" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -3574,13 +3577,13 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="12">
-        <v>64</v>
-      </c>
       <c r="C26" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -3590,13 +3593,13 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="B27" t="s" s="12">
-        <v>66</v>
-      </c>
       <c r="C27" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -3606,13 +3609,13 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="B28" t="s" s="12">
-        <v>68</v>
-      </c>
       <c r="C28" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3622,13 +3625,13 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="12">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="B29" t="s" s="12">
-        <v>70</v>
-      </c>
       <c r="C29" t="s" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3638,13 +3641,13 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s" s="12">
         <v>72</v>
-      </c>
-      <c r="B30" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>15</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3652,15 +3655,15 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="13">
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="B31" t="s" s="13">
-        <v>75</v>
-      </c>
       <c r="C31" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -3668,15 +3671,15 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" ht="20.7" customHeight="1">
-      <c r="A32" t="s" s="4">
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B32" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>25</v>
+      <c r="C32" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3686,10 +3689,10 @@
     </row>
     <row r="33" ht="20.7" customHeight="1">
       <c r="A33" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s" s="4">
         <v>78</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>79</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>25</v>
@@ -3700,15 +3703,15 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" t="s" s="11">
+    <row r="34" ht="20.7" customHeight="1">
+      <c r="A34" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>42</v>
+      <c r="C34" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3716,15 +3719,15 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="12">
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="12">
-        <v>83</v>
-      </c>
       <c r="C35" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3734,13 +3737,13 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="12">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s" s="12">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="12">
-        <v>85</v>
-      </c>
       <c r="C36" t="s" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3750,17 +3753,15 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="12">
-        <v>87</v>
-      </c>
       <c r="C37" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
@@ -3768,15 +3769,17 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="12">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="B38" t="s" s="12">
-        <v>89</v>
-      </c>
       <c r="C38" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D38" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
@@ -3784,13 +3787,13 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="12">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="B39" t="s" s="12">
-        <v>91</v>
-      </c>
       <c r="C39" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -3800,13 +3803,13 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s" s="12">
         <v>92</v>
       </c>
-      <c r="B40" t="s" s="12">
-        <v>93</v>
-      </c>
       <c r="C40" t="s" s="12">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3816,13 +3819,13 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="B41" t="s" s="12">
-        <v>95</v>
-      </c>
       <c r="C41" t="s" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3832,17 +3835,15 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="12">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="B42" t="s" s="12">
-        <v>97</v>
-      </c>
       <c r="C42" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
@@ -3850,15 +3851,17 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s" s="12">
         <v>98</v>
       </c>
-      <c r="B43" t="s" s="12">
-        <v>99</v>
-      </c>
       <c r="C43" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D43" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -3866,17 +3869,15 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="12">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="B44" t="s" s="12">
-        <v>101</v>
-      </c>
       <c r="C44" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.846153846153846</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -3884,15 +3885,17 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s" s="12">
         <v>102</v>
       </c>
-      <c r="B45" t="s" s="12">
-        <v>103</v>
-      </c>
       <c r="C45" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D45" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
@@ -3900,13 +3903,13 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s" s="12">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="12">
-        <v>105</v>
-      </c>
       <c r="C46" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3916,47 +3919,47 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="12">
-        <v>107</v>
-      </c>
       <c r="C47" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" t="s" s="13">
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s" s="12">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="13">
-        <v>109</v>
-      </c>
       <c r="C48" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D48" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" t="s" s="4">
+    <row r="49" ht="20.35" customHeight="1">
+      <c r="A49" t="s" s="13">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s" s="13">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="C49" t="s" s="8">
-        <v>10</v>
+      <c r="C49" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3964,15 +3967,15 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" ht="20.35" customHeight="1">
-      <c r="A50" t="s" s="11">
+    <row r="50" ht="20.7" customHeight="1">
+      <c r="A50" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s" s="4">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="11">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s" s="12">
-        <v>42</v>
+      <c r="C50" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3980,15 +3983,15 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="12">
+    <row r="51" ht="20.35" customHeight="1">
+      <c r="A51" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s" s="11">
         <v>114</v>
       </c>
-      <c r="B51" t="s" s="12">
-        <v>115</v>
-      </c>
       <c r="C51" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3998,17 +4001,15 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s" s="12">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="12">
-        <v>117</v>
-      </c>
       <c r="C52" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
@@ -4016,15 +4017,17 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s" s="12">
         <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D53" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
@@ -4032,13 +4035,13 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="B54" t="s" s="12">
-        <v>120</v>
-      </c>
       <c r="C54" t="s" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4048,13 +4051,13 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="B55" t="s" s="12">
-        <v>122</v>
-      </c>
       <c r="C55" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4064,10 +4067,10 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s" s="12">
         <v>123</v>
-      </c>
-      <c r="B56" t="s" s="12">
-        <v>124</v>
       </c>
       <c r="C56" t="s" s="12">
         <v>18</v>
@@ -4080,13 +4083,13 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="B57" t="s" s="12">
-        <v>126</v>
-      </c>
       <c r="C57" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4096,13 +4099,13 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="B58" t="s" s="12">
-        <v>128</v>
-      </c>
       <c r="C58" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4112,13 +4115,13 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="B59" t="s" s="12">
-        <v>130</v>
-      </c>
       <c r="C59" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4128,13 +4131,13 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="B60" t="s" s="12">
-        <v>132</v>
-      </c>
       <c r="C60" t="s" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -4144,13 +4147,13 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="B61" t="s" s="12">
-        <v>134</v>
-      </c>
       <c r="C61" t="s" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -4158,15 +4161,15 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" ht="20.35" customHeight="1">
-      <c r="A62" t="s" s="13">
+    <row r="62" ht="20.05" customHeight="1">
+      <c r="A62" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="B62" t="s" s="13">
-        <v>136</v>
-      </c>
       <c r="C62" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -4174,15 +4177,15 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" ht="20.7" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s" s="4">
+    <row r="63" ht="20.35" customHeight="1">
+      <c r="A63" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s" s="13">
         <v>137</v>
       </c>
-      <c r="C63" t="s" s="8">
-        <v>10</v>
+      <c r="C63" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4190,15 +4193,15 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="20.35" customHeight="1">
-      <c r="A64" t="s" s="11">
+    <row r="64" ht="20.7" customHeight="1">
+      <c r="A64" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B64" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="C64" t="s" s="12">
-        <v>15</v>
+      <c r="C64" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -4206,15 +4209,15 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="12">
+    <row r="65" ht="20.35" customHeight="1">
+      <c r="A65" t="s" s="11">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s" s="11">
         <v>140</v>
       </c>
-      <c r="B65" t="s" s="12">
-        <v>141</v>
-      </c>
       <c r="C65" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -4224,17 +4227,15 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="B66" t="s" s="12">
-        <v>143</v>
-      </c>
       <c r="C66" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D66" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
@@ -4242,29 +4243,31 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="12">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="B67" t="s" s="12">
-        <v>145</v>
-      </c>
       <c r="C67" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D67" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" t="s" s="13">
+    <row r="68" ht="20.05" customHeight="1">
+      <c r="A68" t="s" s="12">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="B68" t="s" s="13">
-        <v>147</v>
-      </c>
       <c r="C68" t="s" s="12">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -4272,15 +4275,15 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" t="s" s="4">
+    <row r="69" ht="20.35" customHeight="1">
+      <c r="A69" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s" s="13">
         <v>148</v>
       </c>
-      <c r="B69" t="s" s="4">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s" s="8">
-        <v>10</v>
+      <c r="C69" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4288,15 +4291,15 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
-      <c r="A70" t="s" s="11">
+    <row r="70" ht="20.7" customHeight="1">
+      <c r="A70" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="B70" t="s" s="11">
-        <v>151</v>
-      </c>
-      <c r="C70" t="s" s="12">
-        <v>39</v>
+      <c r="C70" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -4304,15 +4307,15 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="12">
+    <row r="71" ht="20.35" customHeight="1">
+      <c r="A71" t="s" s="11">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s" s="11">
         <v>152</v>
       </c>
-      <c r="B71" t="s" s="12">
-        <v>153</v>
-      </c>
       <c r="C71" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4322,13 +4325,13 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="12">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="B72" t="s" s="12">
-        <v>155</v>
-      </c>
       <c r="C72" t="s" s="12">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -4336,15 +4339,15 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.35" customHeight="1">
-      <c r="A73" t="s" s="13">
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" t="s" s="12">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s" s="12">
         <v>156</v>
       </c>
-      <c r="B73" t="s" s="13">
-        <v>157</v>
-      </c>
       <c r="C73" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4352,15 +4355,15 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.7" customHeight="1">
-      <c r="A74" t="s" s="4">
+    <row r="74" ht="20.35" customHeight="1">
+      <c r="A74" t="s" s="13">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s" s="13">
         <v>158</v>
       </c>
-      <c r="B74" t="s" s="4">
-        <v>159</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>25</v>
+      <c r="C74" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -4370,13 +4373,13 @@
     </row>
     <row r="75" ht="20.7" customHeight="1">
       <c r="A75" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="B75" t="s" s="4">
-        <v>161</v>
-      </c>
       <c r="C75" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4385,14 +4388,14 @@
       <c r="H75" s="10"/>
     </row>
     <row r="76" ht="20.7" customHeight="1">
-      <c r="A76" t="s" s="14">
+      <c r="A76" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s" s="4">
         <v>162</v>
       </c>
-      <c r="B76" t="s" s="14">
-        <v>163</v>
-      </c>
-      <c r="C76" t="s" s="12">
-        <v>18</v>
+      <c r="C76" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -4401,14 +4404,14 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" ht="20.7" customHeight="1">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="14">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="B77" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s" s="8">
-        <v>10</v>
+      <c r="C77" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -4416,15 +4419,15 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.35" customHeight="1">
-      <c r="A78" t="s" s="11">
+    <row r="78" ht="20.7" customHeight="1">
+      <c r="A78" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="B78" t="s" s="11">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s" s="12">
-        <v>28</v>
+      <c r="C78" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4432,19 +4435,17 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="12">
+    <row r="79" ht="20.35" customHeight="1">
+      <c r="A79" t="s" s="11">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s" s="11">
         <v>168</v>
       </c>
-      <c r="B79" t="s" s="12">
-        <v>169</v>
-      </c>
       <c r="C79" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D79" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
@@ -4452,16 +4453,16 @@
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="B80" t="s" s="12">
-        <v>171</v>
-      </c>
       <c r="C80" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D80" s="9">
-        <v>0.461538461538462</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -4470,85 +4471,87 @@
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s" s="12">
         <v>172</v>
       </c>
-      <c r="B81" t="s" s="12">
-        <v>173</v>
-      </c>
       <c r="C81" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D81" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.35" customHeight="1">
-      <c r="A82" t="s" s="13">
-        <v>172</v>
-      </c>
-      <c r="B82" t="s" s="13">
+    <row r="82" ht="20.05" customHeight="1">
+      <c r="A82" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s" s="12">
         <v>174</v>
       </c>
       <c r="C82" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D82" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.7" customHeight="1">
-      <c r="A83" t="s" s="4">
+    <row r="83" ht="20.35" customHeight="1">
+      <c r="A83" t="s" s="13">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s" s="13">
         <v>175</v>
       </c>
-      <c r="B83" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D83" s="9"/>
+      <c r="C83" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.35" customHeight="1">
-      <c r="A84" t="s" s="11">
+    <row r="84" ht="20.7" customHeight="1">
+      <c r="A84" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="B84" t="s" s="11">
-        <v>178</v>
-      </c>
-      <c r="C84" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C84" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="12">
+    <row r="85" ht="20.35" customHeight="1">
+      <c r="A85" t="s" s="11">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s" s="11">
         <v>179</v>
       </c>
-      <c r="B85" t="s" s="12">
-        <v>180</v>
-      </c>
       <c r="C85" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D85" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
@@ -4556,45 +4559,45 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="12">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s" s="12">
         <v>181</v>
       </c>
-      <c r="B86" t="s" s="12">
-        <v>182</v>
-      </c>
       <c r="C86" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D86" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.35" customHeight="1">
-      <c r="A87" t="s" s="13">
+    <row r="87" ht="20.05" customHeight="1">
+      <c r="A87" t="s" s="12">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s" s="12">
         <v>183</v>
       </c>
-      <c r="B87" t="s" s="13">
-        <v>184</v>
-      </c>
       <c r="C87" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D87" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D87" s="10"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.7" customHeight="1">
-      <c r="A88" t="s" s="4">
+    <row r="88" ht="20.35" customHeight="1">
+      <c r="A88" t="s" s="13">
+        <v>184</v>
+      </c>
+      <c r="B88" t="s" s="13">
         <v>185</v>
       </c>
-      <c r="B88" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="C88" t="s" s="8">
-        <v>25</v>
+      <c r="C88" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -4603,14 +4606,14 @@
       <c r="H88" s="10"/>
     </row>
     <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="14">
+      <c r="A89" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="B89" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="B89" t="s" s="14">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s" s="12">
-        <v>15</v>
+      <c r="C89" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4619,14 +4622,14 @@
       <c r="H89" s="10"/>
     </row>
     <row r="90" ht="20.7" customHeight="1">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s" s="14">
         <v>189</v>
       </c>
-      <c r="B90" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="C90" t="s" s="8">
-        <v>25</v>
+      <c r="C90" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -4636,10 +4639,10 @@
     </row>
     <row r="91" ht="20.7" customHeight="1">
       <c r="A91" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s" s="4">
         <v>191</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>192</v>
       </c>
       <c r="C91" t="s" s="8">
         <v>25</v>
@@ -4650,15 +4653,15 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.35" customHeight="1">
-      <c r="A92" t="s" s="11">
+    <row r="92" ht="20.7" customHeight="1">
+      <c r="A92" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s" s="4">
         <v>193</v>
       </c>
-      <c r="B92" t="s" s="11">
-        <v>194</v>
-      </c>
-      <c r="C92" t="s" s="12">
-        <v>15</v>
+      <c r="C92" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4666,65 +4669,65 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="12">
+    <row r="93" ht="20.35" customHeight="1">
+      <c r="A93" t="s" s="11">
+        <v>194</v>
+      </c>
+      <c r="B93" t="s" s="11">
         <v>195</v>
       </c>
-      <c r="B93" t="s" s="12">
-        <v>196</v>
-      </c>
       <c r="C93" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D93" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.35" customHeight="1">
-      <c r="A94" t="s" s="13">
+    <row r="94" ht="20.05" customHeight="1">
+      <c r="A94" t="s" s="12">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s" s="12">
         <v>197</v>
       </c>
-      <c r="B94" t="s" s="13">
-        <v>198</v>
-      </c>
-      <c r="C94" s="10"/>
+      <c r="C94" t="s" s="12">
+        <v>43</v>
+      </c>
       <c r="D94" s="9">
-        <v>0.897435897435897</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.7" customHeight="1">
-      <c r="A95" t="s" s="4">
+    <row r="95" ht="20.35" customHeight="1">
+      <c r="A95" t="s" s="13">
+        <v>198</v>
+      </c>
+      <c r="B95" t="s" s="13">
         <v>199</v>
       </c>
-      <c r="B95" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="C95" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.35" customHeight="1">
-      <c r="A96" t="s" s="11">
+    <row r="96" ht="20.7" customHeight="1">
+      <c r="A96" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s" s="4">
         <v>201</v>
       </c>
-      <c r="B96" t="s" s="11">
-        <v>202</v>
-      </c>
-      <c r="C96" t="s" s="12">
-        <v>39</v>
+      <c r="C96" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4732,15 +4735,15 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="12">
+    <row r="97" ht="20.35" customHeight="1">
+      <c r="A97" t="s" s="11">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="B97" t="s" s="12">
-        <v>204</v>
-      </c>
       <c r="C97" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4750,13 +4753,13 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s" s="12">
         <v>205</v>
       </c>
-      <c r="B98" t="s" s="12">
-        <v>206</v>
-      </c>
       <c r="C98" t="s" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4766,13 +4769,13 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="B99" t="s" s="12">
-        <v>208</v>
-      </c>
       <c r="C99" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4780,15 +4783,15 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.35" customHeight="1">
-      <c r="A100" t="s" s="13">
+    <row r="100" ht="20.05" customHeight="1">
+      <c r="A100" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="B100" t="s" s="13">
-        <v>210</v>
-      </c>
       <c r="C100" t="s" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4796,15 +4799,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.7" customHeight="1">
-      <c r="A101" t="s" s="4">
+    <row r="101" ht="20.35" customHeight="1">
+      <c r="A101" t="s" s="13">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s" s="13">
         <v>211</v>
       </c>
-      <c r="B101" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="C101" t="s" s="8">
-        <v>25</v>
+      <c r="C101" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4814,10 +4817,10 @@
     </row>
     <row r="102" ht="20.7" customHeight="1">
       <c r="A102" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s" s="4">
         <v>213</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>214</v>
       </c>
       <c r="C102" t="s" s="8">
         <v>25</v>
@@ -4829,14 +4832,14 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="14">
+      <c r="A103" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="B103" t="s" s="4">
         <v>215</v>
       </c>
-      <c r="B103" t="s" s="14">
-        <v>216</v>
-      </c>
-      <c r="C103" t="s" s="12">
-        <v>15</v>
+      <c r="C103" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4845,14 +4848,14 @@
       <c r="H103" s="10"/>
     </row>
     <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="14">
+        <v>216</v>
+      </c>
+      <c r="B104" t="s" s="14">
         <v>217</v>
       </c>
-      <c r="B104" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="C104" t="s" s="8">
-        <v>25</v>
+      <c r="C104" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4860,35 +4863,35 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.35" customHeight="1">
-      <c r="A105" t="s" s="11">
+    <row r="105" ht="20.7" customHeight="1">
+      <c r="A105" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="11">
-        <v>219</v>
-      </c>
-      <c r="C105" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D105" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="B105" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="12">
+    <row r="106" ht="20.35" customHeight="1">
+      <c r="A106" t="s" s="11">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="12">
-        <v>221</v>
-      </c>
       <c r="C106" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D106" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
@@ -4896,13 +4899,13 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="12">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s" s="12">
         <v>222</v>
       </c>
-      <c r="B107" t="s" s="12">
-        <v>223</v>
-      </c>
       <c r="C107" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4910,12 +4913,12 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.35" customHeight="1">
-      <c r="A108" t="s" s="13">
+    <row r="108" ht="20.05" customHeight="1">
+      <c r="A108" t="s" s="12">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s" s="12">
         <v>224</v>
-      </c>
-      <c r="B108" t="s" s="13">
-        <v>225</v>
       </c>
       <c r="C108" t="s" s="12">
         <v>18</v>
@@ -4926,15 +4929,15 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.7" customHeight="1">
-      <c r="A109" t="s" s="4">
+    <row r="109" ht="20.35" customHeight="1">
+      <c r="A109" t="s" s="13">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s" s="13">
         <v>226</v>
       </c>
-      <c r="B109" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="C109" t="s" s="8">
-        <v>25</v>
+      <c r="C109" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -4942,15 +4945,15 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.35" customHeight="1">
-      <c r="A110" t="s" s="11">
+    <row r="110" ht="20.7" customHeight="1">
+      <c r="A110" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s" s="4">
         <v>228</v>
       </c>
-      <c r="B110" t="s" s="11">
-        <v>229</v>
-      </c>
-      <c r="C110" t="s" s="12">
-        <v>42</v>
+      <c r="C110" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4958,15 +4961,15 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="12">
+    <row r="111" ht="20.35" customHeight="1">
+      <c r="A111" t="s" s="11">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s" s="11">
         <v>230</v>
       </c>
-      <c r="B111" t="s" s="12">
-        <v>231</v>
-      </c>
       <c r="C111" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4976,13 +4979,13 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="12">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="B112" t="s" s="12">
-        <v>233</v>
-      </c>
       <c r="C112" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4990,15 +4993,15 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" t="s" s="13">
+    <row r="113" ht="20.05" customHeight="1">
+      <c r="A113" t="s" s="12">
+        <v>233</v>
+      </c>
+      <c r="B113" t="s" s="12">
         <v>234</v>
       </c>
-      <c r="B113" t="s" s="13">
-        <v>235</v>
-      </c>
       <c r="C113" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5006,15 +5009,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.7" customHeight="1">
-      <c r="A114" t="s" s="4">
+    <row r="114" ht="20.35" customHeight="1">
+      <c r="A114" t="s" s="13">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s" s="13">
         <v>236</v>
       </c>
-      <c r="B114" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="C114" t="s" s="8">
-        <v>25</v>
+      <c r="C114" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5023,14 +5026,14 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" ht="20.7" customHeight="1">
-      <c r="A115" t="s" s="14">
+      <c r="A115" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s" s="4">
         <v>238</v>
       </c>
-      <c r="B115" t="s" s="14">
-        <v>239</v>
-      </c>
-      <c r="C115" t="s" s="12">
-        <v>71</v>
+      <c r="C115" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5039,14 +5042,14 @@
       <c r="H115" s="10"/>
     </row>
     <row r="116" ht="20.7" customHeight="1">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s" s="14">
         <v>240</v>
       </c>
-      <c r="B116" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="C116" t="s" s="8">
-        <v>25</v>
+      <c r="C116" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5054,15 +5057,15 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.35" customHeight="1">
-      <c r="A117" t="s" s="11">
+    <row r="117" ht="20.7" customHeight="1">
+      <c r="A117" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="B117" t="s" s="11">
-        <v>243</v>
-      </c>
-      <c r="C117" t="s" s="12">
-        <v>39</v>
+      <c r="C117" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5071,14 +5074,14 @@
       <c r="H117" s="10"/>
     </row>
     <row r="118" ht="20.35" customHeight="1">
-      <c r="A118" t="s" s="13">
+      <c r="A118" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="B118" t="s" s="11">
         <v>244</v>
       </c>
-      <c r="B118" t="s" s="13">
-        <v>245</v>
-      </c>
       <c r="C118" t="s" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5086,15 +5089,15 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="4">
+    <row r="119" ht="20.35" customHeight="1">
+      <c r="A119" t="s" s="13">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s" s="13">
         <v>246</v>
       </c>
-      <c r="B119" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="C119" t="s" s="8">
-        <v>25</v>
+      <c r="C119" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5102,15 +5105,15 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.35" customHeight="1">
-      <c r="A120" t="s" s="11">
+    <row r="120" ht="20.7" customHeight="1">
+      <c r="A120" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s" s="4">
         <v>248</v>
       </c>
-      <c r="B120" t="s" s="11">
-        <v>249</v>
-      </c>
-      <c r="C120" t="s" s="12">
-        <v>42</v>
+      <c r="C120" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5119,150 +5122,150 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="13">
+      <c r="A121" t="s" s="11">
+        <v>249</v>
+      </c>
+      <c r="B121" t="s" s="11">
         <v>250</v>
       </c>
-      <c r="B121" t="s" s="13">
-        <v>251</v>
-      </c>
       <c r="C121" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D121" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.7" customHeight="1">
-      <c r="A122" t="s" s="4">
+    <row r="122" ht="20.35" customHeight="1">
+      <c r="A122" t="s" s="13">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s" s="13">
         <v>252</v>
       </c>
-      <c r="B122" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="C122" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D122" s="9"/>
+      <c r="C122" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D122" s="10"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="14">
+      <c r="A123" t="s" s="4">
+        <v>253</v>
+      </c>
+      <c r="B123" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B123" t="s" s="14">
-        <v>255</v>
-      </c>
-      <c r="C123" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D123" s="10"/>
+      <c r="C123" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s" s="14">
         <v>256</v>
       </c>
-      <c r="B124" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="C124" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D124" s="9"/>
+      <c r="C124" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D124" s="10"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="11">
+    <row r="125" ht="20.7" customHeight="1">
+      <c r="A125" t="s" s="4">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="B125" t="s" s="11">
-        <v>259</v>
-      </c>
-      <c r="C125" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D125" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C125" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="13">
+      <c r="A126" t="s" s="11">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s" s="11">
         <v>260</v>
-      </c>
-      <c r="B126" t="s" s="13">
-        <v>261</v>
       </c>
       <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D126" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="4">
+    <row r="127" ht="20.35" customHeight="1">
+      <c r="A127" t="s" s="13">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s" s="13">
         <v>262</v>
       </c>
-      <c r="B127" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C127" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D127" s="9"/>
+      <c r="C127" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D127" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.35" customHeight="1">
-      <c r="A128" t="s" s="11">
+    <row r="128" ht="20.7" customHeight="1">
+      <c r="A128" t="s" s="4">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s" s="4">
         <v>264</v>
       </c>
-      <c r="B128" t="s" s="11">
-        <v>265</v>
-      </c>
-      <c r="C128" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C128" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="12">
+    <row r="129" ht="20.35" customHeight="1">
+      <c r="A129" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="B129" t="s" s="11">
         <v>266</v>
       </c>
-      <c r="B129" t="s" s="12">
-        <v>267</v>
-      </c>
       <c r="C129" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D129" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D129" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
@@ -5270,15 +5273,15 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="12">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s" s="12">
         <v>268</v>
       </c>
-      <c r="B130" t="s" s="12">
-        <v>269</v>
-      </c>
       <c r="C130" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D130" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D130" s="10"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
@@ -5286,13 +5289,13 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s" s="12">
         <v>270</v>
       </c>
-      <c r="B131" t="s" s="12">
-        <v>271</v>
-      </c>
       <c r="C131" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5302,13 +5305,13 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="12">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s" s="12">
         <v>272</v>
       </c>
-      <c r="B132" t="s" s="12">
-        <v>273</v>
-      </c>
       <c r="C132" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5318,13 +5321,13 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="12">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s" s="12">
         <v>274</v>
       </c>
-      <c r="B133" t="s" s="12">
-        <v>275</v>
-      </c>
       <c r="C133" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5334,13 +5337,13 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="12">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s" s="12">
         <v>276</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5350,13 +5353,13 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="12">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s" s="12">
         <v>277</v>
       </c>
-      <c r="B135" t="s" s="12">
-        <v>278</v>
-      </c>
       <c r="C135" t="s" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5366,13 +5369,13 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="12">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s" s="12">
         <v>279</v>
       </c>
-      <c r="B136" t="s" s="12">
-        <v>280</v>
-      </c>
       <c r="C136" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5382,47 +5385,47 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="12">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s" s="12">
         <v>281</v>
       </c>
-      <c r="B137" t="s" s="12">
-        <v>282</v>
-      </c>
       <c r="C137" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D137" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" ht="20.35" customHeight="1">
-      <c r="A138" t="s" s="13">
+    <row r="138" ht="20.05" customHeight="1">
+      <c r="A138" t="s" s="12">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s" s="12">
         <v>283</v>
       </c>
-      <c r="B138" t="s" s="13">
-        <v>284</v>
-      </c>
       <c r="C138" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D138" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" ht="20.7" customHeight="1">
-      <c r="A139" t="s" s="4">
+    <row r="139" ht="20.35" customHeight="1">
+      <c r="A139" t="s" s="13">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s" s="13">
         <v>285</v>
       </c>
-      <c r="B139" t="s" s="4">
-        <v>286</v>
-      </c>
-      <c r="C139" t="s" s="8">
-        <v>25</v>
+      <c r="C139" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5430,35 +5433,33 @@
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" ht="20.35" customHeight="1">
-      <c r="A140" t="s" s="11">
+    <row r="140" ht="20.7" customHeight="1">
+      <c r="A140" t="s" s="4">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="B140" t="s" s="11">
-        <v>288</v>
-      </c>
-      <c r="C140" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D140" s="10"/>
+      <c r="C140" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" t="s" s="12">
+    <row r="141" ht="20.35" customHeight="1">
+      <c r="A141" t="s" s="11">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s" s="11">
         <v>289</v>
       </c>
-      <c r="B141" t="s" s="12">
-        <v>290</v>
-      </c>
       <c r="C141" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D141" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D141" s="10"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
@@ -5466,15 +5467,17 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="12">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s" s="12">
         <v>291</v>
       </c>
-      <c r="B142" t="s" s="12">
-        <v>292</v>
-      </c>
       <c r="C142" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D142" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
@@ -5482,13 +5485,13 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="12">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s" s="12">
         <v>293</v>
       </c>
-      <c r="B143" t="s" s="12">
-        <v>294</v>
-      </c>
       <c r="C143" t="s" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -5498,13 +5501,13 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="12">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s" s="12">
         <v>295</v>
       </c>
-      <c r="B144" t="s" s="12">
-        <v>296</v>
-      </c>
       <c r="C144" t="s" s="12">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -5514,45 +5517,45 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B145" t="s" s="12">
         <v>297</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D145" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.35" customHeight="1">
-      <c r="A146" t="s" s="13">
-        <v>295</v>
-      </c>
-      <c r="B146" t="s" s="13">
+    <row r="146" ht="20.05" customHeight="1">
+      <c r="A146" t="s" s="12">
+        <v>296</v>
+      </c>
+      <c r="B146" t="s" s="12">
         <v>298</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D146" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D146" s="10"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.7" customHeight="1">
-      <c r="A147" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="B147" t="s" s="4">
+    <row r="147" ht="20.35" customHeight="1">
+      <c r="A147" t="s" s="13">
+        <v>296</v>
+      </c>
+      <c r="B147" t="s" s="13">
         <v>299</v>
       </c>
-      <c r="C147" t="s" s="8">
-        <v>25</v>
+      <c r="C147" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5560,15 +5563,15 @@
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.35" customHeight="1">
-      <c r="A148" t="s" s="11">
+    <row r="148" ht="20.7" customHeight="1">
+      <c r="A148" t="s" s="4">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="B148" t="s" s="11">
-        <v>301</v>
-      </c>
-      <c r="C148" t="s" s="12">
-        <v>42</v>
+      <c r="C148" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -5576,15 +5579,15 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" ht="20.05" customHeight="1">
-      <c r="A149" t="s" s="12">
+    <row r="149" ht="20.35" customHeight="1">
+      <c r="A149" t="s" s="11">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s" s="11">
         <v>302</v>
       </c>
-      <c r="B149" t="s" s="12">
-        <v>303</v>
-      </c>
       <c r="C149" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -5594,17 +5597,15 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="12">
+        <v>303</v>
+      </c>
+      <c r="B150" t="s" s="12">
         <v>304</v>
       </c>
-      <c r="B150" t="s" s="12">
-        <v>305</v>
-      </c>
       <c r="C150" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D150" s="9">
-        <v>0.692307692307692</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
@@ -5612,15 +5613,17 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="12">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s" s="12">
         <v>306</v>
       </c>
-      <c r="B151" t="s" s="12">
-        <v>307</v>
-      </c>
       <c r="C151" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D151" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D151" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
@@ -5628,15 +5631,15 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="12">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s" s="12">
         <v>308</v>
       </c>
-      <c r="B152" t="s" s="12">
-        <v>309</v>
-      </c>
       <c r="C152" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D152" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
@@ -5644,15 +5647,15 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="B153" t="s" s="12">
         <v>310</v>
       </c>
-      <c r="B153" t="s" s="12">
-        <v>311</v>
-      </c>
       <c r="C153" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D153" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D153" s="10"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
@@ -5660,17 +5663,15 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="12">
+        <v>311</v>
+      </c>
+      <c r="B154" t="s" s="12">
         <v>312</v>
       </c>
-      <c r="B154" t="s" s="12">
-        <v>313</v>
-      </c>
       <c r="C154" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D154" s="9">
-        <v>0.256410256410256</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
@@ -5678,15 +5679,17 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="12">
+        <v>313</v>
+      </c>
+      <c r="B155" t="s" s="12">
         <v>314</v>
       </c>
-      <c r="B155" t="s" s="12">
-        <v>315</v>
-      </c>
       <c r="C155" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D155" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D155" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
@@ -5694,13 +5697,13 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="12">
+        <v>315</v>
+      </c>
+      <c r="B156" t="s" s="12">
         <v>316</v>
       </c>
-      <c r="B156" t="s" s="12">
-        <v>317</v>
-      </c>
       <c r="C156" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -5710,13 +5713,13 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="12">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s" s="12">
         <v>318</v>
       </c>
-      <c r="B157" t="s" s="12">
-        <v>319</v>
-      </c>
       <c r="C157" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -5724,15 +5727,15 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" ht="20.35" customHeight="1">
-      <c r="A158" t="s" s="13">
+    <row r="158" ht="20.05" customHeight="1">
+      <c r="A158" t="s" s="12">
+        <v>319</v>
+      </c>
+      <c r="B158" t="s" s="12">
         <v>320</v>
       </c>
-      <c r="B158" t="s" s="13">
-        <v>321</v>
-      </c>
       <c r="C158" t="s" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -5740,15 +5743,15 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" ht="20.7" customHeight="1">
-      <c r="A159" t="s" s="4">
+    <row r="159" ht="20.35" customHeight="1">
+      <c r="A159" t="s" s="13">
+        <v>321</v>
+      </c>
+      <c r="B159" t="s" s="13">
         <v>322</v>
       </c>
-      <c r="B159" t="s" s="4">
-        <v>323</v>
-      </c>
-      <c r="C159" t="s" s="8">
-        <v>25</v>
+      <c r="C159" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -5756,15 +5759,15 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" ht="20.35" customHeight="1">
-      <c r="A160" t="s" s="11">
+    <row r="160" ht="20.7" customHeight="1">
+      <c r="A160" t="s" s="4">
+        <v>323</v>
+      </c>
+      <c r="B160" t="s" s="4">
         <v>324</v>
       </c>
-      <c r="B160" t="s" s="11">
-        <v>325</v>
-      </c>
-      <c r="C160" t="s" s="12">
-        <v>42</v>
+      <c r="C160" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5772,17 +5775,17 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" ht="20.05" customHeight="1">
-      <c r="A161" t="s" s="12">
+    <row r="161" ht="20.35" customHeight="1">
+      <c r="A161" t="s" s="11">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s" s="11">
         <v>326</v>
       </c>
-      <c r="B161" t="s" s="12">
-        <v>327</v>
-      </c>
       <c r="C161" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D161" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
@@ -5790,17 +5793,15 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="12">
+        <v>327</v>
+      </c>
+      <c r="B162" t="s" s="12">
         <v>328</v>
       </c>
-      <c r="B162" t="s" s="12">
-        <v>329</v>
-      </c>
       <c r="C162" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D162" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D162" s="10"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
@@ -5808,15 +5809,17 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="12">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s" s="12">
         <v>330</v>
       </c>
-      <c r="B163" t="s" s="12">
-        <v>331</v>
-      </c>
       <c r="C163" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D163" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D163" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
@@ -5824,15 +5827,15 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="12">
+        <v>331</v>
+      </c>
+      <c r="B164" t="s" s="12">
         <v>332</v>
       </c>
-      <c r="B164" t="s" s="12">
-        <v>333</v>
-      </c>
       <c r="C164" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D164" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
@@ -5840,15 +5843,15 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="12">
+        <v>333</v>
+      </c>
+      <c r="B165" t="s" s="12">
         <v>334</v>
       </c>
-      <c r="B165" t="s" s="12">
-        <v>335</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C165" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D165" s="10"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
@@ -5856,16 +5859,14 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="12">
+        <v>335</v>
+      </c>
+      <c r="B166" t="s" s="12">
         <v>336</v>
       </c>
-      <c r="B166" t="s" s="12">
-        <v>337</v>
-      </c>
-      <c r="C166" t="s" s="12">
-        <v>39</v>
-      </c>
+      <c r="C166" s="10"/>
       <c r="D166" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
@@ -5874,15 +5875,17 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="12">
+        <v>337</v>
+      </c>
+      <c r="B167" t="s" s="12">
         <v>338</v>
       </c>
-      <c r="B167" t="s" s="12">
-        <v>339</v>
-      </c>
       <c r="C167" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D167" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D167" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -5890,13 +5893,13 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="12">
+        <v>339</v>
+      </c>
+      <c r="B168" t="s" s="12">
         <v>340</v>
       </c>
-      <c r="B168" t="s" s="12">
-        <v>341</v>
-      </c>
       <c r="C168" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -5904,15 +5907,15 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" ht="20.35" customHeight="1">
-      <c r="A169" t="s" s="13">
+    <row r="169" ht="20.05" customHeight="1">
+      <c r="A169" t="s" s="12">
+        <v>341</v>
+      </c>
+      <c r="B169" t="s" s="12">
         <v>342</v>
       </c>
-      <c r="B169" t="s" s="13">
-        <v>343</v>
-      </c>
       <c r="C169" t="s" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -5920,15 +5923,15 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.7" customHeight="1">
-      <c r="A170" t="s" s="4">
+    <row r="170" ht="20.35" customHeight="1">
+      <c r="A170" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="B170" t="s" s="13">
         <v>344</v>
       </c>
-      <c r="B170" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="C170" t="s" s="8">
-        <v>25</v>
+      <c r="C170" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -5936,15 +5939,15 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.35" customHeight="1">
-      <c r="A171" t="s" s="11">
+    <row r="171" ht="20.7" customHeight="1">
+      <c r="A171" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="B171" t="s" s="4">
         <v>346</v>
       </c>
-      <c r="B171" t="s" s="11">
-        <v>347</v>
-      </c>
-      <c r="C171" t="s" s="12">
-        <v>15</v>
+      <c r="C171" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -5952,15 +5955,15 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" ht="20.05" customHeight="1">
-      <c r="A172" t="s" s="12">
+    <row r="172" ht="20.35" customHeight="1">
+      <c r="A172" t="s" s="11">
+        <v>347</v>
+      </c>
+      <c r="B172" t="s" s="11">
         <v>348</v>
       </c>
-      <c r="B172" t="s" s="12">
-        <v>349</v>
-      </c>
       <c r="C172" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -5970,13 +5973,13 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="12">
+        <v>349</v>
+      </c>
+      <c r="B173" t="s" s="12">
         <v>350</v>
       </c>
-      <c r="B173" t="s" s="12">
-        <v>351</v>
-      </c>
       <c r="C173" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -5986,13 +5989,13 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="12">
+        <v>351</v>
+      </c>
+      <c r="B174" t="s" s="12">
         <v>352</v>
       </c>
-      <c r="B174" t="s" s="12">
-        <v>353</v>
-      </c>
       <c r="C174" t="s" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -6002,13 +6005,13 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="12">
+        <v>353</v>
+      </c>
+      <c r="B175" t="s" s="12">
         <v>354</v>
       </c>
-      <c r="B175" t="s" s="12">
-        <v>355</v>
-      </c>
       <c r="C175" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -6018,17 +6021,15 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="12">
+        <v>355</v>
+      </c>
+      <c r="B176" t="s" s="12">
         <v>356</v>
-      </c>
-      <c r="B176" t="s" s="12">
-        <v>357</v>
       </c>
       <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
@@ -6036,15 +6037,17 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="12">
+        <v>357</v>
+      </c>
+      <c r="B177" t="s" s="12">
         <v>358</v>
       </c>
-      <c r="B177" t="s" s="12">
-        <v>359</v>
-      </c>
       <c r="C177" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D177" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D177" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
@@ -6052,13 +6055,13 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="12">
+        <v>359</v>
+      </c>
+      <c r="B178" t="s" s="12">
         <v>360</v>
       </c>
-      <c r="B178" t="s" s="12">
-        <v>361</v>
-      </c>
       <c r="C178" t="s" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6066,49 +6069,49 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.35" customHeight="1">
-      <c r="A179" t="s" s="13">
-        <v>360</v>
-      </c>
-      <c r="B179" t="s" s="13">
+    <row r="179" ht="20.05" customHeight="1">
+      <c r="A179" t="s" s="12">
+        <v>361</v>
+      </c>
+      <c r="B179" t="s" s="12">
         <v>362</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D179" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" ht="20.7" customHeight="1">
-      <c r="A180" t="s" s="4">
+    <row r="180" ht="20.35" customHeight="1">
+      <c r="A180" t="s" s="13">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s" s="13">
         <v>363</v>
       </c>
-      <c r="B180" t="s" s="4">
-        <v>364</v>
-      </c>
-      <c r="C180" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D180" s="9"/>
+      <c r="C180" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D180" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
     <row r="181" ht="20.7" customHeight="1">
-      <c r="A181" t="s" s="14">
+      <c r="A181" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="B181" t="s" s="4">
         <v>365</v>
       </c>
-      <c r="B181" t="s" s="14">
-        <v>366</v>
-      </c>
-      <c r="C181" t="s" s="12">
-        <v>42</v>
+      <c r="C181" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -6117,14 +6120,14 @@
       <c r="H181" s="10"/>
     </row>
     <row r="182" ht="20.7" customHeight="1">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="14">
+        <v>366</v>
+      </c>
+      <c r="B182" t="s" s="14">
         <v>367</v>
       </c>
-      <c r="B182" t="s" s="4">
-        <v>368</v>
-      </c>
-      <c r="C182" t="s" s="8">
-        <v>25</v>
+      <c r="C182" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6132,15 +6135,15 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.35" customHeight="1">
-      <c r="A183" t="s" s="11">
+    <row r="183" ht="20.7" customHeight="1">
+      <c r="A183" t="s" s="4">
+        <v>368</v>
+      </c>
+      <c r="B183" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="B183" t="s" s="11">
-        <v>370</v>
-      </c>
-      <c r="C183" t="s" s="12">
-        <v>71</v>
+      <c r="C183" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6149,14 +6152,14 @@
       <c r="H183" s="10"/>
     </row>
     <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="13">
+      <c r="A184" t="s" s="11">
+        <v>370</v>
+      </c>
+      <c r="B184" t="s" s="11">
         <v>371</v>
       </c>
-      <c r="B184" t="s" s="13">
-        <v>372</v>
-      </c>
       <c r="C184" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -6164,15 +6167,15 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="4">
+    <row r="185" ht="20.35" customHeight="1">
+      <c r="A185" t="s" s="13">
+        <v>372</v>
+      </c>
+      <c r="B185" t="s" s="13">
         <v>373</v>
       </c>
-      <c r="B185" t="s" s="4">
-        <v>374</v>
-      </c>
-      <c r="C185" t="s" s="8">
-        <v>10</v>
+      <c r="C185" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -6180,67 +6183,67 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.35" customHeight="1">
-      <c r="A186" t="s" s="11">
+    <row r="186" ht="20.7" customHeight="1">
+      <c r="A186" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="B186" t="s" s="4">
         <v>375</v>
       </c>
-      <c r="B186" t="s" s="11">
-        <v>376</v>
-      </c>
-      <c r="C186" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D186" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C186" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.05" customHeight="1">
-      <c r="A187" t="s" s="12">
-        <v>375</v>
-      </c>
-      <c r="B187" t="s" s="12">
+    <row r="187" ht="20.35" customHeight="1">
+      <c r="A187" t="s" s="11">
+        <v>376</v>
+      </c>
+      <c r="B187" t="s" s="11">
         <v>377</v>
       </c>
       <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D187" s="9">
-        <v>0.41025641025641</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.35" customHeight="1">
-      <c r="A188" t="s" s="13">
+    <row r="188" ht="20.05" customHeight="1">
+      <c r="A188" t="s" s="12">
+        <v>376</v>
+      </c>
+      <c r="B188" t="s" s="12">
         <v>378</v>
       </c>
-      <c r="B188" t="s" s="13">
-        <v>379</v>
-      </c>
       <c r="C188" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D188" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D188" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="4">
-        <v>378</v>
-      </c>
-      <c r="B189" t="s" s="4">
+    <row r="189" ht="20.35" customHeight="1">
+      <c r="A189" t="s" s="13">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s" s="13">
         <v>380</v>
       </c>
-      <c r="C189" t="s" s="8">
-        <v>10</v>
+      <c r="C189" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -6249,14 +6252,14 @@
       <c r="H189" s="10"/>
     </row>
     <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="14">
+      <c r="A190" t="s" s="4">
+        <v>379</v>
+      </c>
+      <c r="B190" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="B190" t="s" s="14">
-        <v>382</v>
-      </c>
-      <c r="C190" t="s" s="12">
-        <v>28</v>
+      <c r="C190" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -6265,14 +6268,14 @@
       <c r="H190" s="10"/>
     </row>
     <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="14">
+        <v>382</v>
+      </c>
+      <c r="B191" t="s" s="14">
         <v>383</v>
       </c>
-      <c r="B191" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="C191" t="s" s="8">
-        <v>25</v>
+      <c r="C191" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6281,14 +6284,14 @@
       <c r="H191" s="10"/>
     </row>
     <row r="192" ht="20.7" customHeight="1">
-      <c r="A192" t="s" s="14">
+      <c r="A192" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="B192" t="s" s="4">
         <v>385</v>
       </c>
-      <c r="B192" t="s" s="14">
-        <v>386</v>
-      </c>
-      <c r="C192" t="s" s="12">
-        <v>71</v>
+      <c r="C192" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6297,14 +6300,14 @@
       <c r="H192" s="10"/>
     </row>
     <row r="193" ht="20.7" customHeight="1">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="14">
+        <v>386</v>
+      </c>
+      <c r="B193" t="s" s="14">
         <v>387</v>
       </c>
-      <c r="B193" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="C193" t="s" s="8">
-        <v>25</v>
+      <c r="C193" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -6314,13 +6317,13 @@
     </row>
     <row r="194" ht="20.7" customHeight="1">
       <c r="A194" t="s" s="4">
+        <v>388</v>
+      </c>
+      <c r="B194" t="s" s="4">
         <v>389</v>
       </c>
-      <c r="B194" t="s" s="4">
-        <v>390</v>
-      </c>
       <c r="C194" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -6328,15 +6331,15 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.35" customHeight="1">
-      <c r="A195" t="s" s="11">
+    <row r="195" ht="20.7" customHeight="1">
+      <c r="A195" t="s" s="4">
+        <v>390</v>
+      </c>
+      <c r="B195" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="B195" t="s" s="11">
-        <v>392</v>
-      </c>
-      <c r="C195" t="s" s="12">
-        <v>15</v>
+      <c r="C195" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6344,15 +6347,15 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.05" customHeight="1">
-      <c r="A196" t="s" s="12">
+    <row r="196" ht="20.35" customHeight="1">
+      <c r="A196" t="s" s="11">
+        <v>392</v>
+      </c>
+      <c r="B196" t="s" s="11">
         <v>393</v>
       </c>
-      <c r="B196" t="s" s="12">
-        <v>394</v>
-      </c>
       <c r="C196" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -6362,13 +6365,13 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="12">
+        <v>394</v>
+      </c>
+      <c r="B197" t="s" s="12">
         <v>395</v>
       </c>
-      <c r="B197" t="s" s="12">
-        <v>396</v>
-      </c>
       <c r="C197" t="s" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6378,13 +6381,13 @@
     </row>
     <row r="198" ht="20.05" customHeight="1">
       <c r="A198" t="s" s="12">
+        <v>396</v>
+      </c>
+      <c r="B198" t="s" s="12">
         <v>397</v>
       </c>
-      <c r="B198" t="s" s="12">
-        <v>398</v>
-      </c>
       <c r="C198" t="s" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6392,15 +6395,15 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.35" customHeight="1">
-      <c r="A199" t="s" s="13">
+    <row r="199" ht="20.05" customHeight="1">
+      <c r="A199" t="s" s="12">
+        <v>398</v>
+      </c>
+      <c r="B199" t="s" s="12">
         <v>399</v>
       </c>
-      <c r="B199" t="s" s="13">
-        <v>400</v>
-      </c>
       <c r="C199" t="s" s="12">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6408,15 +6411,15 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="4">
+    <row r="200" ht="20.35" customHeight="1">
+      <c r="A200" t="s" s="13">
+        <v>400</v>
+      </c>
+      <c r="B200" t="s" s="13">
         <v>401</v>
       </c>
-      <c r="B200" t="s" s="4">
-        <v>402</v>
-      </c>
-      <c r="C200" t="s" s="8">
-        <v>25</v>
+      <c r="C200" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -6424,15 +6427,15 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.35" customHeight="1">
-      <c r="A201" t="s" s="11">
+    <row r="201" ht="20.7" customHeight="1">
+      <c r="A201" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="B201" t="s" s="11">
-        <v>404</v>
-      </c>
-      <c r="C201" t="s" s="12">
-        <v>42</v>
+      <c r="C201" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6441,34 +6444,34 @@
       <c r="H201" s="10"/>
     </row>
     <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="13">
+      <c r="A202" t="s" s="11">
+        <v>404</v>
+      </c>
+      <c r="B202" t="s" s="11">
         <v>405</v>
       </c>
-      <c r="B202" t="s" s="13">
-        <v>406</v>
-      </c>
       <c r="C202" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D202" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.7" customHeight="1">
-      <c r="A203" t="s" s="4">
+    <row r="203" ht="20.35" customHeight="1">
+      <c r="A203" t="s" s="13">
+        <v>406</v>
+      </c>
+      <c r="B203" t="s" s="13">
         <v>407</v>
       </c>
-      <c r="B203" t="s" s="4">
-        <v>408</v>
-      </c>
-      <c r="C203" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D203" s="9"/>
+      <c r="C203" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D203" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
@@ -6476,10 +6479,10 @@
     </row>
     <row r="204" ht="20.7" customHeight="1">
       <c r="A204" t="s" s="4">
+        <v>408</v>
+      </c>
+      <c r="B204" t="s" s="4">
         <v>409</v>
-      </c>
-      <c r="B204" t="s" s="4">
-        <v>410</v>
       </c>
       <c r="C204" t="s" s="8">
         <v>10</v>
@@ -6491,14 +6494,14 @@
       <c r="H204" s="10"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="15">
+      <c r="A205" t="s" s="4">
+        <v>410</v>
+      </c>
+      <c r="B205" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="B205" t="s" s="15">
-        <v>412</v>
-      </c>
       <c r="C205" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6507,11 +6510,11 @@
       <c r="H205" s="10"/>
     </row>
     <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="15">
+        <v>412</v>
+      </c>
+      <c r="B206" t="s" s="15">
         <v>413</v>
-      </c>
-      <c r="B206" t="s" s="4">
-        <v>414</v>
       </c>
       <c r="C206" t="s" s="8">
         <v>25</v>
@@ -6523,32 +6526,32 @@
       <c r="H206" s="10"/>
     </row>
     <row r="207" ht="20.7" customHeight="1">
-      <c r="A207" t="s" s="14">
+      <c r="A207" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="B207" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="B207" t="s" s="14">
-        <v>416</v>
-      </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="C207" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
     <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="4">
+      <c r="A208" t="s" s="14">
+        <v>416</v>
+      </c>
+      <c r="B208" t="s" s="14">
         <v>417</v>
       </c>
-      <c r="B208" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="C208" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D208" s="9"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
@@ -6556,13 +6559,13 @@
     </row>
     <row r="209" ht="20.7" customHeight="1">
       <c r="A209" t="s" s="4">
+        <v>418</v>
+      </c>
+      <c r="B209" t="s" s="4">
         <v>419</v>
       </c>
-      <c r="B209" t="s" s="4">
-        <v>420</v>
-      </c>
       <c r="C209" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6570,15 +6573,15 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.35" customHeight="1">
-      <c r="A210" t="s" s="11">
+    <row r="210" ht="20.7" customHeight="1">
+      <c r="A210" t="s" s="4">
+        <v>420</v>
+      </c>
+      <c r="B210" t="s" s="4">
         <v>421</v>
       </c>
-      <c r="B210" t="s" s="11">
-        <v>422</v>
-      </c>
-      <c r="C210" t="s" s="12">
-        <v>18</v>
+      <c r="C210" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6586,12 +6589,12 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.05" customHeight="1">
-      <c r="A211" t="s" s="12">
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="11">
+        <v>422</v>
+      </c>
+      <c r="B211" t="s" s="11">
         <v>423</v>
-      </c>
-      <c r="B211" t="s" s="12">
-        <v>424</v>
       </c>
       <c r="C211" t="s" s="12">
         <v>18</v>
@@ -6604,13 +6607,13 @@
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="12">
+        <v>424</v>
+      </c>
+      <c r="B212" t="s" s="12">
         <v>425</v>
       </c>
-      <c r="B212" t="s" s="12">
-        <v>426</v>
-      </c>
       <c r="C212" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6620,15 +6623,15 @@
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="12">
+        <v>426</v>
+      </c>
+      <c r="B213" t="s" s="12">
         <v>427</v>
       </c>
-      <c r="B213" t="s" s="12">
-        <v>428</v>
-      </c>
       <c r="C213" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D213" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
@@ -6636,97 +6639,97 @@
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" t="s" s="12">
+        <v>428</v>
+      </c>
+      <c r="B214" t="s" s="12">
         <v>429</v>
       </c>
-      <c r="B214" t="s" s="12">
-        <v>430</v>
-      </c>
       <c r="C214" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D214" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D214" s="10"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.35" customHeight="1">
-      <c r="A215" t="s" s="13">
+    <row r="215" ht="20.05" customHeight="1">
+      <c r="A215" t="s" s="12">
+        <v>430</v>
+      </c>
+      <c r="B215" t="s" s="12">
         <v>431</v>
       </c>
-      <c r="B215" t="s" s="13">
-        <v>432</v>
-      </c>
       <c r="C215" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D215" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="4">
+    <row r="216" ht="20.35" customHeight="1">
+      <c r="A216" t="s" s="13">
+        <v>432</v>
+      </c>
+      <c r="B216" t="s" s="13">
         <v>433</v>
       </c>
-      <c r="B216" t="s" s="4">
-        <v>434</v>
-      </c>
-      <c r="C216" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D216" s="9"/>
+      <c r="C216" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D216" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
     <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="14">
+      <c r="A217" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="B217" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="B217" t="s" s="14">
-        <v>436</v>
-      </c>
-      <c r="C217" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D217" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C217" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
     <row r="218" ht="20.7" customHeight="1">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="14">
+        <v>436</v>
+      </c>
+      <c r="B218" t="s" s="14">
         <v>437</v>
       </c>
-      <c r="B218" t="s" s="4">
-        <v>438</v>
-      </c>
-      <c r="C218" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D218" s="9"/>
+      <c r="C218" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D218" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" t="s" s="11">
+    <row r="219" ht="20.7" customHeight="1">
+      <c r="A219" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="B219" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="B219" t="s" s="11">
-        <v>440</v>
-      </c>
-      <c r="C219" t="s" s="12">
-        <v>15</v>
+      <c r="C219" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -6734,49 +6737,49 @@
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.05" customHeight="1">
-      <c r="A220" t="s" s="12">
+    <row r="220" ht="20.35" customHeight="1">
+      <c r="A220" t="s" s="11">
+        <v>440</v>
+      </c>
+      <c r="B220" t="s" s="11">
         <v>441</v>
       </c>
-      <c r="B220" t="s" s="12">
-        <v>442</v>
-      </c>
       <c r="C220" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D220" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.35" customHeight="1">
-      <c r="A221" t="s" s="13">
+    <row r="221" ht="20.05" customHeight="1">
+      <c r="A221" t="s" s="12">
+        <v>442</v>
+      </c>
+      <c r="B221" t="s" s="12">
         <v>443</v>
       </c>
-      <c r="B221" t="s" s="13">
-        <v>444</v>
-      </c>
       <c r="C221" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D221" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D221" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="4">
+    <row r="222" ht="20.35" customHeight="1">
+      <c r="A222" t="s" s="13">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s" s="13">
         <v>445</v>
       </c>
-      <c r="B222" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="C222" t="s" s="8">
-        <v>25</v>
+      <c r="C222" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="223" ht="20.7" customHeight="1">
       <c r="A223" t="s" s="4">
+        <v>446</v>
+      </c>
+      <c r="B223" t="s" s="4">
         <v>447</v>
-      </c>
-      <c r="B223" t="s" s="4">
-        <v>448</v>
       </c>
       <c r="C223" t="s" s="8">
         <v>25</v>
@@ -6800,15 +6803,15 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.35" customHeight="1">
-      <c r="A224" t="s" s="11">
+    <row r="224" ht="20.7" customHeight="1">
+      <c r="A224" t="s" s="4">
+        <v>448</v>
+      </c>
+      <c r="B224" t="s" s="4">
         <v>449</v>
       </c>
-      <c r="B224" t="s" s="11">
-        <v>450</v>
-      </c>
-      <c r="C224" t="s" s="12">
-        <v>39</v>
+      <c r="C224" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -6816,15 +6819,15 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.05" customHeight="1">
-      <c r="A225" t="s" s="12">
+    <row r="225" ht="20.35" customHeight="1">
+      <c r="A225" t="s" s="11">
+        <v>450</v>
+      </c>
+      <c r="B225" t="s" s="11">
         <v>451</v>
       </c>
-      <c r="B225" t="s" s="12">
-        <v>452</v>
-      </c>
       <c r="C225" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -6834,13 +6837,13 @@
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" t="s" s="12">
+        <v>452</v>
+      </c>
+      <c r="B226" t="s" s="12">
         <v>453</v>
       </c>
-      <c r="B226" t="s" s="12">
-        <v>454</v>
-      </c>
       <c r="C226" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -6850,17 +6853,15 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="12">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s" s="12">
         <v>455</v>
-      </c>
-      <c r="B227" t="s" s="12">
-        <v>456</v>
       </c>
       <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" s="9">
-        <v>0.435897435897436</v>
-      </c>
+      <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
@@ -6868,15 +6869,17 @@
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="12">
+        <v>456</v>
+      </c>
+      <c r="B228" t="s" s="12">
         <v>457</v>
       </c>
-      <c r="B228" t="s" s="12">
-        <v>458</v>
-      </c>
       <c r="C228" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D228" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D228" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
@@ -6884,17 +6887,15 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="12">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s" s="12">
         <v>459</v>
       </c>
-      <c r="B229" t="s" s="12">
-        <v>460</v>
-      </c>
       <c r="C229" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D229" s="9">
-        <v>0.974358974358974</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D229" s="9"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
@@ -6902,15 +6903,17 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="12">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s" s="12">
         <v>461</v>
       </c>
-      <c r="B230" t="s" s="12">
-        <v>462</v>
-      </c>
       <c r="C230" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D230" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D230" s="9">
+        <v>0.974358974358974</v>
+      </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
@@ -6918,13 +6921,13 @@
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="12">
+        <v>462</v>
+      </c>
+      <c r="B231" t="s" s="12">
         <v>463</v>
       </c>
-      <c r="B231" t="s" s="12">
-        <v>464</v>
-      </c>
       <c r="C231" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6934,15 +6937,15 @@
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="12">
+        <v>464</v>
+      </c>
+      <c r="B232" t="s" s="12">
         <v>465</v>
       </c>
-      <c r="B232" t="s" s="12">
-        <v>466</v>
-      </c>
       <c r="C232" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D232" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
@@ -6950,51 +6953,51 @@
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" t="s" s="12">
+        <v>466</v>
+      </c>
+      <c r="B233" t="s" s="12">
         <v>467</v>
       </c>
-      <c r="B233" t="s" s="12">
-        <v>468</v>
-      </c>
       <c r="C233" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D233" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D233" s="10"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.35" customHeight="1">
-      <c r="A234" t="s" s="13">
+    <row r="234" ht="20.05" customHeight="1">
+      <c r="A234" t="s" s="12">
+        <v>468</v>
+      </c>
+      <c r="B234" t="s" s="12">
         <v>469</v>
       </c>
-      <c r="B234" t="s" s="13">
-        <v>470</v>
-      </c>
       <c r="C234" t="s" s="12">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D234" s="9">
-        <v>0.179487179487179</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.7" customHeight="1">
-      <c r="A235" t="s" s="4">
+    <row r="235" ht="20.35" customHeight="1">
+      <c r="A235" t="s" s="13">
+        <v>470</v>
+      </c>
+      <c r="B235" t="s" s="13">
         <v>471</v>
       </c>
-      <c r="B235" t="s" s="4">
-        <v>472</v>
-      </c>
-      <c r="C235" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D235" s="9"/>
+      <c r="C235" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D235" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
@@ -7002,10 +7005,10 @@
     </row>
     <row r="236" ht="20.7" customHeight="1">
       <c r="A236" t="s" s="4">
+        <v>472</v>
+      </c>
+      <c r="B236" t="s" s="4">
         <v>473</v>
-      </c>
-      <c r="B236" t="s" s="4">
-        <v>474</v>
       </c>
       <c r="C236" t="s" s="8">
         <v>10</v>
@@ -7016,15 +7019,15 @@
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.35" customHeight="1">
-      <c r="A237" t="s" s="11">
+    <row r="237" ht="20.7" customHeight="1">
+      <c r="A237" t="s" s="4">
+        <v>474</v>
+      </c>
+      <c r="B237" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="B237" t="s" s="11">
-        <v>476</v>
-      </c>
-      <c r="C237" t="s" s="12">
-        <v>71</v>
+      <c r="C237" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -7032,17 +7035,17 @@
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.05" customHeight="1">
-      <c r="A238" t="s" s="12">
+    <row r="238" ht="20.35" customHeight="1">
+      <c r="A238" t="s" s="11">
+        <v>476</v>
+      </c>
+      <c r="B238" t="s" s="11">
         <v>477</v>
       </c>
-      <c r="B238" t="s" s="12">
-        <v>478</v>
-      </c>
       <c r="C238" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D238" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -7050,13 +7053,13 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="12">
+        <v>478</v>
+      </c>
+      <c r="B239" t="s" s="12">
         <v>479</v>
       </c>
-      <c r="B239" t="s" s="12">
-        <v>480</v>
-      </c>
       <c r="C239" t="s" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="9"/>
@@ -7066,15 +7069,15 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="12">
+        <v>480</v>
+      </c>
+      <c r="B240" t="s" s="12">
         <v>481</v>
       </c>
-      <c r="B240" t="s" s="12">
-        <v>482</v>
-      </c>
       <c r="C240" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D240" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D240" s="10"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
@@ -7082,13 +7085,13 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="12">
+        <v>482</v>
+      </c>
+      <c r="B241" t="s" s="12">
         <v>483</v>
       </c>
-      <c r="B241" t="s" s="12">
-        <v>484</v>
-      </c>
       <c r="C241" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -7098,13 +7101,13 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="12">
+        <v>484</v>
+      </c>
+      <c r="B242" t="s" s="12">
         <v>485</v>
       </c>
-      <c r="B242" t="s" s="12">
-        <v>486</v>
-      </c>
       <c r="C242" t="s" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -7114,17 +7117,15 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="12">
+        <v>486</v>
+      </c>
+      <c r="B243" t="s" s="12">
         <v>487</v>
       </c>
-      <c r="B243" t="s" s="12">
-        <v>488</v>
-      </c>
       <c r="C243" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D243" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
@@ -7132,15 +7133,17 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="12">
+        <v>488</v>
+      </c>
+      <c r="B244" t="s" s="12">
         <v>489</v>
       </c>
-      <c r="B244" t="s" s="12">
-        <v>490</v>
-      </c>
       <c r="C244" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D244" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D244" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
@@ -7148,13 +7151,13 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="12">
+        <v>490</v>
+      </c>
+      <c r="B245" t="s" s="12">
         <v>491</v>
       </c>
-      <c r="B245" t="s" s="12">
-        <v>492</v>
-      </c>
       <c r="C245" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -7164,13 +7167,13 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
+        <v>492</v>
+      </c>
+      <c r="B246" t="s" s="12">
         <v>493</v>
       </c>
-      <c r="B246" t="s" s="12">
-        <v>494</v>
-      </c>
       <c r="C246" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7180,13 +7183,13 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
+        <v>494</v>
+      </c>
+      <c r="B247" t="s" s="12">
         <v>495</v>
       </c>
-      <c r="B247" t="s" s="12">
-        <v>496</v>
-      </c>
       <c r="C247" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -7196,13 +7199,13 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="12">
+        <v>496</v>
+      </c>
+      <c r="B248" t="s" s="12">
         <v>497</v>
       </c>
-      <c r="B248" t="s" s="12">
-        <v>498</v>
-      </c>
       <c r="C248" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -7210,15 +7213,15 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" t="s" s="13">
+    <row r="249" ht="20.05" customHeight="1">
+      <c r="A249" t="s" s="12">
+        <v>498</v>
+      </c>
+      <c r="B249" t="s" s="12">
         <v>499</v>
       </c>
-      <c r="B249" t="s" s="13">
-        <v>500</v>
-      </c>
       <c r="C249" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -7226,15 +7229,15 @@
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.7" customHeight="1">
-      <c r="A250" t="s" s="4">
+    <row r="250" ht="20.35" customHeight="1">
+      <c r="A250" t="s" s="13">
+        <v>500</v>
+      </c>
+      <c r="B250" t="s" s="13">
         <v>501</v>
       </c>
-      <c r="B250" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="C250" t="s" s="8">
-        <v>25</v>
+      <c r="C250" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -7242,35 +7245,35 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.35" customHeight="1">
-      <c r="A251" t="s" s="11">
+    <row r="251" ht="20.7" customHeight="1">
+      <c r="A251" t="s" s="4">
+        <v>502</v>
+      </c>
+      <c r="B251" t="s" s="4">
         <v>503</v>
       </c>
-      <c r="B251" t="s" s="11">
-        <v>504</v>
-      </c>
-      <c r="C251" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D251" s="9">
-        <v>0.871794871794872</v>
-      </c>
+      <c r="C251" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" ht="20.05" customHeight="1">
-      <c r="A252" t="s" s="12">
+    <row r="252" ht="20.35" customHeight="1">
+      <c r="A252" t="s" s="11">
+        <v>504</v>
+      </c>
+      <c r="B252" t="s" s="11">
         <v>505</v>
       </c>
-      <c r="B252" t="s" s="12">
-        <v>506</v>
-      </c>
       <c r="C252" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D252" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D252" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
@@ -7278,13 +7281,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
+        <v>506</v>
+      </c>
+      <c r="B253" t="s" s="12">
         <v>507</v>
       </c>
-      <c r="B253" t="s" s="12">
-        <v>508</v>
-      </c>
       <c r="C253" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -7294,17 +7297,15 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
+        <v>508</v>
+      </c>
+      <c r="B254" t="s" s="12">
         <v>509</v>
       </c>
-      <c r="B254" t="s" s="12">
-        <v>510</v>
-      </c>
       <c r="C254" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D254" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7312,29 +7313,31 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="12">
+        <v>510</v>
+      </c>
+      <c r="B255" t="s" s="12">
         <v>511</v>
       </c>
-      <c r="B255" t="s" s="12">
-        <v>512</v>
-      </c>
       <c r="C255" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D255" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D255" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.35" customHeight="1">
-      <c r="A256" t="s" s="13">
+    <row r="256" ht="20.05" customHeight="1">
+      <c r="A256" t="s" s="12">
+        <v>512</v>
+      </c>
+      <c r="B256" t="s" s="12">
         <v>513</v>
       </c>
-      <c r="B256" t="s" s="13">
-        <v>514</v>
-      </c>
       <c r="C256" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7342,15 +7345,15 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.7" customHeight="1">
-      <c r="A257" t="s" s="4">
+    <row r="257" ht="20.35" customHeight="1">
+      <c r="A257" t="s" s="13">
+        <v>514</v>
+      </c>
+      <c r="B257" t="s" s="13">
         <v>515</v>
       </c>
-      <c r="B257" t="s" s="4">
-        <v>516</v>
-      </c>
-      <c r="C257" t="s" s="8">
-        <v>25</v>
+      <c r="C257" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -7358,15 +7361,15 @@
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.35" customHeight="1">
-      <c r="A258" t="s" s="11">
+    <row r="258" ht="20.7" customHeight="1">
+      <c r="A258" t="s" s="4">
+        <v>516</v>
+      </c>
+      <c r="B258" t="s" s="4">
         <v>517</v>
       </c>
-      <c r="B258" t="s" s="11">
-        <v>518</v>
-      </c>
-      <c r="C258" t="s" s="12">
-        <v>71</v>
+      <c r="C258" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -7374,15 +7377,15 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.05" customHeight="1">
-      <c r="A259" t="s" s="12">
+    <row r="259" ht="20.35" customHeight="1">
+      <c r="A259" t="s" s="11">
+        <v>518</v>
+      </c>
+      <c r="B259" t="s" s="11">
         <v>519</v>
       </c>
-      <c r="B259" t="s" s="12">
-        <v>520</v>
-      </c>
       <c r="C259" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7392,13 +7395,13 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="12">
+        <v>520</v>
+      </c>
+      <c r="B260" t="s" s="12">
         <v>521</v>
       </c>
-      <c r="B260" t="s" s="12">
-        <v>522</v>
-      </c>
       <c r="C260" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -7408,13 +7411,13 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="12">
+        <v>522</v>
+      </c>
+      <c r="B261" t="s" s="12">
         <v>523</v>
       </c>
-      <c r="B261" t="s" s="12">
-        <v>524</v>
-      </c>
       <c r="C261" t="s" s="12">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7424,13 +7427,13 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="12">
+        <v>524</v>
+      </c>
+      <c r="B262" t="s" s="12">
         <v>525</v>
       </c>
-      <c r="B262" t="s" s="12">
-        <v>526</v>
-      </c>
       <c r="C262" t="s" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7440,13 +7443,13 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="12">
+        <v>526</v>
+      </c>
+      <c r="B263" t="s" s="12">
         <v>527</v>
       </c>
-      <c r="B263" t="s" s="12">
-        <v>528</v>
-      </c>
       <c r="C263" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -7456,13 +7459,13 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
+        <v>528</v>
+      </c>
+      <c r="B264" t="s" s="12">
         <v>529</v>
       </c>
-      <c r="B264" t="s" s="12">
-        <v>530</v>
-      </c>
       <c r="C264" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7472,13 +7475,13 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="12">
+        <v>530</v>
+      </c>
+      <c r="B265" t="s" s="12">
         <v>531</v>
       </c>
-      <c r="B265" t="s" s="12">
-        <v>532</v>
-      </c>
       <c r="C265" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7488,13 +7491,13 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="12">
+        <v>532</v>
+      </c>
+      <c r="B266" t="s" s="12">
         <v>533</v>
       </c>
-      <c r="B266" t="s" s="12">
-        <v>534</v>
-      </c>
       <c r="C266" t="s" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7504,13 +7507,13 @@
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="12">
+        <v>534</v>
+      </c>
+      <c r="B267" t="s" s="12">
         <v>535</v>
       </c>
-      <c r="B267" t="s" s="12">
-        <v>536</v>
-      </c>
       <c r="C267" t="s" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7520,13 +7523,13 @@
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="12">
+        <v>536</v>
+      </c>
+      <c r="B268" t="s" s="12">
         <v>537</v>
       </c>
-      <c r="B268" t="s" s="12">
-        <v>538</v>
-      </c>
       <c r="C268" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7536,13 +7539,13 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="12">
+        <v>538</v>
+      </c>
+      <c r="B269" t="s" s="12">
         <v>539</v>
       </c>
-      <c r="B269" t="s" s="12">
-        <v>540</v>
-      </c>
       <c r="C269" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="12">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B270" t="s" s="12">
         <v>541</v>
@@ -7568,13 +7571,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s" s="12">
         <v>542</v>
       </c>
-      <c r="B271" t="s" s="12">
-        <v>543</v>
-      </c>
       <c r="C271" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7582,35 +7585,35 @@
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.35" customHeight="1">
-      <c r="A272" t="s" s="13">
+    <row r="272" ht="20.05" customHeight="1">
+      <c r="A272" t="s" s="12">
+        <v>543</v>
+      </c>
+      <c r="B272" t="s" s="12">
         <v>544</v>
       </c>
-      <c r="B272" t="s" s="13">
-        <v>545</v>
-      </c>
       <c r="C272" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D272" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.7" customHeight="1">
-      <c r="A273" t="s" s="4">
+    <row r="273" ht="20.35" customHeight="1">
+      <c r="A273" t="s" s="13">
+        <v>545</v>
+      </c>
+      <c r="B273" t="s" s="13">
         <v>546</v>
       </c>
-      <c r="B273" t="s" s="4">
-        <v>547</v>
-      </c>
-      <c r="C273" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D273" s="9"/>
+      <c r="C273" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D273" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
@@ -7618,13 +7621,13 @@
     </row>
     <row r="274" ht="20.7" customHeight="1">
       <c r="A274" t="s" s="4">
+        <v>547</v>
+      </c>
+      <c r="B274" t="s" s="4">
         <v>548</v>
       </c>
-      <c r="B274" t="s" s="4">
-        <v>549</v>
-      </c>
       <c r="C274" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7634,13 +7637,13 @@
     </row>
     <row r="275" ht="20.7" customHeight="1">
       <c r="A275" t="s" s="4">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B275" t="s" s="4">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C275" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7650,13 +7653,13 @@
     </row>
     <row r="276" ht="20.7" customHeight="1">
       <c r="A276" t="s" s="4">
+        <v>549</v>
+      </c>
+      <c r="B276" t="s" s="4">
         <v>550</v>
       </c>
-      <c r="B276" t="s" s="4">
-        <v>551</v>
-      </c>
       <c r="C276" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7664,15 +7667,15 @@
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" ht="20.35" customHeight="1">
-      <c r="A277" t="s" s="11">
+    <row r="277" ht="20.7" customHeight="1">
+      <c r="A277" t="s" s="4">
+        <v>551</v>
+      </c>
+      <c r="B277" t="s" s="4">
         <v>552</v>
       </c>
-      <c r="B277" t="s" s="11">
-        <v>553</v>
-      </c>
-      <c r="C277" t="s" s="12">
-        <v>42</v>
+      <c r="C277" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7680,19 +7683,17 @@
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" ht="20.05" customHeight="1">
-      <c r="A278" t="s" s="12">
+    <row r="278" ht="20.35" customHeight="1">
+      <c r="A278" t="s" s="11">
+        <v>553</v>
+      </c>
+      <c r="B278" t="s" s="11">
         <v>554</v>
       </c>
-      <c r="B278" t="s" s="12">
-        <v>555</v>
-      </c>
       <c r="C278" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D278" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
@@ -7700,15 +7701,17 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="12">
+        <v>555</v>
+      </c>
+      <c r="B279" t="s" s="12">
         <v>556</v>
       </c>
-      <c r="B279" t="s" s="12">
-        <v>557</v>
-      </c>
       <c r="C279" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D279" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D279" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
@@ -7716,13 +7719,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
+        <v>557</v>
+      </c>
+      <c r="B280" t="s" s="12">
         <v>558</v>
       </c>
-      <c r="B280" t="s" s="12">
-        <v>559</v>
-      </c>
       <c r="C280" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7732,47 +7735,47 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="12">
+        <v>559</v>
+      </c>
+      <c r="B281" t="s" s="12">
         <v>560</v>
       </c>
-      <c r="B281" t="s" s="12">
-        <v>561</v>
-      </c>
       <c r="C281" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D281" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.35" customHeight="1">
-      <c r="A282" t="s" s="13">
+    <row r="282" ht="20.05" customHeight="1">
+      <c r="A282" t="s" s="12">
+        <v>561</v>
+      </c>
+      <c r="B282" t="s" s="12">
         <v>562</v>
       </c>
-      <c r="B282" t="s" s="13">
-        <v>563</v>
-      </c>
       <c r="C282" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D282" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D282" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.7" customHeight="1">
-      <c r="A283" t="s" s="4">
+    <row r="283" ht="20.35" customHeight="1">
+      <c r="A283" t="s" s="13">
+        <v>563</v>
+      </c>
+      <c r="B283" t="s" s="13">
         <v>564</v>
       </c>
-      <c r="B283" t="s" s="4">
-        <v>565</v>
-      </c>
-      <c r="C283" t="s" s="8">
-        <v>25</v>
+      <c r="C283" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -7782,10 +7785,10 @@
     </row>
     <row r="284" ht="20.7" customHeight="1">
       <c r="A284" t="s" s="4">
+        <v>565</v>
+      </c>
+      <c r="B284" t="s" s="4">
         <v>566</v>
-      </c>
-      <c r="B284" t="s" s="4">
-        <v>567</v>
       </c>
       <c r="C284" t="s" s="8">
         <v>25</v>
@@ -7796,35 +7799,35 @@
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.35" customHeight="1">
-      <c r="A285" t="s" s="11">
+    <row r="285" ht="20.7" customHeight="1">
+      <c r="A285" t="s" s="4">
+        <v>567</v>
+      </c>
+      <c r="B285" t="s" s="4">
         <v>568</v>
       </c>
-      <c r="B285" t="s" s="11">
-        <v>569</v>
-      </c>
-      <c r="C285" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D285" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C285" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.05" customHeight="1">
-      <c r="A286" t="s" s="12">
+    <row r="286" ht="20.35" customHeight="1">
+      <c r="A286" t="s" s="11">
+        <v>569</v>
+      </c>
+      <c r="B286" t="s" s="11">
         <v>570</v>
-      </c>
-      <c r="B286" t="s" s="12">
-        <v>571</v>
       </c>
       <c r="C286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D286" s="9"/>
+      <c r="D286" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -7832,13 +7835,13 @@
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="12">
+        <v>571</v>
+      </c>
+      <c r="B287" t="s" s="12">
         <v>572</v>
       </c>
-      <c r="B287" t="s" s="12">
-        <v>573</v>
-      </c>
       <c r="C287" t="s" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -7848,13 +7851,13 @@
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="12">
+        <v>573</v>
+      </c>
+      <c r="B288" t="s" s="12">
         <v>574</v>
       </c>
-      <c r="B288" t="s" s="12">
-        <v>575</v>
-      </c>
       <c r="C288" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -7864,13 +7867,13 @@
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="12">
+        <v>575</v>
+      </c>
+      <c r="B289" t="s" s="12">
         <v>576</v>
       </c>
-      <c r="B289" t="s" s="12">
-        <v>577</v>
-      </c>
       <c r="C289" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -7880,45 +7883,45 @@
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="12">
+        <v>577</v>
+      </c>
+      <c r="B290" t="s" s="12">
         <v>578</v>
       </c>
-      <c r="B290" t="s" s="12">
-        <v>579</v>
-      </c>
       <c r="C290" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D290" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.35" customHeight="1">
-      <c r="A291" t="s" s="13">
+    <row r="291" ht="20.05" customHeight="1">
+      <c r="A291" t="s" s="12">
+        <v>579</v>
+      </c>
+      <c r="B291" t="s" s="12">
         <v>580</v>
       </c>
-      <c r="B291" t="s" s="13">
-        <v>581</v>
-      </c>
       <c r="C291" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D291" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D291" s="10"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.7" customHeight="1">
-      <c r="A292" t="s" s="4">
+    <row r="292" ht="20.35" customHeight="1">
+      <c r="A292" t="s" s="13">
+        <v>581</v>
+      </c>
+      <c r="B292" t="s" s="13">
         <v>582</v>
       </c>
-      <c r="B292" t="s" s="4">
-        <v>583</v>
-      </c>
-      <c r="C292" t="s" s="8">
-        <v>10</v>
+      <c r="C292" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -7926,15 +7929,15 @@
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.35" customHeight="1">
-      <c r="A293" t="s" s="11">
+    <row r="293" ht="20.7" customHeight="1">
+      <c r="A293" t="s" s="4">
+        <v>583</v>
+      </c>
+      <c r="B293" t="s" s="4">
         <v>584</v>
       </c>
-      <c r="B293" t="s" s="11">
-        <v>585</v>
-      </c>
-      <c r="C293" t="s" s="12">
-        <v>39</v>
+      <c r="C293" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7942,15 +7945,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.05" customHeight="1">
-      <c r="A294" t="s" s="12">
+    <row r="294" ht="20.35" customHeight="1">
+      <c r="A294" t="s" s="11">
+        <v>585</v>
+      </c>
+      <c r="B294" t="s" s="11">
         <v>586</v>
       </c>
-      <c r="B294" t="s" s="12">
-        <v>587</v>
-      </c>
       <c r="C294" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7960,13 +7963,13 @@
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="12">
+        <v>587</v>
+      </c>
+      <c r="B295" t="s" s="12">
         <v>588</v>
       </c>
-      <c r="B295" t="s" s="12">
-        <v>589</v>
-      </c>
       <c r="C295" t="s" s="12">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -7976,13 +7979,13 @@
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="12">
+        <v>589</v>
+      </c>
+      <c r="B296" t="s" s="12">
         <v>590</v>
       </c>
-      <c r="B296" t="s" s="12">
-        <v>591</v>
-      </c>
       <c r="C296" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -7992,13 +7995,13 @@
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="12">
+        <v>591</v>
+      </c>
+      <c r="B297" t="s" s="12">
         <v>592</v>
       </c>
-      <c r="B297" t="s" s="12">
-        <v>593</v>
-      </c>
       <c r="C297" t="s" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -8008,13 +8011,13 @@
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="12">
+        <v>593</v>
+      </c>
+      <c r="B298" t="s" s="12">
         <v>594</v>
       </c>
-      <c r="B298" t="s" s="12">
-        <v>595</v>
-      </c>
       <c r="C298" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -8024,13 +8027,13 @@
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="12">
+        <v>595</v>
+      </c>
+      <c r="B299" t="s" s="12">
         <v>596</v>
       </c>
-      <c r="B299" t="s" s="12">
-        <v>597</v>
-      </c>
       <c r="C299" t="s" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -8040,17 +8043,15 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="12">
+        <v>597</v>
+      </c>
+      <c r="B300" t="s" s="12">
         <v>598</v>
       </c>
-      <c r="B300" t="s" s="12">
-        <v>599</v>
-      </c>
       <c r="C300" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D300" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
@@ -8058,24 +8059,32 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
+        <v>599</v>
+      </c>
+      <c r="B301" t="s" s="12">
         <v>600</v>
       </c>
-      <c r="B301" t="s" s="12">
-        <v>601</v>
-      </c>
       <c r="C301" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D301" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D301" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
+      <c r="A302" t="s" s="12">
+        <v>601</v>
+      </c>
+      <c r="B302" t="s" s="12">
+        <v>602</v>
+      </c>
+      <c r="C302" t="s" s="12">
+        <v>30</v>
+      </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>Surname</t>
   </si>
@@ -316,6 +316,12 @@
     <t>H210197M</t>
   </si>
   <si>
+    <t>Chitura</t>
+  </si>
+  <si>
+    <t>H190296X</t>
+  </si>
+  <si>
     <t>Chiyangwa</t>
   </si>
   <si>
@@ -607,6 +613,12 @@
     <t>H210398M</t>
   </si>
   <si>
+    <t>Kagoro</t>
+  </si>
+  <si>
+    <t>H180280M</t>
+  </si>
+  <si>
     <t>Kahonde</t>
   </si>
   <si>
@@ -1030,6 +1042,12 @@
     <t>H210595V</t>
   </si>
   <si>
+    <t>Maunganidze</t>
+  </si>
+  <si>
+    <t>H200089H</t>
+  </si>
+  <si>
     <t>Mavezha</t>
   </si>
   <si>
@@ -1345,6 +1363,12 @@
     <t>H210267B</t>
   </si>
   <si>
+    <t>Mutikani</t>
+  </si>
+  <si>
+    <t>H180708R</t>
+  </si>
+  <si>
     <t>Mutiro</t>
   </si>
   <si>
@@ -1469,6 +1493,12 @@
   </si>
   <si>
     <t>H210240M</t>
+  </si>
+  <si>
+    <t>Nyamashuka</t>
+  </si>
+  <si>
+    <t>H180117M</t>
   </si>
   <si>
     <t>Nyamasime</t>
@@ -3423,7 +3453,9 @@
       <c r="C16" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -3894,7 +3926,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="9">
-        <v>0.846153846153846</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3909,9 +3941,11 @@
         <v>104</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D46" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
@@ -3925,9 +3959,11 @@
         <v>106</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D47" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
@@ -3941,41 +3977,41 @@
         <v>108</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" t="s" s="13">
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" t="s" s="12">
         <v>109</v>
       </c>
-      <c r="B49" t="s" s="13">
+      <c r="B49" t="s" s="12">
         <v>110</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D49" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" ht="20.7" customHeight="1">
-      <c r="A50" t="s" s="4">
+    <row r="50" ht="20.35" customHeight="1">
+      <c r="A50" t="s" s="13">
         <v>111</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="13">
         <v>112</v>
       </c>
-      <c r="C50" t="s" s="8">
-        <v>10</v>
+      <c r="C50" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3983,15 +4019,15 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" ht="20.35" customHeight="1">
-      <c r="A51" t="s" s="11">
+    <row r="51" ht="20.7" customHeight="1">
+      <c r="A51" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="B51" t="s" s="11">
+      <c r="B51" t="s" s="4">
         <v>114</v>
       </c>
-      <c r="C51" t="s" s="12">
-        <v>43</v>
+      <c r="C51" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3999,11 +4035,11 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="12">
+    <row r="52" ht="20.35" customHeight="1">
+      <c r="A52" t="s" s="11">
         <v>115</v>
       </c>
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="11">
         <v>116</v>
       </c>
       <c r="C52" t="s" s="12">
@@ -4023,11 +4059,9 @@
         <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
@@ -4035,15 +4069,17 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s" s="12">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D54" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
@@ -4051,13 +4087,13 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="12">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s" s="12">
         <v>121</v>
       </c>
       <c r="C55" t="s" s="12">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4073,7 +4109,7 @@
         <v>123</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4105,7 +4141,7 @@
         <v>127</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4121,7 +4157,7 @@
         <v>129</v>
       </c>
       <c r="C59" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4137,7 +4173,7 @@
         <v>131</v>
       </c>
       <c r="C60" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -4169,7 +4205,7 @@
         <v>135</v>
       </c>
       <c r="C62" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -4177,11 +4213,11 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" ht="20.35" customHeight="1">
-      <c r="A63" t="s" s="13">
+    <row r="63" ht="20.05" customHeight="1">
+      <c r="A63" t="s" s="12">
         <v>136</v>
       </c>
-      <c r="B63" t="s" s="13">
+      <c r="B63" t="s" s="12">
         <v>137</v>
       </c>
       <c r="C63" t="s" s="12">
@@ -4193,15 +4229,15 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="20.7" customHeight="1">
-      <c r="A64" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s" s="4">
+    <row r="64" ht="20.35" customHeight="1">
+      <c r="A64" t="s" s="13">
         <v>138</v>
       </c>
-      <c r="C64" t="s" s="8">
-        <v>10</v>
+      <c r="B64" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -4209,15 +4245,15 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" ht="20.35" customHeight="1">
-      <c r="A65" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="B65" t="s" s="11">
+    <row r="65" ht="20.7" customHeight="1">
+      <c r="A65" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s" s="4">
         <v>140</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>15</v>
+      <c r="C65" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -4225,17 +4261,19 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="12">
+    <row r="66" ht="20.35" customHeight="1">
+      <c r="A66" t="s" s="11">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="11">
         <v>142</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D66" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
@@ -4249,11 +4287,9 @@
         <v>144</v>
       </c>
       <c r="C67" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D67" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
@@ -4267,23 +4303,25 @@
         <v>146</v>
       </c>
       <c r="C68" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.35" customHeight="1">
-      <c r="A69" t="s" s="13">
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="B69" t="s" s="13">
+      <c r="B69" t="s" s="12">
         <v>148</v>
       </c>
       <c r="C69" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4291,31 +4329,33 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.7" customHeight="1">
-      <c r="A70" t="s" s="4">
+    <row r="70" ht="20.35" customHeight="1">
+      <c r="A70" t="s" s="13">
         <v>149</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="13">
         <v>150</v>
       </c>
-      <c r="C70" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D70" s="9"/>
+      <c r="C70" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="20.35" customHeight="1">
-      <c r="A71" t="s" s="11">
+    <row r="71" ht="20.7" customHeight="1">
+      <c r="A71" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="B71" t="s" s="11">
+      <c r="B71" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>27</v>
+      <c r="C71" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4323,15 +4363,15 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="12">
+    <row r="72" ht="20.35" customHeight="1">
+      <c r="A72" t="s" s="11">
         <v>153</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="11">
         <v>154</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -4347,7 +4387,7 @@
         <v>156</v>
       </c>
       <c r="C73" t="s" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4355,11 +4395,11 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.35" customHeight="1">
-      <c r="A74" t="s" s="13">
+    <row r="74" ht="20.05" customHeight="1">
+      <c r="A74" t="s" s="12">
         <v>157</v>
       </c>
-      <c r="B74" t="s" s="13">
+      <c r="B74" t="s" s="12">
         <v>158</v>
       </c>
       <c r="C74" t="s" s="12">
@@ -4371,15 +4411,15 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.7" customHeight="1">
-      <c r="A75" t="s" s="4">
+    <row r="75" ht="20.35" customHeight="1">
+      <c r="A75" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="13">
         <v>160</v>
       </c>
-      <c r="C75" t="s" s="8">
-        <v>25</v>
+      <c r="C75" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4395,7 +4435,7 @@
         <v>162</v>
       </c>
       <c r="C76" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -4404,14 +4444,14 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" ht="20.7" customHeight="1">
-      <c r="A77" t="s" s="14">
+      <c r="A77" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="B77" t="s" s="14">
+      <c r="B77" t="s" s="4">
         <v>164</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>18</v>
+      <c r="C77" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -4420,14 +4460,14 @@
       <c r="H77" s="10"/>
     </row>
     <row r="78" ht="20.7" customHeight="1">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="s" s="14">
         <v>165</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="14">
         <v>166</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>10</v>
+      <c r="C78" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4435,15 +4475,15 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.35" customHeight="1">
-      <c r="A79" t="s" s="11">
+    <row r="79" ht="20.7" customHeight="1">
+      <c r="A79" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="B79" t="s" s="11">
+      <c r="B79" t="s" s="4">
         <v>168</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>30</v>
+      <c r="C79" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -4451,19 +4491,17 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="12">
+    <row r="80" ht="20.35" customHeight="1">
+      <c r="A80" t="s" s="11">
         <v>169</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="11">
         <v>170</v>
       </c>
       <c r="C80" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
@@ -4480,7 +4518,7 @@
         <v>43</v>
       </c>
       <c r="D81" s="9">
-        <v>0.461538461538462</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4495,79 +4533,81 @@
         <v>174</v>
       </c>
       <c r="C82" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D82" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.35" customHeight="1">
-      <c r="A83" t="s" s="13">
-        <v>173</v>
-      </c>
-      <c r="B83" t="s" s="13">
+    <row r="83" ht="20.05" customHeight="1">
+      <c r="A83" t="s" s="12">
         <v>175</v>
       </c>
+      <c r="B83" t="s" s="12">
+        <v>176</v>
+      </c>
       <c r="C83" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D83" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="B84" t="s" s="4">
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="13">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s" s="13">
         <v>177</v>
       </c>
-      <c r="C84" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D84" s="9"/>
+      <c r="C84" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.35" customHeight="1">
-      <c r="A85" t="s" s="11">
+    <row r="85" ht="20.7" customHeight="1">
+      <c r="A85" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="B85" t="s" s="11">
+      <c r="B85" t="s" s="4">
         <v>179</v>
       </c>
-      <c r="C85" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D85" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C85" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="12">
+    <row r="86" ht="20.35" customHeight="1">
+      <c r="A86" t="s" s="11">
         <v>180</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="11">
         <v>181</v>
       </c>
       <c r="C86" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D86" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
@@ -4581,39 +4621,43 @@
         <v>183</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D87" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.35" customHeight="1">
-      <c r="A88" t="s" s="13">
+    <row r="88" ht="20.05" customHeight="1">
+      <c r="A88" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="B88" t="s" s="13">
+      <c r="B88" t="s" s="12">
         <v>185</v>
       </c>
       <c r="C88" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D88" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="4">
+    <row r="89" ht="20.35" customHeight="1">
+      <c r="A89" t="s" s="13">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="13">
         <v>187</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>25</v>
+      <c r="C89" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4622,14 +4666,14 @@
       <c r="H89" s="10"/>
     </row>
     <row r="90" ht="20.7" customHeight="1">
-      <c r="A90" t="s" s="14">
+      <c r="A90" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="14">
+      <c r="B90" t="s" s="4">
         <v>189</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>15</v>
+      <c r="C90" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -4638,14 +4682,14 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" ht="20.7" customHeight="1">
-      <c r="A91" t="s" s="4">
+      <c r="A91" t="s" s="14">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="14">
         <v>191</v>
       </c>
-      <c r="C91" t="s" s="8">
-        <v>25</v>
+      <c r="C91" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4669,15 +4713,15 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.35" customHeight="1">
-      <c r="A93" t="s" s="11">
+    <row r="93" ht="20.7" customHeight="1">
+      <c r="A93" t="s" s="4">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="11">
+      <c r="B93" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>15</v>
+      <c r="C93" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4685,81 +4729,83 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="12">
+    <row r="94" ht="20.35" customHeight="1">
+      <c r="A94" t="s" s="11">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="11">
         <v>197</v>
       </c>
       <c r="C94" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D94" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.35" customHeight="1">
-      <c r="A95" t="s" s="13">
+    <row r="95" ht="20.05" customHeight="1">
+      <c r="A95" t="s" s="12">
         <v>198</v>
       </c>
-      <c r="B95" t="s" s="13">
+      <c r="B95" t="s" s="12">
         <v>199</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" t="s" s="12">
+        <v>43</v>
+      </c>
       <c r="D95" s="9">
-        <v>0.897435897435897</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.7" customHeight="1">
-      <c r="A96" t="s" s="4">
+    <row r="96" ht="20.05" customHeight="1">
+      <c r="A96" t="s" s="12">
         <v>200</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>201</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D96" s="9"/>
+      <c r="C96" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
     <row r="97" ht="20.35" customHeight="1">
-      <c r="A97" t="s" s="11">
+      <c r="A97" t="s" s="13">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="11">
+      <c r="B97" t="s" s="13">
         <v>203</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="12">
+    <row r="98" ht="20.7" customHeight="1">
+      <c r="A98" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="4">
         <v>205</v>
       </c>
-      <c r="C98" t="s" s="12">
-        <v>30</v>
+      <c r="C98" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4767,15 +4813,15 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="12">
+    <row r="99" ht="20.35" customHeight="1">
+      <c r="A99" t="s" s="11">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="11">
         <v>207</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4791,7 +4837,7 @@
         <v>209</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4799,11 +4845,11 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.35" customHeight="1">
-      <c r="A101" t="s" s="13">
+    <row r="101" ht="20.05" customHeight="1">
+      <c r="A101" t="s" s="12">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="13">
+      <c r="B101" t="s" s="12">
         <v>211</v>
       </c>
       <c r="C101" t="s" s="12">
@@ -4815,15 +4861,15 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.7" customHeight="1">
-      <c r="A102" t="s" s="4">
+    <row r="102" ht="20.05" customHeight="1">
+      <c r="A102" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>213</v>
       </c>
-      <c r="C102" t="s" s="8">
-        <v>25</v>
+      <c r="C102" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4831,15 +4877,15 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="4">
+    <row r="103" ht="20.35" customHeight="1">
+      <c r="A103" t="s" s="13">
         <v>214</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="13">
         <v>215</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>25</v>
+      <c r="C103" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4848,14 +4894,14 @@
       <c r="H103" s="10"/>
     </row>
     <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="14">
+      <c r="A104" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="14">
+      <c r="B104" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>15</v>
+      <c r="C104" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4868,7 +4914,7 @@
         <v>218</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s" s="8">
         <v>25</v>
@@ -4879,33 +4925,31 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.35" customHeight="1">
-      <c r="A106" t="s" s="11">
-        <v>219</v>
-      </c>
-      <c r="B106" t="s" s="11">
+    <row r="106" ht="20.7" customHeight="1">
+      <c r="A106" t="s" s="14">
         <v>220</v>
       </c>
+      <c r="B106" t="s" s="14">
+        <v>221</v>
+      </c>
       <c r="C106" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D106" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="12">
+    <row r="107" ht="20.7" customHeight="1">
+      <c r="A107" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="B107" t="s" s="4">
         <v>221</v>
       </c>
-      <c r="B107" t="s" s="12">
-        <v>222</v>
-      </c>
-      <c r="C107" t="s" s="12">
-        <v>15</v>
+      <c r="C107" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4913,31 +4957,33 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="12">
+    <row r="108" ht="20.35" customHeight="1">
+      <c r="A108" t="s" s="11">
         <v>223</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="11">
         <v>224</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D108" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.35" customHeight="1">
-      <c r="A109" t="s" s="13">
+    <row r="109" ht="20.05" customHeight="1">
+      <c r="A109" t="s" s="12">
         <v>225</v>
       </c>
-      <c r="B109" t="s" s="13">
+      <c r="B109" t="s" s="12">
         <v>226</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -4945,15 +4991,15 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.7" customHeight="1">
-      <c r="A110" t="s" s="4">
+    <row r="110" ht="20.05" customHeight="1">
+      <c r="A110" t="s" s="12">
         <v>227</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>228</v>
       </c>
-      <c r="C110" t="s" s="8">
-        <v>25</v>
+      <c r="C110" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4962,14 +5008,14 @@
       <c r="H110" s="10"/>
     </row>
     <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="11">
+      <c r="A111" t="s" s="13">
         <v>229</v>
       </c>
-      <c r="B111" t="s" s="11">
+      <c r="B111" t="s" s="13">
         <v>230</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4977,15 +5023,15 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="12">
+    <row r="112" ht="20.7" customHeight="1">
+      <c r="A112" t="s" s="4">
         <v>231</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="C112" t="s" s="12">
-        <v>18</v>
+      <c r="C112" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4993,11 +5039,11 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="12">
+    <row r="113" ht="20.35" customHeight="1">
+      <c r="A113" t="s" s="11">
         <v>233</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="11">
         <v>234</v>
       </c>
       <c r="C113" t="s" s="12">
@@ -5009,15 +5055,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.35" customHeight="1">
-      <c r="A114" t="s" s="13">
+    <row r="114" ht="20.05" customHeight="1">
+      <c r="A114" t="s" s="12">
         <v>235</v>
       </c>
-      <c r="B114" t="s" s="13">
+      <c r="B114" t="s" s="12">
         <v>236</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5025,15 +5071,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.7" customHeight="1">
-      <c r="A115" t="s" s="4">
+    <row r="115" ht="20.05" customHeight="1">
+      <c r="A115" t="s" s="12">
         <v>237</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>238</v>
       </c>
-      <c r="C115" t="s" s="8">
-        <v>25</v>
+      <c r="C115" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5041,15 +5087,15 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.7" customHeight="1">
-      <c r="A116" t="s" s="14">
+    <row r="116" ht="20.35" customHeight="1">
+      <c r="A116" t="s" s="13">
         <v>239</v>
       </c>
-      <c r="B116" t="s" s="14">
+      <c r="B116" t="s" s="13">
         <v>240</v>
       </c>
       <c r="C116" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5073,15 +5119,15 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.35" customHeight="1">
-      <c r="A118" t="s" s="11">
+    <row r="118" ht="20.7" customHeight="1">
+      <c r="A118" t="s" s="14">
         <v>243</v>
       </c>
-      <c r="B118" t="s" s="11">
+      <c r="B118" t="s" s="14">
         <v>244</v>
       </c>
       <c r="C118" t="s" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5089,15 +5135,15 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.35" customHeight="1">
-      <c r="A119" t="s" s="13">
+    <row r="119" ht="20.7" customHeight="1">
+      <c r="A119" t="s" s="4">
         <v>245</v>
       </c>
-      <c r="B119" t="s" s="13">
+      <c r="B119" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>72</v>
+      <c r="C119" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5105,15 +5151,15 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.7" customHeight="1">
-      <c r="A120" t="s" s="4">
+    <row r="120" ht="20.35" customHeight="1">
+      <c r="A120" t="s" s="11">
         <v>247</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="11">
         <v>248</v>
       </c>
-      <c r="C120" t="s" s="8">
-        <v>25</v>
+      <c r="C120" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5122,14 +5168,14 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="11">
+      <c r="A121" t="s" s="13">
         <v>249</v>
       </c>
-      <c r="B121" t="s" s="11">
+      <c r="B121" t="s" s="13">
         <v>250</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5137,31 +5183,31 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.35" customHeight="1">
-      <c r="A122" t="s" s="13">
+    <row r="122" ht="20.7" customHeight="1">
+      <c r="A122" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="B122" t="s" s="13">
+      <c r="B122" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D122" s="10"/>
+      <c r="C122" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="4">
+    <row r="123" ht="20.35" customHeight="1">
+      <c r="A123" t="s" s="11">
         <v>253</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="11">
         <v>254</v>
       </c>
-      <c r="C123" t="s" s="8">
-        <v>10</v>
+      <c r="C123" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5169,15 +5215,15 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="14">
+    <row r="124" ht="20.35" customHeight="1">
+      <c r="A124" t="s" s="13">
         <v>255</v>
       </c>
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="13">
         <v>256</v>
       </c>
       <c r="C124" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="9"/>
@@ -5201,103 +5247,103 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="11">
+    <row r="126" ht="20.7" customHeight="1">
+      <c r="A126" t="s" s="14">
         <v>259</v>
       </c>
-      <c r="B126" t="s" s="11">
+      <c r="B126" t="s" s="14">
         <v>260</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D126" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D126" s="10"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.35" customHeight="1">
-      <c r="A127" t="s" s="13">
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="B127" t="s" s="13">
+      <c r="B127" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D127" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C127" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="11">
         <v>263</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="11">
         <v>264</v>
       </c>
-      <c r="C128" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D128" s="9"/>
+      <c r="C128" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D128" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="11">
+      <c r="A129" t="s" s="13">
         <v>265</v>
       </c>
-      <c r="B129" t="s" s="11">
+      <c r="B129" t="s" s="13">
         <v>266</v>
       </c>
       <c r="C129" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D129" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" t="s" s="12">
+    <row r="130" ht="20.7" customHeight="1">
+      <c r="A130" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="4">
         <v>268</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D130" s="10"/>
+      <c r="C130" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="12">
+    <row r="131" ht="20.35" customHeight="1">
+      <c r="A131" t="s" s="11">
         <v>269</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="11">
         <v>270</v>
       </c>
       <c r="C131" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D131" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D131" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
@@ -5311,9 +5357,9 @@
         <v>272</v>
       </c>
       <c r="C132" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D132" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D132" s="10"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
@@ -5343,7 +5389,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5353,13 +5399,13 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="12">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B135" t="s" s="12">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5369,13 +5415,13 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="12">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s" s="12">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5385,13 +5431,13 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="12">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s" s="12">
         <v>281</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5407,21 +5453,19 @@
         <v>283</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D138" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" ht="20.35" customHeight="1">
-      <c r="A139" t="s" s="13">
+    <row r="139" ht="20.05" customHeight="1">
+      <c r="A139" t="s" s="12">
         <v>284</v>
       </c>
-      <c r="B139" t="s" s="13">
+      <c r="B139" t="s" s="12">
         <v>285</v>
       </c>
       <c r="C139" t="s" s="12">
@@ -5433,67 +5477,67 @@
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" ht="20.7" customHeight="1">
-      <c r="A140" t="s" s="4">
+    <row r="140" ht="20.05" customHeight="1">
+      <c r="A140" t="s" s="12">
         <v>286</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>287</v>
       </c>
-      <c r="C140" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D140" s="9"/>
+      <c r="C140" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D140" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
     </row>
     <row r="141" ht="20.35" customHeight="1">
-      <c r="A141" t="s" s="11">
+      <c r="A141" t="s" s="13">
         <v>288</v>
       </c>
-      <c r="B141" t="s" s="11">
+      <c r="B141" t="s" s="13">
         <v>289</v>
       </c>
       <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" s="10"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="12">
+    <row r="142" ht="20.7" customHeight="1">
+      <c r="A142" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="C142" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D142" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C142" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" t="s" s="12">
+    <row r="143" ht="20.35" customHeight="1">
+      <c r="A143" t="s" s="11">
         <v>292</v>
       </c>
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="11">
         <v>293</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D143" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D143" s="10"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
@@ -5507,9 +5551,11 @@
         <v>295</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D144" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
@@ -5523,7 +5569,7 @@
         <v>297</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -5533,29 +5579,29 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="12">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B146" t="s" s="12">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D146" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.35" customHeight="1">
-      <c r="A147" t="s" s="13">
-        <v>296</v>
-      </c>
-      <c r="B147" t="s" s="13">
-        <v>299</v>
+    <row r="147" ht="20.05" customHeight="1">
+      <c r="A147" t="s" s="12">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s" s="12">
+        <v>301</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5563,31 +5609,31 @@
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.7" customHeight="1">
-      <c r="A148" t="s" s="4">
-        <v>296</v>
-      </c>
-      <c r="B148" t="s" s="4">
+    <row r="148" ht="20.05" customHeight="1">
+      <c r="A148" t="s" s="12">
         <v>300</v>
       </c>
-      <c r="C148" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D148" s="9"/>
+      <c r="B148" t="s" s="12">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D148" s="10"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
     <row r="149" ht="20.35" customHeight="1">
-      <c r="A149" t="s" s="11">
-        <v>301</v>
-      </c>
-      <c r="B149" t="s" s="11">
-        <v>302</v>
+      <c r="A149" t="s" s="13">
+        <v>300</v>
+      </c>
+      <c r="B149" t="s" s="13">
+        <v>303</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -5595,15 +5641,15 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="12">
-        <v>303</v>
-      </c>
-      <c r="B150" t="s" s="12">
+    <row r="150" ht="20.7" customHeight="1">
+      <c r="A150" t="s" s="4">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s" s="4">
         <v>304</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>43</v>
+      <c r="C150" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -5611,19 +5657,17 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.05" customHeight="1">
-      <c r="A151" t="s" s="12">
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" t="s" s="11">
         <v>305</v>
       </c>
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="11">
         <v>306</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D151" s="9">
-        <v>0.692307692307692</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
@@ -5653,9 +5697,11 @@
         <v>310</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D153" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
@@ -5685,11 +5731,9 @@
         <v>314</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D155" s="9">
-        <v>0.256410256410256</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D155" s="10"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
@@ -5703,7 +5747,7 @@
         <v>316</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -5719,9 +5763,11 @@
         <v>318</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D157" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D157" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
@@ -5735,7 +5781,7 @@
         <v>320</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -5743,15 +5789,15 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" ht="20.35" customHeight="1">
-      <c r="A159" t="s" s="13">
+    <row r="159" ht="20.05" customHeight="1">
+      <c r="A159" t="s" s="12">
         <v>321</v>
       </c>
-      <c r="B159" t="s" s="13">
+      <c r="B159" t="s" s="12">
         <v>322</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -5759,15 +5805,15 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" ht="20.7" customHeight="1">
-      <c r="A160" t="s" s="4">
+    <row r="160" ht="20.05" customHeight="1">
+      <c r="A160" t="s" s="12">
         <v>323</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>324</v>
       </c>
-      <c r="C160" t="s" s="8">
-        <v>25</v>
+      <c r="C160" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -5776,14 +5822,14 @@
       <c r="H160" s="10"/>
     </row>
     <row r="161" ht="20.35" customHeight="1">
-      <c r="A161" t="s" s="11">
+      <c r="A161" t="s" s="13">
         <v>325</v>
       </c>
-      <c r="B161" t="s" s="11">
+      <c r="B161" t="s" s="13">
         <v>326</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5791,35 +5837,33 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" ht="20.05" customHeight="1">
-      <c r="A162" t="s" s="12">
+    <row r="162" ht="20.7" customHeight="1">
+      <c r="A162" t="s" s="4">
         <v>327</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="4">
         <v>328</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D162" s="10"/>
+      <c r="C162" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.05" customHeight="1">
-      <c r="A163" t="s" s="12">
+    <row r="163" ht="20.35" customHeight="1">
+      <c r="A163" t="s" s="11">
         <v>329</v>
       </c>
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="11">
         <v>330</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D163" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
@@ -5833,9 +5877,9 @@
         <v>332</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D164" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D164" s="10"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
@@ -5851,7 +5895,9 @@
       <c r="C165" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D165" s="10"/>
+      <c r="D165" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
@@ -5864,10 +5910,10 @@
       <c r="B166" t="s" s="12">
         <v>336</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C166" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -5881,11 +5927,9 @@
         <v>338</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D167" s="9">
-        <v>0.282051282051282</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D167" s="10"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -5898,10 +5942,10 @@
       <c r="B168" t="s" s="12">
         <v>340</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D168" s="9"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -5915,39 +5959,43 @@
         <v>342</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D169" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D169" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.35" customHeight="1">
-      <c r="A170" t="s" s="13">
+    <row r="170" ht="20.05" customHeight="1">
+      <c r="A170" t="s" s="12">
         <v>343</v>
       </c>
-      <c r="B170" t="s" s="13">
+      <c r="B170" t="s" s="12">
         <v>344</v>
       </c>
       <c r="C170" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D170" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D170" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.7" customHeight="1">
-      <c r="A171" t="s" s="4">
+    <row r="171" ht="20.05" customHeight="1">
+      <c r="A171" t="s" s="12">
         <v>345</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C171" t="s" s="8">
-        <v>25</v>
+      <c r="C171" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -5955,15 +6003,15 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" ht="20.35" customHeight="1">
-      <c r="A172" t="s" s="11">
+    <row r="172" ht="20.05" customHeight="1">
+      <c r="A172" t="s" s="12">
         <v>347</v>
       </c>
-      <c r="B172" t="s" s="11">
+      <c r="B172" t="s" s="12">
         <v>348</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -5971,15 +6019,15 @@
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" ht="20.05" customHeight="1">
-      <c r="A173" t="s" s="12">
+    <row r="173" ht="20.35" customHeight="1">
+      <c r="A173" t="s" s="13">
         <v>349</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="13">
         <v>350</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -5987,15 +6035,15 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.05" customHeight="1">
-      <c r="A174" t="s" s="12">
+    <row r="174" ht="20.7" customHeight="1">
+      <c r="A174" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="4">
         <v>352</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>30</v>
+      <c r="C174" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -6003,15 +6051,15 @@
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.05" customHeight="1">
-      <c r="A175" t="s" s="12">
+    <row r="175" ht="20.35" customHeight="1">
+      <c r="A175" t="s" s="11">
         <v>353</v>
       </c>
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="11">
         <v>354</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -6043,11 +6091,9 @@
         <v>358</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D177" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
@@ -6061,7 +6107,7 @@
         <v>360</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6077,7 +6123,7 @@
         <v>362</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6085,49 +6131,51 @@
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" ht="20.35" customHeight="1">
-      <c r="A180" t="s" s="13">
-        <v>361</v>
-      </c>
-      <c r="B180" t="s" s="13">
+    <row r="180" ht="20.05" customHeight="1">
+      <c r="A180" t="s" s="12">
         <v>363</v>
+      </c>
+      <c r="B180" t="s" s="12">
+        <v>364</v>
       </c>
       <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D180" s="9">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" ht="20.7" customHeight="1">
-      <c r="A181" t="s" s="4">
-        <v>364</v>
-      </c>
-      <c r="B181" t="s" s="4">
+    <row r="181" ht="20.05" customHeight="1">
+      <c r="A181" t="s" s="12">
         <v>365</v>
       </c>
-      <c r="C181" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D181" s="9"/>
+      <c r="B181" t="s" s="12">
+        <v>366</v>
+      </c>
+      <c r="C181" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D181" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" ht="20.7" customHeight="1">
-      <c r="A182" t="s" s="14">
-        <v>366</v>
-      </c>
-      <c r="B182" t="s" s="14">
+    <row r="182" ht="20.05" customHeight="1">
+      <c r="A182" t="s" s="12">
         <v>367</v>
       </c>
+      <c r="B182" t="s" s="12">
+        <v>368</v>
+      </c>
       <c r="C182" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6135,31 +6183,33 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.7" customHeight="1">
-      <c r="A183" t="s" s="4">
-        <v>368</v>
-      </c>
-      <c r="B183" t="s" s="4">
+    <row r="183" ht="20.35" customHeight="1">
+      <c r="A183" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s" s="13">
         <v>369</v>
       </c>
-      <c r="C183" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D183" s="9"/>
+      <c r="C183" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D183" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="11">
+    <row r="184" ht="20.7" customHeight="1">
+      <c r="A184" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="B184" t="s" s="11">
+      <c r="B184" t="s" s="4">
         <v>371</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>72</v>
+      <c r="C184" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -6167,15 +6217,15 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" t="s" s="13">
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="14">
         <v>372</v>
       </c>
-      <c r="B185" t="s" s="13">
+      <c r="B185" t="s" s="14">
         <v>373</v>
       </c>
       <c r="C185" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -6191,7 +6241,7 @@
         <v>375</v>
       </c>
       <c r="C186" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -6207,43 +6257,39 @@
         <v>377</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D187" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.05" customHeight="1">
-      <c r="A188" t="s" s="12">
-        <v>376</v>
-      </c>
-      <c r="B188" t="s" s="12">
+    <row r="188" ht="20.35" customHeight="1">
+      <c r="A188" t="s" s="13">
         <v>378</v>
+      </c>
+      <c r="B188" t="s" s="13">
+        <v>379</v>
       </c>
       <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" ht="20.35" customHeight="1">
-      <c r="A189" t="s" s="13">
-        <v>379</v>
-      </c>
-      <c r="B189" t="s" s="13">
+    <row r="189" ht="20.7" customHeight="1">
+      <c r="A189" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>72</v>
+      <c r="B189" t="s" s="4">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -6251,47 +6297,51 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="4">
-        <v>379</v>
-      </c>
-      <c r="B190" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="C190" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D190" s="9"/>
+    <row r="190" ht="20.35" customHeight="1">
+      <c r="A190" t="s" s="11">
+        <v>382</v>
+      </c>
+      <c r="B190" t="s" s="11">
+        <v>383</v>
+      </c>
+      <c r="C190" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D190" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" t="s" s="14">
+    <row r="191" ht="20.05" customHeight="1">
+      <c r="A191" t="s" s="12">
         <v>382</v>
       </c>
-      <c r="B191" t="s" s="14">
-        <v>383</v>
+      <c r="B191" t="s" s="12">
+        <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D191" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D191" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.7" customHeight="1">
-      <c r="A192" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="B192" t="s" s="4">
+    <row r="192" ht="20.35" customHeight="1">
+      <c r="A192" t="s" s="13">
         <v>385</v>
       </c>
-      <c r="C192" t="s" s="8">
-        <v>25</v>
+      <c r="B192" t="s" s="13">
+        <v>386</v>
+      </c>
+      <c r="C192" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6300,14 +6350,14 @@
       <c r="H192" s="10"/>
     </row>
     <row r="193" ht="20.7" customHeight="1">
-      <c r="A193" t="s" s="14">
-        <v>386</v>
-      </c>
-      <c r="B193" t="s" s="14">
+      <c r="A193" t="s" s="4">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>72</v>
+      <c r="C193" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -6316,14 +6366,14 @@
       <c r="H193" s="10"/>
     </row>
     <row r="194" ht="20.7" customHeight="1">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="14">
         <v>388</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="14">
         <v>389</v>
       </c>
-      <c r="C194" t="s" s="8">
-        <v>25</v>
+      <c r="C194" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -6339,7 +6389,7 @@
         <v>391</v>
       </c>
       <c r="C195" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6347,31 +6397,33 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="11">
+    <row r="196" ht="20.7" customHeight="1">
+      <c r="A196" t="s" s="14">
         <v>392</v>
       </c>
-      <c r="B196" t="s" s="11">
+      <c r="B196" t="s" s="14">
         <v>393</v>
       </c>
       <c r="C196" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D196" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D196" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="12">
+    <row r="197" ht="20.7" customHeight="1">
+      <c r="A197" t="s" s="4">
         <v>394</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="4">
         <v>395</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>27</v>
+      <c r="C197" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6379,15 +6431,15 @@
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.05" customHeight="1">
-      <c r="A198" t="s" s="12">
+    <row r="198" ht="20.7" customHeight="1">
+      <c r="A198" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="4">
         <v>397</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>43</v>
+      <c r="C198" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6395,15 +6447,15 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.05" customHeight="1">
-      <c r="A199" t="s" s="12">
+    <row r="199" ht="20.35" customHeight="1">
+      <c r="A199" t="s" s="11">
         <v>398</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="11">
         <v>399</v>
       </c>
       <c r="C199" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6411,11 +6463,11 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.35" customHeight="1">
-      <c r="A200" t="s" s="13">
+    <row r="200" ht="20.05" customHeight="1">
+      <c r="A200" t="s" s="12">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="13">
+      <c r="B200" t="s" s="12">
         <v>401</v>
       </c>
       <c r="C200" t="s" s="12">
@@ -6427,15 +6479,15 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.7" customHeight="1">
-      <c r="A201" t="s" s="4">
+    <row r="201" ht="20.05" customHeight="1">
+      <c r="A201" t="s" s="12">
         <v>402</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>403</v>
       </c>
-      <c r="C201" t="s" s="8">
-        <v>25</v>
+      <c r="C201" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6443,15 +6495,15 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="11">
+    <row r="202" ht="20.05" customHeight="1">
+      <c r="A202" t="s" s="12">
         <v>404</v>
       </c>
-      <c r="B202" t="s" s="11">
+      <c r="B202" t="s" s="12">
         <v>405</v>
       </c>
       <c r="C202" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6467,11 +6519,9 @@
         <v>407</v>
       </c>
       <c r="C203" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D203" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
@@ -6485,7 +6535,7 @@
         <v>409</v>
       </c>
       <c r="C204" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6493,33 +6543,37 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="4">
+    <row r="205" ht="20.35" customHeight="1">
+      <c r="A205" t="s" s="11">
         <v>410</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="11">
         <v>411</v>
       </c>
-      <c r="C205" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D205" s="9"/>
+      <c r="C205" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D205" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="15">
+    <row r="206" ht="20.35" customHeight="1">
+      <c r="A206" t="s" s="13">
         <v>412</v>
       </c>
-      <c r="B206" t="s" s="15">
+      <c r="B206" t="s" s="13">
         <v>413</v>
       </c>
-      <c r="C206" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D206" s="9"/>
+      <c r="C206" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D206" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
@@ -6533,7 +6587,7 @@
         <v>415</v>
       </c>
       <c r="C207" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -6542,26 +6596,26 @@
       <c r="H207" s="10"/>
     </row>
     <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="14">
+      <c r="A208" t="s" s="4">
         <v>416</v>
       </c>
-      <c r="B208" t="s" s="14">
+      <c r="B208" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="C208" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
     <row r="209" ht="20.7" customHeight="1">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="15">
         <v>418</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="15">
         <v>419</v>
       </c>
       <c r="C209" t="s" s="8">
@@ -6581,7 +6635,7 @@
         <v>421</v>
       </c>
       <c r="C210" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -6589,31 +6643,31 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" t="s" s="11">
+    <row r="211" ht="20.7" customHeight="1">
+      <c r="A211" t="s" s="14">
         <v>422</v>
       </c>
-      <c r="B211" t="s" s="11">
+      <c r="B211" t="s" s="14">
         <v>423</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D211" s="9"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.05" customHeight="1">
-      <c r="A212" t="s" s="12">
+    <row r="212" ht="20.7" customHeight="1">
+      <c r="A212" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="4">
         <v>425</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>18</v>
+      <c r="C212" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6621,15 +6675,15 @@
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.05" customHeight="1">
-      <c r="A213" t="s" s="12">
+    <row r="213" ht="20.7" customHeight="1">
+      <c r="A213" t="s" s="4">
         <v>426</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="4">
         <v>427</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>15</v>
+      <c r="C213" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -6637,17 +6691,17 @@
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.05" customHeight="1">
-      <c r="A214" t="s" s="12">
+    <row r="214" ht="20.35" customHeight="1">
+      <c r="A214" t="s" s="11">
         <v>428</v>
       </c>
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="11">
         <v>429</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D214" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
@@ -6661,7 +6715,7 @@
         <v>431</v>
       </c>
       <c r="C215" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6669,83 +6723,81 @@
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.35" customHeight="1">
-      <c r="A216" t="s" s="13">
+    <row r="216" ht="20.05" customHeight="1">
+      <c r="A216" t="s" s="12">
         <v>432</v>
       </c>
-      <c r="B216" t="s" s="13">
+      <c r="B216" t="s" s="12">
         <v>433</v>
       </c>
       <c r="C216" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D216" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
+    <row r="217" ht="20.05" customHeight="1">
+      <c r="A217" t="s" s="12">
         <v>434</v>
       </c>
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>435</v>
       </c>
-      <c r="C217" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D217" s="9"/>
+      <c r="C217" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D217" s="10"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.7" customHeight="1">
-      <c r="A218" t="s" s="14">
+    <row r="218" ht="20.05" customHeight="1">
+      <c r="A218" t="s" s="12">
         <v>436</v>
       </c>
-      <c r="B218" t="s" s="14">
+      <c r="B218" t="s" s="12">
         <v>437</v>
       </c>
       <c r="C218" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D218" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.7" customHeight="1">
-      <c r="A219" t="s" s="4">
+    <row r="219" ht="20.35" customHeight="1">
+      <c r="A219" t="s" s="13">
         <v>438</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="13">
         <v>439</v>
       </c>
-      <c r="C219" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D219" s="9"/>
+      <c r="C219" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D219" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.35" customHeight="1">
-      <c r="A220" t="s" s="11">
+    <row r="220" ht="20.7" customHeight="1">
+      <c r="A220" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="B220" t="s" s="11">
+      <c r="B220" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="C220" t="s" s="12">
-        <v>15</v>
+      <c r="C220" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -6753,33 +6805,33 @@
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.05" customHeight="1">
-      <c r="A221" t="s" s="12">
+    <row r="221" ht="20.7" customHeight="1">
+      <c r="A221" t="s" s="14">
         <v>442</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="14">
         <v>443</v>
       </c>
       <c r="C221" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D221" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.35" customHeight="1">
-      <c r="A222" t="s" s="13">
+    <row r="222" ht="20.7" customHeight="1">
+      <c r="A222" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="B222" t="s" s="13">
+      <c r="B222" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>18</v>
+      <c r="C222" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -6787,15 +6839,15 @@
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="4">
+    <row r="223" ht="20.35" customHeight="1">
+      <c r="A223" t="s" s="11">
         <v>446</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="11">
         <v>447</v>
       </c>
-      <c r="C223" t="s" s="8">
-        <v>25</v>
+      <c r="C223" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -6803,47 +6855,51 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="4">
+    <row r="224" ht="20.05" customHeight="1">
+      <c r="A224" t="s" s="12">
         <v>448</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>449</v>
       </c>
-      <c r="C224" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D224" s="9"/>
+      <c r="C224" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D224" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.35" customHeight="1">
-      <c r="A225" t="s" s="11">
+    <row r="225" ht="20.05" customHeight="1">
+      <c r="A225" t="s" s="12">
         <v>450</v>
       </c>
-      <c r="B225" t="s" s="11">
+      <c r="B225" t="s" s="12">
         <v>451</v>
       </c>
       <c r="C225" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D225" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D225" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.05" customHeight="1">
-      <c r="A226" t="s" s="12">
+    <row r="226" ht="20.35" customHeight="1">
+      <c r="A226" t="s" s="13">
         <v>452</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="13">
         <v>453</v>
       </c>
       <c r="C226" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -6851,15 +6907,15 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.05" customHeight="1">
-      <c r="A227" t="s" s="12">
+    <row r="227" ht="20.7" customHeight="1">
+      <c r="A227" t="s" s="4">
         <v>454</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="4">
         <v>455</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>18</v>
+      <c r="C227" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6867,29 +6923,27 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.05" customHeight="1">
-      <c r="A228" t="s" s="12">
+    <row r="228" ht="20.7" customHeight="1">
+      <c r="A228" t="s" s="4">
         <v>456</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="4">
         <v>457</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D228" s="9">
-        <v>0.435897435897436</v>
-      </c>
+      <c r="C228" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.05" customHeight="1">
-      <c r="A229" t="s" s="12">
+    <row r="229" ht="20.35" customHeight="1">
+      <c r="A229" t="s" s="11">
         <v>458</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="11">
         <v>459</v>
       </c>
       <c r="C229" t="s" s="12">
@@ -6909,11 +6963,9 @@
         <v>461</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D230" s="9">
-        <v>0.974358974358974</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
@@ -6927,7 +6979,7 @@
         <v>463</v>
       </c>
       <c r="C231" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -6943,9 +6995,11 @@
         <v>465</v>
       </c>
       <c r="C232" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D232" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D232" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
@@ -6959,9 +7013,9 @@
         <v>467</v>
       </c>
       <c r="C233" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D233" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
@@ -6975,43 +7029,41 @@
         <v>469</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D234" s="9">
-        <v>0.487179487179487</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.35" customHeight="1">
-      <c r="A235" t="s" s="13">
+    <row r="235" ht="20.05" customHeight="1">
+      <c r="A235" t="s" s="12">
         <v>470</v>
       </c>
-      <c r="B235" t="s" s="13">
+      <c r="B235" t="s" s="12">
         <v>471</v>
       </c>
       <c r="C235" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D235" s="9">
-        <v>0.179487179487179</v>
-      </c>
+      <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.7" customHeight="1">
-      <c r="A236" t="s" s="4">
+    <row r="236" ht="20.05" customHeight="1">
+      <c r="A236" t="s" s="12">
         <v>472</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>473</v>
       </c>
-      <c r="C236" t="s" s="8">
-        <v>10</v>
+      <c r="C236" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -7019,79 +7071,83 @@
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.7" customHeight="1">
-      <c r="A237" t="s" s="4">
+    <row r="237" ht="20.05" customHeight="1">
+      <c r="A237" t="s" s="12">
         <v>474</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>475</v>
       </c>
-      <c r="C237" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D237" s="9"/>
+      <c r="C237" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D237" s="10"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.35" customHeight="1">
-      <c r="A238" t="s" s="11">
+    <row r="238" ht="20.05" customHeight="1">
+      <c r="A238" t="s" s="12">
         <v>476</v>
       </c>
-      <c r="B238" t="s" s="11">
+      <c r="B238" t="s" s="12">
         <v>477</v>
       </c>
       <c r="C238" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D238" s="9"/>
+      <c r="D238" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.05" customHeight="1">
-      <c r="A239" t="s" s="12">
+    <row r="239" ht="20.35" customHeight="1">
+      <c r="A239" t="s" s="13">
         <v>478</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="13">
         <v>479</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D239" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D239" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.05" customHeight="1">
-      <c r="A240" t="s" s="12">
+    <row r="240" ht="20.7" customHeight="1">
+      <c r="A240" t="s" s="4">
         <v>480</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="4">
         <v>481</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D240" s="10"/>
+      <c r="C240" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.05" customHeight="1">
-      <c r="A241" t="s" s="12">
+    <row r="241" ht="20.7" customHeight="1">
+      <c r="A241" t="s" s="4">
         <v>482</v>
       </c>
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="4">
         <v>483</v>
       </c>
-      <c r="C241" t="s" s="12">
-        <v>43</v>
+      <c r="C241" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -7099,15 +7155,15 @@
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.05" customHeight="1">
-      <c r="A242" t="s" s="12">
+    <row r="242" ht="20.35" customHeight="1">
+      <c r="A242" t="s" s="11">
         <v>484</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="11">
         <v>485</v>
       </c>
       <c r="C242" t="s" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -7123,9 +7179,9 @@
         <v>487</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D243" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D243" s="10"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
@@ -7139,10 +7195,10 @@
         <v>489</v>
       </c>
       <c r="C244" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D244" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
@@ -7173,7 +7229,7 @@
         <v>493</v>
       </c>
       <c r="C246" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7189,9 +7245,11 @@
         <v>495</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D247" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D247" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
@@ -7205,7 +7263,7 @@
         <v>497</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -7221,23 +7279,25 @@
         <v>499</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D249" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D249" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" t="s" s="13">
+    <row r="250" ht="20.05" customHeight="1">
+      <c r="A250" t="s" s="12">
         <v>500</v>
       </c>
-      <c r="B250" t="s" s="13">
+      <c r="B250" t="s" s="12">
         <v>501</v>
       </c>
       <c r="C250" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -7245,15 +7305,15 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.7" customHeight="1">
-      <c r="A251" t="s" s="4">
+    <row r="251" ht="20.05" customHeight="1">
+      <c r="A251" t="s" s="12">
         <v>502</v>
       </c>
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>503</v>
       </c>
-      <c r="C251" t="s" s="8">
-        <v>25</v>
+      <c r="C251" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -7261,19 +7321,17 @@
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" t="s" s="11">
+    <row r="252" ht="20.05" customHeight="1">
+      <c r="A252" t="s" s="12">
         <v>504</v>
       </c>
-      <c r="B252" t="s" s="11">
+      <c r="B252" t="s" s="12">
         <v>505</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D252" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
@@ -7287,7 +7345,7 @@
         <v>507</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -7303,7 +7361,7 @@
         <v>509</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -7311,33 +7369,31 @@
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.05" customHeight="1">
-      <c r="A255" t="s" s="12">
+    <row r="255" ht="20.35" customHeight="1">
+      <c r="A255" t="s" s="13">
         <v>510</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="13">
         <v>511</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D255" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.05" customHeight="1">
-      <c r="A256" t="s" s="12">
+    <row r="256" ht="20.7" customHeight="1">
+      <c r="A256" t="s" s="4">
         <v>512</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="4">
         <v>513</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>18</v>
+      <c r="C256" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7346,42 +7402,46 @@
       <c r="H256" s="10"/>
     </row>
     <row r="257" ht="20.35" customHeight="1">
-      <c r="A257" t="s" s="13">
+      <c r="A257" t="s" s="11">
         <v>514</v>
       </c>
-      <c r="B257" t="s" s="13">
+      <c r="B257" t="s" s="11">
         <v>515</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D257" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D257" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.7" customHeight="1">
-      <c r="A258" t="s" s="4">
+    <row r="258" ht="20.05" customHeight="1">
+      <c r="A258" t="s" s="12">
         <v>516</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>517</v>
       </c>
-      <c r="C258" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D258" s="9"/>
+      <c r="C258" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D258" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.35" customHeight="1">
-      <c r="A259" t="s" s="11">
+    <row r="259" ht="20.05" customHeight="1">
+      <c r="A259" t="s" s="12">
         <v>518</v>
       </c>
-      <c r="B259" t="s" s="11">
+      <c r="B259" t="s" s="12">
         <v>519</v>
       </c>
       <c r="C259" t="s" s="12">
@@ -7403,7 +7463,9 @@
       <c r="C260" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D260" s="9"/>
+      <c r="D260" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
@@ -7417,7 +7479,7 @@
         <v>523</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7425,11 +7487,11 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.05" customHeight="1">
-      <c r="A262" t="s" s="12">
+    <row r="262" ht="20.35" customHeight="1">
+      <c r="A262" t="s" s="13">
         <v>524</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="13">
         <v>525</v>
       </c>
       <c r="C262" t="s" s="12">
@@ -7441,15 +7503,15 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.05" customHeight="1">
-      <c r="A263" t="s" s="12">
+    <row r="263" ht="20.7" customHeight="1">
+      <c r="A263" t="s" s="4">
         <v>526</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="4">
         <v>527</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>30</v>
+      <c r="C263" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -7457,15 +7519,15 @@
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
     </row>
-    <row r="264" ht="20.05" customHeight="1">
-      <c r="A264" t="s" s="12">
+    <row r="264" ht="20.35" customHeight="1">
+      <c r="A264" t="s" s="11">
         <v>528</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="11">
         <v>529</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -7481,7 +7543,7 @@
         <v>531</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7497,7 +7559,7 @@
         <v>533</v>
       </c>
       <c r="C266" t="s" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7513,7 +7575,7 @@
         <v>535</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -7529,7 +7591,7 @@
         <v>537</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7545,7 +7607,7 @@
         <v>539</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7561,7 +7623,7 @@
         <v>541</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -7571,13 +7633,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B271" t="s" s="12">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7587,13 +7649,13 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="12">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B272" t="s" s="12">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -7601,33 +7663,31 @@
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.35" customHeight="1">
-      <c r="A273" t="s" s="13">
-        <v>545</v>
-      </c>
-      <c r="B273" t="s" s="13">
+    <row r="273" ht="20.05" customHeight="1">
+      <c r="A273" t="s" s="12">
         <v>546</v>
       </c>
+      <c r="B273" t="s" s="12">
+        <v>547</v>
+      </c>
       <c r="C273" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D273" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" t="s" s="4">
-        <v>547</v>
-      </c>
-      <c r="B274" t="s" s="4">
+    <row r="274" ht="20.05" customHeight="1">
+      <c r="A274" t="s" s="12">
         <v>548</v>
       </c>
-      <c r="C274" t="s" s="8">
-        <v>25</v>
+      <c r="B274" t="s" s="12">
+        <v>549</v>
+      </c>
+      <c r="C274" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7635,15 +7695,15 @@
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" ht="20.7" customHeight="1">
-      <c r="A275" t="s" s="4">
-        <v>549</v>
-      </c>
-      <c r="B275" t="s" s="4">
+    <row r="275" ht="20.05" customHeight="1">
+      <c r="A275" t="s" s="12">
         <v>550</v>
       </c>
-      <c r="C275" t="s" s="8">
-        <v>10</v>
+      <c r="B275" t="s" s="12">
+        <v>551</v>
+      </c>
+      <c r="C275" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -7651,15 +7711,15 @@
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" ht="20.7" customHeight="1">
-      <c r="A276" t="s" s="4">
-        <v>549</v>
-      </c>
-      <c r="B276" t="s" s="4">
+    <row r="276" ht="20.05" customHeight="1">
+      <c r="A276" t="s" s="12">
         <v>550</v>
       </c>
-      <c r="C276" t="s" s="8">
-        <v>25</v>
+      <c r="B276" t="s" s="12">
+        <v>552</v>
+      </c>
+      <c r="C276" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7667,15 +7727,15 @@
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" ht="20.7" customHeight="1">
-      <c r="A277" t="s" s="4">
-        <v>551</v>
-      </c>
-      <c r="B277" t="s" s="4">
-        <v>552</v>
-      </c>
-      <c r="C277" t="s" s="8">
-        <v>10</v>
+    <row r="277" ht="20.05" customHeight="1">
+      <c r="A277" t="s" s="12">
+        <v>553</v>
+      </c>
+      <c r="B277" t="s" s="12">
+        <v>554</v>
+      </c>
+      <c r="C277" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7684,48 +7744,48 @@
       <c r="H277" s="10"/>
     </row>
     <row r="278" ht="20.35" customHeight="1">
-      <c r="A278" t="s" s="11">
-        <v>553</v>
-      </c>
-      <c r="B278" t="s" s="11">
-        <v>554</v>
+      <c r="A278" t="s" s="13">
+        <v>555</v>
+      </c>
+      <c r="B278" t="s" s="13">
+        <v>556</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D278" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D278" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.05" customHeight="1">
-      <c r="A279" t="s" s="12">
-        <v>555</v>
-      </c>
-      <c r="B279" t="s" s="12">
-        <v>556</v>
-      </c>
-      <c r="C279" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D279" s="9">
-        <v>0.717948717948718</v>
-      </c>
+    <row r="279" ht="20.7" customHeight="1">
+      <c r="A279" t="s" s="4">
+        <v>557</v>
+      </c>
+      <c r="B279" t="s" s="4">
+        <v>558</v>
+      </c>
+      <c r="C279" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D279" s="9"/>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.05" customHeight="1">
-      <c r="A280" t="s" s="12">
-        <v>557</v>
-      </c>
-      <c r="B280" t="s" s="12">
-        <v>558</v>
-      </c>
-      <c r="C280" t="s" s="12">
-        <v>27</v>
+    <row r="280" ht="20.7" customHeight="1">
+      <c r="A280" t="s" s="4">
+        <v>559</v>
+      </c>
+      <c r="B280" t="s" s="4">
+        <v>560</v>
+      </c>
+      <c r="C280" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7733,15 +7793,15 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.05" customHeight="1">
-      <c r="A281" t="s" s="12">
+    <row r="281" ht="20.7" customHeight="1">
+      <c r="A281" t="s" s="4">
         <v>559</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="4">
         <v>560</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>30</v>
+      <c r="C281" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7749,33 +7809,31 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.05" customHeight="1">
-      <c r="A282" t="s" s="12">
+    <row r="282" ht="20.7" customHeight="1">
+      <c r="A282" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="4">
         <v>562</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D282" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="C282" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
     <row r="283" ht="20.35" customHeight="1">
-      <c r="A283" t="s" s="13">
+      <c r="A283" t="s" s="11">
         <v>563</v>
       </c>
-      <c r="B283" t="s" s="13">
+      <c r="B283" t="s" s="11">
         <v>564</v>
       </c>
       <c r="C283" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -7783,51 +7841,53 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.7" customHeight="1">
-      <c r="A284" t="s" s="4">
+    <row r="284" ht="20.05" customHeight="1">
+      <c r="A284" t="s" s="12">
         <v>565</v>
       </c>
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>566</v>
       </c>
-      <c r="C284" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D284" s="9"/>
+      <c r="C284" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D284" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.7" customHeight="1">
-      <c r="A285" t="s" s="4">
+    <row r="285" ht="20.05" customHeight="1">
+      <c r="A285" t="s" s="12">
         <v>567</v>
       </c>
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>568</v>
       </c>
-      <c r="C285" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D285" s="9"/>
+      <c r="C285" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D285" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.35" customHeight="1">
-      <c r="A286" t="s" s="11">
+    <row r="286" ht="20.05" customHeight="1">
+      <c r="A286" t="s" s="12">
         <v>569</v>
       </c>
-      <c r="B286" t="s" s="11">
+      <c r="B286" t="s" s="12">
         <v>570</v>
       </c>
       <c r="C286" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D286" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -7841,23 +7901,25 @@
         <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D287" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D287" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.05" customHeight="1">
-      <c r="A288" t="s" s="12">
+    <row r="288" ht="20.35" customHeight="1">
+      <c r="A288" t="s" s="13">
         <v>573</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="13">
         <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -7865,15 +7927,15 @@
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.05" customHeight="1">
-      <c r="A289" t="s" s="12">
+    <row r="289" ht="20.7" customHeight="1">
+      <c r="A289" t="s" s="4">
         <v>575</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="4">
         <v>576</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>15</v>
+      <c r="C289" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -7881,15 +7943,15 @@
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" ht="20.05" customHeight="1">
-      <c r="A290" t="s" s="12">
+    <row r="290" ht="20.7" customHeight="1">
+      <c r="A290" t="s" s="4">
         <v>577</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="4">
         <v>578</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>72</v>
+      <c r="C290" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
@@ -7897,47 +7959,51 @@
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.05" customHeight="1">
-      <c r="A291" t="s" s="12">
+    <row r="291" ht="20.35" customHeight="1">
+      <c r="A291" t="s" s="11">
         <v>579</v>
       </c>
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="11">
         <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D291" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D291" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.35" customHeight="1">
-      <c r="A292" t="s" s="13">
+    <row r="292" ht="20.05" customHeight="1">
+      <c r="A292" t="s" s="12">
         <v>581</v>
       </c>
-      <c r="B292" t="s" s="13">
+      <c r="B292" t="s" s="12">
         <v>582</v>
       </c>
       <c r="C292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D292" s="9"/>
+      <c r="D292" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.7" customHeight="1">
-      <c r="A293" t="s" s="4">
+    <row r="293" ht="20.05" customHeight="1">
+      <c r="A293" t="s" s="12">
         <v>583</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>584</v>
       </c>
-      <c r="C293" t="s" s="8">
-        <v>10</v>
+      <c r="C293" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -7945,15 +8011,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.35" customHeight="1">
-      <c r="A294" t="s" s="11">
+    <row r="294" ht="20.05" customHeight="1">
+      <c r="A294" t="s" s="12">
         <v>585</v>
       </c>
-      <c r="B294" t="s" s="11">
+      <c r="B294" t="s" s="12">
         <v>586</v>
       </c>
       <c r="C294" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -7969,7 +8035,7 @@
         <v>588</v>
       </c>
       <c r="C295" t="s" s="12">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -7987,21 +8053,21 @@
       <c r="C296" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D296" s="9"/>
+      <c r="D296" s="10"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.05" customHeight="1">
-      <c r="A297" t="s" s="12">
+    <row r="297" ht="20.35" customHeight="1">
+      <c r="A297" t="s" s="13">
         <v>591</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="13">
         <v>592</v>
       </c>
       <c r="C297" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -8009,15 +8075,15 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.05" customHeight="1">
-      <c r="A298" t="s" s="12">
+    <row r="298" ht="20.7" customHeight="1">
+      <c r="A298" t="s" s="4">
         <v>593</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="4">
         <v>594</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>43</v>
+      <c r="C298" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -8025,15 +8091,15 @@
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.05" customHeight="1">
-      <c r="A299" t="s" s="12">
+    <row r="299" ht="20.35" customHeight="1">
+      <c r="A299" t="s" s="11">
         <v>595</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="11">
         <v>596</v>
       </c>
       <c r="C299" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -8049,7 +8115,7 @@
         <v>598</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -8065,11 +8131,9 @@
         <v>600</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D301" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
@@ -8083,7 +8147,7 @@
         <v>602</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
@@ -8092,9 +8156,15 @@
       <c r="H302" s="10"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
+      <c r="A303" t="s" s="12">
+        <v>603</v>
+      </c>
+      <c r="B303" t="s" s="12">
+        <v>604</v>
+      </c>
+      <c r="C303" t="s" s="12">
+        <v>43</v>
+      </c>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
@@ -8102,9 +8172,15 @@
       <c r="H303" s="10"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
+      <c r="A304" t="s" s="12">
+        <v>605</v>
+      </c>
+      <c r="B304" t="s" s="12">
+        <v>606</v>
+      </c>
+      <c r="C304" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
@@ -8112,9 +8188,15 @@
       <c r="H304" s="10"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
-      <c r="A305" s="10"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
+      <c r="A305" t="s" s="12">
+        <v>607</v>
+      </c>
+      <c r="B305" t="s" s="12">
+        <v>608</v>
+      </c>
+      <c r="C305" t="s" s="12">
+        <v>27</v>
+      </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
@@ -8122,19 +8204,33 @@
       <c r="H305" s="10"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
-      <c r="A306" s="10"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="9"/>
+      <c r="A306" t="s" s="12">
+        <v>609</v>
+      </c>
+      <c r="B306" t="s" s="12">
+        <v>610</v>
+      </c>
+      <c r="C306" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D306" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
-      <c r="A307" s="10"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
+      <c r="A307" t="s" s="12">
+        <v>611</v>
+      </c>
+      <c r="B307" t="s" s="12">
+        <v>612</v>
+      </c>
+      <c r="C307" t="s" s="12">
+        <v>30</v>
+      </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t>Surname</t>
   </si>
@@ -1850,6 +1850,24 @@
   </si>
   <si>
     <t>H210080W</t>
+  </si>
+  <si>
+    <t>Nesvinga</t>
+  </si>
+  <si>
+    <t>H180648T</t>
+  </si>
+  <si>
+    <t>Mufuka</t>
+  </si>
+  <si>
+    <t>H200930N</t>
+  </si>
+  <si>
+    <t>Chidzanga</t>
+  </si>
+  <si>
+    <t>H190594V</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3309,9 @@
       <c r="C6" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
@@ -3355,7 +3375,9 @@
       <c r="C10" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -3979,7 +4001,9 @@
       <c r="C48" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
@@ -4405,7 +4429,9 @@
       <c r="C74" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
@@ -4469,7 +4495,9 @@
       <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
@@ -5065,7 +5093,9 @@
       <c r="C114" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D114" s="9"/>
+      <c r="D114" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
@@ -5161,7 +5191,9 @@
       <c r="C120" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9">
+        <v>0.0769230769230769</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
@@ -5683,7 +5715,9 @@
       <c r="C152" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D152" s="9"/>
+      <c r="D152" s="9">
+        <v>0.948717948717949</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
@@ -5913,7 +5947,9 @@
       <c r="C166" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D166" s="9"/>
+      <c r="D166" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -6077,7 +6113,9 @@
       <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" s="9"/>
+      <c r="D176" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
@@ -6227,7 +6265,9 @@
       <c r="C185" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D185" s="9"/>
+      <c r="D185" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
@@ -6701,7 +6741,9 @@
       <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" s="9"/>
+      <c r="D214" s="9">
+        <v>0.0769230769230769</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
@@ -6717,7 +6759,9 @@
       <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" s="9"/>
+      <c r="D215" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
@@ -7363,7 +7407,9 @@
       <c r="C254" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D254" s="9"/>
+      <c r="D254" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7529,7 +7575,9 @@
       <c r="C264" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D264" s="9"/>
+      <c r="D264" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
       <c r="G264" s="10"/>
@@ -7887,7 +7935,9 @@
       <c r="C286" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D286" s="9"/>
+      <c r="D286" s="9">
+        <v>0.948717948717949</v>
+      </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -8149,7 +8199,9 @@
       <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" s="9"/>
+      <c r="D302" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
@@ -8238,20 +8290,36 @@
       <c r="H307" s="10"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
-      <c r="A308" s="10"/>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="9"/>
+      <c r="A308" t="s" s="12">
+        <v>613</v>
+      </c>
+      <c r="B308" t="s" s="12">
+        <v>614</v>
+      </c>
+      <c r="C308" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D308" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
-      <c r="A309" s="10"/>
-      <c r="B309" s="10"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="9"/>
+      <c r="A309" t="s" s="12">
+        <v>615</v>
+      </c>
+      <c r="B309" t="s" s="12">
+        <v>616</v>
+      </c>
+      <c r="C309" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D309" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>
@@ -8259,19 +8327,33 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" s="10"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="9"/>
+      <c r="B310" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="C310" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D310" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
-      <c r="A311" s="10"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="9"/>
+      <c r="A311" t="s" s="12">
+        <v>617</v>
+      </c>
+      <c r="B311" t="s" s="12">
+        <v>618</v>
+      </c>
+      <c r="C311" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D311" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="624">
   <si>
     <t>Surname</t>
   </si>
@@ -169,6 +169,12 @@
     <t>H210697J</t>
   </si>
   <si>
+    <t>Chidzanga</t>
+  </si>
+  <si>
+    <t>H190594V</t>
+  </si>
+  <si>
     <t>CHIGUVARE</t>
   </si>
   <si>
@@ -370,6 +376,9 @@
     <t>H210678M</t>
   </si>
   <si>
+    <t>H180603W</t>
+  </si>
+  <si>
     <t>Duri</t>
   </si>
   <si>
@@ -952,6 +961,12 @@
     <t>H210190P</t>
   </si>
   <si>
+    <t>Mariridza</t>
+  </si>
+  <si>
+    <t>H180455C</t>
+  </si>
+  <si>
     <t>Marisa</t>
   </si>
   <si>
@@ -1048,6 +1063,12 @@
     <t>H200089H</t>
   </si>
   <si>
+    <t>Maushe</t>
+  </si>
+  <si>
+    <t>H200760B</t>
+  </si>
+  <si>
     <t>Mavezha</t>
   </si>
   <si>
@@ -1213,6 +1234,12 @@
     <t>H210219E</t>
   </si>
   <si>
+    <t>Mufuka</t>
+  </si>
+  <si>
+    <t>H200930N</t>
+  </si>
+  <si>
     <t>Mugabe</t>
   </si>
   <si>
@@ -1447,6 +1474,12 @@
     <t>H210645E</t>
   </si>
   <si>
+    <t>Nesvinga</t>
+  </si>
+  <si>
+    <t>H180648T</t>
+  </si>
+  <si>
     <t>Ngocho</t>
   </si>
   <si>
@@ -1850,24 +1883,6 @@
   </si>
   <si>
     <t>H210080W</t>
-  </si>
-  <si>
-    <t>Nesvinga</t>
-  </si>
-  <si>
-    <t>H180648T</t>
-  </si>
-  <si>
-    <t>Mufuka</t>
-  </si>
-  <si>
-    <t>H200930N</t>
-  </si>
-  <si>
-    <t>Chidzanga</t>
-  </si>
-  <si>
-    <t>H190594V</t>
   </si>
 </sst>
 </file>
@@ -3197,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H394"/>
+  <dimension ref="A1:H393"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3533,11 +3548,11 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="13">
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" t="s" s="12">
         <v>51</v>
       </c>
       <c r="C20" t="s" s="12">
@@ -3549,31 +3564,33 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" t="s" s="4">
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D21" s="9"/>
+      <c r="C21" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" t="s" s="11">
+    <row r="22" ht="20.7" customHeight="1">
+      <c r="A22" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="11">
+      <c r="B22" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>18</v>
+      <c r="C22" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -3581,15 +3598,15 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="11">
         <v>57</v>
       </c>
       <c r="C23" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -3605,9 +3622,9 @@
         <v>59</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D24" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -3623,7 +3640,7 @@
       <c r="C25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
@@ -3637,9 +3654,11 @@
         <v>63</v>
       </c>
       <c r="C26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
@@ -3653,7 +3672,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -3669,7 +3688,7 @@
         <v>67</v>
       </c>
       <c r="C28" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3685,7 +3704,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3701,7 +3720,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3711,13 +3730,13 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="C31" t="s" s="12">
         <v>74</v>
-      </c>
-      <c r="C31" t="s" s="12">
-        <v>15</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -3725,15 +3744,15 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" t="s" s="13">
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="B32" t="s" s="13">
+      <c r="B32" t="s" s="12">
         <v>76</v>
       </c>
       <c r="C32" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3741,15 +3760,15 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" t="s" s="4">
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="C33" t="s" s="8">
-        <v>25</v>
+      <c r="C33" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3773,15 +3792,15 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" t="s" s="11">
+    <row r="35" ht="20.7" customHeight="1">
+      <c r="A35" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="B35" t="s" s="11">
+      <c r="B35" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>43</v>
+      <c r="C35" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3789,15 +3808,15 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="12">
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" t="s" s="11">
         <v>83</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="11">
         <v>84</v>
       </c>
       <c r="C36" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3813,7 +3832,7 @@
         <v>86</v>
       </c>
       <c r="C37" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3829,11 +3848,9 @@
         <v>88</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
@@ -3847,9 +3864,11 @@
         <v>90</v>
       </c>
       <c r="C39" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D39" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
@@ -3863,7 +3882,7 @@
         <v>92</v>
       </c>
       <c r="C40" t="s" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3879,7 +3898,7 @@
         <v>94</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3895,7 +3914,7 @@
         <v>96</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3911,11 +3930,9 @@
         <v>98</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -3929,9 +3946,11 @@
         <v>100</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -3945,10 +3964,10 @@
         <v>102</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9">
-        <v>0.512820512820513</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3966,7 +3985,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="9">
-        <v>0.846153846153846</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -3981,10 +4000,10 @@
         <v>106</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D47" s="9">
-        <v>0.230769230769231</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3999,10 +4018,10 @@
         <v>108</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D48" s="9">
-        <v>0.256410256410256</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4017,41 +4036,43 @@
         <v>110</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D49" s="9">
-        <v>0.58974358974359</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" ht="20.35" customHeight="1">
-      <c r="A50" t="s" s="13">
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="B50" t="s" s="13">
+      <c r="B50" t="s" s="12">
         <v>112</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" ht="20.7" customHeight="1">
-      <c r="A51" t="s" s="4">
+    <row r="51" ht="20.35" customHeight="1">
+      <c r="A51" t="s" s="13">
         <v>113</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="13">
         <v>114</v>
       </c>
-      <c r="C51" t="s" s="8">
-        <v>10</v>
+      <c r="C51" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4059,15 +4080,15 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" t="s" s="11">
+    <row r="52" ht="20.7" customHeight="1">
+      <c r="A52" t="s" s="4">
         <v>115</v>
       </c>
-      <c r="B52" t="s" s="11">
+      <c r="B52" t="s" s="4">
         <v>116</v>
       </c>
-      <c r="C52" t="s" s="12">
-        <v>43</v>
+      <c r="C52" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -4075,11 +4096,11 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="12">
+    <row r="53" ht="20.35" customHeight="1">
+      <c r="A53" t="s" s="11">
         <v>117</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="11">
         <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
@@ -4099,11 +4120,9 @@
         <v>120</v>
       </c>
       <c r="C54" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
@@ -4116,10 +4135,10 @@
       <c r="B55" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4133,9 +4152,11 @@
         <v>123</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D56" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
@@ -4143,13 +4164,13 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s" s="12">
         <v>124</v>
       </c>
-      <c r="B57" t="s" s="12">
-        <v>125</v>
-      </c>
       <c r="C57" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4159,13 +4180,13 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="B58" t="s" s="12">
-        <v>127</v>
-      </c>
       <c r="C58" t="s" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4175,13 +4196,13 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s" s="12">
         <v>128</v>
       </c>
-      <c r="B59" t="s" s="12">
-        <v>129</v>
-      </c>
       <c r="C59" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4191,15 +4212,17 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s" s="12">
         <v>130</v>
-      </c>
-      <c r="B60" t="s" s="12">
-        <v>131</v>
       </c>
       <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
@@ -4207,15 +4230,17 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="B61" t="s" s="12">
-        <v>133</v>
-      </c>
       <c r="C61" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D61" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
@@ -4223,13 +4248,13 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="B62" t="s" s="12">
-        <v>135</v>
-      </c>
       <c r="C62" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -4239,13 +4264,13 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s" s="12">
         <v>136</v>
       </c>
-      <c r="B63" t="s" s="12">
-        <v>137</v>
-      </c>
       <c r="C63" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4253,15 +4278,15 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="20.35" customHeight="1">
-      <c r="A64" t="s" s="13">
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" t="s" s="12">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s" s="12">
         <v>138</v>
       </c>
-      <c r="B64" t="s" s="13">
-        <v>139</v>
-      </c>
       <c r="C64" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -4269,15 +4294,15 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" ht="20.7" customHeight="1">
-      <c r="A65" t="s" s="4">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s" s="4">
+    <row r="65" ht="20.05" customHeight="1">
+      <c r="A65" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s" s="12">
         <v>140</v>
       </c>
-      <c r="C65" t="s" s="8">
-        <v>10</v>
+      <c r="C65" t="s" s="12">
+        <v>74</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -4286,32 +4311,32 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" ht="20.35" customHeight="1">
-      <c r="A66" t="s" s="11">
+      <c r="A66" t="s" s="13">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="11">
+      <c r="B66" t="s" s="13">
         <v>142</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D66" s="9">
-        <v>0.538461538461538</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="12">
+    <row r="67" ht="20.7" customHeight="1">
+      <c r="A67" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s" s="4">
         <v>143</v>
       </c>
-      <c r="B67" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s" s="12">
-        <v>72</v>
+      <c r="C67" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -4319,18 +4344,18 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="12">
+    <row r="68" ht="20.35" customHeight="1">
+      <c r="A68" t="s" s="11">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="B68" t="s" s="12">
-        <v>146</v>
-      </c>
       <c r="C68" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D68" s="9">
-        <v>0.564102564102564</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -4339,13 +4364,13 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="12">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="B69" t="s" s="12">
-        <v>148</v>
-      </c>
       <c r="C69" t="s" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4353,65 +4378,69 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
-      <c r="A70" t="s" s="13">
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s" s="12">
         <v>149</v>
-      </c>
-      <c r="B70" t="s" s="13">
-        <v>150</v>
       </c>
       <c r="C70" t="s" s="12">
         <v>43</v>
       </c>
       <c r="D70" s="9">
-        <v>0.641025641025641</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="20.7" customHeight="1">
-      <c r="A71" t="s" s="4">
+    <row r="71" ht="20.05" customHeight="1">
+      <c r="A71" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s" s="12">
         <v>151</v>
       </c>
-      <c r="B71" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="C71" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D71" s="9"/>
+      <c r="C71" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" ht="20.35" customHeight="1">
-      <c r="A72" t="s" s="11">
+      <c r="A72" t="s" s="13">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s" s="13">
         <v>153</v>
       </c>
-      <c r="B72" t="s" s="11">
-        <v>154</v>
-      </c>
       <c r="C72" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D72" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="12">
+    <row r="73" ht="20.7" customHeight="1">
+      <c r="A73" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="B73" t="s" s="12">
-        <v>156</v>
-      </c>
-      <c r="C73" t="s" s="12">
-        <v>30</v>
+      <c r="C73" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4419,33 +4448,31 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="12">
+    <row r="74" ht="20.35" customHeight="1">
+      <c r="A74" t="s" s="11">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="B74" t="s" s="12">
-        <v>158</v>
-      </c>
       <c r="C74" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D74" s="9">
-        <v>0.794871794871795</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.35" customHeight="1">
-      <c r="A75" t="s" s="13">
+    <row r="75" ht="20.05" customHeight="1">
+      <c r="A75" t="s" s="12">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s" s="12">
         <v>159</v>
       </c>
-      <c r="B75" t="s" s="13">
-        <v>160</v>
-      </c>
       <c r="C75" t="s" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4453,51 +4480,53 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" ht="20.7" customHeight="1">
-      <c r="A76" t="s" s="4">
+    <row r="76" ht="20.05" customHeight="1">
+      <c r="A76" t="s" s="12">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s" s="12">
         <v>161</v>
       </c>
-      <c r="B76" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D76" s="9"/>
+      <c r="C76" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.7" customHeight="1">
-      <c r="A77" t="s" s="4">
+    <row r="77" ht="20.35" customHeight="1">
+      <c r="A77" t="s" s="13">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s" s="13">
         <v>163</v>
       </c>
-      <c r="B77" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D77" s="9"/>
+      <c r="C77" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" ht="20.7" customHeight="1">
-      <c r="A78" t="s" s="14">
+      <c r="A78" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="B78" t="s" s="14">
-        <v>166</v>
-      </c>
-      <c r="C78" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D78" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C78" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
@@ -4505,10 +4534,10 @@
     </row>
     <row r="79" ht="20.7" customHeight="1">
       <c r="A79" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s" s="4">
         <v>167</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>168</v>
       </c>
       <c r="C79" t="s" s="8">
         <v>10</v>
@@ -4519,53 +4548,51 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.35" customHeight="1">
-      <c r="A80" t="s" s="11">
+    <row r="80" ht="20.7" customHeight="1">
+      <c r="A80" t="s" s="14">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s" s="14">
         <v>169</v>
       </c>
-      <c r="B80" t="s" s="11">
-        <v>170</v>
-      </c>
       <c r="C80" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D80" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="12">
+    <row r="81" ht="20.7" customHeight="1">
+      <c r="A81" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s" s="4">
         <v>171</v>
       </c>
-      <c r="B81" t="s" s="12">
-        <v>172</v>
-      </c>
-      <c r="C81" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D81" s="9">
-        <v>0.820512820512821</v>
-      </c>
+      <c r="C81" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="12">
+    <row r="82" ht="20.35" customHeight="1">
+      <c r="A82" t="s" s="11">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="B82" t="s" s="12">
-        <v>174</v>
-      </c>
       <c r="C82" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D82" s="9">
-        <v>0.461538461538462</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
@@ -4573,151 +4600,155 @@
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s" s="12">
         <v>175</v>
       </c>
-      <c r="B83" t="s" s="12">
-        <v>176</v>
-      </c>
       <c r="C83" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D83" s="9">
-        <v>0.615384615384615</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.35" customHeight="1">
-      <c r="A84" t="s" s="13">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s" s="13">
+    <row r="84" ht="20.05" customHeight="1">
+      <c r="A84" t="s" s="12">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s" s="12">
         <v>177</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D84" s="9">
-        <v>0.564102564102564</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.7" customHeight="1">
-      <c r="A85" t="s" s="4">
+    <row r="85" ht="20.05" customHeight="1">
+      <c r="A85" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>179</v>
       </c>
-      <c r="C85" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D85" s="9"/>
+      <c r="C85" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" ht="20.35" customHeight="1">
-      <c r="A86" t="s" s="11">
+      <c r="A86" t="s" s="13">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s" s="13">
         <v>180</v>
       </c>
-      <c r="B86" t="s" s="11">
-        <v>181</v>
-      </c>
       <c r="C86" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D86" s="9">
-        <v>0.615384615384615</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="12">
+    <row r="87" ht="20.7" customHeight="1">
+      <c r="A87" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s" s="4">
         <v>182</v>
       </c>
-      <c r="B87" t="s" s="12">
-        <v>183</v>
-      </c>
-      <c r="C87" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D87" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C87" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="12">
+    <row r="88" ht="20.35" customHeight="1">
+      <c r="A88" t="s" s="11">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s" s="11">
         <v>184</v>
       </c>
-      <c r="B88" t="s" s="12">
-        <v>185</v>
-      </c>
       <c r="C88" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D88" s="9">
-        <v>0.205128205128205</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.35" customHeight="1">
-      <c r="A89" t="s" s="13">
+    <row r="89" ht="20.05" customHeight="1">
+      <c r="A89" t="s" s="12">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s" s="12">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="13">
-        <v>187</v>
-      </c>
       <c r="C89" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D89" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" ht="20.7" customHeight="1">
-      <c r="A90" t="s" s="4">
+    <row r="90" ht="20.05" customHeight="1">
+      <c r="A90" t="s" s="12">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s" s="12">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="4">
-        <v>189</v>
-      </c>
-      <c r="C90" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D90" s="9"/>
+      <c r="C90" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.7" customHeight="1">
-      <c r="A91" t="s" s="14">
+    <row r="91" ht="20.35" customHeight="1">
+      <c r="A91" t="s" s="13">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s" s="13">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="14">
-        <v>191</v>
-      </c>
       <c r="C91" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4727,10 +4758,10 @@
     </row>
     <row r="92" ht="20.7" customHeight="1">
       <c r="A92" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s" s="4">
         <v>192</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>193</v>
       </c>
       <c r="C92" t="s" s="8">
         <v>25</v>
@@ -4742,14 +4773,14 @@
       <c r="H92" s="10"/>
     </row>
     <row r="93" ht="20.7" customHeight="1">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="14">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s" s="14">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>195</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>25</v>
+      <c r="C93" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4757,15 +4788,15 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.35" customHeight="1">
-      <c r="A94" t="s" s="11">
+    <row r="94" ht="20.7" customHeight="1">
+      <c r="A94" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="C94" t="s" s="12">
-        <v>15</v>
+      <c r="C94" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4773,99 +4804,99 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="12">
+    <row r="95" ht="20.7" customHeight="1">
+      <c r="A95" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s" s="4">
         <v>198</v>
       </c>
-      <c r="B95" t="s" s="12">
-        <v>199</v>
-      </c>
-      <c r="C95" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D95" s="9">
-        <v>0.871794871794872</v>
-      </c>
+      <c r="C95" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="12">
+    <row r="96" ht="20.35" customHeight="1">
+      <c r="A96" t="s" s="11">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s" s="11">
         <v>200</v>
-      </c>
-      <c r="B96" t="s" s="12">
-        <v>201</v>
       </c>
       <c r="C96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D96" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.35" customHeight="1">
-      <c r="A97" t="s" s="13">
+    <row r="97" ht="20.05" customHeight="1">
+      <c r="A97" t="s" s="12">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="13">
-        <v>203</v>
-      </c>
-      <c r="C97" s="10"/>
+      <c r="C97" t="s" s="12">
+        <v>43</v>
+      </c>
       <c r="D97" s="9">
-        <v>0.897435897435897</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.7" customHeight="1">
-      <c r="A98" t="s" s="4">
+    <row r="98" ht="20.05" customHeight="1">
+      <c r="A98" t="s" s="12">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s" s="12">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="C98" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D98" s="9"/>
+      <c r="C98" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
     <row r="99" ht="20.35" customHeight="1">
-      <c r="A99" t="s" s="11">
+      <c r="A99" t="s" s="13">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s" s="13">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="11">
-        <v>207</v>
-      </c>
-      <c r="C99" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="12">
+    <row r="100" ht="20.7" customHeight="1">
+      <c r="A100" t="s" s="4">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="B100" t="s" s="12">
-        <v>209</v>
-      </c>
-      <c r="C100" t="s" s="12">
-        <v>30</v>
+      <c r="C100" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4873,15 +4904,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="12">
+    <row r="101" ht="20.35" customHeight="1">
+      <c r="A101" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s" s="11">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="12">
-        <v>211</v>
-      </c>
       <c r="C101" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4891,13 +4922,13 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="12">
-        <v>213</v>
-      </c>
       <c r="C102" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4905,12 +4936,12 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.35" customHeight="1">
-      <c r="A103" t="s" s="13">
+    <row r="103" ht="20.05" customHeight="1">
+      <c r="A103" t="s" s="12">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s" s="12">
         <v>214</v>
-      </c>
-      <c r="B103" t="s" s="13">
-        <v>215</v>
       </c>
       <c r="C103" t="s" s="12">
         <v>43</v>
@@ -4921,15 +4952,15 @@
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="4">
+    <row r="104" ht="20.05" customHeight="1">
+      <c r="A104" t="s" s="12">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="C104" t="s" s="8">
-        <v>25</v>
+      <c r="C104" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4937,15 +4968,15 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.7" customHeight="1">
-      <c r="A105" t="s" s="4">
+    <row r="105" ht="20.35" customHeight="1">
+      <c r="A105" t="s" s="13">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s" s="13">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="C105" t="s" s="8">
-        <v>25</v>
+      <c r="C105" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4954,14 +4985,14 @@
       <c r="H105" s="10"/>
     </row>
     <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="14">
+      <c r="A106" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="14">
-        <v>221</v>
-      </c>
-      <c r="C106" t="s" s="12">
-        <v>15</v>
+      <c r="C106" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -4971,10 +5002,10 @@
     </row>
     <row r="107" ht="20.7" customHeight="1">
       <c r="A107" t="s" s="4">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s" s="4">
         <v>222</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>221</v>
       </c>
       <c r="C107" t="s" s="8">
         <v>25</v>
@@ -4985,33 +5016,31 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.35" customHeight="1">
-      <c r="A108" t="s" s="11">
+    <row r="108" ht="20.7" customHeight="1">
+      <c r="A108" t="s" s="14">
         <v>223</v>
       </c>
-      <c r="B108" t="s" s="11">
+      <c r="B108" t="s" s="14">
         <v>224</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="12">
+    <row r="109" ht="20.7" customHeight="1">
+      <c r="A109" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="B109" t="s" s="12">
-        <v>226</v>
-      </c>
-      <c r="C109" t="s" s="12">
-        <v>15</v>
+      <c r="B109" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="C109" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5019,31 +5048,33 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="12">
+    <row r="110" ht="20.35" customHeight="1">
+      <c r="A110" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s" s="11">
         <v>227</v>
       </c>
-      <c r="B110" t="s" s="12">
-        <v>228</v>
-      </c>
       <c r="C110" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D110" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="13">
+    <row r="111" ht="20.05" customHeight="1">
+      <c r="A111" t="s" s="12">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s" s="12">
         <v>229</v>
       </c>
-      <c r="B111" t="s" s="13">
-        <v>230</v>
-      </c>
       <c r="C111" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -5051,15 +5082,15 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.7" customHeight="1">
-      <c r="A112" t="s" s="4">
+    <row r="112" ht="20.05" customHeight="1">
+      <c r="A112" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s" s="12">
         <v>231</v>
       </c>
-      <c r="B112" t="s" s="4">
-        <v>232</v>
-      </c>
-      <c r="C112" t="s" s="8">
-        <v>25</v>
+      <c r="C112" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5068,14 +5099,14 @@
       <c r="H112" s="10"/>
     </row>
     <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" t="s" s="11">
+      <c r="A113" t="s" s="13">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s" s="13">
         <v>233</v>
       </c>
-      <c r="B113" t="s" s="11">
-        <v>234</v>
-      </c>
       <c r="C113" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5083,30 +5114,28 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="12">
+    <row r="114" ht="20.7" customHeight="1">
+      <c r="A114" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="B114" t="s" s="12">
-        <v>236</v>
-      </c>
-      <c r="C114" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D114" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C114" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="12">
+    <row r="115" ht="20.35" customHeight="1">
+      <c r="A115" t="s" s="11">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s" s="11">
         <v>237</v>
-      </c>
-      <c r="B115" t="s" s="12">
-        <v>238</v>
       </c>
       <c r="C115" t="s" s="12">
         <v>43</v>
@@ -5117,31 +5146,33 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.35" customHeight="1">
-      <c r="A116" t="s" s="13">
+    <row r="116" ht="20.05" customHeight="1">
+      <c r="A116" t="s" s="12">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s" s="12">
         <v>239</v>
       </c>
-      <c r="B116" t="s" s="13">
-        <v>240</v>
-      </c>
       <c r="C116" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D116" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="4">
+    <row r="117" ht="20.05" customHeight="1">
+      <c r="A117" t="s" s="12">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s" s="12">
         <v>241</v>
       </c>
-      <c r="B117" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="C117" t="s" s="8">
-        <v>25</v>
+      <c r="C117" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5149,15 +5180,15 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.7" customHeight="1">
-      <c r="A118" t="s" s="14">
+    <row r="118" ht="20.35" customHeight="1">
+      <c r="A118" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s" s="13">
         <v>243</v>
       </c>
-      <c r="B118" t="s" s="14">
-        <v>244</v>
-      </c>
       <c r="C118" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5167,10 +5198,10 @@
     </row>
     <row r="119" ht="20.7" customHeight="1">
       <c r="A119" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s" s="4">
         <v>245</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>246</v>
       </c>
       <c r="C119" t="s" s="8">
         <v>25</v>
@@ -5181,33 +5212,31 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.35" customHeight="1">
-      <c r="A120" t="s" s="11">
+    <row r="120" ht="20.7" customHeight="1">
+      <c r="A120" t="s" s="14">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s" s="14">
         <v>247</v>
       </c>
-      <c r="B120" t="s" s="11">
-        <v>248</v>
-      </c>
       <c r="C120" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D120" s="9">
-        <v>0.0769230769230769</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="13">
+    <row r="121" ht="20.7" customHeight="1">
+      <c r="A121" t="s" s="4">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s" s="4">
         <v>249</v>
       </c>
-      <c r="B121" t="s" s="13">
-        <v>250</v>
-      </c>
-      <c r="C121" t="s" s="12">
-        <v>72</v>
+      <c r="C121" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5215,63 +5244,67 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.7" customHeight="1">
-      <c r="A122" t="s" s="4">
+    <row r="122" ht="20.35" customHeight="1">
+      <c r="A122" t="s" s="11">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s" s="11">
         <v>251</v>
       </c>
-      <c r="B122" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="C122" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D122" s="9"/>
+      <c r="C122" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D122" s="9">
+        <v>0.0769230769230769</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="11">
+      <c r="A123" t="s" s="13">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s" s="13">
         <v>253</v>
       </c>
-      <c r="B123" t="s" s="11">
-        <v>254</v>
-      </c>
       <c r="C123" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D123" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D123" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.35" customHeight="1">
-      <c r="A124" t="s" s="13">
+    <row r="124" ht="20.7" customHeight="1">
+      <c r="A124" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="B124" t="s" s="13">
-        <v>256</v>
-      </c>
-      <c r="C124" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D124" s="10"/>
+      <c r="C124" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.7" customHeight="1">
-      <c r="A125" t="s" s="4">
+    <row r="125" ht="20.35" customHeight="1">
+      <c r="A125" t="s" s="11">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s" s="11">
         <v>257</v>
       </c>
-      <c r="B125" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="C125" t="s" s="8">
-        <v>10</v>
+      <c r="C125" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5279,15 +5312,15 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="14">
+    <row r="126" ht="20.35" customHeight="1">
+      <c r="A126" t="s" s="13">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s" s="13">
         <v>259</v>
       </c>
-      <c r="B126" t="s" s="14">
-        <v>260</v>
-      </c>
       <c r="C126" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="9"/>
@@ -5297,10 +5330,10 @@
     </row>
     <row r="127" ht="20.7" customHeight="1">
       <c r="A127" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s" s="4">
         <v>261</v>
-      </c>
-      <c r="B127" t="s" s="4">
-        <v>262</v>
       </c>
       <c r="C127" t="s" s="8">
         <v>10</v>
@@ -5311,103 +5344,103 @@
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.35" customHeight="1">
-      <c r="A128" t="s" s="11">
+    <row r="128" ht="20.7" customHeight="1">
+      <c r="A128" t="s" s="14">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s" s="14">
         <v>263</v>
       </c>
-      <c r="B128" t="s" s="11">
-        <v>264</v>
-      </c>
       <c r="C128" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D128" s="10"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="13">
+    <row r="129" ht="20.7" customHeight="1">
+      <c r="A129" t="s" s="4">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s" s="4">
         <v>265</v>
       </c>
-      <c r="B129" t="s" s="13">
-        <v>266</v>
-      </c>
-      <c r="C129" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D129" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C129" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.7" customHeight="1">
-      <c r="A130" t="s" s="4">
+    <row r="130" ht="20.35" customHeight="1">
+      <c r="A130" t="s" s="11">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s" s="11">
         <v>267</v>
       </c>
-      <c r="B130" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="C130" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D130" s="9"/>
+      <c r="C130" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D130" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
     <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="11">
+      <c r="A131" t="s" s="13">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s" s="13">
         <v>269</v>
       </c>
-      <c r="B131" t="s" s="11">
-        <v>270</v>
-      </c>
       <c r="C131" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D131" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" t="s" s="12">
+    <row r="132" ht="20.7" customHeight="1">
+      <c r="A132" t="s" s="4">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s" s="4">
         <v>271</v>
       </c>
-      <c r="B132" t="s" s="12">
-        <v>272</v>
-      </c>
-      <c r="C132" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D132" s="10"/>
+      <c r="C132" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="12">
+    <row r="133" ht="20.35" customHeight="1">
+      <c r="A133" t="s" s="11">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s" s="11">
         <v>273</v>
       </c>
-      <c r="B133" t="s" s="12">
-        <v>274</v>
-      </c>
       <c r="C133" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D133" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D133" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
@@ -5415,15 +5448,15 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="12">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s" s="12">
         <v>275</v>
       </c>
-      <c r="B134" t="s" s="12">
-        <v>276</v>
-      </c>
       <c r="C134" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D134" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D134" s="10"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
@@ -5431,10 +5464,10 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="12">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s" s="12">
         <v>277</v>
-      </c>
-      <c r="B135" t="s" s="12">
-        <v>278</v>
       </c>
       <c r="C135" t="s" s="12">
         <v>18</v>
@@ -5447,13 +5480,13 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="12">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s" s="12">
         <v>279</v>
       </c>
-      <c r="B136" t="s" s="12">
-        <v>280</v>
-      </c>
       <c r="C136" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5463,13 +5496,13 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="12">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B137" t="s" s="12">
         <v>281</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5485,7 +5518,7 @@
         <v>283</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5495,13 +5528,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
+        <v>282</v>
+      </c>
+      <c r="B139" t="s" s="12">
         <v>284</v>
       </c>
-      <c r="B139" t="s" s="12">
-        <v>285</v>
-      </c>
       <c r="C139" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5511,28 +5544,26 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
+        <v>285</v>
+      </c>
+      <c r="B140" t="s" s="12">
         <v>286</v>
       </c>
-      <c r="B140" t="s" s="12">
-        <v>287</v>
-      </c>
       <c r="C140" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D140" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" ht="20.35" customHeight="1">
-      <c r="A141" t="s" s="13">
+    <row r="141" ht="20.05" customHeight="1">
+      <c r="A141" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="B141" t="s" s="12">
         <v>288</v>
-      </c>
-      <c r="B141" t="s" s="13">
-        <v>289</v>
       </c>
       <c r="C141" t="s" s="12">
         <v>18</v>
@@ -5543,67 +5574,69 @@
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.7" customHeight="1">
-      <c r="A142" t="s" s="4">
+    <row r="142" ht="20.05" customHeight="1">
+      <c r="A142" t="s" s="12">
+        <v>289</v>
+      </c>
+      <c r="B142" t="s" s="12">
         <v>290</v>
       </c>
-      <c r="B142" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="C142" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D142" s="9"/>
+      <c r="C142" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
     <row r="143" ht="20.35" customHeight="1">
-      <c r="A143" t="s" s="11">
+      <c r="A143" t="s" s="13">
+        <v>291</v>
+      </c>
+      <c r="B143" t="s" s="13">
         <v>292</v>
-      </c>
-      <c r="B143" t="s" s="11">
-        <v>293</v>
       </c>
       <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" s="10"/>
+      <c r="D143" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.05" customHeight="1">
-      <c r="A144" t="s" s="12">
+    <row r="144" ht="20.7" customHeight="1">
+      <c r="A144" t="s" s="4">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="B144" t="s" s="12">
-        <v>295</v>
-      </c>
-      <c r="C144" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D144" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C144" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="12">
+    <row r="145" ht="20.35" customHeight="1">
+      <c r="A145" t="s" s="11">
+        <v>295</v>
+      </c>
+      <c r="B145" t="s" s="11">
         <v>296</v>
       </c>
-      <c r="B145" t="s" s="12">
-        <v>297</v>
-      </c>
       <c r="C145" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D145" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D145" s="10"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
@@ -5611,15 +5644,17 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="12">
+        <v>297</v>
+      </c>
+      <c r="B146" t="s" s="12">
         <v>298</v>
       </c>
-      <c r="B146" t="s" s="12">
-        <v>299</v>
-      </c>
       <c r="C146" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D146" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D146" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
@@ -5627,13 +5662,13 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="12">
+        <v>299</v>
+      </c>
+      <c r="B147" t="s" s="12">
         <v>300</v>
       </c>
-      <c r="B147" t="s" s="12">
-        <v>301</v>
-      </c>
       <c r="C147" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -5643,29 +5678,29 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="12">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B148" t="s" s="12">
         <v>302</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D148" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" ht="20.35" customHeight="1">
-      <c r="A149" t="s" s="13">
-        <v>300</v>
-      </c>
-      <c r="B149" t="s" s="13">
+    <row r="149" ht="20.05" customHeight="1">
+      <c r="A149" t="s" s="12">
         <v>303</v>
       </c>
+      <c r="B149" t="s" s="12">
+        <v>304</v>
+      </c>
       <c r="C149" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -5673,31 +5708,31 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.7" customHeight="1">
-      <c r="A150" t="s" s="4">
-        <v>300</v>
-      </c>
-      <c r="B150" t="s" s="4">
-        <v>304</v>
-      </c>
-      <c r="C150" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D150" s="9"/>
+    <row r="150" ht="20.05" customHeight="1">
+      <c r="A150" t="s" s="12">
+        <v>303</v>
+      </c>
+      <c r="B150" t="s" s="12">
+        <v>305</v>
+      </c>
+      <c r="C150" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D150" s="10"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
     <row r="151" ht="20.35" customHeight="1">
-      <c r="A151" t="s" s="11">
-        <v>305</v>
-      </c>
-      <c r="B151" t="s" s="11">
+      <c r="A151" t="s" s="13">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s" s="13">
         <v>306</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -5705,37 +5740,33 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="12">
+    <row r="152" ht="20.7" customHeight="1">
+      <c r="A152" t="s" s="4">
+        <v>303</v>
+      </c>
+      <c r="B152" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="B152" t="s" s="12">
-        <v>308</v>
-      </c>
-      <c r="C152" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D152" s="9">
-        <v>0.948717948717949</v>
-      </c>
+      <c r="C152" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="12">
+    <row r="153" ht="20.35" customHeight="1">
+      <c r="A153" t="s" s="11">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="B153" t="s" s="12">
-        <v>310</v>
-      </c>
       <c r="C153" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D153" s="9">
-        <v>0.692307692307692</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
@@ -5743,15 +5774,17 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="12">
+        <v>310</v>
+      </c>
+      <c r="B154" t="s" s="12">
         <v>311</v>
-      </c>
-      <c r="B154" t="s" s="12">
-        <v>312</v>
       </c>
       <c r="C154" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="9">
+        <v>0.948717948717949</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
@@ -5759,15 +5792,17 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s" s="12">
         <v>313</v>
       </c>
-      <c r="B155" t="s" s="12">
-        <v>314</v>
-      </c>
       <c r="C155" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D155" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D155" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
@@ -5775,10 +5810,10 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="12">
+        <v>314</v>
+      </c>
+      <c r="B156" t="s" s="12">
         <v>315</v>
-      </c>
-      <c r="B156" t="s" s="12">
-        <v>316</v>
       </c>
       <c r="C156" t="s" s="12">
         <v>43</v>
@@ -5791,16 +5826,16 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="12">
+        <v>316</v>
+      </c>
+      <c r="B157" t="s" s="12">
         <v>317</v>
       </c>
-      <c r="B157" t="s" s="12">
-        <v>318</v>
-      </c>
       <c r="C157" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D157" s="9">
-        <v>0.256410256410256</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -5809,15 +5844,17 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s" s="12">
         <v>319</v>
       </c>
-      <c r="B158" t="s" s="12">
-        <v>320</v>
-      </c>
       <c r="C158" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D158" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D158" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
@@ -5825,13 +5862,13 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="12">
+        <v>320</v>
+      </c>
+      <c r="B159" t="s" s="12">
         <v>321</v>
       </c>
-      <c r="B159" t="s" s="12">
-        <v>322</v>
-      </c>
       <c r="C159" t="s" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -5841,29 +5878,31 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="12">
+        <v>322</v>
+      </c>
+      <c r="B160" t="s" s="12">
         <v>323</v>
       </c>
-      <c r="B160" t="s" s="12">
-        <v>324</v>
-      </c>
       <c r="C160" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D160" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D160" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" ht="20.35" customHeight="1">
-      <c r="A161" t="s" s="13">
+    <row r="161" ht="20.05" customHeight="1">
+      <c r="A161" t="s" s="12">
+        <v>324</v>
+      </c>
+      <c r="B161" t="s" s="12">
         <v>325</v>
       </c>
-      <c r="B161" t="s" s="13">
-        <v>326</v>
-      </c>
       <c r="C161" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5871,15 +5910,15 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" ht="20.7" customHeight="1">
-      <c r="A162" t="s" s="4">
+    <row r="162" ht="20.05" customHeight="1">
+      <c r="A162" t="s" s="12">
+        <v>326</v>
+      </c>
+      <c r="B162" t="s" s="12">
         <v>327</v>
       </c>
-      <c r="B162" t="s" s="4">
-        <v>328</v>
-      </c>
-      <c r="C162" t="s" s="8">
-        <v>25</v>
+      <c r="C162" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5887,12 +5926,12 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" ht="20.35" customHeight="1">
-      <c r="A163" t="s" s="11">
+    <row r="163" ht="20.05" customHeight="1">
+      <c r="A163" t="s" s="12">
+        <v>328</v>
+      </c>
+      <c r="B163" t="s" s="12">
         <v>329</v>
-      </c>
-      <c r="B163" t="s" s="11">
-        <v>330</v>
       </c>
       <c r="C163" t="s" s="12">
         <v>43</v>
@@ -5903,53 +5942,49 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.05" customHeight="1">
-      <c r="A164" t="s" s="12">
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" t="s" s="13">
+        <v>330</v>
+      </c>
+      <c r="B164" t="s" s="13">
         <v>331</v>
       </c>
-      <c r="B164" t="s" s="12">
-        <v>332</v>
-      </c>
       <c r="C164" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D164" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.05" customHeight="1">
-      <c r="A165" t="s" s="12">
+    <row r="165" ht="20.7" customHeight="1">
+      <c r="A165" t="s" s="4">
+        <v>332</v>
+      </c>
+      <c r="B165" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="B165" t="s" s="12">
-        <v>334</v>
-      </c>
-      <c r="C165" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D165" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C165" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.05" customHeight="1">
-      <c r="A166" t="s" s="12">
+    <row r="166" ht="20.35" customHeight="1">
+      <c r="A166" t="s" s="11">
+        <v>334</v>
+      </c>
+      <c r="B166" t="s" s="11">
         <v>335</v>
       </c>
-      <c r="B166" t="s" s="12">
-        <v>336</v>
-      </c>
       <c r="C166" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D166" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -5957,13 +5992,13 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="12">
+        <v>336</v>
+      </c>
+      <c r="B167" t="s" s="12">
         <v>337</v>
       </c>
-      <c r="B167" t="s" s="12">
-        <v>338</v>
-      </c>
       <c r="C167" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="9"/>
@@ -5973,14 +6008,16 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="12">
+        <v>338</v>
+      </c>
+      <c r="B168" t="s" s="12">
         <v>339</v>
       </c>
-      <c r="B168" t="s" s="12">
-        <v>340</v>
-      </c>
-      <c r="C168" s="10"/>
+      <c r="C168" t="s" s="12">
+        <v>74</v>
+      </c>
       <c r="D168" s="9">
-        <v>0.512820512820513</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
@@ -5989,16 +6026,16 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="12">
+        <v>340</v>
+      </c>
+      <c r="B169" t="s" s="12">
         <v>341</v>
       </c>
-      <c r="B169" t="s" s="12">
-        <v>342</v>
-      </c>
       <c r="C169" t="s" s="12">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D169" s="9">
-        <v>0.282051282051282</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -6007,16 +6044,16 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="12">
+        <v>342</v>
+      </c>
+      <c r="B170" t="s" s="12">
         <v>343</v>
       </c>
-      <c r="B170" t="s" s="12">
-        <v>344</v>
-      </c>
       <c r="C170" t="s" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D170" s="9">
-        <v>0.615384615384615</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -6025,15 +6062,15 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="12">
+        <v>344</v>
+      </c>
+      <c r="B171" t="s" s="12">
         <v>345</v>
       </c>
-      <c r="B171" t="s" s="12">
-        <v>346</v>
-      </c>
-      <c r="C171" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D171" s="9"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -6041,61 +6078,67 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="12">
+        <v>346</v>
+      </c>
+      <c r="B172" t="s" s="12">
         <v>347</v>
       </c>
-      <c r="B172" t="s" s="12">
-        <v>348</v>
-      </c>
       <c r="C172" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D172" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D172" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" ht="20.35" customHeight="1">
-      <c r="A173" t="s" s="13">
+    <row r="173" ht="20.05" customHeight="1">
+      <c r="A173" t="s" s="12">
+        <v>348</v>
+      </c>
+      <c r="B173" t="s" s="12">
         <v>349</v>
       </c>
-      <c r="B173" t="s" s="13">
-        <v>350</v>
-      </c>
       <c r="C173" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D173" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D173" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.7" customHeight="1">
-      <c r="A174" t="s" s="4">
+    <row r="174" ht="20.05" customHeight="1">
+      <c r="A174" t="s" s="12">
+        <v>350</v>
+      </c>
+      <c r="B174" t="s" s="12">
         <v>351</v>
       </c>
-      <c r="B174" t="s" s="4">
-        <v>352</v>
-      </c>
-      <c r="C174" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D174" s="9"/>
+      <c r="C174" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D174" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.35" customHeight="1">
-      <c r="A175" t="s" s="11">
+    <row r="175" ht="20.05" customHeight="1">
+      <c r="A175" t="s" s="12">
+        <v>352</v>
+      </c>
+      <c r="B175" t="s" s="12">
         <v>353</v>
       </c>
-      <c r="B175" t="s" s="11">
-        <v>354</v>
-      </c>
       <c r="C175" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -6105,31 +6148,29 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="12">
+        <v>354</v>
+      </c>
+      <c r="B176" t="s" s="12">
         <v>355</v>
       </c>
-      <c r="B176" t="s" s="12">
-        <v>356</v>
-      </c>
       <c r="C176" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D176" s="9">
-        <v>0.333333333333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="12">
+    <row r="177" ht="20.35" customHeight="1">
+      <c r="A177" t="s" s="13">
+        <v>356</v>
+      </c>
+      <c r="B177" t="s" s="13">
         <v>357</v>
       </c>
-      <c r="B177" t="s" s="12">
-        <v>358</v>
-      </c>
       <c r="C177" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -6137,15 +6178,15 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" ht="20.05" customHeight="1">
-      <c r="A178" t="s" s="12">
+    <row r="178" ht="20.7" customHeight="1">
+      <c r="A178" t="s" s="4">
+        <v>358</v>
+      </c>
+      <c r="B178" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="B178" t="s" s="12">
-        <v>360</v>
-      </c>
-      <c r="C178" t="s" s="12">
-        <v>27</v>
+      <c r="C178" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6153,15 +6194,15 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.05" customHeight="1">
-      <c r="A179" t="s" s="12">
+    <row r="179" ht="20.35" customHeight="1">
+      <c r="A179" t="s" s="11">
+        <v>360</v>
+      </c>
+      <c r="B179" t="s" s="11">
         <v>361</v>
       </c>
-      <c r="B179" t="s" s="12">
-        <v>362</v>
-      </c>
       <c r="C179" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6171,16 +6212,16 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="12">
+        <v>362</v>
+      </c>
+      <c r="B180" t="s" s="12">
         <v>363</v>
-      </c>
-      <c r="B180" t="s" s="12">
-        <v>364</v>
       </c>
       <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D180" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -6189,17 +6230,15 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="12">
+        <v>364</v>
+      </c>
+      <c r="B181" t="s" s="12">
         <v>365</v>
       </c>
-      <c r="B181" t="s" s="12">
-        <v>366</v>
-      </c>
       <c r="C181" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D181" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
@@ -6207,13 +6246,13 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="12">
+        <v>366</v>
+      </c>
+      <c r="B182" t="s" s="12">
         <v>367</v>
       </c>
-      <c r="B182" t="s" s="12">
-        <v>368</v>
-      </c>
       <c r="C182" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6221,67 +6260,67 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.35" customHeight="1">
-      <c r="A183" t="s" s="13">
-        <v>367</v>
-      </c>
-      <c r="B183" t="s" s="13">
+    <row r="183" ht="20.05" customHeight="1">
+      <c r="A183" t="s" s="12">
+        <v>368</v>
+      </c>
+      <c r="B183" t="s" s="12">
         <v>369</v>
       </c>
       <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="4">
+    <row r="184" ht="20.05" customHeight="1">
+      <c r="A184" t="s" s="12">
         <v>370</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>371</v>
       </c>
-      <c r="C184" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D184" s="9"/>
+      <c r="C184" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D184" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="14">
+    <row r="185" ht="20.05" customHeight="1">
+      <c r="A185" t="s" s="12">
         <v>372</v>
       </c>
-      <c r="B185" t="s" s="14">
+      <c r="B185" t="s" s="12">
         <v>373</v>
       </c>
       <c r="C185" t="s" s="12">
         <v>43</v>
       </c>
       <c r="D185" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="4">
+    <row r="186" ht="20.05" customHeight="1">
+      <c r="A186" t="s" s="12">
         <v>374</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>375</v>
       </c>
-      <c r="C186" t="s" s="8">
-        <v>25</v>
+      <c r="C186" t="s" s="12">
+        <v>74</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -6290,30 +6329,32 @@
       <c r="H186" s="10"/>
     </row>
     <row r="187" ht="20.35" customHeight="1">
-      <c r="A187" t="s" s="11">
+      <c r="A187" t="s" s="13">
+        <v>374</v>
+      </c>
+      <c r="B187" t="s" s="13">
         <v>376</v>
       </c>
-      <c r="B187" t="s" s="11">
-        <v>377</v>
-      </c>
       <c r="C187" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D187" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D187" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.35" customHeight="1">
-      <c r="A188" t="s" s="13">
+    <row r="188" ht="20.7" customHeight="1">
+      <c r="A188" t="s" s="4">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s" s="4">
         <v>378</v>
       </c>
-      <c r="B188" t="s" s="13">
-        <v>379</v>
-      </c>
-      <c r="C188" t="s" s="12">
-        <v>18</v>
+      <c r="C188" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -6322,52 +6363,50 @@
       <c r="H188" s="10"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="4">
+      <c r="A189" t="s" s="14">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s" s="14">
         <v>380</v>
       </c>
-      <c r="B189" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="C189" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D189" s="9"/>
+      <c r="C189" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D189" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.35" customHeight="1">
-      <c r="A190" t="s" s="11">
+    <row r="190" ht="20.7" customHeight="1">
+      <c r="A190" t="s" s="4">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s" s="4">
         <v>382</v>
       </c>
-      <c r="B190" t="s" s="11">
-        <v>383</v>
-      </c>
-      <c r="C190" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D190" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C190" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.05" customHeight="1">
-      <c r="A191" t="s" s="12">
-        <v>382</v>
-      </c>
-      <c r="B191" t="s" s="12">
+    <row r="191" ht="20.35" customHeight="1">
+      <c r="A191" t="s" s="11">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s" s="11">
         <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D191" s="9">
-        <v>0.41025641025641</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
@@ -6381,7 +6420,7 @@
         <v>386</v>
       </c>
       <c r="C192" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -6391,10 +6430,10 @@
     </row>
     <row r="193" ht="20.7" customHeight="1">
       <c r="A193" t="s" s="4">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B193" t="s" s="4">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C193" t="s" s="8">
         <v>10</v>
@@ -6405,51 +6444,53 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.7" customHeight="1">
-      <c r="A194" t="s" s="14">
-        <v>388</v>
-      </c>
-      <c r="B194" t="s" s="14">
+    <row r="194" ht="20.35" customHeight="1">
+      <c r="A194" t="s" s="11">
         <v>389</v>
       </c>
+      <c r="B194" t="s" s="11">
+        <v>390</v>
+      </c>
       <c r="C194" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D194" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D194" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="4">
-        <v>390</v>
-      </c>
-      <c r="B195" t="s" s="4">
+    <row r="195" ht="20.05" customHeight="1">
+      <c r="A195" t="s" s="12">
+        <v>389</v>
+      </c>
+      <c r="B195" t="s" s="12">
         <v>391</v>
       </c>
-      <c r="C195" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D195" s="9"/>
+      <c r="C195" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D195" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="14">
+    <row r="196" ht="20.35" customHeight="1">
+      <c r="A196" t="s" s="13">
         <v>392</v>
       </c>
-      <c r="B196" t="s" s="14">
+      <c r="B196" t="s" s="13">
         <v>393</v>
       </c>
       <c r="C196" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D196" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
@@ -6457,13 +6498,13 @@
     </row>
     <row r="197" ht="20.7" customHeight="1">
       <c r="A197" t="s" s="4">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s" s="4">
         <v>394</v>
       </c>
-      <c r="B197" t="s" s="4">
-        <v>395</v>
-      </c>
       <c r="C197" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -6472,14 +6513,14 @@
       <c r="H197" s="10"/>
     </row>
     <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="14">
+        <v>395</v>
+      </c>
+      <c r="B198" t="s" s="14">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="4">
-        <v>397</v>
-      </c>
-      <c r="C198" t="s" s="8">
-        <v>10</v>
+      <c r="C198" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6487,15 +6528,15 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.35" customHeight="1">
-      <c r="A199" t="s" s="11">
+    <row r="199" ht="20.7" customHeight="1">
+      <c r="A199" t="s" s="4">
+        <v>397</v>
+      </c>
+      <c r="B199" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="B199" t="s" s="11">
-        <v>399</v>
-      </c>
-      <c r="C199" t="s" s="12">
-        <v>15</v>
+      <c r="C199" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6503,31 +6544,33 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.05" customHeight="1">
-      <c r="A200" t="s" s="12">
+    <row r="200" ht="20.7" customHeight="1">
+      <c r="A200" t="s" s="14">
+        <v>399</v>
+      </c>
+      <c r="B200" t="s" s="14">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="12">
-        <v>401</v>
-      </c>
       <c r="C200" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D200" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D200" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.05" customHeight="1">
-      <c r="A201" t="s" s="12">
+    <row r="201" ht="20.7" customHeight="1">
+      <c r="A201" t="s" s="4">
+        <v>401</v>
+      </c>
+      <c r="B201" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="B201" t="s" s="12">
-        <v>403</v>
-      </c>
-      <c r="C201" t="s" s="12">
-        <v>43</v>
+      <c r="C201" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -6535,15 +6578,15 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="12">
+    <row r="202" ht="20.7" customHeight="1">
+      <c r="A202" t="s" s="4">
+        <v>403</v>
+      </c>
+      <c r="B202" t="s" s="4">
         <v>404</v>
       </c>
-      <c r="B202" t="s" s="12">
-        <v>405</v>
-      </c>
-      <c r="C202" t="s" s="12">
-        <v>72</v>
+      <c r="C202" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -6552,14 +6595,14 @@
       <c r="H202" s="10"/>
     </row>
     <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="13">
+      <c r="A203" t="s" s="11">
+        <v>405</v>
+      </c>
+      <c r="B203" t="s" s="11">
         <v>406</v>
       </c>
-      <c r="B203" t="s" s="13">
-        <v>407</v>
-      </c>
       <c r="C203" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -6567,96 +6610,100 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="4">
+    <row r="204" ht="20.05" customHeight="1">
+      <c r="A204" t="s" s="12">
+        <v>407</v>
+      </c>
+      <c r="B204" t="s" s="12">
         <v>408</v>
       </c>
-      <c r="B204" t="s" s="4">
-        <v>409</v>
-      </c>
-      <c r="C204" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D204" s="9"/>
+      <c r="C204" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D204" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.35" customHeight="1">
-      <c r="A205" t="s" s="11">
+    <row r="205" ht="20.05" customHeight="1">
+      <c r="A205" t="s" s="12">
+        <v>409</v>
+      </c>
+      <c r="B205" t="s" s="12">
         <v>410</v>
       </c>
-      <c r="B205" t="s" s="11">
-        <v>411</v>
-      </c>
       <c r="C205" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D205" s="9">
-        <v>0.871794871794872</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.35" customHeight="1">
-      <c r="A206" t="s" s="13">
+    <row r="206" ht="20.05" customHeight="1">
+      <c r="A206" t="s" s="12">
+        <v>411</v>
+      </c>
+      <c r="B206" t="s" s="12">
         <v>412</v>
-      </c>
-      <c r="B206" t="s" s="13">
-        <v>413</v>
       </c>
       <c r="C206" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D206" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.7" customHeight="1">
-      <c r="A207" t="s" s="4">
+    <row r="207" ht="20.05" customHeight="1">
+      <c r="A207" t="s" s="12">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s" s="12">
         <v>414</v>
       </c>
-      <c r="B207" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="C207" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D207" s="9"/>
+      <c r="C207" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D207" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="4">
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" t="s" s="13">
+        <v>415</v>
+      </c>
+      <c r="B208" t="s" s="13">
         <v>416</v>
       </c>
-      <c r="B208" t="s" s="4">
-        <v>417</v>
-      </c>
-      <c r="C208" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D208" s="9"/>
+      <c r="C208" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D208" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
     <row r="209" ht="20.7" customHeight="1">
-      <c r="A209" t="s" s="15">
+      <c r="A209" t="s" s="4">
+        <v>417</v>
+      </c>
+      <c r="B209" t="s" s="4">
         <v>418</v>
-      </c>
-      <c r="B209" t="s" s="15">
-        <v>419</v>
       </c>
       <c r="C209" t="s" s="8">
         <v>25</v>
@@ -6667,32 +6714,36 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.7" customHeight="1">
-      <c r="A210" t="s" s="4">
+    <row r="210" ht="20.35" customHeight="1">
+      <c r="A210" t="s" s="11">
+        <v>419</v>
+      </c>
+      <c r="B210" t="s" s="11">
         <v>420</v>
       </c>
-      <c r="B210" t="s" s="4">
-        <v>421</v>
-      </c>
-      <c r="C210" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D210" s="9"/>
+      <c r="C210" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D210" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.7" customHeight="1">
-      <c r="A211" t="s" s="14">
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="13">
+        <v>421</v>
+      </c>
+      <c r="B211" t="s" s="13">
         <v>422</v>
       </c>
-      <c r="B211" t="s" s="14">
-        <v>423</v>
-      </c>
-      <c r="C211" s="10"/>
+      <c r="C211" t="s" s="12">
+        <v>43</v>
+      </c>
       <c r="D211" s="9">
-        <v>0.564102564102564</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -6701,13 +6752,13 @@
     </row>
     <row r="212" ht="20.7" customHeight="1">
       <c r="A212" t="s" s="4">
+        <v>423</v>
+      </c>
+      <c r="B212" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="B212" t="s" s="4">
-        <v>425</v>
-      </c>
       <c r="C212" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6717,10 +6768,10 @@
     </row>
     <row r="213" ht="20.7" customHeight="1">
       <c r="A213" t="s" s="4">
+        <v>425</v>
+      </c>
+      <c r="B213" t="s" s="4">
         <v>426</v>
-      </c>
-      <c r="B213" t="s" s="4">
-        <v>427</v>
       </c>
       <c r="C213" t="s" s="8">
         <v>10</v>
@@ -6731,83 +6782,79 @@
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.35" customHeight="1">
-      <c r="A214" t="s" s="11">
+    <row r="214" ht="20.7" customHeight="1">
+      <c r="A214" t="s" s="15">
+        <v>427</v>
+      </c>
+      <c r="B214" t="s" s="15">
         <v>428</v>
       </c>
-      <c r="B214" t="s" s="11">
-        <v>429</v>
-      </c>
-      <c r="C214" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D214" s="9">
-        <v>0.0769230769230769</v>
-      </c>
+      <c r="C214" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.05" customHeight="1">
-      <c r="A215" t="s" s="12">
+    <row r="215" ht="20.7" customHeight="1">
+      <c r="A215" t="s" s="4">
+        <v>429</v>
+      </c>
+      <c r="B215" t="s" s="4">
         <v>430</v>
       </c>
-      <c r="B215" t="s" s="12">
-        <v>431</v>
-      </c>
-      <c r="C215" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D215" s="9">
-        <v>0.897435897435897</v>
-      </c>
+      <c r="C215" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" t="s" s="12">
+    <row r="216" ht="20.7" customHeight="1">
+      <c r="A216" t="s" s="14">
+        <v>431</v>
+      </c>
+      <c r="B216" t="s" s="14">
         <v>432</v>
       </c>
-      <c r="B216" t="s" s="12">
-        <v>433</v>
-      </c>
-      <c r="C216" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D216" s="9"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.05" customHeight="1">
-      <c r="A217" t="s" s="12">
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
+        <v>433</v>
+      </c>
+      <c r="B217" t="s" s="4">
         <v>434</v>
       </c>
-      <c r="B217" t="s" s="12">
-        <v>435</v>
-      </c>
-      <c r="C217" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D217" s="10"/>
+      <c r="C217" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.05" customHeight="1">
-      <c r="A218" t="s" s="12">
+    <row r="218" ht="20.7" customHeight="1">
+      <c r="A218" t="s" s="4">
+        <v>435</v>
+      </c>
+      <c r="B218" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="B218" t="s" s="12">
-        <v>437</v>
-      </c>
-      <c r="C218" t="s" s="12">
-        <v>72</v>
+      <c r="C218" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -6816,82 +6863,82 @@
       <c r="H218" s="10"/>
     </row>
     <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" t="s" s="13">
+      <c r="A219" t="s" s="11">
+        <v>437</v>
+      </c>
+      <c r="B219" t="s" s="11">
         <v>438</v>
-      </c>
-      <c r="B219" t="s" s="13">
-        <v>439</v>
       </c>
       <c r="C219" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D219" s="9">
-        <v>0.820512820512821</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.7" customHeight="1">
-      <c r="A220" t="s" s="4">
+    <row r="220" ht="20.05" customHeight="1">
+      <c r="A220" t="s" s="12">
+        <v>439</v>
+      </c>
+      <c r="B220" t="s" s="12">
         <v>440</v>
       </c>
-      <c r="B220" t="s" s="4">
-        <v>441</v>
-      </c>
-      <c r="C220" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D220" s="9"/>
+      <c r="C220" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D220" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="14">
+    <row r="221" ht="20.05" customHeight="1">
+      <c r="A221" t="s" s="12">
+        <v>441</v>
+      </c>
+      <c r="B221" t="s" s="12">
         <v>442</v>
       </c>
-      <c r="B221" t="s" s="14">
-        <v>443</v>
-      </c>
       <c r="C221" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D221" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="4">
+    <row r="222" ht="20.05" customHeight="1">
+      <c r="A222" t="s" s="12">
+        <v>443</v>
+      </c>
+      <c r="B222" t="s" s="12">
         <v>444</v>
       </c>
-      <c r="B222" t="s" s="4">
-        <v>445</v>
-      </c>
-      <c r="C222" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D222" s="9"/>
+      <c r="C222" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D222" s="10"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.35" customHeight="1">
-      <c r="A223" t="s" s="11">
+    <row r="223" ht="20.05" customHeight="1">
+      <c r="A223" t="s" s="12">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s" s="12">
         <v>446</v>
       </c>
-      <c r="B223" t="s" s="11">
-        <v>447</v>
-      </c>
       <c r="C223" t="s" s="12">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -6899,53 +6946,53 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.05" customHeight="1">
-      <c r="A224" t="s" s="12">
+    <row r="224" ht="20.35" customHeight="1">
+      <c r="A224" t="s" s="13">
+        <v>447</v>
+      </c>
+      <c r="B224" t="s" s="13">
         <v>448</v>
       </c>
-      <c r="B224" t="s" s="12">
-        <v>449</v>
-      </c>
       <c r="C224" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D224" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.05" customHeight="1">
-      <c r="A225" t="s" s="12">
+    <row r="225" ht="20.7" customHeight="1">
+      <c r="A225" t="s" s="4">
+        <v>449</v>
+      </c>
+      <c r="B225" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="B225" t="s" s="12">
-        <v>451</v>
-      </c>
-      <c r="C225" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D225" s="9">
-        <v>0.487179487179487</v>
-      </c>
+      <c r="C225" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.35" customHeight="1">
-      <c r="A226" t="s" s="13">
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="14">
+        <v>451</v>
+      </c>
+      <c r="B226" t="s" s="14">
         <v>452</v>
       </c>
-      <c r="B226" t="s" s="13">
-        <v>453</v>
-      </c>
       <c r="C226" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D226" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D226" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
@@ -6953,13 +7000,13 @@
     </row>
     <row r="227" ht="20.7" customHeight="1">
       <c r="A227" t="s" s="4">
+        <v>453</v>
+      </c>
+      <c r="B227" t="s" s="4">
         <v>454</v>
       </c>
-      <c r="B227" t="s" s="4">
-        <v>455</v>
-      </c>
       <c r="C227" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -6967,15 +7014,15 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.7" customHeight="1">
-      <c r="A228" t="s" s="4">
+    <row r="228" ht="20.35" customHeight="1">
+      <c r="A228" t="s" s="11">
+        <v>455</v>
+      </c>
+      <c r="B228" t="s" s="11">
         <v>456</v>
       </c>
-      <c r="B228" t="s" s="4">
-        <v>457</v>
-      </c>
-      <c r="C228" t="s" s="8">
-        <v>25</v>
+      <c r="C228" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -6983,17 +7030,19 @@
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.35" customHeight="1">
-      <c r="A229" t="s" s="11">
+    <row r="229" ht="20.05" customHeight="1">
+      <c r="A229" t="s" s="12">
+        <v>457</v>
+      </c>
+      <c r="B229" t="s" s="12">
         <v>458</v>
-      </c>
-      <c r="B229" t="s" s="11">
-        <v>459</v>
       </c>
       <c r="C229" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D229" s="9"/>
+      <c r="D229" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
@@ -7001,26 +7050,28 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="12">
+        <v>459</v>
+      </c>
+      <c r="B230" t="s" s="12">
         <v>460</v>
       </c>
-      <c r="B230" t="s" s="12">
-        <v>461</v>
-      </c>
       <c r="C230" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D230" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D230" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.05" customHeight="1">
-      <c r="A231" t="s" s="12">
+    <row r="231" ht="20.35" customHeight="1">
+      <c r="A231" t="s" s="13">
+        <v>461</v>
+      </c>
+      <c r="B231" t="s" s="13">
         <v>462</v>
-      </c>
-      <c r="B231" t="s" s="12">
-        <v>463</v>
       </c>
       <c r="C231" t="s" s="12">
         <v>18</v>
@@ -7031,33 +7082,31 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.05" customHeight="1">
-      <c r="A232" t="s" s="12">
+    <row r="232" ht="20.7" customHeight="1">
+      <c r="A232" t="s" s="4">
+        <v>463</v>
+      </c>
+      <c r="B232" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="B232" t="s" s="12">
-        <v>465</v>
-      </c>
-      <c r="C232" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D232" s="9">
-        <v>0.435897435897436</v>
-      </c>
+      <c r="C232" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="12">
+    <row r="233" ht="20.7" customHeight="1">
+      <c r="A233" t="s" s="4">
+        <v>465</v>
+      </c>
+      <c r="B233" t="s" s="4">
         <v>466</v>
       </c>
-      <c r="B233" t="s" s="12">
-        <v>467</v>
-      </c>
-      <c r="C233" t="s" s="12">
-        <v>27</v>
+      <c r="C233" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -7065,19 +7114,17 @@
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="12">
+    <row r="234" ht="20.35" customHeight="1">
+      <c r="A234" t="s" s="11">
+        <v>467</v>
+      </c>
+      <c r="B234" t="s" s="11">
         <v>468</v>
       </c>
-      <c r="B234" t="s" s="12">
-        <v>469</v>
-      </c>
       <c r="C234" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D234" s="9">
-        <v>0.974358974358974</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
@@ -7085,13 +7132,13 @@
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="12">
+        <v>469</v>
+      </c>
+      <c r="B235" t="s" s="12">
         <v>470</v>
       </c>
-      <c r="B235" t="s" s="12">
-        <v>471</v>
-      </c>
       <c r="C235" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -7101,13 +7148,13 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="12">
+        <v>471</v>
+      </c>
+      <c r="B236" t="s" s="12">
         <v>472</v>
       </c>
-      <c r="B236" t="s" s="12">
-        <v>473</v>
-      </c>
       <c r="C236" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -7117,15 +7164,17 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="12">
+        <v>473</v>
+      </c>
+      <c r="B237" t="s" s="12">
         <v>474</v>
       </c>
-      <c r="B237" t="s" s="12">
-        <v>475</v>
-      </c>
       <c r="C237" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D237" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D237" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
@@ -7133,49 +7182,47 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="12">
+        <v>475</v>
+      </c>
+      <c r="B238" t="s" s="12">
         <v>476</v>
       </c>
-      <c r="B238" t="s" s="12">
-        <v>477</v>
-      </c>
       <c r="C238" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D238" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.35" customHeight="1">
-      <c r="A239" t="s" s="13">
+    <row r="239" ht="20.05" customHeight="1">
+      <c r="A239" t="s" s="12">
+        <v>477</v>
+      </c>
+      <c r="B239" t="s" s="12">
         <v>478</v>
-      </c>
-      <c r="B239" t="s" s="13">
-        <v>479</v>
       </c>
       <c r="C239" t="s" s="12">
         <v>43</v>
       </c>
       <c r="D239" s="9">
-        <v>0.179487179487179</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.7" customHeight="1">
-      <c r="A240" t="s" s="4">
+    <row r="240" ht="20.05" customHeight="1">
+      <c r="A240" t="s" s="12">
+        <v>479</v>
+      </c>
+      <c r="B240" t="s" s="12">
         <v>480</v>
       </c>
-      <c r="B240" t="s" s="4">
-        <v>481</v>
-      </c>
-      <c r="C240" t="s" s="8">
-        <v>10</v>
+      <c r="C240" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -7183,33 +7230,35 @@
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.7" customHeight="1">
-      <c r="A241" t="s" s="4">
+    <row r="241" ht="20.05" customHeight="1">
+      <c r="A241" t="s" s="12">
+        <v>481</v>
+      </c>
+      <c r="B241" t="s" s="12">
         <v>482</v>
       </c>
-      <c r="B241" t="s" s="4">
-        <v>483</v>
-      </c>
-      <c r="C241" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D241" s="9"/>
+      <c r="C241" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="D241" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.35" customHeight="1">
-      <c r="A242" t="s" s="11">
+    <row r="242" ht="20.05" customHeight="1">
+      <c r="A242" t="s" s="12">
+        <v>483</v>
+      </c>
+      <c r="B242" t="s" s="12">
         <v>484</v>
       </c>
-      <c r="B242" t="s" s="11">
-        <v>485</v>
-      </c>
       <c r="C242" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D242" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D242" s="10"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
@@ -7217,15 +7266,17 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="12">
+        <v>485</v>
+      </c>
+      <c r="B243" t="s" s="12">
         <v>486</v>
       </c>
-      <c r="B243" t="s" s="12">
-        <v>487</v>
-      </c>
       <c r="C243" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D243" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="D243" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
@@ -7233,47 +7284,49 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="12">
+        <v>487</v>
+      </c>
+      <c r="B244" t="s" s="12">
         <v>488</v>
       </c>
-      <c r="B244" t="s" s="12">
-        <v>489</v>
-      </c>
       <c r="C244" t="s" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D244" s="9">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.05" customHeight="1">
-      <c r="A245" t="s" s="12">
+    <row r="245" ht="20.35" customHeight="1">
+      <c r="A245" t="s" s="13">
+        <v>489</v>
+      </c>
+      <c r="B245" t="s" s="13">
         <v>490</v>
-      </c>
-      <c r="B245" t="s" s="12">
-        <v>491</v>
       </c>
       <c r="C245" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D245" s="9"/>
+      <c r="D245" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.05" customHeight="1">
-      <c r="A246" t="s" s="12">
+    <row r="246" ht="20.7" customHeight="1">
+      <c r="A246" t="s" s="4">
+        <v>491</v>
+      </c>
+      <c r="B246" t="s" s="4">
         <v>492</v>
       </c>
-      <c r="B246" t="s" s="12">
-        <v>493</v>
-      </c>
-      <c r="C246" t="s" s="12">
-        <v>27</v>
+      <c r="C246" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -7281,33 +7334,31 @@
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.05" customHeight="1">
-      <c r="A247" t="s" s="12">
+    <row r="247" ht="20.7" customHeight="1">
+      <c r="A247" t="s" s="4">
+        <v>493</v>
+      </c>
+      <c r="B247" t="s" s="4">
         <v>494</v>
       </c>
-      <c r="B247" t="s" s="12">
-        <v>495</v>
-      </c>
-      <c r="C247" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D247" s="9">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="C247" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" ht="20.05" customHeight="1">
-      <c r="A248" t="s" s="12">
+    <row r="248" ht="20.35" customHeight="1">
+      <c r="A248" t="s" s="11">
+        <v>495</v>
+      </c>
+      <c r="B248" t="s" s="11">
         <v>496</v>
       </c>
-      <c r="B248" t="s" s="12">
-        <v>497</v>
-      </c>
       <c r="C248" t="s" s="12">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -7317,17 +7368,15 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="12">
+        <v>497</v>
+      </c>
+      <c r="B249" t="s" s="12">
         <v>498</v>
       </c>
-      <c r="B249" t="s" s="12">
-        <v>499</v>
-      </c>
       <c r="C249" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D249" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D249" s="10"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
@@ -7335,15 +7384,17 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="12">
+        <v>499</v>
+      </c>
+      <c r="B250" t="s" s="12">
         <v>500</v>
       </c>
-      <c r="B250" t="s" s="12">
-        <v>501</v>
-      </c>
       <c r="C250" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D250" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D250" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
@@ -7351,13 +7402,13 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="12">
+        <v>501</v>
+      </c>
+      <c r="B251" t="s" s="12">
         <v>502</v>
       </c>
-      <c r="B251" t="s" s="12">
-        <v>503</v>
-      </c>
       <c r="C251" t="s" s="12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -7367,13 +7418,13 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="12">
+        <v>503</v>
+      </c>
+      <c r="B252" t="s" s="12">
         <v>504</v>
       </c>
-      <c r="B252" t="s" s="12">
-        <v>505</v>
-      </c>
       <c r="C252" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -7383,15 +7434,17 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
+        <v>505</v>
+      </c>
+      <c r="B253" t="s" s="12">
         <v>506</v>
       </c>
-      <c r="B253" t="s" s="12">
-        <v>507</v>
-      </c>
       <c r="C253" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D253" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D253" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
@@ -7399,47 +7452,47 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
+        <v>507</v>
+      </c>
+      <c r="B254" t="s" s="12">
         <v>508</v>
       </c>
-      <c r="B254" t="s" s="12">
-        <v>509</v>
-      </c>
       <c r="C254" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D254" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.35" customHeight="1">
-      <c r="A255" t="s" s="13">
+    <row r="255" ht="20.05" customHeight="1">
+      <c r="A255" t="s" s="12">
+        <v>509</v>
+      </c>
+      <c r="B255" t="s" s="12">
         <v>510</v>
       </c>
-      <c r="B255" t="s" s="13">
-        <v>511</v>
-      </c>
       <c r="C255" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D255" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D255" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" t="s" s="4">
+    <row r="256" ht="20.05" customHeight="1">
+      <c r="A256" t="s" s="12">
+        <v>511</v>
+      </c>
+      <c r="B256" t="s" s="12">
         <v>512</v>
       </c>
-      <c r="B256" t="s" s="4">
-        <v>513</v>
-      </c>
-      <c r="C256" t="s" s="8">
-        <v>25</v>
+      <c r="C256" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7447,19 +7500,17 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.35" customHeight="1">
-      <c r="A257" t="s" s="11">
+    <row r="257" ht="20.05" customHeight="1">
+      <c r="A257" t="s" s="12">
+        <v>513</v>
+      </c>
+      <c r="B257" t="s" s="12">
         <v>514</v>
       </c>
-      <c r="B257" t="s" s="11">
-        <v>515</v>
-      </c>
       <c r="C257" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D257" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
@@ -7467,17 +7518,15 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="12">
+        <v>515</v>
+      </c>
+      <c r="B258" t="s" s="12">
         <v>516</v>
       </c>
-      <c r="B258" t="s" s="12">
-        <v>517</v>
-      </c>
       <c r="C258" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D258" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
@@ -7485,13 +7534,13 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="12">
+        <v>517</v>
+      </c>
+      <c r="B259" t="s" s="12">
         <v>518</v>
       </c>
-      <c r="B259" t="s" s="12">
-        <v>519</v>
-      </c>
       <c r="C259" t="s" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -7501,31 +7550,31 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="12">
+        <v>519</v>
+      </c>
+      <c r="B260" t="s" s="12">
         <v>520</v>
       </c>
-      <c r="B260" t="s" s="12">
-        <v>521</v>
-      </c>
       <c r="C260" t="s" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D260" s="9">
-        <v>0.58974358974359</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.05" customHeight="1">
-      <c r="A261" t="s" s="12">
+    <row r="261" ht="20.35" customHeight="1">
+      <c r="A261" t="s" s="13">
+        <v>521</v>
+      </c>
+      <c r="B261" t="s" s="13">
         <v>522</v>
       </c>
-      <c r="B261" t="s" s="12">
-        <v>523</v>
-      </c>
       <c r="C261" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7533,15 +7582,15 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.35" customHeight="1">
-      <c r="A262" t="s" s="13">
+    <row r="262" ht="20.7" customHeight="1">
+      <c r="A262" t="s" s="4">
+        <v>523</v>
+      </c>
+      <c r="B262" t="s" s="4">
         <v>524</v>
       </c>
-      <c r="B262" t="s" s="13">
-        <v>525</v>
-      </c>
-      <c r="C262" t="s" s="12">
-        <v>43</v>
+      <c r="C262" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7549,34 +7598,36 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.7" customHeight="1">
-      <c r="A263" t="s" s="4">
+    <row r="263" ht="20.35" customHeight="1">
+      <c r="A263" t="s" s="11">
+        <v>525</v>
+      </c>
+      <c r="B263" t="s" s="11">
         <v>526</v>
       </c>
-      <c r="B263" t="s" s="4">
-        <v>527</v>
-      </c>
-      <c r="C263" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D263" s="9"/>
+      <c r="C263" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D263" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
     </row>
-    <row r="264" ht="20.35" customHeight="1">
-      <c r="A264" t="s" s="11">
+    <row r="264" ht="20.05" customHeight="1">
+      <c r="A264" t="s" s="12">
+        <v>527</v>
+      </c>
+      <c r="B264" t="s" s="12">
         <v>528</v>
       </c>
-      <c r="B264" t="s" s="11">
-        <v>529</v>
-      </c>
       <c r="C264" t="s" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D264" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -7585,13 +7636,13 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="12">
+        <v>529</v>
+      </c>
+      <c r="B265" t="s" s="12">
         <v>530</v>
       </c>
-      <c r="B265" t="s" s="12">
-        <v>531</v>
-      </c>
       <c r="C265" t="s" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7601,15 +7652,17 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="12">
+        <v>531</v>
+      </c>
+      <c r="B266" t="s" s="12">
         <v>532</v>
       </c>
-      <c r="B266" t="s" s="12">
-        <v>533</v>
-      </c>
       <c r="C266" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D266" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D266" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
@@ -7617,29 +7670,31 @@
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="12">
+        <v>533</v>
+      </c>
+      <c r="B267" t="s" s="12">
         <v>534</v>
       </c>
-      <c r="B267" t="s" s="12">
-        <v>535</v>
-      </c>
       <c r="C267" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D267" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D267" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.05" customHeight="1">
-      <c r="A268" t="s" s="12">
+    <row r="268" ht="20.35" customHeight="1">
+      <c r="A268" t="s" s="13">
+        <v>535</v>
+      </c>
+      <c r="B268" t="s" s="13">
         <v>536</v>
       </c>
-      <c r="B268" t="s" s="12">
-        <v>537</v>
-      </c>
       <c r="C268" t="s" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -7647,15 +7702,15 @@
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.05" customHeight="1">
-      <c r="A269" t="s" s="12">
+    <row r="269" ht="20.7" customHeight="1">
+      <c r="A269" t="s" s="4">
+        <v>537</v>
+      </c>
+      <c r="B269" t="s" s="4">
         <v>538</v>
       </c>
-      <c r="B269" t="s" s="12">
-        <v>539</v>
-      </c>
-      <c r="C269" t="s" s="12">
-        <v>15</v>
+      <c r="C269" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7663,17 +7718,19 @@
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.05" customHeight="1">
-      <c r="A270" t="s" s="12">
+    <row r="270" ht="20.35" customHeight="1">
+      <c r="A270" t="s" s="11">
+        <v>539</v>
+      </c>
+      <c r="B270" t="s" s="11">
         <v>540</v>
       </c>
-      <c r="B270" t="s" s="12">
-        <v>541</v>
-      </c>
       <c r="C270" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D270" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D270" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
@@ -7681,13 +7738,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
+        <v>541</v>
+      </c>
+      <c r="B271" t="s" s="12">
         <v>542</v>
       </c>
-      <c r="B271" t="s" s="12">
-        <v>543</v>
-      </c>
       <c r="C271" t="s" s="12">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7697,15 +7754,17 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="12">
+        <v>543</v>
+      </c>
+      <c r="B272" t="s" s="12">
         <v>544</v>
       </c>
-      <c r="B272" t="s" s="12">
-        <v>545</v>
-      </c>
       <c r="C272" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D272" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D272" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
@@ -7713,10 +7772,10 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="12">
+        <v>545</v>
+      </c>
+      <c r="B273" t="s" s="12">
         <v>546</v>
-      </c>
-      <c r="B273" t="s" s="12">
-        <v>547</v>
       </c>
       <c r="C273" t="s" s="12">
         <v>43</v>
@@ -7729,13 +7788,13 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="12">
+        <v>547</v>
+      </c>
+      <c r="B274" t="s" s="12">
         <v>548</v>
       </c>
-      <c r="B274" t="s" s="12">
-        <v>549</v>
-      </c>
       <c r="C274" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -7745,10 +7804,10 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="12">
+        <v>549</v>
+      </c>
+      <c r="B275" t="s" s="12">
         <v>550</v>
-      </c>
-      <c r="B275" t="s" s="12">
-        <v>551</v>
       </c>
       <c r="C275" t="s" s="12">
         <v>15</v>
@@ -7761,13 +7820,13 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="12">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B276" t="s" s="12">
         <v>552</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -7791,33 +7850,31 @@
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" ht="20.35" customHeight="1">
-      <c r="A278" t="s" s="13">
+    <row r="278" ht="20.05" customHeight="1">
+      <c r="A278" t="s" s="12">
         <v>555</v>
       </c>
-      <c r="B278" t="s" s="13">
+      <c r="B278" t="s" s="12">
         <v>556</v>
       </c>
       <c r="C278" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D278" s="9">
-        <v>0.384615384615385</v>
-      </c>
+      <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.7" customHeight="1">
-      <c r="A279" t="s" s="4">
+    <row r="279" ht="20.05" customHeight="1">
+      <c r="A279" t="s" s="12">
         <v>557</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>558</v>
       </c>
-      <c r="C279" t="s" s="8">
-        <v>25</v>
+      <c r="C279" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -7825,15 +7882,15 @@
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.7" customHeight="1">
-      <c r="A280" t="s" s="4">
+    <row r="280" ht="20.05" customHeight="1">
+      <c r="A280" t="s" s="12">
         <v>559</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>560</v>
       </c>
-      <c r="C280" t="s" s="8">
-        <v>10</v>
+      <c r="C280" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -7841,15 +7898,15 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.7" customHeight="1">
-      <c r="A281" t="s" s="4">
-        <v>559</v>
-      </c>
-      <c r="B281" t="s" s="4">
-        <v>560</v>
-      </c>
-      <c r="C281" t="s" s="8">
-        <v>25</v>
+    <row r="281" ht="20.05" customHeight="1">
+      <c r="A281" t="s" s="12">
+        <v>561</v>
+      </c>
+      <c r="B281" t="s" s="12">
+        <v>562</v>
+      </c>
+      <c r="C281" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7857,15 +7914,15 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.7" customHeight="1">
-      <c r="A282" t="s" s="4">
+    <row r="282" ht="20.05" customHeight="1">
+      <c r="A282" t="s" s="12">
         <v>561</v>
       </c>
-      <c r="B282" t="s" s="4">
-        <v>562</v>
-      </c>
-      <c r="C282" t="s" s="8">
-        <v>10</v>
+      <c r="B282" t="s" s="12">
+        <v>563</v>
+      </c>
+      <c r="C282" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7873,12 +7930,12 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.35" customHeight="1">
-      <c r="A283" t="s" s="11">
-        <v>563</v>
-      </c>
-      <c r="B283" t="s" s="11">
+    <row r="283" ht="20.05" customHeight="1">
+      <c r="A283" t="s" s="12">
         <v>564</v>
+      </c>
+      <c r="B283" t="s" s="12">
+        <v>565</v>
       </c>
       <c r="C283" t="s" s="12">
         <v>43</v>
@@ -7889,138 +7946,138 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.05" customHeight="1">
-      <c r="A284" t="s" s="12">
-        <v>565</v>
-      </c>
-      <c r="B284" t="s" s="12">
+    <row r="284" ht="20.35" customHeight="1">
+      <c r="A284" t="s" s="13">
         <v>566</v>
       </c>
+      <c r="B284" t="s" s="13">
+        <v>567</v>
+      </c>
       <c r="C284" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D284" s="9">
-        <v>0.717948717948718</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.05" customHeight="1">
-      <c r="A285" t="s" s="12">
-        <v>567</v>
-      </c>
-      <c r="B285" t="s" s="12">
+    <row r="285" ht="20.7" customHeight="1">
+      <c r="A285" t="s" s="4">
         <v>568</v>
       </c>
-      <c r="C285" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D285" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="B285" t="s" s="4">
+        <v>569</v>
+      </c>
+      <c r="C285" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.05" customHeight="1">
-      <c r="A286" t="s" s="12">
-        <v>569</v>
-      </c>
-      <c r="B286" t="s" s="12">
+    <row r="286" ht="20.7" customHeight="1">
+      <c r="A286" t="s" s="4">
         <v>570</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D286" s="9">
-        <v>0.948717948717949</v>
-      </c>
+      <c r="B286" t="s" s="4">
+        <v>571</v>
+      </c>
+      <c r="C286" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.05" customHeight="1">
-      <c r="A287" t="s" s="12">
-        <v>571</v>
-      </c>
-      <c r="B287" t="s" s="12">
+    <row r="287" ht="20.7" customHeight="1">
+      <c r="A287" t="s" s="4">
         <v>572</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D287" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="B287" t="s" s="4">
+        <v>573</v>
+      </c>
+      <c r="C287" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
     <row r="288" ht="20.35" customHeight="1">
-      <c r="A288" t="s" s="13">
-        <v>573</v>
-      </c>
-      <c r="B288" t="s" s="13">
+      <c r="A288" t="s" s="11">
         <v>574</v>
       </c>
+      <c r="B288" t="s" s="11">
+        <v>575</v>
+      </c>
       <c r="C288" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D288" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D288" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.7" customHeight="1">
-      <c r="A289" t="s" s="4">
-        <v>575</v>
-      </c>
-      <c r="B289" t="s" s="4">
+    <row r="289" ht="20.05" customHeight="1">
+      <c r="A289" t="s" s="12">
         <v>576</v>
       </c>
-      <c r="C289" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D289" s="9"/>
+      <c r="B289" t="s" s="12">
+        <v>577</v>
+      </c>
+      <c r="C289" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D289" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" ht="20.7" customHeight="1">
-      <c r="A290" t="s" s="4">
-        <v>577</v>
-      </c>
-      <c r="B290" t="s" s="4">
+    <row r="290" ht="20.05" customHeight="1">
+      <c r="A290" t="s" s="12">
         <v>578</v>
       </c>
-      <c r="C290" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D290" s="9"/>
+      <c r="B290" t="s" s="12">
+        <v>579</v>
+      </c>
+      <c r="C290" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D290" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.35" customHeight="1">
-      <c r="A291" t="s" s="11">
-        <v>579</v>
-      </c>
-      <c r="B291" t="s" s="11">
+    <row r="291" ht="20.05" customHeight="1">
+      <c r="A291" t="s" s="12">
         <v>580</v>
       </c>
+      <c r="B291" t="s" s="12">
+        <v>581</v>
+      </c>
       <c r="C291" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D291" s="9">
-        <v>0.58974358974359</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -8029,31 +8086,31 @@
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="12">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B292" t="s" s="12">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D292" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.05" customHeight="1">
-      <c r="A293" t="s" s="12">
-        <v>583</v>
-      </c>
-      <c r="B293" t="s" s="12">
+    <row r="293" ht="20.35" customHeight="1">
+      <c r="A293" t="s" s="13">
         <v>584</v>
       </c>
+      <c r="B293" t="s" s="13">
+        <v>585</v>
+      </c>
       <c r="C293" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -8061,15 +8118,15 @@
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.05" customHeight="1">
-      <c r="A294" t="s" s="12">
-        <v>585</v>
-      </c>
-      <c r="B294" t="s" s="12">
+    <row r="294" ht="20.7" customHeight="1">
+      <c r="A294" t="s" s="4">
         <v>586</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>15</v>
+      <c r="B294" t="s" s="4">
+        <v>587</v>
+      </c>
+      <c r="C294" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -8077,15 +8134,15 @@
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.05" customHeight="1">
-      <c r="A295" t="s" s="12">
-        <v>587</v>
-      </c>
-      <c r="B295" t="s" s="12">
+    <row r="295" ht="20.7" customHeight="1">
+      <c r="A295" t="s" s="4">
         <v>588</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>72</v>
+      <c r="B295" t="s" s="4">
+        <v>589</v>
+      </c>
+      <c r="C295" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -8093,47 +8150,51 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.05" customHeight="1">
-      <c r="A296" t="s" s="12">
-        <v>589</v>
-      </c>
-      <c r="B296" t="s" s="12">
+    <row r="296" ht="20.35" customHeight="1">
+      <c r="A296" t="s" s="11">
         <v>590</v>
       </c>
+      <c r="B296" t="s" s="11">
+        <v>591</v>
+      </c>
       <c r="C296" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D296" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D296" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.35" customHeight="1">
-      <c r="A297" t="s" s="13">
-        <v>591</v>
-      </c>
-      <c r="B297" t="s" s="13">
+    <row r="297" ht="20.05" customHeight="1">
+      <c r="A297" t="s" s="12">
         <v>592</v>
+      </c>
+      <c r="B297" t="s" s="12">
+        <v>593</v>
       </c>
       <c r="C297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D297" s="9"/>
+      <c r="D297" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.7" customHeight="1">
-      <c r="A298" t="s" s="4">
-        <v>593</v>
-      </c>
-      <c r="B298" t="s" s="4">
+    <row r="298" ht="20.05" customHeight="1">
+      <c r="A298" t="s" s="12">
         <v>594</v>
       </c>
-      <c r="C298" t="s" s="8">
-        <v>10</v>
+      <c r="B298" t="s" s="12">
+        <v>595</v>
+      </c>
+      <c r="C298" t="s" s="12">
+        <v>43</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -8141,15 +8202,15 @@
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.35" customHeight="1">
-      <c r="A299" t="s" s="11">
-        <v>595</v>
-      </c>
-      <c r="B299" t="s" s="11">
+    <row r="299" ht="20.05" customHeight="1">
+      <c r="A299" t="s" s="12">
         <v>596</v>
       </c>
+      <c r="B299" t="s" s="12">
+        <v>597</v>
+      </c>
       <c r="C299" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -8159,13 +8220,13 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="12">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B300" t="s" s="12">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -8175,47 +8236,47 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B301" t="s" s="12">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="D301" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D301" s="10"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.05" customHeight="1">
-      <c r="A302" t="s" s="12">
-        <v>601</v>
-      </c>
-      <c r="B302" t="s" s="12">
+    <row r="302" ht="20.35" customHeight="1">
+      <c r="A302" t="s" s="13">
         <v>602</v>
       </c>
+      <c r="B302" t="s" s="13">
+        <v>603</v>
+      </c>
       <c r="C302" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D302" s="9">
-        <v>0.512820512820513</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
-        <v>603</v>
-      </c>
-      <c r="B303" t="s" s="12">
+    <row r="303" ht="20.7" customHeight="1">
+      <c r="A303" t="s" s="4">
         <v>604</v>
       </c>
-      <c r="C303" t="s" s="12">
-        <v>43</v>
+      <c r="B303" t="s" s="4">
+        <v>605</v>
+      </c>
+      <c r="C303" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
@@ -8223,17 +8284,19 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" t="s" s="12">
-        <v>605</v>
-      </c>
-      <c r="B304" t="s" s="12">
+    <row r="304" ht="20.35" customHeight="1">
+      <c r="A304" t="s" s="11">
         <v>606</v>
       </c>
+      <c r="B304" t="s" s="11">
+        <v>607</v>
+      </c>
       <c r="C304" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D304" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D304" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
@@ -8241,13 +8304,13 @@
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" t="s" s="12">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B305" t="s" s="12">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C305" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -8257,17 +8320,15 @@
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="12">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B306" t="s" s="12">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C306" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D306" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
@@ -8275,15 +8336,17 @@
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="12">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B307" t="s" s="12">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C307" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D307" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D307" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
@@ -8291,17 +8354,15 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="12">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B308" t="s" s="12">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D308" s="9">
-        <v>0.692307692307692</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
@@ -8309,16 +8370,16 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="12">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B309" t="s" s="12">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D309" s="9">
-        <v>0.58974358974359</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -8326,16 +8387,16 @@
       <c r="H309" s="10"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
-      <c r="A310" s="10"/>
+      <c r="A310" t="s" s="12">
+        <v>618</v>
+      </c>
       <c r="B310" t="s" s="12">
-        <v>26</v>
+        <v>619</v>
       </c>
       <c r="C310" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D310" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
       <c r="G310" s="10"/>
@@ -8343,16 +8404,16 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="12">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B311" t="s" s="12">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D311" s="9">
-        <v>0.794871794871795</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8360,9 +8421,15 @@
       <c r="H311" s="10"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
-      <c r="A312" s="10"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
+      <c r="A312" t="s" s="12">
+        <v>622</v>
+      </c>
+      <c r="B312" t="s" s="12">
+        <v>623</v>
+      </c>
+      <c r="C312" t="s" s="12">
+        <v>30</v>
+      </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -8371,9 +8438,15 @@
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" s="10"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="9"/>
+      <c r="B313" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="C313" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D313" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
@@ -9179,16 +9252,6 @@
       <c r="G393" s="10"/>
       <c r="H393" s="10"/>
     </row>
-    <row r="394" ht="20.05" customHeight="1">
-      <c r="A394" s="10"/>
-      <c r="B394" s="10"/>
-      <c r="C394" s="10"/>
-      <c r="D394" s="9"/>
-      <c r="E394" s="9"/>
-      <c r="F394" s="9"/>
-      <c r="G394" s="10"/>
-      <c r="H394" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -1660,7 +1660,7 @@
     <t>H210336T</t>
   </si>
   <si>
-    <t>Samukutems</t>
+    <t>Samukute</t>
   </si>
   <si>
     <t>H210188F</t>
@@ -3474,7 +3474,9 @@
       <c r="C15" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -3932,7 +3934,9 @@
       <c r="C43" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -5504,7 +5508,9 @@
       <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" s="9"/>
+      <c r="D137" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
@@ -5686,7 +5692,9 @@
       <c r="C148" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="D148" s="9"/>
+      <c r="D148" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
@@ -5702,7 +5710,9 @@
       <c r="C149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D149" s="9"/>
+      <c r="D149" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
@@ -7460,7 +7470,9 @@
       <c r="C254" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="D254" s="9"/>
+      <c r="D254" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
@@ -7812,7 +7824,9 @@
       <c r="C275" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D275" s="9"/>
+      <c r="D275" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
@@ -8212,7 +8226,9 @@
       <c r="C299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D299" s="9"/>
+      <c r="D299" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>Surname</t>
   </si>
@@ -130,6 +130,12 @@
     <t>H210247A</t>
   </si>
   <si>
+    <t>Chakwizira</t>
+  </si>
+  <si>
+    <t>H200225B</t>
+  </si>
+  <si>
     <t>Chapara</t>
   </si>
   <si>
@@ -586,7 +592,7 @@
     <t>H210341F</t>
   </si>
   <si>
-    <t>JOJO</t>
+    <t xml:space="preserve">Jojo </t>
   </si>
   <si>
     <t>H210164Z</t>
@@ -1162,6 +1168,12 @@
     <t>H210310N</t>
   </si>
   <si>
+    <t>Miti</t>
+  </si>
+  <si>
+    <t>H180232W</t>
+  </si>
+  <si>
     <t>Molebaleng</t>
   </si>
   <si>
@@ -1216,6 +1228,12 @@
     <t>H210702G</t>
   </si>
   <si>
+    <t>Mudiwa</t>
+  </si>
+  <si>
+    <t>H200623M</t>
+  </si>
+  <si>
     <t>MUDUMHA</t>
   </si>
   <si>
@@ -1360,6 +1378,12 @@
     <t>H210191M</t>
   </si>
   <si>
+    <t>Mushaike</t>
+  </si>
+  <si>
+    <t>H190375R</t>
+  </si>
+  <si>
     <t>MUSHIPE</t>
   </si>
   <si>
@@ -1859,6 +1883,12 @@
   </si>
   <si>
     <t>H210242F</t>
+  </si>
+  <si>
+    <t>Zimunya</t>
+  </si>
+  <si>
+    <t>H200127Q</t>
   </si>
   <si>
     <t>Zireva</t>
@@ -3442,7 +3472,9 @@
       <c r="C13" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -3458,7 +3490,9 @@
       <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3472,10 +3506,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9">
-        <v>0.461538461538462</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3490,10 +3524,10 @@
         <v>42</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9">
-        <v>0.487179487179487</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3502,15 +3536,17 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="C17" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -3524,11 +3560,9 @@
         <v>47</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -3544,7 +3578,9 @@
       <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
@@ -3566,49 +3602,49 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="13">
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="13">
+      <c r="B21" t="s" s="12">
         <v>53</v>
       </c>
       <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" s="9">
-        <v>0.794871794871795</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="20.7" customHeight="1">
-      <c r="A22" t="s" s="4">
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="C22" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="11">
+    <row r="23" ht="20.7" customHeight="1">
+      <c r="A23" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="B23" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="C23" t="s" s="12">
-        <v>18</v>
+      <c r="C23" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -3616,15 +3652,15 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="12">
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="11">
         <v>59</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3640,9 +3676,11 @@
         <v>61</v>
       </c>
       <c r="C25" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D25" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
@@ -3658,9 +3696,7 @@
       <c r="C26" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D26" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
@@ -3674,9 +3710,11 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D27" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
@@ -3690,7 +3728,7 @@
         <v>67</v>
       </c>
       <c r="C28" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3706,7 +3744,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3722,7 +3760,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3738,7 +3776,7 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -3748,13 +3786,13 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="C32" t="s" s="12">
         <v>76</v>
-      </c>
-      <c r="C32" t="s" s="12">
-        <v>15</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3762,15 +3800,15 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" t="s" s="13">
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="B33" t="s" s="13">
+      <c r="B33" t="s" s="12">
         <v>78</v>
       </c>
       <c r="C33" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3778,15 +3816,15 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" t="s" s="4">
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="C34" t="s" s="8">
-        <v>25</v>
+      <c r="C34" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3810,15 +3848,15 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" t="s" s="11">
+    <row r="36" ht="20.7" customHeight="1">
+      <c r="A36" t="s" s="4">
         <v>83</v>
       </c>
-      <c r="B36" t="s" s="11">
+      <c r="B36" t="s" s="4">
         <v>84</v>
       </c>
-      <c r="C36" t="s" s="12">
-        <v>43</v>
+      <c r="C36" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3826,17 +3864,19 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="12">
+    <row r="37" ht="20.35" customHeight="1">
+      <c r="A37" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="11">
         <v>86</v>
       </c>
       <c r="C37" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D37" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
@@ -3850,7 +3890,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -3866,11 +3906,9 @@
         <v>90</v>
       </c>
       <c r="C39" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
@@ -3884,9 +3922,11 @@
         <v>92</v>
       </c>
       <c r="C40" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
@@ -3900,7 +3940,7 @@
         <v>94</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3916,9 +3956,11 @@
         <v>96</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
@@ -3932,11 +3974,9 @@
         <v>98</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.897435897435897</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -3950,10 +3990,10 @@
         <v>100</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D44" s="9">
-        <v>0.512820512820513</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3968,10 +4008,10 @@
         <v>102</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D45" s="9">
-        <v>0.564102564102564</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3986,10 +4026,10 @@
         <v>104</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9">
-        <v>0.512820512820513</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -4004,10 +4044,10 @@
         <v>106</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" s="9">
-        <v>0.846153846153846</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -4022,10 +4062,10 @@
         <v>108</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9">
-        <v>0.230769230769231</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4040,10 +4080,10 @@
         <v>110</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D49" s="9">
-        <v>0.256410256410256</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -4058,57 +4098,61 @@
         <v>112</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D50" s="9">
-        <v>0.58974358974359</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" ht="20.35" customHeight="1">
-      <c r="A51" t="s" s="13">
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="12">
         <v>113</v>
       </c>
-      <c r="B51" t="s" s="13">
+      <c r="B51" t="s" s="12">
         <v>114</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" ht="20.7" customHeight="1">
-      <c r="A52" t="s" s="4">
+    <row r="52" ht="20.35" customHeight="1">
+      <c r="A52" t="s" s="13">
         <v>115</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="C52" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D52" s="9"/>
+      <c r="C52" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" ht="20.35" customHeight="1">
-      <c r="A53" t="s" s="11">
+    <row r="53" ht="20.7" customHeight="1">
+      <c r="A53" t="s" s="4">
         <v>117</v>
       </c>
-      <c r="B53" t="s" s="11">
+      <c r="B53" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>43</v>
+      <c r="C53" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4116,15 +4160,15 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="12">
+    <row r="54" ht="20.35" customHeight="1">
+      <c r="A54" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="11">
         <v>120</v>
       </c>
       <c r="C54" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4134,15 +4178,15 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9">
-        <v>0.615384615384615</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C55" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4150,16 +4194,14 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -4168,15 +4210,17 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D57" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
@@ -4184,13 +4228,13 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s" s="12">
         <v>126</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4206,7 +4250,7 @@
         <v>128</v>
       </c>
       <c r="C59" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4225,7 +4269,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="9">
-        <v>0.717948717948718</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -4240,10 +4284,10 @@
         <v>132</v>
       </c>
       <c r="C61" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D61" s="9">
-        <v>0.871794871794872</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -4258,9 +4302,11 @@
         <v>134</v>
       </c>
       <c r="C62" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D62" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
@@ -4274,7 +4320,7 @@
         <v>136</v>
       </c>
       <c r="C63" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4292,7 +4338,9 @@
       <c r="C64" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D64" s="9"/>
+      <c r="D64" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
@@ -4306,7 +4354,7 @@
         <v>140</v>
       </c>
       <c r="C65" t="s" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -4314,69 +4362,71 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" ht="20.35" customHeight="1">
-      <c r="A66" t="s" s="13">
+    <row r="66" ht="20.05" customHeight="1">
+      <c r="A66" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="13">
+      <c r="B66" t="s" s="12">
         <v>142</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" s="9">
-        <v>0.794871794871795</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.7" customHeight="1">
-      <c r="A67" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s" s="4">
+    <row r="67" ht="20.35" customHeight="1">
+      <c r="A67" t="s" s="13">
         <v>143</v>
       </c>
-      <c r="C67" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D67" s="9"/>
+      <c r="B67" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="B68" t="s" s="11">
+    <row r="68" ht="20.7" customHeight="1">
+      <c r="A68" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="B68" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D68" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C68" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="12">
+    <row r="69" ht="20.35" customHeight="1">
+      <c r="A69" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="11">
         <v>147</v>
       </c>
       <c r="C69" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D69" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
@@ -4390,11 +4440,9 @@
         <v>149</v>
       </c>
       <c r="C70" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D70" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
@@ -4408,59 +4456,61 @@
         <v>151</v>
       </c>
       <c r="C71" t="s" s="12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D71" s="9">
-        <v>0.538461538461538</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" ht="20.35" customHeight="1">
-      <c r="A72" t="s" s="13">
+    <row r="72" ht="20.05" customHeight="1">
+      <c r="A72" t="s" s="12">
         <v>152</v>
       </c>
-      <c r="B72" t="s" s="13">
+      <c r="B72" t="s" s="12">
         <v>153</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D72" s="9">
-        <v>0.641025641025641</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.7" customHeight="1">
-      <c r="A73" t="s" s="4">
+    <row r="73" ht="20.35" customHeight="1">
+      <c r="A73" t="s" s="13">
         <v>154</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="13">
         <v>155</v>
       </c>
-      <c r="C73" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D73" s="9"/>
+      <c r="C73" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.35" customHeight="1">
-      <c r="A74" t="s" s="11">
+    <row r="74" ht="20.7" customHeight="1">
+      <c r="A74" t="s" s="4">
         <v>156</v>
       </c>
-      <c r="B74" t="s" s="11">
+      <c r="B74" t="s" s="4">
         <v>157</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>27</v>
+      <c r="C74" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -4468,15 +4518,15 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="12">
+    <row r="75" ht="20.35" customHeight="1">
+      <c r="A75" t="s" s="11">
         <v>158</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="11">
         <v>159</v>
       </c>
       <c r="C75" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4492,45 +4542,45 @@
         <v>161</v>
       </c>
       <c r="C76" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D76" s="9">
-        <v>0.794871794871795</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.35" customHeight="1">
-      <c r="A77" t="s" s="13">
+    <row r="77" ht="20.05" customHeight="1">
+      <c r="A77" t="s" s="12">
         <v>162</v>
       </c>
-      <c r="B77" t="s" s="13">
+      <c r="B77" t="s" s="12">
         <v>163</v>
       </c>
       <c r="C77" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D77" s="9">
-        <v>0.487179487179487</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.7" customHeight="1">
-      <c r="A78" t="s" s="4">
+    <row r="78" ht="20.35" customHeight="1">
+      <c r="A78" t="s" s="13">
         <v>164</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="13">
         <v>165</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D78" s="9"/>
+      <c r="C78" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
@@ -4544,7 +4594,7 @@
         <v>167</v>
       </c>
       <c r="C79" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -4553,48 +4603,48 @@
       <c r="H79" s="10"/>
     </row>
     <row r="80" ht="20.7" customHeight="1">
-      <c r="A80" t="s" s="14">
+      <c r="A80" t="s" s="4">
         <v>168</v>
       </c>
-      <c r="B80" t="s" s="14">
+      <c r="B80" t="s" s="4">
         <v>169</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C80" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="14">
         <v>170</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="14">
         <v>171</v>
       </c>
-      <c r="C81" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D81" s="9"/>
+      <c r="C81" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.35" customHeight="1">
-      <c r="A82" t="s" s="11">
+    <row r="82" ht="20.7" customHeight="1">
+      <c r="A82" t="s" s="4">
         <v>172</v>
       </c>
-      <c r="B82" t="s" s="11">
+      <c r="B82" t="s" s="4">
         <v>173</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>30</v>
+      <c r="C82" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -4602,19 +4652,17 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="12">
+    <row r="83" ht="20.35" customHeight="1">
+      <c r="A83" t="s" s="11">
         <v>174</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="11">
         <v>175</v>
       </c>
       <c r="C83" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
@@ -4628,10 +4676,10 @@
         <v>177</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D84" s="9">
-        <v>0.461538461538462</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -4646,80 +4694,80 @@
         <v>179</v>
       </c>
       <c r="C85" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D85" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.35" customHeight="1">
-      <c r="A86" t="s" s="13">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s" s="13">
+    <row r="86" ht="20.05" customHeight="1">
+      <c r="A86" t="s" s="12">
         <v>180</v>
       </c>
+      <c r="B86" t="s" s="12">
+        <v>181</v>
+      </c>
       <c r="C86" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D86" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.7" customHeight="1">
-      <c r="A87" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="B87" t="s" s="4">
+    <row r="87" ht="20.35" customHeight="1">
+      <c r="A87" t="s" s="13">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s" s="13">
         <v>182</v>
       </c>
-      <c r="C87" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D87" s="9"/>
+      <c r="C87" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.35" customHeight="1">
-      <c r="A88" t="s" s="11">
+    <row r="88" ht="20.7" customHeight="1">
+      <c r="A88" t="s" s="4">
         <v>183</v>
       </c>
-      <c r="B88" t="s" s="11">
+      <c r="B88" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D88" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C88" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="12">
+    <row r="89" ht="20.35" customHeight="1">
+      <c r="A89" t="s" s="11">
         <v>185</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="11">
         <v>186</v>
       </c>
       <c r="C89" t="s" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D89" s="9">
-        <v>0.717948717948718</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -4734,41 +4782,43 @@
         <v>188</v>
       </c>
       <c r="C90" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D90" s="9">
-        <v>0.205128205128205</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.35" customHeight="1">
-      <c r="A91" t="s" s="13">
+    <row r="91" ht="20.05" customHeight="1">
+      <c r="A91" t="s" s="12">
         <v>189</v>
       </c>
-      <c r="B91" t="s" s="13">
+      <c r="B91" t="s" s="12">
         <v>190</v>
       </c>
       <c r="C91" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D91" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.7" customHeight="1">
-      <c r="A92" t="s" s="4">
+    <row r="92" ht="20.35" customHeight="1">
+      <c r="A92" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="13">
         <v>192</v>
       </c>
-      <c r="C92" t="s" s="8">
-        <v>25</v>
+      <c r="C92" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4777,14 +4827,14 @@
       <c r="H92" s="10"/>
     </row>
     <row r="93" ht="20.7" customHeight="1">
-      <c r="A93" t="s" s="14">
+      <c r="A93" t="s" s="4">
         <v>193</v>
       </c>
-      <c r="B93" t="s" s="14">
+      <c r="B93" t="s" s="4">
         <v>194</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>15</v>
+      <c r="C93" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4793,14 +4843,14 @@
       <c r="H93" s="10"/>
     </row>
     <row r="94" ht="20.7" customHeight="1">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="14">
         <v>195</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="14">
         <v>196</v>
       </c>
-      <c r="C94" t="s" s="8">
-        <v>25</v>
+      <c r="C94" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4824,15 +4874,15 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.35" customHeight="1">
-      <c r="A96" t="s" s="11">
+    <row r="96" ht="20.7" customHeight="1">
+      <c r="A96" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="B96" t="s" s="11">
+      <c r="B96" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>15</v>
+      <c r="C96" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4840,18 +4890,18 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="12">
+    <row r="97" ht="20.35" customHeight="1">
+      <c r="A97" t="s" s="11">
         <v>201</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="11">
         <v>202</v>
       </c>
       <c r="C97" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D97" s="9">
-        <v>0.871794871794872</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -4866,57 +4916,59 @@
         <v>204</v>
       </c>
       <c r="C98" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D98" s="9">
-        <v>0.564102564102564</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.35" customHeight="1">
-      <c r="A99" t="s" s="13">
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" t="s" s="12">
         <v>205</v>
       </c>
-      <c r="B99" t="s" s="13">
+      <c r="B99" t="s" s="12">
         <v>206</v>
       </c>
-      <c r="C99" s="10"/>
+      <c r="C99" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D99" s="9">
-        <v>0.897435897435897</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.7" customHeight="1">
-      <c r="A100" t="s" s="4">
+    <row r="100" ht="20.35" customHeight="1">
+      <c r="A100" t="s" s="13">
         <v>207</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="13">
         <v>208</v>
       </c>
-      <c r="C100" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.35" customHeight="1">
-      <c r="A101" t="s" s="11">
+    <row r="101" ht="20.7" customHeight="1">
+      <c r="A101" t="s" s="4">
         <v>209</v>
       </c>
-      <c r="B101" t="s" s="11">
+      <c r="B101" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>27</v>
+      <c r="C101" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4924,15 +4976,15 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="12">
+    <row r="102" ht="20.35" customHeight="1">
+      <c r="A102" t="s" s="11">
         <v>211</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="11">
         <v>212</v>
       </c>
       <c r="C102" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4948,7 +5000,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4964,23 +5016,25 @@
         <v>216</v>
       </c>
       <c r="C104" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D104" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.35" customHeight="1">
-      <c r="A105" t="s" s="13">
+    <row r="105" ht="20.05" customHeight="1">
+      <c r="A105" t="s" s="12">
         <v>217</v>
       </c>
-      <c r="B105" t="s" s="13">
+      <c r="B105" t="s" s="12">
         <v>218</v>
       </c>
       <c r="C105" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4988,17 +5042,19 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="4">
+    <row r="106" ht="20.35" customHeight="1">
+      <c r="A106" t="s" s="13">
         <v>219</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="13">
         <v>220</v>
       </c>
-      <c r="C106" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D106" s="9"/>
+      <c r="C106" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
@@ -5021,14 +5077,14 @@
       <c r="H107" s="10"/>
     </row>
     <row r="108" ht="20.7" customHeight="1">
-      <c r="A108" t="s" s="14">
+      <c r="A108" t="s" s="4">
         <v>223</v>
       </c>
-      <c r="B108" t="s" s="14">
+      <c r="B108" t="s" s="4">
         <v>224</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>15</v>
+      <c r="C108" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -5037,14 +5093,14 @@
       <c r="H108" s="10"/>
     </row>
     <row r="109" ht="20.7" customHeight="1">
-      <c r="A109" t="s" s="4">
+      <c r="A109" t="s" s="14">
         <v>225</v>
       </c>
-      <c r="B109" t="s" s="4">
-        <v>224</v>
-      </c>
-      <c r="C109" t="s" s="8">
-        <v>25</v>
+      <c r="B109" t="s" s="14">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5052,35 +5108,35 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.35" customHeight="1">
-      <c r="A110" t="s" s="11">
+    <row r="110" ht="20.7" customHeight="1">
+      <c r="A110" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s" s="4">
         <v>226</v>
       </c>
-      <c r="B110" t="s" s="11">
-        <v>227</v>
-      </c>
-      <c r="C110" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D110" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="C110" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="12">
+    <row r="111" ht="20.35" customHeight="1">
+      <c r="A111" t="s" s="11">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="11">
         <v>229</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D111" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
@@ -5094,7 +5150,7 @@
         <v>231</v>
       </c>
       <c r="C112" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5102,11 +5158,11 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" t="s" s="13">
+    <row r="113" ht="20.05" customHeight="1">
+      <c r="A113" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="B113" t="s" s="13">
+      <c r="B113" t="s" s="12">
         <v>233</v>
       </c>
       <c r="C113" t="s" s="12">
@@ -5118,15 +5174,15 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.7" customHeight="1">
-      <c r="A114" t="s" s="4">
+    <row r="114" ht="20.35" customHeight="1">
+      <c r="A114" t="s" s="13">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="13">
         <v>235</v>
       </c>
-      <c r="C114" t="s" s="8">
-        <v>25</v>
+      <c r="C114" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5134,15 +5190,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.35" customHeight="1">
-      <c r="A115" t="s" s="11">
+    <row r="115" ht="20.7" customHeight="1">
+      <c r="A115" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="B115" t="s" s="11">
+      <c r="B115" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>43</v>
+      <c r="C115" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5150,18 +5206,18 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="12">
+    <row r="116" ht="20.35" customHeight="1">
+      <c r="A116" t="s" s="11">
         <v>238</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="11">
         <v>239</v>
       </c>
       <c r="C116" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D116" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
@@ -5176,23 +5232,25 @@
         <v>241</v>
       </c>
       <c r="C117" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D117" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.35" customHeight="1">
-      <c r="A118" t="s" s="13">
+    <row r="118" ht="20.05" customHeight="1">
+      <c r="A118" t="s" s="12">
         <v>242</v>
       </c>
-      <c r="B118" t="s" s="13">
+      <c r="B118" t="s" s="12">
         <v>243</v>
       </c>
       <c r="C118" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5200,15 +5258,15 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="4">
+    <row r="119" ht="20.35" customHeight="1">
+      <c r="A119" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="13">
         <v>245</v>
       </c>
-      <c r="C119" t="s" s="8">
-        <v>25</v>
+      <c r="C119" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5217,14 +5275,14 @@
       <c r="H119" s="10"/>
     </row>
     <row r="120" ht="20.7" customHeight="1">
-      <c r="A120" t="s" s="14">
+      <c r="A120" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="B120" t="s" s="14">
+      <c r="B120" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>74</v>
+      <c r="C120" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5233,14 +5291,14 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" ht="20.7" customHeight="1">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="14">
         <v>248</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="14">
         <v>249</v>
       </c>
-      <c r="C121" t="s" s="8">
-        <v>25</v>
+      <c r="C121" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5248,67 +5306,67 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.35" customHeight="1">
-      <c r="A122" t="s" s="11">
+    <row r="122" ht="20.7" customHeight="1">
+      <c r="A122" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="B122" t="s" s="11">
+      <c r="B122" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D122" s="9">
-        <v>0.0769230769230769</v>
-      </c>
+      <c r="C122" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="13">
+      <c r="A123" t="s" s="11">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="13">
+      <c r="B123" t="s" s="11">
         <v>253</v>
       </c>
       <c r="C123" t="s" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D123" s="9">
-        <v>0.58974358974359</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="4">
+    <row r="124" ht="20.35" customHeight="1">
+      <c r="A124" t="s" s="13">
         <v>254</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="13">
         <v>255</v>
       </c>
-      <c r="C124" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D124" s="9"/>
+      <c r="C124" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D124" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="11">
+    <row r="125" ht="20.7" customHeight="1">
+      <c r="A125" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="B125" t="s" s="11">
+      <c r="B125" t="s" s="4">
         <v>257</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>43</v>
+      <c r="C125" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5317,150 +5375,152 @@
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="13">
+      <c r="A126" t="s" s="11">
         <v>258</v>
       </c>
-      <c r="B126" t="s" s="13">
+      <c r="B126" t="s" s="11">
         <v>259</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D126" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="4">
+    <row r="127" ht="20.35" customHeight="1">
+      <c r="A127" t="s" s="13">
         <v>260</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="13">
         <v>261</v>
       </c>
-      <c r="C127" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D127" s="9"/>
+      <c r="C127" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D127" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="14">
+      <c r="A128" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="B128" t="s" s="14">
+      <c r="B128" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D128" s="10"/>
+      <c r="C128" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="14">
         <v>264</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="14">
         <v>265</v>
       </c>
-      <c r="C129" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D129" s="9"/>
+      <c r="C129" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D129" s="10"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.35" customHeight="1">
-      <c r="A130" t="s" s="11">
+    <row r="130" ht="20.7" customHeight="1">
+      <c r="A130" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="B130" t="s" s="11">
+      <c r="B130" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D130" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C130" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
     <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="13">
+      <c r="A131" t="s" s="11">
         <v>268</v>
       </c>
-      <c r="B131" t="s" s="13">
+      <c r="B131" t="s" s="11">
         <v>269</v>
       </c>
       <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D131" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.7" customHeight="1">
-      <c r="A132" t="s" s="4">
+    <row r="132" ht="20.35" customHeight="1">
+      <c r="A132" t="s" s="13">
         <v>270</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="13">
         <v>271</v>
       </c>
-      <c r="C132" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D132" s="9"/>
+      <c r="C132" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D132" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.35" customHeight="1">
-      <c r="A133" t="s" s="11">
+    <row r="133" ht="20.7" customHeight="1">
+      <c r="A133" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="B133" t="s" s="11">
+      <c r="B133" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D133" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C133" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" t="s" s="12">
+    <row r="134" ht="20.35" customHeight="1">
+      <c r="A134" t="s" s="11">
         <v>274</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="11">
         <v>275</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D134" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
@@ -5474,9 +5534,9 @@
         <v>277</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D135" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
@@ -5490,7 +5550,7 @@
         <v>279</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5506,11 +5566,9 @@
         <v>281</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D137" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
@@ -5524,9 +5582,11 @@
         <v>283</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D138" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
@@ -5534,13 +5594,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B139" t="s" s="12">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5550,13 +5610,13 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s" s="12">
         <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5572,7 +5632,7 @@
         <v>288</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -5588,79 +5648,77 @@
         <v>290</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D142" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" ht="20.35" customHeight="1">
-      <c r="A143" t="s" s="13">
+    <row r="143" ht="20.05" customHeight="1">
+      <c r="A143" t="s" s="12">
         <v>291</v>
       </c>
-      <c r="B143" t="s" s="13">
+      <c r="B143" t="s" s="12">
         <v>292</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D143" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.7" customHeight="1">
-      <c r="A144" t="s" s="4">
+    <row r="144" ht="20.35" customHeight="1">
+      <c r="A144" t="s" s="13">
         <v>293</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="13">
         <v>294</v>
       </c>
-      <c r="C144" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D144" s="9"/>
+      <c r="C144" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.35" customHeight="1">
-      <c r="A145" t="s" s="11">
+    <row r="145" ht="20.7" customHeight="1">
+      <c r="A145" t="s" s="4">
         <v>295</v>
       </c>
-      <c r="B145" t="s" s="11">
+      <c r="B145" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="C145" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D145" s="10"/>
+      <c r="C145" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="12">
+    <row r="146" ht="20.35" customHeight="1">
+      <c r="A146" t="s" s="11">
         <v>297</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="11">
         <v>298</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D146" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D146" s="10"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
@@ -5674,9 +5732,11 @@
         <v>300</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D147" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D147" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
@@ -5690,10 +5750,10 @@
         <v>302</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D148" s="9">
-        <v>0.384615384615385</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -5708,10 +5768,10 @@
         <v>304</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D149" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -5720,45 +5780,47 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="12">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B150" t="s" s="12">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D150" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.35" customHeight="1">
-      <c r="A151" t="s" s="13">
-        <v>303</v>
-      </c>
-      <c r="B151" t="s" s="13">
-        <v>306</v>
+    <row r="151" ht="20.05" customHeight="1">
+      <c r="A151" t="s" s="12">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s" s="12">
+        <v>307</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D151" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D151" s="10"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" t="s" s="4">
-        <v>303</v>
-      </c>
-      <c r="B152" t="s" s="4">
-        <v>307</v>
-      </c>
-      <c r="C152" t="s" s="8">
-        <v>25</v>
+    <row r="152" ht="20.35" customHeight="1">
+      <c r="A152" t="s" s="13">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s" s="13">
+        <v>308</v>
+      </c>
+      <c r="C152" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -5766,15 +5828,15 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.35" customHeight="1">
-      <c r="A153" t="s" s="11">
-        <v>308</v>
-      </c>
-      <c r="B153" t="s" s="11">
+    <row r="153" ht="20.7" customHeight="1">
+      <c r="A153" t="s" s="4">
+        <v>305</v>
+      </c>
+      <c r="B153" t="s" s="4">
         <v>309</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>43</v>
+      <c r="C153" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -5782,19 +5844,17 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="12">
+    <row r="154" ht="20.35" customHeight="1">
+      <c r="A154" t="s" s="11">
         <v>310</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="11">
         <v>311</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D154" s="9">
-        <v>0.948717948717949</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
@@ -5808,10 +5868,10 @@
         <v>313</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D155" s="9">
-        <v>0.692307692307692</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -5826,9 +5886,11 @@
         <v>315</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D156" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D156" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
@@ -5842,10 +5904,10 @@
         <v>317</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D157" s="9">
-        <v>0.358974358974359</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -5860,10 +5922,10 @@
         <v>319</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D158" s="9">
-        <v>0.923076923076923</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -5878,9 +5940,11 @@
         <v>321</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D159" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D159" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
@@ -5894,10 +5958,10 @@
         <v>323</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D160" s="9">
-        <v>0.256410256410256</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -5914,7 +5978,9 @@
       <c r="C161" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D161" s="9"/>
+      <c r="D161" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
@@ -5928,7 +5994,7 @@
         <v>327</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -5944,23 +6010,25 @@
         <v>329</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D163" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D163" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" ht="20.35" customHeight="1">
-      <c r="A164" t="s" s="13">
+    <row r="164" ht="20.05" customHeight="1">
+      <c r="A164" t="s" s="12">
         <v>330</v>
       </c>
-      <c r="B164" t="s" s="13">
+      <c r="B164" t="s" s="12">
         <v>331</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -5968,15 +6036,15 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.7" customHeight="1">
-      <c r="A165" t="s" s="4">
+    <row r="165" ht="20.35" customHeight="1">
+      <c r="A165" t="s" s="13">
         <v>332</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="13">
         <v>333</v>
       </c>
-      <c r="C165" t="s" s="8">
-        <v>25</v>
+      <c r="C165" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5984,15 +6052,15 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.35" customHeight="1">
-      <c r="A166" t="s" s="11">
+    <row r="166" ht="20.7" customHeight="1">
+      <c r="A166" t="s" s="4">
         <v>334</v>
       </c>
-      <c r="B166" t="s" s="11">
+      <c r="B166" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>43</v>
+      <c r="C166" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -6000,17 +6068,17 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" ht="20.05" customHeight="1">
-      <c r="A167" t="s" s="12">
+    <row r="167" ht="20.35" customHeight="1">
+      <c r="A167" t="s" s="11">
         <v>336</v>
       </c>
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="11">
         <v>337</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D167" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -6024,11 +6092,9 @@
         <v>339</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D168" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D168" s="10"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -6042,10 +6108,10 @@
         <v>341</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D169" s="9">
-        <v>0.666666666666667</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -6060,10 +6126,10 @@
         <v>343</v>
       </c>
       <c r="C170" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D170" s="9">
-        <v>0.128205128205128</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -6077,9 +6143,11 @@
       <c r="B171" t="s" s="12">
         <v>345</v>
       </c>
-      <c r="C171" s="10"/>
+      <c r="C171" t="s" s="12">
+        <v>76</v>
+      </c>
       <c r="D171" s="9">
-        <v>0.512820512820513</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -6093,11 +6161,9 @@
       <c r="B172" t="s" s="12">
         <v>347</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C172" s="10"/>
       <c r="D172" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -6112,10 +6178,10 @@
         <v>349</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D173" s="9">
-        <v>0.615384615384615</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -6130,10 +6196,10 @@
         <v>351</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D174" s="9">
-        <v>0.538461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -6148,9 +6214,11 @@
         <v>353</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D175" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D175" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="10"/>
@@ -6164,7 +6232,7 @@
         <v>355</v>
       </c>
       <c r="C176" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -6172,15 +6240,15 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" ht="20.35" customHeight="1">
-      <c r="A177" t="s" s="13">
+    <row r="177" ht="20.05" customHeight="1">
+      <c r="A177" t="s" s="12">
         <v>356</v>
       </c>
-      <c r="B177" t="s" s="13">
+      <c r="B177" t="s" s="12">
         <v>357</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -6188,15 +6256,15 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" ht="20.7" customHeight="1">
-      <c r="A178" t="s" s="4">
+    <row r="178" ht="20.35" customHeight="1">
+      <c r="A178" t="s" s="13">
         <v>358</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="13">
         <v>359</v>
       </c>
-      <c r="C178" t="s" s="8">
-        <v>25</v>
+      <c r="C178" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -6204,15 +6272,15 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.35" customHeight="1">
-      <c r="A179" t="s" s="11">
+    <row r="179" ht="20.7" customHeight="1">
+      <c r="A179" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="B179" t="s" s="11">
+      <c r="B179" t="s" s="4">
         <v>361</v>
       </c>
-      <c r="C179" t="s" s="12">
-        <v>15</v>
+      <c r="C179" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -6220,18 +6288,18 @@
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" ht="20.05" customHeight="1">
-      <c r="A180" t="s" s="12">
+    <row r="180" ht="20.35" customHeight="1">
+      <c r="A180" t="s" s="11">
         <v>362</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="11">
         <v>363</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D180" s="9">
-        <v>0.333333333333333</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -6246,9 +6314,11 @@
         <v>365</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D181" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D181" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
@@ -6262,7 +6332,7 @@
         <v>367</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -6278,7 +6348,7 @@
         <v>369</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6296,9 +6366,7 @@
       <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
@@ -6312,10 +6380,10 @@
         <v>373</v>
       </c>
       <c r="C185" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D185" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -6330,91 +6398,93 @@
         <v>375</v>
       </c>
       <c r="C186" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D186" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D186" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.35" customHeight="1">
-      <c r="A187" t="s" s="13">
-        <v>374</v>
-      </c>
-      <c r="B187" t="s" s="13">
+    <row r="187" ht="20.05" customHeight="1">
+      <c r="A187" t="s" s="12">
         <v>376</v>
       </c>
+      <c r="B187" t="s" s="12">
+        <v>377</v>
+      </c>
       <c r="C187" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D187" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.7" customHeight="1">
-      <c r="A188" t="s" s="4">
-        <v>377</v>
-      </c>
-      <c r="B188" t="s" s="4">
+    <row r="188" ht="20.35" customHeight="1">
+      <c r="A188" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="B188" t="s" s="13">
         <v>378</v>
       </c>
-      <c r="C188" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D188" s="9"/>
+      <c r="C188" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D188" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="14">
+      <c r="A189" t="s" s="4">
         <v>379</v>
       </c>
-      <c r="B189" t="s" s="14">
+      <c r="B189" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D189" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C189" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
     <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="14">
         <v>381</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="14">
         <v>382</v>
       </c>
-      <c r="C190" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D190" s="9"/>
+      <c r="C190" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D190" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.35" customHeight="1">
-      <c r="A191" t="s" s="11">
+    <row r="191" ht="20.7" customHeight="1">
+      <c r="A191" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="B191" t="s" s="11">
+      <c r="B191" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>74</v>
+      <c r="C191" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6423,114 +6493,116 @@
       <c r="H191" s="10"/>
     </row>
     <row r="192" ht="20.35" customHeight="1">
-      <c r="A192" t="s" s="13">
+      <c r="A192" t="s" s="11">
         <v>385</v>
       </c>
-      <c r="B192" t="s" s="13">
+      <c r="B192" t="s" s="11">
         <v>386</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D192" s="9"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.7" customHeight="1">
-      <c r="A193" t="s" s="4">
+    <row r="193" ht="20.05" customHeight="1">
+      <c r="A193" t="s" s="12">
         <v>387</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>388</v>
       </c>
-      <c r="C193" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D193" s="9"/>
+      <c r="C193" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D193" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
     <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="11">
+      <c r="A194" t="s" s="13">
         <v>389</v>
       </c>
-      <c r="B194" t="s" s="11">
+      <c r="B194" t="s" s="13">
         <v>390</v>
       </c>
       <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.05" customHeight="1">
-      <c r="A195" t="s" s="12">
-        <v>389</v>
-      </c>
-      <c r="B195" t="s" s="12">
+    <row r="195" ht="20.7" customHeight="1">
+      <c r="A195" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D195" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="B195" t="s" s="4">
+        <v>392</v>
+      </c>
+      <c r="C195" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
     <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="13">
-        <v>392</v>
-      </c>
-      <c r="B196" t="s" s="13">
+      <c r="A196" t="s" s="11">
         <v>393</v>
       </c>
+      <c r="B196" t="s" s="11">
+        <v>394</v>
+      </c>
       <c r="C196" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D196" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D196" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="4">
-        <v>392</v>
-      </c>
-      <c r="B197" t="s" s="4">
-        <v>394</v>
-      </c>
-      <c r="C197" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D197" s="9"/>
+    <row r="197" ht="20.05" customHeight="1">
+      <c r="A197" t="s" s="12">
+        <v>393</v>
+      </c>
+      <c r="B197" t="s" s="12">
+        <v>395</v>
+      </c>
+      <c r="C197" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D197" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="14">
-        <v>395</v>
-      </c>
-      <c r="B198" t="s" s="14">
+    <row r="198" ht="20.35" customHeight="1">
+      <c r="A198" t="s" s="13">
         <v>396</v>
       </c>
+      <c r="B198" t="s" s="13">
+        <v>397</v>
+      </c>
       <c r="C198" t="s" s="12">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6540,13 +6612,13 @@
     </row>
     <row r="199" ht="20.7" customHeight="1">
       <c r="A199" t="s" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" t="s" s="4">
         <v>398</v>
       </c>
       <c r="C199" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -6562,11 +6634,9 @@
         <v>400</v>
       </c>
       <c r="C200" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D200" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
@@ -6588,83 +6658,83 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="4">
+    <row r="202" ht="20.35" customHeight="1">
+      <c r="A202" t="s" s="11">
         <v>403</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="11">
         <v>404</v>
       </c>
-      <c r="C202" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D202" s="9"/>
+      <c r="C202" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D202" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
     <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="11">
+      <c r="A203" t="s" s="13">
         <v>405</v>
       </c>
-      <c r="B203" t="s" s="11">
+      <c r="B203" t="s" s="13">
         <v>406</v>
       </c>
       <c r="C203" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D203" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D203" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="12">
+    <row r="204" ht="20.7" customHeight="1">
+      <c r="A204" t="s" s="4">
         <v>407</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D204" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C204" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.05" customHeight="1">
-      <c r="A205" t="s" s="12">
+    <row r="205" ht="20.7" customHeight="1">
+      <c r="A205" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="4">
         <v>410</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D205" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C205" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.05" customHeight="1">
-      <c r="A206" t="s" s="12">
+    <row r="206" ht="20.35" customHeight="1">
+      <c r="A206" t="s" s="11">
         <v>411</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="11">
         <v>412</v>
       </c>
       <c r="C206" t="s" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -6680,7 +6750,7 @@
         <v>414</v>
       </c>
       <c r="C207" t="s" s="12">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D207" s="9">
         <v>0.58974358974359</v>
@@ -6690,33 +6760,33 @@
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.35" customHeight="1">
-      <c r="A208" t="s" s="13">
+    <row r="208" ht="20.05" customHeight="1">
+      <c r="A208" t="s" s="12">
         <v>415</v>
       </c>
-      <c r="B208" t="s" s="13">
+      <c r="B208" t="s" s="12">
         <v>416</v>
       </c>
       <c r="C208" t="s" s="12">
         <v>27</v>
       </c>
       <c r="D208" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.7" customHeight="1">
-      <c r="A209" t="s" s="4">
+    <row r="209" ht="20.05" customHeight="1">
+      <c r="A209" t="s" s="12">
         <v>417</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>418</v>
       </c>
-      <c r="C209" t="s" s="8">
-        <v>25</v>
+      <c r="C209" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6724,18 +6794,18 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.35" customHeight="1">
-      <c r="A210" t="s" s="11">
+    <row r="210" ht="20.05" customHeight="1">
+      <c r="A210" t="s" s="12">
         <v>419</v>
       </c>
-      <c r="B210" t="s" s="11">
+      <c r="B210" t="s" s="12">
         <v>420</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D210" s="9">
-        <v>0.871794871794872</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -6750,7 +6820,7 @@
         <v>422</v>
       </c>
       <c r="C211" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D211" s="9">
         <v>0.717948717948718</v>
@@ -6768,7 +6838,7 @@
         <v>424</v>
       </c>
       <c r="C212" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -6776,33 +6846,37 @@
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.7" customHeight="1">
-      <c r="A213" t="s" s="4">
+    <row r="213" ht="20.35" customHeight="1">
+      <c r="A213" t="s" s="11">
         <v>425</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="11">
         <v>426</v>
       </c>
-      <c r="C213" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D213" s="9"/>
+      <c r="C213" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D213" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.7" customHeight="1">
-      <c r="A214" t="s" s="15">
+    <row r="214" ht="20.35" customHeight="1">
+      <c r="A214" t="s" s="13">
         <v>427</v>
       </c>
-      <c r="B214" t="s" s="15">
+      <c r="B214" t="s" s="13">
         <v>428</v>
       </c>
-      <c r="C214" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D214" s="9"/>
+      <c r="C214" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D214" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
@@ -6816,7 +6890,7 @@
         <v>430</v>
       </c>
       <c r="C215" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -6825,26 +6899,26 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="14">
+      <c r="A216" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="C216" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
     <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
+      <c r="A217" t="s" s="15">
         <v>433</v>
       </c>
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="15">
         <v>434</v>
       </c>
       <c r="C217" t="s" s="8">
@@ -6864,7 +6938,7 @@
         <v>436</v>
       </c>
       <c r="C218" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -6872,51 +6946,47 @@
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" t="s" s="11">
+    <row r="219" ht="20.7" customHeight="1">
+      <c r="A219" t="s" s="14">
         <v>437</v>
       </c>
-      <c r="B219" t="s" s="11">
+      <c r="B219" t="s" s="14">
         <v>438</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C219" s="10"/>
       <c r="D219" s="9">
-        <v>0.0769230769230769</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.05" customHeight="1">
-      <c r="A220" t="s" s="12">
+    <row r="220" ht="20.7" customHeight="1">
+      <c r="A220" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="C220" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D220" s="9">
-        <v>0.897435897435897</v>
-      </c>
+      <c r="C220" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.05" customHeight="1">
-      <c r="A221" t="s" s="12">
+    <row r="221" ht="20.7" customHeight="1">
+      <c r="A221" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>15</v>
+      <c r="C221" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6924,17 +6994,19 @@
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.05" customHeight="1">
-      <c r="A222" t="s" s="12">
+    <row r="222" ht="20.35" customHeight="1">
+      <c r="A222" t="s" s="11">
         <v>443</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="11">
         <v>444</v>
       </c>
       <c r="C222" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D222" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D222" s="9">
+        <v>0.0769230769230769</v>
+      </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
@@ -6948,143 +7020,147 @@
         <v>446</v>
       </c>
       <c r="C223" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D223" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D223" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.35" customHeight="1">
-      <c r="A224" t="s" s="13">
+    <row r="224" ht="20.05" customHeight="1">
+      <c r="A224" t="s" s="12">
         <v>447</v>
       </c>
-      <c r="B224" t="s" s="13">
+      <c r="B224" t="s" s="12">
         <v>448</v>
       </c>
       <c r="C224" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D224" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="4">
+    <row r="225" ht="20.05" customHeight="1">
+      <c r="A225" t="s" s="12">
         <v>449</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>450</v>
       </c>
-      <c r="C225" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D225" s="9"/>
+      <c r="C225" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D225" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="14">
+    <row r="226" ht="20.05" customHeight="1">
+      <c r="A226" t="s" s="12">
         <v>451</v>
       </c>
-      <c r="B226" t="s" s="14">
+      <c r="B226" t="s" s="12">
         <v>452</v>
       </c>
       <c r="C226" t="s" s="12">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D226" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.7" customHeight="1">
-      <c r="A227" t="s" s="4">
+    <row r="227" ht="20.05" customHeight="1">
+      <c r="A227" t="s" s="12">
         <v>453</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>454</v>
       </c>
-      <c r="C227" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D227" s="9"/>
+      <c r="C227" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D227" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
     <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="11">
+      <c r="A228" t="s" s="13">
         <v>455</v>
       </c>
-      <c r="B228" t="s" s="11">
+      <c r="B228" t="s" s="13">
         <v>456</v>
       </c>
       <c r="C228" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D228" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D228" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.05" customHeight="1">
-      <c r="A229" t="s" s="12">
+    <row r="229" ht="20.7" customHeight="1">
+      <c r="A229" t="s" s="4">
         <v>457</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="4">
         <v>458</v>
       </c>
-      <c r="C229" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D229" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="C229" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D229" s="9"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.05" customHeight="1">
-      <c r="A230" t="s" s="12">
+    <row r="230" ht="20.7" customHeight="1">
+      <c r="A230" t="s" s="14">
         <v>459</v>
       </c>
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="14">
         <v>460</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D230" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.35" customHeight="1">
-      <c r="A231" t="s" s="13">
+    <row r="231" ht="20.7" customHeight="1">
+      <c r="A231" t="s" s="4">
         <v>461</v>
       </c>
-      <c r="B231" t="s" s="13">
+      <c r="B231" t="s" s="4">
         <v>462</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>18</v>
+      <c r="C231" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -7092,15 +7168,15 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.7" customHeight="1">
-      <c r="A232" t="s" s="4">
+    <row r="232" ht="20.35" customHeight="1">
+      <c r="A232" t="s" s="11">
         <v>463</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="11">
         <v>464</v>
       </c>
-      <c r="C232" t="s" s="8">
-        <v>25</v>
+      <c r="C232" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -7108,47 +7184,51 @@
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.7" customHeight="1">
-      <c r="A233" t="s" s="4">
+    <row r="233" ht="20.05" customHeight="1">
+      <c r="A233" t="s" s="12">
         <v>465</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="C233" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D233" s="9"/>
+      <c r="C233" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D233" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.35" customHeight="1">
-      <c r="A234" t="s" s="11">
+    <row r="234" ht="20.05" customHeight="1">
+      <c r="A234" t="s" s="12">
         <v>467</v>
       </c>
-      <c r="B234" t="s" s="11">
+      <c r="B234" t="s" s="12">
         <v>468</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D234" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D234" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.05" customHeight="1">
-      <c r="A235" t="s" s="12">
+    <row r="235" ht="20.35" customHeight="1">
+      <c r="A235" t="s" s="13">
         <v>469</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="13">
         <v>470</v>
       </c>
       <c r="C235" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -7156,15 +7236,15 @@
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.05" customHeight="1">
-      <c r="A236" t="s" s="12">
+    <row r="236" ht="20.7" customHeight="1">
+      <c r="A236" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="4">
         <v>472</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>18</v>
+      <c r="C236" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -7172,35 +7252,35 @@
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.05" customHeight="1">
-      <c r="A237" t="s" s="12">
+    <row r="237" ht="20.7" customHeight="1">
+      <c r="A237" t="s" s="4">
         <v>473</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D237" s="9">
-        <v>0.435897435897436</v>
-      </c>
+      <c r="C237" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.05" customHeight="1">
-      <c r="A238" t="s" s="12">
+    <row r="238" ht="20.35" customHeight="1">
+      <c r="A238" t="s" s="11">
         <v>475</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="11">
         <v>476</v>
       </c>
       <c r="C238" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D238" s="9"/>
+      <c r="D238" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
@@ -7214,11 +7294,9 @@
         <v>478</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D239" s="9">
-        <v>0.974358974358974</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
@@ -7232,7 +7310,7 @@
         <v>480</v>
       </c>
       <c r="C240" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -7248,10 +7326,10 @@
         <v>482</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D241" s="9">
-        <v>0.461538461538462</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
@@ -7266,9 +7344,9 @@
         <v>484</v>
       </c>
       <c r="C242" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D242" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
@@ -7282,10 +7360,10 @@
         <v>486</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D243" s="9">
-        <v>0.487179487179487</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
@@ -7300,125 +7378,129 @@
         <v>488</v>
       </c>
       <c r="C244" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D244" s="9">
-        <v>0.692307692307692</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.35" customHeight="1">
-      <c r="A245" t="s" s="13">
+    <row r="245" ht="20.05" customHeight="1">
+      <c r="A245" t="s" s="12">
         <v>489</v>
       </c>
-      <c r="B245" t="s" s="13">
+      <c r="B245" t="s" s="12">
         <v>490</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D245" s="9">
-        <v>0.179487179487179</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246" ht="20.7" customHeight="1">
-      <c r="A246" t="s" s="4">
+    <row r="246" ht="20.05" customHeight="1">
+      <c r="A246" t="s" s="12">
         <v>491</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>492</v>
       </c>
-      <c r="C246" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D246" s="9"/>
+      <c r="C246" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D246" s="10"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" ht="20.7" customHeight="1">
-      <c r="A247" t="s" s="4">
+    <row r="247" ht="20.05" customHeight="1">
+      <c r="A247" t="s" s="12">
         <v>493</v>
       </c>
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>494</v>
       </c>
-      <c r="C247" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D247" s="9"/>
+      <c r="C247" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D247" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" ht="20.35" customHeight="1">
-      <c r="A248" t="s" s="11">
+    <row r="248" ht="20.05" customHeight="1">
+      <c r="A248" t="s" s="12">
         <v>495</v>
       </c>
-      <c r="B248" t="s" s="11">
+      <c r="B248" t="s" s="12">
         <v>496</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D248" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D248" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" ht="20.05" customHeight="1">
-      <c r="A249" t="s" s="12">
+    <row r="249" ht="20.35" customHeight="1">
+      <c r="A249" t="s" s="13">
         <v>497</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="13">
         <v>498</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D249" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D249" s="9">
+        <v>0.179487179487179</v>
+      </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.05" customHeight="1">
-      <c r="A250" t="s" s="12">
+    <row r="250" ht="20.7" customHeight="1">
+      <c r="A250" t="s" s="4">
         <v>499</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="4">
         <v>500</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D250" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C250" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.05" customHeight="1">
-      <c r="A251" t="s" s="12">
+    <row r="251" ht="20.7" customHeight="1">
+      <c r="A251" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="4">
         <v>502</v>
       </c>
-      <c r="C251" t="s" s="12">
-        <v>43</v>
+      <c r="C251" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -7426,15 +7508,15 @@
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" ht="20.05" customHeight="1">
-      <c r="A252" t="s" s="12">
+    <row r="252" ht="20.35" customHeight="1">
+      <c r="A252" t="s" s="11">
         <v>503</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="11">
         <v>504</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -7450,11 +7532,9 @@
         <v>506</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D253" s="9">
-        <v>0.333333333333333</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D253" s="10"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
@@ -7468,10 +7548,10 @@
         <v>508</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D254" s="9">
-        <v>0.897435897435897</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -7486,11 +7566,9 @@
         <v>510</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D255" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
@@ -7504,7 +7582,7 @@
         <v>512</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7520,9 +7598,11 @@
         <v>514</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D257" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D257" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
@@ -7536,9 +7616,11 @@
         <v>516</v>
       </c>
       <c r="C258" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D258" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D258" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
@@ -7552,9 +7634,11 @@
         <v>518</v>
       </c>
       <c r="C259" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D259" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D259" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="10"/>
@@ -7568,21 +7652,19 @@
         <v>520</v>
       </c>
       <c r="C260" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D260" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.35" customHeight="1">
-      <c r="A261" t="s" s="13">
+    <row r="261" ht="20.05" customHeight="1">
+      <c r="A261" t="s" s="12">
         <v>521</v>
       </c>
-      <c r="B261" t="s" s="13">
+      <c r="B261" t="s" s="12">
         <v>522</v>
       </c>
       <c r="C261" t="s" s="12">
@@ -7594,15 +7676,15 @@
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262" ht="20.7" customHeight="1">
-      <c r="A262" t="s" s="4">
+    <row r="262" ht="20.05" customHeight="1">
+      <c r="A262" t="s" s="12">
         <v>523</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>524</v>
       </c>
-      <c r="C262" t="s" s="8">
-        <v>25</v>
+      <c r="C262" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -7610,19 +7692,17 @@
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" ht="20.35" customHeight="1">
-      <c r="A263" t="s" s="11">
+    <row r="263" ht="20.05" customHeight="1">
+      <c r="A263" t="s" s="12">
         <v>525</v>
       </c>
-      <c r="B263" t="s" s="11">
+      <c r="B263" t="s" s="12">
         <v>526</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D263" s="9">
-        <v>0.871794871794872</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
@@ -7636,25 +7716,25 @@
         <v>528</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D264" s="9">
-        <v>0.512820512820513</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.05" customHeight="1">
-      <c r="A265" t="s" s="12">
+    <row r="265" ht="20.35" customHeight="1">
+      <c r="A265" t="s" s="13">
         <v>529</v>
       </c>
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="13">
         <v>530</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7662,67 +7742,67 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.05" customHeight="1">
-      <c r="A266" t="s" s="12">
+    <row r="266" ht="20.7" customHeight="1">
+      <c r="A266" t="s" s="4">
         <v>531</v>
       </c>
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="4">
         <v>532</v>
       </c>
-      <c r="C266" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D266" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C266" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.05" customHeight="1">
-      <c r="A267" t="s" s="12">
+    <row r="267" ht="20.35" customHeight="1">
+      <c r="A267" t="s" s="11">
         <v>533</v>
       </c>
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="11">
         <v>534</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D267" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.35" customHeight="1">
-      <c r="A268" t="s" s="13">
+    <row r="268" ht="20.05" customHeight="1">
+      <c r="A268" t="s" s="12">
         <v>535</v>
       </c>
-      <c r="B268" t="s" s="13">
+      <c r="B268" t="s" s="12">
         <v>536</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D268" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D268" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" ht="20.7" customHeight="1">
-      <c r="A269" t="s" s="4">
+    <row r="269" ht="20.05" customHeight="1">
+      <c r="A269" t="s" s="12">
         <v>537</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>538</v>
       </c>
-      <c r="C269" t="s" s="8">
-        <v>25</v>
+      <c r="C269" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -7730,18 +7810,18 @@
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.35" customHeight="1">
-      <c r="A270" t="s" s="11">
+    <row r="270" ht="20.05" customHeight="1">
+      <c r="A270" t="s" s="12">
         <v>539</v>
       </c>
-      <c r="B270" t="s" s="11">
+      <c r="B270" t="s" s="12">
         <v>540</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D270" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
@@ -7756,41 +7836,41 @@
         <v>542</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D271" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D271" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.05" customHeight="1">
-      <c r="A272" t="s" s="12">
+    <row r="272" ht="20.35" customHeight="1">
+      <c r="A272" t="s" s="13">
         <v>543</v>
       </c>
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="13">
         <v>544</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D272" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.05" customHeight="1">
-      <c r="A273" t="s" s="12">
+    <row r="273" ht="20.7" customHeight="1">
+      <c r="A273" t="s" s="4">
         <v>545</v>
       </c>
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="4">
         <v>546</v>
       </c>
-      <c r="C273" t="s" s="12">
-        <v>43</v>
+      <c r="C273" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -7798,17 +7878,19 @@
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.05" customHeight="1">
-      <c r="A274" t="s" s="12">
+    <row r="274" ht="20.35" customHeight="1">
+      <c r="A274" t="s" s="11">
         <v>547</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="11">
         <v>548</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D274" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D274" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
@@ -7822,11 +7904,9 @@
         <v>550</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D275" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
@@ -7840,9 +7920,11 @@
         <v>552</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D276" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D276" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
@@ -7856,7 +7938,7 @@
         <v>554</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -7872,7 +7954,7 @@
         <v>556</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7888,9 +7970,11 @@
         <v>558</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D279" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D279" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
@@ -7920,7 +8004,7 @@
         <v>562</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -7930,13 +8014,13 @@
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="12">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B282" t="s" s="12">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C282" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -7946,63 +8030,65 @@
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="12">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B283" t="s" s="12">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C283" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D283" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D283" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" ht="20.35" customHeight="1">
-      <c r="A284" t="s" s="13">
-        <v>566</v>
-      </c>
-      <c r="B284" t="s" s="13">
+    <row r="284" ht="20.05" customHeight="1">
+      <c r="A284" t="s" s="12">
         <v>567</v>
       </c>
+      <c r="B284" t="s" s="12">
+        <v>568</v>
+      </c>
       <c r="C284" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D284" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" ht="20.7" customHeight="1">
-      <c r="A285" t="s" s="4">
-        <v>568</v>
-      </c>
-      <c r="B285" t="s" s="4">
+    <row r="285" ht="20.05" customHeight="1">
+      <c r="A285" t="s" s="12">
         <v>569</v>
       </c>
-      <c r="C285" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D285" s="9"/>
+      <c r="B285" t="s" s="12">
+        <v>570</v>
+      </c>
+      <c r="C285" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D285" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" ht="20.7" customHeight="1">
-      <c r="A286" t="s" s="4">
-        <v>570</v>
-      </c>
-      <c r="B286" t="s" s="4">
+    <row r="286" ht="20.05" customHeight="1">
+      <c r="A286" t="s" s="12">
+        <v>569</v>
+      </c>
+      <c r="B286" t="s" s="12">
         <v>571</v>
       </c>
-      <c r="C286" t="s" s="8">
-        <v>25</v>
+      <c r="C286" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -8010,15 +8096,15 @@
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" ht="20.7" customHeight="1">
-      <c r="A287" t="s" s="4">
+    <row r="287" ht="20.05" customHeight="1">
+      <c r="A287" t="s" s="12">
         <v>572</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>573</v>
       </c>
-      <c r="C287" t="s" s="8">
-        <v>10</v>
+      <c r="C287" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -8027,188 +8113,186 @@
       <c r="H287" s="10"/>
     </row>
     <row r="288" ht="20.35" customHeight="1">
-      <c r="A288" t="s" s="11">
+      <c r="A288" t="s" s="13">
         <v>574</v>
       </c>
-      <c r="B288" t="s" s="11">
+      <c r="B288" t="s" s="13">
         <v>575</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D288" s="9">
-        <v>0.487179487179487</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.05" customHeight="1">
-      <c r="A289" t="s" s="12">
+    <row r="289" ht="20.7" customHeight="1">
+      <c r="A289" t="s" s="4">
         <v>576</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="4">
         <v>577</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D289" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="C289" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" ht="20.05" customHeight="1">
-      <c r="A290" t="s" s="12">
+    <row r="290" ht="20.7" customHeight="1">
+      <c r="A290" t="s" s="4">
         <v>578</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="4">
         <v>579</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D290" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C290" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.05" customHeight="1">
-      <c r="A291" t="s" s="12">
+    <row r="291" ht="20.7" customHeight="1">
+      <c r="A291" t="s" s="4">
         <v>580</v>
       </c>
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="4">
         <v>581</v>
       </c>
-      <c r="C291" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D291" s="9">
-        <v>0.948717948717949</v>
-      </c>
+      <c r="C291" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D291" s="9"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.05" customHeight="1">
-      <c r="A292" t="s" s="12">
+    <row r="292" ht="20.35" customHeight="1">
+      <c r="A292" t="s" s="11">
         <v>582</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="11">
         <v>583</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D292" s="9">
-        <v>0.564102564102564</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" ht="20.35" customHeight="1">
-      <c r="A293" t="s" s="13">
+    <row r="293" ht="20.05" customHeight="1">
+      <c r="A293" t="s" s="12">
         <v>584</v>
       </c>
-      <c r="B293" t="s" s="13">
+      <c r="B293" t="s" s="12">
         <v>585</v>
       </c>
       <c r="C293" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D293" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D293" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.7" customHeight="1">
-      <c r="A294" t="s" s="4">
+    <row r="294" ht="20.05" customHeight="1">
+      <c r="A294" t="s" s="12">
         <v>586</v>
       </c>
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>587</v>
       </c>
-      <c r="C294" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D294" s="9"/>
+      <c r="C294" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D294" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" t="s" s="4">
+    <row r="295" ht="20.05" customHeight="1">
+      <c r="A295" t="s" s="12">
         <v>588</v>
       </c>
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>589</v>
       </c>
-      <c r="C295" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D295" s="9"/>
+      <c r="C295" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D295" s="9">
+        <v>0.948717948717949</v>
+      </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.35" customHeight="1">
-      <c r="A296" t="s" s="11">
+    <row r="296" ht="20.05" customHeight="1">
+      <c r="A296" t="s" s="12">
         <v>590</v>
       </c>
-      <c r="B296" t="s" s="11">
+      <c r="B296" t="s" s="12">
         <v>591</v>
       </c>
       <c r="C296" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D296" s="9">
-        <v>0.58974358974359</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.05" customHeight="1">
-      <c r="A297" t="s" s="12">
+    <row r="297" ht="20.35" customHeight="1">
+      <c r="A297" t="s" s="13">
         <v>592</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="13">
         <v>593</v>
       </c>
       <c r="C297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D297" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.05" customHeight="1">
-      <c r="A298" t="s" s="12">
+    <row r="298" ht="20.7" customHeight="1">
+      <c r="A298" t="s" s="4">
         <v>594</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="4">
         <v>595</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>43</v>
+      <c r="C298" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -8216,35 +8300,35 @@
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.05" customHeight="1">
-      <c r="A299" t="s" s="12">
+    <row r="299" ht="20.7" customHeight="1">
+      <c r="A299" t="s" s="4">
         <v>596</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="4">
         <v>597</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D299" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="C299" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.05" customHeight="1">
-      <c r="A300" t="s" s="12">
+    <row r="300" ht="20.35" customHeight="1">
+      <c r="A300" t="s" s="11">
         <v>598</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="11">
         <v>599</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D300" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D300" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
@@ -8258,60 +8342,62 @@
         <v>601</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D301" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D301" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.35" customHeight="1">
-      <c r="A302" t="s" s="13">
+    <row r="302" ht="20.05" customHeight="1">
+      <c r="A302" t="s" s="12">
         <v>602</v>
       </c>
-      <c r="B302" t="s" s="13">
+      <c r="B302" t="s" s="12">
         <v>603</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D302" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.7" customHeight="1">
-      <c r="A303" t="s" s="4">
+    <row r="303" ht="20.05" customHeight="1">
+      <c r="A303" t="s" s="12">
         <v>604</v>
       </c>
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>605</v>
       </c>
-      <c r="C303" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D303" s="9"/>
+      <c r="C303" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D303" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.35" customHeight="1">
-      <c r="A304" t="s" s="11">
+    <row r="304" ht="20.05" customHeight="1">
+      <c r="A304" t="s" s="12">
         <v>606</v>
       </c>
-      <c r="B304" t="s" s="11">
+      <c r="B304" t="s" s="12">
         <v>607</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D304" s="9">
-        <v>0.923076923076923</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
@@ -8326,59 +8412,61 @@
         <v>609</v>
       </c>
       <c r="C305" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D305" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D305" s="10"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.05" customHeight="1">
-      <c r="A306" t="s" s="12">
+    <row r="306" ht="20.35" customHeight="1">
+      <c r="A306" t="s" s="13">
         <v>610</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="13">
         <v>611</v>
       </c>
       <c r="C306" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="D306" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D306" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.05" customHeight="1">
-      <c r="A307" t="s" s="12">
+    <row r="307" ht="20.7" customHeight="1">
+      <c r="A307" t="s" s="4">
         <v>612</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="4">
         <v>613</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D307" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C307" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" ht="20.05" customHeight="1">
-      <c r="A308" t="s" s="12">
+    <row r="308" ht="20.35" customHeight="1">
+      <c r="A308" t="s" s="11">
         <v>614</v>
       </c>
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="11">
         <v>615</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D308" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D308" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
@@ -8392,10 +8480,10 @@
         <v>617</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D309" s="9">
-        <v>0.820512820512821</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -8410,7 +8498,7 @@
         <v>619</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
@@ -8426,10 +8514,10 @@
         <v>621</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D311" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8444,7 +8532,7 @@
         <v>623</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -8453,15 +8541,17 @@
       <c r="H312" s="10"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" s="10"/>
+      <c r="A313" t="s" s="12">
+        <v>624</v>
+      </c>
       <c r="B313" t="s" s="12">
-        <v>26</v>
+        <v>625</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D313" s="9">
-        <v>0.717948717948718</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -8469,19 +8559,33 @@
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="9"/>
+      <c r="A314" t="s" s="12">
+        <v>626</v>
+      </c>
+      <c r="B314" t="s" s="12">
+        <v>627</v>
+      </c>
+      <c r="C314" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D314" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
+      <c r="A315" t="s" s="12">
+        <v>628</v>
+      </c>
+      <c r="B315" t="s" s="12">
+        <v>629</v>
+      </c>
+      <c r="C315" t="s" s="12">
+        <v>27</v>
+      </c>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
@@ -8489,19 +8593,33 @@
       <c r="H315" s="10"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
-      <c r="A316" s="10"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="9"/>
+      <c r="A316" t="s" s="12">
+        <v>630</v>
+      </c>
+      <c r="B316" t="s" s="12">
+        <v>631</v>
+      </c>
+      <c r="C316" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D316" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
-      <c r="A317" s="10"/>
-      <c r="B317" s="10"/>
-      <c r="C317" s="10"/>
+      <c r="A317" t="s" s="12">
+        <v>632</v>
+      </c>
+      <c r="B317" t="s" s="12">
+        <v>633</v>
+      </c>
+      <c r="C317" t="s" s="12">
+        <v>30</v>
+      </c>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
@@ -8510,9 +8628,15 @@
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" s="10"/>
-      <c r="B318" s="10"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="9"/>
+      <c r="B318" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="C318" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D318" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
   <si>
     <t>Surname</t>
   </si>
@@ -385,6 +385,9 @@
     <t>H180603W</t>
   </si>
   <si>
+    <t>H210672V</t>
+  </si>
+  <si>
     <t>Duri</t>
   </si>
   <si>
@@ -640,6 +643,12 @@
     <t>H200968H</t>
   </si>
   <si>
+    <t>Kamusasa</t>
+  </si>
+  <si>
+    <t>H190442A</t>
+  </si>
+  <si>
     <t>Kananji</t>
   </si>
   <si>
@@ -793,6 +802,9 @@
     <t>H210500E</t>
   </si>
   <si>
+    <t>H200969R</t>
+  </si>
+  <si>
     <t>Magodoro</t>
   </si>
   <si>
@@ -979,6 +991,12 @@
     <t>H210453R</t>
   </si>
   <si>
+    <t>Marowanidze</t>
+  </si>
+  <si>
+    <t>H190210A</t>
+  </si>
+  <si>
     <t>Marusho</t>
   </si>
   <si>
@@ -1450,6 +1468,9 @@
     <t>H210603F</t>
   </si>
   <si>
+    <t>H170147Z</t>
+  </si>
+  <si>
     <t>Muzenda</t>
   </si>
   <si>
@@ -1735,6 +1756,12 @@
     <t>H210257R</t>
   </si>
   <si>
+    <t>Soka</t>
+  </si>
+  <si>
+    <t>H200130X</t>
+  </si>
+  <si>
     <t>Svowa</t>
   </si>
   <si>
@@ -1847,6 +1874,12 @@
   </si>
   <si>
     <t>H210539A</t>
+  </si>
+  <si>
+    <t>Vhera</t>
+  </si>
+  <si>
+    <t>H190352M</t>
   </si>
   <si>
     <t>Vunganayi</t>
@@ -3242,7 +3275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H393"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3404,7 +3437,9 @@
       <c r="C9" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -3438,7 +3473,9 @@
       <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -3778,7 +3815,9 @@
       <c r="C31" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
@@ -3794,7 +3833,9 @@
       <c r="C32" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
@@ -3810,7 +3851,9 @@
       <c r="C33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
@@ -4170,7 +4213,9 @@
       <c r="C54" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
@@ -4186,7 +4231,9 @@
       <c r="C55" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4199,7 +4246,9 @@
       <c r="B56" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D56" s="9">
         <v>0.615384615384615</v>
       </c>
@@ -4210,16 +4259,16 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s" s="12">
         <v>124</v>
-      </c>
-      <c r="B57" t="s" s="12">
-        <v>125</v>
       </c>
       <c r="C57" t="s" s="12">
         <v>27</v>
       </c>
       <c r="D57" s="9">
-        <v>0.564102564102564</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -4228,15 +4277,17 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s" s="12">
         <v>126</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D58" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
@@ -4244,13 +4295,13 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="B59" t="s" s="12">
-        <v>128</v>
-      </c>
       <c r="C59" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4260,16 +4311,16 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="B60" t="s" s="12">
-        <v>130</v>
-      </c>
       <c r="C60" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D60" s="9">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -4278,16 +4329,16 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s" s="12">
         <v>131</v>
-      </c>
-      <c r="B61" t="s" s="12">
-        <v>132</v>
       </c>
       <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D61" s="9">
-        <v>0.717948717948718</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -4296,16 +4347,16 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="12">
-        <v>134</v>
-      </c>
       <c r="C62" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D62" s="9">
-        <v>0.871794871794872</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -4314,15 +4365,17 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="B63" t="s" s="12">
-        <v>136</v>
-      </c>
       <c r="C63" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D63" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
@@ -4330,13 +4383,13 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="B64" t="s" s="12">
-        <v>138</v>
-      </c>
       <c r="C64" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D64" s="9">
         <v>0.333333333333333</v>
@@ -4348,15 +4401,17 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="12">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s" s="12">
         <v>139</v>
-      </c>
-      <c r="B65" t="s" s="12">
-        <v>140</v>
       </c>
       <c r="C65" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
@@ -4364,85 +4419,87 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="12">
-        <v>142</v>
-      </c>
       <c r="C66" t="s" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D66" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.35" customHeight="1">
-      <c r="A67" t="s" s="13">
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" t="s" s="12">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s" s="12">
         <v>143</v>
-      </c>
-      <c r="B67" t="s" s="13">
-        <v>144</v>
       </c>
       <c r="C67" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D67" s="9">
-        <v>0.794871794871795</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.7" customHeight="1">
-      <c r="A68" t="s" s="4">
-        <v>143</v>
-      </c>
-      <c r="B68" t="s" s="4">
+    <row r="68" ht="20.35" customHeight="1">
+      <c r="A68" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s" s="13">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D68" s="9"/>
+      <c r="C68" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.35" customHeight="1">
-      <c r="A69" t="s" s="11">
+    <row r="69" ht="20.7" customHeight="1">
+      <c r="A69" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="B69" t="s" s="11">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D69" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C69" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="12">
+    <row r="70" ht="20.35" customHeight="1">
+      <c r="A70" t="s" s="11">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s" s="11">
         <v>148</v>
       </c>
-      <c r="B70" t="s" s="12">
-        <v>149</v>
-      </c>
       <c r="C70" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D70" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
@@ -4450,17 +4507,15 @@
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="12">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s" s="12">
         <v>150</v>
       </c>
-      <c r="B71" t="s" s="12">
-        <v>151</v>
-      </c>
       <c r="C71" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D71" s="9">
-        <v>0.564102564102564</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
@@ -4468,65 +4523,67 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s" s="12">
         <v>152</v>
       </c>
-      <c r="B72" t="s" s="12">
-        <v>153</v>
-      </c>
       <c r="C72" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D72" s="9">
-        <v>0.538461538461538</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.35" customHeight="1">
-      <c r="A73" t="s" s="13">
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" t="s" s="12">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="B73" t="s" s="13">
-        <v>155</v>
-      </c>
       <c r="C73" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D73" s="9">
-        <v>0.641025641025641</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.7" customHeight="1">
-      <c r="A74" t="s" s="4">
+    <row r="74" ht="20.35" customHeight="1">
+      <c r="A74" t="s" s="13">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s" s="13">
         <v>156</v>
       </c>
-      <c r="B74" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D74" s="9"/>
+      <c r="C74" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.35" customHeight="1">
-      <c r="A75" t="s" s="11">
+    <row r="75" ht="20.7" customHeight="1">
+      <c r="A75" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="B75" t="s" s="4">
         <v>158</v>
       </c>
-      <c r="B75" t="s" s="11">
-        <v>159</v>
-      </c>
-      <c r="C75" t="s" s="12">
-        <v>27</v>
+      <c r="C75" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4534,15 +4591,15 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="12">
+    <row r="76" ht="20.35" customHeight="1">
+      <c r="A76" t="s" s="11">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s" s="11">
         <v>160</v>
       </c>
-      <c r="B76" t="s" s="12">
-        <v>161</v>
-      </c>
       <c r="C76" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -4552,51 +4609,51 @@
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="12">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s" s="12">
         <v>162</v>
       </c>
-      <c r="B77" t="s" s="12">
-        <v>163</v>
-      </c>
       <c r="C77" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D77" s="9">
-        <v>0.794871794871795</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.35" customHeight="1">
-      <c r="A78" t="s" s="13">
+    <row r="78" ht="20.05" customHeight="1">
+      <c r="A78" t="s" s="12">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s" s="12">
         <v>164</v>
-      </c>
-      <c r="B78" t="s" s="13">
-        <v>165</v>
       </c>
       <c r="C78" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D78" s="9">
-        <v>0.487179487179487</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.7" customHeight="1">
-      <c r="A79" t="s" s="4">
+    <row r="79" ht="20.35" customHeight="1">
+      <c r="A79" t="s" s="13">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s" s="13">
         <v>166</v>
       </c>
-      <c r="B79" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D79" s="9"/>
+      <c r="C79" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
@@ -4604,13 +4661,13 @@
     </row>
     <row r="80" ht="20.7" customHeight="1">
       <c r="A80" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s" s="4">
         <v>168</v>
       </c>
-      <c r="B80" t="s" s="4">
-        <v>169</v>
-      </c>
       <c r="C80" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -4619,48 +4676,48 @@
       <c r="H80" s="10"/>
     </row>
     <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="14">
+      <c r="A81" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s" s="4">
         <v>170</v>
       </c>
-      <c r="B81" t="s" s="14">
-        <v>171</v>
-      </c>
-      <c r="C81" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D81" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C81" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
     <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s" s="14">
         <v>172</v>
       </c>
-      <c r="B82" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D82" s="9"/>
+      <c r="C82" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.35" customHeight="1">
-      <c r="A83" t="s" s="11">
+    <row r="83" ht="20.7" customHeight="1">
+      <c r="A83" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="B83" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="C83" t="s" s="12">
-        <v>30</v>
+      <c r="C83" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -4668,19 +4725,17 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="12">
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="11">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s" s="11">
         <v>176</v>
       </c>
-      <c r="B84" t="s" s="12">
-        <v>177</v>
-      </c>
       <c r="C84" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
@@ -4688,16 +4743,16 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="12">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s" s="12">
         <v>178</v>
-      </c>
-      <c r="B85" t="s" s="12">
-        <v>179</v>
       </c>
       <c r="C85" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D85" s="9">
-        <v>0.461538461538462</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -4706,86 +4761,86 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="12">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s" s="12">
         <v>180</v>
       </c>
-      <c r="B86" t="s" s="12">
-        <v>181</v>
-      </c>
       <c r="C86" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D86" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.35" customHeight="1">
-      <c r="A87" t="s" s="13">
-        <v>180</v>
-      </c>
-      <c r="B87" t="s" s="13">
+    <row r="87" ht="20.05" customHeight="1">
+      <c r="A87" t="s" s="12">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s" s="12">
         <v>182</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D87" s="9">
-        <v>0.564102564102564</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.7" customHeight="1">
-      <c r="A88" t="s" s="4">
+    <row r="88" ht="20.35" customHeight="1">
+      <c r="A88" t="s" s="13">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s" s="13">
         <v>183</v>
       </c>
-      <c r="B88" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="C88" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D88" s="9"/>
+      <c r="C88" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.35" customHeight="1">
-      <c r="A89" t="s" s="11">
+    <row r="89" ht="20.7" customHeight="1">
+      <c r="A89" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="B89" t="s" s="11">
-        <v>186</v>
-      </c>
-      <c r="C89" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D89" s="9">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="C89" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="12">
+    <row r="90" ht="20.35" customHeight="1">
+      <c r="A90" t="s" s="11">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s" s="11">
         <v>187</v>
       </c>
-      <c r="B90" t="s" s="12">
-        <v>188</v>
-      </c>
       <c r="C90" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D90" s="9">
-        <v>0.717948717948718</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -4794,47 +4849,49 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="12">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s" s="12">
         <v>189</v>
       </c>
-      <c r="B91" t="s" s="12">
-        <v>190</v>
-      </c>
       <c r="C91" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D91" s="9">
-        <v>0.205128205128205</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.35" customHeight="1">
-      <c r="A92" t="s" s="13">
+    <row r="92" ht="20.05" customHeight="1">
+      <c r="A92" t="s" s="12">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s" s="12">
         <v>191</v>
       </c>
-      <c r="B92" t="s" s="13">
-        <v>192</v>
-      </c>
       <c r="C92" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D92" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.7" customHeight="1">
-      <c r="A93" t="s" s="4">
+    <row r="93" ht="20.35" customHeight="1">
+      <c r="A93" t="s" s="13">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s" s="13">
         <v>193</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>25</v>
+      <c r="C93" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4843,14 +4900,14 @@
       <c r="H93" s="10"/>
     </row>
     <row r="94" ht="20.7" customHeight="1">
-      <c r="A94" t="s" s="14">
+      <c r="A94" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="B94" t="s" s="14">
-        <v>196</v>
-      </c>
-      <c r="C94" t="s" s="12">
-        <v>15</v>
+      <c r="C94" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4859,14 +4916,14 @@
       <c r="H94" s="10"/>
     </row>
     <row r="95" ht="20.7" customHeight="1">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="14">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s" s="14">
         <v>197</v>
       </c>
-      <c r="B95" t="s" s="4">
-        <v>198</v>
-      </c>
-      <c r="C95" t="s" s="8">
-        <v>25</v>
+      <c r="C95" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4876,10 +4933,10 @@
     </row>
     <row r="96" ht="20.7" customHeight="1">
       <c r="A96" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s" s="4">
         <v>199</v>
-      </c>
-      <c r="B96" t="s" s="4">
-        <v>200</v>
       </c>
       <c r="C96" t="s" s="8">
         <v>25</v>
@@ -4890,36 +4947,34 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.35" customHeight="1">
-      <c r="A97" t="s" s="11">
+    <row r="97" ht="20.7" customHeight="1">
+      <c r="A97" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s" s="4">
         <v>201</v>
       </c>
-      <c r="B97" t="s" s="11">
-        <v>202</v>
-      </c>
-      <c r="C97" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D97" s="9">
-        <v>0.820512820512821</v>
-      </c>
+      <c r="C97" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="12">
+    <row r="98" ht="20.35" customHeight="1">
+      <c r="A98" t="s" s="11">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="B98" t="s" s="12">
-        <v>204</v>
-      </c>
       <c r="C98" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D98" s="9">
-        <v>0.871794871794872</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -4928,79 +4983,81 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s" s="12">
         <v>205</v>
       </c>
-      <c r="B99" t="s" s="12">
-        <v>206</v>
-      </c>
       <c r="C99" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D99" s="9">
-        <v>0.564102564102564</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.35" customHeight="1">
-      <c r="A100" t="s" s="13">
+    <row r="100" ht="20.05" customHeight="1">
+      <c r="A100" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="B100" t="s" s="13">
-        <v>208</v>
-      </c>
-      <c r="C100" s="10"/>
+      <c r="C100" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D100" s="9">
-        <v>0.897435897435897</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.7" customHeight="1">
-      <c r="A101" t="s" s="4">
+    <row r="101" ht="20.05" customHeight="1">
+      <c r="A101" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="B101" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="C101" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
     <row r="102" ht="20.35" customHeight="1">
-      <c r="A102" t="s" s="11">
+      <c r="A102" t="s" s="13">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s" s="13">
         <v>211</v>
       </c>
-      <c r="B102" t="s" s="11">
-        <v>212</v>
-      </c>
-      <c r="C102" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="12">
+    <row r="103" ht="20.7" customHeight="1">
+      <c r="A103" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="B103" t="s" s="12">
-        <v>214</v>
-      </c>
-      <c r="C103" t="s" s="12">
-        <v>30</v>
+      <c r="C103" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -5008,19 +5065,17 @@
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="12">
+    <row r="104" ht="20.35" customHeight="1">
+      <c r="A104" t="s" s="11">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s" s="11">
         <v>215</v>
       </c>
-      <c r="B104" t="s" s="12">
-        <v>216</v>
-      </c>
       <c r="C104" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
@@ -5028,13 +5083,13 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s" s="12">
         <v>217</v>
       </c>
-      <c r="B105" t="s" s="12">
-        <v>218</v>
-      </c>
       <c r="C105" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -5042,33 +5097,33 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.35" customHeight="1">
-      <c r="A106" t="s" s="13">
+    <row r="106" ht="20.05" customHeight="1">
+      <c r="A106" t="s" s="12">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s" s="12">
         <v>219</v>
-      </c>
-      <c r="B106" t="s" s="13">
-        <v>220</v>
       </c>
       <c r="C106" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D106" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.7" customHeight="1">
-      <c r="A107" t="s" s="4">
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" t="s" s="12">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="B107" t="s" s="4">
-        <v>222</v>
-      </c>
-      <c r="C107" t="s" s="8">
-        <v>25</v>
+      <c r="C107" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -5076,31 +5131,33 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.7" customHeight="1">
-      <c r="A108" t="s" s="4">
+    <row r="108" ht="20.35" customHeight="1">
+      <c r="A108" t="s" s="13">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s" s="13">
         <v>223</v>
       </c>
-      <c r="B108" t="s" s="4">
-        <v>224</v>
-      </c>
-      <c r="C108" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D108" s="9"/>
+      <c r="C108" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
     <row r="109" ht="20.7" customHeight="1">
-      <c r="A109" t="s" s="14">
+      <c r="A109" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="B109" t="s" s="14">
-        <v>226</v>
-      </c>
-      <c r="C109" t="s" s="12">
-        <v>15</v>
+      <c r="C109" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5110,10 +5167,10 @@
     </row>
     <row r="110" ht="20.7" customHeight="1">
       <c r="A110" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s" s="4">
         <v>227</v>
-      </c>
-      <c r="B110" t="s" s="4">
-        <v>226</v>
       </c>
       <c r="C110" t="s" s="8">
         <v>25</v>
@@ -5124,33 +5181,31 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="11">
+    <row r="111" ht="20.7" customHeight="1">
+      <c r="A111" t="s" s="14">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="11">
+      <c r="B111" t="s" s="14">
         <v>229</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D111" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="12">
+    <row r="112" ht="20.7" customHeight="1">
+      <c r="A112" t="s" s="4">
         <v>230</v>
       </c>
-      <c r="B112" t="s" s="12">
-        <v>231</v>
-      </c>
-      <c r="C112" t="s" s="12">
-        <v>15</v>
+      <c r="B112" t="s" s="4">
+        <v>229</v>
+      </c>
+      <c r="C112" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5158,31 +5213,33 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="12">
+    <row r="113" ht="20.35" customHeight="1">
+      <c r="A113" t="s" s="11">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s" s="11">
         <v>232</v>
       </c>
-      <c r="B113" t="s" s="12">
-        <v>233</v>
-      </c>
       <c r="C113" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D113" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.35" customHeight="1">
-      <c r="A114" t="s" s="13">
+    <row r="114" ht="20.05" customHeight="1">
+      <c r="A114" t="s" s="12">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s" s="12">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="13">
-        <v>235</v>
-      </c>
       <c r="C114" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5190,15 +5247,15 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.7" customHeight="1">
-      <c r="A115" t="s" s="4">
+    <row r="115" ht="20.05" customHeight="1">
+      <c r="A115" t="s" s="12">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s" s="12">
         <v>236</v>
       </c>
-      <c r="B115" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="C115" t="s" s="8">
-        <v>25</v>
+      <c r="C115" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5207,98 +5264,102 @@
       <c r="H115" s="10"/>
     </row>
     <row r="116" ht="20.35" customHeight="1">
-      <c r="A116" t="s" s="11">
+      <c r="A116" t="s" s="13">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s" s="13">
         <v>238</v>
       </c>
-      <c r="B116" t="s" s="11">
-        <v>239</v>
-      </c>
       <c r="C116" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D116" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="12">
+    <row r="117" ht="20.7" customHeight="1">
+      <c r="A117" t="s" s="4">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="B117" t="s" s="12">
-        <v>241</v>
-      </c>
-      <c r="C117" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D117" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="C117" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="12">
+    <row r="118" ht="20.35" customHeight="1">
+      <c r="A118" t="s" s="11">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s" s="11">
         <v>242</v>
-      </c>
-      <c r="B118" t="s" s="12">
-        <v>243</v>
       </c>
       <c r="C118" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D118" s="9"/>
+      <c r="D118" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.35" customHeight="1">
-      <c r="A119" t="s" s="13">
+    <row r="119" ht="20.05" customHeight="1">
+      <c r="A119" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s" s="12">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="13">
-        <v>245</v>
-      </c>
       <c r="C119" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D119" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D119" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.7" customHeight="1">
-      <c r="A120" t="s" s="4">
+    <row r="120" ht="20.05" customHeight="1">
+      <c r="A120" t="s" s="12">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s" s="12">
         <v>246</v>
       </c>
-      <c r="B120" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="C120" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D120" s="9"/>
+      <c r="C120" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D120" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.7" customHeight="1">
-      <c r="A121" t="s" s="14">
+    <row r="121" ht="20.35" customHeight="1">
+      <c r="A121" t="s" s="13">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s" s="13">
         <v>248</v>
       </c>
-      <c r="B121" t="s" s="14">
-        <v>249</v>
-      </c>
       <c r="C121" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5308,10 +5369,10 @@
     </row>
     <row r="122" ht="20.7" customHeight="1">
       <c r="A122" t="s" s="4">
+        <v>249</v>
+      </c>
+      <c r="B122" t="s" s="4">
         <v>250</v>
-      </c>
-      <c r="B122" t="s" s="4">
-        <v>251</v>
       </c>
       <c r="C122" t="s" s="8">
         <v>25</v>
@@ -5322,101 +5383,99 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="11">
+    <row r="123" ht="20.7" customHeight="1">
+      <c r="A123" t="s" s="14">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="11">
-        <v>253</v>
-      </c>
       <c r="C123" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D123" s="9">
-        <v>0.0769230769230769</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.35" customHeight="1">
-      <c r="A124" t="s" s="13">
+    <row r="124" ht="20.7" customHeight="1">
+      <c r="A124" t="s" s="4">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B124" t="s" s="13">
-        <v>255</v>
-      </c>
-      <c r="C124" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D124" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="C124" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.7" customHeight="1">
-      <c r="A125" t="s" s="4">
+    <row r="125" ht="20.35" customHeight="1">
+      <c r="A125" t="s" s="11">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s" s="11">
         <v>256</v>
       </c>
-      <c r="B125" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="C125" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D125" s="9"/>
+      <c r="C125" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D125" s="9">
+        <v>0.0769230769230769</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="11">
+      <c r="A126" t="s" s="13">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s" s="13">
         <v>258</v>
       </c>
-      <c r="B126" t="s" s="11">
-        <v>259</v>
-      </c>
       <c r="C126" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D126" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D126" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.35" customHeight="1">
-      <c r="A127" t="s" s="13">
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="B127" t="s" s="13">
-        <v>261</v>
-      </c>
-      <c r="C127" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D127" s="9">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="C127" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="11">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s" s="11">
         <v>262</v>
       </c>
-      <c r="B128" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C128" t="s" s="8">
-        <v>10</v>
+      <c r="C128" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5424,68 +5483,68 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" t="s" s="14">
-        <v>264</v>
-      </c>
-      <c r="B129" t="s" s="14">
-        <v>265</v>
-      </c>
-      <c r="C129" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D129" s="10"/>
+    <row r="129" ht="20.05" customHeight="1">
+      <c r="A129" t="s" s="12">
+        <v>261</v>
+      </c>
+      <c r="B129" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.7" customHeight="1">
-      <c r="A130" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="B130" t="s" s="4">
-        <v>267</v>
-      </c>
-      <c r="C130" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D130" s="9"/>
+    <row r="130" ht="20.35" customHeight="1">
+      <c r="A130" t="s" s="13">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s" s="13">
+        <v>265</v>
+      </c>
+      <c r="C130" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D130" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="11">
-        <v>268</v>
-      </c>
-      <c r="B131" t="s" s="11">
-        <v>269</v>
-      </c>
-      <c r="C131" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D131" s="9">
-        <v>0.538461538461538</v>
-      </c>
+    <row r="131" ht="20.7" customHeight="1">
+      <c r="A131" t="s" s="4">
+        <v>266</v>
+      </c>
+      <c r="B131" t="s" s="4">
+        <v>267</v>
+      </c>
+      <c r="C131" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.35" customHeight="1">
-      <c r="A132" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s" s="13">
-        <v>271</v>
+    <row r="132" ht="20.7" customHeight="1">
+      <c r="A132" t="s" s="14">
+        <v>268</v>
+      </c>
+      <c r="B132" t="s" s="14">
+        <v>269</v>
       </c>
       <c r="C132" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D132" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -5494,13 +5553,13 @@
     </row>
     <row r="133" ht="20.7" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C133" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5510,47 +5569,49 @@
     </row>
     <row r="134" ht="20.35" customHeight="1">
       <c r="A134" t="s" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D134" s="9">
-        <v>0.512820512820513</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="B135" t="s" s="12">
-        <v>277</v>
+    <row r="135" ht="20.35" customHeight="1">
+      <c r="A135" t="s" s="13">
+        <v>274</v>
+      </c>
+      <c r="B135" t="s" s="13">
+        <v>275</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D135" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D135" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" t="s" s="12">
-        <v>278</v>
-      </c>
-      <c r="B136" t="s" s="12">
-        <v>279</v>
-      </c>
-      <c r="C136" t="s" s="12">
-        <v>18</v>
+    <row r="136" ht="20.7" customHeight="1">
+      <c r="A136" t="s" s="4">
+        <v>276</v>
+      </c>
+      <c r="B136" t="s" s="4">
+        <v>277</v>
+      </c>
+      <c r="C136" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5558,17 +5619,19 @@
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" t="s" s="12">
-        <v>280</v>
-      </c>
-      <c r="B137" t="s" s="12">
-        <v>281</v>
+    <row r="137" ht="20.35" customHeight="1">
+      <c r="A137" t="s" s="11">
+        <v>278</v>
+      </c>
+      <c r="B137" t="s" s="11">
+        <v>279</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D137" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D137" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
@@ -5576,17 +5639,15 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="12">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B138" t="s" s="12">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D138" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D138" s="10"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
@@ -5594,13 +5655,13 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B139" t="s" s="12">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5613,10 +5674,10 @@
         <v>284</v>
       </c>
       <c r="B140" t="s" s="12">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5626,15 +5687,17 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="B141" t="s" s="12">
         <v>287</v>
       </c>
-      <c r="B141" t="s" s="12">
-        <v>288</v>
-      </c>
       <c r="C141" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D141" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D141" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
@@ -5642,13 +5705,13 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="12">
+        <v>288</v>
+      </c>
+      <c r="B142" t="s" s="12">
         <v>289</v>
       </c>
-      <c r="B142" t="s" s="12">
-        <v>290</v>
-      </c>
       <c r="C142" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -5658,121 +5721,119 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="12">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s" s="12">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D143" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" ht="20.35" customHeight="1">
-      <c r="A144" t="s" s="13">
-        <v>293</v>
-      </c>
-      <c r="B144" t="s" s="13">
-        <v>294</v>
+    <row r="144" ht="20.05" customHeight="1">
+      <c r="A144" t="s" s="12">
+        <v>291</v>
+      </c>
+      <c r="B144" t="s" s="12">
+        <v>292</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D144" s="9">
-        <v>0.487179487179487</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" ht="20.7" customHeight="1">
-      <c r="A145" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="B145" t="s" s="4">
-        <v>296</v>
-      </c>
-      <c r="C145" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D145" s="9"/>
+    <row r="145" ht="20.05" customHeight="1">
+      <c r="A145" t="s" s="12">
+        <v>293</v>
+      </c>
+      <c r="B145" t="s" s="12">
+        <v>294</v>
+      </c>
+      <c r="C145" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D145" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" ht="20.35" customHeight="1">
-      <c r="A146" t="s" s="11">
-        <v>297</v>
-      </c>
-      <c r="B146" t="s" s="11">
-        <v>298</v>
+    <row r="146" ht="20.05" customHeight="1">
+      <c r="A146" t="s" s="12">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s" s="12">
+        <v>296</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D146" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D146" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="12">
-        <v>299</v>
-      </c>
-      <c r="B147" t="s" s="12">
-        <v>300</v>
+    <row r="147" ht="20.35" customHeight="1">
+      <c r="A147" t="s" s="13">
+        <v>297</v>
+      </c>
+      <c r="B147" t="s" s="13">
+        <v>298</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D147" s="9">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.05" customHeight="1">
-      <c r="A148" t="s" s="12">
-        <v>301</v>
-      </c>
-      <c r="B148" t="s" s="12">
-        <v>302</v>
-      </c>
-      <c r="C148" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D148" s="9">
-        <v>0.435897435897436</v>
-      </c>
+    <row r="148" ht="20.7" customHeight="1">
+      <c r="A148" t="s" s="4">
+        <v>299</v>
+      </c>
+      <c r="B148" t="s" s="4">
+        <v>300</v>
+      </c>
+      <c r="C148" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" ht="20.05" customHeight="1">
-      <c r="A149" t="s" s="12">
-        <v>303</v>
-      </c>
-      <c r="B149" t="s" s="12">
-        <v>304</v>
+    <row r="149" ht="20.35" customHeight="1">
+      <c r="A149" t="s" s="11">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s" s="11">
+        <v>302</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D149" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D149" s="10"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
@@ -5780,16 +5841,16 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="12">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B150" t="s" s="12">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D150" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -5801,114 +5862,116 @@
         <v>305</v>
       </c>
       <c r="B151" t="s" s="12">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D151" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D151" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.35" customHeight="1">
-      <c r="A152" t="s" s="13">
-        <v>305</v>
-      </c>
-      <c r="B152" t="s" s="13">
+    <row r="152" ht="20.05" customHeight="1">
+      <c r="A152" t="s" s="12">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s" s="12">
         <v>308</v>
       </c>
       <c r="C152" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D152" s="9"/>
+      <c r="D152" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.7" customHeight="1">
-      <c r="A153" t="s" s="4">
-        <v>305</v>
-      </c>
-      <c r="B153" t="s" s="4">
+    <row r="153" ht="20.05" customHeight="1">
+      <c r="A153" t="s" s="12">
         <v>309</v>
       </c>
-      <c r="C153" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D153" s="9"/>
+      <c r="B153" t="s" s="12">
+        <v>310</v>
+      </c>
+      <c r="C153" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.35" customHeight="1">
-      <c r="A154" t="s" s="11">
-        <v>310</v>
-      </c>
-      <c r="B154" t="s" s="11">
+    <row r="154" ht="20.05" customHeight="1">
+      <c r="A154" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s" s="12">
         <v>311</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D154" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D154" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" ht="20.05" customHeight="1">
-      <c r="A155" t="s" s="12">
+    <row r="155" ht="20.35" customHeight="1">
+      <c r="A155" t="s" s="13">
+        <v>309</v>
+      </c>
+      <c r="B155" t="s" s="13">
         <v>312</v>
       </c>
-      <c r="B155" t="s" s="12">
-        <v>313</v>
-      </c>
       <c r="C155" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D155" s="9">
-        <v>0.948717948717949</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" ht="20.05" customHeight="1">
-      <c r="A156" t="s" s="12">
-        <v>314</v>
-      </c>
-      <c r="B156" t="s" s="12">
-        <v>315</v>
-      </c>
-      <c r="C156" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D156" s="9">
-        <v>0.692307692307692</v>
-      </c>
+    <row r="156" ht="20.7" customHeight="1">
+      <c r="A156" t="s" s="4">
+        <v>309</v>
+      </c>
+      <c r="B156" t="s" s="4">
+        <v>313</v>
+      </c>
+      <c r="C156" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" ht="20.05" customHeight="1">
-      <c r="A157" t="s" s="12">
-        <v>316</v>
-      </c>
-      <c r="B157" t="s" s="12">
-        <v>317</v>
+    <row r="157" ht="20.35" customHeight="1">
+      <c r="A157" t="s" s="11">
+        <v>314</v>
+      </c>
+      <c r="B157" t="s" s="11">
+        <v>315</v>
       </c>
       <c r="C157" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D157" s="9">
-        <v>0.846153846153846</v>
-      </c>
+      <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
@@ -5916,16 +5979,16 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="12">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s" s="12">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C158" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D158" s="9">
-        <v>0.358974358974359</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -5934,16 +5997,16 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="12">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s" s="12">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D159" s="9">
-        <v>0.923076923076923</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -5952,16 +6015,16 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="12">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s" s="12">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C160" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D160" s="9">
-        <v>0.871794871794872</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -5970,16 +6033,16 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="12">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s" s="12">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D161" s="9">
-        <v>0.256410256410256</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -5988,15 +6051,17 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="12">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s" s="12">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D162" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D162" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
@@ -6004,16 +6069,16 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="12">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s" s="12">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D163" s="9">
-        <v>0.538461538461538</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -6022,45 +6087,49 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="12">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s" s="12">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D164" s="9"/>
+      <c r="D164" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" ht="20.35" customHeight="1">
-      <c r="A165" t="s" s="13">
-        <v>332</v>
-      </c>
-      <c r="B165" t="s" s="13">
-        <v>333</v>
+    <row r="165" ht="20.05" customHeight="1">
+      <c r="A165" t="s" s="12">
+        <v>330</v>
+      </c>
+      <c r="B165" t="s" s="12">
+        <v>331</v>
       </c>
       <c r="C165" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D165" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D165" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" ht="20.7" customHeight="1">
-      <c r="A166" t="s" s="4">
-        <v>334</v>
-      </c>
-      <c r="B166" t="s" s="4">
-        <v>335</v>
-      </c>
-      <c r="C166" t="s" s="8">
-        <v>25</v>
+    <row r="166" ht="20.05" customHeight="1">
+      <c r="A166" t="s" s="12">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s" s="12">
+        <v>333</v>
+      </c>
+      <c r="C166" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -6068,17 +6137,19 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" ht="20.35" customHeight="1">
-      <c r="A167" t="s" s="11">
-        <v>336</v>
-      </c>
-      <c r="B167" t="s" s="11">
-        <v>337</v>
+    <row r="167" ht="20.05" customHeight="1">
+      <c r="A167" t="s" s="12">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s" s="12">
+        <v>335</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D167" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D167" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -6086,69 +6157,63 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="12">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s" s="12">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D168" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" ht="20.05" customHeight="1">
-      <c r="A169" t="s" s="12">
-        <v>340</v>
-      </c>
-      <c r="B169" t="s" s="12">
-        <v>341</v>
+    <row r="169" ht="20.35" customHeight="1">
+      <c r="A169" t="s" s="13">
+        <v>338</v>
+      </c>
+      <c r="B169" t="s" s="13">
+        <v>339</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D169" s="9">
-        <v>0.538461538461538</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.05" customHeight="1">
-      <c r="A170" t="s" s="12">
-        <v>342</v>
-      </c>
-      <c r="B170" t="s" s="12">
-        <v>343</v>
-      </c>
-      <c r="C170" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D170" s="9">
-        <v>0.666666666666667</v>
-      </c>
+    <row r="170" ht="20.7" customHeight="1">
+      <c r="A170" t="s" s="4">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s" s="4">
+        <v>341</v>
+      </c>
+      <c r="C170" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.05" customHeight="1">
-      <c r="A171" t="s" s="12">
-        <v>344</v>
-      </c>
-      <c r="B171" t="s" s="12">
-        <v>345</v>
+    <row r="171" ht="20.35" customHeight="1">
+      <c r="A171" t="s" s="11">
+        <v>342</v>
+      </c>
+      <c r="B171" t="s" s="11">
+        <v>343</v>
       </c>
       <c r="C171" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D171" s="9">
-        <v>0.128205128205128</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
@@ -6156,15 +6221,15 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="12">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s" s="12">
-        <v>347</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C172" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D172" s="10"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
@@ -6172,16 +6237,16 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="12">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s" s="12">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D173" s="9">
-        <v>0.282051282051282</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -6190,16 +6255,16 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="12">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s" s="12">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D174" s="9">
-        <v>0.615384615384615</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -6208,16 +6273,16 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="12">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s" s="12">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D175" s="9">
-        <v>0.538461538461538</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -6226,15 +6291,15 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="12">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s" s="12">
-        <v>355</v>
-      </c>
-      <c r="C176" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D176" s="9"/>
+        <v>353</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
@@ -6242,65 +6307,69 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="12">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s" s="12">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D177" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D177" s="9">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" ht="20.35" customHeight="1">
-      <c r="A178" t="s" s="13">
-        <v>358</v>
-      </c>
-      <c r="B178" t="s" s="13">
-        <v>359</v>
+    <row r="178" ht="20.05" customHeight="1">
+      <c r="A178" t="s" s="12">
+        <v>356</v>
+      </c>
+      <c r="B178" t="s" s="12">
+        <v>357</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D178" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D178" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" ht="20.7" customHeight="1">
-      <c r="A179" t="s" s="4">
-        <v>360</v>
-      </c>
-      <c r="B179" t="s" s="4">
-        <v>361</v>
-      </c>
-      <c r="C179" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D179" s="9"/>
+    <row r="179" ht="20.05" customHeight="1">
+      <c r="A179" t="s" s="12">
+        <v>358</v>
+      </c>
+      <c r="B179" t="s" s="12">
+        <v>359</v>
+      </c>
+      <c r="C179" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D179" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" ht="20.35" customHeight="1">
-      <c r="A180" t="s" s="11">
-        <v>362</v>
-      </c>
-      <c r="B180" t="s" s="11">
-        <v>363</v>
+    <row r="180" ht="20.05" customHeight="1">
+      <c r="A180" t="s" s="12">
+        <v>360</v>
+      </c>
+      <c r="B180" t="s" s="12">
+        <v>361</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D180" s="9">
-        <v>0.820512820512821</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
@@ -6308,47 +6377,47 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="12">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s" s="12">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D181" s="9">
-        <v>0.333333333333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" ht="20.05" customHeight="1">
-      <c r="A182" t="s" s="12">
-        <v>366</v>
-      </c>
-      <c r="B182" t="s" s="12">
-        <v>367</v>
+    <row r="182" ht="20.35" customHeight="1">
+      <c r="A182" t="s" s="13">
+        <v>364</v>
+      </c>
+      <c r="B182" t="s" s="13">
+        <v>365</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D182" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D182" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.05" customHeight="1">
-      <c r="A183" t="s" s="12">
-        <v>368</v>
-      </c>
-      <c r="B183" t="s" s="12">
-        <v>369</v>
-      </c>
-      <c r="C183" t="s" s="12">
-        <v>27</v>
+    <row r="183" ht="20.7" customHeight="1">
+      <c r="A183" t="s" s="4">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="C183" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -6356,17 +6425,19 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.05" customHeight="1">
-      <c r="A184" t="s" s="12">
-        <v>370</v>
-      </c>
-      <c r="B184" t="s" s="12">
-        <v>371</v>
+    <row r="184" ht="20.35" customHeight="1">
+      <c r="A184" t="s" s="11">
+        <v>368</v>
+      </c>
+      <c r="B184" t="s" s="11">
+        <v>369</v>
       </c>
       <c r="C184" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D184" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D184" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
@@ -6374,16 +6445,16 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="12">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s" s="12">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C185" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D185" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -6392,17 +6463,15 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="12">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s" s="12">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C186" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D186" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
@@ -6410,81 +6479,83 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="12">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B187" t="s" s="12">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D187" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D187" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" ht="20.35" customHeight="1">
-      <c r="A188" t="s" s="13">
+    <row r="188" ht="20.05" customHeight="1">
+      <c r="A188" t="s" s="12">
         <v>376</v>
       </c>
-      <c r="B188" t="s" s="13">
-        <v>378</v>
+      <c r="B188" t="s" s="12">
+        <v>377</v>
       </c>
       <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" s="9">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="4">
+    <row r="189" ht="20.05" customHeight="1">
+      <c r="A189" t="s" s="12">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s" s="12">
         <v>379</v>
       </c>
-      <c r="B189" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="C189" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D189" s="9"/>
+      <c r="C189" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D189" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="14">
+    <row r="190" ht="20.05" customHeight="1">
+      <c r="A190" t="s" s="12">
+        <v>380</v>
+      </c>
+      <c r="B190" t="s" s="12">
         <v>381</v>
-      </c>
-      <c r="B190" t="s" s="14">
-        <v>382</v>
       </c>
       <c r="C190" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D190" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" t="s" s="4">
+    <row r="191" ht="20.05" customHeight="1">
+      <c r="A191" t="s" s="12">
+        <v>382</v>
+      </c>
+      <c r="B191" t="s" s="12">
         <v>383</v>
       </c>
-      <c r="B191" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="C191" t="s" s="8">
-        <v>25</v>
+      <c r="C191" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -6493,50 +6564,52 @@
       <c r="H191" s="10"/>
     </row>
     <row r="192" ht="20.35" customHeight="1">
-      <c r="A192" t="s" s="11">
-        <v>385</v>
-      </c>
-      <c r="B192" t="s" s="11">
-        <v>386</v>
-      </c>
-      <c r="C192" s="10"/>
+      <c r="A192" t="s" s="13">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s" s="13">
+        <v>384</v>
+      </c>
+      <c r="C192" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D192" s="9">
-        <v>0.461538461538462</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.05" customHeight="1">
-      <c r="A193" t="s" s="12">
-        <v>387</v>
-      </c>
-      <c r="B193" t="s" s="12">
-        <v>388</v>
-      </c>
-      <c r="C193" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D193" s="9">
-        <v>0.641025641025641</v>
-      </c>
+    <row r="193" ht="20.7" customHeight="1">
+      <c r="A193" t="s" s="4">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="C193" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="13">
-        <v>389</v>
-      </c>
-      <c r="B194" t="s" s="13">
-        <v>390</v>
+    <row r="194" ht="20.7" customHeight="1">
+      <c r="A194" t="s" s="14">
+        <v>387</v>
+      </c>
+      <c r="B194" t="s" s="14">
+        <v>388</v>
       </c>
       <c r="C194" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D194" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D194" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
@@ -6544,13 +6617,13 @@
     </row>
     <row r="195" ht="20.7" customHeight="1">
       <c r="A195" t="s" s="4">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B195" t="s" s="4">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C195" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -6560,16 +6633,14 @@
     </row>
     <row r="196" ht="20.35" customHeight="1">
       <c r="A196" t="s" s="11">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s" s="11">
-        <v>394</v>
-      </c>
-      <c r="C196" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C196" s="10"/>
       <c r="D196" s="9">
-        <v>0.58974358974359</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
@@ -6581,13 +6652,13 @@
         <v>393</v>
       </c>
       <c r="B197" t="s" s="12">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C197" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D197" s="9">
-        <v>0.41025641025641</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
@@ -6596,13 +6667,13 @@
     </row>
     <row r="198" ht="20.35" customHeight="1">
       <c r="A198" t="s" s="13">
+        <v>395</v>
+      </c>
+      <c r="B198" t="s" s="13">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="13">
-        <v>397</v>
-      </c>
       <c r="C198" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -6612,7 +6683,7 @@
     </row>
     <row r="199" ht="20.7" customHeight="1">
       <c r="A199" t="s" s="4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B199" t="s" s="4">
         <v>398</v>
@@ -6626,83 +6697,85 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="14">
+    <row r="200" ht="20.35" customHeight="1">
+      <c r="A200" t="s" s="11">
         <v>399</v>
       </c>
-      <c r="B200" t="s" s="14">
+      <c r="B200" t="s" s="11">
         <v>400</v>
       </c>
       <c r="C200" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D200" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D200" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.7" customHeight="1">
-      <c r="A201" t="s" s="4">
+    <row r="201" ht="20.05" customHeight="1">
+      <c r="A201" t="s" s="12">
+        <v>399</v>
+      </c>
+      <c r="B201" t="s" s="12">
         <v>401</v>
       </c>
-      <c r="B201" t="s" s="4">
-        <v>402</v>
-      </c>
-      <c r="C201" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D201" s="9"/>
+      <c r="C201" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D201" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
     <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="11">
+      <c r="A202" t="s" s="13">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s" s="13">
         <v>403</v>
-      </c>
-      <c r="B202" t="s" s="11">
-        <v>404</v>
       </c>
       <c r="C202" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D202" s="9">
-        <v>0.717948717948718</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="13">
-        <v>405</v>
-      </c>
-      <c r="B203" t="s" s="13">
-        <v>406</v>
-      </c>
-      <c r="C203" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D203" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+    <row r="203" ht="20.7" customHeight="1">
+      <c r="A203" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s" s="4">
+        <v>404</v>
+      </c>
+      <c r="C203" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
     <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="4">
-        <v>407</v>
-      </c>
-      <c r="B204" t="s" s="4">
-        <v>408</v>
-      </c>
-      <c r="C204" t="s" s="8">
-        <v>25</v>
+      <c r="A204" t="s" s="14">
+        <v>405</v>
+      </c>
+      <c r="B204" t="s" s="14">
+        <v>406</v>
+      </c>
+      <c r="C204" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -6712,13 +6785,13 @@
     </row>
     <row r="205" ht="20.7" customHeight="1">
       <c r="A205" t="s" s="4">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B205" t="s" s="4">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C205" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -6728,65 +6801,65 @@
     </row>
     <row r="206" ht="20.35" customHeight="1">
       <c r="A206" t="s" s="11">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s" s="11">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D206" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D206" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.05" customHeight="1">
-      <c r="A207" t="s" s="12">
-        <v>413</v>
-      </c>
-      <c r="B207" t="s" s="12">
-        <v>414</v>
+    <row r="207" ht="20.35" customHeight="1">
+      <c r="A207" t="s" s="13">
+        <v>411</v>
+      </c>
+      <c r="B207" t="s" s="13">
+        <v>412</v>
       </c>
       <c r="C207" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D207" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.05" customHeight="1">
-      <c r="A208" t="s" s="12">
-        <v>415</v>
-      </c>
-      <c r="B208" t="s" s="12">
-        <v>416</v>
-      </c>
-      <c r="C208" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D208" s="9">
-        <v>0.58974358974359</v>
-      </c>
+    <row r="208" ht="20.7" customHeight="1">
+      <c r="A208" t="s" s="4">
+        <v>413</v>
+      </c>
+      <c r="B208" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="C208" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.05" customHeight="1">
-      <c r="A209" t="s" s="12">
-        <v>417</v>
-      </c>
-      <c r="B209" t="s" s="12">
-        <v>418</v>
-      </c>
-      <c r="C209" t="s" s="12">
-        <v>45</v>
+    <row r="209" ht="20.7" customHeight="1">
+      <c r="A209" t="s" s="4">
+        <v>415</v>
+      </c>
+      <c r="B209" t="s" s="4">
+        <v>416</v>
+      </c>
+      <c r="C209" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -6794,105 +6867,107 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.05" customHeight="1">
-      <c r="A210" t="s" s="12">
-        <v>419</v>
-      </c>
-      <c r="B210" t="s" s="12">
-        <v>420</v>
+    <row r="210" ht="20.35" customHeight="1">
+      <c r="A210" t="s" s="11">
+        <v>417</v>
+      </c>
+      <c r="B210" t="s" s="11">
+        <v>418</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D210" s="9">
-        <v>0.58974358974359</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" t="s" s="13">
-        <v>421</v>
-      </c>
-      <c r="B211" t="s" s="13">
-        <v>422</v>
+    <row r="211" ht="20.05" customHeight="1">
+      <c r="A211" t="s" s="12">
+        <v>419</v>
+      </c>
+      <c r="B211" t="s" s="12">
+        <v>420</v>
       </c>
       <c r="C211" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D211" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.7" customHeight="1">
-      <c r="A212" t="s" s="4">
-        <v>423</v>
-      </c>
-      <c r="B212" t="s" s="4">
-        <v>424</v>
-      </c>
-      <c r="C212" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D212" s="9"/>
+    <row r="212" ht="20.05" customHeight="1">
+      <c r="A212" t="s" s="12">
+        <v>421</v>
+      </c>
+      <c r="B212" t="s" s="12">
+        <v>422</v>
+      </c>
+      <c r="C212" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D212" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.35" customHeight="1">
-      <c r="A213" t="s" s="11">
-        <v>425</v>
-      </c>
-      <c r="B213" t="s" s="11">
-        <v>426</v>
+    <row r="213" ht="20.05" customHeight="1">
+      <c r="A213" t="s" s="12">
+        <v>423</v>
+      </c>
+      <c r="B213" t="s" s="12">
+        <v>424</v>
       </c>
       <c r="C213" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D213" s="9">
-        <v>0.871794871794872</v>
-      </c>
+      <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.35" customHeight="1">
-      <c r="A214" t="s" s="13">
-        <v>427</v>
-      </c>
-      <c r="B214" t="s" s="13">
-        <v>428</v>
+    <row r="214" ht="20.05" customHeight="1">
+      <c r="A214" t="s" s="12">
+        <v>425</v>
+      </c>
+      <c r="B214" t="s" s="12">
+        <v>426</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D214" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.7" customHeight="1">
-      <c r="A215" t="s" s="4">
-        <v>429</v>
-      </c>
-      <c r="B215" t="s" s="4">
-        <v>430</v>
-      </c>
-      <c r="C215" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D215" s="9"/>
+    <row r="215" ht="20.35" customHeight="1">
+      <c r="A215" t="s" s="13">
+        <v>427</v>
+      </c>
+      <c r="B215" t="s" s="13">
+        <v>428</v>
+      </c>
+      <c r="C215" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D215" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
@@ -6900,13 +6975,13 @@
     </row>
     <row r="216" ht="20.7" customHeight="1">
       <c r="A216" t="s" s="4">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B216" t="s" s="4">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C216" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -6914,49 +6989,53 @@
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="15">
-        <v>433</v>
-      </c>
-      <c r="B217" t="s" s="15">
-        <v>434</v>
-      </c>
-      <c r="C217" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D217" s="9"/>
+    <row r="217" ht="20.35" customHeight="1">
+      <c r="A217" t="s" s="11">
+        <v>431</v>
+      </c>
+      <c r="B217" t="s" s="11">
+        <v>432</v>
+      </c>
+      <c r="C217" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D217" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.7" customHeight="1">
-      <c r="A218" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="B218" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="C218" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D218" s="9"/>
+    <row r="218" ht="20.35" customHeight="1">
+      <c r="A218" t="s" s="13">
+        <v>433</v>
+      </c>
+      <c r="B218" t="s" s="13">
+        <v>434</v>
+      </c>
+      <c r="C218" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D218" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
     <row r="219" ht="20.7" customHeight="1">
-      <c r="A219" t="s" s="14">
-        <v>437</v>
-      </c>
-      <c r="B219" t="s" s="14">
-        <v>438</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="9">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="A219" t="s" s="4">
+        <v>435</v>
+      </c>
+      <c r="B219" t="s" s="4">
+        <v>436</v>
+      </c>
+      <c r="C219" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
@@ -6964,13 +7043,13 @@
     </row>
     <row r="220" ht="20.7" customHeight="1">
       <c r="A220" t="s" s="4">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s" s="4">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C220" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -6979,14 +7058,14 @@
       <c r="H220" s="10"/>
     </row>
     <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="4">
-        <v>441</v>
-      </c>
-      <c r="B221" t="s" s="4">
-        <v>442</v>
+      <c r="A221" t="s" s="15">
+        <v>439</v>
+      </c>
+      <c r="B221" t="s" s="15">
+        <v>440</v>
       </c>
       <c r="C221" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6994,51 +7073,47 @@
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.35" customHeight="1">
-      <c r="A222" t="s" s="11">
-        <v>443</v>
-      </c>
-      <c r="B222" t="s" s="11">
-        <v>444</v>
-      </c>
-      <c r="C222" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D222" s="9">
-        <v>0.0769230769230769</v>
-      </c>
+    <row r="222" ht="20.7" customHeight="1">
+      <c r="A222" t="s" s="4">
+        <v>441</v>
+      </c>
+      <c r="B222" t="s" s="4">
+        <v>442</v>
+      </c>
+      <c r="C222" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.05" customHeight="1">
-      <c r="A223" t="s" s="12">
-        <v>445</v>
-      </c>
-      <c r="B223" t="s" s="12">
-        <v>446</v>
-      </c>
-      <c r="C223" t="s" s="12">
-        <v>18</v>
-      </c>
+    <row r="223" ht="20.7" customHeight="1">
+      <c r="A223" t="s" s="14">
+        <v>443</v>
+      </c>
+      <c r="B223" t="s" s="14">
+        <v>444</v>
+      </c>
+      <c r="C223" s="10"/>
       <c r="D223" s="9">
-        <v>0.897435897435897</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" ht="20.05" customHeight="1">
-      <c r="A224" t="s" s="12">
-        <v>447</v>
-      </c>
-      <c r="B224" t="s" s="12">
-        <v>448</v>
-      </c>
-      <c r="C224" t="s" s="12">
-        <v>15</v>
+    <row r="224" ht="20.7" customHeight="1">
+      <c r="A224" t="s" s="4">
+        <v>445</v>
+      </c>
+      <c r="B224" t="s" s="4">
+        <v>446</v>
+      </c>
+      <c r="C224" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -7046,36 +7121,34 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.05" customHeight="1">
-      <c r="A225" t="s" s="12">
-        <v>449</v>
-      </c>
-      <c r="B225" t="s" s="12">
-        <v>450</v>
-      </c>
-      <c r="C225" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D225" s="9">
-        <v>0.846153846153846</v>
-      </c>
+    <row r="225" ht="20.7" customHeight="1">
+      <c r="A225" t="s" s="4">
+        <v>447</v>
+      </c>
+      <c r="B225" t="s" s="4">
+        <v>448</v>
+      </c>
+      <c r="C225" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.05" customHeight="1">
-      <c r="A226" t="s" s="12">
-        <v>451</v>
-      </c>
-      <c r="B226" t="s" s="12">
-        <v>452</v>
+    <row r="226" ht="20.35" customHeight="1">
+      <c r="A226" t="s" s="11">
+        <v>449</v>
+      </c>
+      <c r="B226" t="s" s="11">
+        <v>450</v>
       </c>
       <c r="C226" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D226" s="9">
-        <v>0.58974358974359</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
@@ -7084,151 +7157,153 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="12">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s" s="12">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D227" s="9">
-        <v>0.820512820512821</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="13">
-        <v>455</v>
-      </c>
-      <c r="B228" t="s" s="13">
-        <v>456</v>
+    <row r="228" ht="20.05" customHeight="1">
+      <c r="A228" t="s" s="12">
+        <v>453</v>
+      </c>
+      <c r="B228" t="s" s="12">
+        <v>454</v>
       </c>
       <c r="C228" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D228" s="9">
-        <v>0.384615384615385</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.7" customHeight="1">
-      <c r="A229" t="s" s="4">
-        <v>457</v>
-      </c>
-      <c r="B229" t="s" s="4">
-        <v>458</v>
-      </c>
-      <c r="C229" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D229" s="9"/>
+    <row r="229" ht="20.05" customHeight="1">
+      <c r="A229" t="s" s="12">
+        <v>455</v>
+      </c>
+      <c r="B229" t="s" s="12">
+        <v>456</v>
+      </c>
+      <c r="C229" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D229" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.7" customHeight="1">
-      <c r="A230" t="s" s="14">
-        <v>459</v>
-      </c>
-      <c r="B230" t="s" s="14">
-        <v>460</v>
+    <row r="230" ht="20.05" customHeight="1">
+      <c r="A230" t="s" s="12">
+        <v>457</v>
+      </c>
+      <c r="B230" t="s" s="12">
+        <v>458</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D230" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.7" customHeight="1">
-      <c r="A231" t="s" s="4">
-        <v>461</v>
-      </c>
-      <c r="B231" t="s" s="4">
-        <v>462</v>
-      </c>
-      <c r="C231" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D231" s="9"/>
+    <row r="231" ht="20.05" customHeight="1">
+      <c r="A231" t="s" s="12">
+        <v>459</v>
+      </c>
+      <c r="B231" t="s" s="12">
+        <v>460</v>
+      </c>
+      <c r="C231" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D231" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
     <row r="232" ht="20.35" customHeight="1">
-      <c r="A232" t="s" s="11">
-        <v>463</v>
-      </c>
-      <c r="B232" t="s" s="11">
-        <v>464</v>
+      <c r="A232" t="s" s="13">
+        <v>461</v>
+      </c>
+      <c r="B232" t="s" s="13">
+        <v>462</v>
       </c>
       <c r="C232" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D232" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D232" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="12">
-        <v>465</v>
-      </c>
-      <c r="B233" t="s" s="12">
-        <v>466</v>
-      </c>
-      <c r="C233" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D233" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+    <row r="233" ht="20.7" customHeight="1">
+      <c r="A233" t="s" s="4">
+        <v>463</v>
+      </c>
+      <c r="B233" t="s" s="4">
+        <v>464</v>
+      </c>
+      <c r="C233" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="12">
-        <v>467</v>
-      </c>
-      <c r="B234" t="s" s="12">
-        <v>468</v>
+    <row r="234" ht="20.7" customHeight="1">
+      <c r="A234" t="s" s="14">
+        <v>465</v>
+      </c>
+      <c r="B234" t="s" s="14">
+        <v>466</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D234" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.35" customHeight="1">
-      <c r="A235" t="s" s="13">
-        <v>469</v>
-      </c>
-      <c r="B235" t="s" s="13">
-        <v>470</v>
-      </c>
-      <c r="C235" t="s" s="12">
-        <v>18</v>
+    <row r="235" ht="20.7" customHeight="1">
+      <c r="A235" t="s" s="4">
+        <v>467</v>
+      </c>
+      <c r="B235" t="s" s="4">
+        <v>468</v>
+      </c>
+      <c r="C235" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -7236,15 +7311,15 @@
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.7" customHeight="1">
-      <c r="A236" t="s" s="4">
-        <v>471</v>
-      </c>
-      <c r="B236" t="s" s="4">
-        <v>472</v>
-      </c>
-      <c r="C236" t="s" s="8">
-        <v>25</v>
+    <row r="236" ht="20.35" customHeight="1">
+      <c r="A236" t="s" s="11">
+        <v>469</v>
+      </c>
+      <c r="B236" t="s" s="11">
+        <v>470</v>
+      </c>
+      <c r="C236" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -7252,49 +7327,51 @@
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.7" customHeight="1">
-      <c r="A237" t="s" s="4">
-        <v>473</v>
-      </c>
-      <c r="B237" t="s" s="4">
-        <v>474</v>
-      </c>
-      <c r="C237" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D237" s="9"/>
+    <row r="237" ht="20.05" customHeight="1">
+      <c r="A237" t="s" s="12">
+        <v>471</v>
+      </c>
+      <c r="B237" t="s" s="12">
+        <v>472</v>
+      </c>
+      <c r="C237" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D237" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.35" customHeight="1">
-      <c r="A238" t="s" s="11">
-        <v>475</v>
-      </c>
-      <c r="B238" t="s" s="11">
-        <v>476</v>
+    <row r="238" ht="20.05" customHeight="1">
+      <c r="A238" t="s" s="12">
+        <v>473</v>
+      </c>
+      <c r="B238" t="s" s="12">
+        <v>474</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D238" s="9">
-        <v>0.384615384615385</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.05" customHeight="1">
-      <c r="A239" t="s" s="12">
-        <v>477</v>
-      </c>
-      <c r="B239" t="s" s="12">
-        <v>478</v>
+    <row r="239" ht="20.35" customHeight="1">
+      <c r="A239" t="s" s="13">
+        <v>475</v>
+      </c>
+      <c r="B239" t="s" s="13">
+        <v>476</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -7302,15 +7379,15 @@
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.05" customHeight="1">
-      <c r="A240" t="s" s="12">
-        <v>479</v>
-      </c>
-      <c r="B240" t="s" s="12">
-        <v>480</v>
-      </c>
-      <c r="C240" t="s" s="12">
-        <v>18</v>
+    <row r="240" ht="20.7" customHeight="1">
+      <c r="A240" t="s" s="4">
+        <v>477</v>
+      </c>
+      <c r="B240" t="s" s="4">
+        <v>478</v>
+      </c>
+      <c r="C240" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -7318,35 +7395,35 @@
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.05" customHeight="1">
-      <c r="A241" t="s" s="12">
-        <v>481</v>
-      </c>
-      <c r="B241" t="s" s="12">
-        <v>482</v>
-      </c>
-      <c r="C241" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D241" s="9">
-        <v>0.435897435897436</v>
-      </c>
+    <row r="241" ht="20.7" customHeight="1">
+      <c r="A241" t="s" s="4">
+        <v>479</v>
+      </c>
+      <c r="B241" t="s" s="4">
+        <v>480</v>
+      </c>
+      <c r="C241" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.05" customHeight="1">
-      <c r="A242" t="s" s="12">
-        <v>483</v>
-      </c>
-      <c r="B242" t="s" s="12">
-        <v>484</v>
+    <row r="242" ht="20.35" customHeight="1">
+      <c r="A242" t="s" s="11">
+        <v>481</v>
+      </c>
+      <c r="B242" t="s" s="11">
+        <v>482</v>
       </c>
       <c r="C242" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D242" s="9"/>
+      <c r="D242" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
@@ -7354,17 +7431,15 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="12">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B243" t="s" s="12">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D243" s="9">
-        <v>0.974358974358974</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
@@ -7372,16 +7447,16 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="12">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B244" t="s" s="12">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C244" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D244" s="9">
-        <v>0.58974358974359</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
@@ -7390,17 +7465,15 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="12">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s" s="12">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D245" s="9">
-        <v>0.461538461538462</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
@@ -7408,15 +7481,17 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s" s="12">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C246" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D246" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D246" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
@@ -7424,17 +7499,15 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s" s="12">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D247" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
@@ -7442,83 +7515,89 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="12">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B248" t="s" s="12">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D248" s="9">
-        <v>0.692307692307692</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" t="s" s="13">
-        <v>497</v>
-      </c>
-      <c r="B249" t="s" s="13">
-        <v>498</v>
+    <row r="249" ht="20.05" customHeight="1">
+      <c r="A249" t="s" s="12">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s" s="12">
+        <v>495</v>
       </c>
       <c r="C249" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D249" s="9">
-        <v>0.179487179487179</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.7" customHeight="1">
-      <c r="A250" t="s" s="4">
-        <v>499</v>
-      </c>
-      <c r="B250" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="C250" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D250" s="9"/>
+    <row r="250" ht="20.05" customHeight="1">
+      <c r="A250" t="s" s="12">
+        <v>496</v>
+      </c>
+      <c r="B250" t="s" s="12">
+        <v>497</v>
+      </c>
+      <c r="C250" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D250" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.7" customHeight="1">
-      <c r="A251" t="s" s="4">
-        <v>501</v>
-      </c>
-      <c r="B251" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="C251" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D251" s="9"/>
+    <row r="251" ht="20.05" customHeight="1">
+      <c r="A251" t="s" s="12">
+        <v>498</v>
+      </c>
+      <c r="B251" t="s" s="12">
+        <v>499</v>
+      </c>
+      <c r="C251" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D251" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" t="s" s="11">
-        <v>503</v>
-      </c>
-      <c r="B252" t="s" s="11">
-        <v>504</v>
+    <row r="252" ht="20.05" customHeight="1">
+      <c r="A252" t="s" s="12">
+        <v>500</v>
+      </c>
+      <c r="B252" t="s" s="12">
+        <v>501</v>
       </c>
       <c r="C252" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D252" s="9"/>
+      <c r="D252" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
@@ -7526,47 +7605,49 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B253" t="s" s="12">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D253" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D253" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
     </row>
-    <row r="254" ht="20.05" customHeight="1">
-      <c r="A254" t="s" s="12">
-        <v>507</v>
-      </c>
-      <c r="B254" t="s" s="12">
-        <v>508</v>
+    <row r="254" ht="20.35" customHeight="1">
+      <c r="A254" t="s" s="13">
+        <v>504</v>
+      </c>
+      <c r="B254" t="s" s="13">
+        <v>505</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D254" s="9">
-        <v>0.58974358974359</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.05" customHeight="1">
-      <c r="A255" t="s" s="12">
-        <v>509</v>
-      </c>
-      <c r="B255" t="s" s="12">
-        <v>510</v>
-      </c>
-      <c r="C255" t="s" s="12">
-        <v>45</v>
+    <row r="255" ht="20.7" customHeight="1">
+      <c r="A255" t="s" s="4">
+        <v>506</v>
+      </c>
+      <c r="B255" t="s" s="4">
+        <v>507</v>
+      </c>
+      <c r="C255" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -7574,15 +7655,15 @@
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.05" customHeight="1">
-      <c r="A256" t="s" s="12">
-        <v>511</v>
-      </c>
-      <c r="B256" t="s" s="12">
-        <v>512</v>
-      </c>
-      <c r="C256" t="s" s="12">
-        <v>27</v>
+    <row r="256" ht="20.7" customHeight="1">
+      <c r="A256" t="s" s="4">
+        <v>508</v>
+      </c>
+      <c r="B256" t="s" s="4">
+        <v>509</v>
+      </c>
+      <c r="C256" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -7590,18 +7671,18 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.05" customHeight="1">
-      <c r="A257" t="s" s="12">
-        <v>513</v>
-      </c>
-      <c r="B257" t="s" s="12">
-        <v>514</v>
+    <row r="257" ht="20.35" customHeight="1">
+      <c r="A257" t="s" s="11">
+        <v>510</v>
+      </c>
+      <c r="B257" t="s" s="11">
+        <v>511</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D257" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -7610,16 +7691,16 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="12">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B258" t="s" s="12">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C258" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D258" s="9">
-        <v>0.897435897435897</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
@@ -7628,16 +7709,16 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="12">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s" s="12">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C259" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D259" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
@@ -7646,15 +7727,17 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="12">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B260" t="s" s="12">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C260" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D260" s="9"/>
+      <c r="D260" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
@@ -7662,13 +7745,13 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="12">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B261" t="s" s="12">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -7678,15 +7761,17 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="12">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B262" t="s" s="12">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D262" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D262" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
@@ -7694,15 +7779,17 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="12">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B263" t="s" s="12">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D263" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D263" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
@@ -7710,31 +7797,31 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s" s="12">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D264" s="9">
-        <v>0.666666666666667</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.35" customHeight="1">
-      <c r="A265" t="s" s="13">
-        <v>529</v>
-      </c>
-      <c r="B265" t="s" s="13">
-        <v>530</v>
+    <row r="265" ht="20.05" customHeight="1">
+      <c r="A265" t="s" s="12">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s" s="12">
+        <v>527</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -7742,15 +7829,15 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.7" customHeight="1">
-      <c r="A266" t="s" s="4">
-        <v>531</v>
-      </c>
-      <c r="B266" t="s" s="4">
-        <v>532</v>
-      </c>
-      <c r="C266" t="s" s="8">
-        <v>25</v>
+    <row r="266" ht="20.05" customHeight="1">
+      <c r="A266" t="s" s="12">
+        <v>528</v>
+      </c>
+      <c r="B266" t="s" s="12">
+        <v>529</v>
+      </c>
+      <c r="C266" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7758,18 +7845,18 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.35" customHeight="1">
-      <c r="A267" t="s" s="11">
-        <v>533</v>
-      </c>
-      <c r="B267" t="s" s="11">
-        <v>534</v>
+    <row r="267" ht="20.05" customHeight="1">
+      <c r="A267" t="s" s="12">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s" s="12">
+        <v>531</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D267" s="9">
-        <v>0.871794871794872</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
@@ -7778,17 +7865,15 @@
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="12">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B268" t="s" s="12">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D268" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="10"/>
@@ -7796,101 +7881,101 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="12">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B269" t="s" s="12">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D269" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D269" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.05" customHeight="1">
-      <c r="A270" t="s" s="12">
-        <v>539</v>
-      </c>
-      <c r="B270" t="s" s="12">
-        <v>540</v>
+    <row r="270" ht="20.35" customHeight="1">
+      <c r="A270" t="s" s="13">
+        <v>536</v>
+      </c>
+      <c r="B270" t="s" s="13">
+        <v>537</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D270" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" ht="20.05" customHeight="1">
-      <c r="A271" t="s" s="12">
-        <v>541</v>
-      </c>
-      <c r="B271" t="s" s="12">
-        <v>542</v>
-      </c>
-      <c r="C271" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D271" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+    <row r="271" ht="20.7" customHeight="1">
+      <c r="A271" t="s" s="4">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s" s="4">
+        <v>539</v>
+      </c>
+      <c r="C271" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D271" s="9"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
     <row r="272" ht="20.35" customHeight="1">
-      <c r="A272" t="s" s="13">
-        <v>543</v>
-      </c>
-      <c r="B272" t="s" s="13">
-        <v>544</v>
+      <c r="A272" t="s" s="11">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s" s="11">
+        <v>541</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D272" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D272" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.7" customHeight="1">
-      <c r="A273" t="s" s="4">
-        <v>545</v>
-      </c>
-      <c r="B273" t="s" s="4">
-        <v>546</v>
-      </c>
-      <c r="C273" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D273" s="9"/>
+    <row r="273" ht="20.05" customHeight="1">
+      <c r="A273" t="s" s="12">
+        <v>542</v>
+      </c>
+      <c r="B273" t="s" s="12">
+        <v>543</v>
+      </c>
+      <c r="C273" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D273" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.35" customHeight="1">
-      <c r="A274" t="s" s="11">
-        <v>547</v>
-      </c>
-      <c r="B274" t="s" s="11">
-        <v>548</v>
+    <row r="274" ht="20.05" customHeight="1">
+      <c r="A274" t="s" s="12">
+        <v>544</v>
+      </c>
+      <c r="B274" t="s" s="12">
+        <v>545</v>
       </c>
       <c r="C274" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D274" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+      <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
@@ -7898,15 +7983,17 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="12">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B275" t="s" s="12">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C275" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D275" s="9"/>
+      <c r="D275" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
@@ -7914,28 +8001,28 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="12">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B276" t="s" s="12">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D276" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" ht="20.05" customHeight="1">
-      <c r="A277" t="s" s="12">
-        <v>553</v>
-      </c>
-      <c r="B277" t="s" s="12">
-        <v>554</v>
+    <row r="277" ht="20.35" customHeight="1">
+      <c r="A277" t="s" s="13">
+        <v>550</v>
+      </c>
+      <c r="B277" t="s" s="13">
+        <v>551</v>
       </c>
       <c r="C277" t="s" s="12">
         <v>45</v>
@@ -7946,15 +8033,15 @@
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" ht="20.05" customHeight="1">
-      <c r="A278" t="s" s="12">
-        <v>555</v>
-      </c>
-      <c r="B278" t="s" s="12">
-        <v>556</v>
-      </c>
-      <c r="C278" t="s" s="12">
-        <v>30</v>
+    <row r="278" ht="20.7" customHeight="1">
+      <c r="A278" t="s" s="4">
+        <v>552</v>
+      </c>
+      <c r="B278" t="s" s="4">
+        <v>553</v>
+      </c>
+      <c r="C278" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -7962,18 +8049,18 @@
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.05" customHeight="1">
-      <c r="A279" t="s" s="12">
-        <v>557</v>
-      </c>
-      <c r="B279" t="s" s="12">
-        <v>558</v>
+    <row r="279" ht="20.35" customHeight="1">
+      <c r="A279" t="s" s="11">
+        <v>554</v>
+      </c>
+      <c r="B279" t="s" s="11">
+        <v>555</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D279" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
@@ -7982,15 +8069,17 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="12">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B280" t="s" s="12">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D280" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D280" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
@@ -7998,15 +8087,17 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="12">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B281" t="s" s="12">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C281" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D281" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D281" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
@@ -8014,15 +8105,17 @@
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="12">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B282" t="s" s="12">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C282" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D282" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D282" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
@@ -8030,17 +8123,15 @@
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="12">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B283" t="s" s="12">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C283" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D283" s="9">
-        <v>0.333333333333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D283" s="9"/>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
@@ -8048,15 +8139,17 @@
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="12">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B284" t="s" s="12">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C284" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D284" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D284" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -8064,17 +8157,15 @@
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" t="s" s="12">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B285" t="s" s="12">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D285" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
@@ -8082,15 +8173,17 @@
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="12">
+        <v>568</v>
+      </c>
+      <c r="B286" t="s" s="12">
         <v>569</v>
       </c>
-      <c r="B286" t="s" s="12">
-        <v>571</v>
-      </c>
       <c r="C286" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D286" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D286" s="9">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -8098,47 +8191,49 @@
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="12">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B287" t="s" s="12">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D287" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D287" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" ht="20.35" customHeight="1">
-      <c r="A288" t="s" s="13">
-        <v>574</v>
-      </c>
-      <c r="B288" t="s" s="13">
-        <v>575</v>
+    <row r="288" ht="20.05" customHeight="1">
+      <c r="A288" t="s" s="12">
+        <v>572</v>
+      </c>
+      <c r="B288" t="s" s="12">
+        <v>573</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D288" s="9">
-        <v>0.384615384615385</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" ht="20.7" customHeight="1">
-      <c r="A289" t="s" s="4">
-        <v>576</v>
-      </c>
-      <c r="B289" t="s" s="4">
-        <v>577</v>
-      </c>
-      <c r="C289" t="s" s="8">
-        <v>25</v>
+    <row r="289" ht="20.05" customHeight="1">
+      <c r="A289" t="s" s="12">
+        <v>574</v>
+      </c>
+      <c r="B289" t="s" s="12">
+        <v>575</v>
+      </c>
+      <c r="C289" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -8146,51 +8241,53 @@
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" ht="20.7" customHeight="1">
-      <c r="A290" t="s" s="4">
-        <v>578</v>
-      </c>
-      <c r="B290" t="s" s="4">
-        <v>579</v>
-      </c>
-      <c r="C290" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D290" s="9"/>
+    <row r="290" ht="20.05" customHeight="1">
+      <c r="A290" t="s" s="12">
+        <v>576</v>
+      </c>
+      <c r="B290" t="s" s="12">
+        <v>577</v>
+      </c>
+      <c r="C290" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D290" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" ht="20.7" customHeight="1">
-      <c r="A291" t="s" s="4">
-        <v>580</v>
-      </c>
-      <c r="B291" t="s" s="4">
-        <v>581</v>
-      </c>
-      <c r="C291" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D291" s="9"/>
+    <row r="291" ht="20.05" customHeight="1">
+      <c r="A291" t="s" s="12">
+        <v>576</v>
+      </c>
+      <c r="B291" t="s" s="12">
+        <v>578</v>
+      </c>
+      <c r="C291" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D291" s="9">
+        <v>0.128205128205128</v>
+      </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" ht="20.35" customHeight="1">
-      <c r="A292" t="s" s="11">
-        <v>582</v>
-      </c>
-      <c r="B292" t="s" s="11">
-        <v>583</v>
+    <row r="292" ht="20.05" customHeight="1">
+      <c r="A292" t="s" s="12">
+        <v>579</v>
+      </c>
+      <c r="B292" t="s" s="12">
+        <v>580</v>
       </c>
       <c r="C292" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D292" s="9">
-        <v>0.487179487179487</v>
-      </c>
+      <c r="D292" s="9"/>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
@@ -8198,85 +8295,79 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="12">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B293" t="s" s="12">
-        <v>585</v>
-      </c>
-      <c r="C293" t="s" s="12">
-        <v>30</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C293" s="10"/>
       <c r="D293" s="9">
-        <v>0.717948717948718</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.05" customHeight="1">
-      <c r="A294" t="s" s="12">
-        <v>586</v>
-      </c>
-      <c r="B294" t="s" s="12">
-        <v>587</v>
+    <row r="294" ht="20.35" customHeight="1">
+      <c r="A294" t="s" s="13">
+        <v>583</v>
+      </c>
+      <c r="B294" t="s" s="13">
+        <v>584</v>
       </c>
       <c r="C294" t="s" s="12">
         <v>27</v>
       </c>
       <c r="D294" s="9">
-        <v>0.512820512820513</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.05" customHeight="1">
-      <c r="A295" t="s" s="12">
-        <v>588</v>
-      </c>
-      <c r="B295" t="s" s="12">
-        <v>589</v>
-      </c>
-      <c r="C295" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D295" s="9">
-        <v>0.948717948717949</v>
-      </c>
+    <row r="295" ht="20.7" customHeight="1">
+      <c r="A295" t="s" s="4">
+        <v>585</v>
+      </c>
+      <c r="B295" t="s" s="4">
+        <v>586</v>
+      </c>
+      <c r="C295" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.05" customHeight="1">
-      <c r="A296" t="s" s="12">
-        <v>590</v>
-      </c>
-      <c r="B296" t="s" s="12">
-        <v>591</v>
-      </c>
-      <c r="C296" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D296" s="9">
-        <v>0.564102564102564</v>
-      </c>
+    <row r="296" ht="20.7" customHeight="1">
+      <c r="A296" t="s" s="4">
+        <v>587</v>
+      </c>
+      <c r="B296" t="s" s="4">
+        <v>588</v>
+      </c>
+      <c r="C296" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.35" customHeight="1">
-      <c r="A297" t="s" s="13">
-        <v>592</v>
-      </c>
-      <c r="B297" t="s" s="13">
-        <v>593</v>
-      </c>
-      <c r="C297" t="s" s="12">
-        <v>15</v>
+    <row r="297" ht="20.7" customHeight="1">
+      <c r="A297" t="s" s="4">
+        <v>589</v>
+      </c>
+      <c r="B297" t="s" s="4">
+        <v>590</v>
+      </c>
+      <c r="C297" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -8284,50 +8375,54 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.7" customHeight="1">
-      <c r="A298" t="s" s="4">
-        <v>594</v>
-      </c>
-      <c r="B298" t="s" s="4">
-        <v>595</v>
-      </c>
-      <c r="C298" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D298" s="9"/>
+    <row r="298" ht="20.35" customHeight="1">
+      <c r="A298" t="s" s="11">
+        <v>591</v>
+      </c>
+      <c r="B298" t="s" s="11">
+        <v>592</v>
+      </c>
+      <c r="C298" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D298" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.7" customHeight="1">
-      <c r="A299" t="s" s="4">
-        <v>596</v>
-      </c>
-      <c r="B299" t="s" s="4">
-        <v>597</v>
-      </c>
-      <c r="C299" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D299" s="9"/>
+    <row r="299" ht="20.05" customHeight="1">
+      <c r="A299" t="s" s="12">
+        <v>593</v>
+      </c>
+      <c r="B299" t="s" s="12">
+        <v>594</v>
+      </c>
+      <c r="C299" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D299" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.35" customHeight="1">
-      <c r="A300" t="s" s="11">
-        <v>598</v>
-      </c>
-      <c r="B300" t="s" s="11">
-        <v>599</v>
+    <row r="300" ht="20.05" customHeight="1">
+      <c r="A300" t="s" s="12">
+        <v>595</v>
+      </c>
+      <c r="B300" t="s" s="12">
+        <v>596</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D300" s="9">
-        <v>0.58974358974359</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -8336,16 +8431,16 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B301" t="s" s="12">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D301" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -8354,119 +8449,117 @@
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="12">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B302" t="s" s="12">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D302" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D302" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
-        <v>604</v>
-      </c>
-      <c r="B303" t="s" s="12">
-        <v>605</v>
+    <row r="303" ht="20.35" customHeight="1">
+      <c r="A303" t="s" s="13">
+        <v>601</v>
+      </c>
+      <c r="B303" t="s" s="13">
+        <v>602</v>
       </c>
       <c r="C303" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D303" s="9">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" t="s" s="12">
-        <v>606</v>
-      </c>
-      <c r="B304" t="s" s="12">
-        <v>607</v>
-      </c>
-      <c r="C304" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D304" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+    <row r="304" ht="20.7" customHeight="1">
+      <c r="A304" t="s" s="4">
+        <v>603</v>
+      </c>
+      <c r="B304" t="s" s="4">
+        <v>604</v>
+      </c>
+      <c r="C304" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.05" customHeight="1">
-      <c r="A305" t="s" s="12">
-        <v>608</v>
-      </c>
-      <c r="B305" t="s" s="12">
-        <v>609</v>
-      </c>
-      <c r="C305" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D305" s="10"/>
+    <row r="305" ht="20.7" customHeight="1">
+      <c r="A305" t="s" s="4">
+        <v>605</v>
+      </c>
+      <c r="B305" t="s" s="4">
+        <v>606</v>
+      </c>
+      <c r="C305" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" t="s" s="13">
-        <v>610</v>
-      </c>
-      <c r="B306" t="s" s="13">
-        <v>611</v>
+      <c r="A306" t="s" s="11">
+        <v>607</v>
+      </c>
+      <c r="B306" t="s" s="11">
+        <v>608</v>
       </c>
       <c r="C306" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D306" s="9">
-        <v>0.666666666666667</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.7" customHeight="1">
-      <c r="A307" t="s" s="4">
-        <v>612</v>
-      </c>
-      <c r="B307" t="s" s="4">
-        <v>613</v>
-      </c>
-      <c r="C307" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D307" s="9"/>
+    <row r="307" ht="20.05" customHeight="1">
+      <c r="A307" t="s" s="12">
+        <v>609</v>
+      </c>
+      <c r="B307" t="s" s="12">
+        <v>610</v>
+      </c>
+      <c r="C307" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D307" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" ht="20.35" customHeight="1">
-      <c r="A308" t="s" s="11">
-        <v>614</v>
-      </c>
-      <c r="B308" t="s" s="11">
-        <v>615</v>
+    <row r="308" ht="20.05" customHeight="1">
+      <c r="A308" t="s" s="12">
+        <v>611</v>
+      </c>
+      <c r="B308" t="s" s="12">
+        <v>612</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D308" s="9">
-        <v>0.923076923076923</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
@@ -8474,16 +8567,16 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="12">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B309" t="s" s="12">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C309" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D309" s="9">
-        <v>0.333333333333333</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -8492,15 +8585,17 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="12">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B310" t="s" s="12">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C310" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D310" s="9"/>
+      <c r="D310" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
       <c r="G310" s="10"/>
@@ -8508,17 +8603,15 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="12">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B311" t="s" s="12">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D311" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D311" s="10"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="10"/>
@@ -8526,67 +8619,67 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="12">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B312" t="s" s="12">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D312" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D312" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
     </row>
-    <row r="313" ht="20.05" customHeight="1">
-      <c r="A313" t="s" s="12">
-        <v>624</v>
-      </c>
-      <c r="B313" t="s" s="12">
-        <v>625</v>
-      </c>
-      <c r="C313" t="s" s="12">
-        <v>45</v>
-      </c>
+    <row r="313" ht="20.35" customHeight="1">
+      <c r="A313" t="s" s="13">
+        <v>621</v>
+      </c>
+      <c r="B313" t="s" s="13">
+        <v>622</v>
+      </c>
+      <c r="C313" s="10"/>
       <c r="D313" s="9">
-        <v>0.512820512820513</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
     </row>
-    <row r="314" ht="20.05" customHeight="1">
-      <c r="A314" t="s" s="12">
-        <v>626</v>
-      </c>
-      <c r="B314" t="s" s="12">
-        <v>627</v>
-      </c>
-      <c r="C314" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D314" s="9">
-        <v>0.820512820512821</v>
-      </c>
+    <row r="314" ht="20.7" customHeight="1">
+      <c r="A314" t="s" s="4">
+        <v>623</v>
+      </c>
+      <c r="B314" t="s" s="4">
+        <v>624</v>
+      </c>
+      <c r="C314" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
     </row>
-    <row r="315" ht="20.05" customHeight="1">
-      <c r="A315" t="s" s="12">
-        <v>628</v>
-      </c>
-      <c r="B315" t="s" s="12">
-        <v>629</v>
+    <row r="315" ht="20.35" customHeight="1">
+      <c r="A315" t="s" s="11">
+        <v>625</v>
+      </c>
+      <c r="B315" t="s" s="11">
+        <v>626</v>
       </c>
       <c r="C315" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D315" s="9"/>
+      <c r="D315" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="10"/>
@@ -8594,16 +8687,16 @@
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" t="s" s="12">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B316" t="s" s="12">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C316" t="s" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D316" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
@@ -8612,13 +8705,13 @@
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="12">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B317" t="s" s="12">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C317" t="s" s="12">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
@@ -8627,15 +8720,17 @@
       <c r="H317" s="10"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
-      <c r="A318" s="10"/>
+      <c r="A318" t="s" s="12">
+        <v>631</v>
+      </c>
       <c r="B318" t="s" s="12">
-        <v>26</v>
+        <v>632</v>
       </c>
       <c r="C318" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D318" s="9">
-        <v>0.717948717948718</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
@@ -8643,9 +8738,15 @@
       <c r="H318" s="10"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
-      <c r="A319" s="10"/>
-      <c r="B319" s="10"/>
-      <c r="C319" s="10"/>
+      <c r="A319" t="s" s="12">
+        <v>633</v>
+      </c>
+      <c r="B319" t="s" s="12">
+        <v>634</v>
+      </c>
+      <c r="C319" t="s" s="12">
+        <v>45</v>
+      </c>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
@@ -8653,29 +8754,51 @@
       <c r="H319" s="10"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
-      <c r="A320" s="10"/>
-      <c r="B320" s="10"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="9"/>
+      <c r="A320" t="s" s="12">
+        <v>635</v>
+      </c>
+      <c r="B320" t="s" s="12">
+        <v>636</v>
+      </c>
+      <c r="C320" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D320" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
-      <c r="A321" s="10"/>
-      <c r="B321" s="10"/>
-      <c r="C321" s="10"/>
-      <c r="D321" s="9"/>
+      <c r="A321" t="s" s="12">
+        <v>637</v>
+      </c>
+      <c r="B321" t="s" s="12">
+        <v>638</v>
+      </c>
+      <c r="C321" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D321" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
       <c r="G321" s="10"/>
       <c r="H321" s="10"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
-      <c r="A322" s="10"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="10"/>
+      <c r="A322" t="s" s="12">
+        <v>639</v>
+      </c>
+      <c r="B322" t="s" s="12">
+        <v>640</v>
+      </c>
+      <c r="C322" t="s" s="12">
+        <v>27</v>
+      </c>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -8683,20 +8806,36 @@
       <c r="H322" s="10"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
-      <c r="A323" s="10"/>
-      <c r="B323" s="10"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="9"/>
+      <c r="A323" t="s" s="12">
+        <v>641</v>
+      </c>
+      <c r="B323" t="s" s="12">
+        <v>642</v>
+      </c>
+      <c r="C323" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D323" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
-      <c r="A324" s="10"/>
-      <c r="B324" s="10"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="9"/>
+      <c r="A324" t="s" s="12">
+        <v>643</v>
+      </c>
+      <c r="B324" t="s" s="12">
+        <v>644</v>
+      </c>
+      <c r="C324" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D324" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
       <c r="G324" s="10"/>
@@ -9382,16 +9521,6 @@
       <c r="G392" s="10"/>
       <c r="H392" s="10"/>
     </row>
-    <row r="393" ht="20.05" customHeight="1">
-      <c r="A393" s="10"/>
-      <c r="B393" s="10"/>
-      <c r="C393" s="10"/>
-      <c r="D393" s="9"/>
-      <c r="E393" s="9"/>
-      <c r="F393" s="9"/>
-      <c r="G393" s="10"/>
-      <c r="H393" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>Surname</t>
   </si>
@@ -643,6 +643,12 @@
     <t>H200968H</t>
   </si>
   <si>
+    <t>Kahuruva</t>
+  </si>
+  <si>
+    <t>H210707W</t>
+  </si>
+  <si>
     <t>Kamusasa</t>
   </si>
   <si>
@@ -697,15 +703,12 @@
     <t>H210203F</t>
   </si>
   <si>
-    <t>Kayinja</t>
+    <t>KAYINJA</t>
   </si>
   <si>
     <t>H210575F</t>
   </si>
   <si>
-    <t>KAYINJA</t>
-  </si>
-  <si>
     <t>Kazunga</t>
   </si>
   <si>
@@ -1529,6 +1532,12 @@
   </si>
   <si>
     <t>H210552H</t>
+  </si>
+  <si>
+    <t>Ngomanyi</t>
+  </si>
+  <si>
+    <t>H200958P</t>
   </si>
   <si>
     <t>Ngwenya</t>
@@ -3275,7 +3284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H392"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3323,7 +3332,9 @@
       <c r="C2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -3339,7 +3350,9 @@
       <c r="C3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>0.71875</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -3405,7 +3418,9 @@
       <c r="C7" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>0.78125</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -3421,7 +3436,9 @@
       <c r="C8" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>0.34375</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
@@ -3885,7 +3902,9 @@
       <c r="C35" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
@@ -4197,7 +4216,9 @@
       <c r="C53" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9">
+        <v>0.625</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
@@ -4481,7 +4502,9 @@
       <c r="C69" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="9">
+        <v>0.65625</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
@@ -4585,7 +4608,9 @@
       <c r="C75" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9">
+        <v>0.46875</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
@@ -4685,7 +4710,9 @@
       <c r="C81" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D81" s="9"/>
+      <c r="D81" s="9">
+        <v>0.75</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
@@ -4719,7 +4746,9 @@
       <c r="C83" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9">
+        <v>0.875</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
@@ -4823,7 +4852,9 @@
       <c r="C89" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D89" s="9"/>
+      <c r="D89" s="9">
+        <v>0.21875</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
@@ -4909,7 +4940,9 @@
       <c r="C94" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="9">
+        <v>0.375</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
@@ -4957,7 +4990,9 @@
       <c r="C97" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D97" s="9"/>
+      <c r="D97" s="9">
+        <v>0.53125</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
@@ -5033,63 +5068,67 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.35" customHeight="1">
-      <c r="A102" t="s" s="13">
+    <row r="102" ht="20.05" customHeight="1">
+      <c r="A102" t="s" s="12">
         <v>210</v>
       </c>
-      <c r="B102" t="s" s="13">
+      <c r="B102" t="s" s="12">
         <v>211</v>
       </c>
-      <c r="C102" s="10"/>
+      <c r="C102" t="s" s="12">
+        <v>25</v>
+      </c>
       <c r="D102" s="9">
-        <v>0.538461538461538</v>
+        <v>0.5625</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.7" customHeight="1">
-      <c r="A103" t="s" s="4">
+    <row r="103" ht="20.35" customHeight="1">
+      <c r="A103" t="s" s="13">
         <v>212</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="13">
         <v>213</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" ht="20.35" customHeight="1">
-      <c r="A104" t="s" s="11">
+    <row r="104" ht="20.7" customHeight="1">
+      <c r="A104" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="B104" t="s" s="11">
+      <c r="B104" t="s" s="4">
         <v>215</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D104" s="9"/>
+      <c r="C104" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0.09375</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="12">
+    <row r="105" ht="20.35" customHeight="1">
+      <c r="A105" t="s" s="11">
         <v>216</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="11">
         <v>217</v>
       </c>
       <c r="C105" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -5105,11 +5144,9 @@
         <v>219</v>
       </c>
       <c r="C106" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D106" s="9">
-        <v>0.717948717948718</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
@@ -5123,43 +5160,45 @@
         <v>221</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D107" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.35" customHeight="1">
-      <c r="A108" t="s" s="13">
+    <row r="108" ht="20.05" customHeight="1">
+      <c r="A108" t="s" s="12">
         <v>222</v>
       </c>
-      <c r="B108" t="s" s="13">
+      <c r="B108" t="s" s="12">
         <v>223</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.7" customHeight="1">
-      <c r="A109" t="s" s="4">
+    <row r="109" ht="20.35" customHeight="1">
+      <c r="A109" t="s" s="13">
         <v>224</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="13">
         <v>225</v>
       </c>
-      <c r="C109" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D109" s="9"/>
+      <c r="C109" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
@@ -5175,21 +5214,23 @@
       <c r="C110" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D110" s="9"/>
+      <c r="D110" s="9">
+        <v>0.03125</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
     <row r="111" ht="20.7" customHeight="1">
-      <c r="A111" t="s" s="14">
+      <c r="A111" t="s" s="4">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="14">
+      <c r="B111" t="s" s="4">
         <v>229</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>15</v>
+      <c r="C111" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -5202,12 +5243,14 @@
         <v>230</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D112" s="9"/>
+      <c r="D112" s="9">
+        <v>0.46875</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="10"/>
@@ -5215,10 +5258,10 @@
     </row>
     <row r="113" ht="20.35" customHeight="1">
       <c r="A113" t="s" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C113" t="s" s="12">
         <v>45</v>
@@ -5233,10 +5276,10 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="12">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s" s="12">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s" s="12">
         <v>15</v>
@@ -5249,10 +5292,10 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="12">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s" s="12">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s" s="12">
         <v>18</v>
@@ -5265,10 +5308,10 @@
     </row>
     <row r="116" ht="20.35" customHeight="1">
       <c r="A116" t="s" s="13">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s" s="13">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s" s="12">
         <v>18</v>
@@ -5283,15 +5326,17 @@
     </row>
     <row r="117" ht="20.7" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D117" s="9"/>
+      <c r="D117" s="9">
+        <v>0.65625</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
@@ -5299,10 +5344,10 @@
     </row>
     <row r="118" ht="20.35" customHeight="1">
       <c r="A118" t="s" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s" s="12">
         <v>45</v>
@@ -5317,10 +5362,10 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="12">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s" s="12">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s" s="12">
         <v>18</v>
@@ -5335,10 +5380,10 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="12">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s" s="12">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C120" t="s" s="12">
         <v>45</v>
@@ -5353,10 +5398,10 @@
     </row>
     <row r="121" ht="20.35" customHeight="1">
       <c r="A121" t="s" s="13">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B121" t="s" s="13">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s" s="12">
         <v>15</v>
@@ -5369,15 +5414,17 @@
     </row>
     <row r="122" ht="20.7" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D122" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D122" s="9">
+        <v>0.6875</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
@@ -5385,10 +5432,10 @@
     </row>
     <row r="123" ht="20.7" customHeight="1">
       <c r="A123" t="s" s="14">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s" s="14">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C123" t="s" s="12">
         <v>76</v>
@@ -5401,15 +5448,17 @@
     </row>
     <row r="124" ht="20.7" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C124" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D124" s="9"/>
+      <c r="D124" s="9">
+        <v>0.34375</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
@@ -5417,10 +5466,10 @@
     </row>
     <row r="125" ht="20.35" customHeight="1">
       <c r="A125" t="s" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B125" t="s" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s" s="12">
         <v>27</v>
@@ -5435,10 +5484,10 @@
     </row>
     <row r="126" ht="20.35" customHeight="1">
       <c r="A126" t="s" s="13">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B126" t="s" s="13">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s" s="12">
         <v>76</v>
@@ -5453,15 +5502,17 @@
     </row>
     <row r="127" ht="20.7" customHeight="1">
       <c r="A127" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D127" s="9"/>
+      <c r="D127" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
@@ -5469,10 +5520,10 @@
     </row>
     <row r="128" ht="20.35" customHeight="1">
       <c r="A128" t="s" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s" s="12">
         <v>45</v>
@@ -5485,10 +5536,10 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="12">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s" s="12">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="9">
@@ -5501,10 +5552,10 @@
     </row>
     <row r="130" ht="20.35" customHeight="1">
       <c r="A130" t="s" s="13">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B130" t="s" s="13">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s" s="12">
         <v>15</v>
@@ -5519,15 +5570,17 @@
     </row>
     <row r="131" ht="20.7" customHeight="1">
       <c r="A131" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C131" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D131" s="9"/>
+      <c r="D131" s="9">
+        <v>0.71875</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
@@ -5535,10 +5588,10 @@
     </row>
     <row r="132" ht="20.7" customHeight="1">
       <c r="A132" t="s" s="14">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s" s="14">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s" s="12">
         <v>27</v>
@@ -5553,15 +5606,17 @@
     </row>
     <row r="133" ht="20.7" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D133" s="9"/>
+      <c r="D133" s="9">
+        <v>0.84375</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
@@ -5569,10 +5624,10 @@
     </row>
     <row r="134" ht="20.35" customHeight="1">
       <c r="A134" t="s" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B134" t="s" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C134" t="s" s="12">
         <v>18</v>
@@ -5587,10 +5642,10 @@
     </row>
     <row r="135" ht="20.35" customHeight="1">
       <c r="A135" t="s" s="13">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s" s="13">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s" s="12">
         <v>18</v>
@@ -5605,15 +5660,17 @@
     </row>
     <row r="136" ht="20.7" customHeight="1">
       <c r="A136" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D136" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D136" s="9">
+        <v>0.8125</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
@@ -5621,10 +5678,10 @@
     </row>
     <row r="137" ht="20.35" customHeight="1">
       <c r="A137" t="s" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s" s="12">
         <v>45</v>
@@ -5639,10 +5696,10 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="12">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s" s="12">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s" s="12">
         <v>76</v>
@@ -5655,10 +5712,10 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B139" t="s" s="12">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C139" t="s" s="12">
         <v>18</v>
@@ -5671,10 +5728,10 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="12">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s" s="12">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
         <v>30</v>
@@ -5687,10 +5744,10 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="12">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B141" t="s" s="12">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s" s="12">
         <v>18</v>
@@ -5705,10 +5762,10 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="12">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B142" t="s" s="12">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s" s="12">
         <v>15</v>
@@ -5721,10 +5778,10 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="12">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B143" t="s" s="12">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C143" t="s" s="12">
         <v>45</v>
@@ -5737,10 +5794,10 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B144" t="s" s="12">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C144" t="s" s="12">
         <v>76</v>
@@ -5755,10 +5812,10 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="12">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B145" t="s" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s" s="12">
         <v>18</v>
@@ -5773,10 +5830,10 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s" s="12">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s" s="12">
         <v>45</v>
@@ -5791,10 +5848,10 @@
     </row>
     <row r="147" ht="20.35" customHeight="1">
       <c r="A147" t="s" s="13">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B147" t="s" s="13">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C147" t="s" s="12">
         <v>18</v>
@@ -5809,15 +5866,17 @@
     </row>
     <row r="148" ht="20.7" customHeight="1">
       <c r="A148" t="s" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D148" s="9"/>
+      <c r="D148" s="9">
+        <v>0.21875</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
@@ -5825,10 +5884,10 @@
     </row>
     <row r="149" ht="20.35" customHeight="1">
       <c r="A149" t="s" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s" s="12">
         <v>18</v>
@@ -5841,10 +5900,10 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="12">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s" s="12">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s" s="12">
         <v>45</v>
@@ -5859,10 +5918,10 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="12">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s" s="12">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s" s="12">
         <v>45</v>
@@ -5877,10 +5936,10 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="12">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s" s="12">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C152" t="s" s="12">
         <v>76</v>
@@ -5895,10 +5954,10 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s" s="12">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C153" t="s" s="12">
         <v>15</v>
@@ -5913,10 +5972,10 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B154" t="s" s="12">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C154" t="s" s="12">
         <v>27</v>
@@ -5931,10 +5990,10 @@
     </row>
     <row r="155" ht="20.35" customHeight="1">
       <c r="A155" t="s" s="13">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s" s="13">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s" s="12">
         <v>76</v>
@@ -5947,15 +6006,17 @@
     </row>
     <row r="156" ht="20.7" customHeight="1">
       <c r="A156" t="s" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="9">
+        <v>0.5</v>
+      </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
@@ -5963,10 +6024,10 @@
     </row>
     <row r="157" ht="20.35" customHeight="1">
       <c r="A157" t="s" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s" s="12">
         <v>45</v>
@@ -5979,10 +6040,10 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="12">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s" s="12">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s" s="12">
         <v>45</v>
@@ -5997,10 +6058,10 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="12">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B159" t="s" s="12">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s" s="12">
         <v>18</v>
@@ -6015,10 +6076,10 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="12">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B160" t="s" s="12">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C160" t="s" s="12">
         <v>45</v>
@@ -6033,10 +6094,10 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="12">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B161" t="s" s="12">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C161" t="s" s="12">
         <v>45</v>
@@ -6051,10 +6112,10 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="12">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B162" t="s" s="12">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C162" t="s" s="12">
         <v>45</v>
@@ -6069,10 +6130,10 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="12">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s" s="12">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C163" t="s" s="12">
         <v>45</v>
@@ -6087,10 +6148,10 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="12">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s" s="12">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C164" t="s" s="12">
         <v>45</v>
@@ -6105,10 +6166,10 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="12">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B165" t="s" s="12">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C165" t="s" s="12">
         <v>27</v>
@@ -6123,10 +6184,10 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="12">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B166" t="s" s="12">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C166" t="s" s="12">
         <v>27</v>
@@ -6139,10 +6200,10 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="12">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B167" t="s" s="12">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C167" t="s" s="12">
         <v>18</v>
@@ -6157,10 +6218,10 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="12">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s" s="12">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C168" t="s" s="12">
         <v>45</v>
@@ -6173,10 +6234,10 @@
     </row>
     <row r="169" ht="20.35" customHeight="1">
       <c r="A169" t="s" s="13">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B169" t="s" s="13">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C169" t="s" s="12">
         <v>30</v>
@@ -6189,15 +6250,17 @@
     </row>
     <row r="170" ht="20.7" customHeight="1">
       <c r="A170" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B170" t="s" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C170" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D170" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D170" s="9">
+        <v>0.78125</v>
+      </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
@@ -6205,10 +6268,10 @@
     </row>
     <row r="171" ht="20.35" customHeight="1">
       <c r="A171" t="s" s="11">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B171" t="s" s="11">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C171" t="s" s="12">
         <v>45</v>
@@ -6221,10 +6284,10 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="12">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B172" t="s" s="12">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C172" t="s" s="12">
         <v>18</v>
@@ -6237,10 +6300,10 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="12">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B173" t="s" s="12">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C173" t="s" s="12">
         <v>76</v>
@@ -6255,10 +6318,10 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="12">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B174" t="s" s="12">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C174" t="s" s="12">
         <v>76</v>
@@ -6273,10 +6336,10 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="12">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B175" t="s" s="12">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C175" t="s" s="12">
         <v>76</v>
@@ -6291,10 +6354,10 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="12">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s" s="12">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="9">
@@ -6307,10 +6370,10 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="12">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B177" t="s" s="12">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C177" t="s" s="12">
         <v>27</v>
@@ -6325,10 +6388,10 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="12">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B178" t="s" s="12">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C178" t="s" s="12">
         <v>18</v>
@@ -6343,10 +6406,10 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="12">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B179" t="s" s="12">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C179" t="s" s="12">
         <v>15</v>
@@ -6361,10 +6424,10 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="12">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B180" t="s" s="12">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C180" t="s" s="12">
         <v>18</v>
@@ -6377,10 +6440,10 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="12">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B181" t="s" s="12">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C181" t="s" s="12">
         <v>30</v>
@@ -6393,10 +6456,10 @@
     </row>
     <row r="182" ht="20.35" customHeight="1">
       <c r="A182" t="s" s="13">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s" s="13">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C182" t="s" s="12">
         <v>27</v>
@@ -6411,15 +6474,17 @@
     </row>
     <row r="183" ht="20.7" customHeight="1">
       <c r="A183" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B183" t="s" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D183" s="9"/>
+      <c r="D183" s="9">
+        <v>0.5625</v>
+      </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
@@ -6427,10 +6492,10 @@
     </row>
     <row r="184" ht="20.35" customHeight="1">
       <c r="A184" t="s" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B184" t="s" s="11">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s" s="12">
         <v>15</v>
@@ -6445,10 +6510,10 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="12">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B185" t="s" s="12">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C185" t="s" s="12">
         <v>18</v>
@@ -6463,10 +6528,10 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="12">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B186" t="s" s="12">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C186" t="s" s="12">
         <v>30</v>
@@ -6479,10 +6544,10 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="12">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B187" t="s" s="12">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C187" t="s" s="12">
         <v>27</v>
@@ -6497,10 +6562,10 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="12">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B188" t="s" s="12">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C188" t="s" s="12">
         <v>18</v>
@@ -6513,10 +6578,10 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="12">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B189" t="s" s="12">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s" s="12">
         <v>18</v>
@@ -6531,10 +6596,10 @@
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="12">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B190" t="s" s="12">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C190" t="s" s="12">
         <v>45</v>
@@ -6549,10 +6614,10 @@
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="12">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B191" t="s" s="12">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
         <v>76</v>
@@ -6565,10 +6630,10 @@
     </row>
     <row r="192" ht="20.35" customHeight="1">
       <c r="A192" t="s" s="13">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B192" t="s" s="13">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C192" t="s" s="12">
         <v>18</v>
@@ -6583,10 +6648,10 @@
     </row>
     <row r="193" ht="20.7" customHeight="1">
       <c r="A193" t="s" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s" s="4">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C193" t="s" s="8">
         <v>25</v>
@@ -6599,10 +6664,10 @@
     </row>
     <row r="194" ht="20.7" customHeight="1">
       <c r="A194" t="s" s="14">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s" s="14">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s" s="12">
         <v>45</v>
@@ -6617,15 +6682,17 @@
     </row>
     <row r="195" ht="20.7" customHeight="1">
       <c r="A195" t="s" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s" s="4">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C195" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D195" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D195" s="9">
+        <v>0.75</v>
+      </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
@@ -6633,10 +6700,10 @@
     </row>
     <row r="196" ht="20.35" customHeight="1">
       <c r="A196" t="s" s="11">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B196" t="s" s="11">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="9">
@@ -6649,10 +6716,10 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="12">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s" s="12">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C197" t="s" s="12">
         <v>76</v>
@@ -6667,10 +6734,10 @@
     </row>
     <row r="198" ht="20.35" customHeight="1">
       <c r="A198" t="s" s="13">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s" s="13">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C198" t="s" s="12">
         <v>18</v>
@@ -6683,15 +6750,17 @@
     </row>
     <row r="199" ht="20.7" customHeight="1">
       <c r="A199" t="s" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s" s="4">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C199" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D199" s="9"/>
+      <c r="D199" s="9">
+        <v>0.71875</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
@@ -6699,10 +6768,10 @@
     </row>
     <row r="200" ht="20.35" customHeight="1">
       <c r="A200" t="s" s="11">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s" s="11">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C200" t="s" s="12">
         <v>18</v>
@@ -6717,10 +6786,10 @@
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" t="s" s="12">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B201" t="s" s="12">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C201" t="s" s="12">
         <v>18</v>
@@ -6735,10 +6804,10 @@
     </row>
     <row r="202" ht="20.35" customHeight="1">
       <c r="A202" t="s" s="13">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s" s="13">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C202" t="s" s="12">
         <v>76</v>
@@ -6753,15 +6822,17 @@
     </row>
     <row r="203" ht="20.7" customHeight="1">
       <c r="A203" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B203" t="s" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D203" s="9"/>
+      <c r="D203" s="9">
+        <v>0.71875</v>
+      </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
@@ -6769,10 +6840,10 @@
     </row>
     <row r="204" ht="20.7" customHeight="1">
       <c r="A204" t="s" s="14">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B204" t="s" s="14">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C204" t="s" s="12">
         <v>30</v>
@@ -6785,15 +6856,17 @@
     </row>
     <row r="205" ht="20.7" customHeight="1">
       <c r="A205" t="s" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C205" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D205" s="9"/>
+      <c r="D205" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
@@ -6801,10 +6874,10 @@
     </row>
     <row r="206" ht="20.35" customHeight="1">
       <c r="A206" t="s" s="11">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s" s="11">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C206" t="s" s="12">
         <v>76</v>
@@ -6819,10 +6892,10 @@
     </row>
     <row r="207" ht="20.35" customHeight="1">
       <c r="A207" t="s" s="13">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s" s="13">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C207" t="s" s="12">
         <v>30</v>
@@ -6837,15 +6910,17 @@
     </row>
     <row r="208" ht="20.7" customHeight="1">
       <c r="A208" t="s" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B208" t="s" s="4">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C208" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D208" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D208" s="9">
+        <v>0.65625</v>
+      </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
@@ -6853,15 +6928,17 @@
     </row>
     <row r="209" ht="20.7" customHeight="1">
       <c r="A209" t="s" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B209" t="s" s="4">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C209" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D209" s="9"/>
+      <c r="D209" s="9">
+        <v>0.84375</v>
+      </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="10"/>
@@ -6869,10 +6946,10 @@
     </row>
     <row r="210" ht="20.35" customHeight="1">
       <c r="A210" t="s" s="11">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B210" t="s" s="11">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C210" t="s" s="12">
         <v>15</v>
@@ -6887,10 +6964,10 @@
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" t="s" s="12">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B211" t="s" s="12">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C211" t="s" s="12">
         <v>15</v>
@@ -6905,10 +6982,10 @@
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="12">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s" s="12">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C212" t="s" s="12">
         <v>27</v>
@@ -6923,10 +7000,10 @@
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="12">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s" s="12">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s" s="12">
         <v>45</v>
@@ -6939,10 +7016,10 @@
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" t="s" s="12">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B214" t="s" s="12">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s" s="12">
         <v>76</v>
@@ -6957,10 +7034,10 @@
     </row>
     <row r="215" ht="20.35" customHeight="1">
       <c r="A215" t="s" s="13">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s" s="13">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C215" t="s" s="12">
         <v>27</v>
@@ -6975,15 +7052,17 @@
     </row>
     <row r="216" ht="20.7" customHeight="1">
       <c r="A216" t="s" s="4">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B216" t="s" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C216" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D216" s="9"/>
+      <c r="D216" s="9">
+        <v>0.28125</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
@@ -6991,10 +7070,10 @@
     </row>
     <row r="217" ht="20.35" customHeight="1">
       <c r="A217" t="s" s="11">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s" s="11">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C217" t="s" s="12">
         <v>45</v>
@@ -7009,10 +7088,10 @@
     </row>
     <row r="218" ht="20.35" customHeight="1">
       <c r="A218" t="s" s="13">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s" s="13">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C218" t="s" s="12">
         <v>45</v>
@@ -7027,15 +7106,17 @@
     </row>
     <row r="219" ht="20.7" customHeight="1">
       <c r="A219" t="s" s="4">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B219" t="s" s="4">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C219" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D219" s="9"/>
+      <c r="D219" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
@@ -7043,10 +7124,10 @@
     </row>
     <row r="220" ht="20.7" customHeight="1">
       <c r="A220" t="s" s="4">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C220" t="s" s="8">
         <v>10</v>
@@ -7059,10 +7140,10 @@
     </row>
     <row r="221" ht="20.7" customHeight="1">
       <c r="A221" t="s" s="15">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B221" t="s" s="15">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C221" t="s" s="8">
         <v>25</v>
@@ -7075,15 +7156,17 @@
     </row>
     <row r="222" ht="20.7" customHeight="1">
       <c r="A222" t="s" s="4">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B222" t="s" s="4">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C222" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D222" s="9"/>
+      <c r="D222" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
@@ -7091,10 +7174,10 @@
     </row>
     <row r="223" ht="20.7" customHeight="1">
       <c r="A223" t="s" s="14">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B223" t="s" s="14">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="9">
@@ -7107,10 +7190,10 @@
     </row>
     <row r="224" ht="20.7" customHeight="1">
       <c r="A224" t="s" s="4">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B224" t="s" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C224" t="s" s="8">
         <v>25</v>
@@ -7123,10 +7206,10 @@
     </row>
     <row r="225" ht="20.7" customHeight="1">
       <c r="A225" t="s" s="4">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B225" t="s" s="4">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C225" t="s" s="8">
         <v>10</v>
@@ -7139,10 +7222,10 @@
     </row>
     <row r="226" ht="20.35" customHeight="1">
       <c r="A226" t="s" s="11">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B226" t="s" s="11">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C226" t="s" s="12">
         <v>18</v>
@@ -7157,10 +7240,10 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="12">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B227" t="s" s="12">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C227" t="s" s="12">
         <v>18</v>
@@ -7175,10 +7258,10 @@
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="12">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B228" t="s" s="12">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C228" t="s" s="12">
         <v>15</v>
@@ -7191,10 +7274,10 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="12">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B229" t="s" s="12">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C229" t="s" s="12">
         <v>76</v>
@@ -7209,10 +7292,10 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="12">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B230" t="s" s="12">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C230" t="s" s="12">
         <v>76</v>
@@ -7227,10 +7310,10 @@
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="12">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B231" t="s" s="12">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C231" t="s" s="12">
         <v>18</v>
@@ -7245,10 +7328,10 @@
     </row>
     <row r="232" ht="20.35" customHeight="1">
       <c r="A232" t="s" s="13">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B232" t="s" s="13">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C232" t="s" s="12">
         <v>30</v>
@@ -7263,15 +7346,17 @@
     </row>
     <row r="233" ht="20.7" customHeight="1">
       <c r="A233" t="s" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B233" t="s" s="4">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C233" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D233" s="9"/>
+      <c r="D233" s="9">
+        <v>0.3125</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
@@ -7279,10 +7364,10 @@
     </row>
     <row r="234" ht="20.7" customHeight="1">
       <c r="A234" t="s" s="14">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B234" t="s" s="14">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C234" t="s" s="12">
         <v>45</v>
@@ -7297,15 +7382,17 @@
     </row>
     <row r="235" ht="20.7" customHeight="1">
       <c r="A235" t="s" s="4">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B235" t="s" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C235" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D235" s="9"/>
+      <c r="D235" s="9">
+        <v>0.375</v>
+      </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
@@ -7313,10 +7400,10 @@
     </row>
     <row r="236" ht="20.35" customHeight="1">
       <c r="A236" t="s" s="11">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B236" t="s" s="11">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C236" t="s" s="12">
         <v>15</v>
@@ -7329,10 +7416,10 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="12">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B237" t="s" s="12">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C237" t="s" s="12">
         <v>27</v>
@@ -7347,10 +7434,10 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="12">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B238" t="s" s="12">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C238" t="s" s="12">
         <v>30</v>
@@ -7365,10 +7452,10 @@
     </row>
     <row r="239" ht="20.35" customHeight="1">
       <c r="A239" t="s" s="13">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B239" t="s" s="13">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s" s="12">
         <v>18</v>
@@ -7381,15 +7468,17 @@
     </row>
     <row r="240" ht="20.7" customHeight="1">
       <c r="A240" t="s" s="4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B240" t="s" s="4">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C240" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D240" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D240" s="9">
+        <v>0.625</v>
+      </c>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
@@ -7397,10 +7486,10 @@
     </row>
     <row r="241" ht="20.7" customHeight="1">
       <c r="A241" t="s" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B241" t="s" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C241" t="s" s="8">
         <v>25</v>
@@ -7413,10 +7502,10 @@
     </row>
     <row r="242" ht="20.35" customHeight="1">
       <c r="A242" t="s" s="11">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B242" t="s" s="11">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C242" t="s" s="12">
         <v>27</v>
@@ -7431,10 +7520,10 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="12">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B243" t="s" s="12">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C243" t="s" s="12">
         <v>15</v>
@@ -7447,10 +7536,10 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="12">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B244" t="s" s="12">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C244" t="s" s="12">
         <v>45</v>
@@ -7465,10 +7554,10 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="12">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B245" t="s" s="12">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C245" t="s" s="12">
         <v>18</v>
@@ -7481,10 +7570,10 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B246" t="s" s="12">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C246" t="s" s="12">
         <v>18</v>
@@ -7499,10 +7588,10 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B247" t="s" s="12">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C247" t="s" s="12">
         <v>27</v>
@@ -7515,10 +7604,10 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="12">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B248" t="s" s="12">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C248" t="s" s="12">
         <v>45</v>
@@ -7533,10 +7622,10 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="12">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B249" t="s" s="12">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C249" t="s" s="12">
         <v>45</v>
@@ -7551,10 +7640,10 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="12">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B250" t="s" s="12">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C250" t="s" s="12">
         <v>45</v>
@@ -7569,10 +7658,10 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="12">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B251" t="s" s="12">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C251" t="s" s="12">
         <v>76</v>
@@ -7587,10 +7676,10 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="12">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B252" t="s" s="12">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C252" t="s" s="12">
         <v>76</v>
@@ -7605,10 +7694,10 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="12">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B253" t="s" s="12">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C253" t="s" s="12">
         <v>18</v>
@@ -7621,12 +7710,12 @@
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
     </row>
-    <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" t="s" s="13">
-        <v>504</v>
-      </c>
-      <c r="B254" t="s" s="13">
+    <row r="254" ht="20.05" customHeight="1">
+      <c r="A254" t="s" s="12">
         <v>505</v>
+      </c>
+      <c r="B254" t="s" s="12">
+        <v>506</v>
       </c>
       <c r="C254" t="s" s="12">
         <v>45</v>
@@ -7639,17 +7728,19 @@
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.7" customHeight="1">
-      <c r="A255" t="s" s="4">
-        <v>506</v>
-      </c>
-      <c r="B255" t="s" s="4">
+    <row r="255" ht="20.35" customHeight="1">
+      <c r="A255" t="s" s="13">
         <v>507</v>
       </c>
-      <c r="C255" t="s" s="8">
+      <c r="B255" t="s" s="13">
+        <v>508</v>
+      </c>
+      <c r="C255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="D255" s="9"/>
+      <c r="D255" s="9">
+        <v>0.78125</v>
+      </c>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
@@ -7657,50 +7748,52 @@
     </row>
     <row r="256" ht="20.7" customHeight="1">
       <c r="A256" t="s" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B256" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C256" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D256" s="9"/>
+      <c r="D256" s="9">
+        <v>0.71875</v>
+      </c>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.35" customHeight="1">
-      <c r="A257" t="s" s="11">
-        <v>510</v>
-      </c>
-      <c r="B257" t="s" s="11">
+    <row r="257" ht="20.7" customHeight="1">
+      <c r="A257" t="s" s="4">
         <v>511</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>76</v>
+      <c r="B257" t="s" s="4">
+        <v>512</v>
+      </c>
+      <c r="C257" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D257" s="9">
-        <v>0.692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.05" customHeight="1">
-      <c r="A258" t="s" s="12">
-        <v>512</v>
-      </c>
-      <c r="B258" t="s" s="12">
+    <row r="258" ht="20.35" customHeight="1">
+      <c r="A258" t="s" s="11">
         <v>513</v>
       </c>
+      <c r="B258" t="s" s="11">
+        <v>514</v>
+      </c>
       <c r="C258" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D258" s="9">
-        <v>0.717948717948718</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
@@ -7709,16 +7802,16 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="12">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B259" t="s" s="12">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C259" t="s" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D259" s="9">
-        <v>0.58974358974359</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
@@ -7727,16 +7820,16 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="12">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B260" t="s" s="12">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C260" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D260" s="9">
-        <v>0.564102564102564</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
@@ -7745,15 +7838,17 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="12">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B261" t="s" s="12">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D261" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D261" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
       <c r="G261" s="10"/>
@@ -7761,17 +7856,15 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="12">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B262" t="s" s="12">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D262" s="9">
-        <v>0.333333333333333</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
@@ -7779,16 +7872,16 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="12">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B263" t="s" s="12">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D263" s="9">
-        <v>0.897435897435897</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
@@ -7797,16 +7890,16 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B264" t="s" s="12">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C264" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D264" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -7815,15 +7908,17 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="12">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B265" t="s" s="12">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C265" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D265" s="9"/>
+      <c r="D265" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
       <c r="G265" s="10"/>
@@ -7831,13 +7926,13 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="12">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B266" t="s" s="12">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -7847,17 +7942,15 @@
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="12">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B267" t="s" s="12">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D267" s="9">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
@@ -7865,15 +7958,17 @@
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="12">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B268" t="s" s="12">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D268" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D268" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="10"/>
@@ -7881,47 +7976,47 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="12">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B269" t="s" s="12">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D269" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D269" s="9"/>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" ht="20.35" customHeight="1">
-      <c r="A270" t="s" s="13">
-        <v>536</v>
-      </c>
-      <c r="B270" t="s" s="13">
+    <row r="270" ht="20.05" customHeight="1">
+      <c r="A270" t="s" s="12">
         <v>537</v>
       </c>
+      <c r="B270" t="s" s="12">
+        <v>538</v>
+      </c>
       <c r="C270" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D270" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D270" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" ht="20.7" customHeight="1">
-      <c r="A271" t="s" s="4">
-        <v>538</v>
-      </c>
-      <c r="B271" t="s" s="4">
+    <row r="271" ht="20.35" customHeight="1">
+      <c r="A271" t="s" s="13">
         <v>539</v>
       </c>
-      <c r="C271" t="s" s="8">
-        <v>25</v>
+      <c r="B271" t="s" s="13">
+        <v>540</v>
+      </c>
+      <c r="C271" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -7929,36 +8024,36 @@
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.35" customHeight="1">
-      <c r="A272" t="s" s="11">
-        <v>540</v>
-      </c>
-      <c r="B272" t="s" s="11">
+    <row r="272" ht="20.7" customHeight="1">
+      <c r="A272" t="s" s="4">
         <v>541</v>
       </c>
-      <c r="C272" t="s" s="12">
-        <v>76</v>
+      <c r="B272" t="s" s="4">
+        <v>542</v>
+      </c>
+      <c r="C272" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D272" s="9">
-        <v>0.871794871794872</v>
+        <v>0.6875</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.05" customHeight="1">
-      <c r="A273" t="s" s="12">
-        <v>542</v>
-      </c>
-      <c r="B273" t="s" s="12">
+    <row r="273" ht="20.35" customHeight="1">
+      <c r="A273" t="s" s="11">
         <v>543</v>
       </c>
+      <c r="B273" t="s" s="11">
+        <v>544</v>
+      </c>
       <c r="C273" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D273" s="9">
-        <v>0.512820512820513</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
@@ -7967,15 +8062,17 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="12">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B274" t="s" s="12">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D274" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D274" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
@@ -7983,17 +8080,15 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="12">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B275" t="s" s="12">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C275" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D275" s="9">
-        <v>0.58974358974359</v>
-      </c>
+      <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
@@ -8001,47 +8096,49 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="12">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B276" t="s" s="12">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D276" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" ht="20.35" customHeight="1">
-      <c r="A277" t="s" s="13">
-        <v>550</v>
-      </c>
-      <c r="B277" t="s" s="13">
+    <row r="277" ht="20.05" customHeight="1">
+      <c r="A277" t="s" s="12">
         <v>551</v>
       </c>
+      <c r="B277" t="s" s="12">
+        <v>552</v>
+      </c>
       <c r="C277" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D277" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D277" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" ht="20.7" customHeight="1">
-      <c r="A278" t="s" s="4">
-        <v>552</v>
-      </c>
-      <c r="B278" t="s" s="4">
+    <row r="278" ht="20.35" customHeight="1">
+      <c r="A278" t="s" s="13">
         <v>553</v>
       </c>
-      <c r="C278" t="s" s="8">
-        <v>25</v>
+      <c r="B278" t="s" s="13">
+        <v>554</v>
+      </c>
+      <c r="C278" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -8049,36 +8146,36 @@
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.35" customHeight="1">
-      <c r="A279" t="s" s="11">
-        <v>554</v>
-      </c>
-      <c r="B279" t="s" s="11">
+    <row r="279" ht="20.7" customHeight="1">
+      <c r="A279" t="s" s="4">
         <v>555</v>
       </c>
-      <c r="C279" t="s" s="12">
-        <v>76</v>
+      <c r="B279" t="s" s="4">
+        <v>556</v>
+      </c>
+      <c r="C279" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D279" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.6875</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.05" customHeight="1">
-      <c r="A280" t="s" s="12">
-        <v>556</v>
-      </c>
-      <c r="B280" t="s" s="12">
+    <row r="280" ht="20.35" customHeight="1">
+      <c r="A280" t="s" s="11">
         <v>557</v>
+      </c>
+      <c r="B280" t="s" s="11">
+        <v>558</v>
       </c>
       <c r="C280" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D280" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
@@ -8087,16 +8184,16 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="12">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B281" t="s" s="12">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C281" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D281" s="9">
-        <v>0.512820512820513</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
@@ -8105,16 +8202,16 @@
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="12">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B282" t="s" s="12">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C282" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D282" s="9">
-        <v>0.615384615384615</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
@@ -8123,15 +8220,17 @@
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="12">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B283" t="s" s="12">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C283" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D283" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D283" s="9">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
@@ -8139,17 +8238,15 @@
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="12">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B284" t="s" s="12">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C284" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D284" s="9">
-        <v>0.58974358974359</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -8157,15 +8254,17 @@
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" t="s" s="12">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B285" t="s" s="12">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D285" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D285" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
@@ -8173,17 +8272,15 @@
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="12">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B286" t="s" s="12">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C286" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D286" s="9">
-        <v>0.846153846153846</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -8191,16 +8288,16 @@
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="12">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B287" t="s" s="12">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D287" s="9">
-        <v>0.692307692307692</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -8209,16 +8306,16 @@
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="12">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B288" t="s" s="12">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D288" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -8227,15 +8324,17 @@
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="12">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B289" t="s" s="12">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D289" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D289" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
@@ -8243,17 +8342,15 @@
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="12">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B290" t="s" s="12">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D290" s="9">
-        <v>0.487179487179487</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
@@ -8261,16 +8358,16 @@
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" t="s" s="12">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B291" t="s" s="12">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D291" s="9">
-        <v>0.128205128205128</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -8282,12 +8379,14 @@
         <v>579</v>
       </c>
       <c r="B292" t="s" s="12">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D292" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D292" s="9">
+        <v>0.128205128205128</v>
+      </c>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
@@ -8295,49 +8394,49 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="12">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B293" t="s" s="12">
-        <v>582</v>
-      </c>
-      <c r="C293" s="10"/>
-      <c r="D293" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="C293" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="D293" s="9"/>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" ht="20.35" customHeight="1">
-      <c r="A294" t="s" s="13">
-        <v>583</v>
-      </c>
-      <c r="B294" t="s" s="13">
+    <row r="294" ht="20.05" customHeight="1">
+      <c r="A294" t="s" s="12">
         <v>584</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="B294" t="s" s="12">
+        <v>585</v>
+      </c>
+      <c r="C294" s="10"/>
       <c r="D294" s="9">
-        <v>0.384615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" t="s" s="4">
-        <v>585</v>
-      </c>
-      <c r="B295" t="s" s="4">
+    <row r="295" ht="20.35" customHeight="1">
+      <c r="A295" t="s" s="13">
         <v>586</v>
       </c>
-      <c r="C295" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D295" s="9"/>
+      <c r="B295" t="s" s="13">
+        <v>587</v>
+      </c>
+      <c r="C295" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D295" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
@@ -8345,15 +8444,17 @@
     </row>
     <row r="296" ht="20.7" customHeight="1">
       <c r="A296" t="s" s="4">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B296" t="s" s="4">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C296" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D296" s="9"/>
+      <c r="D296" s="9">
+        <v>0.125</v>
+      </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
@@ -8361,50 +8462,52 @@
     </row>
     <row r="297" ht="20.7" customHeight="1">
       <c r="A297" t="s" s="4">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C297" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D297" s="9"/>
+      <c r="D297" s="9">
+        <v>0.8125</v>
+      </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.35" customHeight="1">
-      <c r="A298" t="s" s="11">
-        <v>591</v>
-      </c>
-      <c r="B298" t="s" s="11">
+    <row r="298" ht="20.7" customHeight="1">
+      <c r="A298" t="s" s="4">
         <v>592</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>45</v>
+      <c r="B298" t="s" s="4">
+        <v>593</v>
+      </c>
+      <c r="C298" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D298" s="9">
-        <v>0.487179487179487</v>
+        <v>0.9375</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.05" customHeight="1">
-      <c r="A299" t="s" s="12">
-        <v>593</v>
-      </c>
-      <c r="B299" t="s" s="12">
+    <row r="299" ht="20.35" customHeight="1">
+      <c r="A299" t="s" s="11">
         <v>594</v>
       </c>
+      <c r="B299" t="s" s="11">
+        <v>595</v>
+      </c>
       <c r="C299" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D299" s="9">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
@@ -8413,16 +8516,16 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="12">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B300" t="s" s="12">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D300" s="9">
-        <v>0.512820512820513</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -8431,16 +8534,16 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="12">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B301" t="s" s="12">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D301" s="9">
-        <v>0.948717948717949</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -8449,47 +8552,49 @@
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="12">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B302" t="s" s="12">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D302" s="9">
-        <v>0.564102564102564</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.35" customHeight="1">
-      <c r="A303" t="s" s="13">
-        <v>601</v>
-      </c>
-      <c r="B303" t="s" s="13">
+    <row r="303" ht="20.05" customHeight="1">
+      <c r="A303" t="s" s="12">
         <v>602</v>
       </c>
+      <c r="B303" t="s" s="12">
+        <v>603</v>
+      </c>
       <c r="C303" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D303" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D303" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.7" customHeight="1">
-      <c r="A304" t="s" s="4">
-        <v>603</v>
-      </c>
-      <c r="B304" t="s" s="4">
+    <row r="304" ht="20.35" customHeight="1">
+      <c r="A304" t="s" s="13">
         <v>604</v>
       </c>
-      <c r="C304" t="s" s="8">
-        <v>25</v>
+      <c r="B304" t="s" s="13">
+        <v>605</v>
+      </c>
+      <c r="C304" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
@@ -8499,50 +8604,52 @@
     </row>
     <row r="305" ht="20.7" customHeight="1">
       <c r="A305" t="s" s="4">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B305" t="s" s="4">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C305" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D305" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D305" s="9">
+        <v>0.6875</v>
+      </c>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" t="s" s="11">
-        <v>607</v>
-      </c>
-      <c r="B306" t="s" s="11">
+    <row r="306" ht="20.7" customHeight="1">
+      <c r="A306" t="s" s="4">
         <v>608</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>15</v>
+      <c r="B306" t="s" s="4">
+        <v>609</v>
+      </c>
+      <c r="C306" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D306" s="9">
-        <v>0.58974358974359</v>
+        <v>0.9375</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.05" customHeight="1">
-      <c r="A307" t="s" s="12">
-        <v>609</v>
-      </c>
-      <c r="B307" t="s" s="12">
+    <row r="307" ht="20.35" customHeight="1">
+      <c r="A307" t="s" s="11">
         <v>610</v>
+      </c>
+      <c r="B307" t="s" s="11">
+        <v>611</v>
       </c>
       <c r="C307" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D307" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -8551,15 +8658,17 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="12">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B308" t="s" s="12">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D308" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D308" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
@@ -8567,17 +8676,15 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="12">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B309" t="s" s="12">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D309" s="9">
-        <v>0.41025641025641</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>
@@ -8585,16 +8692,16 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="12">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B310" t="s" s="12">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D310" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -8603,15 +8710,17 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="12">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B311" t="s" s="12">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C311" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D311" s="10"/>
+      <c r="D311" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="10"/>
@@ -8619,84 +8728,84 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="12">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B312" t="s" s="12">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D312" s="9">
-        <v>0.666666666666667</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D312" s="10"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
     </row>
-    <row r="313" ht="20.35" customHeight="1">
-      <c r="A313" t="s" s="13">
-        <v>621</v>
-      </c>
-      <c r="B313" t="s" s="13">
+    <row r="313" ht="20.05" customHeight="1">
+      <c r="A313" t="s" s="12">
         <v>622</v>
       </c>
-      <c r="C313" s="10"/>
+      <c r="B313" t="s" s="12">
+        <v>623</v>
+      </c>
+      <c r="C313" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D313" s="9">
-        <v>0.564102564102564</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
     </row>
-    <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" t="s" s="4">
-        <v>623</v>
-      </c>
-      <c r="B314" t="s" s="4">
+    <row r="314" ht="20.35" customHeight="1">
+      <c r="A314" t="s" s="13">
         <v>624</v>
       </c>
-      <c r="C314" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D314" s="9"/>
+      <c r="B314" t="s" s="13">
+        <v>625</v>
+      </c>
+      <c r="C314" s="10"/>
+      <c r="D314" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
     </row>
-    <row r="315" ht="20.35" customHeight="1">
-      <c r="A315" t="s" s="11">
-        <v>625</v>
-      </c>
-      <c r="B315" t="s" s="11">
+    <row r="315" ht="20.7" customHeight="1">
+      <c r="A315" t="s" s="4">
         <v>626</v>
       </c>
-      <c r="C315" t="s" s="12">
-        <v>27</v>
+      <c r="B315" t="s" s="4">
+        <v>627</v>
+      </c>
+      <c r="C315" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D315" s="9">
-        <v>0.923076923076923</v>
+        <v>0.5625</v>
       </c>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="10"/>
       <c r="H315" s="10"/>
     </row>
-    <row r="316" ht="20.05" customHeight="1">
-      <c r="A316" t="s" s="12">
-        <v>627</v>
-      </c>
-      <c r="B316" t="s" s="12">
+    <row r="316" ht="20.35" customHeight="1">
+      <c r="A316" t="s" s="11">
         <v>628</v>
       </c>
+      <c r="B316" t="s" s="11">
+        <v>629</v>
+      </c>
       <c r="C316" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D316" s="9">
-        <v>0.333333333333333</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
@@ -8705,15 +8814,17 @@
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="12">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B317" t="s" s="12">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C317" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D317" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D317" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
@@ -8721,17 +8832,15 @@
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" t="s" s="12">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B318" t="s" s="12">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C318" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D318" s="9">
-        <v>0.512820512820513</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>
@@ -8739,15 +8848,17 @@
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" t="s" s="12">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B319" t="s" s="12">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C319" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D319" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D319" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
       <c r="G319" s="10"/>
@@ -8755,17 +8866,15 @@
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" t="s" s="12">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B320" t="s" s="12">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C320" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D320" s="9">
-        <v>0.512820512820513</v>
-      </c>
+      <c r="D320" s="9"/>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
       <c r="G320" s="10"/>
@@ -8773,16 +8882,16 @@
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="12">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B321" t="s" s="12">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C321" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D321" s="9">
-        <v>0.820512820512821</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -8791,15 +8900,17 @@
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="12">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B322" t="s" s="12">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C322" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D322" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D322" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
       <c r="G322" s="10"/>
@@ -8807,17 +8918,15 @@
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" t="s" s="12">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B323" t="s" s="12">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C323" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D323" s="9">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D323" s="9"/>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="10"/>
@@ -8825,16 +8934,16 @@
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" t="s" s="12">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B324" t="s" s="12">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C324" t="s" s="12">
         <v>30</v>
       </c>
       <c r="D324" s="9">
-        <v>0.564102564102564</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -8842,10 +8951,18 @@
       <c r="H324" s="10"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
-      <c r="A325" s="10"/>
-      <c r="B325" s="10"/>
-      <c r="C325" s="10"/>
-      <c r="D325" s="9"/>
+      <c r="A325" t="s" s="12">
+        <v>646</v>
+      </c>
+      <c r="B325" t="s" s="12">
+        <v>647</v>
+      </c>
+      <c r="C325" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D325" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
       <c r="G325" s="10"/>
@@ -9511,16 +9628,6 @@
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
     </row>
-    <row r="392" ht="20.05" customHeight="1">
-      <c r="A392" s="10"/>
-      <c r="B392" s="10"/>
-      <c r="C392" s="10"/>
-      <c r="D392" s="9"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="9"/>
-      <c r="G392" s="10"/>
-      <c r="H392" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3616,7 +3616,9 @@
       <c r="C18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -3784,7 +3786,9 @@
       <c r="C28" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
@@ -5130,7 +5134,9 @@
       <c r="C105" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D105" s="9"/>
+      <c r="D105" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
@@ -5704,7 +5710,9 @@
       <c r="C138" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D138" s="10"/>
+      <c r="D138" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
@@ -6242,7 +6250,9 @@
       <c r="C169" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="D169" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
@@ -6848,7 +6858,9 @@
       <c r="C204" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D204" s="9"/>
+      <c r="D204" s="9">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
@@ -7984,7 +7996,9 @@
       <c r="C269" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D269" s="9"/>
+      <c r="D269" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
       <c r="G269" s="10"/>
@@ -8246,7 +8260,9 @@
       <c r="C284" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D284" s="9"/>
+      <c r="D284" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -8684,7 +8700,9 @@
       <c r="C309" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D309" s="9"/>
+      <c r="D309" s="9">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -5306,7 +5306,9 @@
       <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" s="9"/>
+      <c r="D115" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
@@ -5412,7 +5414,9 @@
       <c r="C121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D121" s="9"/>
+      <c r="D121" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
@@ -7946,7 +7950,9 @@
       <c r="C266" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D266" s="9"/>
+      <c r="D266" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
@@ -8154,7 +8160,9 @@
       <c r="C278" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D278" s="9"/>
+      <c r="D278" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
@@ -8754,7 +8762,9 @@
       <c r="C312" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D312" s="10"/>
+      <c r="D312" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
       <c r="G312" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="652">
   <si>
     <t>Surname</t>
   </si>
@@ -379,15 +379,15 @@
     <t>Dube</t>
   </si>
   <si>
+    <t>H210672V</t>
+  </si>
+  <si>
+    <t>H180603W</t>
+  </si>
+  <si>
     <t>H210678M</t>
   </si>
   <si>
-    <t>H180603W</t>
-  </si>
-  <si>
-    <t>H210672V</t>
-  </si>
-  <si>
     <t>Duri</t>
   </si>
   <si>
@@ -448,12 +448,12 @@
     <t>Gomwe</t>
   </si>
   <si>
+    <t>H210362C</t>
+  </si>
+  <si>
     <t>H210236C</t>
   </si>
   <si>
-    <t>H210362C</t>
-  </si>
-  <si>
     <t>Gondo</t>
   </si>
   <si>
@@ -466,6 +466,12 @@
     <t>H210469Z</t>
   </si>
   <si>
+    <t>Gore</t>
+  </si>
+  <si>
+    <t>H200424V</t>
+  </si>
+  <si>
     <t>Gremu</t>
   </si>
   <si>
@@ -559,12 +565,12 @@
     <t>Hove</t>
   </si>
   <si>
+    <t>H210448Q</t>
+  </si>
+  <si>
     <t>H210282H</t>
   </si>
   <si>
-    <t>H210448Q</t>
-  </si>
-  <si>
     <t>Jayaguru</t>
   </si>
   <si>
@@ -802,12 +808,12 @@
     <t>Magaya</t>
   </si>
   <si>
+    <t>H200969R</t>
+  </si>
+  <si>
     <t>H210500E</t>
   </si>
   <si>
-    <t>H200969R</t>
-  </si>
-  <si>
     <t>Magodoro</t>
   </si>
   <si>
@@ -907,18 +913,18 @@
     <t>H200630P</t>
   </si>
   <si>
+    <t>MANHANGA</t>
+  </si>
+  <si>
+    <t>H210437Y</t>
+  </si>
+  <si>
     <t>Manhanga</t>
   </si>
   <si>
     <t>H210091C</t>
   </si>
   <si>
-    <t>MANHANGA</t>
-  </si>
-  <si>
-    <t>H210437Y</t>
-  </si>
-  <si>
     <t>Manhondo</t>
   </si>
   <si>
@@ -946,18 +952,18 @@
     <t>Mapfumo</t>
   </si>
   <si>
+    <t>H210658G</t>
+  </si>
+  <si>
+    <t>H210470N</t>
+  </si>
+  <si>
     <t>H210328Q</t>
   </si>
   <si>
-    <t>H210470N</t>
-  </si>
-  <si>
     <t>H210691C</t>
   </si>
   <si>
-    <t>H210658G</t>
-  </si>
-  <si>
     <t>Mapiringanwa</t>
   </si>
   <si>
@@ -1216,12 +1222,12 @@
     <t>Moyo</t>
   </si>
   <si>
+    <t>H210402G</t>
+  </si>
+  <si>
     <t>H210367B</t>
   </si>
   <si>
-    <t>H210402G</t>
-  </si>
-  <si>
     <t>Mpofu</t>
   </si>
   <si>
@@ -1468,12 +1474,12 @@
     <t>Muza</t>
   </si>
   <si>
+    <t>H170147Z</t>
+  </si>
+  <si>
     <t>H210603F</t>
   </si>
   <si>
-    <t>H170147Z</t>
-  </si>
-  <si>
     <t>Muzenda</t>
   </si>
   <si>
@@ -1753,12 +1759,12 @@
     <t>Sibanda</t>
   </si>
   <si>
+    <t>H210471G</t>
+  </si>
+  <si>
     <t>H210376W</t>
   </si>
   <si>
-    <t>H210471G</t>
-  </si>
-  <si>
     <t>Simango</t>
   </si>
   <si>
@@ -1825,18 +1831,18 @@
     <t>H210265Y</t>
   </si>
   <si>
+    <t>TIGERE</t>
+  </si>
+  <si>
+    <t>H210316E</t>
+  </si>
+  <si>
     <t>Tigere</t>
   </si>
   <si>
     <t>H210230Y</t>
   </si>
   <si>
-    <t>TIGERE</t>
-  </si>
-  <si>
-    <t>H210316E</t>
-  </si>
-  <si>
     <t>TINONETSANA</t>
   </si>
   <si>
@@ -1889,6 +1895,12 @@
   </si>
   <si>
     <t>H190352M</t>
+  </si>
+  <si>
+    <t>Viri</t>
+  </si>
+  <si>
+    <t>H200767T</t>
   </si>
   <si>
     <t>Vunganayi</t>
@@ -3368,7 +3380,9 @@
       <c r="C4" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
@@ -3384,7 +3398,9 @@
       <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
@@ -3652,7 +3668,9 @@
       <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -3668,7 +3686,9 @@
       <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -3702,7 +3722,9 @@
       <c r="C23" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
@@ -3718,7 +3740,9 @@
       <c r="C24" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -3752,7 +3776,9 @@
       <c r="C26" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
@@ -3804,7 +3830,9 @@
       <c r="C29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
@@ -3820,7 +3848,9 @@
       <c r="C30" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
@@ -3890,7 +3920,9 @@
       <c r="C34" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
@@ -3924,7 +3956,9 @@
       <c r="C36" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
@@ -3958,7 +3992,9 @@
       <c r="C38" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
@@ -3974,7 +4010,9 @@
       <c r="C39" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
@@ -4008,7 +4046,9 @@
       <c r="C41" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
@@ -4042,7 +4082,9 @@
       <c r="C43" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -4254,10 +4296,10 @@
         <v>122</v>
       </c>
       <c r="C55" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D55" s="9">
-        <v>0.666666666666667</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -4290,10 +4332,10 @@
         <v>124</v>
       </c>
       <c r="C57" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D57" s="9">
-        <v>0.538461538461538</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -4328,7 +4370,9 @@
       <c r="C59" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
@@ -4460,11 +4504,11 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="12">
+    <row r="67" ht="20.35" customHeight="1">
+      <c r="A67" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="13">
         <v>143</v>
       </c>
       <c r="C67" t="s" s="12">
@@ -4478,47 +4522,47 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" t="s" s="13">
+    <row r="68" ht="20.7" customHeight="1">
+      <c r="A68" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="B68" t="s" s="13">
+      <c r="B68" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>76</v>
+      <c r="C68" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D68" s="9">
-        <v>0.794871794871795</v>
+        <v>0.65625</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" t="s" s="4">
+    <row r="69" ht="20.35" customHeight="1">
+      <c r="A69" t="s" s="11">
         <v>144</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>10</v>
+      <c r="C69" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D69" s="9">
-        <v>0.65625</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
-      <c r="A70" t="s" s="11">
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="B70" t="s" s="11">
+      <c r="B70" t="s" s="12">
         <v>148</v>
       </c>
       <c r="C70" t="s" s="12">
@@ -4542,7 +4586,9 @@
       <c r="C71" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="9">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
@@ -4556,10 +4602,10 @@
         <v>152</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D72" s="9">
-        <v>0.564102564102564</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -4574,79 +4620,83 @@
         <v>154</v>
       </c>
       <c r="C73" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D73" s="9">
-        <v>0.538461538461538</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" ht="20.35" customHeight="1">
-      <c r="A74" t="s" s="13">
+    <row r="74" ht="20.05" customHeight="1">
+      <c r="A74" t="s" s="12">
         <v>155</v>
       </c>
-      <c r="B74" t="s" s="13">
+      <c r="B74" t="s" s="12">
         <v>156</v>
       </c>
       <c r="C74" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D74" s="9">
-        <v>0.641025641025641</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.7" customHeight="1">
-      <c r="A75" t="s" s="4">
+    <row r="75" ht="20.35" customHeight="1">
+      <c r="A75" t="s" s="13">
         <v>157</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="13">
         <v>158</v>
       </c>
-      <c r="C75" t="s" s="8">
-        <v>10</v>
+      <c r="C75" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D75" s="9">
-        <v>0.46875</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" ht="20.35" customHeight="1">
-      <c r="A76" t="s" s="11">
+    <row r="76" ht="20.7" customHeight="1">
+      <c r="A76" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="B76" t="s" s="11">
+      <c r="B76" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D76" s="9"/>
+      <c r="C76" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.46875</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="12">
+    <row r="77" ht="20.35" customHeight="1">
+      <c r="A77" t="s" s="11">
         <v>161</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="11">
         <v>162</v>
       </c>
       <c r="C77" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D77" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
@@ -4660,45 +4710,47 @@
         <v>164</v>
       </c>
       <c r="C78" t="s" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.35" customHeight="1">
-      <c r="A79" t="s" s="13">
+    <row r="79" ht="20.05" customHeight="1">
+      <c r="A79" t="s" s="12">
         <v>165</v>
       </c>
-      <c r="B79" t="s" s="13">
+      <c r="B79" t="s" s="12">
         <v>166</v>
       </c>
       <c r="C79" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D79" s="9">
-        <v>0.487179487179487</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.7" customHeight="1">
-      <c r="A80" t="s" s="4">
+    <row r="80" ht="20.35" customHeight="1">
+      <c r="A80" t="s" s="13">
         <v>167</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="13">
         <v>168</v>
       </c>
-      <c r="C80" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D80" s="9"/>
+      <c r="C80" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
@@ -4712,10 +4764,10 @@
         <v>170</v>
       </c>
       <c r="C81" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D81" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4723,17 +4775,17 @@
       <c r="H81" s="10"/>
     </row>
     <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="14">
+      <c r="A82" t="s" s="4">
         <v>171</v>
       </c>
-      <c r="B82" t="s" s="14">
+      <c r="B82" t="s" s="4">
         <v>172</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>18</v>
+      <c r="C82" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D82" s="9">
-        <v>0.512820512820513</v>
+        <v>0.75</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -4741,51 +4793,53 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" ht="20.7" customHeight="1">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="14">
         <v>173</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="14">
         <v>174</v>
       </c>
-      <c r="C83" t="s" s="8">
-        <v>10</v>
+      <c r="C83" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D83" s="9">
-        <v>0.875</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.35" customHeight="1">
-      <c r="A84" t="s" s="11">
+    <row r="84" ht="20.7" customHeight="1">
+      <c r="A84" t="s" s="4">
         <v>175</v>
       </c>
-      <c r="B84" t="s" s="11">
+      <c r="B84" t="s" s="4">
         <v>176</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D84" s="9"/>
+      <c r="C84" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.875</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="12">
+    <row r="85" ht="20.35" customHeight="1">
+      <c r="A85" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="11">
         <v>178</v>
       </c>
       <c r="C85" t="s" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9">
-        <v>0.820512820512821</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -4803,7 +4857,7 @@
         <v>45</v>
       </c>
       <c r="D86" s="9">
-        <v>0.461538461538462</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -4818,22 +4872,22 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D87" s="9">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.35" customHeight="1">
-      <c r="A88" t="s" s="13">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s" s="13">
+    <row r="88" ht="20.05" customHeight="1">
+      <c r="A88" t="s" s="12">
         <v>183</v>
+      </c>
+      <c r="B88" t="s" s="12">
+        <v>184</v>
       </c>
       <c r="C88" t="s" s="12">
         <v>27</v>
@@ -4846,54 +4900,54 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="B89" t="s" s="4">
+    <row r="89" ht="20.35" customHeight="1">
+      <c r="A89" t="s" s="13">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s" s="13">
         <v>185</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>25</v>
+      <c r="C89" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D89" s="9">
-        <v>0.21875</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" ht="20.35" customHeight="1">
-      <c r="A90" t="s" s="11">
+    <row r="90" ht="20.7" customHeight="1">
+      <c r="A90" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="B90" t="s" s="11">
+      <c r="B90" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>18</v>
+      <c r="C90" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D90" s="9">
-        <v>0.615384615384615</v>
+        <v>0.21875</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="12">
+    <row r="91" ht="20.35" customHeight="1">
+      <c r="A91" t="s" s="11">
         <v>188</v>
       </c>
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="11">
         <v>189</v>
       </c>
       <c r="C91" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D91" s="9">
-        <v>0.717948717948718</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -4908,44 +4962,46 @@
         <v>191</v>
       </c>
       <c r="C92" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D92" s="9">
-        <v>0.205128205128205</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.35" customHeight="1">
-      <c r="A93" t="s" s="13">
+    <row r="93" ht="20.05" customHeight="1">
+      <c r="A93" t="s" s="12">
         <v>192</v>
       </c>
-      <c r="B93" t="s" s="13">
+      <c r="B93" t="s" s="12">
         <v>193</v>
       </c>
       <c r="C93" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D93" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.7" customHeight="1">
-      <c r="A94" t="s" s="4">
+    <row r="94" ht="20.35" customHeight="1">
+      <c r="A94" t="s" s="13">
         <v>194</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="13">
         <v>195</v>
       </c>
-      <c r="C94" t="s" s="8">
-        <v>25</v>
+      <c r="C94" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D94" s="9">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -4953,32 +5009,36 @@
       <c r="H94" s="10"/>
     </row>
     <row r="95" ht="20.7" customHeight="1">
-      <c r="A95" t="s" s="14">
+      <c r="A95" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="B95" t="s" s="14">
+      <c r="B95" t="s" s="4">
         <v>197</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D95" s="9"/>
+      <c r="C95" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.375</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
     <row r="96" ht="20.7" customHeight="1">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="14">
         <v>198</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="14">
         <v>199</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D96" s="9"/>
+      <c r="C96" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
@@ -4995,43 +5055,43 @@
         <v>25</v>
       </c>
       <c r="D97" s="9">
-        <v>0.53125</v>
+        <v>0</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.35" customHeight="1">
-      <c r="A98" t="s" s="11">
+    <row r="98" ht="20.7" customHeight="1">
+      <c r="A98" t="s" s="4">
         <v>202</v>
       </c>
-      <c r="B98" t="s" s="11">
+      <c r="B98" t="s" s="4">
         <v>203</v>
       </c>
-      <c r="C98" t="s" s="12">
-        <v>15</v>
+      <c r="C98" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D98" s="9">
-        <v>0.820512820512821</v>
+        <v>0.53125</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="12">
+    <row r="99" ht="20.35" customHeight="1">
+      <c r="A99" t="s" s="11">
         <v>204</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="11">
         <v>205</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D99" s="9">
-        <v>0.871794871794872</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -5046,10 +5106,10 @@
         <v>207</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D100" s="9">
-        <v>0.564102564102564</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -5063,9 +5123,11 @@
       <c r="B101" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D101" s="9">
-        <v>0.897435897435897</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -5079,80 +5141,80 @@
       <c r="B102" t="s" s="12">
         <v>211</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>25</v>
-      </c>
+      <c r="C102" s="10"/>
       <c r="D102" s="9">
-        <v>0.5625</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.35" customHeight="1">
-      <c r="A103" t="s" s="13">
+    <row r="103" ht="20.05" customHeight="1">
+      <c r="A103" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="B103" t="s" s="13">
+      <c r="B103" t="s" s="12">
         <v>213</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" t="s" s="12">
+        <v>25</v>
+      </c>
       <c r="D103" s="9">
-        <v>0.538461538461538</v>
+        <v>0.5625</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" ht="20.7" customHeight="1">
-      <c r="A104" t="s" s="4">
+    <row r="104" ht="20.35" customHeight="1">
+      <c r="A104" t="s" s="13">
         <v>214</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="13">
         <v>215</v>
       </c>
-      <c r="C104" t="s" s="8">
-        <v>25</v>
-      </c>
+      <c r="C104" s="10"/>
       <c r="D104" s="9">
-        <v>0.09375</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.35" customHeight="1">
-      <c r="A105" t="s" s="11">
+    <row r="105" ht="20.7" customHeight="1">
+      <c r="A105" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="B105" t="s" s="11">
+      <c r="B105" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>27</v>
+      <c r="C105" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D105" s="9">
-        <v>0.717948717948718</v>
+        <v>0.09375</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="12">
+    <row r="106" ht="20.35" customHeight="1">
+      <c r="A106" t="s" s="11">
         <v>218</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="11">
         <v>219</v>
       </c>
       <c r="C106" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D106" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
@@ -5166,10 +5228,10 @@
         <v>221</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D107" s="9">
-        <v>0.717948717948718</v>
+        <v>0</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5184,44 +5246,46 @@
         <v>223</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D108" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.35" customHeight="1">
-      <c r="A109" t="s" s="13">
+    <row r="109" ht="20.05" customHeight="1">
+      <c r="A109" t="s" s="12">
         <v>224</v>
       </c>
-      <c r="B109" t="s" s="13">
+      <c r="B109" t="s" s="12">
         <v>225</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D109" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.7" customHeight="1">
-      <c r="A110" t="s" s="4">
+    <row r="110" ht="20.35" customHeight="1">
+      <c r="A110" t="s" s="13">
         <v>226</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="13">
         <v>227</v>
       </c>
-      <c r="C110" t="s" s="8">
-        <v>25</v>
+      <c r="C110" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D110" s="9">
-        <v>0.03125</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -5238,7 +5302,9 @@
       <c r="C111" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="D111" s="9"/>
+      <c r="D111" s="9">
+        <v>0.03125</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
@@ -5255,42 +5321,44 @@
         <v>25</v>
       </c>
       <c r="D112" s="9">
-        <v>0.46875</v>
+        <v>0</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" t="s" s="11">
+    <row r="113" ht="20.7" customHeight="1">
+      <c r="A113" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="B113" t="s" s="11">
+      <c r="B113" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>45</v>
+      <c r="C113" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D113" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.46875</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="12">
+    <row r="114" ht="20.35" customHeight="1">
+      <c r="A114" t="s" s="11">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="11">
         <v>235</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D114" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
@@ -5304,82 +5372,82 @@
         <v>237</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D115" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.35" customHeight="1">
-      <c r="A116" t="s" s="13">
+    <row r="116" ht="20.05" customHeight="1">
+      <c r="A116" t="s" s="12">
         <v>238</v>
       </c>
-      <c r="B116" t="s" s="13">
+      <c r="B116" t="s" s="12">
         <v>239</v>
       </c>
       <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D116" s="9">
-        <v>0.384615384615385</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="4">
+    <row r="117" ht="20.35" customHeight="1">
+      <c r="A117" t="s" s="13">
         <v>240</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="13">
         <v>241</v>
       </c>
-      <c r="C117" t="s" s="8">
-        <v>25</v>
+      <c r="C117" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D117" s="9">
-        <v>0.65625</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.35" customHeight="1">
-      <c r="A118" t="s" s="11">
+    <row r="118" ht="20.7" customHeight="1">
+      <c r="A118" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="B118" t="s" s="11">
+      <c r="B118" t="s" s="4">
         <v>243</v>
       </c>
-      <c r="C118" t="s" s="12">
-        <v>45</v>
+      <c r="C118" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D118" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.65625</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" t="s" s="12">
+    <row r="119" ht="20.35" customHeight="1">
+      <c r="A119" t="s" s="11">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="11">
         <v>245</v>
       </c>
       <c r="C119" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D119" s="9">
-        <v>0.512820512820513</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -5394,46 +5462,46 @@
         <v>247</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D120" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.35" customHeight="1">
-      <c r="A121" t="s" s="13">
+    <row r="121" ht="20.05" customHeight="1">
+      <c r="A121" t="s" s="12">
         <v>248</v>
       </c>
-      <c r="B121" t="s" s="13">
+      <c r="B121" t="s" s="12">
         <v>249</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D121" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.7" customHeight="1">
-      <c r="A122" t="s" s="4">
+    <row r="122" ht="20.35" customHeight="1">
+      <c r="A122" t="s" s="13">
         <v>250</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="13">
         <v>251</v>
       </c>
-      <c r="C122" t="s" s="8">
-        <v>10</v>
+      <c r="C122" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D122" s="9">
-        <v>0.6875</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -5441,51 +5509,53 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="14">
+      <c r="A123" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="14">
+      <c r="B123" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D123" s="9"/>
+      <c r="C123" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D123" s="9">
+        <v>0.6875</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="14">
         <v>254</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="14">
         <v>255</v>
       </c>
-      <c r="C124" t="s" s="8">
-        <v>25</v>
+      <c r="C124" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D124" s="9">
-        <v>0.34375</v>
+        <v>0</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.35" customHeight="1">
-      <c r="A125" t="s" s="11">
+    <row r="125" ht="20.7" customHeight="1">
+      <c r="A125" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="B125" t="s" s="11">
+      <c r="B125" t="s" s="4">
         <v>257</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>27</v>
+      <c r="C125" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D125" s="9">
-        <v>0.0769230769230769</v>
+        <v>0.34375</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -5493,63 +5563,65 @@
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="13">
+      <c r="A126" t="s" s="11">
         <v>258</v>
       </c>
-      <c r="B126" t="s" s="13">
+      <c r="B126" t="s" s="11">
         <v>259</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D126" s="9">
-        <v>0.58974358974359</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="4">
+    <row r="127" ht="20.35" customHeight="1">
+      <c r="A127" t="s" s="13">
         <v>260</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="13">
         <v>261</v>
       </c>
-      <c r="C127" t="s" s="8">
-        <v>25</v>
+      <c r="C127" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D127" s="9">
-        <v>0.59375</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.35" customHeight="1">
-      <c r="A128" t="s" s="11">
+    <row r="128" ht="20.7" customHeight="1">
+      <c r="A128" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="B128" t="s" s="11">
+      <c r="B128" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D128" s="9"/>
+      <c r="C128" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D128" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="12">
-        <v>262</v>
-      </c>
-      <c r="B129" t="s" s="12">
+    <row r="129" ht="20.35" customHeight="1">
+      <c r="A129" t="s" s="11">
         <v>264</v>
+      </c>
+      <c r="B129" t="s" s="11">
+        <v>265</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="9">
@@ -5560,36 +5632,36 @@
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.35" customHeight="1">
-      <c r="A130" t="s" s="13">
-        <v>265</v>
-      </c>
-      <c r="B130" t="s" s="13">
+    <row r="130" ht="20.05" customHeight="1">
+      <c r="A130" t="s" s="12">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s" s="12">
         <v>266</v>
       </c>
       <c r="C130" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D130" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.7" customHeight="1">
-      <c r="A131" t="s" s="4">
+    <row r="131" ht="20.35" customHeight="1">
+      <c r="A131" t="s" s="13">
         <v>267</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="13">
         <v>268</v>
       </c>
-      <c r="C131" t="s" s="8">
-        <v>10</v>
+      <c r="C131" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D131" s="9">
-        <v>0.71875</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -5597,17 +5669,17 @@
       <c r="H131" s="10"/>
     </row>
     <row r="132" ht="20.7" customHeight="1">
-      <c r="A132" t="s" s="14">
+      <c r="A132" t="s" s="4">
         <v>269</v>
       </c>
-      <c r="B132" t="s" s="14">
+      <c r="B132" t="s" s="4">
         <v>270</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>27</v>
+      <c r="C132" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D132" s="9">
-        <v>0.794871794871795</v>
+        <v>0.71875</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -5615,35 +5687,35 @@
       <c r="H132" s="10"/>
     </row>
     <row r="133" ht="20.7" customHeight="1">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="14">
         <v>271</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="14">
         <v>272</v>
       </c>
-      <c r="C133" t="s" s="8">
-        <v>10</v>
+      <c r="C133" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D133" s="9">
-        <v>0.84375</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.35" customHeight="1">
-      <c r="A134" t="s" s="11">
+    <row r="134" ht="20.7" customHeight="1">
+      <c r="A134" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="B134" t="s" s="11">
+      <c r="B134" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>18</v>
+      <c r="C134" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D134" s="9">
-        <v>0.538461538461538</v>
+        <v>0.84375</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -5651,71 +5723,71 @@
       <c r="H134" s="10"/>
     </row>
     <row r="135" ht="20.35" customHeight="1">
-      <c r="A135" t="s" s="13">
+      <c r="A135" t="s" s="11">
         <v>275</v>
       </c>
-      <c r="B135" t="s" s="13">
+      <c r="B135" t="s" s="11">
         <v>276</v>
       </c>
       <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D135" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" ht="20.7" customHeight="1">
-      <c r="A136" t="s" s="4">
+    <row r="136" ht="20.35" customHeight="1">
+      <c r="A136" t="s" s="13">
         <v>277</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="13">
         <v>278</v>
       </c>
-      <c r="C136" t="s" s="8">
-        <v>10</v>
+      <c r="C136" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D136" s="9">
-        <v>0.8125</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" ht="20.35" customHeight="1">
-      <c r="A137" t="s" s="11">
+    <row r="137" ht="20.7" customHeight="1">
+      <c r="A137" t="s" s="4">
         <v>279</v>
       </c>
-      <c r="B137" t="s" s="11">
+      <c r="B137" t="s" s="4">
         <v>280</v>
       </c>
-      <c r="C137" t="s" s="12">
-        <v>45</v>
+      <c r="C137" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D137" s="9">
-        <v>0.512820512820513</v>
+        <v>0.8125</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="12">
+    <row r="138" ht="20.35" customHeight="1">
+      <c r="A138" t="s" s="11">
         <v>281</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="11">
         <v>282</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D138" s="9">
-        <v>0.461538461538462</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -5730,9 +5802,11 @@
         <v>284</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D139" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D139" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
@@ -5746,9 +5820,11 @@
         <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D140" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D140" s="9">
+        <v>0</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
@@ -5762,10 +5838,10 @@
         <v>288</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D141" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -5780,9 +5856,11 @@
         <v>290</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D142" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
@@ -5790,15 +5868,17 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="12">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B143" t="s" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D143" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D143" s="9">
+        <v>0</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
@@ -5806,16 +5886,16 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="12">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s" s="12">
         <v>293</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D144" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -5830,10 +5910,10 @@
         <v>295</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D145" s="9">
-        <v>0.564102564102564</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -5848,10 +5928,10 @@
         <v>297</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D146" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -5866,10 +5946,10 @@
         <v>299</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D147" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -5904,7 +5984,9 @@
       <c r="C149" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D149" s="10"/>
+      <c r="D149" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
@@ -5918,10 +6000,10 @@
         <v>305</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D150" s="9">
-        <v>0.717948717948718</v>
+        <v>0</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -5939,7 +6021,7 @@
         <v>45</v>
       </c>
       <c r="D151" s="9">
-        <v>0.435897435897436</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
@@ -5954,46 +6036,46 @@
         <v>309</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D152" s="9">
-        <v>0.384615384615385</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="12">
+    <row r="153" ht="20.35" customHeight="1">
+      <c r="A153" t="s" s="13">
         <v>310</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="13">
         <v>311</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D153" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="12">
-        <v>310</v>
-      </c>
-      <c r="B154" t="s" s="12">
+    <row r="154" ht="20.7" customHeight="1">
+      <c r="A154" t="s" s="4">
         <v>312</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>27</v>
+      <c r="B154" t="s" s="4">
+        <v>313</v>
+      </c>
+      <c r="C154" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D154" s="9">
-        <v>0.641025641025641</v>
+        <v>0.5</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -6001,50 +6083,54 @@
       <c r="H154" s="10"/>
     </row>
     <row r="155" ht="20.35" customHeight="1">
-      <c r="A155" t="s" s="13">
-        <v>310</v>
-      </c>
-      <c r="B155" t="s" s="13">
-        <v>313</v>
+      <c r="A155" t="s" s="11">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s" s="11">
+        <v>314</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D155" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D155" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" ht="20.7" customHeight="1">
-      <c r="A156" t="s" s="4">
-        <v>310</v>
-      </c>
-      <c r="B156" t="s" s="4">
-        <v>314</v>
-      </c>
-      <c r="C156" t="s" s="8">
-        <v>25</v>
+    <row r="156" ht="20.05" customHeight="1">
+      <c r="A156" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="B156" t="s" s="12">
+        <v>315</v>
+      </c>
+      <c r="C156" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D156" s="9">
-        <v>0.5</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" ht="20.35" customHeight="1">
-      <c r="A157" t="s" s="11">
-        <v>315</v>
-      </c>
-      <c r="B157" t="s" s="11">
+    <row r="157" ht="20.05" customHeight="1">
+      <c r="A157" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s" s="12">
         <v>316</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D157" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D157" s="9">
+        <v>0</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
@@ -6061,7 +6147,7 @@
         <v>45</v>
       </c>
       <c r="D158" s="9">
-        <v>0.948717948717949</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -6076,10 +6162,10 @@
         <v>320</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D159" s="9">
-        <v>0.692307692307692</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -6094,10 +6180,10 @@
         <v>322</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D160" s="9">
-        <v>0.846153846153846</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -6115,7 +6201,7 @@
         <v>45</v>
       </c>
       <c r="D161" s="9">
-        <v>0.358974358974359</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -6133,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="D162" s="9">
-        <v>0.923076923076923</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
@@ -6151,7 +6237,7 @@
         <v>45</v>
       </c>
       <c r="D163" s="9">
-        <v>0.846153846153846</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -6169,7 +6255,7 @@
         <v>45</v>
       </c>
       <c r="D164" s="9">
-        <v>0.871794871794872</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -6184,10 +6270,10 @@
         <v>332</v>
       </c>
       <c r="C165" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D165" s="9">
-        <v>0.256410256410256</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
@@ -6204,7 +6290,9 @@
       <c r="C166" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D166" s="9"/>
+      <c r="D166" s="9">
+        <v>0.256410256410256</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -6218,10 +6306,10 @@
         <v>336</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D167" s="9">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -6236,77 +6324,83 @@
         <v>338</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D168" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D168" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" ht="20.35" customHeight="1">
-      <c r="A169" t="s" s="13">
+    <row r="169" ht="20.05" customHeight="1">
+      <c r="A169" t="s" s="12">
         <v>339</v>
       </c>
-      <c r="B169" t="s" s="13">
+      <c r="B169" t="s" s="12">
         <v>340</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D169" s="9">
-        <v>0.641025641025641</v>
+        <v>0</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.7" customHeight="1">
-      <c r="A170" t="s" s="4">
+    <row r="170" ht="20.35" customHeight="1">
+      <c r="A170" t="s" s="13">
         <v>341</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="13">
         <v>342</v>
       </c>
-      <c r="C170" t="s" s="8">
-        <v>10</v>
+      <c r="C170" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D170" s="9">
-        <v>0.78125</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.35" customHeight="1">
-      <c r="A171" t="s" s="11">
+    <row r="171" ht="20.7" customHeight="1">
+      <c r="A171" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="B171" t="s" s="11">
+      <c r="B171" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D171" s="9"/>
+      <c r="C171" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D171" s="9">
+        <v>0.78125</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" ht="20.05" customHeight="1">
-      <c r="A172" t="s" s="12">
+    <row r="172" ht="20.35" customHeight="1">
+      <c r="A172" t="s" s="11">
         <v>345</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="11">
         <v>346</v>
       </c>
       <c r="C172" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D172" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="D172" s="9">
+        <v>0</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
@@ -6320,10 +6414,10 @@
         <v>348</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D173" s="9">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -6341,7 +6435,7 @@
         <v>76</v>
       </c>
       <c r="D174" s="9">
-        <v>0.666666666666667</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -6359,7 +6453,7 @@
         <v>76</v>
       </c>
       <c r="D175" s="9">
-        <v>0.128205128205128</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -6373,9 +6467,11 @@
       <c r="B176" t="s" s="12">
         <v>354</v>
       </c>
-      <c r="C176" s="10"/>
+      <c r="C176" t="s" s="12">
+        <v>76</v>
+      </c>
       <c r="D176" s="9">
-        <v>0.512820512820513</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -6389,11 +6485,9 @@
       <c r="B177" t="s" s="12">
         <v>356</v>
       </c>
-      <c r="C177" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C177" s="10"/>
       <c r="D177" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -6408,10 +6502,10 @@
         <v>358</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D178" s="9">
-        <v>0.615384615384615</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -6426,10 +6520,10 @@
         <v>360</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D179" s="9">
-        <v>0.538461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -6444,9 +6538,11 @@
         <v>362</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D180" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D180" s="9">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
@@ -6460,80 +6556,82 @@
         <v>364</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D181" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D181" s="9">
+        <v>0</v>
+      </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" ht="20.35" customHeight="1">
-      <c r="A182" t="s" s="13">
+    <row r="182" ht="20.05" customHeight="1">
+      <c r="A182" t="s" s="12">
         <v>365</v>
       </c>
-      <c r="B182" t="s" s="13">
+      <c r="B182" t="s" s="12">
         <v>366</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D182" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.7" customHeight="1">
-      <c r="A183" t="s" s="4">
+    <row r="183" ht="20.35" customHeight="1">
+      <c r="A183" t="s" s="13">
         <v>367</v>
       </c>
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="13">
         <v>368</v>
       </c>
-      <c r="C183" t="s" s="8">
-        <v>25</v>
+      <c r="C183" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D183" s="9">
-        <v>0.5625</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="11">
+    <row r="184" ht="20.7" customHeight="1">
+      <c r="A184" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="B184" t="s" s="11">
+      <c r="B184" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>15</v>
+      <c r="C184" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D184" s="9">
-        <v>0.820512820512821</v>
+        <v>0.5625</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.05" customHeight="1">
-      <c r="A185" t="s" s="12">
+    <row r="185" ht="20.35" customHeight="1">
+      <c r="A185" t="s" s="11">
         <v>371</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="11">
         <v>372</v>
       </c>
       <c r="C185" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D185" s="9">
-        <v>0.333333333333333</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -6548,9 +6646,11 @@
         <v>374</v>
       </c>
       <c r="C186" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D186" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D186" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
@@ -6564,10 +6664,10 @@
         <v>376</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D187" s="9">
-        <v>0.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -6582,9 +6682,11 @@
         <v>378</v>
       </c>
       <c r="C188" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D188" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D188" s="9">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
@@ -6601,7 +6703,7 @@
         <v>18</v>
       </c>
       <c r="D189" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -6616,10 +6718,10 @@
         <v>382</v>
       </c>
       <c r="C190" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D190" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -6634,60 +6736,64 @@
         <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D191" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D191" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" ht="20.35" customHeight="1">
-      <c r="A192" t="s" s="13">
-        <v>383</v>
-      </c>
-      <c r="B192" t="s" s="13">
+    <row r="192" ht="20.05" customHeight="1">
+      <c r="A192" t="s" s="12">
         <v>385</v>
       </c>
+      <c r="B192" t="s" s="12">
+        <v>386</v>
+      </c>
       <c r="C192" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D192" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.7" customHeight="1">
-      <c r="A193" t="s" s="4">
-        <v>386</v>
-      </c>
-      <c r="B193" t="s" s="4">
+    <row r="193" ht="20.35" customHeight="1">
+      <c r="A193" t="s" s="13">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s" s="13">
         <v>387</v>
       </c>
-      <c r="C193" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D193" s="9"/>
+      <c r="C193" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D193" s="9">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
     <row r="194" ht="20.7" customHeight="1">
-      <c r="A194" t="s" s="14">
+      <c r="A194" t="s" s="4">
         <v>388</v>
       </c>
-      <c r="B194" t="s" s="14">
+      <c r="B194" t="s" s="4">
         <v>389</v>
       </c>
-      <c r="C194" t="s" s="12">
-        <v>45</v>
+      <c r="C194" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D194" s="9">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -6695,115 +6801,117 @@
       <c r="H194" s="10"/>
     </row>
     <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="14">
         <v>390</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="14">
         <v>391</v>
       </c>
-      <c r="C195" t="s" s="8">
-        <v>10</v>
+      <c r="C195" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D195" s="9">
-        <v>0.75</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.35" customHeight="1">
-      <c r="A196" t="s" s="11">
+    <row r="196" ht="20.7" customHeight="1">
+      <c r="A196" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="B196" t="s" s="11">
+      <c r="B196" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="C196" s="10"/>
+      <c r="C196" t="s" s="8">
+        <v>10</v>
+      </c>
       <c r="D196" s="9">
-        <v>0.461538461538462</v>
+        <v>0.75</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="12">
+    <row r="197" ht="20.35" customHeight="1">
+      <c r="A197" t="s" s="11">
         <v>394</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="11">
         <v>395</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>76</v>
-      </c>
+      <c r="C197" s="10"/>
       <c r="D197" s="9">
-        <v>0.641025641025641</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.35" customHeight="1">
-      <c r="A198" t="s" s="13">
+    <row r="198" ht="20.05" customHeight="1">
+      <c r="A198" t="s" s="12">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="13">
+      <c r="B198" t="s" s="12">
         <v>397</v>
       </c>
       <c r="C198" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D198" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D198" s="9">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.7" customHeight="1">
-      <c r="A199" t="s" s="4">
+    <row r="199" ht="20.35" customHeight="1">
+      <c r="A199" t="s" s="13">
         <v>398</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="13">
         <v>399</v>
       </c>
-      <c r="C199" t="s" s="8">
-        <v>10</v>
+      <c r="C199" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D199" s="9">
-        <v>0.71875</v>
+        <v>0</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.35" customHeight="1">
-      <c r="A200" t="s" s="11">
+    <row r="200" ht="20.7" customHeight="1">
+      <c r="A200" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="11">
+      <c r="B200" t="s" s="4">
         <v>401</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>18</v>
+      <c r="C200" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D200" s="9">
-        <v>0.58974358974359</v>
+        <v>0.71875</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.05" customHeight="1">
-      <c r="A201" t="s" s="12">
-        <v>400</v>
-      </c>
-      <c r="B201" t="s" s="12">
+    <row r="201" ht="20.35" customHeight="1">
+      <c r="A201" t="s" s="11">
         <v>402</v>
+      </c>
+      <c r="B201" t="s" s="11">
+        <v>403</v>
       </c>
       <c r="C201" t="s" s="12">
         <v>18</v>
@@ -6816,36 +6924,36 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="13">
-        <v>403</v>
-      </c>
-      <c r="B202" t="s" s="13">
+    <row r="202" ht="20.05" customHeight="1">
+      <c r="A202" t="s" s="12">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s" s="12">
         <v>404</v>
       </c>
       <c r="C202" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D202" s="9">
-        <v>0.307692307692308</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.7" customHeight="1">
-      <c r="A203" t="s" s="4">
-        <v>403</v>
-      </c>
-      <c r="B203" t="s" s="4">
+    <row r="203" ht="20.35" customHeight="1">
+      <c r="A203" t="s" s="13">
         <v>405</v>
       </c>
-      <c r="C203" t="s" s="8">
-        <v>10</v>
+      <c r="B203" t="s" s="13">
+        <v>406</v>
+      </c>
+      <c r="C203" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D203" s="9">
-        <v>0.71875</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
@@ -6853,17 +6961,17 @@
       <c r="H203" s="10"/>
     </row>
     <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="14">
-        <v>406</v>
-      </c>
-      <c r="B204" t="s" s="14">
+      <c r="A204" t="s" s="4">
+        <v>405</v>
+      </c>
+      <c r="B204" t="s" s="4">
         <v>407</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>30</v>
+      <c r="C204" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D204" s="9">
-        <v>0.871794871794872</v>
+        <v>0.71875</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
@@ -6871,35 +6979,35 @@
       <c r="H204" s="10"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="14">
         <v>408</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="14">
         <v>409</v>
       </c>
-      <c r="C205" t="s" s="8">
-        <v>25</v>
+      <c r="C205" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D205" s="9">
-        <v>0.59375</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.35" customHeight="1">
-      <c r="A206" t="s" s="11">
+    <row r="206" ht="20.7" customHeight="1">
+      <c r="A206" t="s" s="4">
         <v>410</v>
       </c>
-      <c r="B206" t="s" s="11">
+      <c r="B206" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>76</v>
+      <c r="C206" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D206" s="9">
-        <v>0.717948717948718</v>
+        <v>0.59375</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
@@ -6907,35 +7015,35 @@
       <c r="H206" s="10"/>
     </row>
     <row r="207" ht="20.35" customHeight="1">
-      <c r="A207" t="s" s="13">
+      <c r="A207" t="s" s="11">
         <v>412</v>
       </c>
-      <c r="B207" t="s" s="13">
+      <c r="B207" t="s" s="11">
         <v>413</v>
       </c>
       <c r="C207" t="s" s="12">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D207" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="4">
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" t="s" s="13">
         <v>414</v>
       </c>
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="13">
         <v>415</v>
       </c>
-      <c r="C208" t="s" s="8">
-        <v>10</v>
+      <c r="C208" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D208" s="9">
-        <v>0.65625</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
@@ -6953,43 +7061,43 @@
         <v>10</v>
       </c>
       <c r="D209" s="9">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.35" customHeight="1">
-      <c r="A210" t="s" s="11">
+    <row r="210" ht="20.7" customHeight="1">
+      <c r="A210" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="B210" t="s" s="11">
+      <c r="B210" t="s" s="4">
         <v>419</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>15</v>
+      <c r="C210" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D210" s="9">
-        <v>0.435897435897436</v>
+        <v>0.84375</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.05" customHeight="1">
-      <c r="A211" t="s" s="12">
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="11">
         <v>420</v>
       </c>
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="11">
         <v>421</v>
       </c>
       <c r="C211" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D211" s="9">
-        <v>0.58974358974359</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -7004,7 +7112,7 @@
         <v>423</v>
       </c>
       <c r="C212" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D212" s="9">
         <v>0.58974358974359</v>
@@ -7022,9 +7130,11 @@
         <v>425</v>
       </c>
       <c r="C213" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D213" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D213" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
@@ -7038,64 +7148,64 @@
         <v>427</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D214" s="9">
-        <v>0.58974358974359</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.35" customHeight="1">
-      <c r="A215" t="s" s="13">
+    <row r="215" ht="20.05" customHeight="1">
+      <c r="A215" t="s" s="12">
         <v>428</v>
       </c>
-      <c r="B215" t="s" s="13">
+      <c r="B215" t="s" s="12">
         <v>429</v>
       </c>
       <c r="C215" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D215" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.7" customHeight="1">
-      <c r="A216" t="s" s="4">
+    <row r="216" ht="20.35" customHeight="1">
+      <c r="A216" t="s" s="13">
         <v>430</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="13">
         <v>431</v>
       </c>
-      <c r="C216" t="s" s="8">
-        <v>25</v>
+      <c r="C216" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D216" s="9">
-        <v>0.28125</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.35" customHeight="1">
-      <c r="A217" t="s" s="11">
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="B217" t="s" s="11">
+      <c r="B217" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="C217" t="s" s="12">
-        <v>45</v>
+      <c r="C217" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D217" s="9">
-        <v>0.871794871794872</v>
+        <v>0.28125</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
@@ -7103,35 +7213,35 @@
       <c r="H217" s="10"/>
     </row>
     <row r="218" ht="20.35" customHeight="1">
-      <c r="A218" t="s" s="13">
+      <c r="A218" t="s" s="11">
         <v>434</v>
       </c>
-      <c r="B218" t="s" s="13">
+      <c r="B218" t="s" s="11">
         <v>435</v>
       </c>
       <c r="C218" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D218" s="9">
-        <v>0.717948717948718</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.7" customHeight="1">
-      <c r="A219" t="s" s="4">
+    <row r="219" ht="20.35" customHeight="1">
+      <c r="A219" t="s" s="13">
         <v>436</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="13">
         <v>437</v>
       </c>
-      <c r="C219" t="s" s="8">
-        <v>10</v>
+      <c r="C219" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D219" s="9">
-        <v>0.59375</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
@@ -7148,40 +7258,44 @@
       <c r="C220" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D220" s="9"/>
+      <c r="D220" s="9">
+        <v>0.59375</v>
+      </c>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
     <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="15">
+      <c r="A221" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="B221" t="s" s="15">
+      <c r="B221" t="s" s="4">
         <v>441</v>
       </c>
       <c r="C221" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D221" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D221" s="9">
+        <v>0</v>
+      </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
     <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="15">
         <v>442</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="15">
         <v>443</v>
       </c>
       <c r="C222" t="s" s="8">
         <v>25</v>
       </c>
       <c r="D222" s="9">
-        <v>0.59375</v>
+        <v>0</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
@@ -7189,15 +7303,17 @@
       <c r="H222" s="10"/>
     </row>
     <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="14">
+      <c r="A223" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="C223" s="10"/>
+      <c r="C223" t="s" s="8">
+        <v>25</v>
+      </c>
       <c r="D223" s="9">
-        <v>0.564102564102564</v>
+        <v>0.59375</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
@@ -7205,16 +7321,16 @@
       <c r="H223" s="10"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="14">
         <v>446</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="14">
         <v>447</v>
       </c>
-      <c r="C224" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D224" s="9"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
@@ -7228,44 +7344,46 @@
         <v>449</v>
       </c>
       <c r="C225" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D225" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="D225" s="9">
+        <v>0</v>
+      </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.35" customHeight="1">
-      <c r="A226" t="s" s="11">
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="B226" t="s" s="11">
+      <c r="B226" t="s" s="4">
         <v>451</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>18</v>
+      <c r="C226" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D226" s="9">
-        <v>0.0769230769230769</v>
+        <v>0</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.05" customHeight="1">
-      <c r="A227" t="s" s="12">
+    <row r="227" ht="20.35" customHeight="1">
+      <c r="A227" t="s" s="11">
         <v>452</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="11">
         <v>453</v>
       </c>
       <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D227" s="9">
-        <v>0.897435897435897</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
@@ -7280,9 +7398,11 @@
         <v>455</v>
       </c>
       <c r="C228" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D228" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D228" s="9">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
@@ -7296,10 +7416,10 @@
         <v>457</v>
       </c>
       <c r="C229" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D229" s="9">
-        <v>0.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
@@ -7317,7 +7437,7 @@
         <v>76</v>
       </c>
       <c r="D230" s="9">
-        <v>0.58974358974359</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
@@ -7332,46 +7452,46 @@
         <v>461</v>
       </c>
       <c r="C231" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D231" s="9">
-        <v>0.820512820512821</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.35" customHeight="1">
-      <c r="A232" t="s" s="13">
+    <row r="232" ht="20.05" customHeight="1">
+      <c r="A232" t="s" s="12">
         <v>462</v>
       </c>
-      <c r="B232" t="s" s="13">
+      <c r="B232" t="s" s="12">
         <v>463</v>
       </c>
       <c r="C232" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D232" s="9">
-        <v>0.384615384615385</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.7" customHeight="1">
-      <c r="A233" t="s" s="4">
+    <row r="233" ht="20.35" customHeight="1">
+      <c r="A233" t="s" s="13">
         <v>464</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="13">
         <v>465</v>
       </c>
-      <c r="C233" t="s" s="8">
-        <v>25</v>
+      <c r="C233" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D233" s="9">
-        <v>0.3125</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
@@ -7379,17 +7499,17 @@
       <c r="H233" s="10"/>
     </row>
     <row r="234" ht="20.7" customHeight="1">
-      <c r="A234" t="s" s="14">
+      <c r="A234" t="s" s="4">
         <v>466</v>
       </c>
-      <c r="B234" t="s" s="14">
+      <c r="B234" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>45</v>
+      <c r="C234" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D234" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.3125</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
@@ -7397,51 +7517,53 @@
       <c r="H234" s="10"/>
     </row>
     <row r="235" ht="20.7" customHeight="1">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="14">
         <v>468</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="14">
         <v>469</v>
       </c>
-      <c r="C235" t="s" s="8">
-        <v>10</v>
+      <c r="C235" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D235" s="9">
-        <v>0.375</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.35" customHeight="1">
-      <c r="A236" t="s" s="11">
+    <row r="236" ht="20.7" customHeight="1">
+      <c r="A236" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="B236" t="s" s="11">
+      <c r="B236" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D236" s="9"/>
+      <c r="C236" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D236" s="9">
+        <v>0.375</v>
+      </c>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.05" customHeight="1">
-      <c r="A237" t="s" s="12">
+    <row r="237" ht="20.35" customHeight="1">
+      <c r="A237" t="s" s="11">
         <v>472</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="11">
         <v>473</v>
       </c>
       <c r="C237" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D237" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
@@ -7456,44 +7578,46 @@
         <v>475</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D238" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.35" customHeight="1">
-      <c r="A239" t="s" s="13">
+    <row r="239" ht="20.05" customHeight="1">
+      <c r="A239" t="s" s="12">
         <v>476</v>
       </c>
-      <c r="B239" t="s" s="13">
+      <c r="B239" t="s" s="12">
         <v>477</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D239" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D239" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.7" customHeight="1">
-      <c r="A240" t="s" s="4">
+    <row r="240" ht="20.35" customHeight="1">
+      <c r="A240" t="s" s="13">
         <v>478</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="13">
         <v>479</v>
       </c>
-      <c r="C240" t="s" s="8">
-        <v>10</v>
+      <c r="C240" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D240" s="9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
@@ -7508,43 +7632,47 @@
         <v>481</v>
       </c>
       <c r="C241" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D241" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D241" s="9">
+        <v>0.625</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.35" customHeight="1">
-      <c r="A242" t="s" s="11">
+    <row r="242" ht="20.7" customHeight="1">
+      <c r="A242" t="s" s="4">
         <v>482</v>
       </c>
-      <c r="B242" t="s" s="11">
+      <c r="B242" t="s" s="4">
         <v>483</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>27</v>
+      <c r="C242" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D242" s="9">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243" ht="20.05" customHeight="1">
-      <c r="A243" t="s" s="12">
+    <row r="243" ht="20.35" customHeight="1">
+      <c r="A243" t="s" s="11">
         <v>484</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="11">
         <v>485</v>
       </c>
       <c r="C243" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D243" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D243" s="9">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
@@ -7552,10 +7680,10 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="12">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B244" t="s" s="12">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s" s="12">
         <v>45</v>
@@ -7570,15 +7698,17 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="12">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s" s="12">
         <v>488</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D245" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D245" s="9">
+        <v>0</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
@@ -7595,7 +7725,7 @@
         <v>18</v>
       </c>
       <c r="D246" s="9">
-        <v>0.435897435897436</v>
+        <v>0</v>
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
@@ -7610,9 +7740,11 @@
         <v>492</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D247" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D247" s="9">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
@@ -7626,10 +7758,10 @@
         <v>494</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D248" s="9">
-        <v>0.974358974358974</v>
+        <v>0</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
@@ -7647,7 +7779,7 @@
         <v>45</v>
       </c>
       <c r="D249" s="9">
-        <v>0.58974358974359</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
@@ -7665,7 +7797,7 @@
         <v>45</v>
       </c>
       <c r="D250" s="9">
-        <v>0.461538461538462</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
@@ -7680,10 +7812,10 @@
         <v>500</v>
       </c>
       <c r="C251" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D251" s="9">
-        <v>0.512820512820513</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
@@ -7701,7 +7833,7 @@
         <v>76</v>
       </c>
       <c r="D252" s="9">
-        <v>0.487179487179487</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -7716,10 +7848,10 @@
         <v>504</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D253" s="9">
-        <v>0.692307692307692</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -7734,46 +7866,46 @@
         <v>506</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D254" s="9">
-        <v>0.179487179487179</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255" ht="20.35" customHeight="1">
-      <c r="A255" t="s" s="13">
+    <row r="255" ht="20.05" customHeight="1">
+      <c r="A255" t="s" s="12">
         <v>507</v>
       </c>
-      <c r="B255" t="s" s="13">
+      <c r="B255" t="s" s="12">
         <v>508</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D255" s="9">
-        <v>0.78125</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" t="s" s="4">
+    <row r="256" ht="20.35" customHeight="1">
+      <c r="A256" t="s" s="13">
         <v>509</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="13">
         <v>510</v>
       </c>
-      <c r="C256" t="s" s="8">
+      <c r="C256" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D256" s="9">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
@@ -7791,43 +7923,43 @@
         <v>10</v>
       </c>
       <c r="D257" s="9">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.35" customHeight="1">
-      <c r="A258" t="s" s="11">
+    <row r="258" ht="20.7" customHeight="1">
+      <c r="A258" t="s" s="4">
         <v>513</v>
       </c>
-      <c r="B258" t="s" s="11">
+      <c r="B258" t="s" s="4">
         <v>514</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>76</v>
+      <c r="C258" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D258" s="9">
-        <v>0.692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.05" customHeight="1">
-      <c r="A259" t="s" s="12">
+    <row r="259" ht="20.35" customHeight="1">
+      <c r="A259" t="s" s="11">
         <v>515</v>
       </c>
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="11">
         <v>516</v>
       </c>
       <c r="C259" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D259" s="9">
-        <v>0.717948717948718</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
@@ -7842,10 +7974,10 @@
         <v>518</v>
       </c>
       <c r="C260" t="s" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D260" s="9">
-        <v>0.58974358974359</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
@@ -7860,10 +7992,10 @@
         <v>520</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D261" s="9">
-        <v>0.564102564102564</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -7878,9 +8010,11 @@
         <v>522</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D262" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D262" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
@@ -7894,10 +8028,10 @@
         <v>524</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D263" s="9">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
@@ -7912,10 +8046,10 @@
         <v>526</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D264" s="9">
-        <v>0.897435897435897</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -7933,7 +8067,7 @@
         <v>45</v>
       </c>
       <c r="D265" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
@@ -7951,7 +8085,7 @@
         <v>45</v>
       </c>
       <c r="D266" s="9">
-        <v>0.461538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
@@ -7966,9 +8100,11 @@
         <v>532</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D267" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D267" s="9">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
@@ -7982,10 +8118,10 @@
         <v>534</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D268" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -8000,10 +8136,10 @@
         <v>536</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D269" s="9">
-        <v>0.641025641025641</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
@@ -8018,80 +8154,82 @@
         <v>538</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D270" s="9">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" ht="20.35" customHeight="1">
-      <c r="A271" t="s" s="13">
+    <row r="271" ht="20.05" customHeight="1">
+      <c r="A271" t="s" s="12">
         <v>539</v>
       </c>
-      <c r="B271" t="s" s="13">
+      <c r="B271" t="s" s="12">
         <v>540</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D271" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D271" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.7" customHeight="1">
-      <c r="A272" t="s" s="4">
+    <row r="272" ht="20.35" customHeight="1">
+      <c r="A272" t="s" s="13">
         <v>541</v>
       </c>
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="13">
         <v>542</v>
       </c>
-      <c r="C272" t="s" s="8">
-        <v>10</v>
+      <c r="C272" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D272" s="9">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.35" customHeight="1">
-      <c r="A273" t="s" s="11">
+    <row r="273" ht="20.7" customHeight="1">
+      <c r="A273" t="s" s="4">
         <v>543</v>
       </c>
-      <c r="B273" t="s" s="11">
+      <c r="B273" t="s" s="4">
         <v>544</v>
       </c>
-      <c r="C273" t="s" s="12">
-        <v>76</v>
+      <c r="C273" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D273" s="9">
-        <v>0.871794871794872</v>
+        <v>0.6875</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.05" customHeight="1">
-      <c r="A274" t="s" s="12">
+    <row r="274" ht="20.35" customHeight="1">
+      <c r="A274" t="s" s="11">
         <v>545</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="11">
         <v>546</v>
       </c>
       <c r="C274" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D274" s="9">
-        <v>0.512820512820513</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
@@ -8106,9 +8244,11 @@
         <v>548</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D275" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D275" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
@@ -8125,7 +8265,7 @@
         <v>76</v>
       </c>
       <c r="D276" s="9">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
@@ -8140,82 +8280,82 @@
         <v>552</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D277" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" ht="20.35" customHeight="1">
-      <c r="A278" t="s" s="13">
+    <row r="278" ht="20.05" customHeight="1">
+      <c r="A278" t="s" s="12">
         <v>553</v>
       </c>
-      <c r="B278" t="s" s="13">
+      <c r="B278" t="s" s="12">
         <v>554</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D278" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.7" customHeight="1">
-      <c r="A279" t="s" s="4">
+    <row r="279" ht="20.35" customHeight="1">
+      <c r="A279" t="s" s="13">
         <v>555</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="13">
         <v>556</v>
       </c>
-      <c r="C279" t="s" s="8">
-        <v>25</v>
+      <c r="C279" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D279" s="9">
-        <v>0.6875</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.35" customHeight="1">
-      <c r="A280" t="s" s="11">
+    <row r="280" ht="20.7" customHeight="1">
+      <c r="A280" t="s" s="4">
         <v>557</v>
       </c>
-      <c r="B280" t="s" s="11">
+      <c r="B280" t="s" s="4">
         <v>558</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>76</v>
+      <c r="C280" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D280" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.6875</v>
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.05" customHeight="1">
-      <c r="A281" t="s" s="12">
+    <row r="281" ht="20.35" customHeight="1">
+      <c r="A281" t="s" s="11">
         <v>559</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="11">
         <v>560</v>
       </c>
       <c r="C281" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D281" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
@@ -8233,7 +8373,7 @@
         <v>76</v>
       </c>
       <c r="D282" s="9">
-        <v>0.512820512820513</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
@@ -8248,10 +8388,10 @@
         <v>564</v>
       </c>
       <c r="C283" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D283" s="9">
-        <v>0.615384615384615</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
@@ -8266,10 +8406,10 @@
         <v>566</v>
       </c>
       <c r="C284" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D284" s="9">
-        <v>0.692307692307692</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
@@ -8284,10 +8424,10 @@
         <v>568</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D285" s="9">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
@@ -8302,9 +8442,11 @@
         <v>570</v>
       </c>
       <c r="C286" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D286" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D286" s="9">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
@@ -8318,10 +8460,10 @@
         <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D287" s="9">
-        <v>0.846153846153846</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -8336,10 +8478,10 @@
         <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D288" s="9">
-        <v>0.692307692307692</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -8354,10 +8496,10 @@
         <v>576</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D289" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
@@ -8372,9 +8514,11 @@
         <v>578</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D290" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D290" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
@@ -8388,10 +8532,10 @@
         <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D291" s="9">
-        <v>0.487179487179487</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -8400,10 +8544,10 @@
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="12">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B292" t="s" s="12">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C292" t="s" s="12">
         <v>15</v>
@@ -8418,15 +8562,17 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="12">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B293" t="s" s="12">
         <v>583</v>
       </c>
       <c r="C293" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D293" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D293" s="9">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="10"/>
@@ -8439,45 +8585,45 @@
       <c r="B294" t="s" s="12">
         <v>585</v>
       </c>
-      <c r="C294" s="10"/>
+      <c r="C294" t="s" s="12">
+        <v>45</v>
+      </c>
       <c r="D294" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295" ht="20.35" customHeight="1">
-      <c r="A295" t="s" s="13">
+    <row r="295" ht="20.05" customHeight="1">
+      <c r="A295" t="s" s="12">
         <v>586</v>
       </c>
-      <c r="B295" t="s" s="13">
+      <c r="B295" t="s" s="12">
         <v>587</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C295" s="10"/>
       <c r="D295" s="9">
-        <v>0.384615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.7" customHeight="1">
-      <c r="A296" t="s" s="4">
+    <row r="296" ht="20.35" customHeight="1">
+      <c r="A296" t="s" s="13">
         <v>588</v>
       </c>
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="13">
         <v>589</v>
       </c>
-      <c r="C296" t="s" s="8">
-        <v>25</v>
+      <c r="C296" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D296" s="9">
-        <v>0.125</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
@@ -8492,10 +8638,10 @@
         <v>591</v>
       </c>
       <c r="C297" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D297" s="9">
-        <v>0.8125</v>
+        <v>0.125</v>
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
@@ -8513,43 +8659,43 @@
         <v>10</v>
       </c>
       <c r="D298" s="9">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.35" customHeight="1">
-      <c r="A299" t="s" s="11">
+    <row r="299" ht="20.7" customHeight="1">
+      <c r="A299" t="s" s="4">
         <v>594</v>
       </c>
-      <c r="B299" t="s" s="11">
+      <c r="B299" t="s" s="4">
         <v>595</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>45</v>
+      <c r="C299" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D299" s="9">
-        <v>0.487179487179487</v>
+        <v>0.9375</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.05" customHeight="1">
-      <c r="A300" t="s" s="12">
+    <row r="300" ht="20.35" customHeight="1">
+      <c r="A300" t="s" s="11">
         <v>596</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="11">
         <v>597</v>
       </c>
       <c r="C300" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D300" s="9">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -8564,10 +8710,10 @@
         <v>599</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D301" s="9">
-        <v>0.512820512820513</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -8582,10 +8728,10 @@
         <v>601</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D302" s="9">
-        <v>0.948717948717949</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -8600,10 +8746,10 @@
         <v>603</v>
       </c>
       <c r="C303" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D303" s="9">
-        <v>0.564102564102564</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
@@ -8618,9 +8764,11 @@
         <v>605</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D304" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D304" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
@@ -8645,53 +8793,53 @@
       <c r="H305" s="10"/>
     </row>
     <row r="306" ht="20.7" customHeight="1">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="14">
         <v>608</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="14">
         <v>609</v>
       </c>
-      <c r="C306" t="s" s="8">
-        <v>25</v>
+      <c r="C306" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D306" s="9">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.35" customHeight="1">
-      <c r="A307" t="s" s="11">
+    <row r="307" ht="20.7" customHeight="1">
+      <c r="A307" t="s" s="4">
         <v>610</v>
       </c>
-      <c r="B307" t="s" s="11">
+      <c r="B307" t="s" s="4">
         <v>611</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>15</v>
+      <c r="C307" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D307" s="9">
-        <v>0.58974358974359</v>
+        <v>0.9375</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" ht="20.05" customHeight="1">
-      <c r="A308" t="s" s="12">
+    <row r="308" ht="20.35" customHeight="1">
+      <c r="A308" t="s" s="11">
         <v>612</v>
       </c>
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="11">
         <v>613</v>
       </c>
       <c r="C308" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D308" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
@@ -8706,10 +8854,10 @@
         <v>615</v>
       </c>
       <c r="C309" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D309" s="9">
-        <v>0.230769230769231</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -8724,10 +8872,10 @@
         <v>617</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D310" s="9">
-        <v>0.41025641025641</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -8742,10 +8890,10 @@
         <v>619</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D311" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8763,7 +8911,7 @@
         <v>76</v>
       </c>
       <c r="D312" s="9">
-        <v>0.41025641025641</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -8778,44 +8926,44 @@
         <v>623</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D313" s="9">
-        <v>0.666666666666667</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
     </row>
-    <row r="314" ht="20.35" customHeight="1">
-      <c r="A314" t="s" s="13">
+    <row r="314" ht="20.05" customHeight="1">
+      <c r="A314" t="s" s="12">
         <v>624</v>
       </c>
-      <c r="B314" t="s" s="13">
+      <c r="B314" t="s" s="12">
         <v>625</v>
       </c>
-      <c r="C314" s="10"/>
+      <c r="C314" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D314" s="9">
-        <v>0.564102564102564</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
     </row>
-    <row r="315" ht="20.7" customHeight="1">
-      <c r="A315" t="s" s="4">
+    <row r="315" ht="20.05" customHeight="1">
+      <c r="A315" t="s" s="12">
         <v>626</v>
       </c>
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>627</v>
       </c>
-      <c r="C315" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="C315" s="10"/>
       <c r="D315" s="9">
-        <v>0.5625</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
@@ -8823,52 +8971,54 @@
       <c r="H315" s="10"/>
     </row>
     <row r="316" ht="20.35" customHeight="1">
-      <c r="A316" t="s" s="11">
+      <c r="A316" t="s" s="13">
         <v>628</v>
       </c>
-      <c r="B316" t="s" s="11">
+      <c r="B316" t="s" s="13">
         <v>629</v>
       </c>
       <c r="C316" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D316" s="9">
-        <v>0.923076923076923</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
     </row>
-    <row r="317" ht="20.05" customHeight="1">
-      <c r="A317" t="s" s="12">
+    <row r="317" ht="20.7" customHeight="1">
+      <c r="A317" t="s" s="4">
         <v>630</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="4">
         <v>631</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>15</v>
+      <c r="C317" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D317" s="9">
-        <v>0.333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
     </row>
-    <row r="318" ht="20.05" customHeight="1">
-      <c r="A318" t="s" s="12">
+    <row r="318" ht="20.35" customHeight="1">
+      <c r="A318" t="s" s="11">
         <v>632</v>
       </c>
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="11">
         <v>633</v>
       </c>
       <c r="C318" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D318" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D318" s="9">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>
@@ -8882,10 +9032,10 @@
         <v>635</v>
       </c>
       <c r="C319" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D319" s="9">
-        <v>0.512820512820513</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
@@ -8900,9 +9050,11 @@
         <v>637</v>
       </c>
       <c r="C320" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D320" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D320" s="9">
+        <v>0</v>
+      </c>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
       <c r="G320" s="10"/>
@@ -8916,7 +9068,7 @@
         <v>639</v>
       </c>
       <c r="C321" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D321" s="9">
         <v>0.512820512820513</v>
@@ -8934,10 +9086,10 @@
         <v>641</v>
       </c>
       <c r="C322" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D322" s="9">
-        <v>0.820512820512821</v>
+        <v>0</v>
       </c>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -8952,9 +9104,11 @@
         <v>643</v>
       </c>
       <c r="C323" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D323" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D323" s="9">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="10"/>
@@ -8968,10 +9122,10 @@
         <v>645</v>
       </c>
       <c r="C324" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D324" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -8986,10 +9140,10 @@
         <v>647</v>
       </c>
       <c r="C325" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D325" s="9">
-        <v>0.564102564102564</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
@@ -8997,20 +9151,36 @@
       <c r="H325" s="10"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10"/>
-      <c r="C326" s="10"/>
-      <c r="D326" s="9"/>
+      <c r="A326" t="s" s="12">
+        <v>648</v>
+      </c>
+      <c r="B326" t="s" s="12">
+        <v>649</v>
+      </c>
+      <c r="C326" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D326" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10"/>
-      <c r="C327" s="10"/>
-      <c r="D327" s="9"/>
+      <c r="A327" t="s" s="12">
+        <v>650</v>
+      </c>
+      <c r="B327" t="s" s="12">
+        <v>651</v>
+      </c>
+      <c r="C327" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D327" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
       <c r="G327" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t>Surname</t>
   </si>
@@ -1070,6 +1070,12 @@
   </si>
   <si>
     <t>H210588J</t>
+  </si>
+  <si>
+    <t>Matizha</t>
+  </si>
+  <si>
+    <t>H190838E</t>
   </si>
   <si>
     <t>Matongera</t>
@@ -4859,7 +4865,9 @@
       <c r="D86" s="9">
         <v>0.820512820512821</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -5575,7 +5583,9 @@
       <c r="D126" s="9">
         <v>0.0769230769230769</v>
       </c>
-      <c r="E126" s="9"/>
+      <c r="E126" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -5933,7 +5943,9 @@
       <c r="D146" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E146" s="9"/>
+      <c r="E146" s="9">
+        <v>0.638297872340426</v>
+      </c>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
@@ -6041,7 +6053,9 @@
       <c r="D152" s="9">
         <v>0.435897435897436</v>
       </c>
-      <c r="E152" s="9"/>
+      <c r="E152" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -6468,12 +6482,14 @@
         <v>354</v>
       </c>
       <c r="C176" t="s" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D176" s="9">
-        <v>0.128205128205128</v>
-      </c>
-      <c r="E176" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
@@ -6485,9 +6501,11 @@
       <c r="B177" t="s" s="12">
         <v>356</v>
       </c>
-      <c r="C177" s="10"/>
+      <c r="C177" t="s" s="12">
+        <v>76</v>
+      </c>
       <c r="D177" s="9">
-        <v>0.512820512820513</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -6501,11 +6519,9 @@
       <c r="B178" t="s" s="12">
         <v>358</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C178" s="10"/>
       <c r="D178" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -6520,10 +6536,10 @@
         <v>360</v>
       </c>
       <c r="C179" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D179" s="9">
-        <v>0.615384615384615</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -6538,10 +6554,10 @@
         <v>362</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D180" s="9">
-        <v>0.538461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -6556,10 +6572,10 @@
         <v>364</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D181" s="9">
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -6574,7 +6590,7 @@
         <v>366</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D182" s="9">
         <v>0</v>
@@ -6584,72 +6600,72 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" ht="20.35" customHeight="1">
-      <c r="A183" t="s" s="13">
+    <row r="183" ht="20.05" customHeight="1">
+      <c r="A183" t="s" s="12">
         <v>367</v>
       </c>
-      <c r="B183" t="s" s="13">
+      <c r="B183" t="s" s="12">
         <v>368</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D183" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="4">
+    <row r="184" ht="20.35" customHeight="1">
+      <c r="A184" t="s" s="13">
         <v>369</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="13">
         <v>370</v>
       </c>
-      <c r="C184" t="s" s="8">
-        <v>25</v>
+      <c r="C184" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D184" s="9">
-        <v>0.5625</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" t="s" s="11">
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="4">
         <v>371</v>
       </c>
-      <c r="B185" t="s" s="11">
+      <c r="B185" t="s" s="4">
         <v>372</v>
       </c>
-      <c r="C185" t="s" s="12">
-        <v>15</v>
+      <c r="C185" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D185" s="9">
-        <v>0.820512820512821</v>
+        <v>0.5625</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.05" customHeight="1">
-      <c r="A186" t="s" s="12">
+    <row r="186" ht="20.35" customHeight="1">
+      <c r="A186" t="s" s="11">
         <v>373</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="11">
         <v>374</v>
       </c>
       <c r="C186" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D186" s="9">
-        <v>0.333333333333333</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -6664,10 +6680,10 @@
         <v>376</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D187" s="9">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -6682,10 +6698,10 @@
         <v>378</v>
       </c>
       <c r="C188" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D188" s="9">
-        <v>0.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -6700,10 +6716,10 @@
         <v>380</v>
       </c>
       <c r="C189" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D189" s="9">
-        <v>0</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -6721,7 +6737,7 @@
         <v>18</v>
       </c>
       <c r="D190" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -6736,10 +6752,10 @@
         <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D191" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -6754,46 +6770,46 @@
         <v>386</v>
       </c>
       <c r="C192" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D192" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" ht="20.35" customHeight="1">
-      <c r="A193" t="s" s="13">
-        <v>385</v>
-      </c>
-      <c r="B193" t="s" s="13">
+    <row r="193" ht="20.05" customHeight="1">
+      <c r="A193" t="s" s="12">
         <v>387</v>
       </c>
+      <c r="B193" t="s" s="12">
+        <v>388</v>
+      </c>
       <c r="C193" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D193" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.7" customHeight="1">
-      <c r="A194" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="B194" t="s" s="4">
+    <row r="194" ht="20.35" customHeight="1">
+      <c r="A194" t="s" s="13">
+        <v>387</v>
+      </c>
+      <c r="B194" t="s" s="13">
         <v>389</v>
       </c>
-      <c r="C194" t="s" s="8">
-        <v>25</v>
+      <c r="C194" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D194" s="9">
-        <v>0</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -6801,17 +6817,17 @@
       <c r="H194" s="10"/>
     </row>
     <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="14">
+      <c r="A195" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="B195" t="s" s="14">
+      <c r="B195" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>45</v>
+      <c r="C195" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D195" s="9">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
@@ -6819,159 +6835,163 @@
       <c r="H195" s="10"/>
     </row>
     <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="14">
         <v>392</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="14">
         <v>393</v>
       </c>
-      <c r="C196" t="s" s="8">
-        <v>10</v>
+      <c r="C196" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D196" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E196" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E196" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.35" customHeight="1">
-      <c r="A197" t="s" s="11">
+    <row r="197" ht="20.7" customHeight="1">
+      <c r="A197" t="s" s="4">
         <v>394</v>
       </c>
-      <c r="B197" t="s" s="11">
+      <c r="B197" t="s" s="4">
         <v>395</v>
       </c>
-      <c r="C197" s="10"/>
+      <c r="C197" t="s" s="8">
+        <v>10</v>
+      </c>
       <c r="D197" s="9">
-        <v>0.461538461538462</v>
+        <v>0.75</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.05" customHeight="1">
-      <c r="A198" t="s" s="12">
+    <row r="198" ht="20.35" customHeight="1">
+      <c r="A198" t="s" s="11">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="11">
         <v>397</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>76</v>
-      </c>
+      <c r="C198" s="10"/>
       <c r="D198" s="9">
-        <v>0.641025641025641</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.35" customHeight="1">
-      <c r="A199" t="s" s="13">
+    <row r="199" ht="20.05" customHeight="1">
+      <c r="A199" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="B199" t="s" s="13">
+      <c r="B199" t="s" s="12">
         <v>399</v>
       </c>
       <c r="C199" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D199" s="9">
-        <v>0</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.7" customHeight="1">
-      <c r="A200" t="s" s="4">
+    <row r="200" ht="20.35" customHeight="1">
+      <c r="A200" t="s" s="13">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="13">
         <v>401</v>
       </c>
-      <c r="C200" t="s" s="8">
-        <v>10</v>
+      <c r="C200" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D200" s="9">
-        <v>0.71875</v>
+        <v>0</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.35" customHeight="1">
-      <c r="A201" t="s" s="11">
+    <row r="201" ht="20.7" customHeight="1">
+      <c r="A201" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="B201" t="s" s="11">
+      <c r="B201" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>18</v>
+      <c r="C201" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D201" s="9">
-        <v>0.41025641025641</v>
+        <v>0.71875</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="12">
-        <v>402</v>
-      </c>
-      <c r="B202" t="s" s="12">
+    <row r="202" ht="20.35" customHeight="1">
+      <c r="A202" t="s" s="11">
         <v>404</v>
+      </c>
+      <c r="B202" t="s" s="11">
+        <v>405</v>
       </c>
       <c r="C202" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D202" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E202" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E202" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="13">
-        <v>405</v>
-      </c>
-      <c r="B203" t="s" s="13">
+    <row r="203" ht="20.05" customHeight="1">
+      <c r="A203" t="s" s="12">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s" s="12">
         <v>406</v>
       </c>
       <c r="C203" t="s" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D203" s="9">
-        <v>0.307692307692308</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="4">
-        <v>405</v>
-      </c>
-      <c r="B204" t="s" s="4">
+    <row r="204" ht="20.35" customHeight="1">
+      <c r="A204" t="s" s="13">
         <v>407</v>
       </c>
-      <c r="C204" t="s" s="8">
-        <v>10</v>
+      <c r="B204" t="s" s="13">
+        <v>408</v>
+      </c>
+      <c r="C204" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="D204" s="9">
-        <v>0.71875</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
@@ -6979,17 +6999,17 @@
       <c r="H204" s="10"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="14">
-        <v>408</v>
-      </c>
-      <c r="B205" t="s" s="14">
+      <c r="A205" t="s" s="4">
+        <v>407</v>
+      </c>
+      <c r="B205" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>30</v>
+      <c r="C205" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D205" s="9">
-        <v>0.871794871794872</v>
+        <v>0.71875</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
@@ -6997,35 +7017,35 @@
       <c r="H205" s="10"/>
     </row>
     <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="14">
         <v>410</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="14">
         <v>411</v>
       </c>
-      <c r="C206" t="s" s="8">
-        <v>25</v>
+      <c r="C206" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D206" s="9">
-        <v>0.59375</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" ht="20.35" customHeight="1">
-      <c r="A207" t="s" s="11">
+    <row r="207" ht="20.7" customHeight="1">
+      <c r="A207" t="s" s="4">
         <v>412</v>
       </c>
-      <c r="B207" t="s" s="11">
+      <c r="B207" t="s" s="4">
         <v>413</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>76</v>
+      <c r="C207" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D207" s="9">
-        <v>0.717948717948718</v>
+        <v>0.59375</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
@@ -7033,35 +7053,35 @@
       <c r="H207" s="10"/>
     </row>
     <row r="208" ht="20.35" customHeight="1">
-      <c r="A208" t="s" s="13">
+      <c r="A208" t="s" s="11">
         <v>414</v>
       </c>
-      <c r="B208" t="s" s="13">
+      <c r="B208" t="s" s="11">
         <v>415</v>
       </c>
       <c r="C208" t="s" s="12">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D208" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.7" customHeight="1">
-      <c r="A209" t="s" s="4">
+    <row r="209" ht="20.35" customHeight="1">
+      <c r="A209" t="s" s="13">
         <v>416</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="13">
         <v>417</v>
       </c>
-      <c r="C209" t="s" s="8">
-        <v>10</v>
+      <c r="C209" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D209" s="9">
-        <v>0.65625</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
@@ -7079,43 +7099,43 @@
         <v>10</v>
       </c>
       <c r="D210" s="9">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" t="s" s="11">
+    <row r="211" ht="20.7" customHeight="1">
+      <c r="A211" t="s" s="4">
         <v>420</v>
       </c>
-      <c r="B211" t="s" s="11">
+      <c r="B211" t="s" s="4">
         <v>421</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>15</v>
+      <c r="C211" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D211" s="9">
-        <v>0.435897435897436</v>
+        <v>0.84375</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.05" customHeight="1">
-      <c r="A212" t="s" s="12">
+    <row r="212" ht="20.35" customHeight="1">
+      <c r="A212" t="s" s="11">
         <v>422</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="11">
         <v>423</v>
       </c>
       <c r="C212" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D212" s="9">
-        <v>0.58974358974359</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
@@ -7130,7 +7150,7 @@
         <v>425</v>
       </c>
       <c r="C213" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D213" s="9">
         <v>0.58974358974359</v>
@@ -7148,10 +7168,10 @@
         <v>427</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D214" s="9">
-        <v>0.820512820512821</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
@@ -7166,64 +7186,64 @@
         <v>429</v>
       </c>
       <c r="C215" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D215" s="9">
-        <v>0.58974358974359</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.35" customHeight="1">
-      <c r="A216" t="s" s="13">
+    <row r="216" ht="20.05" customHeight="1">
+      <c r="A216" t="s" s="12">
         <v>430</v>
       </c>
-      <c r="B216" t="s" s="13">
+      <c r="B216" t="s" s="12">
         <v>431</v>
       </c>
       <c r="C216" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D216" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
+    <row r="217" ht="20.35" customHeight="1">
+      <c r="A217" t="s" s="13">
         <v>432</v>
       </c>
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="13">
         <v>433</v>
       </c>
-      <c r="C217" t="s" s="8">
-        <v>25</v>
+      <c r="C217" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D217" s="9">
-        <v>0.28125</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.35" customHeight="1">
-      <c r="A218" t="s" s="11">
+    <row r="218" ht="20.7" customHeight="1">
+      <c r="A218" t="s" s="4">
         <v>434</v>
       </c>
-      <c r="B218" t="s" s="11">
+      <c r="B218" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>45</v>
+      <c r="C218" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D218" s="9">
-        <v>0.871794871794872</v>
+        <v>0.28125</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
@@ -7231,35 +7251,35 @@
       <c r="H218" s="10"/>
     </row>
     <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" t="s" s="13">
+      <c r="A219" t="s" s="11">
         <v>436</v>
       </c>
-      <c r="B219" t="s" s="13">
+      <c r="B219" t="s" s="11">
         <v>437</v>
       </c>
       <c r="C219" t="s" s="12">
         <v>45</v>
       </c>
       <c r="D219" s="9">
-        <v>0.717948717948718</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.7" customHeight="1">
-      <c r="A220" t="s" s="4">
+    <row r="220" ht="20.35" customHeight="1">
+      <c r="A220" t="s" s="13">
         <v>438</v>
       </c>
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="13">
         <v>439</v>
       </c>
-      <c r="C220" t="s" s="8">
-        <v>10</v>
+      <c r="C220" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D220" s="9">
-        <v>0.59375</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
@@ -7277,7 +7297,7 @@
         <v>10</v>
       </c>
       <c r="D221" s="9">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
@@ -7285,14 +7305,14 @@
       <c r="H221" s="10"/>
     </row>
     <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="15">
+      <c r="A222" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="B222" t="s" s="15">
+      <c r="B222" t="s" s="4">
         <v>443</v>
       </c>
       <c r="C222" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D222" s="9">
         <v>0</v>
@@ -7303,17 +7323,17 @@
       <c r="H222" s="10"/>
     </row>
     <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="4">
+      <c r="A223" t="s" s="15">
         <v>444</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="15">
         <v>445</v>
       </c>
       <c r="C223" t="s" s="8">
         <v>25</v>
       </c>
       <c r="D223" s="9">
-        <v>0.59375</v>
+        <v>0</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
@@ -7321,15 +7341,17 @@
       <c r="H223" s="10"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="14">
+      <c r="A224" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="B224" t="s" s="14">
+      <c r="B224" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C224" s="10"/>
+      <c r="C224" t="s" s="8">
+        <v>25</v>
+      </c>
       <c r="D224" s="9">
-        <v>0.564102564102564</v>
+        <v>0.59375</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
@@ -7337,17 +7359,15 @@
       <c r="H224" s="10"/>
     </row>
     <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="14">
         <v>448</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="14">
         <v>449</v>
       </c>
-      <c r="C225" t="s" s="8">
-        <v>25</v>
-      </c>
+      <c r="C225" s="10"/>
       <c r="D225" s="9">
-        <v>0</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
@@ -7362,7 +7382,7 @@
         <v>451</v>
       </c>
       <c r="C226" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D226" s="9">
         <v>0</v>
@@ -7372,36 +7392,36 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" ht="20.35" customHeight="1">
-      <c r="A227" t="s" s="11">
+    <row r="227" ht="20.7" customHeight="1">
+      <c r="A227" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="B227" t="s" s="11">
+      <c r="B227" t="s" s="4">
         <v>453</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>18</v>
+      <c r="C227" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D227" s="9">
-        <v>0.0769230769230769</v>
+        <v>0</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.05" customHeight="1">
-      <c r="A228" t="s" s="12">
+    <row r="228" ht="20.35" customHeight="1">
+      <c r="A228" t="s" s="11">
         <v>454</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="11">
         <v>455</v>
       </c>
       <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D228" s="9">
-        <v>0.897435897435897</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
@@ -7416,10 +7436,10 @@
         <v>457</v>
       </c>
       <c r="C229" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D229" s="9">
-        <v>0</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
@@ -7434,10 +7454,10 @@
         <v>459</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D230" s="9">
-        <v>0.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
@@ -7455,7 +7475,7 @@
         <v>76</v>
       </c>
       <c r="D231" s="9">
-        <v>0.58974358974359</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
@@ -7470,46 +7490,46 @@
         <v>463</v>
       </c>
       <c r="C232" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D232" s="9">
-        <v>0.820512820512821</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.35" customHeight="1">
-      <c r="A233" t="s" s="13">
+    <row r="233" ht="20.05" customHeight="1">
+      <c r="A233" t="s" s="12">
         <v>464</v>
       </c>
-      <c r="B233" t="s" s="13">
+      <c r="B233" t="s" s="12">
         <v>465</v>
       </c>
       <c r="C233" t="s" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D233" s="9">
-        <v>0.384615384615385</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.7" customHeight="1">
-      <c r="A234" t="s" s="4">
+    <row r="234" ht="20.35" customHeight="1">
+      <c r="A234" t="s" s="13">
         <v>466</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="13">
         <v>467</v>
       </c>
-      <c r="C234" t="s" s="8">
-        <v>25</v>
+      <c r="C234" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D234" s="9">
-        <v>0.3125</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
@@ -7517,17 +7537,17 @@
       <c r="H234" s="10"/>
     </row>
     <row r="235" ht="20.7" customHeight="1">
-      <c r="A235" t="s" s="14">
+      <c r="A235" t="s" s="4">
         <v>468</v>
       </c>
-      <c r="B235" t="s" s="14">
+      <c r="B235" t="s" s="4">
         <v>469</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>45</v>
+      <c r="C235" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D235" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.3125</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
@@ -7535,53 +7555,53 @@
       <c r="H235" s="10"/>
     </row>
     <row r="236" ht="20.7" customHeight="1">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="14">
         <v>470</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="14">
         <v>471</v>
       </c>
-      <c r="C236" t="s" s="8">
-        <v>10</v>
+      <c r="C236" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D236" s="9">
-        <v>0.375</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.35" customHeight="1">
-      <c r="A237" t="s" s="11">
+    <row r="237" ht="20.7" customHeight="1">
+      <c r="A237" t="s" s="4">
         <v>472</v>
       </c>
-      <c r="B237" t="s" s="11">
+      <c r="B237" t="s" s="4">
         <v>473</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>15</v>
+      <c r="C237" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D237" s="9">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.05" customHeight="1">
-      <c r="A238" t="s" s="12">
+    <row r="238" ht="20.35" customHeight="1">
+      <c r="A238" t="s" s="11">
         <v>474</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="11">
         <v>475</v>
       </c>
       <c r="C238" t="s" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D238" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
@@ -7596,46 +7616,46 @@
         <v>477</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D239" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" ht="20.35" customHeight="1">
-      <c r="A240" t="s" s="13">
+    <row r="240" ht="20.05" customHeight="1">
+      <c r="A240" t="s" s="12">
         <v>478</v>
       </c>
-      <c r="B240" t="s" s="13">
+      <c r="B240" t="s" s="12">
         <v>479</v>
       </c>
       <c r="C240" t="s" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D240" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.7" customHeight="1">
-      <c r="A241" t="s" s="4">
+    <row r="241" ht="20.35" customHeight="1">
+      <c r="A241" t="s" s="13">
         <v>480</v>
       </c>
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="13">
         <v>481</v>
       </c>
-      <c r="C241" t="s" s="8">
-        <v>10</v>
+      <c r="C241" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D241" s="9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
@@ -7650,46 +7670,46 @@
         <v>483</v>
       </c>
       <c r="C242" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D242" s="9">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243" ht="20.35" customHeight="1">
-      <c r="A243" t="s" s="11">
+    <row r="243" ht="20.7" customHeight="1">
+      <c r="A243" t="s" s="4">
         <v>484</v>
       </c>
-      <c r="B243" t="s" s="11">
+      <c r="B243" t="s" s="4">
         <v>485</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>27</v>
+      <c r="C243" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D243" s="9">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.05" customHeight="1">
-      <c r="A244" t="s" s="12">
+    <row r="244" ht="20.35" customHeight="1">
+      <c r="A244" t="s" s="11">
         <v>486</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="11">
         <v>487</v>
       </c>
       <c r="C244" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D244" s="9">
-        <v>0.641025641025641</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
@@ -7698,16 +7718,16 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="12">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B245" t="s" s="12">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D245" s="9">
-        <v>0</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -7716,13 +7736,13 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s" s="12">
         <v>490</v>
       </c>
       <c r="C246" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D246" s="9">
         <v>0</v>
@@ -7743,7 +7763,7 @@
         <v>18</v>
       </c>
       <c r="D247" s="9">
-        <v>0.435897435897436</v>
+        <v>0</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
@@ -7758,10 +7778,10 @@
         <v>494</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D248" s="9">
-        <v>0</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
@@ -7776,10 +7796,10 @@
         <v>496</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D249" s="9">
-        <v>0.974358974358974</v>
+        <v>0</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
@@ -7797,7 +7817,7 @@
         <v>45</v>
       </c>
       <c r="D250" s="9">
-        <v>0.58974358974359</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
@@ -7815,7 +7835,7 @@
         <v>45</v>
       </c>
       <c r="D251" s="9">
-        <v>0.461538461538462</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
@@ -7830,10 +7850,10 @@
         <v>502</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D252" s="9">
-        <v>0.512820512820513</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -7851,7 +7871,7 @@
         <v>76</v>
       </c>
       <c r="D253" s="9">
-        <v>0.487179487179487</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -7866,10 +7886,10 @@
         <v>506</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D254" s="9">
-        <v>0.692307692307692</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -7884,46 +7904,46 @@
         <v>508</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D255" s="9">
-        <v>0.179487179487179</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" ht="20.35" customHeight="1">
-      <c r="A256" t="s" s="13">
+    <row r="256" ht="20.05" customHeight="1">
+      <c r="A256" t="s" s="12">
         <v>509</v>
       </c>
-      <c r="B256" t="s" s="13">
+      <c r="B256" t="s" s="12">
         <v>510</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D256" s="9">
-        <v>0.78125</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.7" customHeight="1">
-      <c r="A257" t="s" s="4">
+    <row r="257" ht="20.35" customHeight="1">
+      <c r="A257" t="s" s="13">
         <v>511</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="13">
         <v>512</v>
       </c>
-      <c r="C257" t="s" s="8">
+      <c r="C257" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D257" s="9">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -7941,43 +7961,43 @@
         <v>10</v>
       </c>
       <c r="D258" s="9">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.35" customHeight="1">
-      <c r="A259" t="s" s="11">
+    <row r="259" ht="20.7" customHeight="1">
+      <c r="A259" t="s" s="4">
         <v>515</v>
       </c>
-      <c r="B259" t="s" s="11">
+      <c r="B259" t="s" s="4">
         <v>516</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>76</v>
+      <c r="C259" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D259" s="9">
-        <v>0.692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.05" customHeight="1">
-      <c r="A260" t="s" s="12">
+    <row r="260" ht="20.35" customHeight="1">
+      <c r="A260" t="s" s="11">
         <v>517</v>
       </c>
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="11">
         <v>518</v>
       </c>
       <c r="C260" t="s" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D260" s="9">
-        <v>0.717948717948718</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
@@ -7992,10 +8012,10 @@
         <v>520</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D261" s="9">
-        <v>0.58974358974359</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -8010,10 +8030,10 @@
         <v>522</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D262" s="9">
-        <v>0.564102564102564</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
@@ -8028,10 +8048,10 @@
         <v>524</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D263" s="9">
-        <v>0</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
@@ -8046,10 +8066,10 @@
         <v>526</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D264" s="9">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -8064,10 +8084,10 @@
         <v>528</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D265" s="9">
-        <v>0.897435897435897</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
@@ -8085,7 +8105,7 @@
         <v>45</v>
       </c>
       <c r="D266" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
@@ -8103,7 +8123,7 @@
         <v>45</v>
       </c>
       <c r="D267" s="9">
-        <v>0.461538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
@@ -8118,10 +8138,10 @@
         <v>534</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D268" s="9">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -8136,10 +8156,10 @@
         <v>536</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D269" s="9">
-        <v>0.7435897435897439</v>
+        <v>0</v>
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
@@ -8154,10 +8174,10 @@
         <v>538</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D270" s="9">
-        <v>0.641025641025641</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
@@ -8172,82 +8192,82 @@
         <v>540</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D271" s="9">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" ht="20.35" customHeight="1">
-      <c r="A272" t="s" s="13">
+    <row r="272" ht="20.05" customHeight="1">
+      <c r="A272" t="s" s="12">
         <v>541</v>
       </c>
-      <c r="B272" t="s" s="13">
+      <c r="B272" t="s" s="12">
         <v>542</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D272" s="9">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.7" customHeight="1">
-      <c r="A273" t="s" s="4">
+    <row r="273" ht="20.35" customHeight="1">
+      <c r="A273" t="s" s="13">
         <v>543</v>
       </c>
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="13">
         <v>544</v>
       </c>
-      <c r="C273" t="s" s="8">
-        <v>10</v>
+      <c r="C273" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D273" s="9">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.35" customHeight="1">
-      <c r="A274" t="s" s="11">
+    <row r="274" ht="20.7" customHeight="1">
+      <c r="A274" t="s" s="4">
         <v>545</v>
       </c>
-      <c r="B274" t="s" s="11">
+      <c r="B274" t="s" s="4">
         <v>546</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>76</v>
+      <c r="C274" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D274" s="9">
-        <v>0.871794871794872</v>
+        <v>0.6875</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" ht="20.05" customHeight="1">
-      <c r="A275" t="s" s="12">
+    <row r="275" ht="20.35" customHeight="1">
+      <c r="A275" t="s" s="11">
         <v>547</v>
       </c>
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="11">
         <v>548</v>
       </c>
       <c r="C275" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D275" s="9">
-        <v>0.512820512820513</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
@@ -8262,10 +8282,10 @@
         <v>550</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D276" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
@@ -8283,7 +8303,7 @@
         <v>76</v>
       </c>
       <c r="D277" s="9">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
@@ -8298,82 +8318,82 @@
         <v>554</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D278" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" ht="20.35" customHeight="1">
-      <c r="A279" t="s" s="13">
+    <row r="279" ht="20.05" customHeight="1">
+      <c r="A279" t="s" s="12">
         <v>555</v>
       </c>
-      <c r="B279" t="s" s="13">
+      <c r="B279" t="s" s="12">
         <v>556</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D279" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.7" customHeight="1">
-      <c r="A280" t="s" s="4">
+    <row r="280" ht="20.35" customHeight="1">
+      <c r="A280" t="s" s="13">
         <v>557</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="13">
         <v>558</v>
       </c>
-      <c r="C280" t="s" s="8">
-        <v>25</v>
+      <c r="C280" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="D280" s="9">
-        <v>0.6875</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.35" customHeight="1">
-      <c r="A281" t="s" s="11">
+    <row r="281" ht="20.7" customHeight="1">
+      <c r="A281" t="s" s="4">
         <v>559</v>
       </c>
-      <c r="B281" t="s" s="11">
+      <c r="B281" t="s" s="4">
         <v>560</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>76</v>
+      <c r="C281" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D281" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.6875</v>
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.05" customHeight="1">
-      <c r="A282" t="s" s="12">
+    <row r="282" ht="20.35" customHeight="1">
+      <c r="A282" t="s" s="11">
         <v>561</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="11">
         <v>562</v>
       </c>
       <c r="C282" t="s" s="12">
         <v>76</v>
       </c>
       <c r="D282" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
@@ -8391,7 +8411,7 @@
         <v>76</v>
       </c>
       <c r="D283" s="9">
-        <v>0.512820512820513</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
@@ -8406,12 +8426,14 @@
         <v>566</v>
       </c>
       <c r="C284" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D284" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E284" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E284" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
@@ -8424,10 +8446,10 @@
         <v>568</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D285" s="9">
-        <v>0.692307692307692</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
@@ -8442,10 +8464,10 @@
         <v>570</v>
       </c>
       <c r="C286" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D286" s="9">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
@@ -8460,10 +8482,10 @@
         <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D287" s="9">
-        <v>0.538461538461538</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -8478,10 +8500,10 @@
         <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D288" s="9">
-        <v>0.846153846153846</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -8496,10 +8518,10 @@
         <v>576</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D289" s="9">
-        <v>0.692307692307692</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
@@ -8514,10 +8536,10 @@
         <v>578</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D290" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
@@ -8532,7 +8554,7 @@
         <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D291" s="9">
         <v>0.333333333333333</v>
@@ -8550,10 +8572,10 @@
         <v>582</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D292" s="9">
-        <v>0.128205128205128</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
@@ -8562,16 +8584,16 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="12">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B293" t="s" s="12">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C293" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D293" s="9">
-        <v>0.487179487179487</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
@@ -8580,16 +8602,16 @@
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="12">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B294" t="s" s="12">
         <v>585</v>
       </c>
       <c r="C294" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D294" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
@@ -8603,45 +8625,45 @@
       <c r="B295" t="s" s="12">
         <v>587</v>
       </c>
-      <c r="C295" s="10"/>
+      <c r="C295" t="s" s="12">
+        <v>45</v>
+      </c>
       <c r="D295" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" ht="20.35" customHeight="1">
-      <c r="A296" t="s" s="13">
+    <row r="296" ht="20.05" customHeight="1">
+      <c r="A296" t="s" s="12">
         <v>588</v>
       </c>
-      <c r="B296" t="s" s="13">
+      <c r="B296" t="s" s="12">
         <v>589</v>
       </c>
-      <c r="C296" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C296" s="10"/>
       <c r="D296" s="9">
-        <v>0.384615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.7" customHeight="1">
-      <c r="A297" t="s" s="4">
+    <row r="297" ht="20.35" customHeight="1">
+      <c r="A297" t="s" s="13">
         <v>590</v>
       </c>
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="13">
         <v>591</v>
       </c>
-      <c r="C297" t="s" s="8">
-        <v>25</v>
+      <c r="C297" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D297" s="9">
-        <v>0.125</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
@@ -8656,10 +8678,10 @@
         <v>593</v>
       </c>
       <c r="C298" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D298" s="9">
-        <v>0.8125</v>
+        <v>0.125</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
@@ -8677,43 +8699,43 @@
         <v>10</v>
       </c>
       <c r="D299" s="9">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.35" customHeight="1">
-      <c r="A300" t="s" s="11">
+    <row r="300" ht="20.7" customHeight="1">
+      <c r="A300" t="s" s="4">
         <v>596</v>
       </c>
-      <c r="B300" t="s" s="11">
+      <c r="B300" t="s" s="4">
         <v>597</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>45</v>
+      <c r="C300" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D300" s="9">
-        <v>0.487179487179487</v>
+        <v>0.9375</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
     </row>
-    <row r="301" ht="20.05" customHeight="1">
-      <c r="A301" t="s" s="12">
+    <row r="301" ht="20.35" customHeight="1">
+      <c r="A301" t="s" s="11">
         <v>598</v>
       </c>
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="11">
         <v>599</v>
       </c>
       <c r="C301" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D301" s="9">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -8728,10 +8750,10 @@
         <v>601</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D302" s="9">
-        <v>0.512820512820513</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -8746,46 +8768,46 @@
         <v>603</v>
       </c>
       <c r="C303" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D303" s="9">
-        <v>0.948717948717949</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.35" customHeight="1">
-      <c r="A304" t="s" s="13">
+    <row r="304" ht="20.05" customHeight="1">
+      <c r="A304" t="s" s="12">
         <v>604</v>
       </c>
-      <c r="B304" t="s" s="13">
+      <c r="B304" t="s" s="12">
         <v>605</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D304" s="9">
-        <v>0.564102564102564</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.7" customHeight="1">
-      <c r="A305" t="s" s="4">
+    <row r="305" ht="20.35" customHeight="1">
+      <c r="A305" t="s" s="13">
         <v>606</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="13">
         <v>607</v>
       </c>
-      <c r="C305" t="s" s="8">
-        <v>10</v>
+      <c r="C305" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D305" s="9">
-        <v>0.6875</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
@@ -8793,17 +8815,17 @@
       <c r="H305" s="10"/>
     </row>
     <row r="306" ht="20.7" customHeight="1">
-      <c r="A306" t="s" s="14">
+      <c r="A306" t="s" s="4">
         <v>608</v>
       </c>
-      <c r="B306" t="s" s="14">
+      <c r="B306" t="s" s="4">
         <v>609</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>15</v>
+      <c r="C306" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D306" s="9">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
@@ -8811,55 +8833,57 @@
       <c r="H306" s="10"/>
     </row>
     <row r="307" ht="20.7" customHeight="1">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="14">
         <v>610</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="14">
         <v>611</v>
       </c>
-      <c r="C307" t="s" s="8">
-        <v>25</v>
+      <c r="C307" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D307" s="9">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" ht="20.35" customHeight="1">
-      <c r="A308" t="s" s="11">
+    <row r="308" ht="20.7" customHeight="1">
+      <c r="A308" t="s" s="4">
         <v>612</v>
       </c>
-      <c r="B308" t="s" s="11">
+      <c r="B308" t="s" s="4">
         <v>613</v>
       </c>
-      <c r="C308" t="s" s="12">
-        <v>15</v>
+      <c r="C308" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D308" s="9">
-        <v>0.58974358974359</v>
+        <v>0.9375</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
     </row>
-    <row r="309" ht="20.05" customHeight="1">
-      <c r="A309" t="s" s="12">
+    <row r="309" ht="20.35" customHeight="1">
+      <c r="A309" t="s" s="11">
         <v>614</v>
       </c>
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="11">
         <v>615</v>
       </c>
       <c r="C309" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D309" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E309" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E309" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
@@ -8872,10 +8896,10 @@
         <v>617</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D310" s="9">
-        <v>0.230769230769231</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -8890,10 +8914,10 @@
         <v>619</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D311" s="9">
-        <v>0.41025641025641</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -8908,10 +8932,10 @@
         <v>621</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D312" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -8929,7 +8953,7 @@
         <v>76</v>
       </c>
       <c r="D313" s="9">
-        <v>0.41025641025641</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -8944,12 +8968,14 @@
         <v>625</v>
       </c>
       <c r="C314" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D314" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E314" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E314" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
@@ -8961,81 +8987,85 @@
       <c r="B315" t="s" s="12">
         <v>627</v>
       </c>
-      <c r="C315" s="10"/>
+      <c r="C315" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="D315" s="9">
-        <v>0.564102564102564</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="10"/>
       <c r="H315" s="10"/>
     </row>
-    <row r="316" ht="20.35" customHeight="1">
-      <c r="A316" t="s" s="13">
+    <row r="316" ht="20.05" customHeight="1">
+      <c r="A316" t="s" s="12">
         <v>628</v>
       </c>
-      <c r="B316" t="s" s="13">
+      <c r="B316" t="s" s="12">
         <v>629</v>
       </c>
       <c r="C316" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D316" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E316" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E316" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
     </row>
-    <row r="317" ht="20.7" customHeight="1">
-      <c r="A317" t="s" s="4">
+    <row r="317" ht="20.35" customHeight="1">
+      <c r="A317" t="s" s="13">
         <v>630</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="13">
         <v>631</v>
       </c>
-      <c r="C317" t="s" s="8">
-        <v>10</v>
+      <c r="C317" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D317" s="9">
-        <v>0.5625</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
     </row>
-    <row r="318" ht="20.35" customHeight="1">
-      <c r="A318" t="s" s="11">
+    <row r="318" ht="20.7" customHeight="1">
+      <c r="A318" t="s" s="4">
         <v>632</v>
       </c>
-      <c r="B318" t="s" s="11">
+      <c r="B318" t="s" s="4">
         <v>633</v>
       </c>
-      <c r="C318" t="s" s="12">
-        <v>27</v>
+      <c r="C318" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D318" s="9">
-        <v>0.923076923076923</v>
+        <v>0.5625</v>
       </c>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
     </row>
-    <row r="319" ht="20.05" customHeight="1">
-      <c r="A319" t="s" s="12">
+    <row r="319" ht="20.35" customHeight="1">
+      <c r="A319" t="s" s="11">
         <v>634</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="11">
         <v>635</v>
       </c>
       <c r="C319" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D319" s="9">
-        <v>0.333333333333333</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
@@ -9050,10 +9080,10 @@
         <v>637</v>
       </c>
       <c r="C320" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D320" s="9">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
@@ -9068,10 +9098,10 @@
         <v>639</v>
       </c>
       <c r="C321" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D321" s="9">
-        <v>0.512820512820513</v>
+        <v>0</v>
       </c>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -9086,10 +9116,10 @@
         <v>641</v>
       </c>
       <c r="C322" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D322" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -9107,7 +9137,7 @@
         <v>45</v>
       </c>
       <c r="D323" s="9">
-        <v>0.512820512820513</v>
+        <v>0</v>
       </c>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
@@ -9122,10 +9152,10 @@
         <v>645</v>
       </c>
       <c r="C324" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D324" s="9">
-        <v>0.820512820512821</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -9140,10 +9170,10 @@
         <v>647</v>
       </c>
       <c r="C325" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D325" s="9">
-        <v>0.58974358974359</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
@@ -9158,10 +9188,10 @@
         <v>649</v>
       </c>
       <c r="C326" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D326" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
@@ -9179,7 +9209,7 @@
         <v>30</v>
       </c>
       <c r="D327" s="9">
-        <v>0.564102564102564</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
@@ -9187,10 +9217,18 @@
       <c r="H327" s="10"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
-      <c r="A328" s="10"/>
-      <c r="B328" s="10"/>
-      <c r="C328" s="10"/>
-      <c r="D328" s="9"/>
+      <c r="A328" t="s" s="12">
+        <v>652</v>
+      </c>
+      <c r="B328" t="s" s="12">
+        <v>653</v>
+      </c>
+      <c r="C328" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D328" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
       <c r="G328" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3659,7 +3659,9 @@
       <c r="D19" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -4451,7 +4453,9 @@
       <c r="D63" s="9">
         <v>0.871794871794872</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -6017,7 +6021,9 @@
       <c r="D150" s="9">
         <v>0</v>
       </c>
-      <c r="E150" s="9"/>
+      <c r="E150" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
@@ -7423,7 +7429,9 @@
       <c r="D228" s="9">
         <v>0.0769230769230769</v>
       </c>
-      <c r="E228" s="9"/>
+      <c r="E228" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
@@ -9031,7 +9039,9 @@
       <c r="D317" s="9">
         <v>0.641025641025641</v>
       </c>
-      <c r="E317" s="9"/>
+      <c r="E317" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3479,7 +3479,9 @@
       <c r="D9" s="9">
         <v>0.717948717948718</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>0.8297872340425529</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4219,7 +4221,9 @@
       <c r="D50" s="9">
         <v>0.256410256410256</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -4435,7 +4439,9 @@
       <c r="D62" s="9">
         <v>0.717948717948718</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -4527,7 +4533,9 @@
       <c r="D67" s="9">
         <v>0.538461538461538</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -5157,7 +5165,9 @@
       <c r="D102" s="9">
         <v>0.897435897435897</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="E102" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -5911,7 +5921,9 @@
       <c r="D144" s="9">
         <v>0</v>
       </c>
-      <c r="E144" s="9"/>
+      <c r="E144" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
@@ -6781,7 +6793,9 @@
       <c r="D192" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E192" s="9"/>
+      <c r="E192" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
@@ -6799,7 +6813,9 @@
       <c r="D193" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E193" s="9"/>
+      <c r="E193" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
@@ -7269,7 +7285,9 @@
       <c r="D219" s="9">
         <v>0.871794871794872</v>
       </c>
-      <c r="E219" s="9"/>
+      <c r="E219" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
@@ -8817,7 +8835,9 @@
       <c r="D305" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E305" s="9"/>
+      <c r="E305" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -4367,7 +4367,9 @@
       <c r="D58" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -5525,7 +5527,9 @@
       <c r="D122" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E122" s="9"/>
+      <c r="E122" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -5617,7 +5621,9 @@
       <c r="D127" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E127" s="9"/>
+      <c r="E127" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -6941,7 +6947,9 @@
       <c r="D200" s="9">
         <v>0</v>
       </c>
-      <c r="E200" s="9"/>
+      <c r="E200" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
@@ -7755,7 +7763,9 @@
       <c r="D245" s="9">
         <v>0.641025641025641</v>
       </c>
-      <c r="E245" s="9"/>
+      <c r="E245" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
@@ -8061,7 +8071,9 @@
       <c r="D262" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E262" s="9"/>
+      <c r="E262" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3553,7 +3553,9 @@
       <c r="D13" s="9">
         <v>0.846153846153846</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>0.638297872340426</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3807,7 +3809,9 @@
       <c r="D27" s="9">
         <v>0.41025641025641</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4423,7 +4427,9 @@
       <c r="D61" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4753,7 +4759,9 @@
       <c r="D79" s="9">
         <v>0.794871794871795</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4825,7 +4833,9 @@
       <c r="D83" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5491,7 +5501,9 @@
       <c r="D120" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E120" s="9"/>
+      <c r="E120" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -7763,9 +7775,7 @@
       <c r="D245" s="9">
         <v>0.641025641025641</v>
       </c>
-      <c r="E245" s="9">
-        <v>0.48936170212766</v>
-      </c>
+      <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
@@ -7783,7 +7793,9 @@
       <c r="D246" s="9">
         <v>0</v>
       </c>
-      <c r="E246" s="9"/>
+      <c r="E246" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3627,7 +3627,9 @@
       <c r="D17" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -4135,7 +4137,9 @@
       <c r="D45" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -4669,7 +4673,9 @@
       <c r="D74" s="9">
         <v>0.538461538461538</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -5017,7 +5023,9 @@
       <c r="D93" s="9">
         <v>0.205128205128205</v>
       </c>
-      <c r="E93" s="9"/>
+      <c r="E93" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -5161,7 +5169,9 @@
       <c r="D101" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
@@ -5997,7 +6007,9 @@
       <c r="D147" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E147" s="9"/>
+      <c r="E147" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
@@ -6721,7 +6733,9 @@
       <c r="D187" s="9">
         <v>0.333333333333333</v>
       </c>
-      <c r="E187" s="9"/>
+      <c r="E187" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
@@ -7179,7 +7193,9 @@
       <c r="D212" s="9">
         <v>0.435897435897436</v>
       </c>
-      <c r="E212" s="9"/>
+      <c r="E212" s="9">
+        <v>0.404255319148936</v>
+      </c>
       <c r="F212" s="9"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
@@ -7413,7 +7429,9 @@
       <c r="D225" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E225" s="9"/>
+      <c r="E225" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
@@ -7577,7 +7595,9 @@
       <c r="D234" s="9">
         <v>0.384615384615385</v>
       </c>
-      <c r="E234" s="9"/>
+      <c r="E234" s="9">
+        <v>0.234042553191489</v>
+      </c>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
@@ -8573,7 +8593,9 @@
       <c r="D289" s="9">
         <v>0.846153846153846</v>
       </c>
-      <c r="E289" s="9"/>
+      <c r="E289" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
   <si>
     <t>Surname</t>
   </si>
@@ -1706,6 +1706,12 @@
   </si>
   <si>
     <t>H210150X</t>
+  </si>
+  <si>
+    <t>Rukweza</t>
+  </si>
+  <si>
+    <t>H170292W</t>
   </si>
   <si>
     <t>Rundinde</t>
@@ -3425,7 +3431,9 @@
       <c r="D6" s="9">
         <v>0.615384615384615</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -3499,7 +3507,9 @@
       <c r="D10" s="9">
         <v>0.615384615384615</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3517,7 +3527,9 @@
       <c r="D11" s="9">
         <v>0.230769230769231</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3647,7 +3659,9 @@
       <c r="D18" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -3867,7 +3881,9 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -4047,7 +4063,9 @@
       <c r="D40" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -4951,7 +4969,9 @@
       <c r="D89" s="9">
         <v>0.615384615384615</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -4987,7 +5007,9 @@
       <c r="D91" s="9">
         <v>0.615384615384615</v>
       </c>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -5151,7 +5173,9 @@
       <c r="D100" s="9">
         <v>0.871794871794872</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -5331,7 +5355,9 @@
       <c r="D110" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E110" s="9"/>
+      <c r="E110" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -6229,7 +6255,9 @@
       <c r="D159" s="9">
         <v>0.948717948717949</v>
       </c>
-      <c r="E159" s="9"/>
+      <c r="E159" s="9">
+        <v>0.468085106382979</v>
+      </c>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
@@ -6427,7 +6455,9 @@
       <c r="D170" s="9">
         <v>0.641025641025641</v>
       </c>
-      <c r="E170" s="9"/>
+      <c r="E170" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
@@ -6607,7 +6637,9 @@
       <c r="D180" s="9">
         <v>0.615384615384615</v>
       </c>
-      <c r="E180" s="9"/>
+      <c r="E180" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
@@ -6865,7 +6897,9 @@
       <c r="D194" s="9">
         <v>0.717948717948718</v>
       </c>
-      <c r="E194" s="9"/>
+      <c r="E194" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
@@ -6937,7 +6971,9 @@
       <c r="D198" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E198" s="9"/>
+      <c r="E198" s="9">
+        <v>0.234042553191489</v>
+      </c>
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
@@ -7231,7 +7267,9 @@
       <c r="D214" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E214" s="9"/>
+      <c r="E214" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
@@ -7705,7 +7743,9 @@
       <c r="D240" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E240" s="9"/>
+      <c r="E240" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
@@ -7995,7 +8035,9 @@
       <c r="D256" s="9">
         <v>0.179487179487179</v>
       </c>
-      <c r="E256" s="9"/>
+      <c r="E256" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
@@ -8213,7 +8255,9 @@
       <c r="D268" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E268" s="9"/>
+      <c r="E268" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F268" s="9"/>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
@@ -8249,7 +8293,9 @@
       <c r="D270" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E270" s="9"/>
+      <c r="E270" s="9">
+        <v>0.872340425531915</v>
+      </c>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
@@ -8339,7 +8385,9 @@
       <c r="D275" s="9">
         <v>0.871794871794872</v>
       </c>
-      <c r="E275" s="9"/>
+      <c r="E275" s="9">
+        <v>0.936170212765957</v>
+      </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
@@ -8465,7 +8513,9 @@
       <c r="D282" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E282" s="9"/>
+      <c r="E282" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
@@ -8495,11 +8545,9 @@
       <c r="B284" t="s" s="12">
         <v>566</v>
       </c>
-      <c r="C284" t="s" s="12">
-        <v>76</v>
-      </c>
+      <c r="C284" s="10"/>
       <c r="D284" s="9">
-        <v>0.512820512820513</v>
+        <v>0</v>
       </c>
       <c r="E284" s="9">
         <v>0.382978723404255</v>
@@ -8516,12 +8564,14 @@
         <v>568</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D285" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E285" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E285" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
@@ -8534,10 +8584,10 @@
         <v>570</v>
       </c>
       <c r="C286" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D286" s="9">
-        <v>0.692307692307692</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
@@ -8552,10 +8602,10 @@
         <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D287" s="9">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -8570,10 +8620,10 @@
         <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D288" s="9">
-        <v>0.538461538461538</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -8588,14 +8638,12 @@
         <v>576</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D289" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E289" s="9">
-        <v>0.361702127659574</v>
-      </c>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
@@ -8608,12 +8656,14 @@
         <v>578</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D290" s="9">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E290" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E290" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
@@ -8626,10 +8676,10 @@
         <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D291" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -8644,7 +8694,7 @@
         <v>582</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D292" s="9">
         <v>0.333333333333333</v>
@@ -8662,10 +8712,10 @@
         <v>584</v>
       </c>
       <c r="C293" t="s" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D293" s="9">
-        <v>0.128205128205128</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
@@ -8674,16 +8724,16 @@
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="12">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B294" t="s" s="12">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C294" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D294" s="9">
-        <v>0.487179487179487</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
@@ -8692,16 +8742,16 @@
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="12">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B295" t="s" s="12">
         <v>587</v>
       </c>
       <c r="C295" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D295" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
@@ -8715,45 +8765,45 @@
       <c r="B296" t="s" s="12">
         <v>589</v>
       </c>
-      <c r="C296" s="10"/>
+      <c r="C296" t="s" s="12">
+        <v>45</v>
+      </c>
       <c r="D296" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" ht="20.35" customHeight="1">
-      <c r="A297" t="s" s="13">
+    <row r="297" ht="20.05" customHeight="1">
+      <c r="A297" t="s" s="12">
         <v>590</v>
       </c>
-      <c r="B297" t="s" s="13">
+      <c r="B297" t="s" s="12">
         <v>591</v>
       </c>
-      <c r="C297" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C297" s="10"/>
       <c r="D297" s="9">
-        <v>0.384615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.7" customHeight="1">
-      <c r="A298" t="s" s="4">
+    <row r="298" ht="20.35" customHeight="1">
+      <c r="A298" t="s" s="13">
         <v>592</v>
       </c>
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="13">
         <v>593</v>
       </c>
-      <c r="C298" t="s" s="8">
-        <v>25</v>
+      <c r="C298" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D298" s="9">
-        <v>0.125</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
@@ -8768,10 +8818,10 @@
         <v>595</v>
       </c>
       <c r="C299" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D299" s="9">
-        <v>0.8125</v>
+        <v>0.125</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
@@ -8789,43 +8839,43 @@
         <v>10</v>
       </c>
       <c r="D300" s="9">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
     </row>
-    <row r="301" ht="20.35" customHeight="1">
-      <c r="A301" t="s" s="11">
+    <row r="301" ht="20.7" customHeight="1">
+      <c r="A301" t="s" s="4">
         <v>598</v>
       </c>
-      <c r="B301" t="s" s="11">
+      <c r="B301" t="s" s="4">
         <v>599</v>
       </c>
-      <c r="C301" t="s" s="12">
-        <v>45</v>
+      <c r="C301" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D301" s="9">
-        <v>0.487179487179487</v>
+        <v>0.9375</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.05" customHeight="1">
-      <c r="A302" t="s" s="12">
+    <row r="302" ht="20.35" customHeight="1">
+      <c r="A302" t="s" s="11">
         <v>600</v>
       </c>
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="11">
         <v>601</v>
       </c>
       <c r="C302" t="s" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D302" s="9">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -8840,10 +8890,10 @@
         <v>603</v>
       </c>
       <c r="C303" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D303" s="9">
-        <v>0.512820512820513</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
@@ -8858,66 +8908,66 @@
         <v>605</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D304" s="9">
-        <v>0.948717948717949</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" t="s" s="13">
+    <row r="305" ht="20.05" customHeight="1">
+      <c r="A305" t="s" s="12">
         <v>606</v>
       </c>
-      <c r="B305" t="s" s="13">
+      <c r="B305" t="s" s="12">
         <v>607</v>
       </c>
       <c r="C305" t="s" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D305" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E305" s="9">
-        <v>0.787234042553191</v>
-      </c>
+        <v>0.948717948717949</v>
+      </c>
+      <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.7" customHeight="1">
-      <c r="A306" t="s" s="4">
+    <row r="306" ht="20.35" customHeight="1">
+      <c r="A306" t="s" s="13">
         <v>608</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="13">
         <v>609</v>
       </c>
-      <c r="C306" t="s" s="8">
-        <v>10</v>
+      <c r="C306" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="D306" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E306" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E306" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
     <row r="307" ht="20.7" customHeight="1">
-      <c r="A307" t="s" s="14">
+      <c r="A307" t="s" s="4">
         <v>610</v>
       </c>
-      <c r="B307" t="s" s="14">
+      <c r="B307" t="s" s="4">
         <v>611</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>15</v>
+      <c r="C307" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D307" s="9">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -8925,57 +8975,57 @@
       <c r="H307" s="10"/>
     </row>
     <row r="308" ht="20.7" customHeight="1">
-      <c r="A308" t="s" s="4">
+      <c r="A308" t="s" s="14">
         <v>612</v>
       </c>
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="14">
         <v>613</v>
       </c>
-      <c r="C308" t="s" s="8">
-        <v>25</v>
+      <c r="C308" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D308" s="9">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
     </row>
-    <row r="309" ht="20.35" customHeight="1">
-      <c r="A309" t="s" s="11">
+    <row r="309" ht="20.7" customHeight="1">
+      <c r="A309" t="s" s="4">
         <v>614</v>
       </c>
-      <c r="B309" t="s" s="11">
+      <c r="B309" t="s" s="4">
         <v>615</v>
       </c>
-      <c r="C309" t="s" s="12">
-        <v>15</v>
+      <c r="C309" t="s" s="8">
+        <v>25</v>
       </c>
       <c r="D309" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E309" s="9">
-        <v>0.425531914893617</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
     </row>
-    <row r="310" ht="20.05" customHeight="1">
-      <c r="A310" t="s" s="12">
+    <row r="310" ht="20.35" customHeight="1">
+      <c r="A310" t="s" s="11">
         <v>616</v>
       </c>
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="11">
         <v>617</v>
       </c>
       <c r="C310" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D310" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E310" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E310" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F310" s="9"/>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
@@ -8988,12 +9038,14 @@
         <v>619</v>
       </c>
       <c r="C311" t="s" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D311" s="9">
-        <v>0.230769230769231</v>
-      </c>
-      <c r="E311" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E311" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F311" s="9"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
@@ -9006,10 +9058,10 @@
         <v>621</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D312" s="9">
-        <v>0.41025641025641</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -9024,10 +9076,10 @@
         <v>623</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D313" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -9045,11 +9097,9 @@
         <v>76</v>
       </c>
       <c r="D314" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E314" s="9">
-        <v>0.382978723404255</v>
-      </c>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
@@ -9062,12 +9112,14 @@
         <v>627</v>
       </c>
       <c r="C315" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D315" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E315" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E315" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F315" s="9"/>
       <c r="G315" s="10"/>
       <c r="H315" s="10"/>
@@ -9080,86 +9132,86 @@
         <v>629</v>
       </c>
       <c r="C316" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D316" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E316" s="9">
-        <v>0.25531914893617</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
     </row>
-    <row r="317" ht="20.35" customHeight="1">
-      <c r="A317" t="s" s="13">
+    <row r="317" ht="20.05" customHeight="1">
+      <c r="A317" t="s" s="12">
         <v>630</v>
       </c>
-      <c r="B317" t="s" s="13">
+      <c r="B317" t="s" s="12">
         <v>631</v>
       </c>
       <c r="C317" t="s" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D317" s="9">
-        <v>0.641025641025641</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E317" s="9">
-        <v>0.5106382978723401</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
     </row>
-    <row r="318" ht="20.7" customHeight="1">
-      <c r="A318" t="s" s="4">
+    <row r="318" ht="20.35" customHeight="1">
+      <c r="A318" t="s" s="13">
         <v>632</v>
       </c>
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="13">
         <v>633</v>
       </c>
-      <c r="C318" t="s" s="8">
-        <v>10</v>
+      <c r="C318" t="s" s="12">
+        <v>15</v>
       </c>
       <c r="D318" s="9">
-        <v>0.5625</v>
-      </c>
-      <c r="E318" s="9"/>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E318" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
     </row>
-    <row r="319" ht="20.35" customHeight="1">
-      <c r="A319" t="s" s="11">
+    <row r="319" ht="20.7" customHeight="1">
+      <c r="A319" t="s" s="4">
         <v>634</v>
       </c>
-      <c r="B319" t="s" s="11">
+      <c r="B319" t="s" s="4">
         <v>635</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>27</v>
+      <c r="C319" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D319" s="9">
-        <v>0.923076923076923</v>
+        <v>0.5625</v>
       </c>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
       <c r="G319" s="10"/>
       <c r="H319" s="10"/>
     </row>
-    <row r="320" ht="20.05" customHeight="1">
-      <c r="A320" t="s" s="12">
+    <row r="320" ht="20.35" customHeight="1">
+      <c r="A320" t="s" s="11">
         <v>636</v>
       </c>
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="11">
         <v>637</v>
       </c>
       <c r="C320" t="s" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D320" s="9">
-        <v>0.333333333333333</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
@@ -9174,10 +9226,10 @@
         <v>639</v>
       </c>
       <c r="C321" t="s" s="12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D321" s="9">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -9192,10 +9244,10 @@
         <v>641</v>
       </c>
       <c r="C322" t="s" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D322" s="9">
-        <v>0.512820512820513</v>
+        <v>0</v>
       </c>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -9210,10 +9262,10 @@
         <v>643</v>
       </c>
       <c r="C323" t="s" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D323" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
@@ -9231,7 +9283,7 @@
         <v>45</v>
       </c>
       <c r="D324" s="9">
-        <v>0.512820512820513</v>
+        <v>0</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -9246,10 +9298,10 @@
         <v>647</v>
       </c>
       <c r="C325" t="s" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D325" s="9">
-        <v>0.820512820512821</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
@@ -9264,12 +9316,14 @@
         <v>649</v>
       </c>
       <c r="C326" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D326" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E326" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E326" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F326" s="9"/>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
@@ -9282,10 +9336,10 @@
         <v>651</v>
       </c>
       <c r="C327" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D327" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
@@ -9303,7 +9357,7 @@
         <v>30</v>
       </c>
       <c r="D328" s="9">
-        <v>0.564102564102564</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
@@ -9311,10 +9365,18 @@
       <c r="H328" s="10"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
-      <c r="A329" s="10"/>
-      <c r="B329" s="10"/>
-      <c r="C329" s="10"/>
-      <c r="D329" s="9"/>
+      <c r="A329" t="s" s="12">
+        <v>654</v>
+      </c>
+      <c r="B329" t="s" s="12">
+        <v>655</v>
+      </c>
+      <c r="C329" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D329" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E329" s="9"/>
       <c r="F329" s="9"/>
       <c r="G329" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -5723,7 +5723,9 @@
       <c r="D130" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E130" s="9"/>
+      <c r="E130" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -6237,7 +6239,9 @@
       <c r="D158" s="9">
         <v>0.666666666666667</v>
       </c>
-      <c r="E158" s="9"/>
+      <c r="E158" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
@@ -6383,7 +6387,9 @@
       <c r="D166" s="9">
         <v>0.256410256410256</v>
       </c>
-      <c r="E166" s="9"/>
+      <c r="E166" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -7561,7 +7567,9 @@
       <c r="D230" s="9">
         <v>0</v>
       </c>
-      <c r="E230" s="9"/>
+      <c r="E230" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
@@ -7671,7 +7679,9 @@
       <c r="D236" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E236" s="9"/>
+      <c r="E236" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
@@ -7725,7 +7735,9 @@
       <c r="D239" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E239" s="9"/>
+      <c r="E239" s="9">
+        <v>0.808510638297872</v>
+      </c>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
@@ -7891,7 +7903,9 @@
       <c r="D248" s="9">
         <v>0.435897435897436</v>
       </c>
-      <c r="E248" s="9"/>
+      <c r="E248" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
@@ -7927,7 +7941,9 @@
       <c r="D250" s="9">
         <v>0.974358974358974</v>
       </c>
-      <c r="E250" s="9"/>
+      <c r="E250" s="9">
+        <v>0.936170212765957</v>
+      </c>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
@@ -8017,7 +8033,9 @@
       <c r="D255" s="9">
         <v>0.692307692307692</v>
       </c>
-      <c r="E255" s="9"/>
+      <c r="E255" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
@@ -9137,7 +9155,9 @@
       <c r="D316" s="9">
         <v>0.666666666666667</v>
       </c>
-      <c r="E316" s="9"/>
+      <c r="E316" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
@@ -9267,7 +9287,9 @@
       <c r="D323" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E323" s="9"/>
+      <c r="E323" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F323" s="9"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -4637,7 +4637,9 @@
       <c r="D71" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4951,7 +4953,9 @@
       <c r="D88" s="9">
         <v>0.564102564102564</v>
       </c>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -6073,7 +6077,9 @@
       <c r="D149" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E149" s="9"/>
+      <c r="E149" s="9">
+        <v>0.404255319148936</v>
+      </c>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
@@ -6553,7 +6559,9 @@
       <c r="D175" s="9">
         <v>0.666666666666667</v>
       </c>
-      <c r="E175" s="9"/>
+      <c r="E175" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F175" s="9"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -6845,7 +6853,9 @@
       <c r="D191" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E191" s="9"/>
+      <c r="E191" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -7329,7 +7339,9 @@
       <c r="D217" s="9">
         <v>0.717948717948718</v>
       </c>
-      <c r="E217" s="9"/>
+      <c r="E217" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
@@ -7979,7 +7991,9 @@
       <c r="D252" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E252" s="9"/>
+      <c r="E252" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
@@ -8237,7 +8251,9 @@
       <c r="D266" s="9">
         <v>0.897435897435897</v>
       </c>
-      <c r="E266" s="9"/>
+      <c r="E266" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
@@ -8643,7 +8659,9 @@
       <c r="D288" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E288" s="9"/>
+      <c r="E288" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
@@ -8949,7 +8967,9 @@
       <c r="D305" s="9">
         <v>0.948717948717949</v>
       </c>
-      <c r="E305" s="9"/>
+      <c r="E305" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
@@ -9363,7 +9383,9 @@
       <c r="D327" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E327" s="9"/>
+      <c r="E327" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F327" s="9"/>
       <c r="G327" s="10"/>
       <c r="H327" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -4545,7 +4545,9 @@
       <c r="D66" s="9">
         <v>0.7435897435897439</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4805,7 +4807,9 @@
       <c r="D80" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -5837,7 +5841,9 @@
       <c r="D136" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E136" s="9"/>
+      <c r="E136" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -6303,7 +6309,9 @@
       <c r="D161" s="9">
         <v>0.846153846153846</v>
       </c>
-      <c r="E161" s="9"/>
+      <c r="E161" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -7561,7 +7569,9 @@
       <c r="D229" s="9">
         <v>0.897435897435897</v>
       </c>
-      <c r="E229" s="9"/>
+      <c r="E229" s="9">
+        <v>0.851063829787234</v>
+      </c>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
@@ -7635,7 +7645,9 @@
       <c r="D233" s="9">
         <v>0.820512820512821</v>
       </c>
-      <c r="E233" s="9"/>
+      <c r="E233" s="9">
+        <v>0.893617021276596</v>
+      </c>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -3585,7 +3585,9 @@
       <c r="D14" s="9">
         <v>0.538461538461538</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>0.74468085106383</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5565,7 +5567,9 @@
       <c r="D121" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E121" s="9"/>
+      <c r="E121" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -5751,7 +5755,9 @@
       <c r="D131" s="9">
         <v>0.538461538461538</v>
       </c>
-      <c r="E131" s="9"/>
+      <c r="E131" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
@@ -5897,7 +5903,9 @@
       <c r="D139" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E139" s="9"/>
+      <c r="E139" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -6347,7 +6355,9 @@
       <c r="D163" s="9">
         <v>0.923076923076923</v>
       </c>
-      <c r="E163" s="9"/>
+      <c r="E163" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6421,7 +6431,9 @@
       <c r="D167" s="9">
         <v>0</v>
       </c>
-      <c r="E167" s="9"/>
+      <c r="E167" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
@@ -6733,7 +6745,9 @@
       <c r="D184" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E184" s="9"/>
+      <c r="E184" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
@@ -6769,7 +6783,9 @@
       <c r="D186" s="9">
         <v>0.820512820512821</v>
       </c>
-      <c r="E186" s="9"/>
+      <c r="E186" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
@@ -7145,7 +7161,9 @@
       <c r="D206" s="9">
         <v>0.871794871794872</v>
       </c>
-      <c r="E206" s="9"/>
+      <c r="E206" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
@@ -7273,7 +7291,9 @@
       <c r="D213" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E213" s="9"/>
+      <c r="E213" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
@@ -8041,7 +8061,9 @@
       <c r="D254" s="9">
         <v>0.487179487179487</v>
       </c>
-      <c r="E254" s="9"/>
+      <c r="E254" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
@@ -8451,7 +8473,9 @@
       <c r="D276" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E276" s="9"/>
+      <c r="E276" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
@@ -8523,7 +8547,9 @@
       <c r="D280" s="9">
         <v>0.58974358974359</v>
       </c>
-      <c r="E280" s="9"/>
+      <c r="E280" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
@@ -8653,7 +8679,9 @@
       <c r="D287" s="9">
         <v>0.692307692307692</v>
       </c>
-      <c r="E287" s="9"/>
+      <c r="E287" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
@@ -8835,7 +8863,9 @@
       <c r="D297" s="9">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E297" s="9"/>
+      <c r="E297" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
@@ -8853,7 +8883,9 @@
       <c r="D298" s="9">
         <v>0.384615384615385</v>
       </c>
-      <c r="E298" s="9"/>
+      <c r="E298" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
@@ -8943,7 +8975,9 @@
       <c r="D303" s="9">
         <v>0.717948717948718</v>
       </c>
-      <c r="E303" s="9"/>
+      <c r="E303" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
@@ -9131,7 +9165,9 @@
       <c r="D313" s="9">
         <v>0.41025641025641</v>
       </c>
-      <c r="E313" s="9"/>
+      <c r="E313" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="660">
   <si>
     <t>Surname</t>
   </si>
@@ -52,6 +52,12 @@
     <t>H210543N</t>
   </si>
   <si>
+    <t>Basvi</t>
+  </si>
+  <si>
+    <t>H180081A</t>
+  </si>
+  <si>
     <t>Bere</t>
   </si>
   <si>
@@ -1694,6 +1700,12 @@
   </si>
   <si>
     <t>H210364M</t>
+  </si>
+  <si>
+    <t>Pemhiwa</t>
+  </si>
+  <si>
+    <t>H210318W</t>
   </si>
   <si>
     <t>Pepukayi</t>
@@ -3389,26 +3401,26 @@
       <c r="B4" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>15</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="C5" t="s" s="12">
         <v>17</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>18</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -3418,40 +3430,40 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="13">
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="C6" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="12">
-        <v>18</v>
-      </c>
       <c r="D6" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.680851063829787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="8">
-        <v>10</v>
+      <c r="C7" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D7" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3464,51 +3476,49 @@
         <v>24</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D8" s="9">
-        <v>0.34375</v>
+        <v>0.78125</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="11">
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D9" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.8297872340425529</v>
-      </c>
+        <v>0.34375</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="12">
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="C10" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>30</v>
-      </c>
       <c r="D10" s="9">
-        <v>0.615384615384615</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E10" s="9">
-        <v>0.340425531914894</v>
+        <v>0.8297872340425529</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -3516,19 +3526,19 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="C11" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>18</v>
-      </c>
       <c r="D11" s="9">
-        <v>0.230769230769231</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E11" s="9">
-        <v>0.361702127659574</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -3542,12 +3552,14 @@
         <v>34</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>0.230769230769231</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3560,14 +3572,12 @@
         <v>36</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.638297872340426</v>
-      </c>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3580,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9">
-        <v>0.538461538461538</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E14" s="9">
-        <v>0.74468085106383</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3600,12 +3610,14 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.74468085106383</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3618,12 +3630,14 @@
         <v>42</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -3636,33 +3650,31 @@
         <v>44</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.617021276595745</v>
-      </c>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="C18" t="s" s="12">
         <v>47</v>
-      </c>
-      <c r="C18" t="s" s="12">
-        <v>15</v>
       </c>
       <c r="D18" s="9">
         <v>0.487179487179487</v>
       </c>
       <c r="E18" s="9">
-        <v>0.361702127659574</v>
+        <v>0.617021276595745</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -3676,13 +3688,13 @@
         <v>49</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="9">
-        <v>0.58974358974359</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E19" s="9">
-        <v>0.659574468085106</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
@@ -3696,12 +3708,14 @@
         <v>51</v>
       </c>
       <c r="C20" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3714,7 +3728,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -3724,72 +3738,74 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" t="s" s="13">
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="13">
+      <c r="B22" t="s" s="12">
         <v>55</v>
       </c>
       <c r="C22" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" t="s" s="4">
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="C23" t="s" s="8">
-        <v>25</v>
+      <c r="C23" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="11">
+    <row r="24" ht="20.7" customHeight="1">
+      <c r="A24" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="B24" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>18</v>
+      <c r="C24" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D24" s="9">
-        <v>0.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="12">
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="11">
         <v>61</v>
       </c>
       <c r="C25" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9">
-        <v>0.717948717948718</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -3804,10 +3820,10 @@
         <v>63</v>
       </c>
       <c r="C26" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3822,14 +3838,12 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -3842,12 +3856,14 @@
         <v>67</v>
       </c>
       <c r="C28" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="9">
-        <v>0.435897435897436</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -3860,10 +3876,10 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9">
-        <v>0</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3878,14 +3894,12 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="9">
-        <v>0.531914893617021</v>
-      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -3898,12 +3912,14 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -3916,10 +3932,10 @@
         <v>75</v>
       </c>
       <c r="C32" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9">
-        <v>0.358974358974359</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -3928,52 +3944,52 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="C33" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>15</v>
-      </c>
       <c r="D33" s="9">
-        <v>0.512820512820513</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" t="s" s="13">
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="B34" t="s" s="13">
+      <c r="B34" t="s" s="12">
         <v>80</v>
       </c>
       <c r="C34" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D34" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="20.7" customHeight="1">
-      <c r="A35" t="s" s="4">
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="C35" t="s" s="8">
-        <v>25</v>
+      <c r="C35" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D35" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -3988,46 +4004,46 @@
         <v>84</v>
       </c>
       <c r="C36" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" t="s" s="11">
+    <row r="37" ht="20.7" customHeight="1">
+      <c r="A37" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="B37" t="s" s="11">
+      <c r="B37" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="C37" t="s" s="12">
-        <v>45</v>
+      <c r="C37" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D37" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="12">
+    <row r="38" ht="20.35" customHeight="1">
+      <c r="A38" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="11">
         <v>88</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D38" s="9">
-        <v>0</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -4042,7 +4058,7 @@
         <v>90</v>
       </c>
       <c r="C39" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -4060,14 +4076,12 @@
         <v>92</v>
       </c>
       <c r="C40" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D40" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.553191489361702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -4080,12 +4094,14 @@
         <v>94</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D41" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -4098,10 +4114,10 @@
         <v>96</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9">
-        <v>0.666666666666667</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -4116,10 +4132,10 @@
         <v>98</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D43" s="9">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -4134,10 +4150,10 @@
         <v>100</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9">
-        <v>0.897435897435897</v>
+        <v>0</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -4152,14 +4168,12 @@
         <v>102</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.595744680851064</v>
-      </c>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -4172,12 +4186,14 @@
         <v>104</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D46" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -4190,10 +4206,10 @@
         <v>106</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D47" s="9">
-        <v>0.512820512820513</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -4208,10 +4224,10 @@
         <v>108</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D48" s="9">
-        <v>0.846153846153846</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4226,12 +4242,14 @@
         <v>110</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D49" s="9">
-        <v>0.230769230769231</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.957446808510638</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -4244,14 +4262,12 @@
         <v>112</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D50" s="9">
-        <v>0.256410256410256</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.595744680851064</v>
-      </c>
+        <v>0.230769230769231</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -4264,82 +4280,84 @@
         <v>114</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D51" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>0.256410256410256</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" t="s" s="13">
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" t="s" s="12">
         <v>115</v>
       </c>
-      <c r="B52" t="s" s="13">
+      <c r="B52" t="s" s="12">
         <v>116</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D52" s="9">
-        <v>0.205128205128205</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" ht="20.7" customHeight="1">
-      <c r="A53" t="s" s="4">
+    <row r="53" ht="20.35" customHeight="1">
+      <c r="A53" t="s" s="13">
         <v>117</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="13">
         <v>118</v>
       </c>
-      <c r="C53" t="s" s="8">
-        <v>10</v>
+      <c r="C53" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D53" s="9">
-        <v>0.625</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" ht="20.35" customHeight="1">
-      <c r="A54" t="s" s="11">
+    <row r="54" ht="20.7" customHeight="1">
+      <c r="A54" t="s" s="4">
         <v>119</v>
       </c>
-      <c r="B54" t="s" s="11">
+      <c r="B54" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>45</v>
+      <c r="C54" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D54" s="9">
-        <v>0.282051282051282</v>
+        <v>0.625</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="12">
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" t="s" s="11">
         <v>121</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="11">
         <v>122</v>
       </c>
       <c r="C55" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D55" s="9">
-        <v>0.538461538461538</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -4348,16 +4366,16 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D56" s="9">
-        <v>0.615384615384615</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -4366,16 +4384,16 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D57" s="9">
-        <v>0.666666666666667</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -4384,54 +4402,54 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s" s="12">
         <v>126</v>
       </c>
       <c r="C58" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D58" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0.148936170212766</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s" s="12">
         <v>129</v>
       </c>
       <c r="C60" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D60" s="9">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -4446,14 +4464,12 @@
         <v>131</v>
       </c>
       <c r="C61" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D61" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0.340425531914894</v>
-      </c>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4466,13 +4482,13 @@
         <v>133</v>
       </c>
       <c r="C62" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" s="9">
-        <v>0.717948717948718</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E62" s="9">
-        <v>0.191489361702128</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
@@ -4486,13 +4502,13 @@
         <v>135</v>
       </c>
       <c r="C63" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D63" s="9">
-        <v>0.871794871794872</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E63" s="9">
-        <v>0.787234042553191</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
@@ -4506,12 +4522,14 @@
         <v>137</v>
       </c>
       <c r="C64" t="s" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D64" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E64" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4524,7 +4542,7 @@
         <v>139</v>
       </c>
       <c r="C65" t="s" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D65" s="9">
         <v>0.333333333333333</v>
@@ -4542,86 +4560,86 @@
         <v>141</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0.680851063829787</v>
-      </c>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" ht="20.35" customHeight="1">
-      <c r="A67" t="s" s="13">
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="B67" t="s" s="13">
+      <c r="B67" t="s" s="12">
         <v>143</v>
       </c>
       <c r="C67" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D67" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E67" s="9">
-        <v>0.191489361702128</v>
+        <v>0.680851063829787</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.7" customHeight="1">
-      <c r="A68" t="s" s="4">
+    <row r="68" ht="20.35" customHeight="1">
+      <c r="A68" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="13">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="8">
-        <v>10</v>
+      <c r="C68" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D68" s="9">
-        <v>0.65625</v>
-      </c>
-      <c r="E68" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.35" customHeight="1">
-      <c r="A69" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s" s="11">
+    <row r="69" ht="20.7" customHeight="1">
+      <c r="A69" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>76</v>
+      <c r="B69" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D69" s="9">
-        <v>0.794871794871795</v>
+        <v>0.65625</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="12">
-        <v>147</v>
-      </c>
-      <c r="B70" t="s" s="12">
+    <row r="70" ht="20.35" customHeight="1">
+      <c r="A70" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s" s="11">
         <v>148</v>
       </c>
       <c r="C70" t="s" s="12">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D70" s="9">
-        <v>0.538461538461538</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -4636,14 +4654,12 @@
         <v>150</v>
       </c>
       <c r="C71" t="s" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D71" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E71" s="9">
-        <v>0.765957446808511</v>
-      </c>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4656,12 +4672,14 @@
         <v>152</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D72" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E72" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -4674,10 +4692,10 @@
         <v>154</v>
       </c>
       <c r="C73" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D73" s="9">
-        <v>0.564102564102564</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4692,84 +4710,84 @@
         <v>156</v>
       </c>
       <c r="C74" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D74" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0.425531914893617</v>
-      </c>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" ht="20.35" customHeight="1">
-      <c r="A75" t="s" s="13">
+    <row r="75" ht="20.05" customHeight="1">
+      <c r="A75" t="s" s="12">
         <v>157</v>
       </c>
-      <c r="B75" t="s" s="13">
+      <c r="B75" t="s" s="12">
         <v>158</v>
       </c>
       <c r="C75" t="s" s="12">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D75" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" ht="20.7" customHeight="1">
-      <c r="A76" t="s" s="4">
+    <row r="76" ht="20.35" customHeight="1">
+      <c r="A76" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="13">
         <v>160</v>
       </c>
-      <c r="C76" t="s" s="8">
-        <v>10</v>
+      <c r="C76" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D76" s="9">
-        <v>0.46875</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.35" customHeight="1">
-      <c r="A77" t="s" s="11">
+    <row r="77" ht="20.7" customHeight="1">
+      <c r="A77" t="s" s="4">
         <v>161</v>
       </c>
-      <c r="B77" t="s" s="11">
+      <c r="B77" t="s" s="4">
         <v>162</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>27</v>
+      <c r="C77" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D77" s="9">
-        <v>0.41025641025641</v>
+        <v>0.46875</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="12">
+    <row r="78" ht="20.35" customHeight="1">
+      <c r="A78" t="s" s="11">
         <v>163</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="11">
         <v>164</v>
       </c>
       <c r="C78" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="9">
-        <v>0</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -4784,30 +4802,28 @@
         <v>166</v>
       </c>
       <c r="C79" t="s" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D79" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0.446808510638298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.35" customHeight="1">
-      <c r="A80" t="s" s="13">
+    <row r="80" ht="20.05" customHeight="1">
+      <c r="A80" t="s" s="12">
         <v>167</v>
       </c>
-      <c r="B80" t="s" s="13">
+      <c r="B80" t="s" s="12">
         <v>168</v>
       </c>
       <c r="C80" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D80" s="9">
-        <v>0.487179487179487</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E80" s="9">
         <v>0.446808510638298</v>
@@ -4816,20 +4832,22 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="4">
+    <row r="81" ht="20.35" customHeight="1">
+      <c r="A81" t="s" s="13">
         <v>169</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="13">
         <v>170</v>
       </c>
-      <c r="C81" t="s" s="8">
-        <v>25</v>
+      <c r="C81" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D81" s="9">
-        <v>0</v>
-      </c>
-      <c r="E81" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -4842,10 +4860,10 @@
         <v>172</v>
       </c>
       <c r="C82" t="s" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D82" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -4853,77 +4871,75 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" ht="20.7" customHeight="1">
-      <c r="A83" t="s" s="14">
+      <c r="A83" t="s" s="4">
         <v>173</v>
       </c>
-      <c r="B83" t="s" s="14">
+      <c r="B83" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>18</v>
+      <c r="C83" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D83" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0.702127659574468</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
     <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="14">
         <v>176</v>
       </c>
-      <c r="C84" t="s" s="8">
-        <v>10</v>
+      <c r="C84" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D84" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="E84" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="20.35" customHeight="1">
-      <c r="A85" t="s" s="11">
+    <row r="85" ht="20.7" customHeight="1">
+      <c r="A85" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="B85" t="s" s="11">
+      <c r="B85" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="C85" t="s" s="12">
-        <v>30</v>
+      <c r="C85" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D85" s="9">
-        <v>0.615384615384615</v>
+        <v>0.875</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="12">
+    <row r="86" ht="20.35" customHeight="1">
+      <c r="A86" t="s" s="11">
         <v>179</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="11">
         <v>180</v>
       </c>
       <c r="C86" t="s" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D86" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0.723404255319149</v>
-      </c>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -4936,12 +4952,14 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D87" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E87" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -4954,90 +4972,90 @@
         <v>184</v>
       </c>
       <c r="C88" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D88" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0.340425531914894</v>
-      </c>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.35" customHeight="1">
-      <c r="A89" t="s" s="13">
-        <v>183</v>
-      </c>
-      <c r="B89" t="s" s="13">
+    <row r="89" ht="20.05" customHeight="1">
+      <c r="A89" t="s" s="12">
         <v>185</v>
       </c>
+      <c r="B89" t="s" s="12">
+        <v>186</v>
+      </c>
       <c r="C89" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D89" s="9">
-        <v>0.615384615384615</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E89" s="9">
-        <v>0.382978723404255</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" ht="20.7" customHeight="1">
-      <c r="A90" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="B90" t="s" s="4">
+    <row r="90" ht="20.35" customHeight="1">
+      <c r="A90" t="s" s="13">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s" s="13">
         <v>187</v>
       </c>
-      <c r="C90" t="s" s="8">
-        <v>25</v>
+      <c r="C90" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D90" s="9">
-        <v>0.21875</v>
-      </c>
-      <c r="E90" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.35" customHeight="1">
-      <c r="A91" t="s" s="11">
+    <row r="91" ht="20.7" customHeight="1">
+      <c r="A91" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="B91" t="s" s="11">
+      <c r="B91" t="s" s="4">
         <v>189</v>
       </c>
-      <c r="C91" t="s" s="12">
-        <v>18</v>
+      <c r="C91" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D91" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E91" s="9">
-        <v>0.787234042553191</v>
-      </c>
+        <v>0.21875</v>
+      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="12">
+    <row r="92" ht="20.35" customHeight="1">
+      <c r="A92" t="s" s="11">
         <v>190</v>
       </c>
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="11">
         <v>191</v>
       </c>
       <c r="C92" t="s" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D92" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E92" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -5050,48 +5068,48 @@
         <v>193</v>
       </c>
       <c r="C93" t="s" s="12">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D93" s="9">
-        <v>0.205128205128205</v>
-      </c>
-      <c r="E93" s="9">
-        <v>0.127659574468085</v>
-      </c>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.35" customHeight="1">
-      <c r="A94" t="s" s="13">
+    <row r="94" ht="20.05" customHeight="1">
+      <c r="A94" t="s" s="12">
         <v>194</v>
       </c>
-      <c r="B94" t="s" s="13">
+      <c r="B94" t="s" s="12">
         <v>195</v>
       </c>
       <c r="C94" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" s="9">
-        <v>0</v>
-      </c>
-      <c r="E94" s="9"/>
+        <v>0.205128205128205</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" ht="20.7" customHeight="1">
-      <c r="A95" t="s" s="4">
+    <row r="95" ht="20.35" customHeight="1">
+      <c r="A95" t="s" s="13">
         <v>196</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="13">
         <v>197</v>
       </c>
-      <c r="C95" t="s" s="8">
-        <v>25</v>
+      <c r="C95" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D95" s="9">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -5099,17 +5117,17 @@
       <c r="H95" s="10"/>
     </row>
     <row r="96" ht="20.7" customHeight="1">
-      <c r="A96" t="s" s="14">
+      <c r="A96" t="s" s="4">
         <v>198</v>
       </c>
-      <c r="B96" t="s" s="14">
+      <c r="B96" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>15</v>
+      <c r="C96" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D96" s="9">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -5117,14 +5135,14 @@
       <c r="H96" s="10"/>
     </row>
     <row r="97" ht="20.7" customHeight="1">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="14">
         <v>201</v>
       </c>
-      <c r="C97" t="s" s="8">
-        <v>25</v>
+      <c r="C97" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D97" s="9">
         <v>0</v>
@@ -5142,50 +5160,48 @@
         <v>203</v>
       </c>
       <c r="C98" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D98" s="9">
-        <v>0.53125</v>
+        <v>0</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" ht="20.35" customHeight="1">
-      <c r="A99" t="s" s="11">
+    <row r="99" ht="20.7" customHeight="1">
+      <c r="A99" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="B99" t="s" s="11">
+      <c r="B99" t="s" s="4">
         <v>205</v>
       </c>
-      <c r="C99" t="s" s="12">
-        <v>15</v>
+      <c r="C99" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D99" s="9">
-        <v>0.820512820512821</v>
+        <v>0.53125</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="12">
+    <row r="100" ht="20.35" customHeight="1">
+      <c r="A100" t="s" s="11">
         <v>206</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="11">
         <v>207</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D100" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0.702127659574468</v>
-      </c>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -5198,13 +5214,13 @@
         <v>209</v>
       </c>
       <c r="C101" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D101" s="9">
-        <v>0.564102564102564</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E101" s="9">
-        <v>0.382978723404255</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
@@ -5217,12 +5233,14 @@
       <c r="B102" t="s" s="12">
         <v>211</v>
       </c>
-      <c r="C102" s="10"/>
+      <c r="C102" t="s" s="12">
+        <v>17</v>
+      </c>
       <c r="D102" s="9">
-        <v>0.897435897435897</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E102" s="9">
-        <v>0.361702127659574</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
@@ -5235,81 +5253,81 @@
       <c r="B103" t="s" s="12">
         <v>213</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>25</v>
-      </c>
+      <c r="C103" s="10"/>
       <c r="D103" s="9">
-        <v>0.5625</v>
-      </c>
-      <c r="E103" s="9"/>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" ht="20.35" customHeight="1">
-      <c r="A104" t="s" s="13">
+    <row r="104" ht="20.05" customHeight="1">
+      <c r="A104" t="s" s="12">
         <v>214</v>
       </c>
-      <c r="B104" t="s" s="13">
+      <c r="B104" t="s" s="12">
         <v>215</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" t="s" s="12">
+        <v>27</v>
+      </c>
       <c r="D104" s="9">
-        <v>0.538461538461538</v>
+        <v>0.5625</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.7" customHeight="1">
-      <c r="A105" t="s" s="4">
+    <row r="105" ht="20.35" customHeight="1">
+      <c r="A105" t="s" s="13">
         <v>216</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="13">
         <v>217</v>
       </c>
-      <c r="C105" t="s" s="8">
-        <v>25</v>
-      </c>
+      <c r="C105" s="10"/>
       <c r="D105" s="9">
-        <v>0.09375</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.35" customHeight="1">
-      <c r="A106" t="s" s="11">
+    <row r="106" ht="20.7" customHeight="1">
+      <c r="A106" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="B106" t="s" s="11">
+      <c r="B106" t="s" s="4">
         <v>219</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D106" s="9">
-        <v>0.717948717948718</v>
+        <v>0.09375</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="12">
+    <row r="107" ht="20.35" customHeight="1">
+      <c r="A107" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="11">
         <v>221</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="9">
-        <v>0</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5324,10 +5342,10 @@
         <v>223</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D108" s="9">
-        <v>0.717948717948718</v>
+        <v>0</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -5342,50 +5360,50 @@
         <v>225</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D109" s="9">
-        <v>0</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.35" customHeight="1">
-      <c r="A110" t="s" s="13">
+    <row r="110" ht="20.05" customHeight="1">
+      <c r="A110" t="s" s="12">
         <v>226</v>
       </c>
-      <c r="B110" t="s" s="13">
+      <c r="B110" t="s" s="12">
         <v>227</v>
       </c>
       <c r="C110" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D110" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0.319148936170213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.7" customHeight="1">
-      <c r="A111" t="s" s="4">
+    <row r="111" ht="20.35" customHeight="1">
+      <c r="A111" t="s" s="13">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="13">
         <v>229</v>
       </c>
-      <c r="C111" t="s" s="8">
-        <v>25</v>
+      <c r="C111" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D111" s="9">
-        <v>0.03125</v>
-      </c>
-      <c r="E111" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -5398,10 +5416,10 @@
         <v>231</v>
       </c>
       <c r="C112" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D112" s="9">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -5416,46 +5434,46 @@
         <v>233</v>
       </c>
       <c r="C113" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113" s="9">
-        <v>0.46875</v>
+        <v>0</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.35" customHeight="1">
-      <c r="A114" t="s" s="11">
+    <row r="114" ht="20.7" customHeight="1">
+      <c r="A114" t="s" s="4">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="11">
+      <c r="B114" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>45</v>
+      <c r="C114" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D114" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.46875</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="12">
+    <row r="115" ht="20.35" customHeight="1">
+      <c r="A115" t="s" s="11">
         <v>236</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="11">
         <v>237</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D115" s="9">
-        <v>0</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -5470,86 +5488,86 @@
         <v>239</v>
       </c>
       <c r="C116" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.35" customHeight="1">
-      <c r="A117" t="s" s="13">
+    <row r="117" ht="20.05" customHeight="1">
+      <c r="A117" t="s" s="12">
         <v>240</v>
       </c>
-      <c r="B117" t="s" s="13">
+      <c r="B117" t="s" s="12">
         <v>241</v>
       </c>
       <c r="C117" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D117" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E117" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" ht="20.7" customHeight="1">
-      <c r="A118" t="s" s="4">
+    <row r="118" ht="20.35" customHeight="1">
+      <c r="A118" t="s" s="13">
         <v>242</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="13">
         <v>243</v>
       </c>
-      <c r="C118" t="s" s="8">
-        <v>25</v>
+      <c r="C118" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D118" s="9">
-        <v>0.65625</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.35" customHeight="1">
-      <c r="A119" t="s" s="11">
+    <row r="119" ht="20.7" customHeight="1">
+      <c r="A119" t="s" s="4">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="11">
+      <c r="B119" t="s" s="4">
         <v>245</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>45</v>
+      <c r="C119" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D119" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.65625</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" t="s" s="12">
+    <row r="120" ht="20.35" customHeight="1">
+      <c r="A120" t="s" s="11">
         <v>246</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="11">
         <v>247</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D120" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0.531914893617021</v>
-      </c>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -5562,68 +5580,70 @@
         <v>249</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D121" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E121" s="9">
-        <v>0.25531914893617</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.35" customHeight="1">
-      <c r="A122" t="s" s="13">
+    <row r="122" ht="20.05" customHeight="1">
+      <c r="A122" t="s" s="12">
         <v>250</v>
       </c>
-      <c r="B122" t="s" s="13">
+      <c r="B122" t="s" s="12">
         <v>251</v>
       </c>
       <c r="C122" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D122" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E122" s="9">
-        <v>0.191489361702128</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="4">
+    <row r="123" ht="20.35" customHeight="1">
+      <c r="A123" t="s" s="13">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="13">
         <v>253</v>
       </c>
-      <c r="C123" t="s" s="8">
-        <v>10</v>
+      <c r="C123" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D123" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E123" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E123" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="14">
+      <c r="A124" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>76</v>
+      <c r="C124" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D124" s="9">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -5631,167 +5651,167 @@
       <c r="H124" s="10"/>
     </row>
     <row r="125" ht="20.7" customHeight="1">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="14">
         <v>256</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="14">
         <v>257</v>
       </c>
-      <c r="C125" t="s" s="8">
-        <v>25</v>
+      <c r="C125" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D125" s="9">
-        <v>0.34375</v>
+        <v>0</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.35" customHeight="1">
-      <c r="A126" t="s" s="11">
+    <row r="126" ht="20.7" customHeight="1">
+      <c r="A126" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="B126" t="s" s="11">
+      <c r="B126" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D126" s="9">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0.127659574468085</v>
-      </c>
+        <v>0.34375</v>
+      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" ht="20.35" customHeight="1">
-      <c r="A127" t="s" s="13">
+      <c r="A127" t="s" s="11">
         <v>260</v>
       </c>
-      <c r="B127" t="s" s="13">
+      <c r="B127" t="s" s="11">
         <v>261</v>
       </c>
       <c r="C127" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D127" s="9">
-        <v>0.58974358974359</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E127" s="9">
-        <v>0.276595744680851</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.7" customHeight="1">
-      <c r="A128" t="s" s="4">
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="13">
         <v>262</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="13">
         <v>263</v>
       </c>
-      <c r="C128" t="s" s="8">
-        <v>25</v>
+      <c r="C128" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D128" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" ht="20.35" customHeight="1">
-      <c r="A129" t="s" s="11">
+    <row r="129" ht="20.7" customHeight="1">
+      <c r="A129" t="s" s="4">
         <v>264</v>
       </c>
-      <c r="B129" t="s" s="11">
+      <c r="B129" t="s" s="4">
         <v>265</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" t="s" s="8">
+        <v>27</v>
+      </c>
       <c r="D129" s="9">
-        <v>0.205128205128205</v>
+        <v>0.59375</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" t="s" s="12">
-        <v>264</v>
-      </c>
-      <c r="B130" t="s" s="12">
+    <row r="130" ht="20.35" customHeight="1">
+      <c r="A130" t="s" s="11">
         <v>266</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>45</v>
-      </c>
+      <c r="B130" t="s" s="11">
+        <v>267</v>
+      </c>
+      <c r="C130" s="10"/>
       <c r="D130" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0.446808510638298</v>
-      </c>
+        <v>0.205128205128205</v>
+      </c>
+      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.35" customHeight="1">
-      <c r="A131" t="s" s="13">
-        <v>267</v>
-      </c>
-      <c r="B131" t="s" s="13">
+    <row r="131" ht="20.05" customHeight="1">
+      <c r="A131" t="s" s="12">
+        <v>266</v>
+      </c>
+      <c r="B131" t="s" s="12">
         <v>268</v>
       </c>
       <c r="C131" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D131" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E131" s="9">
-        <v>0.553191489361702</v>
+        <v>0.446808510638298</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.7" customHeight="1">
-      <c r="A132" t="s" s="4">
+    <row r="132" ht="20.35" customHeight="1">
+      <c r="A132" t="s" s="13">
         <v>269</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="13">
         <v>270</v>
       </c>
-      <c r="C132" t="s" s="8">
-        <v>10</v>
+      <c r="C132" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D132" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="E132" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
     <row r="133" ht="20.7" customHeight="1">
-      <c r="A133" t="s" s="14">
+      <c r="A133" t="s" s="4">
         <v>271</v>
       </c>
-      <c r="B133" t="s" s="14">
+      <c r="B133" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>27</v>
+      <c r="C133" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D133" s="9">
-        <v>0.794871794871795</v>
+        <v>0.71875</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -5799,35 +5819,35 @@
       <c r="H133" s="10"/>
     </row>
     <row r="134" ht="20.7" customHeight="1">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="14">
         <v>273</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="14">
         <v>274</v>
       </c>
-      <c r="C134" t="s" s="8">
-        <v>10</v>
+      <c r="C134" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D134" s="9">
-        <v>0.84375</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="20.35" customHeight="1">
-      <c r="A135" t="s" s="11">
+    <row r="135" ht="20.7" customHeight="1">
+      <c r="A135" t="s" s="4">
         <v>275</v>
       </c>
-      <c r="B135" t="s" s="11">
+      <c r="B135" t="s" s="4">
         <v>276</v>
       </c>
-      <c r="C135" t="s" s="12">
-        <v>18</v>
+      <c r="C135" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D135" s="9">
-        <v>0.538461538461538</v>
+        <v>0.84375</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -5835,77 +5855,75 @@
       <c r="H135" s="10"/>
     </row>
     <row r="136" ht="20.35" customHeight="1">
-      <c r="A136" t="s" s="13">
+      <c r="A136" t="s" s="11">
         <v>277</v>
       </c>
-      <c r="B136" t="s" s="13">
+      <c r="B136" t="s" s="11">
         <v>278</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D136" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E136" s="9">
-        <v>0.702127659574468</v>
-      </c>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" ht="20.7" customHeight="1">
-      <c r="A137" t="s" s="4">
+    <row r="137" ht="20.35" customHeight="1">
+      <c r="A137" t="s" s="13">
         <v>279</v>
       </c>
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="13">
         <v>280</v>
       </c>
-      <c r="C137" t="s" s="8">
-        <v>10</v>
+      <c r="C137" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D137" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="E137" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" ht="20.35" customHeight="1">
-      <c r="A138" t="s" s="11">
+    <row r="138" ht="20.7" customHeight="1">
+      <c r="A138" t="s" s="4">
         <v>281</v>
       </c>
-      <c r="B138" t="s" s="11">
+      <c r="B138" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>45</v>
+      <c r="C138" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D138" s="9">
-        <v>0.512820512820513</v>
+        <v>0.8125</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="12">
+    <row r="139" ht="20.35" customHeight="1">
+      <c r="A139" t="s" s="11">
         <v>283</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="11">
         <v>284</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E139" s="9">
-        <v>0.382978723404255</v>
-      </c>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -5918,12 +5936,14 @@
         <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D140" s="9">
-        <v>0</v>
-      </c>
-      <c r="E140" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -5936,7 +5956,7 @@
         <v>288</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D141" s="9">
         <v>0</v>
@@ -5954,10 +5974,10 @@
         <v>290</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D142" s="9">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -5972,10 +5992,10 @@
         <v>292</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D143" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -5984,38 +6004,38 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="12">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s" s="12">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D144" s="9">
         <v>0</v>
       </c>
-      <c r="E144" s="9">
-        <v>0.127659574468085</v>
-      </c>
+      <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="12">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B145" t="s" s="12">
         <v>295</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E145" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
@@ -6028,91 +6048,89 @@
         <v>297</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D146" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0.638297872340426</v>
-      </c>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" ht="20.35" customHeight="1">
-      <c r="A147" t="s" s="13">
+    <row r="147" ht="20.05" customHeight="1">
+      <c r="A147" t="s" s="12">
         <v>298</v>
       </c>
-      <c r="B147" t="s" s="13">
+      <c r="B147" t="s" s="12">
         <v>299</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D147" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E147" s="9">
-        <v>0.382978723404255</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.7" customHeight="1">
-      <c r="A148" t="s" s="4">
+    <row r="148" ht="20.35" customHeight="1">
+      <c r="A148" t="s" s="13">
         <v>300</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="13">
         <v>301</v>
       </c>
-      <c r="C148" t="s" s="8">
-        <v>25</v>
+      <c r="C148" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D148" s="9">
-        <v>0.21875</v>
-      </c>
-      <c r="E148" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E148" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" ht="20.35" customHeight="1">
-      <c r="A149" t="s" s="11">
+    <row r="149" ht="20.7" customHeight="1">
+      <c r="A149" t="s" s="4">
         <v>302</v>
       </c>
-      <c r="B149" t="s" s="11">
+      <c r="B149" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>18</v>
+      <c r="C149" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D149" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E149" s="9">
-        <v>0.404255319148936</v>
-      </c>
+        <v>0.21875</v>
+      </c>
+      <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="12">
+    <row r="150" ht="20.35" customHeight="1">
+      <c r="A150" t="s" s="11">
         <v>304</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="11">
         <v>305</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D150" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E150" s="9">
-        <v>0.595744680851064</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
@@ -6126,12 +6144,14 @@
         <v>307</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D151" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E151" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
@@ -6144,84 +6164,84 @@
         <v>309</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D152" s="9">
-        <v>0.435897435897436</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0.127659574468085</v>
-      </c>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.35" customHeight="1">
-      <c r="A153" t="s" s="13">
+    <row r="153" ht="20.05" customHeight="1">
+      <c r="A153" t="s" s="12">
         <v>310</v>
       </c>
-      <c r="B153" t="s" s="13">
+      <c r="B153" t="s" s="12">
         <v>311</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D153" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E153" s="9"/>
+        <v>0.435897435897436</v>
+      </c>
+      <c r="E153" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.7" customHeight="1">
-      <c r="A154" t="s" s="4">
+    <row r="154" ht="20.35" customHeight="1">
+      <c r="A154" t="s" s="13">
         <v>312</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="13">
         <v>313</v>
       </c>
-      <c r="C154" t="s" s="8">
-        <v>25</v>
+      <c r="C154" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D154" s="9">
-        <v>0.5</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" ht="20.35" customHeight="1">
-      <c r="A155" t="s" s="11">
-        <v>312</v>
-      </c>
-      <c r="B155" t="s" s="11">
+    <row r="155" ht="20.7" customHeight="1">
+      <c r="A155" t="s" s="4">
         <v>314</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="B155" t="s" s="4">
+        <v>315</v>
+      </c>
+      <c r="C155" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D155" s="9">
-        <v>0.641025641025641</v>
+        <v>0.5</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" ht="20.05" customHeight="1">
-      <c r="A156" t="s" s="12">
-        <v>312</v>
-      </c>
-      <c r="B156" t="s" s="12">
-        <v>315</v>
+    <row r="156" ht="20.35" customHeight="1">
+      <c r="A156" t="s" s="11">
+        <v>314</v>
+      </c>
+      <c r="B156" t="s" s="11">
+        <v>316</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D156" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
@@ -6230,16 +6250,16 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="12">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s" s="12">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D157" s="9">
-        <v>0</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -6248,20 +6268,18 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="12">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s" s="12">
         <v>318</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D158" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E158" s="9">
-        <v>0.48936170212766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
@@ -6274,13 +6292,13 @@
         <v>320</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D159" s="9">
-        <v>0.948717948717949</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E159" s="9">
-        <v>0.468085106382979</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
@@ -6294,12 +6312,14 @@
         <v>322</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D160" s="9">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E160" s="9"/>
+        <v>0.948717948717949</v>
+      </c>
+      <c r="E160" s="9">
+        <v>0.468085106382979</v>
+      </c>
       <c r="F160" s="9"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -6312,14 +6332,12 @@
         <v>324</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D161" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E161" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -6332,12 +6350,14 @@
         <v>326</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D162" s="9">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="E162" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E162" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
@@ -6350,14 +6370,12 @@
         <v>328</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D163" s="9">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E163" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.358974358974359</v>
+      </c>
+      <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6370,12 +6388,14 @@
         <v>330</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D164" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E164" s="9"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E164" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -6388,12 +6408,14 @@
         <v>332</v>
       </c>
       <c r="C165" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D165" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E165" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E165" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -6406,13 +6428,13 @@
         <v>334</v>
       </c>
       <c r="C166" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D166" s="9">
-        <v>0.256410256410256</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E166" s="9">
-        <v>0.723404255319149</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -6426,13 +6448,13 @@
         <v>336</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="9">
-        <v>0</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="E167" s="9">
-        <v>0.25531914893617</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -6446,12 +6468,14 @@
         <v>338</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D168" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E168" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
@@ -6464,81 +6488,83 @@
         <v>340</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D169" s="9">
-        <v>0</v>
-      </c>
-      <c r="E169" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E169" s="9">
+        <v>0.872340425531915</v>
+      </c>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" ht="20.35" customHeight="1">
-      <c r="A170" t="s" s="13">
+    <row r="170" ht="20.05" customHeight="1">
+      <c r="A170" t="s" s="12">
         <v>341</v>
       </c>
-      <c r="B170" t="s" s="13">
+      <c r="B170" t="s" s="12">
         <v>342</v>
       </c>
       <c r="C170" t="s" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D170" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E170" s="9">
-        <v>0.425531914893617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.7" customHeight="1">
-      <c r="A171" t="s" s="4">
+    <row r="171" ht="20.35" customHeight="1">
+      <c r="A171" t="s" s="13">
         <v>343</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="13">
         <v>344</v>
       </c>
-      <c r="C171" t="s" s="8">
-        <v>10</v>
+      <c r="C171" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D171" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="E171" s="9"/>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E171" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" ht="20.35" customHeight="1">
-      <c r="A172" t="s" s="11">
+    <row r="172" ht="20.7" customHeight="1">
+      <c r="A172" t="s" s="4">
         <v>345</v>
       </c>
-      <c r="B172" t="s" s="11">
+      <c r="B172" t="s" s="4">
         <v>346</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>45</v>
+      <c r="C172" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D172" s="9">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" ht="20.05" customHeight="1">
-      <c r="A173" t="s" s="12">
+    <row r="173" ht="20.35" customHeight="1">
+      <c r="A173" t="s" s="11">
         <v>347</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="11">
         <v>348</v>
       </c>
       <c r="C173" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D173" s="9">
         <v>0</v>
@@ -6556,10 +6582,10 @@
         <v>350</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D174" s="9">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -6574,14 +6600,12 @@
         <v>352</v>
       </c>
       <c r="C175" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D175" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E175" s="9">
-        <v>0.765957446808511</v>
-      </c>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -6594,13 +6618,13 @@
         <v>354</v>
       </c>
       <c r="C176" t="s" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D176" s="9">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E176" s="9">
-        <v>0.340425531914894</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
@@ -6614,12 +6638,14 @@
         <v>356</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D177" s="9">
-        <v>0.128205128205128</v>
-      </c>
-      <c r="E177" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
@@ -6631,11 +6657,15 @@
       <c r="B178" t="s" s="12">
         <v>358</v>
       </c>
-      <c r="C178" s="10"/>
+      <c r="C178" t="s" s="12">
+        <v>78</v>
+      </c>
       <c r="D178" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E178" s="9"/>
+        <v>0.128205128205128</v>
+      </c>
+      <c r="E178" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F178" s="9"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
@@ -6647,11 +6677,9 @@
       <c r="B179" t="s" s="12">
         <v>360</v>
       </c>
-      <c r="C179" t="s" s="12">
-        <v>27</v>
-      </c>
+      <c r="C179" s="10"/>
       <c r="D179" s="9">
-        <v>0.282051282051282</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -6666,14 +6694,12 @@
         <v>362</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D180" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E180" s="9">
-        <v>0.297872340425532</v>
-      </c>
+        <v>0.282051282051282</v>
+      </c>
+      <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
@@ -6686,12 +6712,14 @@
         <v>364</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D181" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E181" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E181" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
@@ -6704,10 +6732,10 @@
         <v>366</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D182" s="9">
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -6722,7 +6750,7 @@
         <v>368</v>
       </c>
       <c r="C183" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D183" s="9">
         <v>0</v>
@@ -6732,79 +6760,77 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="13">
+    <row r="184" ht="20.05" customHeight="1">
+      <c r="A184" t="s" s="12">
         <v>369</v>
       </c>
-      <c r="B184" t="s" s="13">
+      <c r="B184" t="s" s="12">
         <v>370</v>
       </c>
       <c r="C184" t="s" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D184" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E184" s="9">
-        <v>0.531914893617021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="4">
+    <row r="185" ht="20.35" customHeight="1">
+      <c r="A185" t="s" s="13">
         <v>371</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="13">
         <v>372</v>
       </c>
-      <c r="C185" t="s" s="8">
-        <v>25</v>
+      <c r="C185" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D185" s="9">
-        <v>0.5625</v>
-      </c>
-      <c r="E185" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E185" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.35" customHeight="1">
-      <c r="A186" t="s" s="11">
+    <row r="186" ht="20.7" customHeight="1">
+      <c r="A186" t="s" s="4">
         <v>373</v>
       </c>
-      <c r="B186" t="s" s="11">
+      <c r="B186" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="C186" t="s" s="12">
-        <v>15</v>
+      <c r="C186" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D186" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E186" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.5625</v>
+      </c>
+      <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.05" customHeight="1">
-      <c r="A187" t="s" s="12">
+    <row r="187" ht="20.35" customHeight="1">
+      <c r="A187" t="s" s="11">
         <v>375</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="11">
         <v>376</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D187" s="9">
-        <v>0.333333333333333</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E187" s="9">
-        <v>0.297872340425532</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
@@ -6818,12 +6844,14 @@
         <v>378</v>
       </c>
       <c r="C188" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D188" s="9">
-        <v>0</v>
-      </c>
-      <c r="E188" s="9"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E188" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
@@ -6836,10 +6864,10 @@
         <v>380</v>
       </c>
       <c r="C189" t="s" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D189" s="9">
-        <v>0.692307692307692</v>
+        <v>0</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -6854,10 +6882,10 @@
         <v>382</v>
       </c>
       <c r="C190" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D190" s="9">
-        <v>0</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -6872,14 +6900,12 @@
         <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D191" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E191" s="9">
-        <v>0.574468085106383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -6892,13 +6918,13 @@
         <v>386</v>
       </c>
       <c r="C192" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D192" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E192" s="9">
-        <v>0.425531914893617</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
@@ -6912,236 +6938,238 @@
         <v>388</v>
       </c>
       <c r="C193" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D193" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E193" s="9">
-        <v>0.595744680851064</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" ht="20.35" customHeight="1">
-      <c r="A194" t="s" s="13">
-        <v>387</v>
-      </c>
-      <c r="B194" t="s" s="13">
+    <row r="194" ht="20.05" customHeight="1">
+      <c r="A194" t="s" s="12">
         <v>389</v>
       </c>
+      <c r="B194" t="s" s="12">
+        <v>390</v>
+      </c>
       <c r="C194" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D194" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E194" s="9">
-        <v>0.319148936170213</v>
+        <v>0.595744680851064</v>
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.7" customHeight="1">
-      <c r="A195" t="s" s="4">
-        <v>390</v>
-      </c>
-      <c r="B195" t="s" s="4">
+    <row r="195" ht="20.35" customHeight="1">
+      <c r="A195" t="s" s="13">
+        <v>389</v>
+      </c>
+      <c r="B195" t="s" s="13">
         <v>391</v>
       </c>
-      <c r="C195" t="s" s="8">
-        <v>25</v>
+      <c r="C195" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D195" s="9">
-        <v>0</v>
-      </c>
-      <c r="E195" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E195" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
     <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="14">
+      <c r="A196" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="B196" t="s" s="14">
+      <c r="B196" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>45</v>
+      <c r="C196" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D196" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E196" s="9">
-        <v>0.574468085106383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
     <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="14">
         <v>394</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="14">
         <v>395</v>
       </c>
-      <c r="C197" t="s" s="8">
-        <v>10</v>
+      <c r="C197" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D197" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E197" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E197" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.35" customHeight="1">
-      <c r="A198" t="s" s="11">
+    <row r="198" ht="20.7" customHeight="1">
+      <c r="A198" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="B198" t="s" s="11">
+      <c r="B198" t="s" s="4">
         <v>397</v>
       </c>
-      <c r="C198" s="10"/>
+      <c r="C198" t="s" s="8">
+        <v>10</v>
+      </c>
       <c r="D198" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E198" s="9">
-        <v>0.234042553191489</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.05" customHeight="1">
-      <c r="A199" t="s" s="12">
+    <row r="199" ht="20.35" customHeight="1">
+      <c r="A199" t="s" s="11">
         <v>398</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="11">
         <v>399</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>76</v>
-      </c>
+      <c r="C199" s="10"/>
       <c r="D199" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E199" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E199" s="9">
+        <v>0.234042553191489</v>
+      </c>
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.35" customHeight="1">
-      <c r="A200" t="s" s="13">
+    <row r="200" ht="20.05" customHeight="1">
+      <c r="A200" t="s" s="12">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="13">
+      <c r="B200" t="s" s="12">
         <v>401</v>
       </c>
       <c r="C200" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D200" s="9">
-        <v>0</v>
-      </c>
-      <c r="E200" s="9">
-        <v>0.191489361702128</v>
-      </c>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.7" customHeight="1">
-      <c r="A201" t="s" s="4">
+    <row r="201" ht="20.35" customHeight="1">
+      <c r="A201" t="s" s="13">
         <v>402</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="13">
         <v>403</v>
       </c>
-      <c r="C201" t="s" s="8">
-        <v>10</v>
+      <c r="C201" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D201" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="E201" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E201" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F201" s="9"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="11">
+    <row r="202" ht="20.7" customHeight="1">
+      <c r="A202" t="s" s="4">
         <v>404</v>
       </c>
-      <c r="B202" t="s" s="11">
+      <c r="B202" t="s" s="4">
         <v>405</v>
       </c>
-      <c r="C202" t="s" s="12">
-        <v>18</v>
+      <c r="C202" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D202" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E202" s="9">
-        <v>0.531914893617021</v>
-      </c>
+        <v>0.71875</v>
+      </c>
+      <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.05" customHeight="1">
-      <c r="A203" t="s" s="12">
-        <v>404</v>
-      </c>
-      <c r="B203" t="s" s="12">
+    <row r="203" ht="20.35" customHeight="1">
+      <c r="A203" t="s" s="11">
         <v>406</v>
       </c>
+      <c r="B203" t="s" s="11">
+        <v>407</v>
+      </c>
       <c r="C203" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D203" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E203" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E203" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.35" customHeight="1">
-      <c r="A204" t="s" s="13">
-        <v>407</v>
-      </c>
-      <c r="B204" t="s" s="13">
+    <row r="204" ht="20.05" customHeight="1">
+      <c r="A204" t="s" s="12">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s" s="12">
         <v>408</v>
       </c>
       <c r="C204" t="s" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D204" s="9">
-        <v>0.307692307692308</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" t="s" s="4">
-        <v>407</v>
-      </c>
-      <c r="B205" t="s" s="4">
+    <row r="205" ht="20.35" customHeight="1">
+      <c r="A205" t="s" s="13">
         <v>409</v>
       </c>
-      <c r="C205" t="s" s="8">
-        <v>10</v>
+      <c r="B205" t="s" s="13">
+        <v>410</v>
+      </c>
+      <c r="C205" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D205" s="9">
-        <v>0.71875</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
@@ -7149,55 +7177,55 @@
       <c r="H205" s="10"/>
     </row>
     <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="14">
-        <v>410</v>
-      </c>
-      <c r="B206" t="s" s="14">
+      <c r="A206" t="s" s="4">
+        <v>409</v>
+      </c>
+      <c r="B206" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>30</v>
+      <c r="C206" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D206" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E206" s="9">
-        <v>0.765957446808511</v>
-      </c>
+        <v>0.71875</v>
+      </c>
+      <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
     <row r="207" ht="20.7" customHeight="1">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="14">
         <v>412</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="14">
         <v>413</v>
       </c>
-      <c r="C207" t="s" s="8">
-        <v>25</v>
+      <c r="C207" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D207" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="E207" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E207" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.35" customHeight="1">
-      <c r="A208" t="s" s="11">
+    <row r="208" ht="20.7" customHeight="1">
+      <c r="A208" t="s" s="4">
         <v>414</v>
       </c>
-      <c r="B208" t="s" s="11">
+      <c r="B208" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="C208" t="s" s="12">
-        <v>76</v>
+      <c r="C208" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D208" s="9">
-        <v>0.717948717948718</v>
+        <v>0.59375</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
@@ -7205,35 +7233,35 @@
       <c r="H208" s="10"/>
     </row>
     <row r="209" ht="20.35" customHeight="1">
-      <c r="A209" t="s" s="13">
+      <c r="A209" t="s" s="11">
         <v>416</v>
       </c>
-      <c r="B209" t="s" s="13">
+      <c r="B209" t="s" s="11">
         <v>417</v>
       </c>
       <c r="C209" t="s" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D209" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" ht="20.7" customHeight="1">
-      <c r="A210" t="s" s="4">
+    <row r="210" ht="20.35" customHeight="1">
+      <c r="A210" t="s" s="13">
         <v>418</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="13">
         <v>419</v>
       </c>
-      <c r="C210" t="s" s="8">
-        <v>10</v>
+      <c r="C210" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D210" s="9">
-        <v>0.65625</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -7251,48 +7279,46 @@
         <v>10</v>
       </c>
       <c r="D211" s="9">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" ht="20.35" customHeight="1">
-      <c r="A212" t="s" s="11">
+    <row r="212" ht="20.7" customHeight="1">
+      <c r="A212" t="s" s="4">
         <v>422</v>
       </c>
-      <c r="B212" t="s" s="11">
+      <c r="B212" t="s" s="4">
         <v>423</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>15</v>
+      <c r="C212" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D212" s="9">
-        <v>0.435897435897436</v>
-      </c>
-      <c r="E212" s="9">
-        <v>0.404255319148936</v>
-      </c>
+        <v>0.84375</v>
+      </c>
+      <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.05" customHeight="1">
-      <c r="A213" t="s" s="12">
+    <row r="213" ht="20.35" customHeight="1">
+      <c r="A213" t="s" s="11">
         <v>424</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="11">
         <v>425</v>
       </c>
       <c r="C213" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D213" s="9">
-        <v>0.58974358974359</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E213" s="9">
-        <v>0.48936170212766</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
@@ -7306,13 +7332,13 @@
         <v>427</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D214" s="9">
         <v>0.58974358974359</v>
       </c>
       <c r="E214" s="9">
-        <v>0.340425531914894</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
@@ -7326,12 +7352,14 @@
         <v>429</v>
       </c>
       <c r="C215" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D215" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E215" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E215" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
@@ -7344,104 +7372,104 @@
         <v>431</v>
       </c>
       <c r="C216" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D216" s="9">
-        <v>0.58974358974359</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.35" customHeight="1">
-      <c r="A217" t="s" s="13">
+    <row r="217" ht="20.05" customHeight="1">
+      <c r="A217" t="s" s="12">
         <v>432</v>
       </c>
-      <c r="B217" t="s" s="13">
+      <c r="B217" t="s" s="12">
         <v>433</v>
       </c>
       <c r="C217" t="s" s="12">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D217" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E217" s="9">
-        <v>0.191489361702128</v>
-      </c>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" ht="20.7" customHeight="1">
-      <c r="A218" t="s" s="4">
+    <row r="218" ht="20.35" customHeight="1">
+      <c r="A218" t="s" s="13">
         <v>434</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="13">
         <v>435</v>
       </c>
-      <c r="C218" t="s" s="8">
-        <v>25</v>
+      <c r="C218" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D218" s="9">
-        <v>0.28125</v>
-      </c>
-      <c r="E218" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E218" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" t="s" s="11">
+    <row r="219" ht="20.7" customHeight="1">
+      <c r="A219" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="B219" t="s" s="11">
+      <c r="B219" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>45</v>
+      <c r="C219" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D219" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E219" s="9">
-        <v>0.680851063829787</v>
-      </c>
+        <v>0.28125</v>
+      </c>
+      <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
     <row r="220" ht="20.35" customHeight="1">
-      <c r="A220" t="s" s="13">
+      <c r="A220" t="s" s="11">
         <v>438</v>
       </c>
-      <c r="B220" t="s" s="13">
+      <c r="B220" t="s" s="11">
         <v>439</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D220" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E220" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E220" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="4">
+    <row r="221" ht="20.35" customHeight="1">
+      <c r="A221" t="s" s="13">
         <v>440</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="13">
         <v>441</v>
       </c>
-      <c r="C221" t="s" s="8">
-        <v>10</v>
+      <c r="C221" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D221" s="9">
-        <v>0.59375</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
@@ -7459,7 +7487,7 @@
         <v>10</v>
       </c>
       <c r="D222" s="9">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
@@ -7467,14 +7495,14 @@
       <c r="H222" s="10"/>
     </row>
     <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="15">
+      <c r="A223" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="B223" t="s" s="15">
+      <c r="B223" t="s" s="4">
         <v>445</v>
       </c>
       <c r="C223" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D223" s="9">
         <v>0</v>
@@ -7485,17 +7513,17 @@
       <c r="H223" s="10"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="15">
         <v>446</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="15">
         <v>447</v>
       </c>
       <c r="C224" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D224" s="9">
-        <v>0.59375</v>
+        <v>0</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
@@ -7503,37 +7531,37 @@
       <c r="H224" s="10"/>
     </row>
     <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="14">
+      <c r="A225" t="s" s="4">
         <v>448</v>
       </c>
-      <c r="B225" t="s" s="14">
+      <c r="B225" t="s" s="4">
         <v>449</v>
       </c>
-      <c r="C225" s="10"/>
+      <c r="C225" t="s" s="8">
+        <v>27</v>
+      </c>
       <c r="D225" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E225" s="9">
-        <v>0.276595744680851</v>
-      </c>
+        <v>0.59375</v>
+      </c>
+      <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
     <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="14">
         <v>450</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="14">
         <v>451</v>
       </c>
-      <c r="C226" t="s" s="8">
-        <v>25</v>
-      </c>
+      <c r="C226" s="10"/>
       <c r="D226" s="9">
-        <v>0</v>
-      </c>
-      <c r="E226" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E226" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
@@ -7546,7 +7574,7 @@
         <v>453</v>
       </c>
       <c r="C227" t="s" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D227" s="9">
         <v>0</v>
@@ -7556,41 +7584,39 @@
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="11">
+    <row r="228" ht="20.7" customHeight="1">
+      <c r="A228" t="s" s="4">
         <v>454</v>
       </c>
-      <c r="B228" t="s" s="11">
+      <c r="B228" t="s" s="4">
         <v>455</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>18</v>
+      <c r="C228" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D228" s="9">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="E228" s="9">
-        <v>0.702127659574468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.05" customHeight="1">
-      <c r="A229" t="s" s="12">
+    <row r="229" ht="20.35" customHeight="1">
+      <c r="A229" t="s" s="11">
         <v>456</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="11">
         <v>457</v>
       </c>
       <c r="C229" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D229" s="9">
-        <v>0.897435897435897</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E229" s="9">
-        <v>0.851063829787234</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
@@ -7604,13 +7630,13 @@
         <v>459</v>
       </c>
       <c r="C230" t="s" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D230" s="9">
-        <v>0</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E230" s="9">
-        <v>0.574468085106383</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
@@ -7624,12 +7650,14 @@
         <v>461</v>
       </c>
       <c r="C231" t="s" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D231" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E231" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E231" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F231" s="9"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
@@ -7642,10 +7670,10 @@
         <v>463</v>
       </c>
       <c r="C232" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D232" s="9">
-        <v>0.58974358974359</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
@@ -7660,128 +7688,126 @@
         <v>465</v>
       </c>
       <c r="C233" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D233" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E233" s="9">
-        <v>0.893617021276596</v>
-      </c>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.35" customHeight="1">
-      <c r="A234" t="s" s="13">
+    <row r="234" ht="20.05" customHeight="1">
+      <c r="A234" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="B234" t="s" s="13">
+      <c r="B234" t="s" s="12">
         <v>467</v>
       </c>
       <c r="C234" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D234" s="9">
-        <v>0.384615384615385</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E234" s="9">
-        <v>0.234042553191489</v>
+        <v>0.893617021276596</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" ht="20.7" customHeight="1">
-      <c r="A235" t="s" s="4">
+    <row r="235" ht="20.35" customHeight="1">
+      <c r="A235" t="s" s="13">
         <v>468</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="13">
         <v>469</v>
       </c>
-      <c r="C235" t="s" s="8">
-        <v>25</v>
+      <c r="C235" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D235" s="9">
-        <v>0.3125</v>
-      </c>
-      <c r="E235" s="9"/>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="E235" s="9">
+        <v>0.234042553191489</v>
+      </c>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
     <row r="236" ht="20.7" customHeight="1">
-      <c r="A236" t="s" s="14">
+      <c r="A236" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="B236" t="s" s="14">
+      <c r="B236" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>45</v>
+      <c r="C236" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D236" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E236" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0.3125</v>
+      </c>
+      <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
     <row r="237" ht="20.7" customHeight="1">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="14">
         <v>472</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="14">
         <v>473</v>
       </c>
-      <c r="C237" t="s" s="8">
-        <v>10</v>
+      <c r="C237" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D237" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="E237" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E237" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.35" customHeight="1">
-      <c r="A238" t="s" s="11">
+    <row r="238" ht="20.7" customHeight="1">
+      <c r="A238" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="B238" t="s" s="11">
+      <c r="B238" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>15</v>
+      <c r="C238" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D238" s="9">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.05" customHeight="1">
-      <c r="A239" t="s" s="12">
+    <row r="239" ht="20.35" customHeight="1">
+      <c r="A239" t="s" s="11">
         <v>476</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="11">
         <v>477</v>
       </c>
       <c r="C239" t="s" s="12">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D239" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E239" s="9">
-        <v>0.808510638297872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
@@ -7794,48 +7820,50 @@
         <v>479</v>
       </c>
       <c r="C240" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D240" s="9">
-        <v>0.487179487179487</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E240" s="9">
-        <v>0.382978723404255</v>
+        <v>0.808510638297872</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.35" customHeight="1">
-      <c r="A241" t="s" s="13">
+    <row r="241" ht="20.05" customHeight="1">
+      <c r="A241" t="s" s="12">
         <v>480</v>
       </c>
-      <c r="B241" t="s" s="13">
+      <c r="B241" t="s" s="12">
         <v>481</v>
       </c>
       <c r="C241" t="s" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D241" s="9">
-        <v>0</v>
-      </c>
-      <c r="E241" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E241" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.7" customHeight="1">
-      <c r="A242" t="s" s="4">
+    <row r="242" ht="20.35" customHeight="1">
+      <c r="A242" t="s" s="13">
         <v>482</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="13">
         <v>483</v>
       </c>
-      <c r="C242" t="s" s="8">
-        <v>10</v>
+      <c r="C242" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D242" s="9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
@@ -7850,46 +7878,46 @@
         <v>485</v>
       </c>
       <c r="C243" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D243" s="9">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" ht="20.35" customHeight="1">
-      <c r="A244" t="s" s="11">
+    <row r="244" ht="20.7" customHeight="1">
+      <c r="A244" t="s" s="4">
         <v>486</v>
       </c>
-      <c r="B244" t="s" s="11">
+      <c r="B244" t="s" s="4">
         <v>487</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D244" s="9">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" ht="20.05" customHeight="1">
-      <c r="A245" t="s" s="12">
+    <row r="245" ht="20.35" customHeight="1">
+      <c r="A245" t="s" s="11">
         <v>488</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="11">
         <v>489</v>
       </c>
       <c r="C245" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D245" s="9">
-        <v>0.641025641025641</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -7898,38 +7926,38 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B246" t="s" s="12">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C246" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D246" s="9">
-        <v>0</v>
-      </c>
-      <c r="E246" s="9">
-        <v>0.48936170212766</v>
-      </c>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s" s="12">
         <v>492</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D247" s="9">
         <v>0</v>
       </c>
-      <c r="E247" s="9"/>
+      <c r="E247" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
@@ -7942,14 +7970,12 @@
         <v>494</v>
       </c>
       <c r="C248" t="s" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D248" s="9">
-        <v>0.435897435897436</v>
-      </c>
-      <c r="E248" s="9">
-        <v>0.617021276595745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
@@ -7962,12 +7988,14 @@
         <v>496</v>
       </c>
       <c r="C249" t="s" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D249" s="9">
-        <v>0</v>
-      </c>
-      <c r="E249" s="9"/>
+        <v>0.435897435897436</v>
+      </c>
+      <c r="E249" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
@@ -7980,14 +8008,12 @@
         <v>498</v>
       </c>
       <c r="C250" t="s" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D250" s="9">
-        <v>0.974358974358974</v>
-      </c>
-      <c r="E250" s="9">
-        <v>0.936170212765957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
@@ -8000,12 +8026,14 @@
         <v>500</v>
       </c>
       <c r="C251" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D251" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E251" s="9"/>
+        <v>0.974358974358974</v>
+      </c>
+      <c r="E251" s="9">
+        <v>0.936170212765957</v>
+      </c>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
@@ -8018,14 +8046,12 @@
         <v>502</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D252" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E252" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
@@ -8038,12 +8064,14 @@
         <v>504</v>
       </c>
       <c r="C253" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D253" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E253" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E253" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
@@ -8056,14 +8084,12 @@
         <v>506</v>
       </c>
       <c r="C254" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D254" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E254" s="9">
-        <v>0.25531914893617</v>
-      </c>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
@@ -8076,13 +8102,13 @@
         <v>508</v>
       </c>
       <c r="C255" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D255" s="9">
-        <v>0.692307692307692</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E255" s="9">
-        <v>0.659574468085106</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
@@ -8096,48 +8122,50 @@
         <v>510</v>
       </c>
       <c r="C256" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D256" s="9">
-        <v>0.179487179487179</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E256" s="9">
-        <v>0.765957446808511</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" ht="20.35" customHeight="1">
-      <c r="A257" t="s" s="13">
+    <row r="257" ht="20.05" customHeight="1">
+      <c r="A257" t="s" s="12">
         <v>511</v>
       </c>
-      <c r="B257" t="s" s="13">
+      <c r="B257" t="s" s="12">
         <v>512</v>
       </c>
       <c r="C257" t="s" s="12">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D257" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="E257" s="9"/>
+        <v>0.179487179487179</v>
+      </c>
+      <c r="E257" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.7" customHeight="1">
-      <c r="A258" t="s" s="4">
+    <row r="258" ht="20.35" customHeight="1">
+      <c r="A258" t="s" s="13">
         <v>513</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="13">
         <v>514</v>
       </c>
-      <c r="C258" t="s" s="8">
+      <c r="C258" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D258" s="9">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
@@ -8155,43 +8183,43 @@
         <v>10</v>
       </c>
       <c r="D259" s="9">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.35" customHeight="1">
-      <c r="A260" t="s" s="11">
+    <row r="260" ht="20.7" customHeight="1">
+      <c r="A260" t="s" s="4">
         <v>517</v>
       </c>
-      <c r="B260" t="s" s="11">
+      <c r="B260" t="s" s="4">
         <v>518</v>
       </c>
-      <c r="C260" t="s" s="12">
-        <v>76</v>
+      <c r="C260" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D260" s="9">
-        <v>0.692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.05" customHeight="1">
-      <c r="A261" t="s" s="12">
+    <row r="261" ht="20.35" customHeight="1">
+      <c r="A261" t="s" s="11">
         <v>519</v>
       </c>
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="11">
         <v>520</v>
       </c>
       <c r="C261" t="s" s="12">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D261" s="9">
-        <v>0.717948717948718</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -8206,14 +8234,12 @@
         <v>522</v>
       </c>
       <c r="C262" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D262" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E262" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
@@ -8226,12 +8252,14 @@
         <v>524</v>
       </c>
       <c r="C263" t="s" s="12">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D263" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E263" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E263" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F263" s="9"/>
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
@@ -8244,10 +8272,10 @@
         <v>526</v>
       </c>
       <c r="C264" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D264" s="9">
-        <v>0</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -8262,10 +8290,10 @@
         <v>528</v>
       </c>
       <c r="C265" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D265" s="9">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
@@ -8280,14 +8308,12 @@
         <v>530</v>
       </c>
       <c r="C266" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D266" s="9">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="E266" s="9">
-        <v>0.787234042553191</v>
-      </c>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
@@ -8300,12 +8326,14 @@
         <v>532</v>
       </c>
       <c r="C267" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D267" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E267" s="9"/>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E267" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
@@ -8318,14 +8346,12 @@
         <v>534</v>
       </c>
       <c r="C268" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D268" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E268" s="9">
-        <v>0.148936170212766</v>
-      </c>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
@@ -8338,12 +8364,14 @@
         <v>536</v>
       </c>
       <c r="C269" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D269" s="9">
-        <v>0</v>
-      </c>
-      <c r="E269" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E269" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F269" s="9"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
@@ -8356,14 +8384,12 @@
         <v>538</v>
       </c>
       <c r="C270" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D270" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E270" s="9">
-        <v>0.872340425531915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
@@ -8376,12 +8402,14 @@
         <v>540</v>
       </c>
       <c r="C271" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D271" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E271" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E271" s="9">
+        <v>0.872340425531915</v>
+      </c>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
@@ -8394,87 +8422,85 @@
         <v>542</v>
       </c>
       <c r="C272" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D272" s="9">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" ht="20.35" customHeight="1">
-      <c r="A273" t="s" s="13">
+    <row r="273" ht="20.05" customHeight="1">
+      <c r="A273" t="s" s="12">
         <v>543</v>
       </c>
-      <c r="B273" t="s" s="13">
+      <c r="B273" t="s" s="12">
         <v>544</v>
       </c>
       <c r="C273" t="s" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D273" s="9">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" t="s" s="4">
+    <row r="274" ht="20.35" customHeight="1">
+      <c r="A274" t="s" s="13">
         <v>545</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="13">
         <v>546</v>
       </c>
-      <c r="C274" t="s" s="8">
-        <v>10</v>
+      <c r="C274" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D274" s="9">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" ht="20.35" customHeight="1">
-      <c r="A275" t="s" s="11">
+    <row r="275" ht="20.7" customHeight="1">
+      <c r="A275" t="s" s="4">
         <v>547</v>
       </c>
-      <c r="B275" t="s" s="11">
+      <c r="B275" t="s" s="4">
         <v>548</v>
       </c>
-      <c r="C275" t="s" s="12">
-        <v>76</v>
+      <c r="C275" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D275" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E275" s="9">
-        <v>0.936170212765957</v>
-      </c>
+        <v>0.6875</v>
+      </c>
+      <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" ht="20.05" customHeight="1">
-      <c r="A276" t="s" s="12">
+    <row r="276" ht="20.35" customHeight="1">
+      <c r="A276" t="s" s="11">
         <v>549</v>
       </c>
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="11">
         <v>550</v>
       </c>
       <c r="C276" t="s" s="12">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D276" s="9">
-        <v>0.512820512820513</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E276" s="9">
-        <v>0.191489361702128</v>
+        <v>0.936170212765957</v>
       </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10"/>
@@ -8488,12 +8514,14 @@
         <v>552</v>
       </c>
       <c r="C277" t="s" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D277" s="9">
-        <v>0</v>
-      </c>
-      <c r="E277" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E277" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F277" s="9"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
@@ -8506,10 +8534,10 @@
         <v>554</v>
       </c>
       <c r="C278" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D278" s="9">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
@@ -8524,88 +8552,86 @@
         <v>556</v>
       </c>
       <c r="C279" t="s" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D279" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" ht="20.35" customHeight="1">
-      <c r="A280" t="s" s="13">
+    <row r="280" ht="20.05" customHeight="1">
+      <c r="A280" t="s" s="12">
         <v>557</v>
       </c>
-      <c r="B280" t="s" s="13">
+      <c r="B280" t="s" s="12">
         <v>558</v>
       </c>
       <c r="C280" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D280" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E280" s="9">
-        <v>0.212765957446809</v>
-      </c>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" ht="20.7" customHeight="1">
-      <c r="A281" t="s" s="4">
+    <row r="281" ht="20.35" customHeight="1">
+      <c r="A281" t="s" s="13">
         <v>559</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="13">
         <v>560</v>
       </c>
-      <c r="C281" t="s" s="8">
-        <v>25</v>
+      <c r="C281" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D281" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E281" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E281" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F281" s="9"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" ht="20.35" customHeight="1">
-      <c r="A282" t="s" s="11">
+    <row r="282" ht="20.7" customHeight="1">
+      <c r="A282" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="B282" t="s" s="11">
+      <c r="B282" t="s" s="4">
         <v>562</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>76</v>
+      <c r="C282" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D282" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E282" s="9">
-        <v>0.127659574468085</v>
-      </c>
+        <v>0.6875</v>
+      </c>
+      <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" ht="20.05" customHeight="1">
-      <c r="A283" t="s" s="12">
+    <row r="283" ht="20.35" customHeight="1">
+      <c r="A283" t="s" s="11">
         <v>563</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="11">
         <v>564</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>76</v>
-      </c>
+      <c r="C283" s="10"/>
       <c r="D283" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E283" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E283" s="9">
+        <v>0.0212765957446809</v>
+      </c>
       <c r="F283" s="9"/>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
@@ -8617,12 +8643,14 @@
       <c r="B284" t="s" s="12">
         <v>566</v>
       </c>
-      <c r="C284" s="10"/>
+      <c r="C284" t="s" s="12">
+        <v>78</v>
+      </c>
       <c r="D284" s="9">
-        <v>0</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E284" s="9">
-        <v>0.382978723404255</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10"/>
@@ -8636,14 +8664,12 @@
         <v>568</v>
       </c>
       <c r="C285" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D285" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E285" s="9">
-        <v>0.382978723404255</v>
-      </c>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
@@ -8655,13 +8681,13 @@
       <c r="B286" t="s" s="12">
         <v>570</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>45</v>
-      </c>
+      <c r="C286" s="10"/>
       <c r="D286" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E286" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E286" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F286" s="9"/>
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
@@ -8674,13 +8700,13 @@
         <v>572</v>
       </c>
       <c r="C287" t="s" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D287" s="9">
-        <v>0.692307692307692</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E287" s="9">
-        <v>0.595744680851064</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F287" s="9"/>
       <c r="G287" s="10"/>
@@ -8694,14 +8720,12 @@
         <v>574</v>
       </c>
       <c r="C288" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D288" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E288" s="9">
-        <v>0.446808510638298</v>
-      </c>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
@@ -8714,12 +8738,14 @@
         <v>576</v>
       </c>
       <c r="C289" t="s" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D289" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E289" s="9"/>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E289" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
@@ -8732,13 +8758,13 @@
         <v>578</v>
       </c>
       <c r="C290" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D290" s="9">
-        <v>0.846153846153846</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E290" s="9">
-        <v>0.361702127659574</v>
+        <v>0.446808510638298</v>
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10"/>
@@ -8752,10 +8778,10 @@
         <v>580</v>
       </c>
       <c r="C291" t="s" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D291" s="9">
-        <v>0.692307692307692</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -8770,12 +8796,14 @@
         <v>582</v>
       </c>
       <c r="C292" t="s" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D292" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E292" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E292" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
@@ -8788,10 +8816,10 @@
         <v>584</v>
       </c>
       <c r="C293" t="s" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D293" s="9">
-        <v>0.333333333333333</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
@@ -8806,10 +8834,10 @@
         <v>586</v>
       </c>
       <c r="C294" t="s" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D294" s="9">
-        <v>0.128205128205128</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
@@ -8818,16 +8846,16 @@
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="12">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B295" t="s" s="12">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C295" t="s" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D295" s="9">
-        <v>0.487179487179487</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
@@ -8836,16 +8864,16 @@
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="12">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B296" t="s" s="12">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C296" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D296" s="9">
-        <v>0</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
@@ -8854,74 +8882,74 @@
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="12">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B297" t="s" s="12">
         <v>591</v>
       </c>
-      <c r="C297" s="10"/>
+      <c r="C297" t="s" s="12">
+        <v>17</v>
+      </c>
       <c r="D297" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E297" s="9">
-        <v>0.765957446808511</v>
-      </c>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" ht="20.35" customHeight="1">
-      <c r="A298" t="s" s="13">
+    <row r="298" ht="20.05" customHeight="1">
+      <c r="A298" t="s" s="12">
         <v>592</v>
       </c>
-      <c r="B298" t="s" s="13">
+      <c r="B298" t="s" s="12">
         <v>593</v>
       </c>
       <c r="C298" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D298" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E298" s="9">
-        <v>0.361702127659574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" ht="20.7" customHeight="1">
-      <c r="A299" t="s" s="4">
+    <row r="299" ht="20.05" customHeight="1">
+      <c r="A299" t="s" s="12">
         <v>594</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>595</v>
       </c>
-      <c r="C299" t="s" s="8">
-        <v>25</v>
-      </c>
+      <c r="C299" s="10"/>
       <c r="D299" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="E299" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E299" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F299" s="9"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" ht="20.7" customHeight="1">
-      <c r="A300" t="s" s="4">
+    <row r="300" ht="20.35" customHeight="1">
+      <c r="A300" t="s" s="13">
         <v>596</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="13">
         <v>597</v>
       </c>
-      <c r="C300" t="s" s="8">
-        <v>10</v>
+      <c r="C300" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D300" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="E300" s="9"/>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="E300" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F300" s="9"/>
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
@@ -8934,66 +8962,64 @@
         <v>599</v>
       </c>
       <c r="C301" t="s" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D301" s="9">
-        <v>0.9375</v>
+        <v>0.125</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" ht="20.35" customHeight="1">
-      <c r="A302" t="s" s="11">
+    <row r="302" ht="20.7" customHeight="1">
+      <c r="A302" t="s" s="4">
         <v>600</v>
       </c>
-      <c r="B302" t="s" s="11">
+      <c r="B302" t="s" s="4">
         <v>601</v>
       </c>
-      <c r="C302" t="s" s="12">
-        <v>45</v>
+      <c r="C302" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D302" s="9">
-        <v>0.487179487179487</v>
+        <v>0.8125</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" ht="20.05" customHeight="1">
-      <c r="A303" t="s" s="12">
+    <row r="303" ht="20.7" customHeight="1">
+      <c r="A303" t="s" s="4">
         <v>602</v>
       </c>
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="4">
         <v>603</v>
       </c>
-      <c r="C303" t="s" s="12">
-        <v>30</v>
+      <c r="C303" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D303" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E303" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" ht="20.05" customHeight="1">
-      <c r="A304" t="s" s="12">
+    <row r="304" ht="20.35" customHeight="1">
+      <c r="A304" t="s" s="11">
         <v>604</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="11">
         <v>605</v>
       </c>
       <c r="C304" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D304" s="9">
-        <v>0.512820512820513</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
@@ -9008,70 +9034,72 @@
         <v>607</v>
       </c>
       <c r="C305" t="s" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D305" s="9">
-        <v>0.948717948717949</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E305" s="9">
-        <v>0.212765957446809</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F305" s="9"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" t="s" s="13">
+    <row r="306" ht="20.05" customHeight="1">
+      <c r="A306" t="s" s="12">
         <v>608</v>
       </c>
-      <c r="B306" t="s" s="13">
+      <c r="B306" t="s" s="12">
         <v>609</v>
       </c>
       <c r="C306" t="s" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D306" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E306" s="9">
-        <v>0.787234042553191</v>
-      </c>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" ht="20.7" customHeight="1">
-      <c r="A307" t="s" s="4">
+    <row r="307" ht="20.05" customHeight="1">
+      <c r="A307" t="s" s="12">
         <v>610</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>611</v>
       </c>
-      <c r="C307" t="s" s="8">
-        <v>10</v>
+      <c r="C307" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D307" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E307" s="9"/>
+        <v>0.948717948717949</v>
+      </c>
+      <c r="E307" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F307" s="9"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" ht="20.7" customHeight="1">
-      <c r="A308" t="s" s="14">
+    <row r="308" ht="20.35" customHeight="1">
+      <c r="A308" t="s" s="13">
         <v>612</v>
       </c>
-      <c r="B308" t="s" s="14">
+      <c r="B308" t="s" s="13">
         <v>613</v>
       </c>
       <c r="C308" t="s" s="12">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D308" s="9">
-        <v>0</v>
-      </c>
-      <c r="E308" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E308" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F308" s="9"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
@@ -9084,70 +9112,68 @@
         <v>615</v>
       </c>
       <c r="C309" t="s" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D309" s="9">
-        <v>0.9375</v>
+        <v>0.6875</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
     </row>
-    <row r="310" ht="20.35" customHeight="1">
-      <c r="A310" t="s" s="11">
+    <row r="310" ht="20.7" customHeight="1">
+      <c r="A310" t="s" s="14">
         <v>616</v>
       </c>
-      <c r="B310" t="s" s="11">
+      <c r="B310" t="s" s="14">
         <v>617</v>
       </c>
       <c r="C310" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D310" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E310" s="9">
-        <v>0.425531914893617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E310" s="9"/>
       <c r="F310" s="9"/>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
     </row>
-    <row r="311" ht="20.05" customHeight="1">
-      <c r="A311" t="s" s="12">
+    <row r="311" ht="20.7" customHeight="1">
+      <c r="A311" t="s" s="4">
         <v>618</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="4">
         <v>619</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>15</v>
+      <c r="C311" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D311" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E311" s="9">
-        <v>0.382978723404255</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
     </row>
-    <row r="312" ht="20.05" customHeight="1">
-      <c r="A312" t="s" s="12">
+    <row r="312" ht="20.35" customHeight="1">
+      <c r="A312" t="s" s="11">
         <v>620</v>
       </c>
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="11">
         <v>621</v>
       </c>
       <c r="C312" t="s" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D312" s="9">
-        <v>0.230769230769231</v>
-      </c>
-      <c r="E312" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E312" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F312" s="9"/>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
@@ -9160,13 +9186,13 @@
         <v>623</v>
       </c>
       <c r="C313" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D313" s="9">
-        <v>0.41025641025641</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E313" s="9">
-        <v>0.148936170212766</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F313" s="9"/>
       <c r="G313" s="10"/>
@@ -9180,10 +9206,10 @@
         <v>625</v>
       </c>
       <c r="C314" t="s" s="12">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D314" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -9198,13 +9224,13 @@
         <v>627</v>
       </c>
       <c r="C315" t="s" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D315" s="9">
         <v>0.41025641025641</v>
       </c>
       <c r="E315" s="9">
-        <v>0.382978723404255</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="F315" s="9"/>
       <c r="G315" s="10"/>
@@ -9218,14 +9244,12 @@
         <v>629</v>
       </c>
       <c r="C316" t="s" s="12">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D316" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E316" s="9">
-        <v>0.319148936170213</v>
-      </c>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
@@ -9238,104 +9262,108 @@
         <v>631</v>
       </c>
       <c r="C317" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D317" s="9">
-        <v>0.564102564102564</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E317" s="9">
-        <v>0.25531914893617</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F317" s="9"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
     </row>
-    <row r="318" ht="20.35" customHeight="1">
-      <c r="A318" t="s" s="13">
+    <row r="318" ht="20.05" customHeight="1">
+      <c r="A318" t="s" s="12">
         <v>632</v>
       </c>
-      <c r="B318" t="s" s="13">
+      <c r="B318" t="s" s="12">
         <v>633</v>
       </c>
       <c r="C318" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D318" s="9">
-        <v>0.641025641025641</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E318" s="9">
-        <v>0.5106382978723401</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="F318" s="9"/>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
     </row>
-    <row r="319" ht="20.7" customHeight="1">
-      <c r="A319" t="s" s="4">
+    <row r="319" ht="20.05" customHeight="1">
+      <c r="A319" t="s" s="12">
         <v>634</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>635</v>
       </c>
-      <c r="C319" t="s" s="8">
-        <v>10</v>
+      <c r="C319" t="s" s="12">
+        <v>78</v>
       </c>
       <c r="D319" s="9">
-        <v>0.5625</v>
-      </c>
-      <c r="E319" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E319" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F319" s="9"/>
       <c r="G319" s="10"/>
       <c r="H319" s="10"/>
     </row>
     <row r="320" ht="20.35" customHeight="1">
-      <c r="A320" t="s" s="11">
+      <c r="A320" t="s" s="13">
         <v>636</v>
       </c>
-      <c r="B320" t="s" s="11">
+      <c r="B320" t="s" s="13">
         <v>637</v>
       </c>
       <c r="C320" t="s" s="12">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D320" s="9">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E320" s="9"/>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E320" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F320" s="9"/>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
     </row>
-    <row r="321" ht="20.05" customHeight="1">
-      <c r="A321" t="s" s="12">
+    <row r="321" ht="20.7" customHeight="1">
+      <c r="A321" t="s" s="4">
         <v>638</v>
       </c>
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="4">
         <v>639</v>
       </c>
-      <c r="C321" t="s" s="12">
-        <v>15</v>
+      <c r="C321" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D321" s="9">
-        <v>0.333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
       <c r="G321" s="10"/>
       <c r="H321" s="10"/>
     </row>
-    <row r="322" ht="20.05" customHeight="1">
-      <c r="A322" t="s" s="12">
+    <row r="322" ht="20.35" customHeight="1">
+      <c r="A322" t="s" s="11">
         <v>640</v>
       </c>
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="11">
         <v>641</v>
       </c>
       <c r="C322" t="s" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D322" s="9">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -9350,14 +9378,12 @@
         <v>643</v>
       </c>
       <c r="C323" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D323" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E323" s="9">
-        <v>0.617021276595745</v>
-      </c>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>
@@ -9370,7 +9396,7 @@
         <v>645</v>
       </c>
       <c r="C324" t="s" s="12">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D324" s="9">
         <v>0</v>
@@ -9388,12 +9414,14 @@
         <v>647</v>
       </c>
       <c r="C325" t="s" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D325" s="9">
         <v>0.512820512820513</v>
       </c>
-      <c r="E325" s="9"/>
+      <c r="E325" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F325" s="9"/>
       <c r="G325" s="10"/>
       <c r="H325" s="10"/>
@@ -9406,14 +9434,12 @@
         <v>649</v>
       </c>
       <c r="C326" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D326" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E326" s="9">
-        <v>0.574468085106383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E326" s="9"/>
       <c r="F326" s="9"/>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
@@ -9426,14 +9452,12 @@
         <v>651</v>
       </c>
       <c r="C327" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D327" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E327" s="9">
-        <v>0.723404255319149</v>
-      </c>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E327" s="9"/>
       <c r="F327" s="9"/>
       <c r="G327" s="10"/>
       <c r="H327" s="10"/>
@@ -9446,12 +9470,14 @@
         <v>653</v>
       </c>
       <c r="C328" t="s" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D328" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E328" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E328" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F328" s="9"/>
       <c r="G328" s="10"/>
       <c r="H328" s="10"/>
@@ -9464,31 +9490,49 @@
         <v>655</v>
       </c>
       <c r="C329" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D329" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E329" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E329" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F329" s="9"/>
       <c r="G329" s="10"/>
       <c r="H329" s="10"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
-      <c r="A330" s="10"/>
-      <c r="B330" s="10"/>
-      <c r="C330" s="10"/>
-      <c r="D330" s="9"/>
+      <c r="A330" t="s" s="12">
+        <v>656</v>
+      </c>
+      <c r="B330" t="s" s="12">
+        <v>657</v>
+      </c>
+      <c r="C330" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="D330" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
       <c r="G330" s="10"/>
       <c r="H330" s="10"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
-      <c r="A331" s="10"/>
-      <c r="B331" s="10"/>
-      <c r="C331" s="10"/>
-      <c r="D331" s="9"/>
+      <c r="A331" t="s" s="12">
+        <v>658</v>
+      </c>
+      <c r="B331" t="s" s="12">
+        <v>659</v>
+      </c>
+      <c r="C331" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="D331" s="9">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
       <c r="G331" s="10"/>

--- a/cw12022022.xlsx
+++ b/cw12022022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="673">
   <si>
     <t>Surname</t>
   </si>
@@ -163,6 +163,12 @@
     <t>H210638B</t>
   </si>
   <si>
+    <t>Chavunduka</t>
+  </si>
+  <si>
+    <t>H190798X</t>
+  </si>
+  <si>
     <t>Chesa</t>
   </si>
   <si>
@@ -175,12 +181,24 @@
     <t>H210307C</t>
   </si>
   <si>
+    <t>Chibudza</t>
+  </si>
+  <si>
+    <t>H200451V</t>
+  </si>
+  <si>
     <t>Chidewu</t>
   </si>
   <si>
     <t>H210697J</t>
   </si>
   <si>
+    <t>Chiduku</t>
+  </si>
+  <si>
+    <t>H190372B</t>
+  </si>
+  <si>
     <t>Chidzanga</t>
   </si>
   <si>
@@ -1054,6 +1072,12 @@
     <t>H210339Z</t>
   </si>
   <si>
+    <t>Mashingaidze</t>
+  </si>
+  <si>
+    <t>H180642M</t>
+  </si>
+  <si>
     <t>Masiyambiri</t>
   </si>
   <si>
@@ -1189,6 +1213,12 @@
     <t>H210701T</t>
   </si>
   <si>
+    <t>Mhlanga</t>
+  </si>
+  <si>
+    <t>H180318V</t>
+  </si>
+  <si>
     <t>MHLOPE</t>
   </si>
   <si>
@@ -1345,6 +1375,9 @@
     <t>H210170T</t>
   </si>
   <si>
+    <t>Munashe</t>
+  </si>
+  <si>
     <t>Mungani</t>
   </si>
   <si>
@@ -1475,6 +1508,12 @@
   </si>
   <si>
     <t>H210157V</t>
+  </si>
+  <si>
+    <t>Mutyiyabako</t>
+  </si>
+  <si>
+    <t>H170297M</t>
   </si>
   <si>
     <t>Muyambo</t>
@@ -3371,7 +3410,9 @@
       <c r="D2" s="6">
         <v>0.8125</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6">
+        <v>0.630434782608696</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3389,7 +3430,9 @@
       <c r="D3" s="9">
         <v>0.71875</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9">
+        <v>0.130434782608696</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3425,7 +3468,9 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3481,7 +3526,9 @@
       <c r="D8" s="9">
         <v>0.78125</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>0.391304347826087</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3499,7 +3546,9 @@
       <c r="D9" s="9">
         <v>0.34375</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>0.608695652173913</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3655,7 +3704,9 @@
       <c r="D17" s="9">
         <v>0.461538461538462</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3707,14 +3758,12 @@
       <c r="B20" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="C20" t="s" s="12">
-        <v>20</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="9">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>0.659574468085106</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -3731,9 +3780,11 @@
         <v>20</v>
       </c>
       <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -3751,23 +3802,25 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>0.617021276595745</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="13">
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="13">
+      <c r="B23" t="s" s="12">
         <v>57</v>
       </c>
       <c r="C23" t="s" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D23" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9">
         <v>0.361702127659574</v>
@@ -3776,15 +3829,15 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" t="s" s="4">
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C24" t="s" s="8">
-        <v>27</v>
+      <c r="C24" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -3794,76 +3847,78 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="11">
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="B25" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>20</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="9">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="12">
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="13">
         <v>63</v>
       </c>
       <c r="C26" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D26" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="12">
+    <row r="27" ht="20.7" customHeight="1">
+      <c r="A27" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="C27" t="s" s="12">
-        <v>29</v>
+      <c r="C27" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>0.521739130434783</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="12">
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="11">
         <v>67</v>
       </c>
       <c r="C28" t="s" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -3876,12 +3931,14 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D29" s="9">
-        <v>0.435897435897436</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -3894,7 +3951,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -3912,13 +3969,13 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9">
-        <v>0</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E31" s="9">
-        <v>0.531914893617021</v>
+        <v>0.5106382978723401</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
@@ -3932,12 +3989,14 @@
         <v>75</v>
       </c>
       <c r="C32" t="s" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>0.435897435897436</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.170212765957447</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3950,10 +4009,10 @@
         <v>77</v>
       </c>
       <c r="C33" t="s" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D33" s="9">
-        <v>0.358974358974359</v>
+        <v>0</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -3962,70 +4021,72 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="B34" t="s" s="12">
-        <v>80</v>
-      </c>
       <c r="C34" t="s" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D34" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" t="s" s="13">
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="B35" t="s" s="13">
-        <v>82</v>
-      </c>
       <c r="C35" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D35" s="9">
-        <v>0</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" t="s" s="4">
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>84</v>
       </c>
-      <c r="C36" t="s" s="8">
-        <v>27</v>
-      </c>
       <c r="D36" s="9">
-        <v>0.5</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" t="s" s="4">
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="C37" t="s" s="8">
-        <v>27</v>
+      <c r="C37" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D37" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -4033,74 +4094,78 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" ht="20.35" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="A38" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B38" t="s" s="11">
+      <c r="B38" t="s" s="13">
         <v>88</v>
       </c>
       <c r="C38" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D38" s="9">
-        <v>0.794871794871795</v>
+        <v>0</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="12">
+    <row r="39" ht="20.7" customHeight="1">
+      <c r="A39" t="s" s="4">
         <v>89</v>
       </c>
-      <c r="B39" t="s" s="12">
+      <c r="B39" t="s" s="4">
         <v>90</v>
       </c>
-      <c r="C39" t="s" s="12">
-        <v>29</v>
+      <c r="C39" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="12">
+    <row r="40" ht="20.7" customHeight="1">
+      <c r="A40" t="s" s="4">
         <v>91</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="4">
         <v>92</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>78</v>
+      <c r="C40" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>0.608695652173913</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="12">
+    <row r="41" ht="20.35" customHeight="1">
+      <c r="A41" t="s" s="11">
         <v>93</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="11">
         <v>94</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D41" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E41" s="9">
-        <v>0.553191489361702</v>
+        <v>0.212765957446809</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
@@ -4114,10 +4179,10 @@
         <v>96</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D42" s="9">
-        <v>0.820512820512821</v>
+        <v>0</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -4132,10 +4197,10 @@
         <v>98</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D43" s="9">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -4150,12 +4215,14 @@
         <v>100</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4168,12 +4235,14 @@
         <v>102</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D45" s="9">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -4186,13 +4255,13 @@
         <v>104</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D46" s="9">
-        <v>0.512820512820513</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E46" s="9">
-        <v>0.595744680851064</v>
+        <v>0.787234042553191</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
@@ -4209,7 +4278,7 @@
         <v>32</v>
       </c>
       <c r="D47" s="9">
-        <v>0.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -4227,7 +4296,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="9">
-        <v>0.512820512820513</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4242,13 +4311,13 @@
         <v>110</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D49" s="9">
-        <v>0.846153846153846</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E49" s="9">
-        <v>0.957446808510638</v>
+        <v>0.595744680851064</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
@@ -4262,10 +4331,10 @@
         <v>112</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D50" s="9">
-        <v>0.230769230769231</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -4283,11 +4352,9 @@
         <v>47</v>
       </c>
       <c r="D51" s="9">
-        <v>0.256410256410256</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.595744680851064</v>
-      </c>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -4300,139 +4367,149 @@
         <v>116</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D52" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.957446808510638</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" ht="20.35" customHeight="1">
-      <c r="A53" t="s" s="13">
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" t="s" s="12">
         <v>117</v>
       </c>
-      <c r="B53" t="s" s="13">
+      <c r="B53" t="s" s="12">
         <v>118</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D53" s="9">
-        <v>0.205128205128205</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>0.230769230769231</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.404255319148936</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" ht="20.7" customHeight="1">
-      <c r="A54" t="s" s="4">
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>120</v>
       </c>
-      <c r="C54" t="s" s="8">
-        <v>10</v>
+      <c r="C54" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D54" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>0.256410256410256</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" ht="20.35" customHeight="1">
-      <c r="A55" t="s" s="11">
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="B55" t="s" s="11">
+      <c r="B55" t="s" s="12">
         <v>122</v>
       </c>
       <c r="C55" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D55" s="9">
-        <v>0.282051282051282</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="12">
+    <row r="56" ht="20.35" customHeight="1">
+      <c r="A56" t="s" s="13">
         <v>123</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="13">
         <v>124</v>
       </c>
       <c r="C56" t="s" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D56" s="9">
-        <v>0.538461538461538</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s" s="12">
+    <row r="57" ht="20.7" customHeight="1">
+      <c r="A57" t="s" s="4">
         <v>125</v>
       </c>
-      <c r="C57" t="s" s="12">
-        <v>17</v>
+      <c r="B57" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D57" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>0.625</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.282608695652174</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s" s="12">
-        <v>126</v>
+    <row r="58" ht="20.35" customHeight="1">
+      <c r="A58" t="s" s="11">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s" s="11">
+        <v>128</v>
       </c>
       <c r="C58" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D58" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>0.282051282051282</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s" s="12">
         <v>29</v>
       </c>
       <c r="D59" s="9">
-        <v>0.564102564102564</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E59" s="9">
-        <v>0.148936170212766</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
@@ -4440,16 +4517,16 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s" s="12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D60" s="9">
-        <v>0</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -4458,37 +4535,39 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s" s="12">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D61" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0.170212765957447</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="12">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D62" s="9">
-        <v>0.461538461538462</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E62" s="9">
-        <v>0.340425531914894</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
@@ -4496,20 +4575,18 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s" s="12">
         <v>135</v>
       </c>
       <c r="C63" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D63" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0.191489361702128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4522,14 +4599,12 @@
         <v>137</v>
       </c>
       <c r="C64" t="s" s="12">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D64" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0.787234042553191</v>
-      </c>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4545,9 +4620,11 @@
         <v>20</v>
       </c>
       <c r="D65" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E65" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0.340425531914894</v>
+      </c>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -4560,12 +4637,14 @@
         <v>141</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D66" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E66" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4578,126 +4657,134 @@
         <v>143</v>
       </c>
       <c r="C67" t="s" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D67" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E67" s="9">
-        <v>0.680851063829787</v>
+        <v>0.787234042553191</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" t="s" s="13">
+    <row r="68" ht="20.05" customHeight="1">
+      <c r="A68" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="B68" t="s" s="13">
+      <c r="B68" t="s" s="12">
         <v>145</v>
       </c>
       <c r="C68" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D68" s="9">
-        <v>0.538461538461538</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E68" s="9">
-        <v>0.191489361702128</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" t="s" s="4">
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>10</v>
+      <c r="C69" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D69" s="9">
-        <v>0.65625</v>
-      </c>
-      <c r="E69" s="9"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.170212765957447</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
-      <c r="A70" t="s" s="11">
-        <v>146</v>
-      </c>
-      <c r="B70" t="s" s="11">
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" t="s" s="12">
         <v>148</v>
       </c>
+      <c r="B70" t="s" s="12">
+        <v>149</v>
+      </c>
       <c r="C70" t="s" s="12">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D70" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E70" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="12">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s" s="12">
+    <row r="71" ht="20.35" customHeight="1">
+      <c r="A71" t="s" s="13">
         <v>150</v>
       </c>
+      <c r="B71" t="s" s="13">
+        <v>151</v>
+      </c>
       <c r="C71" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D71" s="9">
         <v>0.538461538461538</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="12">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s" s="12">
+    <row r="72" ht="20.7" customHeight="1">
+      <c r="A72" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>78</v>
+      <c r="B72" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D72" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.65625</v>
       </c>
       <c r="E72" s="9">
-        <v>0.765957446808511</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="12">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s" s="12">
+    <row r="73" ht="20.35" customHeight="1">
+      <c r="A73" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s" s="11">
         <v>154</v>
       </c>
       <c r="C73" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D73" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E73" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4710,12 +4797,14 @@
         <v>156</v>
       </c>
       <c r="C74" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D74" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E74" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4728,139 +4817,139 @@
         <v>158</v>
       </c>
       <c r="C75" t="s" s="12">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D75" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E75" s="9">
-        <v>0.425531914893617</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" ht="20.35" customHeight="1">
-      <c r="A76" t="s" s="13">
+    <row r="76" ht="20.05" customHeight="1">
+      <c r="A76" t="s" s="12">
         <v>159</v>
       </c>
-      <c r="B76" t="s" s="13">
+      <c r="B76" t="s" s="12">
         <v>160</v>
       </c>
       <c r="C76" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D76" s="9">
-        <v>0.641025641025641</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" ht="20.7" customHeight="1">
-      <c r="A77" t="s" s="4">
+    <row r="77" ht="20.05" customHeight="1">
+      <c r="A77" t="s" s="12">
         <v>161</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>162</v>
       </c>
-      <c r="C77" t="s" s="8">
-        <v>10</v>
+      <c r="C77" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D77" s="9">
-        <v>0.46875</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" ht="20.35" customHeight="1">
-      <c r="A78" t="s" s="11">
+    <row r="78" ht="20.05" customHeight="1">
+      <c r="A78" t="s" s="12">
         <v>163</v>
       </c>
-      <c r="B78" t="s" s="11">
+      <c r="B78" t="s" s="12">
         <v>164</v>
       </c>
       <c r="C78" t="s" s="12">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D78" s="9">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="E78" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="12">
+    <row r="79" ht="20.35" customHeight="1">
+      <c r="A79" t="s" s="13">
         <v>165</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="13">
         <v>166</v>
       </c>
       <c r="C79" t="s" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D79" s="9">
-        <v>0</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="12">
+    <row r="80" ht="20.7" customHeight="1">
+      <c r="A80" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="4">
         <v>168</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>78</v>
+      <c r="C80" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D80" s="9">
-        <v>0.794871794871795</v>
+        <v>0.46875</v>
       </c>
       <c r="E80" s="9">
-        <v>0.446808510638298</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" ht="20.35" customHeight="1">
-      <c r="A81" t="s" s="13">
+      <c r="A81" t="s" s="11">
         <v>169</v>
       </c>
-      <c r="B81" t="s" s="13">
+      <c r="B81" t="s" s="11">
         <v>170</v>
       </c>
       <c r="C81" t="s" s="12">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D81" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0.446808510638298</v>
-      </c>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="4">
+    <row r="82" ht="20.05" customHeight="1">
+      <c r="A82" t="s" s="12">
         <v>171</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>172</v>
       </c>
-      <c r="C82" t="s" s="8">
-        <v>27</v>
+      <c r="C82" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -4870,39 +4959,41 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" ht="20.7" customHeight="1">
-      <c r="A83" t="s" s="4">
+    <row r="83" ht="20.05" customHeight="1">
+      <c r="A83" t="s" s="12">
         <v>173</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>174</v>
       </c>
-      <c r="C83" t="s" s="8">
-        <v>10</v>
+      <c r="C83" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D83" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" t="s" s="14">
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="13">
         <v>175</v>
       </c>
-      <c r="B84" t="s" s="14">
+      <c r="B84" t="s" s="13">
         <v>176</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D84" s="9">
-        <v>0.512820512820513</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E84" s="9">
-        <v>0.702127659574468</v>
+        <v>0.446808510638298</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
@@ -4916,251 +5007,261 @@
         <v>178</v>
       </c>
       <c r="C85" t="s" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D85" s="9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" ht="20.35" customHeight="1">
-      <c r="A86" t="s" s="11">
+    <row r="86" ht="20.7" customHeight="1">
+      <c r="A86" t="s" s="4">
         <v>179</v>
       </c>
-      <c r="B86" t="s" s="11">
+      <c r="B86" t="s" s="4">
         <v>180</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>32</v>
+      <c r="C86" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D86" s="9">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E86" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0.630434782608696</v>
+      </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="12">
+    <row r="87" ht="20.7" customHeight="1">
+      <c r="A87" t="s" s="14">
         <v>181</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="14">
         <v>182</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D87" s="9">
-        <v>0.820512820512821</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E87" s="9">
-        <v>0.723404255319149</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="12">
+    <row r="88" ht="20.7" customHeight="1">
+      <c r="A88" t="s" s="4">
         <v>183</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>47</v>
+      <c r="C88" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D88" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0.760869565217391</v>
+      </c>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="12">
+    <row r="89" ht="20.35" customHeight="1">
+      <c r="A89" t="s" s="11">
         <v>185</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="11">
         <v>186</v>
       </c>
       <c r="C89" t="s" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D89" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0.340425531914894</v>
-      </c>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" ht="20.35" customHeight="1">
-      <c r="A90" t="s" s="13">
-        <v>185</v>
-      </c>
-      <c r="B90" t="s" s="13">
+    <row r="90" ht="20.05" customHeight="1">
+      <c r="A90" t="s" s="12">
         <v>187</v>
       </c>
+      <c r="B90" t="s" s="12">
+        <v>188</v>
+      </c>
       <c r="C90" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D90" s="9">
-        <v>0.615384615384615</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E90" s="9">
-        <v>0.382978723404255</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" ht="20.7" customHeight="1">
-      <c r="A91" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="B91" t="s" s="4">
+    <row r="91" ht="20.05" customHeight="1">
+      <c r="A91" t="s" s="12">
         <v>189</v>
       </c>
-      <c r="C91" t="s" s="8">
-        <v>27</v>
+      <c r="B91" t="s" s="12">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D91" s="9">
-        <v>0.21875</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" ht="20.35" customHeight="1">
-      <c r="A92" t="s" s="11">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s" s="11">
+    <row r="92" ht="20.05" customHeight="1">
+      <c r="A92" t="s" s="12">
         <v>191</v>
       </c>
+      <c r="B92" t="s" s="12">
+        <v>192</v>
+      </c>
       <c r="C92" t="s" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D92" s="9">
-        <v>0.615384615384615</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E92" s="9">
-        <v>0.787234042553191</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="12">
-        <v>192</v>
-      </c>
-      <c r="B93" t="s" s="12">
+    <row r="93" ht="20.35" customHeight="1">
+      <c r="A93" t="s" s="13">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s" s="13">
         <v>193</v>
       </c>
       <c r="C93" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D93" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E93" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="12">
+    <row r="94" ht="20.7" customHeight="1">
+      <c r="A94" t="s" s="4">
         <v>194</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>17</v>
+      <c r="C94" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D94" s="9">
-        <v>0.205128205128205</v>
+        <v>0.21875</v>
       </c>
       <c r="E94" s="9">
-        <v>0.127659574468085</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" ht="20.35" customHeight="1">
-      <c r="A95" t="s" s="13">
+      <c r="A95" t="s" s="11">
         <v>196</v>
       </c>
-      <c r="B95" t="s" s="13">
+      <c r="B95" t="s" s="11">
         <v>197</v>
       </c>
       <c r="C95" t="s" s="12">
         <v>20</v>
       </c>
       <c r="D95" s="9">
-        <v>0</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="20.7" customHeight="1">
-      <c r="A96" t="s" s="4">
+    <row r="96" ht="20.05" customHeight="1">
+      <c r="A96" t="s" s="12">
         <v>198</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>199</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>27</v>
+      <c r="C96" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D96" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="E96" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.8297872340425529</v>
+      </c>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" ht="20.7" customHeight="1">
-      <c r="A97" t="s" s="14">
+    <row r="97" ht="20.05" customHeight="1">
+      <c r="A97" t="s" s="12">
         <v>200</v>
       </c>
-      <c r="B97" t="s" s="14">
+      <c r="B97" t="s" s="12">
         <v>201</v>
       </c>
       <c r="C97" t="s" s="12">
         <v>17</v>
       </c>
       <c r="D97" s="9">
-        <v>0</v>
-      </c>
-      <c r="E97" s="9"/>
+        <v>0.205128205128205</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="20.7" customHeight="1">
-      <c r="A98" t="s" s="4">
+    <row r="98" ht="20.35" customHeight="1">
+      <c r="A98" t="s" s="13">
         <v>202</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="13">
         <v>203</v>
       </c>
-      <c r="C98" t="s" s="8">
-        <v>27</v>
+      <c r="C98" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D98" s="9">
         <v>0</v>
@@ -5181,85 +5282,87 @@
         <v>27</v>
       </c>
       <c r="D99" s="9">
-        <v>0.53125</v>
-      </c>
-      <c r="E99" s="9"/>
+        <v>0.375</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0.739130434782609</v>
+      </c>
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" ht="20.35" customHeight="1">
-      <c r="A100" t="s" s="11">
+    <row r="100" ht="20.7" customHeight="1">
+      <c r="A100" t="s" s="14">
         <v>206</v>
       </c>
-      <c r="B100" t="s" s="11">
+      <c r="B100" t="s" s="14">
         <v>207</v>
       </c>
       <c r="C100" t="s" s="12">
         <v>17</v>
       </c>
       <c r="D100" s="9">
-        <v>0.820512820512821</v>
+        <v>0</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="12">
+    <row r="101" ht="20.7" customHeight="1">
+      <c r="A101" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="4">
         <v>209</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>47</v>
+      <c r="C101" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D101" s="9">
-        <v>0.871794871794872</v>
+        <v>0</v>
       </c>
       <c r="E101" s="9">
-        <v>0.702127659574468</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="12">
+    <row r="102" ht="20.7" customHeight="1">
+      <c r="A102" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="4">
         <v>211</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>17</v>
+      <c r="C102" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D102" s="9">
-        <v>0.564102564102564</v>
+        <v>0.53125</v>
       </c>
       <c r="E102" s="9">
-        <v>0.382978723404255</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="12">
+    <row r="103" ht="20.35" customHeight="1">
+      <c r="A103" t="s" s="11">
         <v>212</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="11">
         <v>213</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" t="s" s="12">
+        <v>17</v>
+      </c>
       <c r="D103" s="9">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="E103" s="9">
-        <v>0.361702127659574</v>
-      </c>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -5272,169 +5375,175 @@
         <v>215</v>
       </c>
       <c r="C104" t="s" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D104" s="9">
-        <v>0.5625</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.702127659574468</v>
+      </c>
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" ht="20.35" customHeight="1">
-      <c r="A105" t="s" s="13">
+    <row r="105" ht="20.05" customHeight="1">
+      <c r="A105" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="B105" t="s" s="13">
+      <c r="B105" t="s" s="12">
         <v>217</v>
       </c>
-      <c r="C105" s="10"/>
+      <c r="C105" t="s" s="12">
+        <v>17</v>
+      </c>
       <c r="D105" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E105" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" t="s" s="4">
+    <row r="106" ht="20.05" customHeight="1">
+      <c r="A106" t="s" s="12">
         <v>218</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>219</v>
       </c>
-      <c r="C106" t="s" s="8">
-        <v>27</v>
-      </c>
+      <c r="C106" s="10"/>
       <c r="D106" s="9">
-        <v>0.09375</v>
-      </c>
-      <c r="E106" s="9"/>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" ht="20.35" customHeight="1">
-      <c r="A107" t="s" s="11">
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" t="s" s="12">
         <v>220</v>
       </c>
-      <c r="B107" t="s" s="11">
+      <c r="B107" t="s" s="12">
         <v>221</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="9">
-        <v>0.717948717948718</v>
+        <v>0.5625</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="12">
+    <row r="108" ht="20.35" customHeight="1">
+      <c r="A108" t="s" s="13">
         <v>222</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="13">
         <v>223</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>32</v>
-      </c>
+      <c r="C108" s="10"/>
       <c r="D108" s="9">
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="12">
+    <row r="109" ht="20.7" customHeight="1">
+      <c r="A109" t="s" s="4">
         <v>224</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="C109" t="s" s="12">
-        <v>47</v>
+      <c r="C109" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D109" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E109" s="9"/>
+        <v>0.09375</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0.326086956521739</v>
+      </c>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="12">
+    <row r="110" ht="20.35" customHeight="1">
+      <c r="A110" t="s" s="11">
         <v>226</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="11">
         <v>227</v>
       </c>
       <c r="C110" t="s" s="12">
         <v>29</v>
       </c>
       <c r="D110" s="9">
-        <v>0</v>
-      </c>
-      <c r="E110" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" t="s" s="13">
+    <row r="111" ht="20.05" customHeight="1">
+      <c r="A111" t="s" s="12">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="13">
+      <c r="B111" t="s" s="12">
         <v>229</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D111" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0.319148936170213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" ht="20.7" customHeight="1">
-      <c r="A112" t="s" s="4">
+    <row r="112" ht="20.05" customHeight="1">
+      <c r="A112" t="s" s="12">
         <v>230</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>231</v>
       </c>
-      <c r="C112" t="s" s="8">
-        <v>27</v>
+      <c r="C112" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D112" s="9">
-        <v>0.03125</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" ht="20.7" customHeight="1">
-      <c r="A113" t="s" s="4">
+    <row r="113" ht="20.05" customHeight="1">
+      <c r="A113" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>233</v>
       </c>
-      <c r="C113" t="s" s="8">
-        <v>27</v>
+      <c r="C113" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -5444,51 +5553,55 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" ht="20.7" customHeight="1">
-      <c r="A114" t="s" s="4">
+    <row r="114" ht="20.35" customHeight="1">
+      <c r="A114" t="s" s="13">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="13">
         <v>235</v>
       </c>
-      <c r="C114" t="s" s="8">
-        <v>27</v>
+      <c r="C114" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D114" s="9">
-        <v>0.46875</v>
-      </c>
-      <c r="E114" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0.319148936170213</v>
+      </c>
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" ht="20.35" customHeight="1">
-      <c r="A115" t="s" s="11">
+    <row r="115" ht="20.7" customHeight="1">
+      <c r="A115" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="B115" t="s" s="11">
+      <c r="B115" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>47</v>
+      <c r="C115" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D115" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E115" s="9"/>
+        <v>0.03125</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0.521739130434783</v>
+      </c>
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="12">
+    <row r="116" ht="20.7" customHeight="1">
+      <c r="A116" t="s" s="4">
         <v>238</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>17</v>
+      <c r="C116" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D116" s="9">
         <v>0</v>
@@ -5498,230 +5611,236 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="12">
+    <row r="117" ht="20.7" customHeight="1">
+      <c r="A117" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>20</v>
+      <c r="C117" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D117" s="9">
-        <v>0.487179487179487</v>
+        <v>0.46875</v>
       </c>
       <c r="E117" s="9">
-        <v>0.446808510638298</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
     <row r="118" ht="20.35" customHeight="1">
-      <c r="A118" t="s" s="13">
+      <c r="A118" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="B118" t="s" s="13">
+      <c r="B118" t="s" s="11">
         <v>243</v>
       </c>
       <c r="C118" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D118" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E118" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0.404255319148936</v>
+      </c>
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" ht="20.7" customHeight="1">
-      <c r="A119" t="s" s="4">
+    <row r="119" ht="20.05" customHeight="1">
+      <c r="A119" t="s" s="12">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>245</v>
       </c>
-      <c r="C119" t="s" s="8">
-        <v>27</v>
+      <c r="C119" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D119" s="9">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" ht="20.35" customHeight="1">
-      <c r="A120" t="s" s="11">
+    <row r="120" ht="20.05" customHeight="1">
+      <c r="A120" t="s" s="12">
         <v>246</v>
       </c>
-      <c r="B120" t="s" s="11">
+      <c r="B120" t="s" s="12">
         <v>247</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D120" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E120" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" t="s" s="12">
+    <row r="121" ht="20.35" customHeight="1">
+      <c r="A121" t="s" s="13">
         <v>248</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="13">
         <v>249</v>
       </c>
       <c r="C121" t="s" s="12">
         <v>20</v>
       </c>
       <c r="D121" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E121" s="9">
-        <v>0.531914893617021</v>
-      </c>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" t="s" s="12">
+    <row r="122" ht="20.7" customHeight="1">
+      <c r="A122" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>47</v>
+      <c r="C122" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D122" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.65625</v>
       </c>
       <c r="E122" s="9">
-        <v>0.25531914893617</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" ht="20.35" customHeight="1">
-      <c r="A123" t="s" s="13">
+      <c r="A123" t="s" s="11">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="13">
+      <c r="B123" t="s" s="11">
         <v>253</v>
       </c>
       <c r="C123" t="s" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D123" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E123" s="9">
-        <v>0.191489361702128</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="4">
+    <row r="124" ht="20.05" customHeight="1">
+      <c r="A124" t="s" s="12">
         <v>254</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>255</v>
       </c>
-      <c r="C124" t="s" s="8">
-        <v>10</v>
+      <c r="C124" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D124" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E124" s="9"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="E124" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" ht="20.7" customHeight="1">
-      <c r="A125" t="s" s="14">
+    <row r="125" ht="20.05" customHeight="1">
+      <c r="A125" t="s" s="12">
         <v>256</v>
       </c>
-      <c r="B125" t="s" s="14">
+      <c r="B125" t="s" s="12">
         <v>257</v>
       </c>
       <c r="C125" t="s" s="12">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9">
-        <v>0</v>
-      </c>
-      <c r="E125" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E125" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="4">
+    <row r="126" ht="20.35" customHeight="1">
+      <c r="A126" t="s" s="13">
         <v>258</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="13">
         <v>259</v>
       </c>
-      <c r="C126" t="s" s="8">
-        <v>27</v>
+      <c r="C126" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D126" s="9">
-        <v>0.34375</v>
-      </c>
-      <c r="E126" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" ht="20.35" customHeight="1">
-      <c r="A127" t="s" s="11">
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="B127" t="s" s="11">
+      <c r="B127" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>29</v>
+      <c r="C127" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D127" s="9">
-        <v>0.0769230769230769</v>
+        <v>0.6875</v>
       </c>
       <c r="E127" s="9">
-        <v>0.127659574468085</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" ht="20.35" customHeight="1">
-      <c r="A128" t="s" s="13">
+    <row r="128" ht="20.7" customHeight="1">
+      <c r="A128" t="s" s="14">
         <v>262</v>
       </c>
-      <c r="B128" t="s" s="13">
+      <c r="B128" t="s" s="14">
         <v>263</v>
       </c>
       <c r="C128" t="s" s="12">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D128" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0.276595744680851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -5737,9 +5856,11 @@
         <v>27</v>
       </c>
       <c r="D129" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="E129" s="9"/>
+        <v>0.34375</v>
+      </c>
+      <c r="E129" s="9">
+        <v>0.391304347826087</v>
+      </c>
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -5751,142 +5872,152 @@
       <c r="B130" t="s" s="11">
         <v>267</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="D130" s="9">
-        <v>0.205128205128205</v>
-      </c>
-      <c r="E130" s="9"/>
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="E130" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="12">
-        <v>266</v>
-      </c>
-      <c r="B131" t="s" s="12">
+    <row r="131" ht="20.35" customHeight="1">
+      <c r="A131" t="s" s="13">
         <v>268</v>
       </c>
+      <c r="B131" t="s" s="13">
+        <v>269</v>
+      </c>
       <c r="C131" t="s" s="12">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D131" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E131" s="9">
-        <v>0.446808510638298</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" ht="20.35" customHeight="1">
-      <c r="A132" t="s" s="13">
-        <v>269</v>
-      </c>
-      <c r="B132" t="s" s="13">
+    <row r="132" ht="20.7" customHeight="1">
+      <c r="A132" t="s" s="4">
         <v>270</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>17</v>
+      <c r="B132" t="s" s="4">
+        <v>271</v>
+      </c>
+      <c r="C132" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D132" s="9">
-        <v>0.538461538461538</v>
+        <v>0.59375</v>
       </c>
       <c r="E132" s="9">
-        <v>0.553191489361702</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" ht="20.7" customHeight="1">
-      <c r="A133" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="B133" t="s" s="4">
+    <row r="133" ht="20.35" customHeight="1">
+      <c r="A133" t="s" s="11">
         <v>272</v>
       </c>
-      <c r="C133" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="B133" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="C133" s="10"/>
       <c r="D133" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="E133" s="9"/>
+        <v>0.205128205128205</v>
+      </c>
+      <c r="E133" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" ht="20.7" customHeight="1">
-      <c r="A134" t="s" s="14">
-        <v>273</v>
-      </c>
-      <c r="B134" t="s" s="14">
+    <row r="134" ht="20.05" customHeight="1">
+      <c r="A134" t="s" s="12">
+        <v>272</v>
+      </c>
+      <c r="B134" t="s" s="12">
         <v>274</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D134" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E134" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0.446808510638298</v>
+      </c>
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="20.7" customHeight="1">
-      <c r="A135" t="s" s="4">
+    <row r="135" ht="20.35" customHeight="1">
+      <c r="A135" t="s" s="13">
         <v>275</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="13">
         <v>276</v>
       </c>
-      <c r="C135" t="s" s="8">
-        <v>10</v>
+      <c r="C135" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D135" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="E135" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0.553191489361702</v>
+      </c>
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" ht="20.35" customHeight="1">
-      <c r="A136" t="s" s="11">
+    <row r="136" ht="20.7" customHeight="1">
+      <c r="A136" t="s" s="4">
         <v>277</v>
       </c>
-      <c r="B136" t="s" s="11">
+      <c r="B136" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="C136" t="s" s="12">
-        <v>20</v>
+      <c r="C136" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D136" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E136" s="9"/>
+        <v>0.71875</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0.152173913043478</v>
+      </c>
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" ht="20.35" customHeight="1">
-      <c r="A137" t="s" s="13">
+    <row r="137" ht="20.7" customHeight="1">
+      <c r="A137" t="s" s="14">
         <v>279</v>
       </c>
-      <c r="B137" t="s" s="13">
+      <c r="B137" t="s" s="14">
         <v>280</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D137" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E137" s="9">
-        <v>0.702127659574468</v>
+        <v>0.936170212765957</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
@@ -5903,9 +6034,11 @@
         <v>10</v>
       </c>
       <c r="D138" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="E138" s="9"/>
+        <v>0.84375</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0.521739130434783</v>
+      </c>
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -5918,66 +6051,70 @@
         <v>284</v>
       </c>
       <c r="C139" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D139" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E139" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E139" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" t="s" s="12">
+    <row r="140" ht="20.35" customHeight="1">
+      <c r="A140" t="s" s="13">
         <v>285</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="13">
         <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D140" s="9">
-        <v>0.461538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E140" s="9">
-        <v>0.382978723404255</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" t="s" s="12">
+    <row r="141" ht="20.7" customHeight="1">
+      <c r="A141" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="C141" t="s" s="12">
-        <v>20</v>
+      <c r="C141" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D141" s="9">
-        <v>0</v>
-      </c>
-      <c r="E141" s="9"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0.521739130434783</v>
+      </c>
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="12">
+    <row r="142" ht="20.35" customHeight="1">
+      <c r="A142" t="s" s="11">
         <v>289</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="11">
         <v>290</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D142" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -5992,12 +6129,14 @@
         <v>292</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D143" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E143" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0.382978723404255</v>
+      </c>
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -6010,7 +6149,7 @@
         <v>294</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D144" s="9">
         <v>0</v>
@@ -6022,283 +6161,293 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="12">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B145" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s" s="12">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D145" s="9">
         <v>0</v>
       </c>
-      <c r="E145" s="9">
-        <v>0.127659574468085</v>
-      </c>
+      <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="12">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s" s="12">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D146" s="9">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="E146" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E146" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="12">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B147" t="s" s="12">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D147" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E147" s="9">
-        <v>0.638297872340426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" ht="20.35" customHeight="1">
-      <c r="A148" t="s" s="13">
-        <v>300</v>
-      </c>
-      <c r="B148" t="s" s="13">
+    <row r="148" ht="20.05" customHeight="1">
+      <c r="A148" t="s" s="12">
+        <v>299</v>
+      </c>
+      <c r="B148" t="s" s="12">
         <v>301</v>
       </c>
       <c r="C148" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D148" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E148" s="9">
-        <v>0.382978723404255</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" ht="20.7" customHeight="1">
-      <c r="A149" t="s" s="4">
+    <row r="149" ht="20.05" customHeight="1">
+      <c r="A149" t="s" s="12">
         <v>302</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>303</v>
       </c>
-      <c r="C149" t="s" s="8">
-        <v>27</v>
+      <c r="C149" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D149" s="9">
-        <v>0.21875</v>
-      </c>
-      <c r="E149" s="9"/>
+        <v>0.794871794871795</v>
+      </c>
+      <c r="E149" s="9">
+        <v>0.978723404255319</v>
+      </c>
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" ht="20.35" customHeight="1">
-      <c r="A150" t="s" s="11">
+    <row r="150" ht="20.05" customHeight="1">
+      <c r="A150" t="s" s="12">
         <v>304</v>
       </c>
-      <c r="B150" t="s" s="11">
+      <c r="B150" t="s" s="12">
         <v>305</v>
       </c>
       <c r="C150" t="s" s="12">
         <v>20</v>
       </c>
       <c r="D150" s="9">
-        <v>0.487179487179487</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E150" s="9">
-        <v>0.404255319148936</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" ht="20.05" customHeight="1">
-      <c r="A151" t="s" s="12">
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" t="s" s="13">
         <v>306</v>
       </c>
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="13">
         <v>307</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D151" s="9">
-        <v>0</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E151" s="9">
-        <v>0.595744680851064</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="12">
+    <row r="152" ht="20.7" customHeight="1">
+      <c r="A152" t="s" s="4">
         <v>308</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="4">
         <v>309</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>47</v>
+      <c r="C152" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D152" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E152" s="9"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E152" s="9">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="12">
+    <row r="153" ht="20.35" customHeight="1">
+      <c r="A153" t="s" s="11">
         <v>310</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="11">
         <v>311</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D153" s="9">
-        <v>0.435897435897436</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E153" s="9">
-        <v>0.127659574468085</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" ht="20.35" customHeight="1">
-      <c r="A154" t="s" s="13">
+    <row r="154" ht="20.05" customHeight="1">
+      <c r="A154" t="s" s="12">
         <v>312</v>
       </c>
-      <c r="B154" t="s" s="13">
+      <c r="B154" t="s" s="12">
         <v>313</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D154" s="9">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E154" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" ht="20.7" customHeight="1">
-      <c r="A155" t="s" s="4">
+    <row r="155" ht="20.05" customHeight="1">
+      <c r="A155" t="s" s="12">
         <v>314</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>315</v>
       </c>
-      <c r="C155" t="s" s="8">
-        <v>27</v>
+      <c r="C155" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D155" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E155" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E155" s="9">
+        <v>0.468085106382979</v>
+      </c>
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" ht="20.35" customHeight="1">
-      <c r="A156" t="s" s="11">
-        <v>314</v>
-      </c>
-      <c r="B156" t="s" s="11">
+    <row r="156" ht="20.05" customHeight="1">
+      <c r="A156" t="s" s="12">
         <v>316</v>
       </c>
+      <c r="B156" t="s" s="12">
+        <v>317</v>
+      </c>
       <c r="C156" t="s" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D156" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E156" s="9"/>
+        <v>0.435897435897436</v>
+      </c>
+      <c r="E156" s="9">
+        <v>0.127659574468085</v>
+      </c>
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" ht="20.05" customHeight="1">
-      <c r="A157" t="s" s="12">
-        <v>314</v>
-      </c>
-      <c r="B157" t="s" s="12">
-        <v>317</v>
+    <row r="157" ht="20.35" customHeight="1">
+      <c r="A157" t="s" s="13">
+        <v>318</v>
+      </c>
+      <c r="B157" t="s" s="13">
+        <v>319</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D157" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" ht="20.05" customHeight="1">
-      <c r="A158" t="s" s="12">
-        <v>314</v>
-      </c>
-      <c r="B158" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="C158" t="s" s="12">
-        <v>78</v>
+    <row r="158" ht="20.7" customHeight="1">
+      <c r="A158" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="B158" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="C158" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D158" s="9">
-        <v>0</v>
-      </c>
-      <c r="E158" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="E158" s="9">
+        <v>0.891304347826087</v>
+      </c>
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" ht="20.05" customHeight="1">
-      <c r="A159" t="s" s="12">
-        <v>319</v>
-      </c>
-      <c r="B159" t="s" s="12">
+    <row r="159" ht="20.35" customHeight="1">
+      <c r="A159" t="s" s="11">
         <v>320</v>
       </c>
+      <c r="B159" t="s" s="11">
+        <v>322</v>
+      </c>
       <c r="C159" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D159" s="9">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E159" s="9">
-        <v>0.48936170212766</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
@@ -6306,19 +6455,19 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="12">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s" s="12">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D160" s="9">
-        <v>0.948717948717949</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E160" s="9">
-        <v>0.468085106382979</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="10"/>
@@ -6326,18 +6475,20 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="12">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s" s="12">
         <v>324</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D161" s="9">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E161" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="9">
+        <v>0.638297872340426</v>
+      </c>
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -6353,10 +6504,10 @@
         <v>47</v>
       </c>
       <c r="D162" s="9">
-        <v>0.846153846153846</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E162" s="9">
-        <v>0.5106382978723401</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
@@ -6373,9 +6524,11 @@
         <v>47</v>
       </c>
       <c r="D163" s="9">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="E163" s="9"/>
+        <v>0.948717948717949</v>
+      </c>
+      <c r="E163" s="9">
+        <v>0.468085106382979</v>
+      </c>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6388,14 +6541,12 @@
         <v>330</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D164" s="9">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E164" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -6414,7 +6565,7 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E165" s="9">
-        <v>0.787234042553191</v>
+        <v>0.5106382978723401</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
@@ -6431,11 +6582,9 @@
         <v>47</v>
       </c>
       <c r="D166" s="9">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="E166" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0.358974358974359</v>
+      </c>
+      <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -6448,13 +6597,13 @@
         <v>336</v>
       </c>
       <c r="C167" t="s" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D167" s="9">
-        <v>0.256410256410256</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E167" s="9">
-        <v>0.723404255319149</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -6468,13 +6617,13 @@
         <v>338</v>
       </c>
       <c r="C168" t="s" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D168" s="9">
-        <v>0</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E168" s="9">
-        <v>0.25531914893617</v>
+        <v>0.787234042553191</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -6488,13 +6637,13 @@
         <v>340</v>
       </c>
       <c r="C169" t="s" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D169" s="9">
-        <v>0.538461538461538</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E169" s="9">
-        <v>0.872340425531915</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
@@ -6508,59 +6657,63 @@
         <v>342</v>
       </c>
       <c r="C170" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D170" s="9">
-        <v>0</v>
-      </c>
-      <c r="E170" s="9"/>
+        <v>0.256410256410256</v>
+      </c>
+      <c r="E170" s="9">
+        <v>0.723404255319149</v>
+      </c>
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" ht="20.35" customHeight="1">
-      <c r="A171" t="s" s="13">
+    <row r="171" ht="20.05" customHeight="1">
+      <c r="A171" t="s" s="12">
         <v>343</v>
       </c>
-      <c r="B171" t="s" s="13">
+      <c r="B171" t="s" s="12">
         <v>344</v>
       </c>
       <c r="C171" t="s" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D171" s="9">
-        <v>0.641025641025641</v>
+        <v>0</v>
       </c>
       <c r="E171" s="9">
-        <v>0.425531914893617</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" ht="20.7" customHeight="1">
-      <c r="A172" t="s" s="4">
+    <row r="172" ht="20.05" customHeight="1">
+      <c r="A172" t="s" s="12">
         <v>345</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C172" t="s" s="8">
-        <v>10</v>
+      <c r="C172" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D172" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="E172" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E172" s="9">
+        <v>0.872340425531915</v>
+      </c>
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" ht="20.35" customHeight="1">
-      <c r="A173" t="s" s="11">
+    <row r="173" ht="20.05" customHeight="1">
+      <c r="A173" t="s" s="12">
         <v>347</v>
       </c>
-      <c r="B173" t="s" s="11">
+      <c r="B173" t="s" s="12">
         <v>348</v>
       </c>
       <c r="C173" t="s" s="12">
@@ -6574,57 +6727,59 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" ht="20.05" customHeight="1">
-      <c r="A174" t="s" s="12">
+    <row r="174" ht="20.35" customHeight="1">
+      <c r="A174" t="s" s="13">
         <v>349</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="13">
         <v>350</v>
       </c>
       <c r="C174" t="s" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D174" s="9">
-        <v>0</v>
-      </c>
-      <c r="E174" s="9"/>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E174" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F174" s="9"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" ht="20.05" customHeight="1">
-      <c r="A175" t="s" s="12">
+    <row r="175" ht="20.7" customHeight="1">
+      <c r="A175" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="4">
         <v>352</v>
       </c>
-      <c r="C175" t="s" s="12">
-        <v>78</v>
+      <c r="C175" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D175" s="9">
-        <v>0.538461538461538</v>
+        <v>0.78125</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" ht="20.05" customHeight="1">
-      <c r="A176" t="s" s="12">
+    <row r="176" ht="20.35" customHeight="1">
+      <c r="A176" t="s" s="11">
         <v>353</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="11">
         <v>354</v>
       </c>
       <c r="C176" t="s" s="12">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D176" s="9">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E176" s="9">
-        <v>0.765957446808511</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
@@ -6638,14 +6793,12 @@
         <v>356</v>
       </c>
       <c r="C177" t="s" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D177" s="9">
         <v>0</v>
       </c>
-      <c r="E177" s="9">
-        <v>0.340425531914894</v>
-      </c>
+      <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
@@ -6658,14 +6811,12 @@
         <v>358</v>
       </c>
       <c r="C178" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D178" s="9">
-        <v>0.128205128205128</v>
-      </c>
-      <c r="E178" s="9">
-        <v>0.297872340425532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
@@ -6677,11 +6828,15 @@
       <c r="B179" t="s" s="12">
         <v>360</v>
       </c>
-      <c r="C179" s="10"/>
+      <c r="C179" t="s" s="12">
+        <v>84</v>
+      </c>
       <c r="D179" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E179" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E179" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F179" s="9"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
@@ -6694,12 +6849,14 @@
         <v>362</v>
       </c>
       <c r="C180" t="s" s="12">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D180" s="9">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="E180" s="9"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E180" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
@@ -6712,13 +6869,13 @@
         <v>364</v>
       </c>
       <c r="C181" t="s" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D181" s="9">
-        <v>0.615384615384615</v>
+        <v>0</v>
       </c>
       <c r="E181" s="9">
-        <v>0.297872340425532</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
@@ -6732,12 +6889,14 @@
         <v>366</v>
       </c>
       <c r="C182" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D182" s="9">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="E182" s="9"/>
+        <v>0.128205128205128</v>
+      </c>
+      <c r="E182" s="9">
+        <v>0.297872340425532</v>
+      </c>
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
@@ -6749,11 +6908,9 @@
       <c r="B183" t="s" s="12">
         <v>368</v>
       </c>
-      <c r="C183" t="s" s="12">
-        <v>20</v>
-      </c>
+      <c r="C183" s="10"/>
       <c r="D183" s="9">
-        <v>0</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -6768,70 +6925,70 @@
         <v>370</v>
       </c>
       <c r="C184" t="s" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D184" s="9">
-        <v>0</v>
-      </c>
-      <c r="E184" s="9"/>
+        <v>0.282051282051282</v>
+      </c>
+      <c r="E184" s="9">
+        <v>0.74468085106383</v>
+      </c>
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" t="s" s="13">
+    <row r="185" ht="20.05" customHeight="1">
+      <c r="A185" t="s" s="12">
         <v>371</v>
       </c>
-      <c r="B185" t="s" s="13">
+      <c r="B185" t="s" s="12">
         <v>372</v>
       </c>
       <c r="C185" t="s" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D185" s="9">
-        <v>0.487179487179487</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E185" s="9">
-        <v>0.531914893617021</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="4">
+    <row r="186" ht="20.05" customHeight="1">
+      <c r="A186" t="s" s="12">
         <v>373</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>374</v>
       </c>
-      <c r="C186" t="s" s="8">
-        <v>27</v>
+      <c r="C186" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D186" s="9">
-        <v>0.5625</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" ht="20.35" customHeight="1">
-      <c r="A187" t="s" s="11">
+    <row r="187" ht="20.05" customHeight="1">
+      <c r="A187" t="s" s="12">
         <v>375</v>
       </c>
-      <c r="B187" t="s" s="11">
+      <c r="B187" t="s" s="12">
         <v>376</v>
       </c>
       <c r="C187" t="s" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D187" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E187" s="9">
-        <v>0.659574468085106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
@@ -6844,68 +7001,72 @@
         <v>378</v>
       </c>
       <c r="C188" t="s" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D188" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E188" s="9">
-        <v>0.297872340425532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" ht="20.05" customHeight="1">
-      <c r="A189" t="s" s="12">
+    <row r="189" ht="20.35" customHeight="1">
+      <c r="A189" t="s" s="13">
         <v>379</v>
       </c>
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="13">
         <v>380</v>
       </c>
       <c r="C189" t="s" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D189" s="9">
-        <v>0</v>
-      </c>
-      <c r="E189" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E189" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F189" s="9"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" ht="20.05" customHeight="1">
-      <c r="A190" t="s" s="12">
+    <row r="190" ht="20.7" customHeight="1">
+      <c r="A190" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="4">
         <v>382</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>29</v>
+      <c r="C190" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D190" s="9">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E190" s="9"/>
+        <v>0.5625</v>
+      </c>
+      <c r="E190" s="9">
+        <v>0.91304347826087</v>
+      </c>
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" ht="20.05" customHeight="1">
-      <c r="A191" t="s" s="12">
+    <row r="191" ht="20.35" customHeight="1">
+      <c r="A191" t="s" s="11">
         <v>383</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="11">
         <v>384</v>
       </c>
       <c r="C191" t="s" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D191" s="9">
-        <v>0</v>
-      </c>
-      <c r="E191" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E191" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -6921,10 +7082,10 @@
         <v>20</v>
       </c>
       <c r="D192" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E192" s="9">
-        <v>0.574468085106383</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
@@ -6938,14 +7099,12 @@
         <v>388</v>
       </c>
       <c r="C193" t="s" s="12">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D193" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E193" s="9">
-        <v>0.425531914893617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
@@ -6958,292 +7117,298 @@
         <v>390</v>
       </c>
       <c r="C194" t="s" s="12">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D194" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E194" s="9">
-        <v>0.595744680851064</v>
-      </c>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" ht="20.35" customHeight="1">
-      <c r="A195" t="s" s="13">
-        <v>389</v>
-      </c>
-      <c r="B195" t="s" s="13">
+    <row r="195" ht="20.05" customHeight="1">
+      <c r="A195" t="s" s="12">
         <v>391</v>
+      </c>
+      <c r="B195" t="s" s="12">
+        <v>392</v>
       </c>
       <c r="C195" t="s" s="12">
         <v>20</v>
       </c>
       <c r="D195" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E195" s="9">
-        <v>0.319148936170213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" ht="20.7" customHeight="1">
-      <c r="A196" t="s" s="4">
-        <v>392</v>
-      </c>
-      <c r="B196" t="s" s="4">
+    <row r="196" ht="20.05" customHeight="1">
+      <c r="A196" t="s" s="12">
         <v>393</v>
       </c>
-      <c r="C196" t="s" s="8">
-        <v>27</v>
+      <c r="B196" t="s" s="12">
+        <v>394</v>
+      </c>
+      <c r="C196" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D196" s="9">
-        <v>0</v>
-      </c>
-      <c r="E196" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E196" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="14">
-        <v>394</v>
-      </c>
-      <c r="B197" t="s" s="14">
+    <row r="197" ht="20.05" customHeight="1">
+      <c r="A197" t="s" s="12">
         <v>395</v>
+      </c>
+      <c r="B197" t="s" s="12">
+        <v>396</v>
       </c>
       <c r="C197" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D197" s="9">
-        <v>0.538461538461538</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E197" s="9">
-        <v>0.574468085106383</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" ht="20.7" customHeight="1">
-      <c r="A198" t="s" s="4">
-        <v>396</v>
-      </c>
-      <c r="B198" t="s" s="4">
+    <row r="198" ht="20.05" customHeight="1">
+      <c r="A198" t="s" s="12">
         <v>397</v>
       </c>
-      <c r="C198" t="s" s="8">
-        <v>10</v>
+      <c r="B198" t="s" s="12">
+        <v>398</v>
+      </c>
+      <c r="C198" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D198" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E198" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E198" s="9">
+        <v>0.595744680851064</v>
+      </c>
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" ht="20.35" customHeight="1">
-      <c r="A199" t="s" s="11">
-        <v>398</v>
-      </c>
-      <c r="B199" t="s" s="11">
+    <row r="199" ht="20.05" customHeight="1">
+      <c r="A199" t="s" s="12">
+        <v>397</v>
+      </c>
+      <c r="B199" t="s" s="12">
         <v>399</v>
       </c>
-      <c r="C199" s="10"/>
+      <c r="C199" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="D199" s="9">
-        <v>0.461538461538462</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E199" s="9">
-        <v>0.234042553191489</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" ht="20.05" customHeight="1">
-      <c r="A200" t="s" s="12">
+    <row r="200" ht="20.35" customHeight="1">
+      <c r="A200" t="s" s="13">
         <v>400</v>
       </c>
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="13">
         <v>401</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>78</v>
-      </c>
+      <c r="C200" s="10"/>
       <c r="D200" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E200" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E200" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" ht="20.35" customHeight="1">
-      <c r="A201" t="s" s="13">
+    <row r="201" ht="20.7" customHeight="1">
+      <c r="A201" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="B201" t="s" s="13">
+      <c r="B201" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>20</v>
+      <c r="C201" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D201" s="9">
         <v>0</v>
       </c>
-      <c r="E201" s="9">
-        <v>0.191489361702128</v>
-      </c>
+      <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
     <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="4">
+      <c r="A202" t="s" s="14">
         <v>404</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="14">
         <v>405</v>
       </c>
-      <c r="C202" t="s" s="8">
-        <v>10</v>
+      <c r="C202" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D202" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="E202" s="9"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="E202" s="9">
+        <v>0.574468085106383</v>
+      </c>
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" ht="20.35" customHeight="1">
-      <c r="A203" t="s" s="11">
+    <row r="203" ht="20.7" customHeight="1">
+      <c r="A203" t="s" s="4">
         <v>406</v>
       </c>
-      <c r="B203" t="s" s="11">
+      <c r="B203" t="s" s="4">
         <v>407</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>20</v>
+      <c r="C203" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D203" s="9">
-        <v>0.41025641025641</v>
+        <v>0.75</v>
       </c>
       <c r="E203" s="9">
-        <v>0.531914893617021</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="12">
-        <v>406</v>
-      </c>
-      <c r="B204" t="s" s="12">
+    <row r="204" ht="20.35" customHeight="1">
+      <c r="A204" t="s" s="11">
         <v>408</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>20</v>
-      </c>
+      <c r="B204" t="s" s="11">
+        <v>409</v>
+      </c>
+      <c r="C204" s="10"/>
       <c r="D204" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E204" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E204" s="9">
+        <v>0.234042553191489</v>
+      </c>
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" ht="20.35" customHeight="1">
-      <c r="A205" t="s" s="13">
-        <v>409</v>
-      </c>
-      <c r="B205" t="s" s="13">
+    <row r="205" ht="20.05" customHeight="1">
+      <c r="A205" t="s" s="12">
         <v>410</v>
       </c>
+      <c r="B205" t="s" s="12">
+        <v>411</v>
+      </c>
       <c r="C205" t="s" s="12">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D205" s="9">
-        <v>0.307692307692308</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" ht="20.7" customHeight="1">
-      <c r="A206" t="s" s="4">
-        <v>409</v>
-      </c>
-      <c r="B206" t="s" s="4">
-        <v>411</v>
-      </c>
-      <c r="C206" t="s" s="8">
-        <v>10</v>
+    <row r="206" ht="20.35" customHeight="1">
+      <c r="A206" t="s" s="13">
+        <v>412</v>
+      </c>
+      <c r="B206" t="s" s="13">
+        <v>413</v>
+      </c>
+      <c r="C206" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D206" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="E206" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E206" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
     <row r="207" ht="20.7" customHeight="1">
-      <c r="A207" t="s" s="14">
-        <v>412</v>
-      </c>
-      <c r="B207" t="s" s="14">
-        <v>413</v>
-      </c>
-      <c r="C207" t="s" s="12">
-        <v>32</v>
+      <c r="A207" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="B207" t="s" s="4">
+        <v>415</v>
+      </c>
+      <c r="C207" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D207" s="9">
-        <v>0.871794871794872</v>
+        <v>0.71875</v>
       </c>
       <c r="E207" s="9">
-        <v>0.765957446808511</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" ht="20.7" customHeight="1">
-      <c r="A208" t="s" s="4">
-        <v>414</v>
-      </c>
-      <c r="B208" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="C208" t="s" s="8">
-        <v>27</v>
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" t="s" s="11">
+        <v>416</v>
+      </c>
+      <c r="B208" t="s" s="11">
+        <v>417</v>
+      </c>
+      <c r="C208" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D208" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="E208" s="9"/>
+        <v>0.41025641025641</v>
+      </c>
+      <c r="E208" s="9">
+        <v>0.531914893617021</v>
+      </c>
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" ht="20.35" customHeight="1">
-      <c r="A209" t="s" s="11">
+    <row r="209" ht="20.05" customHeight="1">
+      <c r="A209" t="s" s="12">
         <v>416</v>
       </c>
-      <c r="B209" t="s" s="11">
-        <v>417</v>
+      <c r="B209" t="s" s="12">
+        <v>418</v>
       </c>
       <c r="C209" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D209" s="9">
-        <v>0.717948717948718</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
@@ -7252,16 +7417,16 @@
     </row>
     <row r="210" ht="20.35" customHeight="1">
       <c r="A210" t="s" s="13">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B210" t="s" s="13">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C210" t="s" s="12">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D210" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -7270,7 +7435,7 @@
     </row>
     <row r="211" ht="20.7" customHeight="1">
       <c r="A211" t="s" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B211" t="s" s="4">
         <v>421</v>
@@ -7279,121 +7444,125 @@
         <v>10</v>
       </c>
       <c r="D211" s="9">
-        <v>0.65625</v>
-      </c>
-      <c r="E211" s="9"/>
+        <v>0.71875</v>
+      </c>
+      <c r="E211" s="9">
+        <v>0.347826086956522</v>
+      </c>
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
     <row r="212" ht="20.7" customHeight="1">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="14">
         <v>422</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="14">
         <v>423</v>
       </c>
-      <c r="C212" t="s" s="8">
-        <v>10</v>
+      <c r="C212" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="D212" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="E212" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E212" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F212" s="9"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" ht="20.35" customHeight="1">
-      <c r="A213" t="s" s="11">
+    <row r="213" ht="20.7" customHeight="1">
+      <c r="A213" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="B213" t="s" s="11">
+      <c r="B213" t="s" s="4">
         <v>425</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>17</v>
+      <c r="C213" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D213" s="9">
-        <v>0.435897435897436</v>
+        <v>0.59375</v>
       </c>
       <c r="E213" s="9">
-        <v>0.404255319148936</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" ht="20.05" customHeight="1">
-      <c r="A214" t="s" s="12">
+    <row r="214" ht="20.35" customHeight="1">
+      <c r="A214" t="s" s="11">
         <v>426</v>
       </c>
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="11">
         <v>427</v>
       </c>
       <c r="C214" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D214" s="9">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E214" s="9">
-        <v>0.48936170212766</v>
-      </c>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" ht="20.05" customHeight="1">
-      <c r="A215" t="s" s="12">
+    <row r="215" ht="20.35" customHeight="1">
+      <c r="A215" t="s" s="13">
         <v>428</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="13">
         <v>429</v>
       </c>
       <c r="C215" t="s" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D215" s="9">
-        <v>0.58974358974359</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E215" s="9">
-        <v>0.340425531914894</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" t="s" s="12">
+    <row r="216" ht="20.7" customHeight="1">
+      <c r="A216" t="s" s="4">
         <v>430</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>47</v>
+      <c r="C216" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D216" s="9">
-        <v>0.820512820512821</v>
-      </c>
-      <c r="E216" s="9"/>
+        <v>0.65625</v>
+      </c>
+      <c r="E216" s="9">
+        <v>0.608695652173913</v>
+      </c>
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" ht="20.05" customHeight="1">
-      <c r="A217" t="s" s="12">
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="C217" t="s" s="12">
-        <v>78</v>
+      <c r="C217" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D217" s="9">
-        <v>0.58974358974359</v>
+        <v>0.84375</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
@@ -7401,166 +7570,178 @@
       <c r="H217" s="10"/>
     </row>
     <row r="218" ht="20.35" customHeight="1">
-      <c r="A218" t="s" s="13">
+      <c r="A218" t="s" s="11">
         <v>434</v>
       </c>
-      <c r="B218" t="s" s="13">
+      <c r="B218" t="s" s="11">
         <v>435</v>
       </c>
       <c r="C218" t="s" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D218" s="9">
-        <v>0.717948717948718</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E218" s="9">
-        <v>0.191489361702128</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" ht="20.7" customHeight="1">
-      <c r="A219" t="s" s="4">
+    <row r="219" ht="20.05" customHeight="1">
+      <c r="A219" t="s" s="12">
         <v>436</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>437</v>
       </c>
-      <c r="C219" t="s" s="8">
-        <v>27</v>
+      <c r="C219" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="D219" s="9">
-        <v>0.28125</v>
-      </c>
-      <c r="E219" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E219" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" ht="20.35" customHeight="1">
-      <c r="A220" t="s" s="11">
+    <row r="220" ht="20.05" customHeight="1">
+      <c r="A220" t="s" s="12">
         <v>438</v>
       </c>
-      <c r="B220" t="s" s="11">
+      <c r="B220" t="s" s="12">
         <v>439</v>
       </c>
       <c r="C220" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D220" s="9">
-        <v>0.871794871794872</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E220" s="9">
-        <v>0.680851063829787</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" ht="20.35" customHeight="1">
-      <c r="A221" t="s" s="13">
+    <row r="221" ht="20.05" customHeight="1">
+      <c r="A221" t="s" s="12">
         <v>440</v>
       </c>
-      <c r="B221" t="s" s="13">
+      <c r="B221" t="s" s="12">
         <v>441</v>
       </c>
       <c r="C221" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D221" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E221" s="9"/>
+        <v>0.820512820512821</v>
+      </c>
+      <c r="E221" s="9">
+        <v>0.425531914893617</v>
+      </c>
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="4">
+    <row r="222" ht="20.05" customHeight="1">
+      <c r="A222" t="s" s="12">
         <v>442</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>443</v>
       </c>
-      <c r="C222" t="s" s="8">
-        <v>10</v>
+      <c r="C222" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D222" s="9">
-        <v>0.59375</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="4">
+    <row r="223" ht="20.35" customHeight="1">
+      <c r="A223" t="s" s="13">
         <v>444</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="13">
         <v>445</v>
       </c>
-      <c r="C223" t="s" s="8">
-        <v>10</v>
+      <c r="C223" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="D223" s="9">
-        <v>0</v>
-      </c>
-      <c r="E223" s="9"/>
+        <v>0.717948717948718</v>
+      </c>
+      <c r="E223" s="9">
+        <v>0.191489361702128</v>
+      </c>
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="15">
+      <c r="A224" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="B224" t="s" s="15">
+      <c r="B224" t="s" s="4">
         <v>447</v>
       </c>
       <c r="C224" t="s" s="8">
         <v>27</v>
       </c>
       <c r="D224" s="9">
-        <v>0</v>
-      </c>
-      <c r="E224" s="9"/>
+        <v>0.28125</v>
+      </c>
+      <c r="E224" s="9">
+        <v>0.239130434782609</v>
+      </c>
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="4">
+    <row r="225" ht="20.35" customHeight="1">
+      <c r="A225" t="s" s="11">
         <v>448</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="11">
         <v>449</v>
       </c>
-      <c r="C225" t="s" s="8">
-        <v>27</v>
+      <c r="C225" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D225" s="9">
-        <v>0.59375</v>
-      </c>
-      <c r="E225" s="9"/>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="E225" s="9">
+        <v>0.680851063829787</v>
+      </c>
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="14">
+    <row r="226" ht="20.35" customHeight="1">
+      <c r="A226" t="s" s="13">
         <v>450</v>
       </c>
-      <c r="B226" t="s" s="14">
+      <c r="B226" t="s" s="13">
         <v>451</v>
       </c>
-      <c r="C226" s="10"/>
+      <c r="C226" t="s" s="12">
+        <v>47</v>
+      </c>
       <c r="D226" s="9">
-        <v>0.564102564102564</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E226" s="9">
-        <v>0.276595744680851</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
@@ -7574,350 +7755,358 @@
         <v>453</v>
       </c>
       <c r="C227" t="s" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D227" s="9">
-        <v>0</v>
-      </c>
-      <c r="E227" s="9"/>
+        <v>0.59375</v>
+      </c>
+      <c r="E227" s="9">
+        <v>0.304347826086957</v>
+      </c>
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
     <row r="228" ht="20.7" customHeight="1">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="14">
         <v>454</v>
       </c>
-      <c r="B228" t="s" s="4">
-        <v>455</v>
-      </c>
-      <c r="C228" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="B228" t="s" s="14">
+        <v>374</v>
+      </c>
+      <c r="C228" s="10"/>
       <c r="D228" s="9">
         <v>0</v>
       </c>
-      <c r="E228" s="9"/>
+      <c r="E228" s="9">
+        <v>0.148936170212766</v>
+      </c>
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" ht="20.35" customHeight="1">
-      <c r="A229" t="s" s="11">
+    <row r="229" ht="20.7" customHeight="1">
+      <c r="A229" t="s" s="4">
+        <v>455</v>
+      </c>
+      <c r="B229" t="s" s="4">
         <v>456</v>
       </c>
-      <c r="B229" t="s" s="11">
-        <v>457</v>
-      </c>
-      <c r="C229" t="s" s="12">
-        <v>20</v>
+      <c r="C229" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D229" s="9">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="E229" s="9">
-        <v>0.702127659574468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" ht="20.05" customHeight="1">
-      <c r="A230" t="s" s="12">
+    <row r="230" ht="20.7" customHeight="1">
+      <c r="A230" t="s" s="15">
+        <v>457</v>
+      </c>
+      <c r="B230" t="s" s="15">
         <v>458</v>
       </c>
-      <c r="B230" t="s" s="12">
-        <v>459</v>
-      </c>
-      <c r="C230" t="s" s="12">
-        <v>20</v>
+      <c r="C230" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D230" s="9">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="E230" s="9">
-        <v>0.851063829787234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" ht="20.05" customHeight="1">
-      <c r="A231" t="s" s="12">
+    <row r="231" ht="20.7" customHeight="1">
+      <c r="A231" t="s" s="4">
+        <v>459</v>
+      </c>
+      <c r="B231" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="B231" t="s" s="12">
-        <v>461</v>
-      </c>
-      <c r="C231" t="s" s="12">
-        <v>17</v>
+      <c r="C231" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D231" s="9">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="E231" s="9">
-        <v>0.574468085106383</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" ht="20.05" customHeight="1">
-      <c r="A232" t="s" s="12">
+    <row r="232" ht="20.7" customHeight="1">
+      <c r="A232" t="s" s="14">
+        <v>461</v>
+      </c>
+      <c r="B232" t="s" s="14">
         <v>462</v>
       </c>
-      <c r="B232" t="s" s="12">
-        <v>463</v>
-      </c>
-      <c r="C232" t="s" s="12">
-        <v>78</v>
-      </c>
+      <c r="C232" s="10"/>
       <c r="D232" s="9">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E232" s="9"/>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E232" s="9">
+        <v>0.276595744680851</v>
+      </c>
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="12">
+    <row r="233" ht="20.7" customHeight="1">
+      <c r="A233" t="s" s="4">
+        <v>463</v>
+      </c>
+      <c r="B233" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="B233" t="s" s="12">
-        <v>465</v>
-      </c>
-      <c r="C233" t="s" s="12">
-        <v>78</v>
+      <c r="C233" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D233" s="9">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="12">
+    <row r="234" ht="20.7" customHeight="1">
+      <c r="A234" t="s" s="4">
+        <v>465</v>
+      </c>
+      <c r="B234" t="s" s="4">
         <v>466</v>
       </c>
-      <c r="B234" t="s" s="12">
-        <v>467</v>
-      </c>
-      <c r="C234" t="s" s="12">
-        <v>20</v>
+      <c r="C234" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D234" s="9">
-        <v>0.820512820512821</v>
+        <v>0</v>
       </c>
       <c r="E234" s="9">
-        <v>0.893617021276596</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
     <row r="235" ht="20.35" customHeight="1">
-      <c r="A235" t="s" s="13">
+      <c r="A235" t="s" s="11">
+        <v>467</v>
+      </c>
+      <c r="B235" t="s" s="11">
         <v>468</v>
       </c>
-      <c r="B235" t="s" s="13">
-        <v>469</v>
-      </c>
       <c r="C235" t="s" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D235" s="9">
-        <v>0.384615384615385</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E235" s="9">
-        <v>0.234042553191489</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" ht="20.7" customHeight="1">
-      <c r="A236" t="s" s="4">
+    <row r="236" ht="20.05" customHeight="1">
+      <c r="A236" t="s" s="12">
+        <v>469</v>
+      </c>
+      <c r="B236" t="s" s="12">
         <v>470</v>
       </c>
-      <c r="B236" t="s" s="4">
-        <v>471</v>
-      </c>
-      <c r="C236" t="s" s="8">
-        <v>27</v>
+      <c r="C236" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="D236" s="9">
-        <v>0.3125</v>
-      </c>
-      <c r="E236" s="9"/>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E236" s="9">
+        <v>0.851063829787234</v>
+      </c>
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" ht="20.7" customHeight="1">
-      <c r="A237" t="s" s="14">
+    <row r="237" ht="20.05" customHeight="1">
+      <c r="A237" t="s" s="12">
+        <v>471</v>
+      </c>
+      <c r="B237" t="s" s="12">
         <v>472</v>
       </c>
-      <c r="B237" t="s" s="14">
-        <v>473</v>
-      </c>
       <c r="C237" t="s" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D237" s="9">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E237" s="9">
-        <v>0.5106382978723401</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" ht="20.7" customHeight="1">
-      <c r="A238" t="s" s="4">
+    <row r="238" ht="20.05" customHeight="1">
+      <c r="A238" t="s" s="12">
+        <v>473</v>
+      </c>
+      <c r="B238" t="s" s="12">
         <v>474</v>
       </c>
-      <c r="B238" t="s" s="4">
-        <v>475</v>
-      </c>
-      <c r="C238" t="s" s="8">
-        <v>10</v>
+      <c r="C238" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="D238" s="9">
-        <v>0.375</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239" ht="20.35" customHeight="1">
-      <c r="A239" t="s" s="11">
+    <row r="239" ht="20.05" customHeight="1">
+      <c r="A239" t="s" s="12">
+        <v>475</v>
+      </c>
+      <c r="B239" t="s" s="12">
         <v>476</v>
       </c>
-      <c r="B239" t="s" s="11">
-        <v>477</v>
-      </c>
       <c r="C239" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D239" s="9">
-        <v>0</v>
-      </c>
-      <c r="E239" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E239" s="9">
+        <v>0.212765957446809</v>
+      </c>
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="12">
+        <v>477</v>
+      </c>
+      <c r="B240" t="s" s="12">
         <v>478</v>
       </c>
-      <c r="B240" t="s" s="12">
-        <v>479</v>
-      </c>
       <c r="C240" t="s" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D240" s="9">
-        <v>0.7435897435897439</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E240" s="9">
-        <v>0.808510638297872</v>
+        <v>0.893617021276596</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" ht="20.05" customHeight="1">
-      <c r="A241" t="s" s="12">
+    <row r="241" ht="20.35" customHeight="1">
+      <c r="A241" t="s" s="13">
+        <v>479</v>
+      </c>
+      <c r="B241" t="s" s="13">
         <v>480</v>
-      </c>
-      <c r="B241" t="s" s="12">
-        <v>481</v>
       </c>
       <c r="C241" t="s" s="12">
         <v>32</v>
       </c>
       <c r="D241" s="9">
-        <v>0.487179487179487</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E241" s="9">
-        <v>0.382978723404255</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" ht="20.35" customHeight="1">
-      <c r="A242" t="s" s="13">
+    <row r="242" ht="20.7" customHeight="1">
+      <c r="A242" t="s" s="4">
+        <v>481</v>
+      </c>
+      <c r="B242" t="s" s="4">
         <v>482</v>
       </c>
-      <c r="B242" t="s" s="13">
-        <v>483</v>
-      </c>
-      <c r="C242" t="s" s="12">
-        <v>20</v>
+      <c r="C242" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D242" s="9">
-        <v>0</v>
-      </c>
-      <c r="E242" s="9"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E242" s="9">
+        <v>0.760869565217391</v>
+      </c>
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
     </row>
     <row r="243" ht="20.7" customHeight="1">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="14">
+        <v>483</v>
+      </c>
+      <c r="B243" t="s" s="14">
         <v>484</v>
       </c>
-      <c r="B243" t="s" s="4">
-        <v>485</v>
-      </c>
-      <c r="C243" t="s" s="8">
-        <v>10</v>
+      <c r="C243" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D243" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="E243" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E243" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
     </row>
     <row r="244" ht="20.7" customHeight="1">
       <c r="A244" t="s" s="4">
+        <v>485</v>
+      </c>
+      <c r="B244" t="s" s="4">
         <v>486</v>
       </c>
-      <c r="B244" t="s" s="4">
-        <v>487</v>
-      </c>
       <c r="C244" t="s" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D244" s="9">
-        <v>0</v>
-      </c>
-      <c r="E244" s="9"/>
+        <v>0.375</v>
+      </c>
+      <c r="E244" s="9">
+        <v>0.41304347826087</v>
+      </c>
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
     <row r="245" ht="20.35" customHeight="1">
       <c r="A245" t="s" s="11">
+        <v>487</v>
+      </c>
+      <c r="B245" t="s" s="11">
         <v>488</v>
       </c>
-      <c r="B245" t="s" s="11">
-        <v>489</v>
-      </c>
       <c r="C245" t="s" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D245" s="9">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -7926,47 +8115,49 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="12">
+        <v>489</v>
+      </c>
+      <c r="B246" t="s" s="12">
         <v>490</v>
       </c>
-      <c r="B246" t="s" s="12">
-        <v>491</v>
-      </c>
       <c r="C246" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D246" s="9">
-        <v>0.641025641025641</v>
-      </c>
-      <c r="E246" s="9"/>
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="E246" s="9">
+        <v>0.808510638297872</v>
+      </c>
       <c r="F246" s="9"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="12">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B247" t="s" s="12">
         <v>492</v>
       </c>
       <c r="C247" t="s" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D247" s="9">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E247" s="9">
-        <v>0.48936170212766</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" ht="20.05" customHeight="1">
-      <c r="A248" t="s" s="12">
+    <row r="248" ht="20.35" customHeight="1">
+      <c r="A248" t="s" s="13">
         <v>493</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="13">
         <v>494</v>
       </c>
       <c r="C248" t="s" s="12">
@@ -7980,59 +8171,61 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" ht="20.05" customHeight="1">
-      <c r="A249" t="s" s="12">
+    <row r="249" ht="20.7" customHeight="1">
+      <c r="A249" t="s" s="4">
         <v>495</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>20</v>
+      <c r="C249" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D249" s="9">
-        <v>0.435897435897436</v>
+        <v>0.625</v>
       </c>
       <c r="E249" s="9">
-        <v>0.617021276595745</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" ht="20.05" customHeight="1">
-      <c r="A250" t="s" s="12">
+    <row r="250" ht="20.7" customHeight="1">
+      <c r="A250" t="s" s="4">
         <v>497</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>29</v>
+      <c r="C250" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="D250" s="9">
         <v>0</v>
       </c>
-      <c r="E250" s="9"/>
+      <c r="E250" s="9">
+        <v>0.608695652173913</v>
+      </c>
       <c r="F250" s="9"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" ht="20.05" customHeight="1">
-      <c r="A251" t="s" s="12">
+    <row r="251" ht="20.35" customHeight="1">
+      <c r="A251" t="s" s="11">
         <v>499</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="11">
         <v>500</v>
       </c>
       <c r="C251" t="s" s="12">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D251" s="9">
-        <v>0.974358974358974</v>
+        <v>0</v>
       </c>
       <c r="E251" s="9">
-        <v>0.936170212765957</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="10"/>
@@ -8046,10 +8239,10 @@
         <v>502</v>
       </c>
       <c r="C252" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D252" s="9">
-        <v>0.58974358974359</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -8067,68 +8260,66 @@
         <v>47</v>
       </c>
       <c r="D253" s="9">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="E253" s="9">
-        <v>0.5106382978723401</v>
-      </c>
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="12">
+        <v>503</v>
+      </c>
+      <c r="B254" t="s" s="12">
         <v>505</v>
       </c>
-      <c r="B254" t="s" s="12">
-        <v>506</v>
-      </c>
       <c r="C254" t="s" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D254" s="9">
-        <v>0.512820512820513</v>
-      </c>
-      <c r="E254" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E254" s="9">
+        <v>0.48936170212766</v>
+      </c>
       <c r="F254" s="9"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="12">
+        <v>506</v>
+      </c>
+      <c r="B255" t="s" s="12">
         <v>507</v>
       </c>
-      <c r="B255" t="s" s="12">
-        <v>508</v>
-      </c>
       <c r="C255" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D255" s="9">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="E255" s="9">
-        <v>0.25531914893617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="12">
+        <v>508</v>
+      </c>
+      <c r="B256" t="s" s="12">
         <v>509</v>
-      </c>
-      <c r="B256" t="s" s="12">
-        <v>510</v>
       </c>
       <c r="C256" t="s" s="12">
         <v>20</v>
       </c>
       <c r="D256" s="9">
-        <v>0.692307692307692</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E256" s="9">
-        <v>0.659574468085106</v>
+        <v>0.617021276595745</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
@@ -8136,90 +8327,92 @@
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="12">
+        <v>510</v>
+      </c>
+      <c r="B257" t="s" s="12">
         <v>511</v>
       </c>
-      <c r="B257" t="s" s="12">
-        <v>512</v>
-      </c>
       <c r="C257" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D257" s="9">
-        <v>0.179487179487179</v>
-      </c>
-      <c r="E257" s="9">
-        <v>0.765957446808511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258" ht="20.35" customHeight="1">
-      <c r="A258" t="s" s="13">
+    <row r="258" ht="20.05" customHeight="1">
+      <c r="A258" t="s" s="12">
+        <v>512</v>
+      </c>
+      <c r="B258" t="s" s="12">
         <v>513</v>
       </c>
-      <c r="B258" t="s" s="13">
-        <v>514</v>
-      </c>
       <c r="C258" t="s" s="12">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D258" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="E258" s="9"/>
+        <v>0.974358974358974</v>
+      </c>
+      <c r="E258" s="9">
+        <v>0.936170212765957</v>
+      </c>
       <c r="F258" s="9"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" ht="20.7" customHeight="1">
-      <c r="A259" t="s" s="4">
+    <row r="259" ht="20.05" customHeight="1">
+      <c r="A259" t="s" s="12">
+        <v>514</v>
+      </c>
+      <c r="B259" t="s" s="12">
         <v>515</v>
       </c>
-      <c r="B259" t="s" s="4">
-        <v>516</v>
-      </c>
-      <c r="C259" t="s" s="8">
-        <v>10</v>
+      <c r="C259" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D259" s="9">
-        <v>0.71875</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" ht="20.7" customHeight="1">
-      <c r="A260" t="s" s="4">
+    <row r="260" ht="20.05" customHeight="1">
+      <c r="A260" t="s" s="12">
+        <v>516</v>
+      </c>
+      <c r="B260" t="s" s="12">
         <v>517</v>
       </c>
-      <c r="B260" t="s" s="4">
-        <v>518</v>
-      </c>
-      <c r="C260" t="s" s="8">
-        <v>10</v>
+      <c r="C260" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D260" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E260" s="9"/>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="E260" s="9">
+        <v>0.5106382978723401</v>
+      </c>
       <c r="F260" s="9"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" ht="20.35" customHeight="1">
-      <c r="A261" t="s" s="11">
+    <row r="261" ht="20.05" customHeight="1">
+      <c r="A261" t="s" s="12">
+        <v>518</v>
+      </c>
+      <c r="B261" t="s" s="12">
         <v>519</v>
       </c>
-      <c r="B261" t="s" s="11">
-        <v>520</v>
-      </c>
       <c r="C261" t="s" s="12">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D261" s="9">
-        <v>0.692307692307692</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -8228,34 +8421,36 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="12">
+        <v>520</v>
+      </c>
+      <c r="B262" t="s" s="12">
         <v>521</v>
       </c>
-      <c r="B262" t="s" s="12">
-        <v>522</v>
-      </c>
       <c r="C262" t="s" s="12">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D262" s="9">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="E262" s="9"/>
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E262" s="9">
+        <v>0.25531914893617</v>
+      </c>
       <c r="F262" s="9"/>
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="12">
+        <v>522</v>
+      </c>
+      <c r="B263" t="s" s="12">
         <v>523</v>
       </c>
-      <c r="B263" t="s" s="12">
-        <v>524</v>
-      </c>
       <c r="C263" t="s" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D263" s="9">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E263" s="9">
         <v>0.659574468085106</v>
@@ -8266,90 +8461,96 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="12">
+        <v>524</v>
+      </c>
+      <c r="B264" t="s" s="12">
         <v>525</v>
-      </c>
-      <c r="B264" t="s" s="12">
-        <v>526</v>
       </c>
       <c r="C264" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D264" s="9">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="E264" s="9"/>
+        <v>0.179487179487179</v>
+      </c>
+      <c r="E264" s="9">
+        <v>0.765957446808511</v>
+      </c>
       <c r="F264" s="9"/>
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" ht="20.05" customHeight="1">
-      <c r="A265" t="s" s="12">
+    <row r="265" ht="20.35" customHeight="1">
+      <c r="A265" t="s" s="13">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s" s="13">
         <v>527</v>
       </c>
-      <c r="B265" t="s" s="12">
-        <v>528</v>
-      </c>
       <c r="C265" t="s" s="12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D265" s="9">
-        <v>0</v>
-      </c>
-      <c r="E265" s="9"/>
+        <v>0.78125</v>
+      </c>
+      <c r="E265" s="9">
+        <v>0.369565217391304</v>
+      </c>
       <c r="F265" s="9"/>
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" ht="20.05" customHeight="1">
-      <c r="A266" t="s" s="12">
+    <row r="266" ht="20.7" customHeight="1">
+      <c r="A266" t="s" s="4">
+        <v>528</v>
+      </c>
+      <c r="B266" t="s" s="4">
         <v>529</v>
       </c>
-      <c r="B266" t="s" s="12">
-        <v>530</v>
-      </c>
-      <c r="C266" t="s" s="12">
-        <v>20</v>
+      <c r="C266" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D266" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E266" s="9"/>
+        <v>0.71875</v>
+      </c>
+      <c r="E266" s="9">
+        <v>0.478260869565217</v>
+      </c>
       <c r="F266" s="9"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" ht="20.05" customHeight="1">
-      <c r="A267" t="s" s="12">
+    <row r="267" ht="20.7" customHeight="1">
+      <c r="A267" t="s" s="4">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s" s="4">
         <v>531</v>
       </c>
-      <c r="B267" t="s" s="12">
-        <v>532</v>
-      </c>
-      <c r="C267" t="s" s="12">
-        <v>47</v>
+      <c r="C267" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D267" s="9">
-        <v>0.897435897435897</v>
+        <v>0.75</v>
       </c>
       <c r="E267" s="9">
-        <v>0.787234042553191</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" ht="20.05" customHeight="1">
-      <c r="A268" t="s" s="12">
+    <row r="268" ht="20.35" customHeight="1">
+      <c r="A268" t="s" s="11">
+        <v>532</v>
+      </c>
+      <c r="B268" t="s" s="11">
         <v>533</v>
       </c>
-      <c r="B268" t="s" s="12">
-        <v>534</v>
-      </c>
       <c r="C268" t="s" s="12">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D268" s="9">
-        <v>0.7692307692307691</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -8358,19 +8559,19 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="12">
+        <v>534</v>
+      </c>
+      <c r="B269" t="s" s="12">
         <v>535</v>
       </c>
-      <c r="B269" t="s" s="12">
-        <v>536</v>
-      </c>
       <c r="C269" t="s" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D269" s="9">
-        <v>0.461538461538462</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E269" s="9">
-        <v>0.148936170212766</v>
+        <v>0.25531914893617</v>
       </c>
       <c r="F269" s="9"/>
       <c r="G269" s="10"/>
@@ -8378,54 +8579,54 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="12">
+        <v>536</v>
+      </c>
+      <c r="B270" t="s" s="12">
         <v>537</v>
       </c>
-      <c r="B270" t="s" s="12">
-        <v>538</v>
-      </c>
       <c r="C270" t="s" s="12">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D270" s="9">
-        <v>0</v>
-      </c>
-      <c r="E270" s="9"/>
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E270" s="9">
+        <v>0.659574468085106</v>
+      </c>
       <c r="F270" s="9"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="12">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s" s="12">
         <v>539</v>
-      </c>
-      <c r="B271" t="s" s="12">
-        <v>540</v>
       </c>
       <c r="C271" t="s" s="12">
         <v>47</v>
       </c>
       <c r="D271" s="9">
-        <v>0.7435897435897439</v>
-      </c>
-      <c r="E271" s="9">
-        <v>0.872340425531915</v>
-      </c>
+        <v>0.564102564102564</v>
+      </c>
+      <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="12">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s" s="12">
         <v>541</v>
-      </c>
-      <c r="B272" t="s" s="12">
-        <v>542</v>
       </c>
       <c r="C272" t="s" s="12">
         <v>29</v>
       </c>
       <c r="D272" s="9">
-        <v>0.641025641025641</v>
+        <v>0</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
@@ -8434,73 +8635,77 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="12">
+        <v>542</v>
+      </c>
+      <c r="B273" t="s" s="12">
         <v>543</v>
       </c>
-      <c r="B273" t="s" s="12">
-        <v>544</v>
-      </c>
       <c r="C273" t="s" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D273" s="9">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" ht="20.35" customHeight="1">
-      <c r="A274" t="s" s="13">
+    <row r="274" ht="20.05" customHeight="1">
+      <c r="A274" t="s" s="12">
+        <v>544</v>
+      </c>
+      <c r="B274" t="s" s="12">
         <v>545</v>
       </c>
-      <c r="B274" t="s" s="13">
-        <v>546</v>
-      </c>
       <c r="C274" t="s" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D274" s="9">
-        <v>0</v>
-      </c>
-      <c r="E274" s="9"/>
+        <v>0.897435897435897</v>
+      </c>
+      <c r="E274" s="9">
+        <v>0.787234042553191</v>
+      </c>
       <c r="F274" s="9"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" ht="20.7" customHeight="1">
-      <c r="A275" t="s" s="4">
+    <row r="275" ht="20.05" customHeight="1">
+      <c r="A275" t="s" s="12">
+        <v>546</v>
+      </c>
+      <c r="B275" t="s" s="12">
         <v>547</v>
       </c>
-      <c r="B275" t="s" s="4">
-        <v>548</v>
-      </c>
-      <c r="C275" t="s" s="8">
-        <v>10</v>
+      <c r="C275" t="s" s="12">
+        <v>47</v>
       </c>
       <c r="D275" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="E275" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E275" s="9">
+        <v>0.361702127659574</v>
+      </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" ht="20.35" customHeight="1">
-      <c r="A27